--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -10,12 +10,12 @@
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,6 +151,49 @@
   </si>
   <si>
     <t>修改版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>预投排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是预投机器则在生产日期上显示预投两个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于百度的搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当订单从销售进到排产的时候，需要在出AM和Y型机以外的机型上追加一个字母Z，如S0.5A变为S0.5AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个需要设计一个算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -336,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -385,9 +428,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -698,7 +738,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -787,7 +829,7 @@
       <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="14"/>
@@ -814,7 +856,7 @@
       <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="19" t="s">
         <v>29</v>
       </c>
       <c r="I7" s="14"/>
@@ -844,7 +886,9 @@
       <c r="H8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="J8" s="16"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
@@ -852,22 +896,34 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
       <c r="D9" s="18">
         <v>2</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="J9" s="14"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="17"/>
+      <c r="M9" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C10" s="18">
@@ -876,32 +932,56 @@
       <c r="D10" s="18">
         <v>2</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="17"/>
-    </row>
-    <row r="11" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M10" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19" ht="57" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
         <v>6</v>
       </c>
       <c r="D11" s="18">
         <v>2</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="J11" s="14"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="17"/>
+      <c r="M11" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
@@ -914,7 +994,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="15"/>
       <c r="H12" s="19"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
@@ -931,7 +1011,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="15"/>
       <c r="H13" s="19"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -948,7 +1028,7 @@
       <c r="F14" s="14"/>
       <c r="G14" s="15"/>
       <c r="H14" s="19"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="15"/>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
@@ -965,7 +1045,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="15"/>
       <c r="H15" s="19"/>
-      <c r="I15" s="14"/>
+      <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -982,7 +1062,7 @@
       <c r="F16" s="14"/>
       <c r="G16" s="15"/>
       <c r="H16" s="19"/>
-      <c r="I16" s="14"/>
+      <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -999,7 +1079,7 @@
       <c r="F17" s="14"/>
       <c r="G17" s="15"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="14"/>
+      <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1016,7 +1096,7 @@
       <c r="F18" s="14"/>
       <c r="G18" s="15"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="14"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1033,7 +1113,7 @@
       <c r="F19" s="14"/>
       <c r="G19" s="15"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="14"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1050,7 +1130,7 @@
       <c r="F20" s="14"/>
       <c r="G20" s="15"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="14"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
@@ -1067,7 +1147,7 @@
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="14"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
@@ -1084,7 +1164,7 @@
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="14"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
@@ -1101,7 +1181,7 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="14"/>
+      <c r="I23" s="15"/>
       <c r="J23" s="14"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
@@ -1118,7 +1198,7 @@
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="14"/>
+      <c r="I24" s="15"/>
       <c r="J24" s="14"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
@@ -1135,7 +1215,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="14"/>
+      <c r="I25" s="15"/>
       <c r="J25" s="14"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
@@ -1152,7 +1232,7 @@
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="14"/>
+      <c r="I26" s="15"/>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
@@ -1169,7 +1249,7 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="14"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="14"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
@@ -1186,7 +1266,7 @@
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="14"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="14"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
@@ -1203,7 +1283,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="14"/>
+      <c r="I29" s="15"/>
       <c r="J29" s="14"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
@@ -1220,7 +1300,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="14"/>
+      <c r="I30" s="15"/>
       <c r="J30" s="14"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
@@ -1237,7 +1317,7 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="14"/>
+      <c r="I31" s="15"/>
       <c r="J31" s="14"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
@@ -1254,7 +1334,7 @@
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="14"/>
+      <c r="I32" s="15"/>
       <c r="J32" s="14"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
@@ -1271,7 +1351,7 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="14"/>
+      <c r="I33" s="15"/>
       <c r="J33" s="14"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
@@ -1288,7 +1368,7 @@
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="14"/>
+      <c r="I34" s="15"/>
       <c r="J34" s="14"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
@@ -1305,7 +1385,7 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="14"/>
+      <c r="I35" s="15"/>
       <c r="J35" s="14"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
@@ -1322,7 +1402,7 @@
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="14"/>
+      <c r="I36" s="15"/>
       <c r="J36" s="14"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
@@ -1339,7 +1419,7 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="14"/>
+      <c r="I37" s="15"/>
       <c r="J37" s="14"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
@@ -1356,7 +1436,7 @@
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="14"/>
+      <c r="I38" s="15"/>
       <c r="J38" s="14"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
@@ -1373,7 +1453,7 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="14"/>
+      <c r="I39" s="15"/>
       <c r="J39" s="14"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
@@ -1390,7 +1470,7 @@
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="14"/>
+      <c r="I40" s="15"/>
       <c r="J40" s="14"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
@@ -1407,7 +1487,7 @@
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="14"/>
+      <c r="I41" s="15"/>
       <c r="J41" s="14"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
@@ -1424,7 +1504,7 @@
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="15"/>
       <c r="J42" s="14"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
@@ -1441,7 +1521,7 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="15"/>
       <c r="J43" s="14"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
@@ -1458,7 +1538,7 @@
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="15"/>
       <c r="J44" s="14"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
@@ -1475,7 +1555,7 @@
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="14"/>
+      <c r="I45" s="15"/>
       <c r="J45" s="14"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
@@ -1492,7 +1572,7 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="14"/>
+      <c r="I46" s="15"/>
       <c r="J46" s="14"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
@@ -1509,7 +1589,7 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="14"/>
+      <c r="I47" s="15"/>
       <c r="J47" s="14"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
@@ -1526,7 +1606,7 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="14"/>
+      <c r="I48" s="15"/>
       <c r="J48" s="14"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
@@ -1543,7 +1623,7 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="14"/>
+      <c r="I49" s="15"/>
       <c r="J49" s="14"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
@@ -1560,7 +1640,7 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="14"/>
+      <c r="I50" s="15"/>
       <c r="J50" s="14"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
@@ -1577,7 +1657,7 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="14"/>
+      <c r="I51" s="15"/>
       <c r="J51" s="14"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
@@ -1594,7 +1674,7 @@
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="14"/>
+      <c r="I52" s="15"/>
       <c r="J52" s="14"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
@@ -1611,7 +1691,7 @@
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="14"/>
+      <c r="I53" s="15"/>
       <c r="J53" s="14"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
@@ -1628,7 +1708,7 @@
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="14"/>
+      <c r="I54" s="15"/>
       <c r="J54" s="14"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
@@ -1645,7 +1725,7 @@
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="14"/>
+      <c r="I55" s="15"/>
       <c r="J55" s="14"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
@@ -1662,7 +1742,7 @@
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="14"/>
+      <c r="I56" s="15"/>
       <c r="J56" s="14"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
@@ -1679,7 +1759,7 @@
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="14"/>
+      <c r="I57" s="15"/>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
@@ -1696,7 +1776,7 @@
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="14"/>
+      <c r="I58" s="15"/>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
@@ -1713,7 +1793,7 @@
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="14"/>
+      <c r="I59" s="15"/>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
@@ -1730,7 +1810,7 @@
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="14"/>
+      <c r="I60" s="15"/>
       <c r="J60" s="14"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
@@ -1747,7 +1827,7 @@
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="14"/>
+      <c r="I61" s="15"/>
       <c r="J61" s="14"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
@@ -1764,7 +1844,7 @@
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="14"/>
+      <c r="I62" s="15"/>
       <c r="J62" s="14"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
@@ -1781,7 +1861,7 @@
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="14"/>
+      <c r="I63" s="15"/>
       <c r="J63" s="14"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
@@ -1798,7 +1878,7 @@
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="14"/>
+      <c r="I64" s="15"/>
       <c r="J64" s="14"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
@@ -1815,7 +1895,7 @@
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="14"/>
+      <c r="I65" s="15"/>
       <c r="J65" s="14"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
@@ -1832,7 +1912,7 @@
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="14"/>
+      <c r="I66" s="15"/>
       <c r="J66" s="14"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
@@ -1849,7 +1929,7 @@
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="14"/>
+      <c r="I67" s="15"/>
       <c r="J67" s="14"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
@@ -1866,7 +1946,7 @@
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="14"/>
+      <c r="I68" s="15"/>
       <c r="J68" s="14"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
@@ -1883,7 +1963,7 @@
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="14"/>
+      <c r="I69" s="15"/>
       <c r="J69" s="14"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
@@ -1900,7 +1980,7 @@
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="14"/>
+      <c r="I70" s="15"/>
       <c r="J70" s="14"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
@@ -1917,7 +1997,7 @@
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="14"/>
+      <c r="I71" s="15"/>
       <c r="J71" s="14"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
@@ -1934,7 +2014,7 @@
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="14"/>
+      <c r="I72" s="15"/>
       <c r="J72" s="14"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
@@ -1951,7 +2031,7 @@
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="14"/>
+      <c r="I73" s="15"/>
       <c r="J73" s="14"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
@@ -1968,7 +2048,7 @@
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="14"/>
+      <c r="I74" s="15"/>
       <c r="J74" s="14"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
@@ -1985,7 +2065,7 @@
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="14"/>
+      <c r="I75" s="15"/>
       <c r="J75" s="14"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
@@ -2002,7 +2082,7 @@
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="14"/>
+      <c r="I76" s="15"/>
       <c r="J76" s="14"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
@@ -2019,7 +2099,7 @@
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="14"/>
+      <c r="I77" s="15"/>
       <c r="J77" s="14"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
@@ -2036,7 +2116,7 @@
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="14"/>
+      <c r="I78" s="15"/>
       <c r="J78" s="14"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
@@ -2053,7 +2133,7 @@
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="14"/>
+      <c r="I79" s="15"/>
       <c r="J79" s="14"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
@@ -2070,7 +2150,7 @@
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="14"/>
+      <c r="I80" s="15"/>
       <c r="J80" s="14"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
@@ -2087,7 +2167,7 @@
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="14"/>
+      <c r="I81" s="15"/>
       <c r="J81" s="14"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
@@ -2104,7 +2184,7 @@
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="14"/>
+      <c r="I82" s="15"/>
       <c r="J82" s="14"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
@@ -2121,7 +2201,7 @@
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="14"/>
+      <c r="I83" s="15"/>
       <c r="J83" s="14"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
@@ -2138,7 +2218,7 @@
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="14"/>
+      <c r="I84" s="15"/>
       <c r="J84" s="14"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
@@ -2155,7 +2235,7 @@
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="14"/>
+      <c r="I85" s="15"/>
       <c r="J85" s="14"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
@@ -2172,7 +2252,7 @@
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="14"/>
+      <c r="I86" s="15"/>
       <c r="J86" s="14"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
@@ -2189,7 +2269,7 @@
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="14"/>
+      <c r="I87" s="15"/>
       <c r="J87" s="14"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
@@ -2206,7 +2286,7 @@
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="14"/>
+      <c r="I88" s="15"/>
       <c r="J88" s="14"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
@@ -2223,7 +2303,7 @@
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="14"/>
+      <c r="I89" s="15"/>
       <c r="J89" s="14"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
@@ -2240,7 +2320,7 @@
       <c r="F90" s="14"/>
       <c r="G90" s="15"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="14"/>
+      <c r="I90" s="15"/>
       <c r="J90" s="14"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
@@ -2257,7 +2337,7 @@
       <c r="F91" s="14"/>
       <c r="G91" s="15"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="14"/>
+      <c r="I91" s="15"/>
       <c r="J91" s="14"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
@@ -2274,7 +2354,7 @@
       <c r="F92" s="14"/>
       <c r="G92" s="15"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="14"/>
+      <c r="I92" s="15"/>
       <c r="J92" s="14"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
@@ -2291,7 +2371,7 @@
       <c r="F93" s="14"/>
       <c r="G93" s="15"/>
       <c r="H93" s="19"/>
-      <c r="I93" s="14"/>
+      <c r="I93" s="15"/>
       <c r="J93" s="14"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
@@ -2308,7 +2388,7 @@
       <c r="F94" s="14"/>
       <c r="G94" s="15"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="14"/>
+      <c r="I94" s="15"/>
       <c r="J94" s="14"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
@@ -2325,7 +2405,7 @@
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="14"/>
+      <c r="I95" s="15"/>
       <c r="J95" s="14"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
@@ -2342,7 +2422,7 @@
       <c r="F96" s="14"/>
       <c r="G96" s="15"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="15"/>
       <c r="J96" s="14"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
@@ -2359,7 +2439,7 @@
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="14"/>
+      <c r="I97" s="15"/>
       <c r="J97" s="14"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
@@ -2376,7 +2456,7 @@
       <c r="F98" s="14"/>
       <c r="G98" s="15"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="14"/>
+      <c r="I98" s="15"/>
       <c r="J98" s="14"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
@@ -2393,7 +2473,7 @@
       <c r="F99" s="14"/>
       <c r="G99" s="15"/>
       <c r="H99" s="19"/>
-      <c r="I99" s="14"/>
+      <c r="I99" s="15"/>
       <c r="J99" s="14"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
@@ -2410,7 +2490,7 @@
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="14"/>
+      <c r="I100" s="15"/>
       <c r="J100" s="14"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
@@ -2427,7 +2507,7 @@
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="14"/>
+      <c r="I101" s="15"/>
       <c r="J101" s="14"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
@@ -2444,7 +2524,7 @@
       <c r="F102" s="14"/>
       <c r="G102" s="15"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="14"/>
+      <c r="I102" s="15"/>
       <c r="J102" s="14"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
@@ -2461,7 +2541,7 @@
       <c r="F103" s="14"/>
       <c r="G103" s="15"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="14"/>
+      <c r="I103" s="15"/>
       <c r="J103" s="14"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
@@ -2478,7 +2558,7 @@
       <c r="F104" s="14"/>
       <c r="G104" s="15"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="14"/>
+      <c r="I104" s="15"/>
       <c r="J104" s="14"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
@@ -2495,7 +2575,7 @@
       <c r="F105" s="14"/>
       <c r="G105" s="15"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="14"/>
+      <c r="I105" s="15"/>
       <c r="J105" s="14"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
@@ -2512,7 +2592,7 @@
       <c r="F106" s="14"/>
       <c r="G106" s="15"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="14"/>
+      <c r="I106" s="15"/>
       <c r="J106" s="14"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
@@ -2529,7 +2609,7 @@
       <c r="F107" s="14"/>
       <c r="G107" s="15"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="14"/>
+      <c r="I107" s="15"/>
       <c r="J107" s="14"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
@@ -2546,7 +2626,7 @@
       <c r="F108" s="14"/>
       <c r="G108" s="15"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="14"/>
+      <c r="I108" s="15"/>
       <c r="J108" s="14"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
@@ -2563,7 +2643,7 @@
       <c r="F109" s="14"/>
       <c r="G109" s="15"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="14"/>
+      <c r="I109" s="15"/>
       <c r="J109" s="14"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
@@ -2580,7 +2660,7 @@
       <c r="F110" s="14"/>
       <c r="G110" s="15"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="14"/>
+      <c r="I110" s="15"/>
       <c r="J110" s="14"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
@@ -2597,7 +2677,7 @@
       <c r="F111" s="14"/>
       <c r="G111" s="15"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="14"/>
+      <c r="I111" s="15"/>
       <c r="J111" s="14"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
@@ -2614,7 +2694,7 @@
       <c r="F112" s="14"/>
       <c r="G112" s="15"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="14"/>
+      <c r="I112" s="15"/>
       <c r="J112" s="14"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
@@ -2631,7 +2711,7 @@
       <c r="F113" s="14"/>
       <c r="G113" s="15"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="14"/>
+      <c r="I113" s="15"/>
       <c r="J113" s="14"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
@@ -2648,7 +2728,7 @@
       <c r="F114" s="14"/>
       <c r="G114" s="15"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="14"/>
+      <c r="I114" s="15"/>
       <c r="J114" s="14"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
@@ -2665,7 +2745,7 @@
       <c r="F115" s="14"/>
       <c r="G115" s="15"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="14"/>
+      <c r="I115" s="15"/>
       <c r="J115" s="14"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
@@ -2682,7 +2762,7 @@
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="14"/>
+      <c r="I116" s="15"/>
       <c r="J116" s="14"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
@@ -2699,7 +2779,7 @@
       <c r="F117" s="14"/>
       <c r="G117" s="15"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="14"/>
+      <c r="I117" s="15"/>
       <c r="J117" s="14"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -2716,7 +2796,7 @@
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="14"/>
+      <c r="I118" s="15"/>
       <c r="J118" s="14"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
@@ -2731,7 +2811,7 @@
       <c r="F119" s="14"/>
       <c r="G119" s="15"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="14"/>
+      <c r="I119" s="15"/>
       <c r="J119" s="14"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
@@ -2746,7 +2826,7 @@
       <c r="F120" s="14"/>
       <c r="G120" s="15"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="14"/>
+      <c r="I120" s="15"/>
       <c r="J120" s="14"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
@@ -2761,7 +2841,7 @@
       <c r="F121" s="14"/>
       <c r="G121" s="15"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="14"/>
+      <c r="I121" s="15"/>
       <c r="J121" s="14"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
@@ -2776,7 +2856,7 @@
       <c r="F122" s="14"/>
       <c r="G122" s="15"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="14"/>
+      <c r="I122" s="15"/>
       <c r="J122" s="14"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
@@ -2791,7 +2871,7 @@
       <c r="F123" s="14"/>
       <c r="G123" s="15"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="14"/>
+      <c r="I123" s="15"/>
       <c r="J123" s="14"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
@@ -2806,7 +2886,7 @@
       <c r="F124" s="14"/>
       <c r="G124" s="15"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="14"/>
+      <c r="I124" s="15"/>
       <c r="J124" s="14"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
@@ -2821,7 +2901,7 @@
       <c r="F125" s="14"/>
       <c r="G125" s="15"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="14"/>
+      <c r="I125" s="15"/>
       <c r="J125" s="14"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
@@ -2836,7 +2916,7 @@
       <c r="F126" s="14"/>
       <c r="G126" s="15"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="14"/>
+      <c r="I126" s="15"/>
       <c r="J126" s="14"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
@@ -2851,7 +2931,7 @@
       <c r="F127" s="14"/>
       <c r="G127" s="15"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="14"/>
+      <c r="I127" s="15"/>
       <c r="J127" s="14"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
@@ -2866,7 +2946,7 @@
       <c r="F128" s="14"/>
       <c r="G128" s="15"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="14"/>
+      <c r="I128" s="15"/>
       <c r="J128" s="14"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
@@ -2881,7 +2961,7 @@
       <c r="F129" s="14"/>
       <c r="G129" s="15"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="14"/>
+      <c r="I129" s="15"/>
       <c r="J129" s="14"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
@@ -2896,7 +2976,7 @@
       <c r="F130" s="14"/>
       <c r="G130" s="15"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="14"/>
+      <c r="I130" s="15"/>
       <c r="J130" s="14"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
@@ -2911,7 +2991,7 @@
       <c r="F131" s="14"/>
       <c r="G131" s="15"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="14"/>
+      <c r="I131" s="15"/>
       <c r="J131" s="14"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
@@ -2926,7 +3006,7 @@
       <c r="F132" s="14"/>
       <c r="G132" s="15"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="14"/>
+      <c r="I132" s="15"/>
       <c r="J132" s="14"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
@@ -2941,7 +3021,7 @@
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="14"/>
+      <c r="I133" s="15"/>
       <c r="J133" s="14"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
@@ -2956,7 +3036,7 @@
       <c r="F134" s="14"/>
       <c r="G134" s="15"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="14"/>
+      <c r="I134" s="15"/>
       <c r="J134" s="14"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
@@ -2971,7 +3051,7 @@
       <c r="F135" s="14"/>
       <c r="G135" s="15"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="14"/>
+      <c r="I135" s="15"/>
       <c r="J135" s="14"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
@@ -2986,7 +3066,7 @@
       <c r="F136" s="14"/>
       <c r="G136" s="15"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="14"/>
+      <c r="I136" s="15"/>
       <c r="J136" s="14"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
@@ -3001,7 +3081,7 @@
       <c r="F137" s="14"/>
       <c r="G137" s="15"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="14"/>
+      <c r="I137" s="15"/>
       <c r="J137" s="14"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
@@ -3016,7 +3096,7 @@
       <c r="F138" s="14"/>
       <c r="G138" s="15"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="14"/>
+      <c r="I138" s="15"/>
       <c r="J138" s="14"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
@@ -3031,7 +3111,7 @@
       <c r="F139" s="14"/>
       <c r="G139" s="15"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="14"/>
+      <c r="I139" s="15"/>
       <c r="J139" s="14"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
@@ -3046,7 +3126,7 @@
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="14"/>
+      <c r="I140" s="15"/>
       <c r="J140" s="14"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
@@ -3061,7 +3141,7 @@
       <c r="F141" s="14"/>
       <c r="G141" s="15"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="14"/>
+      <c r="I141" s="15"/>
       <c r="J141" s="14"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
@@ -3076,7 +3156,7 @@
       <c r="F142" s="14"/>
       <c r="G142" s="15"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="14"/>
+      <c r="I142" s="15"/>
       <c r="J142" s="14"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
@@ -3091,7 +3171,7 @@
       <c r="F143" s="14"/>
       <c r="G143" s="15"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="14"/>
+      <c r="I143" s="15"/>
       <c r="J143" s="14"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
@@ -3106,7 +3186,7 @@
       <c r="F144" s="14"/>
       <c r="G144" s="15"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="14"/>
+      <c r="I144" s="15"/>
       <c r="J144" s="14"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
@@ -3121,7 +3201,7 @@
       <c r="F145" s="14"/>
       <c r="G145" s="15"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="14"/>
+      <c r="I145" s="15"/>
       <c r="J145" s="14"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
@@ -3136,7 +3216,7 @@
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="14"/>
+      <c r="I146" s="15"/>
       <c r="J146" s="14"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
@@ -3151,7 +3231,7 @@
       <c r="F147" s="14"/>
       <c r="G147" s="15"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="14"/>
+      <c r="I147" s="15"/>
       <c r="J147" s="14"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
@@ -3166,7 +3246,7 @@
       <c r="F148" s="14"/>
       <c r="G148" s="15"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="14"/>
+      <c r="I148" s="15"/>
       <c r="J148" s="14"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
@@ -3181,7 +3261,7 @@
       <c r="F149" s="14"/>
       <c r="G149" s="15"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="14"/>
+      <c r="I149" s="15"/>
       <c r="J149" s="14"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
@@ -3196,7 +3276,7 @@
       <c r="F150" s="14"/>
       <c r="G150" s="15"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="14"/>
+      <c r="I150" s="15"/>
       <c r="J150" s="14"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
@@ -3211,7 +3291,7 @@
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="14"/>
+      <c r="I151" s="15"/>
       <c r="J151" s="14"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
@@ -3226,7 +3306,7 @@
       <c r="F152" s="14"/>
       <c r="G152" s="15"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="14"/>
+      <c r="I152" s="15"/>
       <c r="J152" s="14"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
@@ -3241,7 +3321,7 @@
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="14"/>
+      <c r="I153" s="15"/>
       <c r="J153" s="14"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
@@ -3256,7 +3336,7 @@
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="14"/>
+      <c r="I154" s="15"/>
       <c r="J154" s="14"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
@@ -3271,7 +3351,7 @@
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="14"/>
+      <c r="I155" s="15"/>
       <c r="J155" s="14"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
@@ -3286,7 +3366,7 @@
       <c r="F156" s="14"/>
       <c r="G156" s="15"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="14"/>
+      <c r="I156" s="15"/>
       <c r="J156" s="14"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
@@ -3301,7 +3381,7 @@
       <c r="F157" s="14"/>
       <c r="G157" s="15"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="14"/>
+      <c r="I157" s="15"/>
       <c r="J157" s="14"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
@@ -3316,7 +3396,7 @@
       <c r="F158" s="14"/>
       <c r="G158" s="15"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="14"/>
+      <c r="I158" s="15"/>
       <c r="J158" s="14"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
@@ -3331,7 +3411,7 @@
       <c r="F159" s="14"/>
       <c r="G159" s="15"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="14"/>
+      <c r="I159" s="15"/>
       <c r="J159" s="14"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
@@ -3346,7 +3426,7 @@
       <c r="F160" s="14"/>
       <c r="G160" s="15"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="14"/>
+      <c r="I160" s="15"/>
       <c r="J160" s="14"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
@@ -3361,7 +3441,7 @@
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="14"/>
+      <c r="I161" s="15"/>
       <c r="J161" s="14"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
@@ -3376,7 +3456,7 @@
       <c r="F162" s="14"/>
       <c r="G162" s="15"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="14"/>
+      <c r="I162" s="15"/>
       <c r="J162" s="14"/>
       <c r="K162" s="5"/>
       <c r="L162" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,6 +194,40 @@
   </si>
   <si>
     <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>审核筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -738,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S162"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -983,39 +1017,59 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:19" ht="57" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
         <v>7</v>
       </c>
       <c r="D12" s="18">
         <v>2</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="19"/>
+      <c r="E12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>49</v>
+      </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="17"/>
-    </row>
-    <row r="13" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M12" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:19" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C13" s="18">
         <v>8</v>
       </c>
       <c r="D13" s="18">
         <v>2</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="19"/>
+      <c r="E13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="I13" s="15"/>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C14" s="18">
@@ -3466,16 +3520,16 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E9:E161">
-      <formula1>"销售模块,计划模块,生产模块,代办事项"</formula1>
+      <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M161">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
+      <formula1>"销售模块,计划模块,生产模块"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F162">
       <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
-      <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3487,7 +3541,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3557,21 +3613,33 @@
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C7" s="18">
         <v>2</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="D7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>55</v>
+      </c>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>
-      <c r="K7" s="17"/>
+      <c r="K7" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,38 +165,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>类似于百度的搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当订单从销售进到排产的时候，需要在出AM和Y型机以外的机型上追加一个字母Z，如S0.5A变为S0.5AZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个需要设计一个算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>审核筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要保存上一次的筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果是预投机器则在生产日期上显示预投两个字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>类似于百度的搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当订单从销售进到排产的时候，需要在出AM和Y型机以外的机型上追加一个字母Z，如S0.5A变为S0.5AZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个需要设计一个算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
-  </si>
-  <si>
-    <t>审核筛选</t>
+    <t>复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的背景色需要与正常的色差大一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,10 +271,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共通</t>
-  </si>
-  <si>
-    <t>用户权限</t>
+    <t>人员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晓超，无审核权，主要使用导出功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -219,15 +283,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>订单计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
+    <t>后续考虑增加操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出末班的投产日期，需要自动填写成系统中的生产日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S162"/>
+  <dimension ref="B2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,7 +868,7 @@
     <row r="4" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:19" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -829,13 +889,13 @@
         <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -858,7 +918,7 @@
         <v>14</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G6" s="15" t="s">
         <v>18</v>
@@ -885,13 +945,13 @@
         <v>26</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
@@ -918,10 +978,10 @@
         <v>16</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="5"/>
@@ -944,13 +1004,13 @@
         <v>22</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="5"/>
@@ -970,16 +1030,16 @@
         <v>20</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
@@ -999,16 +1059,16 @@
         <v>20</v>
       </c>
       <c r="F11" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G11" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="H11" s="19" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="5"/>
@@ -1025,16 +1085,16 @@
         <v>2</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F12" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
@@ -1052,18 +1112,20 @@
         <v>2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="15"/>
+        <v>68</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
@@ -1078,15 +1140,25 @@
       <c r="D14" s="18">
         <v>2</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="19"/>
+      <c r="E14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>52</v>
+      </c>
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
-      <c r="M14" s="17"/>
+      <c r="M14" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="15" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C15" s="18">
@@ -1095,15 +1167,25 @@
       <c r="D15" s="18">
         <v>2</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="19"/>
+      <c r="E15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>54</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
-      <c r="M15" s="17"/>
+      <c r="M15" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="16" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C16" s="18">
@@ -1112,15 +1194,25 @@
       <c r="D16" s="18">
         <v>2</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="19"/>
+      <c r="E16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>56</v>
+      </c>
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
-      <c r="M16" s="17"/>
+      <c r="M16" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="17" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C17" s="18">
@@ -1129,70 +1221,110 @@
       <c r="D17" s="18">
         <v>2</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="19"/>
+      <c r="E17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
-      <c r="M17" s="17"/>
+      <c r="M17" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C18" s="18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="18">
         <v>2</v>
       </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="19"/>
+      <c r="E18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
-      <c r="M18" s="17"/>
-    </row>
-    <row r="19" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M18" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D19" s="18">
         <v>2</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="19"/>
+      <c r="E19" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>70</v>
+      </c>
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
-      <c r="M19" s="17"/>
+      <c r="M19" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
+        <v>16</v>
+      </c>
+      <c r="D20" s="18">
+        <v>2</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="19"/>
+      <c r="G20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>67</v>
+      </c>
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
-      <c r="M20" s="17"/>
+      <c r="M20" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C21" s="18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D21" s="18">
         <v>2</v>
@@ -1209,7 +1341,7 @@
     </row>
     <row r="22" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C22" s="18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -1226,7 +1358,7 @@
     </row>
     <row r="23" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -1243,7 +1375,7 @@
     </row>
     <row r="24" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
@@ -1260,7 +1392,7 @@
     </row>
     <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
@@ -1277,7 +1409,7 @@
     </row>
     <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="18">
         <v>2</v>
@@ -1294,7 +1426,7 @@
     </row>
     <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="18">
         <v>2</v>
@@ -1311,7 +1443,7 @@
     </row>
     <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="18">
         <v>2</v>
@@ -1328,7 +1460,7 @@
     </row>
     <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="18">
         <v>2</v>
@@ -1345,7 +1477,7 @@
     </row>
     <row r="30" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="18">
         <v>2</v>
@@ -1362,7 +1494,7 @@
     </row>
     <row r="31" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
@@ -1379,7 +1511,7 @@
     </row>
     <row r="32" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="18">
         <v>2</v>
@@ -1396,7 +1528,7 @@
     </row>
     <row r="33" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="18">
         <v>2</v>
@@ -1413,7 +1545,7 @@
     </row>
     <row r="34" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="18">
         <v>2</v>
@@ -1430,7 +1562,7 @@
     </row>
     <row r="35" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -1447,7 +1579,7 @@
     </row>
     <row r="36" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="18">
         <v>2</v>
@@ -1464,7 +1596,7 @@
     </row>
     <row r="37" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
@@ -1481,7 +1613,7 @@
     </row>
     <row r="38" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="18">
         <v>2</v>
@@ -1498,7 +1630,7 @@
     </row>
     <row r="39" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="18">
         <v>2</v>
@@ -1515,7 +1647,7 @@
     </row>
     <row r="40" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="18">
         <v>2</v>
@@ -1532,7 +1664,7 @@
     </row>
     <row r="41" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="18">
         <v>2</v>
@@ -1549,7 +1681,7 @@
     </row>
     <row r="42" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D42" s="18">
         <v>2</v>
@@ -1566,7 +1698,7 @@
     </row>
     <row r="43" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C43" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" s="18">
         <v>2</v>
@@ -1583,7 +1715,7 @@
     </row>
     <row r="44" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C44" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44" s="18">
         <v>2</v>
@@ -1600,7 +1732,7 @@
     </row>
     <row r="45" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C45" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D45" s="18">
         <v>2</v>
@@ -1617,7 +1749,7 @@
     </row>
     <row r="46" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C46" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" s="18">
         <v>2</v>
@@ -1634,7 +1766,7 @@
     </row>
     <row r="47" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C47" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D47" s="18">
         <v>2</v>
@@ -1651,7 +1783,7 @@
     </row>
     <row r="48" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D48" s="18">
         <v>2</v>
@@ -1668,7 +1800,7 @@
     </row>
     <row r="49" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C49" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D49" s="18">
         <v>2</v>
@@ -1685,7 +1817,7 @@
     </row>
     <row r="50" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C50" s="18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D50" s="18">
         <v>2</v>
@@ -1702,7 +1834,7 @@
     </row>
     <row r="51" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D51" s="18">
         <v>2</v>
@@ -1719,7 +1851,7 @@
     </row>
     <row r="52" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C52" s="18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D52" s="18">
         <v>2</v>
@@ -1736,7 +1868,7 @@
     </row>
     <row r="53" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C53" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D53" s="18">
         <v>2</v>
@@ -1753,7 +1885,7 @@
     </row>
     <row r="54" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="18">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D54" s="18">
         <v>2</v>
@@ -1770,7 +1902,7 @@
     </row>
     <row r="55" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C55" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D55" s="18">
         <v>2</v>
@@ -1787,7 +1919,7 @@
     </row>
     <row r="56" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C56" s="18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D56" s="18">
         <v>2</v>
@@ -1804,7 +1936,7 @@
     </row>
     <row r="57" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="18">
         <v>2</v>
@@ -1821,7 +1953,7 @@
     </row>
     <row r="58" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C58" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D58" s="18">
         <v>2</v>
@@ -1838,7 +1970,7 @@
     </row>
     <row r="59" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C59" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D59" s="18">
         <v>2</v>
@@ -1855,7 +1987,7 @@
     </row>
     <row r="60" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D60" s="18">
         <v>2</v>
@@ -1872,7 +2004,7 @@
     </row>
     <row r="61" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C61" s="18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D61" s="18">
         <v>2</v>
@@ -1889,7 +2021,7 @@
     </row>
     <row r="62" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C62" s="18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D62" s="18">
         <v>2</v>
@@ -1906,7 +2038,7 @@
     </row>
     <row r="63" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D63" s="18">
         <v>2</v>
@@ -1923,7 +2055,7 @@
     </row>
     <row r="64" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C64" s="18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D64" s="18">
         <v>2</v>
@@ -1940,7 +2072,7 @@
     </row>
     <row r="65" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C65" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D65" s="18">
         <v>2</v>
@@ -1957,7 +2089,7 @@
     </row>
     <row r="66" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D66" s="18">
         <v>2</v>
@@ -1974,7 +2106,7 @@
     </row>
     <row r="67" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C67" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D67" s="18">
         <v>2</v>
@@ -1991,7 +2123,7 @@
     </row>
     <row r="68" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D68" s="18">
         <v>2</v>
@@ -2008,7 +2140,7 @@
     </row>
     <row r="69" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C69" s="18">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" s="18">
         <v>2</v>
@@ -2025,7 +2157,7 @@
     </row>
     <row r="70" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C70" s="18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D70" s="18">
         <v>2</v>
@@ -2042,7 +2174,7 @@
     </row>
     <row r="71" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="18">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D71" s="18">
         <v>2</v>
@@ -2059,7 +2191,7 @@
     </row>
     <row r="72" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C72" s="18">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D72" s="18">
         <v>2</v>
@@ -2076,7 +2208,7 @@
     </row>
     <row r="73" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C73" s="18">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D73" s="18">
         <v>2</v>
@@ -2093,7 +2225,7 @@
     </row>
     <row r="74" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D74" s="18">
         <v>2</v>
@@ -2110,7 +2242,7 @@
     </row>
     <row r="75" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C75" s="18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D75" s="18">
         <v>2</v>
@@ -2127,7 +2259,7 @@
     </row>
     <row r="76" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C76" s="18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D76" s="18">
         <v>2</v>
@@ -2144,7 +2276,7 @@
     </row>
     <row r="77" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="18">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D77" s="18">
         <v>2</v>
@@ -2161,7 +2293,7 @@
     </row>
     <row r="78" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C78" s="18">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D78" s="18">
         <v>2</v>
@@ -2178,7 +2310,7 @@
     </row>
     <row r="79" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C79" s="18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D79" s="18">
         <v>2</v>
@@ -2195,7 +2327,7 @@
     </row>
     <row r="80" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="18">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D80" s="18">
         <v>2</v>
@@ -2212,7 +2344,7 @@
     </row>
     <row r="81" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C81" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D81" s="18">
         <v>2</v>
@@ -2229,7 +2361,7 @@
     </row>
     <row r="82" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C82" s="18">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D82" s="18">
         <v>2</v>
@@ -2246,7 +2378,7 @@
     </row>
     <row r="83" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -2263,7 +2395,7 @@
     </row>
     <row r="84" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C84" s="18">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -2280,7 +2412,7 @@
     </row>
     <row r="85" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C85" s="18">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -2297,7 +2429,7 @@
     </row>
     <row r="86" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="18">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -2314,7 +2446,7 @@
     </row>
     <row r="87" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C87" s="18">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -2331,7 +2463,7 @@
     </row>
     <row r="88" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C88" s="18">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -2348,7 +2480,7 @@
     </row>
     <row r="89" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D89" s="18">
         <v>2</v>
@@ -2365,7 +2497,7 @@
     </row>
     <row r="90" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C90" s="18">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D90" s="18">
         <v>2</v>
@@ -2382,7 +2514,7 @@
     </row>
     <row r="91" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C91" s="18">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D91" s="18">
         <v>2</v>
@@ -2399,7 +2531,7 @@
     </row>
     <row r="92" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="18">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D92" s="18">
         <v>2</v>
@@ -2416,7 +2548,7 @@
     </row>
     <row r="93" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C93" s="18">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D93" s="18">
         <v>2</v>
@@ -2433,7 +2565,7 @@
     </row>
     <row r="94" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C94" s="18">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
@@ -2450,7 +2582,7 @@
     </row>
     <row r="95" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="18">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
@@ -2467,7 +2599,7 @@
     </row>
     <row r="96" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C96" s="18">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -2484,7 +2616,7 @@
     </row>
     <row r="97" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C97" s="18">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
@@ -2501,7 +2633,7 @@
     </row>
     <row r="98" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C98" s="18">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
@@ -2518,7 +2650,7 @@
     </row>
     <row r="99" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C99" s="18">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
@@ -2535,7 +2667,7 @@
     </row>
     <row r="100" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C100" s="18">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
@@ -2552,7 +2684,7 @@
     </row>
     <row r="101" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="18">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -2569,7 +2701,7 @@
     </row>
     <row r="102" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C102" s="18">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -2586,7 +2718,7 @@
     </row>
     <row r="103" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C103" s="18">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -2603,7 +2735,7 @@
     </row>
     <row r="104" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C104" s="18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
@@ -2620,7 +2752,7 @@
     </row>
     <row r="105" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C105" s="18">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -2637,7 +2769,7 @@
     </row>
     <row r="106" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C106" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D106" s="18">
         <v>2</v>
@@ -2654,7 +2786,7 @@
     </row>
     <row r="107" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="18">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D107" s="18">
         <v>2</v>
@@ -2671,7 +2803,7 @@
     </row>
     <row r="108" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C108" s="18">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D108" s="18">
         <v>2</v>
@@ -2688,7 +2820,7 @@
     </row>
     <row r="109" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C109" s="18">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D109" s="18">
         <v>2</v>
@@ -2705,7 +2837,7 @@
     </row>
     <row r="110" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="18">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D110" s="18">
         <v>2</v>
@@ -2722,7 +2854,7 @@
     </row>
     <row r="111" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C111" s="18">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -2739,7 +2871,7 @@
     </row>
     <row r="112" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C112" s="18">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -2756,7 +2888,7 @@
     </row>
     <row r="113" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="18">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D113" s="18">
         <v>2</v>
@@ -2773,7 +2905,7 @@
     </row>
     <row r="114" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C114" s="18">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -2790,7 +2922,7 @@
     </row>
     <row r="115" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C115" s="18">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -2807,7 +2939,7 @@
     </row>
     <row r="116" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="18">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -2824,7 +2956,7 @@
     </row>
     <row r="117" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C117" s="18">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -2841,11 +2973,9 @@
     </row>
     <row r="118" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C118" s="18">
-        <v>113</v>
-      </c>
-      <c r="D118" s="18">
-        <v>2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D118" s="18"/>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
@@ -2858,7 +2988,7 @@
     </row>
     <row r="119" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="18">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="14"/>
@@ -2873,7 +3003,7 @@
     </row>
     <row r="120" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C120" s="18">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="14"/>
@@ -2888,7 +3018,7 @@
     </row>
     <row r="121" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C121" s="18">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="14"/>
@@ -2903,7 +3033,7 @@
     </row>
     <row r="122" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="14"/>
@@ -2918,7 +3048,7 @@
     </row>
     <row r="123" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C123" s="18">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="14"/>
@@ -2933,7 +3063,7 @@
     </row>
     <row r="124" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C124" s="18">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="14"/>
@@ -2948,7 +3078,7 @@
     </row>
     <row r="125" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="18">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="14"/>
@@ -2963,7 +3093,7 @@
     </row>
     <row r="126" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C126" s="18">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="14"/>
@@ -2978,7 +3108,7 @@
     </row>
     <row r="127" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C127" s="18">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="14"/>
@@ -2993,7 +3123,7 @@
     </row>
     <row r="128" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="14"/>
@@ -3008,7 +3138,7 @@
     </row>
     <row r="129" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C129" s="18">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="14"/>
@@ -3023,7 +3153,7 @@
     </row>
     <row r="130" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C130" s="18">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="14"/>
@@ -3038,7 +3168,7 @@
     </row>
     <row r="131" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="18">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="14"/>
@@ -3053,7 +3183,7 @@
     </row>
     <row r="132" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C132" s="18">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="14"/>
@@ -3068,7 +3198,7 @@
     </row>
     <row r="133" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C133" s="18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="14"/>
@@ -3083,7 +3213,7 @@
     </row>
     <row r="134" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="14"/>
@@ -3098,7 +3228,7 @@
     </row>
     <row r="135" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C135" s="18">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="14"/>
@@ -3113,7 +3243,7 @@
     </row>
     <row r="136" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C136" s="18">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="14"/>
@@ -3128,7 +3258,7 @@
     </row>
     <row r="137" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="18">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="14"/>
@@ -3143,7 +3273,7 @@
     </row>
     <row r="138" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C138" s="18">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="14"/>
@@ -3158,7 +3288,7 @@
     </row>
     <row r="139" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C139" s="18">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="14"/>
@@ -3173,7 +3303,7 @@
     </row>
     <row r="140" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="18">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="14"/>
@@ -3188,7 +3318,7 @@
     </row>
     <row r="141" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C141" s="18">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="14"/>
@@ -3203,7 +3333,7 @@
     </row>
     <row r="142" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C142" s="18">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="14"/>
@@ -3218,7 +3348,7 @@
     </row>
     <row r="143" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="18">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="14"/>
@@ -3233,7 +3363,7 @@
     </row>
     <row r="144" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C144" s="18">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="14"/>
@@ -3248,7 +3378,7 @@
     </row>
     <row r="145" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C145" s="18">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="14"/>
@@ -3263,7 +3393,7 @@
     </row>
     <row r="146" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="18">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="14"/>
@@ -3278,7 +3408,7 @@
     </row>
     <row r="147" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C147" s="18">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="14"/>
@@ -3293,7 +3423,7 @@
     </row>
     <row r="148" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C148" s="18">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="14"/>
@@ -3308,7 +3438,7 @@
     </row>
     <row r="149" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="18">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="14"/>
@@ -3323,7 +3453,7 @@
     </row>
     <row r="150" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C150" s="18">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="14"/>
@@ -3338,7 +3468,7 @@
     </row>
     <row r="151" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C151" s="18">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="14"/>
@@ -3353,7 +3483,7 @@
     </row>
     <row r="152" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="18">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="14"/>
@@ -3368,7 +3498,7 @@
     </row>
     <row r="153" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C153" s="18">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="14"/>
@@ -3383,7 +3513,7 @@
     </row>
     <row r="154" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C154" s="18">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="14"/>
@@ -3398,7 +3528,7 @@
     </row>
     <row r="155" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="18">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="14"/>
@@ -3413,7 +3543,7 @@
     </row>
     <row r="156" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C156" s="18">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="14"/>
@@ -3428,7 +3558,7 @@
     </row>
     <row r="157" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C157" s="18">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="14"/>
@@ -3443,7 +3573,7 @@
     </row>
     <row r="158" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="18">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="14"/>
@@ -3458,7 +3588,7 @@
     </row>
     <row r="159" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C159" s="18">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="14"/>
@@ -3473,7 +3603,7 @@
     </row>
     <row r="160" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C160" s="18">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="14"/>
@@ -3488,7 +3618,7 @@
     </row>
     <row r="161" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="18">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="14"/>
@@ -3501,34 +3631,19 @@
       <c r="L161" s="5"/>
       <c r="M161" s="17"/>
     </row>
-    <row r="162" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C162" s="18">
-        <v>157</v>
-      </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="15"/>
-      <c r="H162" s="19"/>
-      <c r="I162" s="15"/>
-      <c r="J162" s="14"/>
-      <c r="K162" s="5"/>
-      <c r="L162" s="5"/>
-      <c r="M162" s="17"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E9:E161">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E9:E160">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M161">
-      <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F162">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M160">
+      <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F161">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3541,9 +3656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3582,10 +3695,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
@@ -3613,7 +3726,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
@@ -3627,13 +3740,13 @@
         <v>22</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -288,6 +288,34 @@
   </si>
   <si>
     <t>计划导出末班的投产日期，需要自动填写成系统中的生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术难度较大，需要考虑性能影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调查</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -929,9 +957,14 @@
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="L6" s="5">
+        <v>0.5</v>
+      </c>
       <c r="M6" s="17" t="s">
         <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:19" ht="42.75" x14ac:dyDescent="0.15">
@@ -956,7 +989,9 @@
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
+      <c r="L7" s="5">
+        <v>0.3</v>
+      </c>
       <c r="M7" s="17" t="s">
         <v>19</v>
       </c>
@@ -985,9 +1020,14 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="L8" s="5">
+        <v>0.5</v>
+      </c>
       <c r="M8" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="2:19" ht="28.5" x14ac:dyDescent="0.15">
@@ -1014,7 +1054,9 @@
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5">
+        <v>0.2</v>
+      </c>
       <c r="M9" s="17" t="s">
         <v>19</v>
       </c>
@@ -1043,9 +1085,14 @@
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5">
+        <v>0.8</v>
+      </c>
       <c r="M10" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="N10" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="2:19" ht="57" x14ac:dyDescent="0.15">
@@ -1072,7 +1119,9 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+      <c r="L11" s="5">
+        <v>0.2</v>
+      </c>
       <c r="M11" s="17" t="s">
         <v>19</v>
       </c>
@@ -1099,7 +1148,9 @@
       <c r="I12" s="15"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+      <c r="L12" s="5">
+        <v>0.2</v>
+      </c>
       <c r="M12" s="17" t="s">
         <v>19</v>
       </c>
@@ -1128,9 +1179,14 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+      <c r="L13" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="M13" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
@@ -1155,9 +1211,14 @@
       <c r="I14" s="15"/>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
       <c r="M14" s="17" t="s">
         <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
@@ -1182,7 +1243,9 @@
       <c r="I15" s="15"/>
       <c r="J15" s="14"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
+      <c r="L15" s="5">
+        <v>0.2</v>
+      </c>
       <c r="M15" s="17" t="s">
         <v>19</v>
       </c>
@@ -1209,12 +1272,17 @@
       <c r="I16" s="15"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
+      <c r="L16" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="M16" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C17" s="18">
         <v>12</v>
       </c>
@@ -1236,12 +1304,17 @@
       <c r="I17" s="15"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
+      <c r="L17" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="M17" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C18" s="18">
         <v>14</v>
       </c>
@@ -1263,12 +1336,14 @@
       <c r="I18" s="15"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="5">
+        <v>0.05</v>
+      </c>
       <c r="M18" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
         <v>15</v>
       </c>
@@ -1290,12 +1365,14 @@
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
+      <c r="L19" s="5">
+        <v>0.05</v>
+      </c>
       <c r="M19" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>16</v>
       </c>
@@ -1317,12 +1394,14 @@
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
       <c r="M20" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C21" s="18">
         <v>17</v>
       </c>
@@ -1339,7 +1418,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="17"/>
     </row>
-    <row r="22" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C22" s="18">
         <v>18</v>
       </c>
@@ -1356,7 +1435,7 @@
       <c r="L22" s="5"/>
       <c r="M22" s="17"/>
     </row>
-    <row r="23" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>19</v>
       </c>
@@ -1373,7 +1452,7 @@
       <c r="L23" s="5"/>
       <c r="M23" s="17"/>
     </row>
-    <row r="24" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>20</v>
       </c>
@@ -1390,7 +1469,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="17"/>
     </row>
-    <row r="25" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>21</v>
       </c>
@@ -1407,7 +1486,7 @@
       <c r="L25" s="5"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>22</v>
       </c>
@@ -1424,7 +1503,7 @@
       <c r="L26" s="5"/>
       <c r="M26" s="17"/>
     </row>
-    <row r="27" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
@@ -1441,7 +1520,7 @@
       <c r="L27" s="5"/>
       <c r="M27" s="17"/>
     </row>
-    <row r="28" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
@@ -1458,7 +1537,7 @@
       <c r="L28" s="5"/>
       <c r="M28" s="17"/>
     </row>
-    <row r="29" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
         <v>25</v>
       </c>
@@ -1475,7 +1554,7 @@
       <c r="L29" s="5"/>
       <c r="M29" s="17"/>
     </row>
-    <row r="30" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
         <v>26</v>
       </c>
@@ -1492,7 +1571,7 @@
       <c r="L30" s="5"/>
       <c r="M30" s="17"/>
     </row>
-    <row r="31" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
         <v>27</v>
       </c>
@@ -1509,7 +1588,7 @@
       <c r="L31" s="5"/>
       <c r="M31" s="17"/>
     </row>
-    <row r="32" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
         <v>28</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,7 +169,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中</t>
+    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>审核筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要保存上一次的筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是预投机器则在生产日期上显示预投两个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的背景色需要与正常的色差大一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晓超，无审核权，主要使用导出功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续考虑增加操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出末班的投产日期，需要自动填写成系统中的生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出模板变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划模块中的按模板导出的模板需要进行更换，主要更改了内容阶段的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模板为《过程监控记录（150508更新）.xls》已经更新到Git中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,145 +323,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个需要设计一个算法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
-  </si>
-  <si>
-    <t>审核筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-  </si>
-  <si>
-    <t>用户权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要保存上一次的筛选条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是预投机器则在生产日期上显示预投两个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的背景色需要与正常的色差大一些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵晓超，无审核权，主要使用导出功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续考虑增加操作日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划导出末班的投产日期，需要自动填写成系统中的生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术难度较大，需要考虑性能影响</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调查</t>
+    <t>该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中。需要注意的是，实际情况中除了加了Z意外，还加了一个-H，需要确保Z加载-H之前。例如S0.5AZ-H。该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -497,11 +521,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -553,6 +601,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,10 +918,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S161"/>
+  <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -871,13 +931,14 @@
     <col min="6" max="6" width="16.75" customWidth="1"/>
     <col min="7" max="7" width="16.375" customWidth="1"/>
     <col min="8" max="8" width="45.875" customWidth="1"/>
-    <col min="9" max="9" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="26.25" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="15.375" customWidth="1"/>
     <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="13" max="13" width="18.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -886,15 +947,15 @@
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
-    <row r="3" spans="2:19" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" ht="25.5" x14ac:dyDescent="0.3">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="6"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="2:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:19" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:20" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
@@ -925,17 +986,20 @@
       <c r="L5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
-    </row>
-    <row r="6" spans="2:19" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C6" s="18">
         <v>1</v>
       </c>
@@ -954,20 +1018,20 @@
       <c r="H6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="14"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5">
         <v>0.5</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="2:19" ht="42.75" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C7" s="18">
         <v>2</v>
       </c>
@@ -984,19 +1048,20 @@
         <v>28</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="14"/>
+        <v>59</v>
+      </c>
+      <c r="I7" s="23"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5">
         <v>0.3</v>
       </c>
-      <c r="M7" s="17" t="s">
+      <c r="M7" s="22"/>
+      <c r="N7" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C8" s="18">
         <v>3</v>
       </c>
@@ -1023,14 +1088,14 @@
       <c r="L8" s="5">
         <v>0.5</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" ht="28.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="2:20" ht="114" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
@@ -1047,21 +1112,24 @@
         <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="J9" s="14"/>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="L9" s="5">
         <v>0.2</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="22"/>
+      <c r="N9" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C10" s="18">
         <v>5</v>
       </c>
@@ -1078,24 +1146,24 @@
         <v>38</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>43</v>
+        <v>73</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5">
         <v>0.8</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19" ht="57" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="2:20" ht="57" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
         <v>6</v>
       </c>
@@ -1106,27 +1174,30 @@
         <v>20</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>37</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J11" s="14"/>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="L11" s="5">
         <v>0.2</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="22"/>
+      <c r="N11" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:19" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:20" ht="57" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -1140,22 +1211,23 @@
         <v>15</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="I12" s="16"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5">
         <v>0.2</v>
       </c>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="22"/>
+      <c r="N12" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -1163,33 +1235,33 @@
         <v>2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F13" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>69</v>
+        <v>63</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>64</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="N13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="2:20" ht="57" x14ac:dyDescent="0.15">
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -1203,25 +1275,25 @@
         <v>15</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="15"/>
+        <v>72</v>
+      </c>
+      <c r="I14" s="16"/>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5">
         <v>1</v>
       </c>
-      <c r="M14" s="17" t="s">
+      <c r="M14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="N14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="2:20" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C15" s="18">
         <v>10</v>
       </c>
@@ -1235,22 +1307,23 @@
         <v>22</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="15"/>
+        <v>49</v>
+      </c>
+      <c r="I15" s="16"/>
       <c r="J15" s="14"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5">
         <v>0.2</v>
       </c>
-      <c r="M15" s="17" t="s">
+      <c r="M15" s="22"/>
+      <c r="N15" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:19" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:20" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C16" s="18">
         <v>11</v>
       </c>
@@ -1258,28 +1331,28 @@
         <v>2</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="15"/>
+        <v>51</v>
+      </c>
+      <c r="I16" s="16"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="N16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="17" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
@@ -1290,62 +1363,63 @@
         <v>2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I17" s="15"/>
+        <v>55</v>
+      </c>
+      <c r="I17" s="16"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M17" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="17" t="s">
         <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C18" s="18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="18">
         <v>2</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="15"/>
+        <v>57</v>
+      </c>
+      <c r="I18" s="16"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
       <c r="L18" s="5">
         <v>0.05</v>
       </c>
-      <c r="M18" s="17" t="s">
+      <c r="M18" s="22"/>
+      <c r="N18" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="18">
         <v>2</v>
@@ -1357,70 +1431,85 @@
         <v>15</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="I19" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="I19" s="16"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5">
         <v>0.05</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="22"/>
+      <c r="N19" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="18">
         <v>2</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="15"/>
+        <v>62</v>
+      </c>
+      <c r="I20" s="16"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
       <c r="L20" s="5">
         <v>0</v>
       </c>
-      <c r="M20" s="17" t="s">
+      <c r="M20" s="22"/>
+      <c r="N20" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C21" s="18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="18">
         <v>2</v>
       </c>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="I21" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="J21" s="14"/>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
-      <c r="M21" s="17"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="22" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C22" s="18">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="18">
         <v>2</v>
@@ -1429,15 +1518,16 @@
       <c r="F22" s="14"/>
       <c r="G22" s="15"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="15"/>
+      <c r="I22" s="16"/>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
       <c r="L22" s="5"/>
-      <c r="M22" s="17"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="17"/>
     </row>
     <row r="23" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="18">
         <v>2</v>
@@ -1446,15 +1536,16 @@
       <c r="F23" s="14"/>
       <c r="G23" s="15"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="15"/>
+      <c r="I23" s="16"/>
       <c r="J23" s="14"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
-      <c r="M23" s="17"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="17"/>
     </row>
     <row r="24" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
@@ -1463,15 +1554,16 @@
       <c r="F24" s="14"/>
       <c r="G24" s="15"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="15"/>
+      <c r="I24" s="16"/>
       <c r="J24" s="14"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
-      <c r="M24" s="17"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="17"/>
     </row>
     <row r="25" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
@@ -1480,15 +1572,16 @@
       <c r="F25" s="14"/>
       <c r="G25" s="15"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="15"/>
+      <c r="I25" s="16"/>
       <c r="J25" s="14"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
-      <c r="M25" s="17"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="17"/>
     </row>
     <row r="26" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="18">
         <v>2</v>
@@ -1497,15 +1590,16 @@
       <c r="F26" s="14"/>
       <c r="G26" s="15"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="15"/>
+      <c r="I26" s="16"/>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
-      <c r="M26" s="17"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="18">
         <v>2</v>
@@ -1514,15 +1608,16 @@
       <c r="F27" s="14"/>
       <c r="G27" s="15"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="15"/>
+      <c r="I27" s="16"/>
       <c r="J27" s="14"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
-      <c r="M27" s="17"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="17"/>
     </row>
     <row r="28" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="18">
         <v>2</v>
@@ -1531,15 +1626,16 @@
       <c r="F28" s="14"/>
       <c r="G28" s="15"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="15"/>
+      <c r="I28" s="16"/>
       <c r="J28" s="14"/>
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
-      <c r="M28" s="17"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="17"/>
     </row>
     <row r="29" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="18">
         <v>2</v>
@@ -1548,15 +1644,16 @@
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="15"/>
+      <c r="I29" s="16"/>
       <c r="J29" s="14"/>
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
-      <c r="M29" s="17"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="17"/>
     </row>
     <row r="30" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="18">
         <v>2</v>
@@ -1565,15 +1662,16 @@
       <c r="F30" s="14"/>
       <c r="G30" s="15"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="15"/>
+      <c r="I30" s="16"/>
       <c r="J30" s="14"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="17"/>
     </row>
     <row r="31" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
@@ -1582,15 +1680,16 @@
       <c r="F31" s="14"/>
       <c r="G31" s="15"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="15"/>
+      <c r="I31" s="16"/>
       <c r="J31" s="14"/>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
-      <c r="M31" s="17"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="18">
         <v>2</v>
@@ -1599,15 +1698,16 @@
       <c r="F32" s="14"/>
       <c r="G32" s="15"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="15"/>
+      <c r="I32" s="16"/>
       <c r="J32" s="14"/>
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M32" s="22"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="18">
         <v>2</v>
@@ -1616,15 +1716,16 @@
       <c r="F33" s="14"/>
       <c r="G33" s="15"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="15"/>
+      <c r="I33" s="16"/>
       <c r="J33" s="14"/>
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M33" s="22"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D34" s="18">
         <v>2</v>
@@ -1633,15 +1734,16 @@
       <c r="F34" s="14"/>
       <c r="G34" s="15"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="15"/>
+      <c r="I34" s="16"/>
       <c r="J34" s="14"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
-      <c r="M34" s="17"/>
-    </row>
-    <row r="35" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M34" s="22"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="18">
         <v>2</v>
@@ -1650,15 +1752,16 @@
       <c r="F35" s="14"/>
       <c r="G35" s="15"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="15"/>
+      <c r="I35" s="16"/>
       <c r="J35" s="14"/>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
-      <c r="M35" s="17"/>
-    </row>
-    <row r="36" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M35" s="22"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="18">
         <v>2</v>
@@ -1667,15 +1770,16 @@
       <c r="F36" s="14"/>
       <c r="G36" s="15"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="15"/>
+      <c r="I36" s="16"/>
       <c r="J36" s="14"/>
       <c r="K36" s="5"/>
       <c r="L36" s="5"/>
-      <c r="M36" s="17"/>
-    </row>
-    <row r="37" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M36" s="22"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="18">
         <v>2</v>
@@ -1684,15 +1788,16 @@
       <c r="F37" s="14"/>
       <c r="G37" s="15"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="15"/>
+      <c r="I37" s="16"/>
       <c r="J37" s="14"/>
       <c r="K37" s="5"/>
       <c r="L37" s="5"/>
-      <c r="M37" s="17"/>
-    </row>
-    <row r="38" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M37" s="22"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="18">
         <v>2</v>
@@ -1701,15 +1806,16 @@
       <c r="F38" s="14"/>
       <c r="G38" s="15"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="15"/>
+      <c r="I38" s="16"/>
       <c r="J38" s="14"/>
       <c r="K38" s="5"/>
       <c r="L38" s="5"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M38" s="22"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D39" s="18">
         <v>2</v>
@@ -1718,15 +1824,16 @@
       <c r="F39" s="14"/>
       <c r="G39" s="15"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="15"/>
+      <c r="I39" s="16"/>
       <c r="J39" s="14"/>
       <c r="K39" s="5"/>
       <c r="L39" s="5"/>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M39" s="22"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="18">
         <v>2</v>
@@ -1735,15 +1842,16 @@
       <c r="F40" s="14"/>
       <c r="G40" s="15"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="15"/>
+      <c r="I40" s="16"/>
       <c r="J40" s="14"/>
       <c r="K40" s="5"/>
       <c r="L40" s="5"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M40" s="22"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D41" s="18">
         <v>2</v>
@@ -1752,15 +1860,16 @@
       <c r="F41" s="14"/>
       <c r="G41" s="15"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="15"/>
+      <c r="I41" s="16"/>
       <c r="J41" s="14"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M41" s="22"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="18">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D42" s="18">
         <v>2</v>
@@ -1769,15 +1878,16 @@
       <c r="F42" s="14"/>
       <c r="G42" s="15"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="15"/>
+      <c r="I42" s="16"/>
       <c r="J42" s="14"/>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M42" s="22"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C43" s="18">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D43" s="18">
         <v>2</v>
@@ -1786,15 +1896,16 @@
       <c r="F43" s="14"/>
       <c r="G43" s="15"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="15"/>
+      <c r="I43" s="16"/>
       <c r="J43" s="14"/>
       <c r="K43" s="5"/>
       <c r="L43" s="5"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M43" s="22"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C44" s="18">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D44" s="18">
         <v>2</v>
@@ -1803,15 +1914,16 @@
       <c r="F44" s="14"/>
       <c r="G44" s="15"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="15"/>
+      <c r="I44" s="16"/>
       <c r="J44" s="14"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
-      <c r="M44" s="17"/>
-    </row>
-    <row r="45" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M44" s="22"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C45" s="18">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D45" s="18">
         <v>2</v>
@@ -1820,15 +1932,16 @@
       <c r="F45" s="14"/>
       <c r="G45" s="15"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="15"/>
+      <c r="I45" s="16"/>
       <c r="J45" s="14"/>
       <c r="K45" s="5"/>
       <c r="L45" s="5"/>
-      <c r="M45" s="17"/>
-    </row>
-    <row r="46" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M45" s="22"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C46" s="18">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" s="18">
         <v>2</v>
@@ -1837,15 +1950,16 @@
       <c r="F46" s="14"/>
       <c r="G46" s="15"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="15"/>
+      <c r="I46" s="16"/>
       <c r="J46" s="14"/>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M46" s="22"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C47" s="18">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" s="18">
         <v>2</v>
@@ -1854,15 +1968,16 @@
       <c r="F47" s="14"/>
       <c r="G47" s="15"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="15"/>
+      <c r="I47" s="16"/>
       <c r="J47" s="14"/>
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M47" s="22"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C48" s="18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D48" s="18">
         <v>2</v>
@@ -1871,15 +1986,16 @@
       <c r="F48" s="14"/>
       <c r="G48" s="15"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="15"/>
+      <c r="I48" s="16"/>
       <c r="J48" s="14"/>
       <c r="K48" s="5"/>
       <c r="L48" s="5"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M48" s="22"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C49" s="18">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D49" s="18">
         <v>2</v>
@@ -1888,15 +2004,16 @@
       <c r="F49" s="14"/>
       <c r="G49" s="15"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="15"/>
+      <c r="I49" s="16"/>
       <c r="J49" s="14"/>
       <c r="K49" s="5"/>
       <c r="L49" s="5"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M49" s="22"/>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C50" s="18">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D50" s="18">
         <v>2</v>
@@ -1905,15 +2022,16 @@
       <c r="F50" s="14"/>
       <c r="G50" s="15"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="15"/>
+      <c r="I50" s="16"/>
       <c r="J50" s="14"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
-      <c r="M50" s="17"/>
-    </row>
-    <row r="51" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M50" s="22"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C51" s="18">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D51" s="18">
         <v>2</v>
@@ -1922,15 +2040,16 @@
       <c r="F51" s="14"/>
       <c r="G51" s="15"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="15"/>
+      <c r="I51" s="16"/>
       <c r="J51" s="14"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M51" s="22"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C52" s="18">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D52" s="18">
         <v>2</v>
@@ -1939,15 +2058,16 @@
       <c r="F52" s="14"/>
       <c r="G52" s="15"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="15"/>
+      <c r="I52" s="16"/>
       <c r="J52" s="14"/>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M52" s="22"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C53" s="18">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D53" s="18">
         <v>2</v>
@@ -1956,15 +2076,16 @@
       <c r="F53" s="14"/>
       <c r="G53" s="15"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="15"/>
+      <c r="I53" s="16"/>
       <c r="J53" s="14"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
-      <c r="M53" s="17"/>
-    </row>
-    <row r="54" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M53" s="22"/>
+      <c r="N53" s="17"/>
+    </row>
+    <row r="54" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C54" s="18">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="18">
         <v>2</v>
@@ -1973,15 +2094,16 @@
       <c r="F54" s="14"/>
       <c r="G54" s="15"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="15"/>
+      <c r="I54" s="16"/>
       <c r="J54" s="14"/>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
-      <c r="M54" s="17"/>
-    </row>
-    <row r="55" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M54" s="22"/>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C55" s="18">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D55" s="18">
         <v>2</v>
@@ -1990,15 +2112,16 @@
       <c r="F55" s="14"/>
       <c r="G55" s="15"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="15"/>
+      <c r="I55" s="16"/>
       <c r="J55" s="14"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M55" s="22"/>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C56" s="18">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D56" s="18">
         <v>2</v>
@@ -2007,15 +2130,16 @@
       <c r="F56" s="14"/>
       <c r="G56" s="15"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="15"/>
+      <c r="I56" s="16"/>
       <c r="J56" s="14"/>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M56" s="22"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C57" s="18">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D57" s="18">
         <v>2</v>
@@ -2024,15 +2148,16 @@
       <c r="F57" s="14"/>
       <c r="G57" s="15"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="15"/>
+      <c r="I57" s="16"/>
       <c r="J57" s="14"/>
       <c r="K57" s="5"/>
       <c r="L57" s="5"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M57" s="22"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C58" s="18">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D58" s="18">
         <v>2</v>
@@ -2041,15 +2166,16 @@
       <c r="F58" s="14"/>
       <c r="G58" s="15"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="15"/>
+      <c r="I58" s="16"/>
       <c r="J58" s="14"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="59" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M58" s="22"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C59" s="18">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D59" s="18">
         <v>2</v>
@@ -2058,15 +2184,16 @@
       <c r="F59" s="14"/>
       <c r="G59" s="15"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="15"/>
+      <c r="I59" s="16"/>
       <c r="J59" s="14"/>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
-      <c r="M59" s="17"/>
-    </row>
-    <row r="60" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M59" s="22"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C60" s="18">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D60" s="18">
         <v>2</v>
@@ -2075,15 +2202,16 @@
       <c r="F60" s="14"/>
       <c r="G60" s="15"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="15"/>
+      <c r="I60" s="16"/>
       <c r="J60" s="14"/>
       <c r="K60" s="5"/>
       <c r="L60" s="5"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M60" s="22"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C61" s="18">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="18">
         <v>2</v>
@@ -2092,15 +2220,16 @@
       <c r="F61" s="14"/>
       <c r="G61" s="15"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="15"/>
+      <c r="I61" s="16"/>
       <c r="J61" s="14"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
-      <c r="M61" s="17"/>
-    </row>
-    <row r="62" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M61" s="22"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C62" s="18">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D62" s="18">
         <v>2</v>
@@ -2109,15 +2238,16 @@
       <c r="F62" s="14"/>
       <c r="G62" s="15"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="15"/>
+      <c r="I62" s="16"/>
       <c r="J62" s="14"/>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
-      <c r="M62" s="17"/>
-    </row>
-    <row r="63" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M62" s="22"/>
+      <c r="N62" s="17"/>
+    </row>
+    <row r="63" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C63" s="18">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="18">
         <v>2</v>
@@ -2126,15 +2256,16 @@
       <c r="F63" s="14"/>
       <c r="G63" s="15"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="15"/>
+      <c r="I63" s="16"/>
       <c r="J63" s="14"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="17"/>
-    </row>
-    <row r="64" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M63" s="22"/>
+      <c r="N63" s="17"/>
+    </row>
+    <row r="64" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C64" s="18">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D64" s="18">
         <v>2</v>
@@ -2143,15 +2274,16 @@
       <c r="F64" s="14"/>
       <c r="G64" s="15"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="15"/>
+      <c r="I64" s="16"/>
       <c r="J64" s="14"/>
       <c r="K64" s="5"/>
       <c r="L64" s="5"/>
-      <c r="M64" s="17"/>
-    </row>
-    <row r="65" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M64" s="22"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C65" s="18">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="18">
         <v>2</v>
@@ -2160,15 +2292,16 @@
       <c r="F65" s="14"/>
       <c r="G65" s="15"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="15"/>
+      <c r="I65" s="16"/>
       <c r="J65" s="14"/>
       <c r="K65" s="5"/>
       <c r="L65" s="5"/>
-      <c r="M65" s="17"/>
-    </row>
-    <row r="66" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M65" s="22"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C66" s="18">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D66" s="18">
         <v>2</v>
@@ -2177,15 +2310,16 @@
       <c r="F66" s="14"/>
       <c r="G66" s="15"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="15"/>
+      <c r="I66" s="16"/>
       <c r="J66" s="14"/>
       <c r="K66" s="5"/>
       <c r="L66" s="5"/>
-      <c r="M66" s="17"/>
-    </row>
-    <row r="67" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M66" s="22"/>
+      <c r="N66" s="17"/>
+    </row>
+    <row r="67" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C67" s="18">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D67" s="18">
         <v>2</v>
@@ -2194,15 +2328,16 @@
       <c r="F67" s="14"/>
       <c r="G67" s="15"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="15"/>
+      <c r="I67" s="16"/>
       <c r="J67" s="14"/>
       <c r="K67" s="5"/>
       <c r="L67" s="5"/>
-      <c r="M67" s="17"/>
-    </row>
-    <row r="68" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M67" s="22"/>
+      <c r="N67" s="17"/>
+    </row>
+    <row r="68" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C68" s="18">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D68" s="18">
         <v>2</v>
@@ -2211,15 +2346,16 @@
       <c r="F68" s="14"/>
       <c r="G68" s="15"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="15"/>
+      <c r="I68" s="16"/>
       <c r="J68" s="14"/>
       <c r="K68" s="5"/>
       <c r="L68" s="5"/>
-      <c r="M68" s="17"/>
-    </row>
-    <row r="69" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M68" s="22"/>
+      <c r="N68" s="17"/>
+    </row>
+    <row r="69" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C69" s="18">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" s="18">
         <v>2</v>
@@ -2228,15 +2364,16 @@
       <c r="F69" s="14"/>
       <c r="G69" s="15"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="15"/>
+      <c r="I69" s="16"/>
       <c r="J69" s="14"/>
       <c r="K69" s="5"/>
       <c r="L69" s="5"/>
-      <c r="M69" s="17"/>
-    </row>
-    <row r="70" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M69" s="22"/>
+      <c r="N69" s="17"/>
+    </row>
+    <row r="70" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C70" s="18">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D70" s="18">
         <v>2</v>
@@ -2245,15 +2382,16 @@
       <c r="F70" s="14"/>
       <c r="G70" s="15"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="15"/>
+      <c r="I70" s="16"/>
       <c r="J70" s="14"/>
       <c r="K70" s="5"/>
       <c r="L70" s="5"/>
-      <c r="M70" s="17"/>
-    </row>
-    <row r="71" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M70" s="22"/>
+      <c r="N70" s="17"/>
+    </row>
+    <row r="71" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C71" s="18">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D71" s="18">
         <v>2</v>
@@ -2262,15 +2400,16 @@
       <c r="F71" s="14"/>
       <c r="G71" s="15"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="15"/>
+      <c r="I71" s="16"/>
       <c r="J71" s="14"/>
       <c r="K71" s="5"/>
       <c r="L71" s="5"/>
-      <c r="M71" s="17"/>
-    </row>
-    <row r="72" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M71" s="22"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C72" s="18">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D72" s="18">
         <v>2</v>
@@ -2279,15 +2418,16 @@
       <c r="F72" s="14"/>
       <c r="G72" s="15"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="15"/>
+      <c r="I72" s="16"/>
       <c r="J72" s="14"/>
       <c r="K72" s="5"/>
       <c r="L72" s="5"/>
-      <c r="M72" s="17"/>
-    </row>
-    <row r="73" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M72" s="22"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C73" s="18">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D73" s="18">
         <v>2</v>
@@ -2296,15 +2436,16 @@
       <c r="F73" s="14"/>
       <c r="G73" s="15"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="15"/>
+      <c r="I73" s="16"/>
       <c r="J73" s="14"/>
       <c r="K73" s="5"/>
       <c r="L73" s="5"/>
-      <c r="M73" s="17"/>
-    </row>
-    <row r="74" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M73" s="22"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C74" s="18">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D74" s="18">
         <v>2</v>
@@ -2313,15 +2454,16 @@
       <c r="F74" s="14"/>
       <c r="G74" s="15"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="15"/>
+      <c r="I74" s="16"/>
       <c r="J74" s="14"/>
       <c r="K74" s="5"/>
       <c r="L74" s="5"/>
-      <c r="M74" s="17"/>
-    </row>
-    <row r="75" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M74" s="22"/>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C75" s="18">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D75" s="18">
         <v>2</v>
@@ -2330,15 +2472,16 @@
       <c r="F75" s="14"/>
       <c r="G75" s="15"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="15"/>
+      <c r="I75" s="16"/>
       <c r="J75" s="14"/>
       <c r="K75" s="5"/>
       <c r="L75" s="5"/>
-      <c r="M75" s="17"/>
-    </row>
-    <row r="76" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M75" s="22"/>
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C76" s="18">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D76" s="18">
         <v>2</v>
@@ -2347,15 +2490,16 @@
       <c r="F76" s="14"/>
       <c r="G76" s="15"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="15"/>
+      <c r="I76" s="16"/>
       <c r="J76" s="14"/>
       <c r="K76" s="5"/>
       <c r="L76" s="5"/>
-      <c r="M76" s="17"/>
-    </row>
-    <row r="77" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M76" s="22"/>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C77" s="18">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D77" s="18">
         <v>2</v>
@@ -2364,15 +2508,16 @@
       <c r="F77" s="14"/>
       <c r="G77" s="15"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="15"/>
+      <c r="I77" s="16"/>
       <c r="J77" s="14"/>
       <c r="K77" s="5"/>
       <c r="L77" s="5"/>
-      <c r="M77" s="17"/>
-    </row>
-    <row r="78" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M77" s="22"/>
+      <c r="N77" s="17"/>
+    </row>
+    <row r="78" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C78" s="18">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D78" s="18">
         <v>2</v>
@@ -2381,15 +2526,16 @@
       <c r="F78" s="14"/>
       <c r="G78" s="15"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="15"/>
+      <c r="I78" s="16"/>
       <c r="J78" s="14"/>
       <c r="K78" s="5"/>
       <c r="L78" s="5"/>
-      <c r="M78" s="17"/>
-    </row>
-    <row r="79" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M78" s="22"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C79" s="18">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D79" s="18">
         <v>2</v>
@@ -2398,15 +2544,16 @@
       <c r="F79" s="14"/>
       <c r="G79" s="15"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="15"/>
+      <c r="I79" s="16"/>
       <c r="J79" s="14"/>
       <c r="K79" s="5"/>
       <c r="L79" s="5"/>
-      <c r="M79" s="17"/>
-    </row>
-    <row r="80" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M79" s="22"/>
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C80" s="18">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D80" s="18">
         <v>2</v>
@@ -2415,15 +2562,16 @@
       <c r="F80" s="14"/>
       <c r="G80" s="15"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="15"/>
+      <c r="I80" s="16"/>
       <c r="J80" s="14"/>
       <c r="K80" s="5"/>
       <c r="L80" s="5"/>
-      <c r="M80" s="17"/>
-    </row>
-    <row r="81" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M80" s="22"/>
+      <c r="N80" s="17"/>
+    </row>
+    <row r="81" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C81" s="18">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D81" s="18">
         <v>2</v>
@@ -2432,15 +2580,16 @@
       <c r="F81" s="14"/>
       <c r="G81" s="15"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="15"/>
+      <c r="I81" s="16"/>
       <c r="J81" s="14"/>
       <c r="K81" s="5"/>
       <c r="L81" s="5"/>
-      <c r="M81" s="17"/>
-    </row>
-    <row r="82" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M81" s="22"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C82" s="18">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D82" s="18">
         <v>2</v>
@@ -2449,15 +2598,16 @@
       <c r="F82" s="14"/>
       <c r="G82" s="15"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="15"/>
+      <c r="I82" s="16"/>
       <c r="J82" s="14"/>
       <c r="K82" s="5"/>
       <c r="L82" s="5"/>
-      <c r="M82" s="17"/>
-    </row>
-    <row r="83" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M82" s="22"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C83" s="18">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D83" s="18">
         <v>2</v>
@@ -2466,15 +2616,16 @@
       <c r="F83" s="14"/>
       <c r="G83" s="15"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="15"/>
+      <c r="I83" s="16"/>
       <c r="J83" s="14"/>
       <c r="K83" s="5"/>
       <c r="L83" s="5"/>
-      <c r="M83" s="17"/>
-    </row>
-    <row r="84" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M83" s="22"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C84" s="18">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D84" s="18">
         <v>2</v>
@@ -2483,15 +2634,16 @@
       <c r="F84" s="14"/>
       <c r="G84" s="15"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="15"/>
+      <c r="I84" s="16"/>
       <c r="J84" s="14"/>
       <c r="K84" s="5"/>
       <c r="L84" s="5"/>
-      <c r="M84" s="17"/>
-    </row>
-    <row r="85" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M84" s="22"/>
+      <c r="N84" s="17"/>
+    </row>
+    <row r="85" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C85" s="18">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D85" s="18">
         <v>2</v>
@@ -2500,15 +2652,16 @@
       <c r="F85" s="14"/>
       <c r="G85" s="15"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="15"/>
+      <c r="I85" s="16"/>
       <c r="J85" s="14"/>
       <c r="K85" s="5"/>
       <c r="L85" s="5"/>
-      <c r="M85" s="17"/>
-    </row>
-    <row r="86" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M85" s="22"/>
+      <c r="N85" s="17"/>
+    </row>
+    <row r="86" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C86" s="18">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D86" s="18">
         <v>2</v>
@@ -2517,15 +2670,16 @@
       <c r="F86" s="14"/>
       <c r="G86" s="15"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="15"/>
+      <c r="I86" s="16"/>
       <c r="J86" s="14"/>
       <c r="K86" s="5"/>
       <c r="L86" s="5"/>
-      <c r="M86" s="17"/>
-    </row>
-    <row r="87" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M86" s="22"/>
+      <c r="N86" s="17"/>
+    </row>
+    <row r="87" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C87" s="18">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" s="18">
         <v>2</v>
@@ -2534,15 +2688,16 @@
       <c r="F87" s="14"/>
       <c r="G87" s="15"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="15"/>
+      <c r="I87" s="16"/>
       <c r="J87" s="14"/>
       <c r="K87" s="5"/>
       <c r="L87" s="5"/>
-      <c r="M87" s="17"/>
-    </row>
-    <row r="88" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M87" s="22"/>
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C88" s="18">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D88" s="18">
         <v>2</v>
@@ -2551,15 +2706,16 @@
       <c r="F88" s="14"/>
       <c r="G88" s="15"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="15"/>
+      <c r="I88" s="16"/>
       <c r="J88" s="14"/>
       <c r="K88" s="5"/>
       <c r="L88" s="5"/>
-      <c r="M88" s="17"/>
-    </row>
-    <row r="89" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M88" s="22"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C89" s="18">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D89" s="18">
         <v>2</v>
@@ -2568,15 +2724,16 @@
       <c r="F89" s="14"/>
       <c r="G89" s="15"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="15"/>
+      <c r="I89" s="16"/>
       <c r="J89" s="14"/>
       <c r="K89" s="5"/>
       <c r="L89" s="5"/>
-      <c r="M89" s="17"/>
-    </row>
-    <row r="90" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M89" s="22"/>
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C90" s="18">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="18">
         <v>2</v>
@@ -2585,15 +2742,16 @@
       <c r="F90" s="14"/>
       <c r="G90" s="15"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="15"/>
+      <c r="I90" s="16"/>
       <c r="J90" s="14"/>
       <c r="K90" s="5"/>
       <c r="L90" s="5"/>
-      <c r="M90" s="17"/>
-    </row>
-    <row r="91" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M90" s="22"/>
+      <c r="N90" s="17"/>
+    </row>
+    <row r="91" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C91" s="18">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D91" s="18">
         <v>2</v>
@@ -2602,15 +2760,16 @@
       <c r="F91" s="14"/>
       <c r="G91" s="15"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="15"/>
+      <c r="I91" s="16"/>
       <c r="J91" s="14"/>
       <c r="K91" s="5"/>
       <c r="L91" s="5"/>
-      <c r="M91" s="17"/>
-    </row>
-    <row r="92" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M91" s="22"/>
+      <c r="N91" s="17"/>
+    </row>
+    <row r="92" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C92" s="18">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D92" s="18">
         <v>2</v>
@@ -2619,15 +2778,16 @@
       <c r="F92" s="14"/>
       <c r="G92" s="15"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="15"/>
+      <c r="I92" s="16"/>
       <c r="J92" s="14"/>
       <c r="K92" s="5"/>
       <c r="L92" s="5"/>
-      <c r="M92" s="17"/>
-    </row>
-    <row r="93" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M92" s="22"/>
+      <c r="N92" s="17"/>
+    </row>
+    <row r="93" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C93" s="18">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D93" s="18">
         <v>2</v>
@@ -2636,15 +2796,16 @@
       <c r="F93" s="14"/>
       <c r="G93" s="15"/>
       <c r="H93" s="19"/>
-      <c r="I93" s="15"/>
+      <c r="I93" s="16"/>
       <c r="J93" s="14"/>
       <c r="K93" s="5"/>
       <c r="L93" s="5"/>
-      <c r="M93" s="17"/>
-    </row>
-    <row r="94" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M93" s="22"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C94" s="18">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D94" s="18">
         <v>2</v>
@@ -2653,15 +2814,16 @@
       <c r="F94" s="14"/>
       <c r="G94" s="15"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="15"/>
+      <c r="I94" s="16"/>
       <c r="J94" s="14"/>
       <c r="K94" s="5"/>
       <c r="L94" s="5"/>
-      <c r="M94" s="17"/>
-    </row>
-    <row r="95" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M94" s="22"/>
+      <c r="N94" s="17"/>
+    </row>
+    <row r="95" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C95" s="18">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="18">
         <v>2</v>
@@ -2670,15 +2832,16 @@
       <c r="F95" s="14"/>
       <c r="G95" s="15"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="15"/>
+      <c r="I95" s="16"/>
       <c r="J95" s="14"/>
       <c r="K95" s="5"/>
       <c r="L95" s="5"/>
-      <c r="M95" s="17"/>
-    </row>
-    <row r="96" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M95" s="22"/>
+      <c r="N95" s="17"/>
+    </row>
+    <row r="96" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C96" s="18">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="18">
         <v>2</v>
@@ -2687,15 +2850,16 @@
       <c r="F96" s="14"/>
       <c r="G96" s="15"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="15"/>
+      <c r="I96" s="16"/>
       <c r="J96" s="14"/>
       <c r="K96" s="5"/>
       <c r="L96" s="5"/>
-      <c r="M96" s="17"/>
-    </row>
-    <row r="97" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M96" s="22"/>
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C97" s="18">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D97" s="18">
         <v>2</v>
@@ -2704,15 +2868,16 @@
       <c r="F97" s="14"/>
       <c r="G97" s="15"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="15"/>
+      <c r="I97" s="16"/>
       <c r="J97" s="14"/>
       <c r="K97" s="5"/>
       <c r="L97" s="5"/>
-      <c r="M97" s="17"/>
-    </row>
-    <row r="98" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M97" s="22"/>
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C98" s="18">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="18">
         <v>2</v>
@@ -2721,15 +2886,16 @@
       <c r="F98" s="14"/>
       <c r="G98" s="15"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="15"/>
+      <c r="I98" s="16"/>
       <c r="J98" s="14"/>
       <c r="K98" s="5"/>
       <c r="L98" s="5"/>
-      <c r="M98" s="17"/>
-    </row>
-    <row r="99" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M98" s="22"/>
+      <c r="N98" s="17"/>
+    </row>
+    <row r="99" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C99" s="18">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D99" s="18">
         <v>2</v>
@@ -2738,15 +2904,16 @@
       <c r="F99" s="14"/>
       <c r="G99" s="15"/>
       <c r="H99" s="19"/>
-      <c r="I99" s="15"/>
+      <c r="I99" s="16"/>
       <c r="J99" s="14"/>
       <c r="K99" s="5"/>
       <c r="L99" s="5"/>
-      <c r="M99" s="17"/>
-    </row>
-    <row r="100" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M99" s="22"/>
+      <c r="N99" s="17"/>
+    </row>
+    <row r="100" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C100" s="18">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D100" s="18">
         <v>2</v>
@@ -2755,15 +2922,16 @@
       <c r="F100" s="14"/>
       <c r="G100" s="15"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="15"/>
+      <c r="I100" s="16"/>
       <c r="J100" s="14"/>
       <c r="K100" s="5"/>
       <c r="L100" s="5"/>
-      <c r="M100" s="17"/>
-    </row>
-    <row r="101" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M100" s="22"/>
+      <c r="N100" s="17"/>
+    </row>
+    <row r="101" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C101" s="18">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D101" s="18">
         <v>2</v>
@@ -2772,15 +2940,16 @@
       <c r="F101" s="14"/>
       <c r="G101" s="15"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="15"/>
+      <c r="I101" s="16"/>
       <c r="J101" s="14"/>
       <c r="K101" s="5"/>
       <c r="L101" s="5"/>
-      <c r="M101" s="17"/>
-    </row>
-    <row r="102" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M101" s="22"/>
+      <c r="N101" s="17"/>
+    </row>
+    <row r="102" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C102" s="18">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D102" s="18">
         <v>2</v>
@@ -2789,15 +2958,16 @@
       <c r="F102" s="14"/>
       <c r="G102" s="15"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="15"/>
+      <c r="I102" s="16"/>
       <c r="J102" s="14"/>
       <c r="K102" s="5"/>
       <c r="L102" s="5"/>
-      <c r="M102" s="17"/>
-    </row>
-    <row r="103" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M102" s="22"/>
+      <c r="N102" s="17"/>
+    </row>
+    <row r="103" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C103" s="18">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="18">
         <v>2</v>
@@ -2806,15 +2976,16 @@
       <c r="F103" s="14"/>
       <c r="G103" s="15"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="15"/>
+      <c r="I103" s="16"/>
       <c r="J103" s="14"/>
       <c r="K103" s="5"/>
       <c r="L103" s="5"/>
-      <c r="M103" s="17"/>
-    </row>
-    <row r="104" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M103" s="22"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C104" s="18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D104" s="18">
         <v>2</v>
@@ -2823,15 +2994,16 @@
       <c r="F104" s="14"/>
       <c r="G104" s="15"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="15"/>
+      <c r="I104" s="16"/>
       <c r="J104" s="14"/>
       <c r="K104" s="5"/>
       <c r="L104" s="5"/>
-      <c r="M104" s="17"/>
-    </row>
-    <row r="105" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M104" s="22"/>
+      <c r="N104" s="17"/>
+    </row>
+    <row r="105" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C105" s="18">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D105" s="18">
         <v>2</v>
@@ -2840,15 +3012,16 @@
       <c r="F105" s="14"/>
       <c r="G105" s="15"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="15"/>
+      <c r="I105" s="16"/>
       <c r="J105" s="14"/>
       <c r="K105" s="5"/>
       <c r="L105" s="5"/>
-      <c r="M105" s="17"/>
-    </row>
-    <row r="106" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M105" s="22"/>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C106" s="18">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D106" s="18">
         <v>2</v>
@@ -2857,15 +3030,16 @@
       <c r="F106" s="14"/>
       <c r="G106" s="15"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="15"/>
+      <c r="I106" s="16"/>
       <c r="J106" s="14"/>
       <c r="K106" s="5"/>
       <c r="L106" s="5"/>
-      <c r="M106" s="17"/>
-    </row>
-    <row r="107" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M106" s="22"/>
+      <c r="N106" s="17"/>
+    </row>
+    <row r="107" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C107" s="18">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D107" s="18">
         <v>2</v>
@@ -2874,15 +3048,16 @@
       <c r="F107" s="14"/>
       <c r="G107" s="15"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="15"/>
+      <c r="I107" s="16"/>
       <c r="J107" s="14"/>
       <c r="K107" s="5"/>
       <c r="L107" s="5"/>
-      <c r="M107" s="17"/>
-    </row>
-    <row r="108" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M107" s="22"/>
+      <c r="N107" s="17"/>
+    </row>
+    <row r="108" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C108" s="18">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D108" s="18">
         <v>2</v>
@@ -2891,15 +3066,16 @@
       <c r="F108" s="14"/>
       <c r="G108" s="15"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="15"/>
+      <c r="I108" s="16"/>
       <c r="J108" s="14"/>
       <c r="K108" s="5"/>
       <c r="L108" s="5"/>
-      <c r="M108" s="17"/>
-    </row>
-    <row r="109" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M108" s="22"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C109" s="18">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D109" s="18">
         <v>2</v>
@@ -2908,15 +3084,16 @@
       <c r="F109" s="14"/>
       <c r="G109" s="15"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="15"/>
+      <c r="I109" s="16"/>
       <c r="J109" s="14"/>
       <c r="K109" s="5"/>
       <c r="L109" s="5"/>
-      <c r="M109" s="17"/>
-    </row>
-    <row r="110" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M109" s="22"/>
+      <c r="N109" s="17"/>
+    </row>
+    <row r="110" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C110" s="18">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D110" s="18">
         <v>2</v>
@@ -2925,15 +3102,16 @@
       <c r="F110" s="14"/>
       <c r="G110" s="15"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="15"/>
+      <c r="I110" s="16"/>
       <c r="J110" s="14"/>
       <c r="K110" s="5"/>
       <c r="L110" s="5"/>
-      <c r="M110" s="17"/>
-    </row>
-    <row r="111" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M110" s="22"/>
+      <c r="N110" s="17"/>
+    </row>
+    <row r="111" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C111" s="18">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D111" s="18">
         <v>2</v>
@@ -2942,15 +3120,16 @@
       <c r="F111" s="14"/>
       <c r="G111" s="15"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="15"/>
+      <c r="I111" s="16"/>
       <c r="J111" s="14"/>
       <c r="K111" s="5"/>
       <c r="L111" s="5"/>
-      <c r="M111" s="17"/>
-    </row>
-    <row r="112" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M111" s="22"/>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C112" s="18">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D112" s="18">
         <v>2</v>
@@ -2959,15 +3138,16 @@
       <c r="F112" s="14"/>
       <c r="G112" s="15"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="15"/>
+      <c r="I112" s="16"/>
       <c r="J112" s="14"/>
       <c r="K112" s="5"/>
       <c r="L112" s="5"/>
-      <c r="M112" s="17"/>
-    </row>
-    <row r="113" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M112" s="22"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C113" s="18">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D113" s="18">
         <v>2</v>
@@ -2976,15 +3156,16 @@
       <c r="F113" s="14"/>
       <c r="G113" s="15"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="15"/>
+      <c r="I113" s="16"/>
       <c r="J113" s="14"/>
       <c r="K113" s="5"/>
       <c r="L113" s="5"/>
-      <c r="M113" s="17"/>
-    </row>
-    <row r="114" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M113" s="22"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C114" s="18">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D114" s="18">
         <v>2</v>
@@ -2993,15 +3174,16 @@
       <c r="F114" s="14"/>
       <c r="G114" s="15"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="15"/>
+      <c r="I114" s="16"/>
       <c r="J114" s="14"/>
       <c r="K114" s="5"/>
       <c r="L114" s="5"/>
-      <c r="M114" s="17"/>
-    </row>
-    <row r="115" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M114" s="22"/>
+      <c r="N114" s="17"/>
+    </row>
+    <row r="115" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C115" s="18">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D115" s="18">
         <v>2</v>
@@ -3010,15 +3192,16 @@
       <c r="F115" s="14"/>
       <c r="G115" s="15"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="15"/>
+      <c r="I115" s="16"/>
       <c r="J115" s="14"/>
       <c r="K115" s="5"/>
       <c r="L115" s="5"/>
-      <c r="M115" s="17"/>
-    </row>
-    <row r="116" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M115" s="22"/>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C116" s="18">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D116" s="18">
         <v>2</v>
@@ -3027,15 +3210,16 @@
       <c r="F116" s="14"/>
       <c r="G116" s="15"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="15"/>
+      <c r="I116" s="16"/>
       <c r="J116" s="14"/>
       <c r="K116" s="5"/>
       <c r="L116" s="5"/>
-      <c r="M116" s="17"/>
-    </row>
-    <row r="117" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M116" s="22"/>
+      <c r="N116" s="17"/>
+    </row>
+    <row r="117" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C117" s="18">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D117" s="18">
         <v>2</v>
@@ -3044,671 +3228,716 @@
       <c r="F117" s="14"/>
       <c r="G117" s="15"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="15"/>
+      <c r="I117" s="16"/>
       <c r="J117" s="14"/>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
-      <c r="M117" s="17"/>
-    </row>
-    <row r="118" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M117" s="22"/>
+      <c r="N117" s="17"/>
+    </row>
+    <row r="118" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C118" s="18">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D118" s="18"/>
       <c r="E118" s="14"/>
       <c r="F118" s="14"/>
       <c r="G118" s="15"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="15"/>
+      <c r="I118" s="16"/>
       <c r="J118" s="14"/>
       <c r="K118" s="5"/>
       <c r="L118" s="5"/>
-      <c r="M118" s="17"/>
-    </row>
-    <row r="119" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M118" s="22"/>
+      <c r="N118" s="17"/>
+    </row>
+    <row r="119" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C119" s="18">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D119" s="18"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
       <c r="G119" s="15"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="15"/>
+      <c r="I119" s="16"/>
       <c r="J119" s="14"/>
       <c r="K119" s="5"/>
       <c r="L119" s="5"/>
-      <c r="M119" s="17"/>
-    </row>
-    <row r="120" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M119" s="22"/>
+      <c r="N119" s="17"/>
+    </row>
+    <row r="120" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C120" s="18">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D120" s="18"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
       <c r="G120" s="15"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="15"/>
+      <c r="I120" s="16"/>
       <c r="J120" s="14"/>
       <c r="K120" s="5"/>
       <c r="L120" s="5"/>
-      <c r="M120" s="17"/>
-    </row>
-    <row r="121" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M120" s="22"/>
+      <c r="N120" s="17"/>
+    </row>
+    <row r="121" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C121" s="18">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D121" s="18"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="15"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="15"/>
+      <c r="I121" s="16"/>
       <c r="J121" s="14"/>
       <c r="K121" s="5"/>
       <c r="L121" s="5"/>
-      <c r="M121" s="17"/>
-    </row>
-    <row r="122" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M121" s="22"/>
+      <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C122" s="18">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D122" s="18"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
       <c r="G122" s="15"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="15"/>
+      <c r="I122" s="16"/>
       <c r="J122" s="14"/>
       <c r="K122" s="5"/>
       <c r="L122" s="5"/>
-      <c r="M122" s="17"/>
-    </row>
-    <row r="123" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M122" s="22"/>
+      <c r="N122" s="17"/>
+    </row>
+    <row r="123" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C123" s="18">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D123" s="18"/>
       <c r="E123" s="14"/>
       <c r="F123" s="14"/>
       <c r="G123" s="15"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="15"/>
+      <c r="I123" s="16"/>
       <c r="J123" s="14"/>
       <c r="K123" s="5"/>
       <c r="L123" s="5"/>
-      <c r="M123" s="17"/>
-    </row>
-    <row r="124" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M123" s="22"/>
+      <c r="N123" s="17"/>
+    </row>
+    <row r="124" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C124" s="18">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D124" s="18"/>
       <c r="E124" s="14"/>
       <c r="F124" s="14"/>
       <c r="G124" s="15"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="15"/>
+      <c r="I124" s="16"/>
       <c r="J124" s="14"/>
       <c r="K124" s="5"/>
       <c r="L124" s="5"/>
-      <c r="M124" s="17"/>
-    </row>
-    <row r="125" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M124" s="22"/>
+      <c r="N124" s="17"/>
+    </row>
+    <row r="125" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C125" s="18">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D125" s="18"/>
       <c r="E125" s="14"/>
       <c r="F125" s="14"/>
       <c r="G125" s="15"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="15"/>
+      <c r="I125" s="16"/>
       <c r="J125" s="14"/>
       <c r="K125" s="5"/>
       <c r="L125" s="5"/>
-      <c r="M125" s="17"/>
-    </row>
-    <row r="126" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M125" s="22"/>
+      <c r="N125" s="17"/>
+    </row>
+    <row r="126" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C126" s="18">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D126" s="18"/>
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="15"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="15"/>
+      <c r="I126" s="16"/>
       <c r="J126" s="14"/>
       <c r="K126" s="5"/>
       <c r="L126" s="5"/>
-      <c r="M126" s="17"/>
-    </row>
-    <row r="127" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M126" s="22"/>
+      <c r="N126" s="17"/>
+    </row>
+    <row r="127" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C127" s="18">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D127" s="18"/>
       <c r="E127" s="14"/>
       <c r="F127" s="14"/>
       <c r="G127" s="15"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="15"/>
+      <c r="I127" s="16"/>
       <c r="J127" s="14"/>
       <c r="K127" s="5"/>
       <c r="L127" s="5"/>
-      <c r="M127" s="17"/>
-    </row>
-    <row r="128" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M127" s="22"/>
+      <c r="N127" s="17"/>
+    </row>
+    <row r="128" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C128" s="18">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D128" s="18"/>
       <c r="E128" s="14"/>
       <c r="F128" s="14"/>
       <c r="G128" s="15"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="15"/>
+      <c r="I128" s="16"/>
       <c r="J128" s="14"/>
       <c r="K128" s="5"/>
       <c r="L128" s="5"/>
-      <c r="M128" s="17"/>
-    </row>
-    <row r="129" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M128" s="22"/>
+      <c r="N128" s="17"/>
+    </row>
+    <row r="129" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C129" s="18">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D129" s="18"/>
       <c r="E129" s="14"/>
       <c r="F129" s="14"/>
       <c r="G129" s="15"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="15"/>
+      <c r="I129" s="16"/>
       <c r="J129" s="14"/>
       <c r="K129" s="5"/>
       <c r="L129" s="5"/>
-      <c r="M129" s="17"/>
-    </row>
-    <row r="130" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M129" s="22"/>
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C130" s="18">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D130" s="18"/>
       <c r="E130" s="14"/>
       <c r="F130" s="14"/>
       <c r="G130" s="15"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="15"/>
+      <c r="I130" s="16"/>
       <c r="J130" s="14"/>
       <c r="K130" s="5"/>
       <c r="L130" s="5"/>
-      <c r="M130" s="17"/>
-    </row>
-    <row r="131" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M130" s="22"/>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C131" s="18">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D131" s="18"/>
       <c r="E131" s="14"/>
       <c r="F131" s="14"/>
       <c r="G131" s="15"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="15"/>
+      <c r="I131" s="16"/>
       <c r="J131" s="14"/>
       <c r="K131" s="5"/>
       <c r="L131" s="5"/>
-      <c r="M131" s="17"/>
-    </row>
-    <row r="132" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M131" s="22"/>
+      <c r="N131" s="17"/>
+    </row>
+    <row r="132" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C132" s="18">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D132" s="18"/>
       <c r="E132" s="14"/>
       <c r="F132" s="14"/>
       <c r="G132" s="15"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="15"/>
+      <c r="I132" s="16"/>
       <c r="J132" s="14"/>
       <c r="K132" s="5"/>
       <c r="L132" s="5"/>
-      <c r="M132" s="17"/>
-    </row>
-    <row r="133" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M132" s="22"/>
+      <c r="N132" s="17"/>
+    </row>
+    <row r="133" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C133" s="18">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D133" s="18"/>
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
       <c r="G133" s="15"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="15"/>
+      <c r="I133" s="16"/>
       <c r="J133" s="14"/>
       <c r="K133" s="5"/>
       <c r="L133" s="5"/>
-      <c r="M133" s="17"/>
-    </row>
-    <row r="134" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M133" s="22"/>
+      <c r="N133" s="17"/>
+    </row>
+    <row r="134" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C134" s="18">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D134" s="18"/>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
       <c r="G134" s="15"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="15"/>
+      <c r="I134" s="16"/>
       <c r="J134" s="14"/>
       <c r="K134" s="5"/>
       <c r="L134" s="5"/>
-      <c r="M134" s="17"/>
-    </row>
-    <row r="135" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M134" s="22"/>
+      <c r="N134" s="17"/>
+    </row>
+    <row r="135" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C135" s="18">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D135" s="18"/>
       <c r="E135" s="14"/>
       <c r="F135" s="14"/>
       <c r="G135" s="15"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="15"/>
+      <c r="I135" s="16"/>
       <c r="J135" s="14"/>
       <c r="K135" s="5"/>
       <c r="L135" s="5"/>
-      <c r="M135" s="17"/>
-    </row>
-    <row r="136" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M135" s="22"/>
+      <c r="N135" s="17"/>
+    </row>
+    <row r="136" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C136" s="18">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D136" s="18"/>
       <c r="E136" s="14"/>
       <c r="F136" s="14"/>
       <c r="G136" s="15"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="15"/>
+      <c r="I136" s="16"/>
       <c r="J136" s="14"/>
       <c r="K136" s="5"/>
       <c r="L136" s="5"/>
-      <c r="M136" s="17"/>
-    </row>
-    <row r="137" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M136" s="22"/>
+      <c r="N136" s="17"/>
+    </row>
+    <row r="137" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C137" s="18">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D137" s="18"/>
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
       <c r="G137" s="15"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="15"/>
+      <c r="I137" s="16"/>
       <c r="J137" s="14"/>
       <c r="K137" s="5"/>
       <c r="L137" s="5"/>
-      <c r="M137" s="17"/>
-    </row>
-    <row r="138" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M137" s="22"/>
+      <c r="N137" s="17"/>
+    </row>
+    <row r="138" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C138" s="18">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D138" s="18"/>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
       <c r="G138" s="15"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="15"/>
+      <c r="I138" s="16"/>
       <c r="J138" s="14"/>
       <c r="K138" s="5"/>
       <c r="L138" s="5"/>
-      <c r="M138" s="17"/>
-    </row>
-    <row r="139" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M138" s="22"/>
+      <c r="N138" s="17"/>
+    </row>
+    <row r="139" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C139" s="18">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
       <c r="G139" s="15"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="15"/>
+      <c r="I139" s="16"/>
       <c r="J139" s="14"/>
       <c r="K139" s="5"/>
       <c r="L139" s="5"/>
-      <c r="M139" s="17"/>
-    </row>
-    <row r="140" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M139" s="22"/>
+      <c r="N139" s="17"/>
+    </row>
+    <row r="140" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C140" s="18">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="14"/>
       <c r="F140" s="14"/>
       <c r="G140" s="15"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="15"/>
+      <c r="I140" s="16"/>
       <c r="J140" s="14"/>
       <c r="K140" s="5"/>
       <c r="L140" s="5"/>
-      <c r="M140" s="17"/>
-    </row>
-    <row r="141" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M140" s="22"/>
+      <c r="N140" s="17"/>
+    </row>
+    <row r="141" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C141" s="18">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="14"/>
       <c r="F141" s="14"/>
       <c r="G141" s="15"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="15"/>
+      <c r="I141" s="16"/>
       <c r="J141" s="14"/>
       <c r="K141" s="5"/>
       <c r="L141" s="5"/>
-      <c r="M141" s="17"/>
-    </row>
-    <row r="142" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M141" s="22"/>
+      <c r="N141" s="17"/>
+    </row>
+    <row r="142" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C142" s="18">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
       <c r="G142" s="15"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="15"/>
+      <c r="I142" s="16"/>
       <c r="J142" s="14"/>
       <c r="K142" s="5"/>
       <c r="L142" s="5"/>
-      <c r="M142" s="17"/>
-    </row>
-    <row r="143" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M142" s="22"/>
+      <c r="N142" s="17"/>
+    </row>
+    <row r="143" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C143" s="18">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
       <c r="G143" s="15"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="15"/>
+      <c r="I143" s="16"/>
       <c r="J143" s="14"/>
       <c r="K143" s="5"/>
       <c r="L143" s="5"/>
-      <c r="M143" s="17"/>
-    </row>
-    <row r="144" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M143" s="22"/>
+      <c r="N143" s="17"/>
+    </row>
+    <row r="144" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C144" s="18">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
       <c r="G144" s="15"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="15"/>
+      <c r="I144" s="16"/>
       <c r="J144" s="14"/>
       <c r="K144" s="5"/>
       <c r="L144" s="5"/>
-      <c r="M144" s="17"/>
-    </row>
-    <row r="145" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M144" s="22"/>
+      <c r="N144" s="17"/>
+    </row>
+    <row r="145" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C145" s="18">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="14"/>
       <c r="F145" s="14"/>
       <c r="G145" s="15"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="15"/>
+      <c r="I145" s="16"/>
       <c r="J145" s="14"/>
       <c r="K145" s="5"/>
       <c r="L145" s="5"/>
-      <c r="M145" s="17"/>
-    </row>
-    <row r="146" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M145" s="22"/>
+      <c r="N145" s="17"/>
+    </row>
+    <row r="146" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C146" s="18">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="14"/>
       <c r="F146" s="14"/>
       <c r="G146" s="15"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="15"/>
+      <c r="I146" s="16"/>
       <c r="J146" s="14"/>
       <c r="K146" s="5"/>
       <c r="L146" s="5"/>
-      <c r="M146" s="17"/>
-    </row>
-    <row r="147" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M146" s="22"/>
+      <c r="N146" s="17"/>
+    </row>
+    <row r="147" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C147" s="18">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="14"/>
       <c r="F147" s="14"/>
       <c r="G147" s="15"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="15"/>
+      <c r="I147" s="16"/>
       <c r="J147" s="14"/>
       <c r="K147" s="5"/>
       <c r="L147" s="5"/>
-      <c r="M147" s="17"/>
-    </row>
-    <row r="148" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M147" s="22"/>
+      <c r="N147" s="17"/>
+    </row>
+    <row r="148" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C148" s="18">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="14"/>
       <c r="F148" s="14"/>
       <c r="G148" s="15"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="15"/>
+      <c r="I148" s="16"/>
       <c r="J148" s="14"/>
       <c r="K148" s="5"/>
       <c r="L148" s="5"/>
-      <c r="M148" s="17"/>
-    </row>
-    <row r="149" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M148" s="22"/>
+      <c r="N148" s="17"/>
+    </row>
+    <row r="149" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C149" s="18">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="14"/>
       <c r="F149" s="14"/>
       <c r="G149" s="15"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="15"/>
+      <c r="I149" s="16"/>
       <c r="J149" s="14"/>
       <c r="K149" s="5"/>
       <c r="L149" s="5"/>
-      <c r="M149" s="17"/>
-    </row>
-    <row r="150" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M149" s="22"/>
+      <c r="N149" s="17"/>
+    </row>
+    <row r="150" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C150" s="18">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="14"/>
       <c r="F150" s="14"/>
       <c r="G150" s="15"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="15"/>
+      <c r="I150" s="16"/>
       <c r="J150" s="14"/>
       <c r="K150" s="5"/>
       <c r="L150" s="5"/>
-      <c r="M150" s="17"/>
-    </row>
-    <row r="151" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M150" s="22"/>
+      <c r="N150" s="17"/>
+    </row>
+    <row r="151" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C151" s="18">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="14"/>
       <c r="F151" s="14"/>
       <c r="G151" s="15"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="15"/>
+      <c r="I151" s="16"/>
       <c r="J151" s="14"/>
       <c r="K151" s="5"/>
       <c r="L151" s="5"/>
-      <c r="M151" s="17"/>
-    </row>
-    <row r="152" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M151" s="22"/>
+      <c r="N151" s="17"/>
+    </row>
+    <row r="152" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C152" s="18">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="14"/>
       <c r="F152" s="14"/>
       <c r="G152" s="15"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="15"/>
+      <c r="I152" s="16"/>
       <c r="J152" s="14"/>
       <c r="K152" s="5"/>
       <c r="L152" s="5"/>
-      <c r="M152" s="17"/>
-    </row>
-    <row r="153" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M152" s="22"/>
+      <c r="N152" s="17"/>
+    </row>
+    <row r="153" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C153" s="18">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="14"/>
       <c r="F153" s="14"/>
       <c r="G153" s="15"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="15"/>
+      <c r="I153" s="16"/>
       <c r="J153" s="14"/>
       <c r="K153" s="5"/>
       <c r="L153" s="5"/>
-      <c r="M153" s="17"/>
-    </row>
-    <row r="154" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M153" s="22"/>
+      <c r="N153" s="17"/>
+    </row>
+    <row r="154" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C154" s="18">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="14"/>
       <c r="F154" s="14"/>
       <c r="G154" s="15"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="15"/>
+      <c r="I154" s="16"/>
       <c r="J154" s="14"/>
       <c r="K154" s="5"/>
       <c r="L154" s="5"/>
-      <c r="M154" s="17"/>
-    </row>
-    <row r="155" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M154" s="22"/>
+      <c r="N154" s="17"/>
+    </row>
+    <row r="155" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C155" s="18">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="14"/>
       <c r="F155" s="14"/>
       <c r="G155" s="15"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="15"/>
+      <c r="I155" s="16"/>
       <c r="J155" s="14"/>
       <c r="K155" s="5"/>
       <c r="L155" s="5"/>
-      <c r="M155" s="17"/>
-    </row>
-    <row r="156" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M155" s="22"/>
+      <c r="N155" s="17"/>
+    </row>
+    <row r="156" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C156" s="18">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="14"/>
       <c r="F156" s="14"/>
       <c r="G156" s="15"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="15"/>
+      <c r="I156" s="16"/>
       <c r="J156" s="14"/>
       <c r="K156" s="5"/>
       <c r="L156" s="5"/>
-      <c r="M156" s="17"/>
-    </row>
-    <row r="157" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M156" s="22"/>
+      <c r="N156" s="17"/>
+    </row>
+    <row r="157" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C157" s="18">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="14"/>
       <c r="F157" s="14"/>
       <c r="G157" s="15"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="15"/>
+      <c r="I157" s="16"/>
       <c r="J157" s="14"/>
       <c r="K157" s="5"/>
       <c r="L157" s="5"/>
-      <c r="M157" s="17"/>
-    </row>
-    <row r="158" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M157" s="22"/>
+      <c r="N157" s="17"/>
+    </row>
+    <row r="158" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C158" s="18">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="14"/>
       <c r="F158" s="14"/>
       <c r="G158" s="15"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="15"/>
+      <c r="I158" s="16"/>
       <c r="J158" s="14"/>
       <c r="K158" s="5"/>
       <c r="L158" s="5"/>
-      <c r="M158" s="17"/>
-    </row>
-    <row r="159" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M158" s="22"/>
+      <c r="N158" s="17"/>
+    </row>
+    <row r="159" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C159" s="18">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="14"/>
       <c r="F159" s="14"/>
       <c r="G159" s="15"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="15"/>
+      <c r="I159" s="16"/>
       <c r="J159" s="14"/>
       <c r="K159" s="5"/>
       <c r="L159" s="5"/>
-      <c r="M159" s="17"/>
-    </row>
-    <row r="160" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M159" s="22"/>
+      <c r="N159" s="17"/>
+    </row>
+    <row r="160" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C160" s="18">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="14"/>
       <c r="F160" s="14"/>
       <c r="G160" s="15"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="15"/>
+      <c r="I160" s="16"/>
       <c r="J160" s="14"/>
       <c r="K160" s="5"/>
       <c r="L160" s="5"/>
-      <c r="M160" s="17"/>
-    </row>
-    <row r="161" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M160" s="22"/>
+      <c r="N160" s="17"/>
+    </row>
+    <row r="161" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C161" s="18">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="14"/>
       <c r="F161" s="14"/>
       <c r="G161" s="15"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="15"/>
+      <c r="I161" s="16"/>
       <c r="J161" s="14"/>
       <c r="K161" s="5"/>
       <c r="L161" s="5"/>
-      <c r="M161" s="17"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3719,7 +3948,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E8">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N160">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F161">
@@ -3735,7 +3964,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3805,7 +4036,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
@@ -3819,13 +4050,13 @@
         <v>22</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$C$5:$N$161</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -267,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划导出末班的投产日期，需要自动填写成系统中的生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -299,10 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划页面需要智能按照型号，梯速，吨位排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -319,27 +314,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                        </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中。需要注意的是，实际情况中除了加了Z以外，还加了一个-H，需要确保Z加载-H之前。例如S0.5AZ-H。该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>当订单从销售进到排产的时候，需要在出AM和Y型机以外的机型上追加一个字母Z，如S0.5A变为S0.5AZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中。需要注意的是，实际情况中除了加了Z意外，还加了一个-H，需要确保Z加载-H之前。例如S0.5AZ-H。该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                  </t>
+    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似方法增加：磁钢；编码器轴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出模板的投产日期，需要自动填写成系统中的生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编码，出厂编号自动生成（批量）的原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未明确</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,7 +438,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,6 +448,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,7 +596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,6 +660,52 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -987,7 +1080,7 @@
         <v>31</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>6</v>
@@ -1000,38 +1093,38 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="18">
+      <c r="C6" s="25">
         <v>1</v>
       </c>
-      <c r="D6" s="18">
-        <v>2</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="D6" s="25">
+        <v>2</v>
+      </c>
+      <c r="E6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="23"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5">
+      <c r="I6" s="29"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30">
         <v>0.5</v>
       </c>
-      <c r="M6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" s="18">
         <v>2</v>
       </c>
@@ -1053,7 +1146,7 @@
       <c r="I7" s="23"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="5">
+      <c r="L7" s="33">
         <v>0.3</v>
       </c>
       <c r="M7" s="22"/>
@@ -1061,7 +1154,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="18">
         <v>3</v>
       </c>
@@ -1085,11 +1178,11 @@
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="5">
+      <c r="L8" s="33">
         <v>0.5</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>19</v>
@@ -1112,16 +1205,16 @@
         <v>35</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I9" s="16" t="s">
         <v>80</v>
       </c>
       <c r="J9" s="14"/>
       <c r="K9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L9" s="5">
+        <v>77</v>
+      </c>
+      <c r="L9" s="24">
         <v>0.2</v>
       </c>
       <c r="M9" s="22"/>
@@ -1146,54 +1239,54 @@
         <v>38</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="5">
+      <c r="L10" s="24">
         <v>0.8</v>
       </c>
       <c r="M10" s="22" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C11" s="18">
+      <c r="C11" s="34">
         <v>6</v>
       </c>
-      <c r="D11" s="18">
-        <v>2</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="34">
+        <v>2</v>
+      </c>
+      <c r="E11" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="H11" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L11" s="5">
+      <c r="J11" s="35"/>
+      <c r="K11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="L11" s="39">
         <v>0.2</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="17" t="s">
+      <c r="M11" s="40"/>
+      <c r="N11" s="41" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1219,7 +1312,7 @@
       <c r="I12" s="16"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="5">
+      <c r="L12" s="33">
         <v>0.2</v>
       </c>
       <c r="M12" s="22"/>
@@ -1252,10 +1345,10 @@
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>19</v>
@@ -1278,16 +1371,18 @@
         <v>47</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="16"/>
+        <v>71</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>83</v>
+      </c>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="5">
+      <c r="L14" s="24">
         <v>1</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>19</v>
@@ -1346,10 +1441,10 @@
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>19</v>
@@ -1378,10 +1473,10 @@
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>19</v>
@@ -1409,7 +1504,7 @@
       <c r="I18" s="16"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="5">
+      <c r="L18" s="33">
         <v>0.05</v>
       </c>
       <c r="M18" s="22"/>
@@ -1434,12 +1529,12 @@
         <v>58</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="5">
+      <c r="L19" s="33">
         <v>0.05</v>
       </c>
       <c r="M19" s="22"/>
@@ -1447,7 +1542,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -1469,7 +1564,7 @@
       <c r="I20" s="16"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="5">
+      <c r="L20" s="33">
         <v>0</v>
       </c>
       <c r="M20" s="22"/>
@@ -1491,17 +1586,17 @@
         <v>15</v>
       </c>
       <c r="G21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="16" t="s">
         <v>75</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>77</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="22"/>
       <c r="N21" s="17" t="s">
         <v>19</v>
@@ -1514,14 +1609,22 @@
       <c r="D22" s="18">
         <v>2</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>86</v>
+      </c>
       <c r="G22" s="15"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="16"/>
+      <c r="H22" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="22"/>
       <c r="N22" s="17"/>
     </row>
@@ -3940,6 +4043,7 @@
       <c r="N161" s="17"/>
     </row>
   </sheetData>
+  <autoFilter ref="C5:N161"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E7 E9:E160">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -364,6 +364,21 @@
   <si>
     <t>未明确</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中，生产日期审核中的表格设置，只选一个投产编号，然后切换到计划排产在切回待办事项中的生产日期审核，点击前往审核后程序无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序能够正常进入审核页面进行审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复中</t>
   </si>
 </sst>
 </file>
@@ -1013,8 +1028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4068,8 +4083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4168,24 +4183,36 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C8" s="18">
         <v>3</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="I8" s="16"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="17"/>
+      <c r="K8" s="17" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="15"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="15"/>
       <c r="G9" s="16"/>
@@ -4625,15 +4652,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K42">
       <formula1>"未修复,修复中,验证中,已修复,不再现,不修复,无效Bug"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E42">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D42 D6:D7">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9">
+      <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -141,132 +141,235 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>预投排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于百度的搜索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修复</t>
+  </si>
+  <si>
+    <t>审核筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+  </si>
+  <si>
+    <t>用户权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选保存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要保存上一次的筛选条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是预投机器则在生产日期上显示预投两个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的背景色需要与正常的色差大一些</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵晓超，无审核权，主要使用导出功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续考虑增加操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要确定需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要调查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出模板变更</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划模块中的按模板导出的模板需要进行更换，主要更改了内容阶段的问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模板为《过程监控记录（150508更新）.xls》已经更新到Git中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出模板的投产日期，需要自动填写成系统中的生产日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编码，出厂编号自动生成（批量）的原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中，生产日期审核中的表格设置，只选一个投产编号，然后切换到计划排产在切回待办事项中的生产日期审核，点击前往审核后程序无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序能够正常进入审核页面进行审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复中</t>
+  </si>
+  <si>
+    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。相应的在显示界面也需要增加一个磁钢的字段进行显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>工数（人/月）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Deadline</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>低</t>
-  </si>
-  <si>
-    <t>预投排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能排序规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似于百度的搜索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现在有预投机卖给客户的情况，由于预投机没有排产，所以希望生产日期的地方显示预投两个字。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修复</t>
-  </si>
-  <si>
-    <t>审核筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-  </si>
-  <si>
-    <t>用户权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前客户反馈只在24号上再现，我没再现出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选保存</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要保存上一次的筛选条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是预投机器则在生产日期上显示预投两个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中的背景色需要与正常的色差大一些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵晓超，无审核权，主要使用导出功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续考虑增加操作日志</t>
+    <t>有蓝光提供所有型号排序的全集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以不考虑以前的数据，新加一个字段进行处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示字段调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -274,111 +377,32 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开发备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出模板变更</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划模块中的按模板导出的模板需要进行更换，主要更改了内容阶段的问题。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体模板为《过程监控记录（150508更新）.xls》已经更新到Git中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                        </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Z代表磁钢型号，目前是计划手动添加到规格型号当中。需要注意的是，实际情况中除了加了Z以外，还加了一个-H，需要确保Z加载-H之前。例如S0.5AZ-H。该需求只针对于S,T,U,Y四个机型，其它机型暂时不需要对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当订单从销售进到排产的时候，需要在出AM和Y型机以外的机型上追加一个字母Z，如S0.5A变为S0.5AZ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似方法增加：磁钢；编码器轴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划导出模板的投产日期，需要自动填写成系统中的生产日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编码，出厂编号自动生成（批量）的原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未明确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中，生产日期审核中的表格设置，只选一个投产编号，然后切换到计划排产在切回待办事项中的生产日期审核，点击前往审核后程序无响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序能够正常进入审核页面进行审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复中</t>
+    <t>将销售页面的轴承，单复绕，优先级字段去干掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户区域与制造商两个字段信息反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面排序需要全部解锁，只按照单排进行排序。销售页面默认排序为订单日期，计划排产页面默认为生产日期+型号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -468,12 +492,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -487,6 +505,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,52 +700,52 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1028,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1042,7 +1066,7 @@
     <col min="9" max="9" width="26.25" style="21" customWidth="1"/>
     <col min="10" max="10" width="13.75" customWidth="1"/>
     <col min="11" max="11" width="15.375" customWidth="1"/>
-    <col min="12" max="12" width="18.25" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="18.25" style="21" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,7 +1087,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:20" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1086,16 +1110,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>6</v>
@@ -1108,34 +1132,34 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="25">
+      <c r="C6" s="24">
         <v>1</v>
       </c>
-      <c r="D6" s="25">
-        <v>2</v>
-      </c>
-      <c r="E6" s="26" t="s">
+      <c r="D6" s="24">
+        <v>2</v>
+      </c>
+      <c r="E6" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="26" t="s">
+      <c r="F6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="28" t="s">
+      <c r="H6" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30">
+      <c r="I6" s="28"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29">
         <v>0.5</v>
       </c>
-      <c r="M6" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="32" t="s">
+      <c r="M6" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="N6" s="31" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1156,12 +1180,12 @@
         <v>28</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" s="23"/>
       <c r="J7" s="14"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="33">
+      <c r="L7" s="32">
         <v>0.3</v>
       </c>
       <c r="M7" s="22"/>
@@ -1189,21 +1213,21 @@
         <v>30</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="33">
+      <c r="L8" s="32">
         <v>0.5</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="N8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:20" ht="114" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:20" ht="57" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
@@ -1217,21 +1241,15 @@
         <v>22</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>80</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="I9" s="16"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L9" s="24">
-        <v>0.2</v>
-      </c>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
       <c r="M9" s="22"/>
       <c r="N9" s="17" t="s">
         <v>19</v>
@@ -1251,57 +1269,55 @@
         <v>22</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="24">
-        <v>0.8</v>
-      </c>
+      <c r="L10" s="41"/>
       <c r="M10" s="22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N10" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C11" s="34">
+      <c r="C11" s="33">
         <v>6</v>
       </c>
-      <c r="D11" s="34">
-        <v>2</v>
-      </c>
-      <c r="E11" s="35" t="s">
+      <c r="D11" s="33">
+        <v>2</v>
+      </c>
+      <c r="E11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="L11" s="39">
+      <c r="G11" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11" s="38">
         <v>0.2</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="41" t="s">
+      <c r="M11" s="39"/>
+      <c r="N11" s="40" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1319,15 +1335,15 @@
         <v>15</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I12" s="16"/>
       <c r="J12" s="14"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="33">
+      <c r="L12" s="32">
         <v>0.2</v>
       </c>
       <c r="M12" s="22"/>
@@ -1343,27 +1359,27 @@
         <v>2</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>65</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>19</v>
@@ -1383,21 +1399,19 @@
         <v>15</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="24">
-        <v>1</v>
-      </c>
+      <c r="L14" s="41"/>
       <c r="M14" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="N14" s="17" t="s">
         <v>19</v>
@@ -1417,10 +1431,10 @@
         <v>22</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="14"/>
@@ -1441,25 +1455,25 @@
         <v>2</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>19</v>
@@ -1473,25 +1487,25 @@
         <v>2</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>19</v>
@@ -1505,21 +1519,21 @@
         <v>2</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="14"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <v>0.05</v>
       </c>
       <c r="M18" s="22"/>
@@ -1541,15 +1555,15 @@
         <v>15</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="19" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="14"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="33">
+      <c r="L19" s="32">
         <v>0.05</v>
       </c>
       <c r="M19" s="22"/>
@@ -1565,21 +1579,21 @@
         <v>2</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H20" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="14"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="33">
+      <c r="L20" s="32">
         <v>0</v>
       </c>
       <c r="M20" s="22"/>
@@ -1601,17 +1615,17 @@
         <v>15</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="33"/>
+      <c r="L21" s="32"/>
       <c r="M21" s="22"/>
       <c r="N21" s="17" t="s">
         <v>19</v>
@@ -1625,23 +1639,29 @@
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="15"/>
+        <v>78</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="H22" s="19" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="24"/>
+      <c r="L22" s="41" t="s">
+        <v>91</v>
+      </c>
       <c r="M22" s="22"/>
-      <c r="N22" s="17"/>
+      <c r="N22" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="23" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -1650,52 +1670,82 @@
       <c r="D23" s="18">
         <v>2</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="19"/>
+      <c r="E23" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>92</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="14"/>
       <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N23" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>19</v>
       </c>
       <c r="D24" s="18">
         <v>2</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="19"/>
+      <c r="E24" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>96</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="14"/>
       <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="22"/>
-      <c r="N24" s="17"/>
-    </row>
-    <row r="25" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N24" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>20</v>
       </c>
       <c r="D25" s="18">
         <v>2</v>
       </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="19"/>
+      <c r="E25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>98</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="14"/>
       <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="17"/>
+      <c r="N25" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="26" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
@@ -4083,8 +4133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4124,10 +4174,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
@@ -4155,7 +4205,7 @@
       <c r="I6" s="16"/>
       <c r="J6" s="5"/>
       <c r="K6" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
@@ -4169,13 +4219,13 @@
         <v>22</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="5"/>
@@ -4194,32 +4244,42 @@
         <v>22</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="5"/>
       <c r="K8" s="17" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
+      <c r="D9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>94</v>
+      </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
       <c r="J9" s="5"/>
-      <c r="K9" s="17"/>
+      <c r="K9" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C10" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -402,6 +402,18 @@
   </si>
   <si>
     <t>页面排序需要全部解锁，只按照单排进行排序。销售页面默认排序为订单日期，计划排产页面默认为生产日期+型号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体需求细节TBD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1052,8 +1064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1087,7 +1099,7 @@
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="2:20" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:20" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:20" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
         <v>29</v>
       </c>
@@ -1754,11 +1766,21 @@
       <c r="D26" s="18">
         <v>2</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="16"/>
+      <c r="E26" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>如果是预投机器则在生产日期上显示预投两个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>复制功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,24 +343,12 @@
   </si>
   <si>
     <t>修复中</t>
-  </si>
-  <si>
-    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。相应的在显示界面也需要增加一个磁钢的字段进行显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>工数（人/月）</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有蓝光提供所有型号排序的全集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以不考虑以前的数据，新加一个字段进行处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轴承与备注需要作用于一个机器而不是整个订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -377,18 +361,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将销售页面的轴承，单复绕，优先级字段去干掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段匹配</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>客户区域与制造商两个字段信息反了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>字段显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>页面排序需要全部解锁，只按照单排进行排序。销售页面默认排序为订单日期，计划排产页面默认为生产日期+型号排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>键盘支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -413,7 +385,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体需求细节TBD</t>
+    <t>如果是预投机器则在生产日期上显示预投两个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的时候在计划页面将Z显示到规格后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将销售的备注和计划的备注分开。在计划表中增加一个备注字段，默认显示销售页面中的字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承字段需要在计划页面中保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中客户区域与制造商两个字段信息反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面默认排序为订单日期+客户名称。计划排产页面默认为生产日期+型号排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -709,9 +721,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -758,6 +767,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,8 +1097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:N25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1128,10 +1161,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>6</v>
@@ -1144,222 +1177,224 @@
       <c r="T5" s="2"/>
     </row>
     <row r="6" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="24">
-        <v>2</v>
-      </c>
-      <c r="E6" s="25" t="s">
+      <c r="D6" s="23">
+        <v>2</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="29"/>
-      <c r="L6" s="29">
+      <c r="I6" s="27"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28">
         <v>0.5</v>
       </c>
-      <c r="M6" s="30" t="s">
+      <c r="M6" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="41">
+        <v>2</v>
+      </c>
+      <c r="D7" s="41">
+        <v>2</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="45"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31">
+        <v>0.3</v>
+      </c>
+      <c r="M7" s="46"/>
+      <c r="N7" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="41">
+        <v>3</v>
+      </c>
+      <c r="D8" s="41">
+        <v>2</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="48" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="48"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="N8" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C9" s="41">
+        <v>4</v>
+      </c>
+      <c r="D9" s="41">
+        <v>2</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C10" s="41">
+        <v>5</v>
+      </c>
+      <c r="D10" s="41">
+        <v>2</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="I10" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="N6" s="31" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="18">
-        <v>2</v>
-      </c>
-      <c r="D7" s="18">
-        <v>2</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="N10" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="57" x14ac:dyDescent="0.15">
+      <c r="C11" s="32">
+        <v>6</v>
+      </c>
+      <c r="D11" s="32">
+        <v>2</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="33"/>
+      <c r="K11" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="37">
+        <v>0.2</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" ht="57" x14ac:dyDescent="0.15">
+      <c r="C12" s="41">
+        <v>7</v>
+      </c>
+      <c r="D12" s="41">
+        <v>2</v>
+      </c>
+      <c r="E12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="19" t="s">
+      <c r="F12" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="32">
-        <v>0.3</v>
-      </c>
-      <c r="M7" s="22"/>
-      <c r="N7" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="18">
-        <v>3</v>
-      </c>
-      <c r="D8" s="18">
-        <v>2</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="32">
-        <v>0.5</v>
-      </c>
-      <c r="M8" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C9" s="18">
-        <v>4</v>
-      </c>
-      <c r="D9" s="18">
-        <v>2</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="16"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="18">
-        <v>5</v>
-      </c>
-      <c r="D10" s="18">
-        <v>2</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="N10" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C11" s="33">
-        <v>6</v>
-      </c>
-      <c r="D11" s="33">
-        <v>2</v>
-      </c>
-      <c r="E11" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11" s="38">
+      <c r="I12" s="48"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31">
         <v>0.2</v>
       </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C12" s="18">
-        <v>7</v>
-      </c>
-      <c r="D12" s="18">
-        <v>2</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="32">
-        <v>0.2</v>
-      </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="17" t="s">
+      <c r="M12" s="46"/>
+      <c r="N12" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1380,82 +1415,82 @@
         <v>42</v>
       </c>
       <c r="H13" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="16" t="s">
         <v>61</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>62</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C14" s="18">
+      <c r="C14" s="41">
         <v>9</v>
       </c>
-      <c r="D14" s="18">
-        <v>2</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="41">
+        <v>2</v>
+      </c>
+      <c r="E14" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14" s="17" t="s">
+      <c r="H14" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="N14" s="47" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C15" s="18">
+      <c r="C15" s="41">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
-        <v>2</v>
-      </c>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="41">
+        <v>2</v>
+      </c>
+      <c r="E15" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5">
+      <c r="I15" s="48"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31">
         <v>0.2</v>
       </c>
-      <c r="M15" s="22"/>
-      <c r="N15" s="17" t="s">
+      <c r="M15" s="46"/>
+      <c r="N15" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1482,10 +1517,10 @@
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M16" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N16" s="17" t="s">
         <v>19</v>
@@ -1505,141 +1540,141 @@
         <v>34</v>
       </c>
       <c r="G17" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>53</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
       <c r="L17" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="18">
+      <c r="C18" s="41">
         <v>13</v>
       </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="41">
+        <v>2</v>
+      </c>
+      <c r="E18" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="I18" s="48"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="41">
+        <v>14</v>
+      </c>
+      <c r="D19" s="41">
+        <v>2</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="32">
+      <c r="H19" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="I19" s="48"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31">
         <v>0.05</v>
       </c>
-      <c r="M18" s="22"/>
-      <c r="N18" s="17" t="s">
+      <c r="M19" s="46"/>
+      <c r="N19" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="18">
-        <v>14</v>
-      </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="E19" s="14" t="s">
+    <row r="20" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="41">
+        <v>15</v>
+      </c>
+      <c r="D20" s="41">
+        <v>2</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="48"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31">
+        <v>0</v>
+      </c>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C21" s="41">
+        <v>16</v>
+      </c>
+      <c r="D21" s="41">
+        <v>2</v>
+      </c>
+      <c r="E21" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F21" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="I19" s="16"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="32">
-        <v>0.05</v>
-      </c>
-      <c r="M19" s="22"/>
-      <c r="N19" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="18">
-        <v>15</v>
-      </c>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="E20" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="I20" s="16"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="32">
-        <v>0</v>
-      </c>
-      <c r="M20" s="22"/>
-      <c r="N20" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C21" s="18">
-        <v>16</v>
-      </c>
-      <c r="D21" s="18">
-        <v>2</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="I21" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="17" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1651,55 +1686,57 @@
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>77</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>78</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>79</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="41" t="s">
-        <v>91</v>
+      <c r="L22" s="40" t="s">
+        <v>87</v>
       </c>
       <c r="M22" s="22"/>
       <c r="N22" s="17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C23" s="18">
+    <row r="23" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C23" s="41">
         <v>18</v>
       </c>
-      <c r="D23" s="18">
-        <v>2</v>
-      </c>
-      <c r="E23" s="14" t="s">
+      <c r="D23" s="41">
+        <v>2</v>
+      </c>
+      <c r="E23" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="H23" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="16"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="17" t="s">
+      <c r="G23" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>100</v>
+      </c>
+      <c r="J23" s="42"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="47" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1717,10 +1754,10 @@
         <v>34</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="14"/>
@@ -1732,34 +1769,36 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="18">
+      <c r="C25" s="41">
         <v>20</v>
       </c>
-      <c r="D25" s="18">
-        <v>2</v>
-      </c>
-      <c r="E25" s="14" t="s">
+      <c r="D25" s="41">
+        <v>2</v>
+      </c>
+      <c r="E25" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="I25" s="16"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="17" t="s">
+      <c r="G25" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="42"/>
+      <c r="K25" s="31"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="47" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:14" ht="85.5" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>21</v>
       </c>
@@ -1773,13 +1812,13 @@
         <v>34</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
@@ -4156,7 +4195,7 @@
   <dimension ref="B2:K42"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4266,35 +4305,35 @@
         <v>22</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>83</v>
       </c>
       <c r="I8" s="16"/>
       <c r="J8" s="5"/>
       <c r="K8" s="17" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C9" s="18">
         <v>4</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -258,34 +258,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>开发备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要确定需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对原始数据库影响巨大，兼容性处理，旧数据展现形式及历史数据处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要调查</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>兼容性处理、原始数据处理、修改原始数据库影响较大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>兼容性处理，算法处理，考虑后期特殊型号的数据正确</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出模板变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -302,14 +282,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                                                                                                                  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划导出模板的投产日期，需要自动填写成系统中的生产日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,14 +303,6 @@
   </si>
   <si>
     <t>表格设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中，生产日期审核中的表格设置，只选一个投产编号，然后切换到计划排产在切回待办事项中的生产日期审核，点击前往审核后程序无响应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>程序能够正常进入审核页面进行审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -349,83 +313,95 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>显示字段调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果是预投机器则在生产日期上显示预投两个字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将销售的备注和计划的备注分开。在计划表中增加一个备注字段，默认显示销售页面中的字段。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承字段需要在计划页面中保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面默认排序为订单日期+客户名称。计划排产页面默认为生产日期+型号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中客户区域与制造商两个字段信息反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的时候在计划页面将Z显示到规格后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>轴承与备注需要作用于一个机器而不是整个订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示字段调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>键盘支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果是预投机器则在生产日期上显示预投两个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的时候在计划页面将Z显示到规格后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要将销售的备注和计划的备注分开。在计划表中增加一个备注字段，默认显示销售页面中的字段。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承字段需要在计划页面中保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面中客户区域与制造商两个字段信息反了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售页面默认排序为订单日期+客户名称。计划排产页面默认为生产日期+型号排序</t>
+    <t>代办事项中，生产日期审核中的表格设置，只选一个投产编号，然后切换到计划排产在切回待办事项中的生产日期审核，点击前往审核后程序无响应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序能够正常进入审核页面进行审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +409,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -500,8 +476,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,6 +519,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +649,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -760,12 +750,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -790,6 +774,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1097,8 +1108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25:N25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1161,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>6</v>
@@ -1198,139 +1209,141 @@
       <c r="I6" s="27"/>
       <c r="J6" s="24"/>
       <c r="K6" s="28"/>
-      <c r="L6" s="28">
-        <v>0.5</v>
-      </c>
+      <c r="L6" s="28"/>
       <c r="M6" s="29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="N6" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" spans="2:20" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="41">
-        <v>2</v>
-      </c>
-      <c r="D7" s="41">
-        <v>2</v>
-      </c>
-      <c r="E7" s="42" t="s">
+      <c r="C7" s="39">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39">
+        <v>2</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="44" t="s">
+      <c r="H7" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="45"/>
-      <c r="J7" s="42"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="40"/>
       <c r="K7" s="31"/>
       <c r="L7" s="31">
         <v>0.3</v>
       </c>
-      <c r="M7" s="46"/>
-      <c r="N7" s="47" t="s">
+      <c r="M7" s="44"/>
+      <c r="N7" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:20" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="41">
+      <c r="C8" s="39">
         <v>3</v>
       </c>
-      <c r="D8" s="41">
-        <v>2</v>
-      </c>
-      <c r="E8" s="43" t="s">
+      <c r="D8" s="39">
+        <v>2</v>
+      </c>
+      <c r="E8" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="43" t="s">
+      <c r="G8" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="48" t="s">
+      <c r="H8" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="I8" s="48" t="s">
+      <c r="I8" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="J8" s="48"/>
+      <c r="J8" s="46"/>
       <c r="K8" s="31"/>
       <c r="L8" s="31">
         <v>0.5</v>
       </c>
-      <c r="M8" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="N8" s="47" t="s">
+      <c r="M8" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="N8" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:20" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C9" s="41">
+      <c r="C9" s="39">
         <v>4</v>
       </c>
-      <c r="D9" s="41">
-        <v>2</v>
-      </c>
-      <c r="E9" s="42" t="s">
+      <c r="D9" s="39">
+        <v>2</v>
+      </c>
+      <c r="E9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H9" s="44" t="s">
+      <c r="H9" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="47">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="44"/>
+      <c r="N9" s="45" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C10" s="39">
+        <v>5</v>
+      </c>
+      <c r="D10" s="39">
+        <v>2</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="I9" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="2:20" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C10" s="41">
-        <v>5</v>
-      </c>
-      <c r="D10" s="41">
-        <v>2</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="J10" s="42"/>
+      <c r="J10" s="40"/>
       <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="N10" s="47" t="s">
+      <c r="L10" s="48">
+        <v>0.4</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1351,50 +1364,50 @@
         <v>35</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>38</v>
       </c>
       <c r="J11" s="33"/>
-      <c r="K11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39" t="s">
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="33" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C12" s="41">
+      <c r="C12" s="39">
         <v>7</v>
       </c>
-      <c r="D12" s="41">
-        <v>2</v>
-      </c>
-      <c r="E12" s="42" t="s">
+      <c r="D12" s="39">
+        <v>2</v>
+      </c>
+      <c r="E12" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="42" t="s">
+      <c r="F12" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="43" t="s">
+      <c r="G12" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="48"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="31"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="50">
+        <v>42144</v>
+      </c>
       <c r="L12" s="31">
         <v>0.2</v>
       </c>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47" t="s">
+      <c r="M12" s="44">
+        <v>1</v>
+      </c>
+      <c r="N12" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1422,75 +1435,79 @@
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>64</v>
-      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="22"/>
       <c r="N13" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="2:20" ht="57" x14ac:dyDescent="0.15">
-      <c r="C14" s="41">
+      <c r="C14" s="39">
         <v>9</v>
       </c>
-      <c r="D14" s="41">
-        <v>2</v>
-      </c>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="39">
+        <v>2</v>
+      </c>
+      <c r="E14" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="44" t="s">
+      <c r="H14" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="I14" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="I14" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" s="47" t="s">
+      <c r="J14" s="40"/>
+      <c r="K14" s="50">
+        <v>42144</v>
+      </c>
+      <c r="L14" s="48">
+        <v>0.3</v>
+      </c>
+      <c r="M14" s="44">
+        <v>2</v>
+      </c>
+      <c r="N14" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" spans="2:20" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C15" s="41">
+      <c r="C15" s="39">
         <v>10</v>
       </c>
-      <c r="D15" s="41">
-        <v>2</v>
-      </c>
-      <c r="E15" s="42" t="s">
+      <c r="D15" s="39">
+        <v>2</v>
+      </c>
+      <c r="E15" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="43" t="s">
+      <c r="G15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="48"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="31"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="50">
+        <v>42144</v>
+      </c>
       <c r="L15" s="31">
         <v>0.2</v>
       </c>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47" t="s">
+      <c r="M15" s="44">
+        <v>1</v>
+      </c>
+      <c r="N15" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1516,12 +1533,8 @@
       <c r="I16" s="16"/>
       <c r="J16" s="14"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M16" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="22"/>
       <c r="N16" s="17" t="s">
         <v>19</v>
       </c>
@@ -1548,133 +1561,147 @@
       <c r="I17" s="16"/>
       <c r="J17" s="14"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" s="22" t="s">
-        <v>66</v>
-      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="22"/>
       <c r="N17" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C18" s="41">
+      <c r="C18" s="39">
         <v>13</v>
       </c>
-      <c r="D18" s="41">
-        <v>2</v>
-      </c>
-      <c r="E18" s="42" t="s">
+      <c r="D18" s="39">
+        <v>2</v>
+      </c>
+      <c r="E18" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="42" t="s">
+      <c r="F18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="48"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="31"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="50">
+        <v>42144</v>
+      </c>
       <c r="L18" s="31">
         <v>0.05</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="47" t="s">
+      <c r="M18" s="44">
+        <v>2</v>
+      </c>
+      <c r="N18" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="19" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="41">
+      <c r="C19" s="39">
         <v>14</v>
       </c>
-      <c r="D19" s="41">
-        <v>2</v>
-      </c>
-      <c r="E19" s="42" t="s">
+      <c r="D19" s="39">
+        <v>2</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="42" t="s">
+      <c r="F19" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="I19" s="48"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="31"/>
+      <c r="H19" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="I19" s="46"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="50">
+        <v>42144</v>
+      </c>
       <c r="L19" s="31">
         <v>0.05</v>
       </c>
-      <c r="M19" s="46"/>
-      <c r="N19" s="47" t="s">
+      <c r="M19" s="44">
+        <v>2</v>
+      </c>
+      <c r="N19" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="41">
+      <c r="C20" s="39">
         <v>15</v>
       </c>
-      <c r="D20" s="41">
-        <v>2</v>
-      </c>
-      <c r="E20" s="42" t="s">
+      <c r="D20" s="39">
+        <v>2</v>
+      </c>
+      <c r="E20" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="42" t="s">
+      <c r="F20" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="H20" s="44" t="s">
+      <c r="H20" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="31"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="50">
+        <v>42144</v>
+      </c>
       <c r="L20" s="31">
         <v>0</v>
       </c>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47" t="s">
+      <c r="M20" s="44">
+        <v>1</v>
+      </c>
+      <c r="N20" s="45" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C21" s="41">
+      <c r="C21" s="39">
         <v>16</v>
       </c>
-      <c r="D21" s="41">
-        <v>2</v>
-      </c>
-      <c r="E21" s="42" t="s">
+      <c r="D21" s="39">
+        <v>2</v>
+      </c>
+      <c r="E21" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="42" t="s">
+      <c r="F21" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G21" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47" t="s">
+      <c r="G21" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="40"/>
+      <c r="K21" s="50">
+        <v>42144</v>
+      </c>
+      <c r="L21" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="M21" s="44">
+        <v>2</v>
+      </c>
+      <c r="N21" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1686,57 +1713,57 @@
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="40" t="s">
-        <v>87</v>
-      </c>
+      <c r="L22" s="38"/>
       <c r="M22" s="22"/>
       <c r="N22" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="23" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C23" s="41">
+      <c r="C23" s="39">
         <v>18</v>
       </c>
-      <c r="D23" s="41">
-        <v>2</v>
-      </c>
-      <c r="E23" s="42" t="s">
+      <c r="D23" s="39">
+        <v>2</v>
+      </c>
+      <c r="E23" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="42" t="s">
+      <c r="F23" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G23" s="43" t="s">
+      <c r="G23" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="J23" s="42"/>
+      <c r="I23" s="46" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="40"/>
       <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47" t="s">
+      <c r="L23" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="M23" s="44"/>
+      <c r="N23" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1754,10 +1781,10 @@
         <v>34</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="14"/>
@@ -1769,32 +1796,38 @@
       </c>
     </row>
     <row r="25" spans="3:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C25" s="41">
+      <c r="C25" s="39">
         <v>20</v>
       </c>
-      <c r="D25" s="41">
-        <v>2</v>
-      </c>
-      <c r="E25" s="42" t="s">
+      <c r="D25" s="39">
+        <v>2</v>
+      </c>
+      <c r="E25" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="42" t="s">
+      <c r="F25" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="47" t="s">
+      <c r="G25" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="I25" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="40"/>
+      <c r="K25" s="50">
+        <v>42144</v>
+      </c>
+      <c r="L25" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="M25" s="44">
+        <v>2</v>
+      </c>
+      <c r="N25" s="45" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1812,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H26" s="19" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
@@ -4194,8 +4227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4270,75 +4303,81 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="18">
-        <v>2</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="51">
+        <v>2</v>
+      </c>
+      <c r="D7" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="17" t="s">
+      <c r="I7" s="55">
+        <v>42144</v>
+      </c>
+      <c r="J7" s="56"/>
+      <c r="K7" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="18">
+      <c r="C8" s="51">
         <v>3</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="16"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="17" t="s">
-        <v>83</v>
+      <c r="F8" s="52" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="55">
+        <v>42144</v>
+      </c>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C9" s="18">
+      <c r="C9" s="51">
         <v>4</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="17" t="s">
+      <c r="F9" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="54"/>
+      <c r="I9" s="55">
+        <v>42144</v>
+      </c>
+      <c r="J9" s="56"/>
+      <c r="K9" s="57" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -274,10 +274,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>具体模板为《过程监控记录（150508更新）.xls》已经更新到Git中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                   </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示的时候在计划页面将Z显示到规格后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轴承与备注需要作用于一个机器而不是整个订单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -402,6 +394,46 @@
   </si>
   <si>
     <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的时候将磁钢单独一列显示在型号后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要可以动态配置表格的显示，需要可以将任意新增字段显示在现有表格的任意位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场编号需要支持“/”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在出场编号中填写“/”，时系统报错，显示“网络链接错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期被反选以后，仍然显示之前的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期被反选以后，日期为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -649,7 +681,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -800,6 +832,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1108,8 +1143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1172,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M5" s="20" t="s">
         <v>62</v>
@@ -1275,7 +1310,7 @@
         <v>0.5</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8" s="45" t="s">
         <v>19</v>
@@ -1298,10 +1333,10 @@
         <v>45</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="46" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
@@ -1330,10 +1365,10 @@
         <v>36</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J10" s="40"/>
       <c r="K10" s="31"/>
@@ -1341,7 +1376,7 @@
         <v>0.4</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N10" s="45" t="s">
         <v>19</v>
@@ -1364,7 +1399,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I11" s="36" t="s">
         <v>38</v>
@@ -1458,10 +1493,10 @@
         <v>45</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I14" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J14" s="40"/>
       <c r="K14" s="50">
@@ -1618,7 +1653,7 @@
         <v>55</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I19" s="46"/>
       <c r="J19" s="40"/>
@@ -1689,7 +1724,7 @@
         <v>65</v>
       </c>
       <c r="I21" s="46" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="J21" s="40"/>
       <c r="K21" s="50">
@@ -1713,19 +1748,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="G22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="H22" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="I22" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>72</v>
       </c>
       <c r="J22" s="14"/>
       <c r="K22" s="5"/>
@@ -1749,13 +1784,13 @@
         <v>22</v>
       </c>
       <c r="G23" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H23" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="46" t="s">
         <v>86</v>
-      </c>
-      <c r="I23" s="46" t="s">
-        <v>87</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="31"/>
@@ -1781,10 +1816,10 @@
         <v>34</v>
       </c>
       <c r="G24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>78</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>79</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="14"/>
@@ -1809,13 +1844,13 @@
         <v>15</v>
       </c>
       <c r="G25" s="41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J25" s="40"/>
       <c r="K25" s="50">
@@ -1845,37 +1880,49 @@
         <v>34</v>
       </c>
       <c r="G26" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="H26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="H26" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="I26" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J26" s="14"/>
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="22"/>
-      <c r="N26" s="17"/>
-    </row>
-    <row r="27" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="N26" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>22</v>
       </c>
       <c r="D27" s="18">
         <v>2</v>
       </c>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="19"/>
+      <c r="E27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>99</v>
+      </c>
       <c r="I27" s="16"/>
       <c r="J27" s="14"/>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="17"/>
+      <c r="N27" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="28" spans="3:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
@@ -4227,9 +4274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4340,20 +4385,20 @@
         <v>22</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I8" s="55">
         <v>42144</v>
       </c>
       <c r="J8" s="56"/>
       <c r="K8" s="57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
@@ -4367,10 +4412,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H9" s="54"/>
       <c r="I9" s="55">
@@ -4381,31 +4426,55 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C10" s="18">
         <v>5</v>
       </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="D10" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>101</v>
+      </c>
       <c r="I10" s="16"/>
       <c r="J10" s="5"/>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K10" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
         <v>6</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>105</v>
+      </c>
       <c r="I11" s="16"/>
       <c r="J11" s="5"/>
-      <c r="K11" s="17"/>
+      <c r="K11" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
@@ -4819,10 +4888,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E42">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D42 D6:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D12:D42">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="109">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -434,6 +434,14 @@
   </si>
   <si>
     <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选包装计划为5月21日，制造商为抚顺的全部订单。结果为35条，按模板导出后为33条，投产编号为H01969和H01970没有导出来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
@@ -4274,13 +4282,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
@@ -4476,18 +4486,28 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" ht="57" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
         <v>7</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
+      <c r="D12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>108</v>
+      </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="17"/>
+      <c r="K12" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C13" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="138">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,10 +99,6 @@
     <t>计划模块</t>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
   </si>
   <si>
@@ -390,47 +386,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>显示的时候将磁钢单独一列显示在型号后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要可以动态配置表格的显示，需要可以将任意新增字段显示在现有表格的任意位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场编号需要支持“/”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在出场编号中填写“/”，时系统报错，显示“网络链接错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期被反选以后，仍然显示之前的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期被反选以后，日期为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选包装计划为5月21日，制造商为抚顺的全部订单。结果为35条，按模板导出后为33条，投产编号为H01969和H01970没有导出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再现</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>确认后，不需要考虑兼容性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>显示的时候将磁钢单独一列显示在型号后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格显示配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要可以动态配置表格的显示，需要可以将任意新增字段显示在现有表格的任意位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场编号需要支持“/”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在出场编号中填写“/”，时系统报错，显示“网络链接错误”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期被反选以后，仍然显示之前的日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期被反选以后，日期为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>目前只完成了备注部分，轴承部分未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的生产日期与实际不符。筛选抚顺，生产日期为22的数据，导出后模板生产日期上写的事5月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出后生产日期应该是5月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选中的单选框中没有空白选项，这样无法选择空白，导致无法筛选全部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白的时候应该是全部都显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,22 +501,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>筛选包装计划为5月21日，制造商为抚顺的全部订单。结果为35条，按模板导出后为33条，投产编号为H01969和H01970没有导出来。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不再现</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据中，主机颜色和制动电压两个值反了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值和名字应该匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板原来有一些默认值，需要清掉，另外条形码的位置需要往下移动1毫米，目前打印出来的效果显示表格的上边框被条形码挡住了一半，十分难看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中的更多筛选里面有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件应该默认都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的更多筛选功能都需要保留上一次的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -535,7 +636,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -563,6 +664,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -827,6 +934,30 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1133,8 +1264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1170,7 +1301,7 @@
     <row r="4" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
@@ -1191,16 +1322,16 @@
         <v>4</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -1223,23 +1354,23 @@
         <v>14</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="25" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="24"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="46" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1250,16 +1381,16 @@
         <v>2</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="39"/>
@@ -1285,16 +1416,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="50">
@@ -1304,7 +1435,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>19</v>
@@ -1321,16 +1452,16 @@
         <v>20</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="50">
@@ -1355,16 +1486,16 @@
         <v>20</v>
       </c>
       <c r="E10" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="50">
@@ -1374,7 +1505,7 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="M10" s="44" t="s">
         <v>19</v>
@@ -1391,55 +1522,55 @@
         <v>20</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="32" t="s">
-        <v>19</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="46" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="B12" s="40">
+      <c r="B12" s="53">
         <v>7</v>
       </c>
-      <c r="C12" s="40">
-        <v>2</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="39" t="s">
+      <c r="C12" s="53">
+        <v>2</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="42"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="50">
+      <c r="F12" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="57"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="58">
         <v>42144</v>
       </c>
-      <c r="K12" s="37">
+      <c r="K12" s="59">
         <v>0.2</v>
       </c>
-      <c r="L12" s="49"/>
-      <c r="M12" s="44" t="s">
-        <v>19</v>
+      <c r="L12" s="60"/>
+      <c r="M12" s="61" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1450,19 +1581,19 @@
         <v>2</v>
       </c>
       <c r="D13" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>42</v>
-      </c>
       <c r="G13" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="42" t="s">
         <v>60</v>
-      </c>
-      <c r="H13" s="42" t="s">
-        <v>61</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
@@ -1486,24 +1617,24 @@
         <v>15</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="50">
-        <v>42144</v>
-      </c>
+      <c r="J14" s="50"/>
       <c r="K14" s="52">
         <v>0.3</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="49" t="s">
+        <v>115</v>
+      </c>
       <c r="M14" s="44" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1514,16 +1645,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="47" t="s">
         <v>46</v>
-      </c>
-      <c r="G15" s="47" t="s">
-        <v>47</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="39"/>
@@ -1533,9 +1664,11 @@
       <c r="K15" s="51">
         <v>0.2</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="49" t="s">
+        <v>128</v>
+      </c>
       <c r="M15" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1546,16 +1679,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="47" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="47" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -1574,16 +1707,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G17" s="47" t="s">
         <v>51</v>
-      </c>
-      <c r="G17" s="47" t="s">
-        <v>52</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -1595,35 +1728,35 @@
       </c>
     </row>
     <row r="18" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B18" s="40">
+      <c r="B18" s="53">
         <v>13</v>
       </c>
-      <c r="C18" s="40">
-        <v>2</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="41" t="s">
+      <c r="C18" s="53">
+        <v>2</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="50">
+      <c r="H18" s="57"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="58">
         <v>42144</v>
       </c>
-      <c r="K18" s="52">
+      <c r="K18" s="62">
         <v>0.05</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="44" t="s">
-        <v>111</v>
+      <c r="L18" s="60"/>
+      <c r="M18" s="61" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -1640,10 +1773,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="39"/>
@@ -1653,41 +1786,43 @@
       <c r="K19" s="51">
         <v>0.05</v>
       </c>
-      <c r="L19" s="49"/>
+      <c r="L19" s="49" t="s">
+        <v>121</v>
+      </c>
       <c r="M19" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="46" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="40">
+      <c r="B20" s="53">
         <v>15</v>
       </c>
-      <c r="C20" s="40">
-        <v>2</v>
-      </c>
-      <c r="D20" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="39" t="s">
+      <c r="C20" s="53">
+        <v>2</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="42"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="50">
+      <c r="H20" s="57"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="58">
         <v>42144</v>
       </c>
-      <c r="K20" s="52">
+      <c r="K20" s="62">
         <v>0</v>
       </c>
-      <c r="L20" s="49"/>
-      <c r="M20" s="44" t="s">
-        <v>111</v>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1704,13 +1839,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="47" t="s">
         <v>64</v>
       </c>
-      <c r="G21" s="47" t="s">
-        <v>65</v>
-      </c>
       <c r="H21" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="50">
@@ -1719,9 +1854,11 @@
       <c r="K21" s="51">
         <v>0.1</v>
       </c>
-      <c r="L21" s="49"/>
+      <c r="L21" s="49" t="s">
+        <v>122</v>
+      </c>
       <c r="M21" s="44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1732,19 +1869,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="F22" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="47" t="s">
+      <c r="H22" s="42" t="s">
         <v>70</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>71</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
@@ -1765,16 +1902,16 @@
         <v>14</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G23" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>84</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>85</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="50">
@@ -1796,16 +1933,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="47" t="s">
         <v>76</v>
-      </c>
-      <c r="G24" s="47" t="s">
-        <v>77</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -1824,19 +1961,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="50">
@@ -1858,19 +1995,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="47" t="s">
         <v>79</v>
       </c>
-      <c r="G26" s="47" t="s">
-        <v>80</v>
-      </c>
       <c r="H26" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="37"/>
@@ -1888,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -4262,9 +4399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4303,10 +4438,10 @@
         <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>6</v>
@@ -4323,20 +4458,20 @@
         <v>15</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="16" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
@@ -4347,23 +4482,23 @@
         <v>20</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>44</v>
-      </c>
       <c r="I7" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="44" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
@@ -4371,26 +4506,26 @@
         <v>3</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G8" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" s="42" t="s">
         <v>93</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>94</v>
       </c>
       <c r="I8" s="43">
         <v>42144</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="44" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
@@ -4404,10 +4539,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H9" s="42"/>
       <c r="I9" s="43">
@@ -4415,7 +4550,7 @@
       </c>
       <c r="J9" s="37"/>
       <c r="K9" s="44" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
@@ -4429,20 +4564,20 @@
         <v>15</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="H10" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I10" s="43">
         <v>42144</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="17" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
@@ -4450,19 +4585,19 @@
         <v>6</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="I11" s="45">
         <v>42149</v>
@@ -4483,10 +4618,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="45">
@@ -4501,98 +4636,182 @@
       <c r="C13" s="18">
         <v>8</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="I13" s="16"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K13" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C14" s="18">
         <v>9</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="I14" s="16"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K14" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C15" s="18">
         <v>10</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="I15" s="16"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="17"/>
-    </row>
-    <row r="16" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K15" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C16" s="18">
         <v>11</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="D16" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="I16" s="16"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="17"/>
-    </row>
-    <row r="17" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K16" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C17" s="18">
         <v>12</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="I17" s="16"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="17"/>
-    </row>
-    <row r="18" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K17" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C18" s="18">
         <v>13</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
+      <c r="D18" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="I18" s="16"/>
       <c r="J18" s="5"/>
-      <c r="K18" s="17"/>
-    </row>
-    <row r="19" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K18" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" ht="57" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
         <v>14</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
+      <c r="D19" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G19" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="I19" s="16"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="17"/>
+      <c r="K19" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>15</v>
       </c>
-      <c r="D20" s="15"/>
+      <c r="D20" s="39"/>
       <c r="E20" s="14"/>
       <c r="F20" s="15"/>
       <c r="G20" s="16"/>
@@ -4605,7 +4824,7 @@
       <c r="C21" s="18">
         <v>16</v>
       </c>
-      <c r="D21" s="15"/>
+      <c r="D21" s="39"/>
       <c r="E21" s="14"/>
       <c r="F21" s="15"/>
       <c r="G21" s="16"/>
@@ -4618,7 +4837,7 @@
       <c r="C22" s="18">
         <v>17</v>
       </c>
-      <c r="D22" s="15"/>
+      <c r="D22" s="39"/>
       <c r="E22" s="14"/>
       <c r="F22" s="15"/>
       <c r="G22" s="16"/>
@@ -4631,7 +4850,7 @@
       <c r="C23" s="18">
         <v>18</v>
       </c>
-      <c r="D23" s="15"/>
+      <c r="D23" s="39"/>
       <c r="E23" s="14"/>
       <c r="F23" s="15"/>
       <c r="G23" s="16"/>
@@ -4644,7 +4863,7 @@
       <c r="C24" s="18">
         <v>19</v>
       </c>
-      <c r="D24" s="15"/>
+      <c r="D24" s="39"/>
       <c r="E24" s="14"/>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
@@ -4657,7 +4876,7 @@
       <c r="C25" s="18">
         <v>20</v>
       </c>
-      <c r="D25" s="15"/>
+      <c r="D25" s="39"/>
       <c r="E25" s="14"/>
       <c r="F25" s="15"/>
       <c r="G25" s="16"/>
@@ -4670,7 +4889,7 @@
       <c r="C26" s="18">
         <v>21</v>
       </c>
-      <c r="D26" s="15"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="14"/>
       <c r="F26" s="15"/>
       <c r="G26" s="16"/>
@@ -4683,7 +4902,7 @@
       <c r="C27" s="18">
         <v>22</v>
       </c>
-      <c r="D27" s="15"/>
+      <c r="D27" s="39"/>
       <c r="E27" s="14"/>
       <c r="F27" s="15"/>
       <c r="G27" s="16"/>
@@ -4696,7 +4915,7 @@
       <c r="C28" s="18">
         <v>23</v>
       </c>
-      <c r="D28" s="15"/>
+      <c r="D28" s="39"/>
       <c r="E28" s="14"/>
       <c r="F28" s="15"/>
       <c r="G28" s="16"/>
@@ -4709,7 +4928,7 @@
       <c r="C29" s="18">
         <v>24</v>
       </c>
-      <c r="D29" s="15"/>
+      <c r="D29" s="39"/>
       <c r="E29" s="14"/>
       <c r="F29" s="15"/>
       <c r="G29" s="16"/>
@@ -4722,7 +4941,7 @@
       <c r="C30" s="18">
         <v>25</v>
       </c>
-      <c r="D30" s="15"/>
+      <c r="D30" s="39"/>
       <c r="E30" s="14"/>
       <c r="F30" s="15"/>
       <c r="G30" s="16"/>
@@ -4735,7 +4954,7 @@
       <c r="C31" s="18">
         <v>26</v>
       </c>
-      <c r="D31" s="15"/>
+      <c r="D31" s="39"/>
       <c r="E31" s="14"/>
       <c r="F31" s="15"/>
       <c r="G31" s="16"/>
@@ -4748,7 +4967,7 @@
       <c r="C32" s="18">
         <v>27</v>
       </c>
-      <c r="D32" s="15"/>
+      <c r="D32" s="39"/>
       <c r="E32" s="14"/>
       <c r="F32" s="15"/>
       <c r="G32" s="16"/>
@@ -4761,7 +4980,7 @@
       <c r="C33" s="18">
         <v>28</v>
       </c>
-      <c r="D33" s="15"/>
+      <c r="D33" s="39"/>
       <c r="E33" s="14"/>
       <c r="F33" s="15"/>
       <c r="G33" s="16"/>
@@ -4774,7 +4993,7 @@
       <c r="C34" s="18">
         <v>29</v>
       </c>
-      <c r="D34" s="15"/>
+      <c r="D34" s="39"/>
       <c r="E34" s="14"/>
       <c r="F34" s="15"/>
       <c r="G34" s="16"/>
@@ -4787,7 +5006,7 @@
       <c r="C35" s="18">
         <v>30</v>
       </c>
-      <c r="D35" s="15"/>
+      <c r="D35" s="39"/>
       <c r="E35" s="14"/>
       <c r="F35" s="15"/>
       <c r="G35" s="16"/>
@@ -4800,7 +5019,7 @@
       <c r="C36" s="18">
         <v>31</v>
       </c>
-      <c r="D36" s="15"/>
+      <c r="D36" s="39"/>
       <c r="E36" s="14"/>
       <c r="F36" s="15"/>
       <c r="G36" s="16"/>
@@ -4813,7 +5032,7 @@
       <c r="C37" s="18">
         <v>32</v>
       </c>
-      <c r="D37" s="15"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="14"/>
       <c r="F37" s="15"/>
       <c r="G37" s="16"/>
@@ -4826,7 +5045,7 @@
       <c r="C38" s="18">
         <v>33</v>
       </c>
-      <c r="D38" s="15"/>
+      <c r="D38" s="39"/>
       <c r="E38" s="14"/>
       <c r="F38" s="15"/>
       <c r="G38" s="16"/>
@@ -4839,7 +5058,7 @@
       <c r="C39" s="18">
         <v>34</v>
       </c>
-      <c r="D39" s="15"/>
+      <c r="D39" s="39"/>
       <c r="E39" s="14"/>
       <c r="F39" s="15"/>
       <c r="G39" s="16"/>
@@ -4852,7 +5071,7 @@
       <c r="C40" s="18">
         <v>35</v>
       </c>
-      <c r="D40" s="15"/>
+      <c r="D40" s="39"/>
       <c r="E40" s="14"/>
       <c r="F40" s="15"/>
       <c r="G40" s="16"/>
@@ -4865,7 +5084,7 @@
       <c r="C41" s="18">
         <v>36</v>
       </c>
-      <c r="D41" s="15"/>
+      <c r="D41" s="39"/>
       <c r="E41" s="14"/>
       <c r="F41" s="15"/>
       <c r="G41" s="16"/>
@@ -4878,7 +5097,7 @@
       <c r="C42" s="18">
         <v>37</v>
       </c>
-      <c r="D42" s="15"/>
+      <c r="D42" s="39"/>
       <c r="E42" s="14"/>
       <c r="F42" s="15"/>
       <c r="G42" s="16"/>
@@ -4896,10 +5115,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E42">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D12:D42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D12">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 D13:D42">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -505,55 +505,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出的数据中，主机颜色和制动电压两个值反了。</t>
+    <t>模板原来有一些默认值，需要清掉，另外条形码的位置需要往下移动1毫米，目前打印出来的效果显示表格的上边框被条形码挡住了一半，十分难看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中的更多筛选里面有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件应该默认都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的更多筛选功能都需要保留上一次的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据中，主机颜色，主机电压和制动电压三个值错了。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>值和名字应该匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板原来有一些默认值，需要清掉，另外条形码的位置需要往下移动1毫米，目前打印出来的效果显示表格的上边框被条形码挡住了一半，十分难看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中的更多筛选里面有默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选条件应该默认都为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的更多筛选功能都需要保留上一次的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1665,7 +1665,7 @@
         <v>0.2</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M15" s="44" t="s">
         <v>109</v>
@@ -4646,10 +4646,10 @@
         <v>110</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="5"/>
@@ -4721,10 +4721,10 @@
         <v>124</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="5"/>
@@ -4746,10 +4746,10 @@
         <v>124</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="5"/>
@@ -4768,13 +4768,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="16" t="s">
-        <v>133</v>
-      </c>
       <c r="H18" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="5"/>
@@ -4793,13 +4793,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,6 +554,18 @@
   </si>
   <si>
     <t>值和名字应该匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的一维码不够清楚，扫码器不识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维码清晰可见，能被扫码器识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4399,7 +4411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4807,18 +4821,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:11" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>15</v>
       </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+      <c r="D20" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="I20" s="16"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="17"/>
+      <c r="K20" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="21" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C21" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -648,7 +648,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -682,6 +682,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -806,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -970,6 +976,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1276,8 +1301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4411,8 +4436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4462,29 +4487,29 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="18">
+      <c r="C6" s="63">
         <v>1</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="17" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="69" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4516,81 +4541,81 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="40">
+      <c r="C8" s="63">
         <v>3</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="65" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="66" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="67">
         <v>42144</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="44" t="s">
+      <c r="J8" s="68"/>
+      <c r="K8" s="69" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C9" s="40">
+      <c r="C9" s="63">
         <v>4</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="65" t="s">
         <v>74</v>
       </c>
-      <c r="G9" s="42" t="s">
+      <c r="G9" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43">
+      <c r="H9" s="66"/>
+      <c r="I9" s="67">
         <v>42144</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="44" t="s">
+      <c r="J9" s="68"/>
+      <c r="K9" s="69" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="18">
+      <c r="C10" s="63">
         <v>5</v>
       </c>
-      <c r="D10" s="39" t="s">
+      <c r="D10" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="65" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="66" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="67">
         <v>42144</v>
       </c>
-      <c r="J10" s="5"/>
-      <c r="K10" s="17" t="s">
+      <c r="J10" s="68"/>
+      <c r="K10" s="69" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4616,7 +4641,9 @@
       <c r="I11" s="45">
         <v>42149</v>
       </c>
-      <c r="J11" s="5"/>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
       <c r="K11" s="17" t="s">
         <v>17</v>
       </c>
@@ -4641,7 +4668,9 @@
       <c r="I12" s="45">
         <v>42149</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>2</v>
+      </c>
       <c r="K12" s="17" t="s">
         <v>17</v>
       </c>
@@ -4666,7 +4695,9 @@
         <v>128</v>
       </c>
       <c r="I13" s="16"/>
-      <c r="J13" s="5"/>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
       <c r="K13" s="17" t="s">
         <v>17</v>
       </c>
@@ -4691,7 +4722,9 @@
         <v>117</v>
       </c>
       <c r="I14" s="16"/>
-      <c r="J14" s="5"/>
+      <c r="J14" s="5">
+        <v>2</v>
+      </c>
       <c r="K14" s="17" t="s">
         <v>17</v>
       </c>
@@ -4716,7 +4749,9 @@
         <v>120</v>
       </c>
       <c r="I15" s="16"/>
-      <c r="J15" s="5"/>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
       <c r="K15" s="17" t="s">
         <v>17</v>
       </c>
@@ -4741,7 +4776,9 @@
         <v>137</v>
       </c>
       <c r="I16" s="16"/>
-      <c r="J16" s="5"/>
+      <c r="J16" s="5">
+        <v>2</v>
+      </c>
       <c r="K16" s="17" t="s">
         <v>17</v>
       </c>
@@ -4766,7 +4803,9 @@
         <v>133</v>
       </c>
       <c r="I17" s="16"/>
-      <c r="J17" s="5"/>
+      <c r="J17" s="5">
+        <v>2</v>
+      </c>
       <c r="K17" s="17" t="s">
         <v>17</v>
       </c>
@@ -4791,7 +4830,9 @@
         <v>132</v>
       </c>
       <c r="I18" s="16"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
       <c r="K18" s="17" t="s">
         <v>17</v>
       </c>
@@ -4816,7 +4857,9 @@
         <v>135</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="5">
+        <v>2</v>
+      </c>
       <c r="K19" s="17" t="s">
         <v>17</v>
       </c>
@@ -4841,7 +4884,9 @@
         <v>140</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="5">
+        <v>2</v>
+      </c>
       <c r="K20" s="17" t="s">
         <v>17</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选中的背景色需要与正常的色差大一些</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,14 +239,6 @@
   </si>
   <si>
     <t>赵晓超，无审核权，主要使用导出功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后续考虑增加操作日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -338,43 +326,178 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承字段需要在计划页面中保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售页面默认排序为订单日期+客户名称。计划排产页面默认为生产日期+型号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面中客户区域与制造商两个字段信息反了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序能够正常进入审核页面进行审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示的时候将磁钢单独一列显示在型号后面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要可以动态配置表格的显示，需要可以将任意新增字段显示在现有表格的任意位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符支持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出场编号需要支持“/”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在出场编号中填写“/”，时系统报错，显示“网络链接错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期填写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期被反选以后，日期为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不再现</t>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>挂起</t>
+  </si>
+  <si>
+    <t>开发中</t>
+  </si>
+  <si>
+    <t>目前只完成了备注部分，轴承部分未完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白的时候应该是全部都显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值和名字应该匹配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后续考虑增加操作日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>需要将销售的备注和计划的备注分开。在计划表中增加一个备注字段，默认显示销售页面中的字段。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承字段需要在计划页面中保留</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售页面默认排序为订单日期+客户名称。计划排产页面默认为生产日期+型号排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面中客户区域与制造商两个字段信息反了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划页面需要智能按照型号，吨位，梯速排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承与备注需要作用于一个机器而不是整个订单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <t>目前只有Planner和Saler两种角色，需要可以对于单独用户进行性制造商，审核权，反审核权，用户角色等的配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中的背景色需要与正常的色差大一些</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -382,90 +505,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>程序能够正常进入审核页面进行审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示的时候将磁钢单独一列显示在型号后面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格显示配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要可以动态配置表格的显示，需要可以将任意新增字段显示在现有表格的任意位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字符支持</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出场编号需要支持“/”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在出场编号中填写“/”，时系统报错，显示“网络链接错误”</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期被反选以后，仍然显示之前的日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期被反选以后，日期为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体模板为《过程监控记录（150520更新）.xls》已经更新到Git中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筛选包装计划为5月21日，制造商为抚顺的全部订单。结果为35条，按模板导出后为33条，投产编号为H01969和H01970没有导出来。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不再现</t>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
-  </si>
-  <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后，不需要考虑兼容性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>挂起</t>
-  </si>
-  <si>
-    <t>开发中</t>
-  </si>
-  <si>
-    <t>目前只完成了备注部分，轴承部分未完成</t>
+    <t>模板中没有规格型号为W开头的模板，只有V， L, TA, Y, U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出后生产日期应该是5月22日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -473,11 +525,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出后生产日期应该是5月22日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选</t>
+    <t>代办事项中的更多筛选里面有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据中，主机颜色，主机电压和制动电压三个值错了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的一维码不够清楚，扫码器不识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维码清晰可见，能被扫码器识别</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -485,23 +553,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空白的时候应该是全部都显示出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
+    <t>已经是最清晰的了，本版本再试试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未再现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -509,11 +565,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中的更多筛选里面有默认值</t>
+    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的更多筛选功能都需要保留上一次的结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,51 +581,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的更多筛选功能都需要保留上一次的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的数据中，主机颜色，主机电压和制动电压三个值错了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值和名字应该匹配</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的一维码不够清楚，扫码器不识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一维码清晰可见，能被扫码器识别</t>
+    <t>调整了模板单元格宽高，使得条形码大体居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -692,7 +708,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -808,11 +824,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -994,6 +1019,9 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1301,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1365,10 +1393,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -1404,10 +1432,10 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="46" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1427,7 +1455,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H7" s="48"/>
       <c r="I7" s="39"/>
@@ -1472,7 +1500,7 @@
         <v>0.5</v>
       </c>
       <c r="L8" s="49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M8" s="44" t="s">
         <v>19</v>
@@ -1495,10 +1523,10 @@
         <v>44</v>
       </c>
       <c r="G9" s="47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="50">
@@ -1529,10 +1557,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="47" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="50">
@@ -1542,7 +1570,7 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="49" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M10" s="44" t="s">
         <v>19</v>
@@ -1565,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>37</v>
@@ -1575,7 +1603,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="46" customFormat="1" ht="57" x14ac:dyDescent="0.15">
@@ -1595,7 +1623,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H12" s="57"/>
       <c r="I12" s="54"/>
@@ -1607,7 +1635,7 @@
       </c>
       <c r="L12" s="60"/>
       <c r="M12" s="61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1627,10 +1655,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="47" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
@@ -1657,10 +1685,10 @@
         <v>44</v>
       </c>
       <c r="G14" s="47" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>82</v>
+        <v>121</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="50"/>
@@ -1668,10 +1696,10 @@
         <v>0.3</v>
       </c>
       <c r="L14" s="49" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M14" s="44" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1702,10 +1730,10 @@
         <v>0.2</v>
       </c>
       <c r="L15" s="49" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="M15" s="44" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1781,7 +1809,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="56" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="H18" s="57"/>
       <c r="I18" s="54"/>
@@ -1793,7 +1821,7 @@
       </c>
       <c r="L18" s="60"/>
       <c r="M18" s="61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -1810,10 +1838,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G19" s="47" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="39"/>
@@ -1824,10 +1852,10 @@
         <v>0.05</v>
       </c>
       <c r="L19" s="49" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="M19" s="44" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="46" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1844,10 +1872,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="56" t="s">
         <v>57</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>58</v>
       </c>
       <c r="H20" s="57"/>
       <c r="I20" s="54"/>
@@ -1859,7 +1887,7 @@
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="61" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1876,13 +1904,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G21" s="47" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="50">
@@ -1892,10 +1920,10 @@
         <v>0.1</v>
       </c>
       <c r="L21" s="49" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1906,19 +1934,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="47" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
@@ -1942,13 +1970,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="50">
@@ -1976,10 +2004,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G24" s="47" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2004,13 +2032,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I25" s="39"/>
       <c r="J25" s="50">
@@ -2038,13 +2066,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G26" s="47" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="37"/>
@@ -2068,10 +2096,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G27" s="47" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -4434,11 +4462,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K42"/>
+  <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4451,13 +4477,13 @@
     <col min="10" max="10" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C5" s="8" t="s">
         <v>9</v>
       </c>
@@ -4486,7 +4512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C6" s="63">
         <v>1</v>
       </c>
@@ -4506,14 +4532,14 @@
         <v>24</v>
       </c>
       <c r="I6" s="66" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J6" s="68"/>
       <c r="K6" s="69" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C7" s="40">
         <v>2</v>
       </c>
@@ -4533,14 +4559,14 @@
         <v>43</v>
       </c>
       <c r="I7" s="43" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="44" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="71.25" x14ac:dyDescent="0.15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C8" s="63">
         <v>3</v>
       </c>
@@ -4551,13 +4577,13 @@
         <v>21</v>
       </c>
       <c r="F8" s="65" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="H8" s="66" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I8" s="67">
         <v>42144</v>
@@ -4567,7 +4593,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C9" s="63">
         <v>4</v>
       </c>
@@ -4578,10 +4604,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="65" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G9" s="66" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H9" s="66"/>
       <c r="I9" s="67">
@@ -4592,7 +4618,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C10" s="63">
         <v>5</v>
       </c>
@@ -4603,13 +4629,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G10" s="66" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H10" s="66" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I10" s="67">
         <v>42144</v>
@@ -4619,7 +4645,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
         <v>6</v>
       </c>
@@ -4630,13 +4656,13 @@
         <v>15</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I11" s="45">
         <v>42149</v>
@@ -4648,7 +4674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="99.75" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -4659,10 +4685,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="45">
@@ -4674,8 +4700,11 @@
       <c r="K12" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L12" s="70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C13" s="18">
         <v>8</v>
       </c>
@@ -4686,13 +4715,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="I13" s="16"/>
       <c r="J13" s="5">
@@ -4702,7 +4731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C14" s="18">
         <v>9</v>
       </c>
@@ -4713,23 +4742,23 @@
         <v>15</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="I14" s="16"/>
       <c r="J14" s="5">
         <v>2</v>
       </c>
       <c r="K14" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="42.75" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C15" s="18">
         <v>10</v>
       </c>
@@ -4740,13 +4769,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="I15" s="16"/>
       <c r="J15" s="5">
@@ -4756,7 +4785,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="2:11" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C16" s="18">
         <v>11</v>
       </c>
@@ -4767,23 +4796,23 @@
         <v>15</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="I16" s="16"/>
       <c r="J16" s="5">
         <v>2</v>
       </c>
       <c r="K16" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="71.25" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C17" s="18">
         <v>12</v>
       </c>
@@ -4794,23 +4823,26 @@
         <v>15</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G17" s="16" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="I17" s="16"/>
       <c r="J17" s="5">
         <v>2</v>
       </c>
       <c r="K17" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="3:11" ht="42.75" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+      <c r="L17" s="70" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C18" s="18">
         <v>13</v>
       </c>
@@ -4821,13 +4853,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="I18" s="16"/>
       <c r="J18" s="5">
@@ -4837,7 +4869,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="3:11" ht="57" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
         <v>14</v>
       </c>
@@ -4848,13 +4880,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="5">
@@ -4863,8 +4895,11 @@
       <c r="K19" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="L19" s="70" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -4875,13 +4910,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="5">
@@ -4890,8 +4925,11 @@
       <c r="K20" s="17" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L20" s="70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C21" s="18">
         <v>16</v>
       </c>
@@ -4904,7 +4942,7 @@
       <c r="J21" s="5"/>
       <c r="K21" s="17"/>
     </row>
-    <row r="22" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C22" s="18">
         <v>17</v>
       </c>
@@ -4917,7 +4955,7 @@
       <c r="J22" s="5"/>
       <c r="K22" s="17"/>
     </row>
-    <row r="23" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>18</v>
       </c>
@@ -4930,7 +4968,7 @@
       <c r="J23" s="5"/>
       <c r="K23" s="17"/>
     </row>
-    <row r="24" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>19</v>
       </c>
@@ -4943,7 +4981,7 @@
       <c r="J24" s="5"/>
       <c r="K24" s="17"/>
     </row>
-    <row r="25" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>20</v>
       </c>
@@ -4956,7 +4994,7 @@
       <c r="J25" s="5"/>
       <c r="K25" s="17"/>
     </row>
-    <row r="26" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>21</v>
       </c>
@@ -4969,7 +5007,7 @@
       <c r="J26" s="5"/>
       <c r="K26" s="17"/>
     </row>
-    <row r="27" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>22</v>
       </c>
@@ -4982,7 +5020,7 @@
       <c r="J27" s="5"/>
       <c r="K27" s="17"/>
     </row>
-    <row r="28" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>23</v>
       </c>
@@ -4995,7 +5033,7 @@
       <c r="J28" s="5"/>
       <c r="K28" s="17"/>
     </row>
-    <row r="29" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
         <v>24</v>
       </c>
@@ -5008,7 +5046,7 @@
       <c r="J29" s="5"/>
       <c r="K29" s="17"/>
     </row>
-    <row r="30" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
         <v>25</v>
       </c>
@@ -5021,7 +5059,7 @@
       <c r="J30" s="5"/>
       <c r="K30" s="17"/>
     </row>
-    <row r="31" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
         <v>26</v>
       </c>
@@ -5034,7 +5072,7 @@
       <c r="J31" s="5"/>
       <c r="K31" s="17"/>
     </row>
-    <row r="32" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
         <v>27</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -582,6 +582,13 @@
   </si>
   <si>
     <t>调整了模板单元格宽高，使得条形码大体居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效Bug</t>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1330,7 +1337,7 @@
   <dimension ref="A2:S161"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4464,7 +4471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -4665,10 +4674,10 @@
         <v>96</v>
       </c>
       <c r="I11" s="45">
-        <v>42149</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
+        <v>42158</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="K11" s="17" t="s">
         <v>17</v>
@@ -4692,13 +4701,11 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="45">
-        <v>42149</v>
-      </c>
-      <c r="J12" s="5">
-        <v>2</v>
-      </c>
+        <v>42148</v>
+      </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="17" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>127</v>
@@ -4723,12 +4730,12 @@
       <c r="H13" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
+      <c r="I13" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="17" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -4750,12 +4757,12 @@
       <c r="H14" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="I14" s="16"/>
-      <c r="J14" s="5">
-        <v>2</v>
-      </c>
+      <c r="I14" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -4777,12 +4784,12 @@
       <c r="H15" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="16"/>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
+      <c r="I15" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="17" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -4804,12 +4811,12 @@
       <c r="H16" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="16"/>
-      <c r="J16" s="5">
-        <v>2</v>
-      </c>
+      <c r="I16" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J16" s="5"/>
       <c r="K16" s="17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
@@ -4831,12 +4838,12 @@
       <c r="H17" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="I17" s="16"/>
-      <c r="J17" s="5">
-        <v>2</v>
-      </c>
+      <c r="I17" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J17" s="5"/>
       <c r="K17" s="17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="L17" s="70" t="s">
         <v>144</v>
@@ -4861,12 +4868,12 @@
       <c r="H18" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="I18" s="16"/>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
+      <c r="I18" s="45">
+        <v>42148</v>
+      </c>
+      <c r="J18" s="5"/>
       <c r="K18" s="17" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -4889,11 +4896,9 @@
         <v>133</v>
       </c>
       <c r="I19" s="16"/>
-      <c r="J19" s="5">
-        <v>2</v>
-      </c>
+      <c r="J19" s="5"/>
       <c r="K19" s="17" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="L19" s="70" t="s">
         <v>138</v>
@@ -4919,9 +4924,7 @@
         <v>135</v>
       </c>
       <c r="I20" s="16"/>
-      <c r="J20" s="5">
-        <v>2</v>
-      </c>
+      <c r="J20" s="5"/>
       <c r="K20" s="17" t="s">
         <v>17</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -513,43 +513,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>导出后生产日期应该是5月22日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的生产日期与实际不符。筛选抚顺，生产日期为22的数据，导出后模板生产日期上写的事5月21日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的数据中，主机颜色，主机电压和制动电压三个值错了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出的一维码不够清楚，扫码器不识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维码清晰可见，能被扫码器识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选中的单选框中没有空白选项，这样无法选择空白，导致无法筛选全部。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板原来有一些默认值，需要清掉，另外条形码的位置需要往下移动1毫米，目前打印出来的效果显示表格的上边框被条形码挡住了一半，十分难看。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的更多筛选功能都需要保留上一次的结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选条件应该默认都为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无效Bug</t>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项中的更多筛选里面有默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>模板中没有规格型号为W开头的模板，只有V， L, TA, Y, U</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出后生产日期应该是5月22日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的生产日期与实际不符。筛选抚顺，生产日期为22的数据，导出后模板生产日期上写的事5月21日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项中的更多筛选里面有默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的数据中，主机颜色，主机电压和制动电压三个值错了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出的一维码不够清楚，扫码器不识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一维码清晰可见，能被扫码器识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选中的单选框中没有空白选项，这样无法选择空白，导致无法筛选全部。</t>
+    <t>调整了模板单元格宽高，使得条形码大体居中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -557,38 +592,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未再现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板原来有一些默认值，需要清掉，另外条形码的位置需要往下移动1毫米，目前打印出来的效果显示表格的上边框被条形码挡住了一半，十分难看。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中情调默认值，条码需要在单元格的中间，不能挡住单元格的边框</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有的更多筛选功能都需要保留上一次的结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筛选条件应该默认都为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调整了模板单元格宽高，使得条形码大体居中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无效Bug</t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <t>模板动态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应模板中的新机型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了之前的S,T,U,Y以外，需要对应模板中的新机型，V和L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在表中多选时，需要提示选中的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果计划排产中已经有一个或多个审核后，销售页面不能反审核这个订单，必须等待计划页面该订单都反审后，才能在销售页面进行反审核。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可以直接在销售订单反审核，不管计划页面是否已经有审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,7 +763,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -831,20 +879,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1024,10 +1063,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,8 +1384,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2121,59 +2169,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
       <c r="C28" s="18">
         <v>2</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>148</v>
+      </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
       <c r="L28" s="22"/>
-      <c r="M28" s="17"/>
-    </row>
-    <row r="29" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M28" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
       <c r="C29" s="18">
         <v>2</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>150</v>
+      </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
       <c r="L29" s="22"/>
-      <c r="M29" s="17"/>
-    </row>
-    <row r="30" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M29" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
       <c r="C30" s="18">
         <v>2</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="19"/>
+      <c r="D30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>152</v>
+      </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="22"/>
-      <c r="M30" s="17"/>
+      <c r="M30" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="31" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
@@ -4471,8 +4549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4484,6 +4562,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
@@ -4517,8 +4596,11 @@
       <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="12" t="s">
+      <c r="K5" s="10" t="s">
         <v>6</v>
+      </c>
+      <c r="L5" s="70" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -4544,9 +4626,10 @@
         <v>101</v>
       </c>
       <c r="J6" s="68"/>
-      <c r="K6" s="69" t="s">
+      <c r="K6" s="64" t="s">
         <v>38</v>
       </c>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C7" s="40">
@@ -4571,9 +4654,10 @@
         <v>99</v>
       </c>
       <c r="J7" s="37"/>
-      <c r="K7" s="44" t="s">
+      <c r="K7" s="39" t="s">
         <v>100</v>
       </c>
+      <c r="L7" s="72"/>
     </row>
     <row r="8" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C8" s="63">
@@ -4598,9 +4682,10 @@
         <v>42144</v>
       </c>
       <c r="J8" s="68"/>
-      <c r="K8" s="69" t="s">
+      <c r="K8" s="64" t="s">
         <v>38</v>
       </c>
+      <c r="L8" s="71"/>
     </row>
     <row r="9" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C9" s="63">
@@ -4623,9 +4708,10 @@
         <v>42144</v>
       </c>
       <c r="J9" s="68"/>
-      <c r="K9" s="69" t="s">
+      <c r="K9" s="64" t="s">
         <v>38</v>
       </c>
+      <c r="L9" s="71"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C10" s="63">
@@ -4650,9 +4736,10 @@
         <v>42144</v>
       </c>
       <c r="J10" s="68"/>
-      <c r="K10" s="69" t="s">
+      <c r="K10" s="64" t="s">
         <v>38</v>
       </c>
+      <c r="L10" s="71"/>
     </row>
     <row r="11" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
@@ -4677,13 +4764,14 @@
         <v>42158</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="K11" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="2:12" ht="99.75" x14ac:dyDescent="0.15">
+      <c r="L11" s="73"/>
+    </row>
+    <row r="12" spans="2:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C12" s="18">
         <v>7</v>
       </c>
@@ -4704,179 +4792,184 @@
         <v>42148</v>
       </c>
       <c r="J12" s="5"/>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" s="73" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="63">
+        <v>8</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="G13" s="66" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="67">
+        <v>42148</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="71"/>
+    </row>
+    <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C14" s="63">
+        <v>9</v>
+      </c>
+      <c r="D14" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="66" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>127</v>
+      </c>
+      <c r="I14" s="67">
+        <v>42148</v>
+      </c>
+      <c r="J14" s="68"/>
+      <c r="K14" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="71"/>
+    </row>
+    <row r="15" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="63">
+        <v>10</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="67">
+        <v>42148</v>
+      </c>
+      <c r="J15" s="68"/>
+      <c r="K15" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="71"/>
+    </row>
+    <row r="16" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="63">
+        <v>11</v>
+      </c>
+      <c r="D16" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G16" s="66" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="67">
+        <v>42148</v>
+      </c>
+      <c r="J16" s="68"/>
+      <c r="K16" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="71"/>
+    </row>
+    <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="C17" s="63">
+        <v>12</v>
+      </c>
+      <c r="D17" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="G17" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="66" t="s">
+        <v>136</v>
+      </c>
+      <c r="I17" s="67">
+        <v>42148</v>
+      </c>
+      <c r="J17" s="68"/>
+      <c r="K17" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="71" t="s">
         <v>145</v>
       </c>
-      <c r="L12" s="70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C13" s="18">
-        <v>8</v>
-      </c>
-      <c r="D13" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="14" t="s">
+    </row>
+    <row r="18" spans="3:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="63">
+        <v>13</v>
+      </c>
+      <c r="D18" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I13" s="45">
+      <c r="F18" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="G18" s="66" t="s">
+        <v>141</v>
+      </c>
+      <c r="H18" s="66" t="s">
+        <v>137</v>
+      </c>
+      <c r="I18" s="67">
         <v>42148</v>
       </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="18">
-        <v>9</v>
-      </c>
-      <c r="D14" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="I14" s="45">
-        <v>42148</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C15" s="18">
-        <v>10</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="G15" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="I15" s="45">
-        <v>42148</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C16" s="18">
-        <v>11</v>
-      </c>
-      <c r="D16" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="I16" s="45">
-        <v>42148</v>
-      </c>
-      <c r="J16" s="5"/>
-      <c r="K16" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="18">
-        <v>12</v>
-      </c>
-      <c r="D17" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="I17" s="45">
-        <v>42148</v>
-      </c>
-      <c r="J17" s="5"/>
-      <c r="K17" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="70" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C18" s="18">
-        <v>13</v>
-      </c>
-      <c r="D18" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="45">
-        <v>42148</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="17" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="J18" s="68"/>
+      <c r="K18" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
         <v>14</v>
       </c>
@@ -4890,21 +4983,19 @@
         <v>117</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I19" s="16"/>
       <c r="J19" s="5"/>
-      <c r="K19" s="17" t="s">
+      <c r="K19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="70" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="L19" s="73"/>
+    </row>
+    <row r="20" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
         <v>15</v>
       </c>
@@ -4918,45 +5009,71 @@
         <v>119</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I20" s="16"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="17" t="s">
+      <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="70" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L20" s="73" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C21" s="18">
         <v>16</v>
       </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="D21" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="I21" s="16"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="73"/>
+    </row>
+    <row r="22" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C22" s="18">
         <v>17</v>
       </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
+      <c r="D22" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="I22" s="16"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="17"/>
+      <c r="K22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="73"/>
     </row>
     <row r="23" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -4969,7 +5086,8 @@
       <c r="H23" s="16"/>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="17"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="73"/>
     </row>
     <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
@@ -4982,7 +5100,8 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="17"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="73"/>
     </row>
     <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
@@ -4995,7 +5114,8 @@
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="17"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="73"/>
     </row>
     <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
@@ -5008,7 +5128,8 @@
       <c r="H26" s="16"/>
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
-      <c r="K26" s="17"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="73"/>
     </row>
     <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
@@ -5021,7 +5142,8 @@
       <c r="H27" s="16"/>
       <c r="I27" s="16"/>
       <c r="J27" s="5"/>
-      <c r="K27" s="17"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="73"/>
     </row>
     <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
@@ -5034,7 +5156,8 @@
       <c r="H28" s="16"/>
       <c r="I28" s="16"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="17"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="73"/>
     </row>
     <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
@@ -5047,7 +5170,8 @@
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="17"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="73"/>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
@@ -5060,7 +5184,8 @@
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="17"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="73"/>
     </row>
     <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
@@ -5073,7 +5198,8 @@
       <c r="H31" s="16"/>
       <c r="I31" s="16"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="17"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="73"/>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
@@ -5086,9 +5212,10 @@
       <c r="H32" s="16"/>
       <c r="I32" s="16"/>
       <c r="J32" s="5"/>
-      <c r="K32" s="17"/>
-    </row>
-    <row r="33" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K32" s="14"/>
+      <c r="L32" s="73"/>
+    </row>
+    <row r="33" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
         <v>28</v>
       </c>
@@ -5099,9 +5226,10 @@
       <c r="H33" s="16"/>
       <c r="I33" s="16"/>
       <c r="J33" s="5"/>
-      <c r="K33" s="17"/>
-    </row>
-    <row r="34" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K33" s="14"/>
+      <c r="L33" s="73"/>
+    </row>
+    <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
         <v>29</v>
       </c>
@@ -5112,9 +5240,10 @@
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="5"/>
-      <c r="K34" s="17"/>
-    </row>
-    <row r="35" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K34" s="14"/>
+      <c r="L34" s="73"/>
+    </row>
+    <row r="35" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
         <v>30</v>
       </c>
@@ -5125,9 +5254,10 @@
       <c r="H35" s="16"/>
       <c r="I35" s="16"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="17"/>
-    </row>
-    <row r="36" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K35" s="14"/>
+      <c r="L35" s="73"/>
+    </row>
+    <row r="36" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>31</v>
       </c>
@@ -5138,9 +5268,10 @@
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="17"/>
-    </row>
-    <row r="37" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K36" s="14"/>
+      <c r="L36" s="73"/>
+    </row>
+    <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>32</v>
       </c>
@@ -5151,9 +5282,10 @@
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="17"/>
-    </row>
-    <row r="38" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K37" s="14"/>
+      <c r="L37" s="73"/>
+    </row>
+    <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>33</v>
       </c>
@@ -5164,9 +5296,10 @@
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K38" s="14"/>
+      <c r="L38" s="73"/>
+    </row>
+    <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>34</v>
       </c>
@@ -5177,9 +5310,10 @@
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="17"/>
-    </row>
-    <row r="40" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K39" s="14"/>
+      <c r="L39" s="73"/>
+    </row>
+    <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>35</v>
       </c>
@@ -5190,9 +5324,10 @@
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="17"/>
-    </row>
-    <row r="41" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K40" s="14"/>
+      <c r="L40" s="73"/>
+    </row>
+    <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
         <v>36</v>
       </c>
@@ -5203,9 +5338,10 @@
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="17"/>
-    </row>
-    <row r="42" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="K41" s="14"/>
+      <c r="L41" s="73"/>
+    </row>
+    <row r="42" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="18">
         <v>37</v>
       </c>
@@ -5216,7 +5352,8 @@
       <c r="H42" s="16"/>
       <c r="I42" s="16"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="17"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="166">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -637,6 +637,34 @@
   </si>
   <si>
     <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果需要显示当前页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1385,7 +1413,7 @@
   <dimension ref="A2:S161"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2253,41 +2281,61 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
       <c r="C31" s="18">
         <v>2</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="19"/>
+      <c r="D31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>160</v>
+      </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
       <c r="L31" s="22"/>
-      <c r="M31" s="17"/>
-    </row>
-    <row r="32" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M31" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
       <c r="C32" s="18">
         <v>2</v>
       </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="19"/>
+      <c r="D32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>162</v>
+      </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
       <c r="L32" s="22"/>
-      <c r="M32" s="17"/>
+      <c r="M32" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="33" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
@@ -4550,7 +4598,7 @@
   <dimension ref="B2:L42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22:L22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5075,18 +5123,30 @@
       </c>
       <c r="L22" s="73"/>
     </row>
-    <row r="23" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>18</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
+      <c r="D23" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="14"/>
+      <c r="K23" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="L23" s="73"/>
     </row>
     <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -665,6 +665,22 @@
   </si>
   <si>
     <t>结果需要显示当前页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -672,7 +688,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,8 +762,17 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -787,6 +812,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1027,9 +1058,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1100,10 +1128,43 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1412,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1521,7 +1582,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="46" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -1537,23 +1598,23 @@
       <c r="F7" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="47" t="s">
+      <c r="G7" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="48"/>
+      <c r="H7" s="47"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="50">
+      <c r="J7" s="49">
         <v>42158</v>
       </c>
       <c r="K7" s="37">
         <v>0.3</v>
       </c>
-      <c r="L7" s="49"/>
-      <c r="M7" s="44" t="s">
+      <c r="L7" s="48"/>
+      <c r="M7" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="46" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -1576,20 +1637,20 @@
         <v>36</v>
       </c>
       <c r="I8" s="42"/>
-      <c r="J8" s="50">
+      <c r="J8" s="49">
         <v>42158</v>
       </c>
       <c r="K8" s="37">
         <v>0.5</v>
       </c>
-      <c r="L8" s="49" t="s">
+      <c r="L8" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="M8" s="44" t="s">
+      <c r="M8" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:19" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -1605,25 +1666,25 @@
       <c r="F9" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="47" t="s">
+      <c r="G9" s="46" t="s">
         <v>78</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>89</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="50">
+      <c r="J9" s="49">
         <v>42158</v>
       </c>
-      <c r="K9" s="51">
+      <c r="K9" s="50">
         <v>0.3</v>
       </c>
-      <c r="L9" s="49"/>
-      <c r="M9" s="44" t="s">
+      <c r="L9" s="48"/>
+      <c r="M9" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -1639,23 +1700,23 @@
       <c r="F10" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="47" t="s">
+      <c r="G10" s="46" t="s">
         <v>85</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>87</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="50">
+      <c r="J10" s="49">
         <v>42158</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="51">
         <v>0.4</v>
       </c>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1689,39 +1750,39 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="46" customFormat="1" ht="57" x14ac:dyDescent="0.15">
-      <c r="B12" s="53">
+    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+      <c r="B12" s="52">
         <v>7</v>
       </c>
-      <c r="C12" s="53">
-        <v>2</v>
-      </c>
-      <c r="D12" s="54" t="s">
+      <c r="C12" s="52">
+        <v>2</v>
+      </c>
+      <c r="D12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="56" t="s">
+      <c r="G12" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="58">
+      <c r="H12" s="56"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="57">
         <v>42144</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="58">
         <v>0.2</v>
       </c>
-      <c r="L12" s="60"/>
-      <c r="M12" s="61" t="s">
+      <c r="L12" s="59"/>
+      <c r="M12" s="60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B13" s="40">
         <v>8</v>
       </c>
@@ -1737,7 +1798,7 @@
       <c r="F13" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="47" t="s">
+      <c r="G13" s="46" t="s">
         <v>122</v>
       </c>
       <c r="H13" s="42" t="s">
@@ -1745,13 +1806,13 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="44" t="s">
+      <c r="K13" s="50"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="46" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -1767,25 +1828,27 @@
       <c r="F14" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="47" t="s">
+      <c r="G14" s="46" t="s">
         <v>86</v>
       </c>
       <c r="H14" s="42" t="s">
         <v>121</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="52">
+      <c r="J14" s="49">
+        <v>42158</v>
+      </c>
+      <c r="K14" s="51">
         <v>0.3</v>
       </c>
-      <c r="L14" s="49" t="s">
+      <c r="L14" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="M14" s="44" t="s">
+      <c r="M14" s="43" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="40">
         <v>10</v>
       </c>
@@ -1801,25 +1864,25 @@
       <c r="F15" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="47" t="s">
+      <c r="G15" s="46" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="42"/>
       <c r="I15" s="39"/>
-      <c r="J15" s="50">
+      <c r="J15" s="49">
         <v>42144</v>
       </c>
-      <c r="K15" s="51">
+      <c r="K15" s="50">
         <v>0.2</v>
       </c>
-      <c r="L15" s="49" t="s">
+      <c r="L15" s="48" t="s">
         <v>115</v>
       </c>
-      <c r="M15" s="44" t="s">
+      <c r="M15" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="40">
         <v>11</v>
       </c>
@@ -1835,19 +1898,19 @@
       <c r="F16" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="47" t="s">
+      <c r="G16" s="46" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="44" t="s">
+      <c r="K16" s="51"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -1863,51 +1926,51 @@
       <c r="F17" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="G17" s="47" t="s">
+      <c r="G17" s="46" t="s">
         <v>51</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="44" t="s">
+      <c r="K17" s="50"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B18" s="53">
+    <row r="18" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B18" s="52">
         <v>13</v>
       </c>
-      <c r="C18" s="53">
-        <v>2</v>
-      </c>
-      <c r="D18" s="54" t="s">
+      <c r="C18" s="52">
+        <v>2</v>
+      </c>
+      <c r="D18" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F18" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="56" t="s">
+      <c r="G18" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="58">
+      <c r="H18" s="56"/>
+      <c r="I18" s="53"/>
+      <c r="J18" s="57">
         <v>42144</v>
       </c>
-      <c r="K18" s="62">
+      <c r="K18" s="61">
         <v>0.05</v>
       </c>
-      <c r="L18" s="60"/>
-      <c r="M18" s="61" t="s">
+      <c r="L18" s="59"/>
+      <c r="M18" s="60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B19" s="40">
         <v>14</v>
       </c>
@@ -1923,57 +1986,57 @@
       <c r="F19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="47" t="s">
+      <c r="G19" s="46" t="s">
         <v>63</v>
       </c>
       <c r="H19" s="42"/>
       <c r="I19" s="39"/>
-      <c r="J19" s="50">
+      <c r="J19" s="49">
         <v>42144</v>
       </c>
-      <c r="K19" s="51">
+      <c r="K19" s="50">
         <v>0.05</v>
       </c>
-      <c r="L19" s="49" t="s">
+      <c r="L19" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="M19" s="44" t="s">
+      <c r="M19" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="20" spans="2:13" s="46" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="53">
+    <row r="20" spans="2:13" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="52">
         <v>15</v>
       </c>
-      <c r="C20" s="53">
-        <v>2</v>
-      </c>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="52">
+        <v>2</v>
+      </c>
+      <c r="D20" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F20" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="56" t="s">
+      <c r="G20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="57"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="58">
+      <c r="H20" s="56"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="57">
         <v>42144</v>
       </c>
-      <c r="K20" s="62">
+      <c r="K20" s="61">
         <v>0</v>
       </c>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61" t="s">
+      <c r="L20" s="59"/>
+      <c r="M20" s="60" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="2:13" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B21" s="40">
         <v>16</v>
       </c>
@@ -1989,27 +2052,27 @@
       <c r="F21" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="47" t="s">
+      <c r="G21" s="46" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>97</v>
       </c>
       <c r="I21" s="39"/>
-      <c r="J21" s="50">
+      <c r="J21" s="49">
         <v>42144</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="50">
         <v>0.1</v>
       </c>
-      <c r="L21" s="49" t="s">
+      <c r="L21" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="M21" s="44" t="s">
+      <c r="M21" s="43" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="2:13" s="46" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" s="40">
         <v>17</v>
       </c>
@@ -2025,7 +2088,7 @@
       <c r="F22" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="G22" s="47" t="s">
+      <c r="G22" s="46" t="s">
         <v>66</v>
       </c>
       <c r="H22" s="42" t="s">
@@ -2033,13 +2096,13 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="44" t="s">
+      <c r="K22" s="51"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2055,25 +2118,25 @@
       <c r="F23" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="47" t="s">
+      <c r="G23" s="46" t="s">
         <v>79</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>80</v>
       </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="50">
+      <c r="J23" s="49">
         <v>42158</v>
       </c>
-      <c r="K23" s="51">
+      <c r="K23" s="50">
         <v>0.2</v>
       </c>
-      <c r="L23" s="49"/>
-      <c r="M23" s="44" t="s">
+      <c r="L23" s="48"/>
+      <c r="M23" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2089,19 +2152,19 @@
       <c r="F24" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="47" t="s">
+      <c r="G24" s="46" t="s">
         <v>73</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="44" t="s">
+      <c r="K24" s="51"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="46" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B25" s="40">
         <v>20</v>
       </c>
@@ -2117,25 +2180,25 @@
       <c r="F25" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="47" t="s">
+      <c r="G25" s="46" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="42" t="s">
         <v>83</v>
       </c>
       <c r="I25" s="39"/>
-      <c r="J25" s="50">
+      <c r="J25" s="49">
         <v>42144</v>
       </c>
-      <c r="K25" s="51">
+      <c r="K25" s="50">
         <v>0.1</v>
       </c>
-      <c r="L25" s="49"/>
-      <c r="M25" s="44" t="s">
+      <c r="L25" s="48"/>
+      <c r="M25" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="2:13" s="46" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:13" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2151,7 +2214,7 @@
       <c r="F26" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="47" t="s">
+      <c r="G26" s="46" t="s">
         <v>76</v>
       </c>
       <c r="H26" s="42" t="s">
@@ -2159,13 +2222,13 @@
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="44" t="s">
+      <c r="K26" s="51"/>
+      <c r="L26" s="48"/>
+      <c r="M26" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="46" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2181,19 +2244,19 @@
       <c r="F27" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="47" t="s">
+      <c r="G27" s="46" t="s">
         <v>91</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="50">
+      <c r="J27" s="49">
         <v>42158</v>
       </c>
       <c r="K27" s="37">
         <v>0.1</v>
       </c>
-      <c r="L27" s="49"/>
-      <c r="M27" s="44" t="s">
+      <c r="L27" s="48"/>
+      <c r="M27" s="43" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2330,8 +2393,12 @@
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="J32" s="72">
+        <v>42158</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0.1</v>
+      </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
         <v>19</v>
@@ -2344,34 +2411,66 @@
       <c r="C33" s="18">
         <v>2</v>
       </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="16"/>
+      <c r="D33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="J33" s="72">
+        <v>42158</v>
+      </c>
+      <c r="K33" s="5">
+        <v>0</v>
+      </c>
       <c r="L33" s="22"/>
-      <c r="M33" s="17"/>
-    </row>
-    <row r="34" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M33" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
       <c r="C34" s="18">
         <v>2</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="16"/>
+      <c r="D34" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="G34" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="I34" s="14"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="J34" s="72">
+        <v>42158</v>
+      </c>
+      <c r="K34" s="5">
+        <v>0.2</v>
+      </c>
       <c r="L34" s="22"/>
-      <c r="M34" s="17"/>
+      <c r="M34" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
@@ -4597,8 +4696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4610,7 +4709,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="69" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
@@ -4647,147 +4746,147 @@
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="70" t="s">
+      <c r="L5" s="69" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C6" s="63">
+      <c r="C6" s="62">
         <v>1</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="68"/>
-      <c r="K6" s="64" t="s">
+      <c r="J6" s="67"/>
+      <c r="K6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L6" s="71"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="40">
-        <v>2</v>
-      </c>
-      <c r="D7" s="41" t="s">
+      <c r="C7" s="73">
+        <v>2</v>
+      </c>
+      <c r="D7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="42" t="s">
+      <c r="G7" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="H7" s="42" t="s">
+      <c r="H7" s="76" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="43" t="s">
+      <c r="I7" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="K7" s="39" t="s">
+      <c r="J7" s="78"/>
+      <c r="K7" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="72"/>
+      <c r="L7" s="79"/>
     </row>
     <row r="8" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="63">
+      <c r="C8" s="62">
         <v>3</v>
       </c>
-      <c r="D8" s="64" t="s">
+      <c r="D8" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="64" t="s">
+      <c r="E8" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="65" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="66">
         <v>42144</v>
       </c>
-      <c r="J8" s="68"/>
-      <c r="K8" s="64" t="s">
+      <c r="J8" s="67"/>
+      <c r="K8" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L8" s="71"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C9" s="63">
+      <c r="C9" s="62">
         <v>4</v>
       </c>
-      <c r="D9" s="64" t="s">
+      <c r="D9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="64" t="s">
+      <c r="E9" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67">
+      <c r="H9" s="65"/>
+      <c r="I9" s="66">
         <v>42144</v>
       </c>
-      <c r="J9" s="68"/>
-      <c r="K9" s="64" t="s">
+      <c r="J9" s="67"/>
+      <c r="K9" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="71"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C10" s="63">
+      <c r="C10" s="62">
         <v>5</v>
       </c>
-      <c r="D10" s="64" t="s">
+      <c r="D10" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="66">
         <v>42144</v>
       </c>
-      <c r="J10" s="68"/>
-      <c r="K10" s="64" t="s">
+      <c r="J10" s="67"/>
+      <c r="K10" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L10" s="71"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C11" s="18">
@@ -4808,7 +4907,7 @@
       <c r="H11" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <v>42158</v>
       </c>
       <c r="J11" s="5" t="s">
@@ -4817,205 +4916,205 @@
       <c r="K11" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L11" s="73"/>
+      <c r="L11" s="71"/>
     </row>
     <row r="12" spans="2:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C12" s="18">
+      <c r="C12" s="73">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="45">
+      <c r="H12" s="76"/>
+      <c r="I12" s="77">
         <v>42148</v>
       </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="14" t="s">
+      <c r="J12" s="78"/>
+      <c r="K12" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="L12" s="73" t="s">
+      <c r="L12" s="79" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="63">
+      <c r="C13" s="62">
         <v>8</v>
       </c>
-      <c r="D13" s="64" t="s">
+      <c r="D13" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="64" t="s">
+      <c r="E13" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="65" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="66" t="s">
+      <c r="H13" s="65" t="s">
         <v>138</v>
       </c>
-      <c r="I13" s="67">
+      <c r="I13" s="66">
         <v>42148</v>
       </c>
-      <c r="J13" s="68"/>
-      <c r="K13" s="64" t="s">
+      <c r="J13" s="67"/>
+      <c r="K13" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="71"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C14" s="63">
+      <c r="C14" s="62">
         <v>9</v>
       </c>
-      <c r="D14" s="64" t="s">
+      <c r="D14" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="64" t="s">
+      <c r="E14" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="65" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="66" t="s">
+      <c r="H14" s="65" t="s">
         <v>127</v>
       </c>
-      <c r="I14" s="67">
+      <c r="I14" s="66">
         <v>42148</v>
       </c>
-      <c r="J14" s="68"/>
-      <c r="K14" s="64" t="s">
+      <c r="J14" s="67"/>
+      <c r="K14" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L14" s="71"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="63">
+      <c r="C15" s="62">
         <v>10</v>
       </c>
-      <c r="D15" s="64" t="s">
+      <c r="D15" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="64" t="s">
+      <c r="E15" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="H15" s="66" t="s">
+      <c r="H15" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="I15" s="67">
+      <c r="I15" s="66">
         <v>42148</v>
       </c>
-      <c r="J15" s="68"/>
-      <c r="K15" s="64" t="s">
+      <c r="J15" s="67"/>
+      <c r="K15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="71"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="63">
+      <c r="C16" s="62">
         <v>11</v>
       </c>
-      <c r="D16" s="64" t="s">
+      <c r="D16" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="64" t="s">
+      <c r="E16" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="65" t="s">
         <v>129</v>
       </c>
-      <c r="H16" s="66" t="s">
+      <c r="H16" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="I16" s="67">
+      <c r="I16" s="66">
         <v>42148</v>
       </c>
-      <c r="J16" s="68"/>
-      <c r="K16" s="64" t="s">
+      <c r="J16" s="67"/>
+      <c r="K16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="71"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C17" s="63">
+      <c r="C17" s="62">
         <v>12</v>
       </c>
-      <c r="D17" s="64" t="s">
+      <c r="D17" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="64" t="s">
+      <c r="E17" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="H17" s="66" t="s">
+      <c r="H17" s="65" t="s">
         <v>136</v>
       </c>
-      <c r="I17" s="67">
+      <c r="I17" s="66">
         <v>42148</v>
       </c>
-      <c r="J17" s="68"/>
-      <c r="K17" s="64" t="s">
+      <c r="J17" s="67"/>
+      <c r="K17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="71" t="s">
+      <c r="L17" s="70" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="63">
+      <c r="C18" s="62">
         <v>13</v>
       </c>
-      <c r="D18" s="64" t="s">
+      <c r="D18" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="64" t="s">
+      <c r="E18" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="65" t="s">
         <v>141</v>
       </c>
-      <c r="H18" s="66" t="s">
+      <c r="H18" s="65" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="67">
+      <c r="I18" s="66">
         <v>42148</v>
       </c>
-      <c r="J18" s="68"/>
-      <c r="K18" s="64" t="s">
+      <c r="J18" s="67"/>
+      <c r="K18" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L18" s="71"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C19" s="18">
@@ -5036,12 +5135,14 @@
       <c r="H19" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="44">
+        <v>42158</v>
+      </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="L19" s="73"/>
+      <c r="L19" s="71"/>
     </row>
     <row r="20" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
@@ -5062,12 +5163,14 @@
       <c r="H20" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="I20" s="16"/>
+      <c r="I20" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="J20" s="5"/>
       <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="73" t="s">
+      <c r="L20" s="71" t="s">
         <v>146</v>
       </c>
     </row>
@@ -5090,38 +5193,40 @@
       <c r="H21" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="I21" s="16"/>
+      <c r="I21" s="44">
+        <v>42158</v>
+      </c>
       <c r="J21" s="5"/>
       <c r="K21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="73"/>
+      <c r="L21" s="71"/>
     </row>
     <row r="22" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="18">
+      <c r="C22" s="80">
         <v>17</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="I22" s="16"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="73"/>
+      <c r="I22" s="83"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="85"/>
     </row>
     <row r="23" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5142,12 +5247,14 @@
       <c r="H23" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="I23" s="16"/>
+      <c r="I23" s="44">
+        <v>42158</v>
+      </c>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="73"/>
+      <c r="L23" s="71"/>
     </row>
     <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
@@ -5161,7 +5268,7 @@
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
       <c r="K24" s="14"/>
-      <c r="L24" s="73"/>
+      <c r="L24" s="71"/>
     </row>
     <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
@@ -5175,7 +5282,7 @@
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
       <c r="K25" s="14"/>
-      <c r="L25" s="73"/>
+      <c r="L25" s="71"/>
     </row>
     <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
@@ -5189,7 +5296,7 @@
       <c r="I26" s="16"/>
       <c r="J26" s="5"/>
       <c r="K26" s="14"/>
-      <c r="L26" s="73"/>
+      <c r="L26" s="71"/>
     </row>
     <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
@@ -5203,7 +5310,7 @@
       <c r="I27" s="16"/>
       <c r="J27" s="5"/>
       <c r="K27" s="14"/>
-      <c r="L27" s="73"/>
+      <c r="L27" s="71"/>
     </row>
     <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
@@ -5217,7 +5324,7 @@
       <c r="I28" s="16"/>
       <c r="J28" s="5"/>
       <c r="K28" s="14"/>
-      <c r="L28" s="73"/>
+      <c r="L28" s="71"/>
     </row>
     <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
@@ -5231,7 +5338,7 @@
       <c r="I29" s="16"/>
       <c r="J29" s="5"/>
       <c r="K29" s="14"/>
-      <c r="L29" s="73"/>
+      <c r="L29" s="71"/>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
@@ -5245,7 +5352,7 @@
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="73"/>
+      <c r="L30" s="71"/>
     </row>
     <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
@@ -5259,7 +5366,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="5"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="73"/>
+      <c r="L31" s="71"/>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
@@ -5273,7 +5380,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="5"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="73"/>
+      <c r="L32" s="71"/>
     </row>
     <row r="33" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
@@ -5287,7 +5394,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="5"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="73"/>
+      <c r="L33" s="71"/>
     </row>
     <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
@@ -5301,7 +5408,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="5"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="73"/>
+      <c r="L34" s="71"/>
     </row>
     <row r="35" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
@@ -5315,7 +5422,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="5"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="73"/>
+      <c r="L35" s="71"/>
     </row>
     <row r="36" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
@@ -5329,7 +5436,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="5"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="73"/>
+      <c r="L36" s="71"/>
     </row>
     <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
@@ -5343,7 +5450,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="5"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="73"/>
+      <c r="L37" s="71"/>
     </row>
     <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
@@ -5357,7 +5464,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="5"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="73"/>
+      <c r="L38" s="71"/>
     </row>
     <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
@@ -5371,7 +5478,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="5"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="73"/>
+      <c r="L39" s="71"/>
     </row>
     <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
@@ -5385,7 +5492,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="5"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="73"/>
+      <c r="L40" s="71"/>
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
@@ -5399,7 +5506,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="5"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="73"/>
+      <c r="L41" s="71"/>
     </row>
     <row r="42" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C42" s="18">
@@ -5413,7 +5520,7 @@
       <c r="I42" s="16"/>
       <c r="J42" s="5"/>
       <c r="K42" s="14"/>
-      <c r="L42" s="73"/>
+      <c r="L42" s="71"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -417,9 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证中</t>
-  </si>
-  <si>
     <t>更多筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -449,23 +446,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有Bug</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>按模板导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有Bug</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -672,15 +657,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>共通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选需要在点击后1秒内启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要彻底断开包装和计划的关系，包装计划需要可以独立审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有的商品是不需要计划，直接包装的</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1151,20 +1172,29 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1552,7 +1582,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -1579,7 +1609,7 @@
         <v>59</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1714,13 +1744,13 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="57" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
         <v>6</v>
       </c>
@@ -1747,7 +1777,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
@@ -1779,7 +1809,7 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1799,10 +1829,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
@@ -1832,7 +1862,7 @@
         <v>86</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1842,44 +1872,42 @@
         <v>0.3</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B15" s="40">
+      <c r="B15" s="52">
         <v>10</v>
       </c>
-      <c r="C15" s="40">
-        <v>2</v>
-      </c>
-      <c r="D15" s="39" t="s">
+      <c r="C15" s="52">
+        <v>2</v>
+      </c>
+      <c r="D15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="39" t="s">
+      <c r="E15" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="42"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="49">
+      <c r="H15" s="56"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="57">
         <v>42144</v>
       </c>
-      <c r="K15" s="50">
+      <c r="K15" s="80">
         <v>0.2</v>
       </c>
-      <c r="L15" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>102</v>
+      <c r="L15" s="59"/>
+      <c r="M15" s="60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1955,7 +1983,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -1967,41 +1995,39 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B19" s="40">
+      <c r="B19" s="52">
         <v>14</v>
       </c>
-      <c r="C19" s="40">
-        <v>2</v>
-      </c>
-      <c r="D19" s="39" t="s">
+      <c r="C19" s="52">
+        <v>2</v>
+      </c>
+      <c r="D19" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="H19" s="42"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="49">
+      <c r="H19" s="56"/>
+      <c r="I19" s="53"/>
+      <c r="J19" s="57">
         <v>42144</v>
       </c>
-      <c r="K19" s="50">
+      <c r="K19" s="80">
         <v>0.05</v>
       </c>
-      <c r="L19" s="48" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>102</v>
+      <c r="L19" s="59"/>
+      <c r="M19" s="60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="2:13" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2033,43 +2059,41 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="40">
+      <c r="B21" s="52">
         <v>16</v>
       </c>
-      <c r="C21" s="40">
-        <v>2</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="C21" s="52">
+        <v>2</v>
+      </c>
+      <c r="D21" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="41" t="s">
+      <c r="F21" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H21" s="42" t="s">
+      <c r="H21" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="49">
+      <c r="I21" s="53"/>
+      <c r="J21" s="57">
         <v>42144</v>
       </c>
-      <c r="K21" s="50">
+      <c r="K21" s="80">
         <v>0.1</v>
       </c>
-      <c r="L21" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>102</v>
+      <c r="L21" s="59"/>
+      <c r="M21" s="60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -2165,37 +2189,37 @@
       </c>
     </row>
     <row r="25" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B25" s="40">
+      <c r="B25" s="52">
         <v>20</v>
       </c>
-      <c r="C25" s="40">
-        <v>2</v>
-      </c>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="52">
+        <v>2</v>
+      </c>
+      <c r="D25" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H25" s="42" t="s">
+      <c r="H25" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="49">
+      <c r="I25" s="53"/>
+      <c r="J25" s="57">
         <v>42144</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="80">
         <v>0.1</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="43" t="s">
-        <v>19</v>
+      <c r="L25" s="59"/>
+      <c r="M25" s="60" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="2:13" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
@@ -2274,10 +2298,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2302,10 +2326,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2330,10 +2354,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2358,10 +2382,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2386,10 +2410,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2404,7 +2428,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2415,13 +2439,13 @@
         <v>40</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>96</v>
@@ -2435,7 +2459,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
@@ -2446,19 +2470,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2472,23 +2496,35 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
         <v>30</v>
       </c>
       <c r="C35" s="18">
         <v>2</v>
       </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
+      <c r="D35" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="I35" s="14"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="17"/>
+      <c r="M35" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
@@ -4696,8 +4732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A14" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4747,7 +4783,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -4820,7 +4856,7 @@
         <v>68</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H8" s="65" t="s">
         <v>88</v>
@@ -4902,7 +4938,7 @@
         <v>95</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>96</v>
@@ -4911,7 +4947,7 @@
         <v>42158</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>17</v>
@@ -4919,31 +4955,31 @@
       <c r="L11" s="71"/>
     </row>
     <row r="12" spans="2:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C12" s="73">
+      <c r="C12" s="31">
         <v>7</v>
       </c>
-      <c r="D12" s="74" t="s">
+      <c r="D12" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="74" t="s">
+      <c r="F12" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77">
+      <c r="G12" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="87">
         <v>42148</v>
       </c>
-      <c r="J12" s="78"/>
-      <c r="K12" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="L12" s="79" t="s">
-        <v>144</v>
+      <c r="J12" s="36"/>
+      <c r="K12" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" s="88" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,13 +4993,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -4985,13 +5021,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5013,13 +5049,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="65" t="s">
         <v>109</v>
-      </c>
-      <c r="G15" s="65" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" s="65" t="s">
-        <v>110</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5041,13 +5077,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>114</v>
-      </c>
-      <c r="G16" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>118</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5069,13 +5105,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5085,7 +5121,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
@@ -5099,13 +5135,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I18" s="66">
         <v>42148</v>
@@ -5127,13 +5163,13 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I19" s="44">
         <v>42158</v>
@@ -5155,23 +5191,23 @@
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="71" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -5185,13 +5221,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I21" s="44">
         <v>42158</v>
@@ -5203,30 +5239,30 @@
       <c r="L21" s="71"/>
     </row>
     <row r="22" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C22" s="80">
+      <c r="C22" s="81">
         <v>17</v>
       </c>
-      <c r="D22" s="81" t="s">
+      <c r="D22" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="G22" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="L22" s="85"/>
+      <c r="F22" s="83" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="H22" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="L22" s="86"/>
     </row>
     <row r="23" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5239,13 +5275,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I23" s="44">
         <v>42158</v>
@@ -5256,18 +5292,30 @@
       </c>
       <c r="L23" s="71"/>
     </row>
-    <row r="24" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>19</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="D24" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="14"/>
+      <c r="K24" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="L24" s="71"/>
     </row>
     <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -258,10 +258,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">                   </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计划导出模板的投产日期，需要自动填写成系统中的生产日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -421,10 +417,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>确认后，不需要考虑兼容性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
@@ -702,6 +694,14 @@
   </si>
   <si>
     <t>有的商品是不需要计划，直接包装的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -963,7 +963,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1197,6 +1197,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1503,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S161"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1519,6 +1527,7 @@
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
+    <col min="14" max="14" width="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -1567,7 +1576,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>58</v>
@@ -1609,7 +1618,7 @@
         <v>59</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1643,6 +1652,9 @@
       <c r="M7" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N7" s="90">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
@@ -1673,11 +1685,12 @@
       <c r="K8" s="37">
         <v>0.5</v>
       </c>
-      <c r="L8" s="48" t="s">
-        <v>62</v>
-      </c>
+      <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
         <v>19</v>
+      </c>
+      <c r="N8" s="90">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -1697,10 +1710,10 @@
         <v>44</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="49">
@@ -1713,6 +1726,9 @@
       <c r="M9" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N9" s="91" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
@@ -1731,10 +1747,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="49">
@@ -1744,10 +1760,13 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>19</v>
+      </c>
+      <c r="N10" s="91">
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -1767,7 +1786,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>37</v>
@@ -1776,9 +1795,10 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="32" t="s">
-        <v>105</v>
-      </c>
+      <c r="M11" s="89" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="92"/>
     </row>
     <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B12" s="52">
@@ -1809,8 +1829,9 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>104</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="N12" s="91"/>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B13" s="40">
@@ -1829,10 +1850,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
@@ -1859,10 +1880,10 @@
         <v>44</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1872,10 +1893,13 @@
         <v>0.3</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="N14" s="45">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1907,7 +1931,7 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1938,7 +1962,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -1966,7 +1990,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="52">
         <v>13</v>
       </c>
@@ -1983,7 +2007,7 @@
         <v>52</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -1995,10 +2019,10 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B19" s="52">
         <v>14</v>
       </c>
@@ -2015,7 +2039,7 @@
         <v>53</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="53"/>
@@ -2027,10 +2051,10 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="52">
         <v>15</v>
       </c>
@@ -2059,10 +2083,10 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B21" s="52">
         <v>16</v>
       </c>
@@ -2082,7 +2106,7 @@
         <v>61</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2093,10 +2117,10 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B22" s="40">
         <v>17</v>
       </c>
@@ -2104,19 +2128,19 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>64</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>65</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="42" t="s">
         <v>66</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>67</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
@@ -2126,7 +2150,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2140,13 +2164,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G23" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>79</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>80</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2159,8 +2183,11 @@
       <c r="M23" s="43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="N23" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2174,10 +2201,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="46" t="s">
         <v>72</v>
-      </c>
-      <c r="G24" s="46" t="s">
-        <v>73</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2188,7 +2215,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:13" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B25" s="52">
         <v>20</v>
       </c>
@@ -2202,13 +2229,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2219,10 +2246,10 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2236,13 +2263,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G26" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="46" t="s">
-        <v>76</v>
-      </c>
       <c r="H26" s="42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="37"/>
@@ -2252,7 +2279,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:13" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2266,10 +2293,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>90</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>91</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2283,8 +2310,11 @@
       <c r="M27" s="43" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="N27" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2298,10 +2328,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2312,7 +2342,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -2326,10 +2356,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2340,7 +2370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2354,10 +2384,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2368,7 +2398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2382,10 +2412,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2396,7 +2426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -2410,10 +2440,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2427,8 +2457,11 @@
       <c r="M32" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2439,16 +2472,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2459,10 +2492,13 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2470,19 +2506,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2495,8 +2531,11 @@
       <c r="M34" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="N34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
         <v>30</v>
       </c>
@@ -2510,13 +2549,13 @@
         <v>15</v>
       </c>
       <c r="F35" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="16" t="s">
         <v>172</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>174</v>
       </c>
       <c r="I35" s="14"/>
       <c r="J35" s="5"/>
@@ -2526,7 +2565,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>31</v>
       </c>
@@ -2544,7 +2583,7 @@
       <c r="L36" s="22"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>32</v>
       </c>
@@ -2562,7 +2601,7 @@
       <c r="L37" s="22"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
         <v>33</v>
       </c>
@@ -2580,7 +2619,7 @@
       <c r="L38" s="22"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>34</v>
       </c>
@@ -2598,7 +2637,7 @@
       <c r="L39" s="22"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
         <v>35</v>
       </c>
@@ -2616,7 +2655,7 @@
       <c r="L40" s="22"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
         <v>36</v>
       </c>
@@ -2634,7 +2673,7 @@
       <c r="L41" s="22"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
         <v>37</v>
       </c>
@@ -2652,7 +2691,7 @@
       <c r="L42" s="22"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B43" s="18">
         <v>38</v>
       </c>
@@ -2670,7 +2709,7 @@
       <c r="L43" s="22"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>39</v>
       </c>
@@ -2688,7 +2727,7 @@
       <c r="L44" s="22"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>40</v>
       </c>
@@ -2706,7 +2745,7 @@
       <c r="L45" s="22"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
         <v>41</v>
       </c>
@@ -2724,7 +2763,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>42</v>
       </c>
@@ -2742,7 +2781,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>43</v>
       </c>
@@ -4783,7 +4822,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -4806,7 +4845,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
@@ -4834,11 +4873,11 @@
         <v>43</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L7" s="79"/>
     </row>
@@ -4853,13 +4892,13 @@
         <v>21</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
@@ -4881,10 +4920,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -4907,13 +4946,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>92</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>93</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
@@ -4935,19 +4974,19 @@
         <v>15</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="I11" s="44">
         <v>42158</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>17</v>
@@ -4965,10 +5004,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="87">
@@ -4976,10 +5015,10 @@
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="32" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L12" s="88" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -4993,13 +5032,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -5021,13 +5060,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5049,13 +5088,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5077,13 +5116,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5105,13 +5144,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5121,7 +5160,7 @@
         <v>38</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="3:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
@@ -5135,13 +5174,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I18" s="66">
         <v>42148</v>
@@ -5163,20 +5202,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I19" s="44">
         <v>42158</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L19" s="71"/>
     </row>
@@ -5191,23 +5230,23 @@
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="71" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -5221,13 +5260,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G21" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="H21" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="I21" s="44">
         <v>42158</v>
@@ -5249,18 +5288,18 @@
         <v>15</v>
       </c>
       <c r="F22" s="83" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="84" t="s">
         <v>152</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>154</v>
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="85"/>
       <c r="K22" s="82" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L22" s="86"/>
     </row>
@@ -5275,13 +5314,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>159</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>161</v>
       </c>
       <c r="I23" s="44">
         <v>42158</v>
@@ -5303,13 +5342,13 @@
         <v>33</v>
       </c>
       <c r="F24" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>169</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$161</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$160</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -685,23 +685,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>包装计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要彻底断开包装和计划的关系，包装计划需要可以独立审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有的商品是不需要计划，直接包装的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>确认后，不需要考虑兼容性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于模板变更，变更后条形码的位置不居中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要居中显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,10 +1505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S161"/>
+  <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" topLeftCell="B28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,7 +1723,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="91" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1760,7 +1756,7 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>19</v>
@@ -2535,39 +2531,27 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" s="18">
         <v>2</v>
       </c>
-      <c r="D35" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F35" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="16" t="s">
-        <v>172</v>
-      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="16"/>
       <c r="I35" s="14"/>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="17" t="s">
-        <v>19</v>
-      </c>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" s="18">
         <v>2</v>
@@ -2585,7 +2569,7 @@
     </row>
     <row r="37" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" s="18">
         <v>2</v>
@@ -2603,7 +2587,7 @@
     </row>
     <row r="38" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" s="18">
         <v>2</v>
@@ -2621,7 +2605,7 @@
     </row>
     <row r="39" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" s="18">
         <v>2</v>
@@ -2639,7 +2623,7 @@
     </row>
     <row r="40" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" s="18">
         <v>2</v>
@@ -2657,7 +2641,7 @@
     </row>
     <row r="41" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" s="18">
         <v>2</v>
@@ -2675,7 +2659,7 @@
     </row>
     <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="18">
         <v>2</v>
@@ -2693,7 +2677,7 @@
     </row>
     <row r="43" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B43" s="18">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="18">
         <v>2</v>
@@ -2711,7 +2695,7 @@
     </row>
     <row r="44" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" s="18">
         <v>2</v>
@@ -2729,7 +2713,7 @@
     </row>
     <row r="45" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" s="18">
         <v>2</v>
@@ -2747,7 +2731,7 @@
     </row>
     <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="18">
         <v>2</v>
@@ -2765,7 +2749,7 @@
     </row>
     <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C47" s="18">
         <v>2</v>
@@ -2783,7 +2767,7 @@
     </row>
     <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C48" s="18">
         <v>2</v>
@@ -2801,7 +2785,7 @@
     </row>
     <row r="49" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C49" s="18">
         <v>2</v>
@@ -2819,7 +2803,7 @@
     </row>
     <row r="50" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C50" s="18">
         <v>2</v>
@@ -2837,7 +2821,7 @@
     </row>
     <row r="51" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C51" s="18">
         <v>2</v>
@@ -2855,7 +2839,7 @@
     </row>
     <row r="52" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" s="18">
         <v>2</v>
@@ -2873,7 +2857,7 @@
     </row>
     <row r="53" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B53" s="18">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C53" s="18">
         <v>2</v>
@@ -2891,7 +2875,7 @@
     </row>
     <row r="54" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B54" s="18">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C54" s="18">
         <v>2</v>
@@ -2909,7 +2893,7 @@
     </row>
     <row r="55" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="18">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C55" s="18">
         <v>2</v>
@@ -2927,7 +2911,7 @@
     </row>
     <row r="56" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B56" s="18">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56" s="18">
         <v>2</v>
@@ -2945,7 +2929,7 @@
     </row>
     <row r="57" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="18">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57" s="18">
         <v>2</v>
@@ -2963,7 +2947,7 @@
     </row>
     <row r="58" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B58" s="18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" s="18">
         <v>2</v>
@@ -2981,7 +2965,7 @@
     </row>
     <row r="59" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B59" s="18">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59" s="18">
         <v>2</v>
@@ -2999,7 +2983,7 @@
     </row>
     <row r="60" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B60" s="18">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C60" s="18">
         <v>2</v>
@@ -3017,7 +3001,7 @@
     </row>
     <row r="61" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B61" s="18">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C61" s="18">
         <v>2</v>
@@ -3035,7 +3019,7 @@
     </row>
     <row r="62" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B62" s="18">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C62" s="18">
         <v>2</v>
@@ -3053,7 +3037,7 @@
     </row>
     <row r="63" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B63" s="18">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C63" s="18">
         <v>2</v>
@@ -3071,7 +3055,7 @@
     </row>
     <row r="64" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B64" s="18">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C64" s="18">
         <v>2</v>
@@ -3089,7 +3073,7 @@
     </row>
     <row r="65" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B65" s="18">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C65" s="18">
         <v>2</v>
@@ -3107,7 +3091,7 @@
     </row>
     <row r="66" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B66" s="18">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C66" s="18">
         <v>2</v>
@@ -3125,7 +3109,7 @@
     </row>
     <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B67" s="18">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C67" s="18">
         <v>2</v>
@@ -3143,7 +3127,7 @@
     </row>
     <row r="68" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B68" s="18">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C68" s="18">
         <v>2</v>
@@ -3161,7 +3145,7 @@
     </row>
     <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B69" s="18">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C69" s="18">
         <v>2</v>
@@ -3179,7 +3163,7 @@
     </row>
     <row r="70" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B70" s="18">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C70" s="18">
         <v>2</v>
@@ -3197,7 +3181,7 @@
     </row>
     <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B71" s="18">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C71" s="18">
         <v>2</v>
@@ -3215,7 +3199,7 @@
     </row>
     <row r="72" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B72" s="18">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C72" s="18">
         <v>2</v>
@@ -3233,7 +3217,7 @@
     </row>
     <row r="73" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="18">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C73" s="18">
         <v>2</v>
@@ -3251,7 +3235,7 @@
     </row>
     <row r="74" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B74" s="18">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" s="18">
         <v>2</v>
@@ -3269,7 +3253,7 @@
     </row>
     <row r="75" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="18">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C75" s="18">
         <v>2</v>
@@ -3287,7 +3271,7 @@
     </row>
     <row r="76" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B76" s="18">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C76" s="18">
         <v>2</v>
@@ -3305,7 +3289,7 @@
     </row>
     <row r="77" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="18">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" s="18">
         <v>2</v>
@@ -3323,7 +3307,7 @@
     </row>
     <row r="78" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B78" s="18">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C78" s="18">
         <v>2</v>
@@ -3341,7 +3325,7 @@
     </row>
     <row r="79" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="18">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C79" s="18">
         <v>2</v>
@@ -3359,7 +3343,7 @@
     </row>
     <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="18">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C80" s="18">
         <v>2</v>
@@ -3377,7 +3361,7 @@
     </row>
     <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="18">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C81" s="18">
         <v>2</v>
@@ -3395,7 +3379,7 @@
     </row>
     <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="18">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C82" s="18">
         <v>2</v>
@@ -3413,7 +3397,7 @@
     </row>
     <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="18">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C83" s="18">
         <v>2</v>
@@ -3431,7 +3415,7 @@
     </row>
     <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B84" s="18">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C84" s="18">
         <v>2</v>
@@ -3449,7 +3433,7 @@
     </row>
     <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B85" s="18">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C85" s="18">
         <v>2</v>
@@ -3467,7 +3451,7 @@
     </row>
     <row r="86" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B86" s="18">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C86" s="18">
         <v>2</v>
@@ -3485,7 +3469,7 @@
     </row>
     <row r="87" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B87" s="18">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C87" s="18">
         <v>2</v>
@@ -3503,7 +3487,7 @@
     </row>
     <row r="88" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B88" s="18">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C88" s="18">
         <v>2</v>
@@ -3521,7 +3505,7 @@
     </row>
     <row r="89" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B89" s="18">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C89" s="18">
         <v>2</v>
@@ -3539,7 +3523,7 @@
     </row>
     <row r="90" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B90" s="18">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C90" s="18">
         <v>2</v>
@@ -3557,7 +3541,7 @@
     </row>
     <row r="91" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B91" s="18">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C91" s="18">
         <v>2</v>
@@ -3575,7 +3559,7 @@
     </row>
     <row r="92" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B92" s="18">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C92" s="18">
         <v>2</v>
@@ -3593,7 +3577,7 @@
     </row>
     <row r="93" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B93" s="18">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C93" s="18">
         <v>2</v>
@@ -3611,7 +3595,7 @@
     </row>
     <row r="94" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B94" s="18">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C94" s="18">
         <v>2</v>
@@ -3629,7 +3613,7 @@
     </row>
     <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="18">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C95" s="18">
         <v>2</v>
@@ -3647,7 +3631,7 @@
     </row>
     <row r="96" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B96" s="18">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C96" s="18">
         <v>2</v>
@@ -3665,7 +3649,7 @@
     </row>
     <row r="97" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B97" s="18">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C97" s="18">
         <v>2</v>
@@ -3683,7 +3667,7 @@
     </row>
     <row r="98" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B98" s="18">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C98" s="18">
         <v>2</v>
@@ -3701,7 +3685,7 @@
     </row>
     <row r="99" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B99" s="18">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C99" s="18">
         <v>2</v>
@@ -3719,7 +3703,7 @@
     </row>
     <row r="100" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B100" s="18">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C100" s="18">
         <v>2</v>
@@ -3737,7 +3721,7 @@
     </row>
     <row r="101" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="18">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C101" s="18">
         <v>2</v>
@@ -3755,7 +3739,7 @@
     </row>
     <row r="102" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B102" s="18">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C102" s="18">
         <v>2</v>
@@ -3773,7 +3757,7 @@
     </row>
     <row r="103" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="18">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C103" s="18">
         <v>2</v>
@@ -3791,7 +3775,7 @@
     </row>
     <row r="104" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="18">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C104" s="18">
         <v>2</v>
@@ -3809,7 +3793,7 @@
     </row>
     <row r="105" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="18">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C105" s="18">
         <v>2</v>
@@ -3827,7 +3811,7 @@
     </row>
     <row r="106" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B106" s="18">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C106" s="18">
         <v>2</v>
@@ -3845,7 +3829,7 @@
     </row>
     <row r="107" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="18">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C107" s="18">
         <v>2</v>
@@ -3863,7 +3847,7 @@
     </row>
     <row r="108" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B108" s="18">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C108" s="18">
         <v>2</v>
@@ -3881,7 +3865,7 @@
     </row>
     <row r="109" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="18">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C109" s="18">
         <v>2</v>
@@ -3899,7 +3883,7 @@
     </row>
     <row r="110" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="18">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C110" s="18">
         <v>2</v>
@@ -3917,7 +3901,7 @@
     </row>
     <row r="111" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="18">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C111" s="18">
         <v>2</v>
@@ -3935,7 +3919,7 @@
     </row>
     <row r="112" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="18">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C112" s="18">
         <v>2</v>
@@ -3953,7 +3937,7 @@
     </row>
     <row r="113" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="18">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C113" s="18">
         <v>2</v>
@@ -3971,7 +3955,7 @@
     </row>
     <row r="114" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="18">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C114" s="18">
         <v>2</v>
@@ -3989,7 +3973,7 @@
     </row>
     <row r="115" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B115" s="18">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C115" s="18">
         <v>2</v>
@@ -4007,7 +3991,7 @@
     </row>
     <row r="116" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B116" s="18">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C116" s="18">
         <v>2</v>
@@ -4025,11 +4009,9 @@
     </row>
     <row r="117" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B117" s="18">
-        <v>112</v>
-      </c>
-      <c r="C117" s="18">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C117" s="18"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="15"/>
@@ -4043,7 +4025,7 @@
     </row>
     <row r="118" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B118" s="18">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="14"/>
@@ -4059,7 +4041,7 @@
     </row>
     <row r="119" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B119" s="18">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="14"/>
@@ -4075,7 +4057,7 @@
     </row>
     <row r="120" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B120" s="18">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C120" s="18"/>
       <c r="D120" s="14"/>
@@ -4091,7 +4073,7 @@
     </row>
     <row r="121" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="18">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C121" s="18"/>
       <c r="D121" s="14"/>
@@ -4107,7 +4089,7 @@
     </row>
     <row r="122" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="18">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C122" s="18"/>
       <c r="D122" s="14"/>
@@ -4123,7 +4105,7 @@
     </row>
     <row r="123" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B123" s="18">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="14"/>
@@ -4139,7 +4121,7 @@
     </row>
     <row r="124" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B124" s="18">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="14"/>
@@ -4155,7 +4137,7 @@
     </row>
     <row r="125" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B125" s="18">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="14"/>
@@ -4171,7 +4153,7 @@
     </row>
     <row r="126" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B126" s="18">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="14"/>
@@ -4187,7 +4169,7 @@
     </row>
     <row r="127" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B127" s="18">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="14"/>
@@ -4203,7 +4185,7 @@
     </row>
     <row r="128" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B128" s="18">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="14"/>
@@ -4219,7 +4201,7 @@
     </row>
     <row r="129" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B129" s="18">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="14"/>
@@ -4235,7 +4217,7 @@
     </row>
     <row r="130" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B130" s="18">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="14"/>
@@ -4251,7 +4233,7 @@
     </row>
     <row r="131" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B131" s="18">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="14"/>
@@ -4267,7 +4249,7 @@
     </row>
     <row r="132" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B132" s="18">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="14"/>
@@ -4283,7 +4265,7 @@
     </row>
     <row r="133" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B133" s="18">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="14"/>
@@ -4299,7 +4281,7 @@
     </row>
     <row r="134" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B134" s="18">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="14"/>
@@ -4315,7 +4297,7 @@
     </row>
     <row r="135" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B135" s="18">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="14"/>
@@ -4331,7 +4313,7 @@
     </row>
     <row r="136" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B136" s="18">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="14"/>
@@ -4347,7 +4329,7 @@
     </row>
     <row r="137" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B137" s="18">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="14"/>
@@ -4363,7 +4345,7 @@
     </row>
     <row r="138" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B138" s="18">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="14"/>
@@ -4379,7 +4361,7 @@
     </row>
     <row r="139" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B139" s="18">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="14"/>
@@ -4395,7 +4377,7 @@
     </row>
     <row r="140" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B140" s="18">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="14"/>
@@ -4411,7 +4393,7 @@
     </row>
     <row r="141" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B141" s="18">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="14"/>
@@ -4427,7 +4409,7 @@
     </row>
     <row r="142" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B142" s="18">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="14"/>
@@ -4443,7 +4425,7 @@
     </row>
     <row r="143" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B143" s="18">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="14"/>
@@ -4459,7 +4441,7 @@
     </row>
     <row r="144" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B144" s="18">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="14"/>
@@ -4475,7 +4457,7 @@
     </row>
     <row r="145" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B145" s="18">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="14"/>
@@ -4491,7 +4473,7 @@
     </row>
     <row r="146" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B146" s="18">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="14"/>
@@ -4507,7 +4489,7 @@
     </row>
     <row r="147" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B147" s="18">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="14"/>
@@ -4523,7 +4505,7 @@
     </row>
     <row r="148" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B148" s="18">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="14"/>
@@ -4539,7 +4521,7 @@
     </row>
     <row r="149" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B149" s="18">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="14"/>
@@ -4555,7 +4537,7 @@
     </row>
     <row r="150" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B150" s="18">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="14"/>
@@ -4571,7 +4553,7 @@
     </row>
     <row r="151" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B151" s="18">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="14"/>
@@ -4587,7 +4569,7 @@
     </row>
     <row r="152" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B152" s="18">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="14"/>
@@ -4603,7 +4585,7 @@
     </row>
     <row r="153" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B153" s="18">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="14"/>
@@ -4619,7 +4601,7 @@
     </row>
     <row r="154" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B154" s="18">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="14"/>
@@ -4635,7 +4617,7 @@
     </row>
     <row r="155" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B155" s="18">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="14"/>
@@ -4651,7 +4633,7 @@
     </row>
     <row r="156" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B156" s="18">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="14"/>
@@ -4667,7 +4649,7 @@
     </row>
     <row r="157" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B157" s="18">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="14"/>
@@ -4683,7 +4665,7 @@
     </row>
     <row r="158" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B158" s="18">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="14"/>
@@ -4699,7 +4681,7 @@
     </row>
     <row r="159" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B159" s="18">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="14"/>
@@ -4715,7 +4697,7 @@
     </row>
     <row r="160" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B160" s="18">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="14"/>
@@ -4729,36 +4711,20 @@
       <c r="L160" s="22"/>
       <c r="M160" s="17"/>
     </row>
-    <row r="161" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B161" s="18">
-        <v>156</v>
-      </c>
-      <c r="C161" s="18"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="19"/>
-      <c r="H161" s="16"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="5"/>
-      <c r="K161" s="5"/>
-      <c r="L161" s="22"/>
-      <c r="M161" s="17"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:M161"/>
+  <autoFilter ref="B5:M160"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D9:D160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D9:D159">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M159">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E161">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E160">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4771,8 +4737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5357,18 +5323,30 @@
       </c>
       <c r="L24" s="71"/>
     </row>
-    <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>20</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+      <c r="D25" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="14"/>
+      <c r="K25" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="L25" s="71"/>
     </row>
     <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$160</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,19 +203,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>给一个订单计划时，填写投产编号后保存，下方数据表中的数据消失，应该是刷新页面后，其他数据保持不变，只有刚才选中那条的投产编号被加了进去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -298,10 +291,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>排序</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,10 +299,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果是预投机器则在生产日期上显示预投两个字</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +316,6 @@
   </si>
   <si>
     <t>只要用户点击表格中的表头，页面原有排序规则全部去掉，只按照点击的表头列的默认规则排序。当刷新页面时，回复原有默认排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -573,131 +554,155 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>对应模板中的新机型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了之前的S,T,U,Y以外，需要对应模板中的新机型，V和L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在表中多选时，需要提示选中的数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反审核流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果计划排产中已经有一个或多个审核后，销售页面不能反审核这个订单，必须等待计划页面该订单都反审后，才能在销售页面进行反审核。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前可以直接在销售订单反审核，不管计划页面是否已经有审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果需要显示当前页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选需要在点击后1秒内启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于模板变更，变更后条形码的位置不居中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对应模板中的新机型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>除了之前的S,T,U,Y以外，需要对应模板中的新机型，V和L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当在表中多选时，需要提示选中的数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反审核流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果计划排产中已经有一个或多个审核后，销售页面不能反审核这个订单，必须等待计划页面该订单都反审后，才能在销售页面进行反审核。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前可以直接在销售订单反审核，不管计划页面是否已经有审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号必须唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前已经重复的数据就不用管了，之后不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号</t>
+    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果需要显示当前页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前已经重复的数据就不用管了，之后不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号必须唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选需要在点击后1秒内启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后，不需要考虑兼容性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于模板变更，变更后条形码的位置不居中了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要居中显示</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -705,7 +710,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -783,6 +788,14 @@
       <strike/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -959,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1201,6 +1214,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1505,14 +1523,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B35" sqref="A35:XFD35"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -1572,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -1611,10 +1631,10 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1634,7 +1654,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1646,7 +1666,7 @@
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N7" s="90">
         <v>1</v>
@@ -1683,7 +1703,7 @@
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N8" s="90">
         <v>2</v>
@@ -1706,10 +1726,10 @@
         <v>44</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="49">
@@ -1720,10 +1740,10 @@
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N9" s="91" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1743,10 +1763,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="49">
@@ -1756,10 +1776,10 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N10" s="91">
         <v>2</v>
@@ -1782,7 +1802,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>37</v>
@@ -1792,11 +1812,11 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="89" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="N11" s="92"/>
     </row>
-    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="52">
         <v>7</v>
       </c>
@@ -1813,7 +1833,7 @@
         <v>39</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="53"/>
@@ -1825,11 +1845,11 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="N12" s="91"/>
     </row>
-    <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="40">
         <v>8</v>
       </c>
@@ -1846,17 +1866,17 @@
         <v>41</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="50"/>
       <c r="L13" s="48"/>
       <c r="M13" s="43" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
@@ -1876,10 +1896,10 @@
         <v>44</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1889,16 +1909,16 @@
         <v>0.3</v>
       </c>
       <c r="L14" s="48" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N14" s="45">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="52">
         <v>10</v>
       </c>
@@ -1927,7 +1947,7 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
@@ -1947,12 +1967,14 @@
         <v>47</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
       <c r="J16" s="37"/>
-      <c r="K16" s="51"/>
+      <c r="K16" s="93">
+        <v>0.1</v>
+      </c>
       <c r="L16" s="48"/>
       <c r="M16" s="43" t="s">
         <v>19</v>
@@ -1972,21 +1994,23 @@
         <v>33</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>51</v>
+        <v>164</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
       <c r="J17" s="37"/>
-      <c r="K17" s="50"/>
+      <c r="K17" s="94">
+        <v>0.3</v>
+      </c>
       <c r="L17" s="48"/>
       <c r="M17" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="52">
         <v>13</v>
       </c>
@@ -2000,10 +2024,10 @@
         <v>21</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -2015,10 +2039,10 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="52">
         <v>14</v>
       </c>
@@ -2032,10 +2056,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="53"/>
@@ -2047,10 +2071,10 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="52">
         <v>15</v>
       </c>
@@ -2064,10 +2088,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G20" s="55" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="53"/>
@@ -2079,10 +2103,10 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="52">
         <v>16</v>
       </c>
@@ -2096,13 +2120,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="54" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G21" s="55" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2113,10 +2137,10 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22" s="40">
         <v>17</v>
       </c>
@@ -2124,26 +2148,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E22" s="39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
-        <v>19</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -2160,13 +2184,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2177,7 +2201,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N23" s="45">
         <v>1</v>
@@ -2197,21 +2221,23 @@
         <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>72</v>
+        <v>165</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
       <c r="J24" s="37"/>
-      <c r="K24" s="51"/>
+      <c r="K24" s="93">
+        <v>0.2</v>
+      </c>
       <c r="L24" s="48"/>
       <c r="M24" s="43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="2:14" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="52">
         <v>20</v>
       </c>
@@ -2225,13 +2251,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H25" s="56" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2242,7 +2268,7 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
@@ -2259,17 +2285,19 @@
         <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>81</v>
+        <v>171</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="37"/>
-      <c r="K26" s="51"/>
+      <c r="K26" s="93">
+        <v>0.2</v>
+      </c>
       <c r="L26" s="48"/>
       <c r="M26" s="43" t="s">
         <v>19</v>
@@ -2289,10 +2317,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2304,7 +2332,7 @@
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N27" s="45">
         <v>1</v>
@@ -2324,15 +2352,17 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
       <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="K28" s="95">
+        <v>0.4</v>
+      </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
         <v>19</v>
@@ -2352,15 +2382,17 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="K29" s="95">
+        <v>0.1</v>
+      </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
         <v>19</v>
@@ -2380,15 +2412,17 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
       <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
+      <c r="K30" s="95">
+        <v>0.1</v>
+      </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
         <v>19</v>
@@ -2408,10 +2442,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2436,10 +2470,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2451,7 +2485,7 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2468,16 +2502,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2488,7 +2522,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -2502,19 +2536,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2525,7 +2559,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N34">
         <v>2</v>
@@ -4712,7 +4746,14 @@
       <c r="M160" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="B5:M160"/>
+  <autoFilter ref="B5:M160">
+    <filterColumn colId="11">
+      <filters blank="1">
+        <filter val="开发中"/>
+        <filter val="未开始"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D9:D159">
@@ -4735,10 +4776,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B2:L42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4788,10 +4830,10 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C6" s="62">
         <v>1</v>
       </c>
@@ -4811,7 +4853,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
@@ -4833,21 +4875,21 @@
         <v>42</v>
       </c>
       <c r="G7" s="76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H7" s="76" t="s">
         <v>43</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L7" s="79"/>
     </row>
-    <row r="8" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C8" s="62">
         <v>3</v>
       </c>
@@ -4858,13 +4900,13 @@
         <v>21</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
@@ -4875,7 +4917,7 @@
       </c>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C9" s="62">
         <v>4</v>
       </c>
@@ -4886,10 +4928,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -4901,7 +4943,7 @@
       </c>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C10" s="62">
         <v>5</v>
       </c>
@@ -4912,13 +4954,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H10" s="65" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
@@ -4940,26 +4982,26 @@
         <v>15</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I11" s="44">
         <v>42158</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K11" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="71"/>
     </row>
-    <row r="12" spans="2:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C12" s="31">
         <v>7</v>
       </c>
@@ -4970,10 +5012,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="H12" s="35"/>
       <c r="I12" s="87">
@@ -4981,13 +5023,13 @@
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="L12" s="88" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C13" s="62">
         <v>8</v>
       </c>
@@ -4998,13 +5040,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -5015,7 +5057,7 @@
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C14" s="62">
         <v>9</v>
       </c>
@@ -5026,13 +5068,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5043,7 +5085,7 @@
       </c>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="62">
         <v>10</v>
       </c>
@@ -5054,13 +5096,13 @@
         <v>21</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5071,7 +5113,7 @@
       </c>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="2:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="62">
         <v>11</v>
       </c>
@@ -5082,13 +5124,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5099,7 +5141,7 @@
       </c>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C17" s="62">
         <v>12</v>
       </c>
@@ -5110,13 +5152,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5126,10 +5168,10 @@
         <v>38</v>
       </c>
       <c r="L17" s="70" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="62">
         <v>13</v>
       </c>
@@ -5140,13 +5182,13 @@
         <v>15</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G18" s="65" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H18" s="65" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="I18" s="66">
         <v>42148</v>
@@ -5168,20 +5210,20 @@
         <v>21</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="I19" s="44">
         <v>42158</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="L19" s="71"/>
     </row>
@@ -5196,23 +5238,23 @@
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L20" s="71" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -5226,13 +5268,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="I21" s="44">
         <v>42158</v>
@@ -5243,7 +5285,7 @@
       </c>
       <c r="L21" s="71"/>
     </row>
-    <row r="22" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C22" s="81">
         <v>17</v>
       </c>
@@ -5254,18 +5296,18 @@
         <v>15</v>
       </c>
       <c r="F22" s="83" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G22" s="84" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H22" s="84" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I22" s="84"/>
       <c r="J22" s="85"/>
       <c r="K22" s="82" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L22" s="86"/>
     </row>
@@ -5280,13 +5322,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="I23" s="44">
         <v>42158</v>
@@ -5297,7 +5339,7 @@
       </c>
       <c r="L23" s="71"/>
     </row>
-    <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>19</v>
       </c>
@@ -5308,20 +5350,22 @@
         <v>33</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>166</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="I24" s="16"/>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L24" s="71"/>
+      <c r="L24" s="71" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="25" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
@@ -5334,13 +5378,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
@@ -5588,6 +5632,14 @@
       <c r="L42" s="71"/>
     </row>
   </sheetData>
+  <autoFilter ref="B5:L42">
+    <filterColumn colId="9">
+      <filters blank="1">
+        <filter val="不再现"/>
+        <filter val="未修复"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K42">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -1526,8 +1526,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1971,7 +1971,9 @@
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="37"/>
+      <c r="J16" s="72">
+        <v>42166</v>
+      </c>
       <c r="K16" s="93">
         <v>0.1</v>
       </c>
@@ -2001,7 +2003,9 @@
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="37"/>
+      <c r="J17" s="72">
+        <v>42166</v>
+      </c>
       <c r="K17" s="94">
         <v>0.3</v>
       </c>
@@ -2228,7 +2232,9 @@
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="37"/>
+      <c r="J24" s="72">
+        <v>42166</v>
+      </c>
       <c r="K24" s="93">
         <v>0.2</v>
       </c>
@@ -2294,7 +2300,9 @@
         <v>171</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="37"/>
+      <c r="J26" s="72">
+        <v>42166</v>
+      </c>
       <c r="K26" s="93">
         <v>0.2</v>
       </c>
@@ -2359,7 +2367,9 @@
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="5"/>
+      <c r="J28" s="72">
+        <v>42166</v>
+      </c>
       <c r="K28" s="95">
         <v>0.4</v>
       </c>
@@ -2389,7 +2399,9 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="5"/>
+      <c r="J29" s="72">
+        <v>42166</v>
+      </c>
       <c r="K29" s="95">
         <v>0.1</v>
       </c>
@@ -2419,7 +2431,9 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="5"/>
+      <c r="J30" s="72">
+        <v>42166</v>
+      </c>
       <c r="K30" s="95">
         <v>0.1</v>
       </c>
@@ -2449,8 +2463,12 @@
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="J31" s="72">
+        <v>42166</v>
+      </c>
+      <c r="K31" s="95">
+        <v>0.1</v>
+      </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
         <v>19</v>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -650,10 +650,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>由于模板变更，变更后条形码的位置不居中了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -703,6 +699,25 @@
   </si>
   <si>
     <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面重新开发目前还存在问题，暂时制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>随更新到额template一同对应了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前支持新数据的排序，但旧数据的基础数据表由于数据量较大，需要开发单独工具进行对应，下一版本完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -710,7 +725,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +815,31 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -972,7 +1012,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1209,16 +1249,24 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1526,8 +1574,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,9 +1589,9 @@
     <col min="8" max="8" width="26.25" style="21" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="92" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
+    <col min="14" max="14" width="6" style="97" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -1591,7 +1639,7 @@
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="93" t="s">
         <v>66</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -1600,7 +1648,7 @@
       <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="1"/>
+      <c r="N5" s="98"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1636,6 +1684,7 @@
       <c r="M6" s="30" t="s">
         <v>98</v>
       </c>
+      <c r="N6"/>
     </row>
     <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
@@ -1658,18 +1707,18 @@
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="49">
-        <v>42158</v>
-      </c>
-      <c r="K7" s="37">
+      <c r="J7" s="95">
+        <v>42166</v>
+      </c>
+      <c r="K7" s="51">
         <v>0.3</v>
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="N7" s="90">
-        <v>1</v>
+      <c r="N7" s="99" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1698,16 +1747,14 @@
       <c r="J8" s="49">
         <v>42158</v>
       </c>
-      <c r="K8" s="37">
+      <c r="K8" s="51">
         <v>0.5</v>
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N8" s="90">
-        <v>2</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N8" s="99"/>
     </row>
     <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
@@ -1732,8 +1779,8 @@
         <v>83</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="49">
-        <v>42158</v>
+      <c r="J9" s="95">
+        <v>42166</v>
       </c>
       <c r="K9" s="50">
         <v>0.3</v>
@@ -1742,8 +1789,8 @@
       <c r="M9" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="N9" s="91" t="s">
-        <v>161</v>
+      <c r="N9" s="100" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1769,8 +1816,8 @@
         <v>81</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="49">
-        <v>42158</v>
+      <c r="J10" s="95">
+        <v>42166</v>
       </c>
       <c r="K10" s="51">
         <v>0.4</v>
@@ -1781,8 +1828,8 @@
       <c r="M10" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="N10" s="91">
-        <v>2</v>
+      <c r="N10" s="100" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -1814,7 +1861,7 @@
       <c r="M11" s="89" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="92"/>
+      <c r="N11" s="91"/>
     </row>
     <row r="12" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="52">
@@ -1847,7 +1894,7 @@
       <c r="M12" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="N12" s="91"/>
+      <c r="N12" s="90"/>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="40">
@@ -1912,11 +1959,9 @@
         <v>100</v>
       </c>
       <c r="M14" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N14" s="45">
-        <v>2</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="52">
@@ -1967,20 +2012,21 @@
         <v>47</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
       <c r="J16" s="72">
         <v>42166</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="51">
         <v>0.1</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N16" s="101"/>
     </row>
     <row r="17" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
@@ -1999,20 +2045,21 @@
         <v>49</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
       <c r="J17" s="72">
         <v>42166</v>
       </c>
-      <c r="K17" s="94">
+      <c r="K17" s="50">
         <v>0.3</v>
       </c>
       <c r="L17" s="48"/>
       <c r="M17" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="52">
@@ -2205,11 +2252,9 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N23" s="45">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N23" s="101"/>
     </row>
     <row r="24" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
@@ -2228,20 +2273,21 @@
         <v>69</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
       <c r="J24" s="72">
         <v>42166</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="51">
         <v>0.2</v>
       </c>
       <c r="L24" s="48"/>
       <c r="M24" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N24" s="101"/>
     </row>
     <row r="25" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="52">
@@ -2294,22 +2340,23 @@
         <v>71</v>
       </c>
       <c r="G26" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>170</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>171</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
         <v>42166</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="51">
         <v>0.2</v>
       </c>
       <c r="L26" s="48"/>
       <c r="M26" s="43" t="s">
         <v>19</v>
       </c>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
@@ -2335,16 +2382,14 @@
       <c r="J27" s="49">
         <v>42158</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="51">
         <v>0.1</v>
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N27" s="45">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N27" s="101"/>
     </row>
     <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2363,14 +2408,14 @@
         <v>136</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
       <c r="J28" s="72">
         <v>42166</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K28" s="94">
         <v>0.4</v>
       </c>
       <c r="L28" s="22"/>
@@ -2399,15 +2444,18 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="72">
-        <v>42166</v>
-      </c>
-      <c r="K29" s="95">
+      <c r="J29" s="96">
+        <v>42158</v>
+      </c>
+      <c r="K29" s="94">
         <v>0.1</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>19</v>
+        <v>176</v>
+      </c>
+      <c r="N29" s="97" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2434,7 +2482,7 @@
       <c r="J30" s="72">
         <v>42166</v>
       </c>
-      <c r="K30" s="95">
+      <c r="K30" s="94">
         <v>0.1</v>
       </c>
       <c r="L30" s="22"/>
@@ -2459,14 +2507,14 @@
         <v>147</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
       <c r="J31" s="72">
         <v>42166</v>
       </c>
-      <c r="K31" s="95">
+      <c r="K31" s="94">
         <v>0.1</v>
       </c>
       <c r="L31" s="22"/>
@@ -2491,25 +2539,22 @@
         <v>148</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
       <c r="J32" s="72">
         <v>42158</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="94">
         <v>0.1</v>
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2535,18 +2580,15 @@
       <c r="J33" s="72">
         <v>42158</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="94">
         <v>0</v>
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2572,18 +2614,15 @@
       <c r="J34" s="72">
         <v>42158</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="94">
         <v>0.2</v>
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="N34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B35" s="18">
         <v>31</v>
       </c>
@@ -2597,11 +2636,11 @@
       <c r="H35" s="16"/>
       <c r="I35" s="14"/>
       <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="K35" s="94"/>
       <c r="L35" s="22"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -2615,11 +2654,11 @@
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
       <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="K36" s="94"/>
       <c r="L36" s="22"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>33</v>
       </c>
@@ -2633,11 +2672,11 @@
       <c r="H37" s="16"/>
       <c r="I37" s="14"/>
       <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="K37" s="94"/>
       <c r="L37" s="22"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
         <v>34</v>
       </c>
@@ -2651,11 +2690,11 @@
       <c r="H38" s="16"/>
       <c r="I38" s="14"/>
       <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="K38" s="94"/>
       <c r="L38" s="22"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
@@ -2669,11 +2708,11 @@
       <c r="H39" s="16"/>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="K39" s="94"/>
       <c r="L39" s="22"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B40" s="18">
         <v>36</v>
       </c>
@@ -2687,11 +2726,11 @@
       <c r="H40" s="16"/>
       <c r="I40" s="14"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="K40" s="94"/>
       <c r="L40" s="22"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B41" s="18">
         <v>37</v>
       </c>
@@ -2705,11 +2744,11 @@
       <c r="H41" s="16"/>
       <c r="I41" s="14"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="K41" s="94"/>
       <c r="L41" s="22"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B42" s="18">
         <v>38</v>
       </c>
@@ -2723,11 +2762,11 @@
       <c r="H42" s="16"/>
       <c r="I42" s="14"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="K42" s="94"/>
       <c r="L42" s="22"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B43" s="18">
         <v>39</v>
       </c>
@@ -2741,11 +2780,11 @@
       <c r="H43" s="16"/>
       <c r="I43" s="14"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="K43" s="94"/>
       <c r="L43" s="22"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>40</v>
       </c>
@@ -2759,11 +2798,11 @@
       <c r="H44" s="16"/>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="K44" s="94"/>
       <c r="L44" s="22"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>41</v>
       </c>
@@ -2777,11 +2816,11 @@
       <c r="H45" s="16"/>
       <c r="I45" s="14"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="K45" s="94"/>
       <c r="L45" s="22"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
         <v>42</v>
       </c>
@@ -2795,11 +2834,11 @@
       <c r="H46" s="16"/>
       <c r="I46" s="14"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
+      <c r="K46" s="94"/>
       <c r="L46" s="22"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -2813,11 +2852,11 @@
       <c r="H47" s="16"/>
       <c r="I47" s="14"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
+      <c r="K47" s="94"/>
       <c r="L47" s="22"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
@@ -2831,7 +2870,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="14"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
+      <c r="K48" s="94"/>
       <c r="L48" s="22"/>
       <c r="M48" s="17"/>
     </row>
@@ -2849,7 +2888,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="14"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
+      <c r="K49" s="94"/>
       <c r="L49" s="22"/>
       <c r="M49" s="17"/>
     </row>
@@ -2867,7 +2906,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="14"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
+      <c r="K50" s="94"/>
       <c r="L50" s="22"/>
       <c r="M50" s="17"/>
     </row>
@@ -2885,7 +2924,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="14"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
+      <c r="K51" s="94"/>
       <c r="L51" s="22"/>
       <c r="M51" s="17"/>
     </row>
@@ -2903,7 +2942,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="14"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
+      <c r="K52" s="94"/>
       <c r="L52" s="22"/>
       <c r="M52" s="17"/>
     </row>
@@ -2921,7 +2960,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="5"/>
+      <c r="K53" s="94"/>
       <c r="L53" s="22"/>
       <c r="M53" s="17"/>
     </row>
@@ -2939,7 +2978,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="14"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="5"/>
+      <c r="K54" s="94"/>
       <c r="L54" s="22"/>
       <c r="M54" s="17"/>
     </row>
@@ -2957,7 +2996,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="14"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
+      <c r="K55" s="94"/>
       <c r="L55" s="22"/>
       <c r="M55" s="17"/>
     </row>
@@ -2975,7 +3014,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="14"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="5"/>
+      <c r="K56" s="94"/>
       <c r="L56" s="22"/>
       <c r="M56" s="17"/>
     </row>
@@ -2993,7 +3032,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="14"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
+      <c r="K57" s="94"/>
       <c r="L57" s="22"/>
       <c r="M57" s="17"/>
     </row>
@@ -3011,7 +3050,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="14"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="5"/>
+      <c r="K58" s="94"/>
       <c r="L58" s="22"/>
       <c r="M58" s="17"/>
     </row>
@@ -3029,7 +3068,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="14"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
+      <c r="K59" s="94"/>
       <c r="L59" s="22"/>
       <c r="M59" s="17"/>
     </row>
@@ -3047,7 +3086,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="14"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="5"/>
+      <c r="K60" s="94"/>
       <c r="L60" s="22"/>
       <c r="M60" s="17"/>
     </row>
@@ -3065,7 +3104,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="14"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="5"/>
+      <c r="K61" s="94"/>
       <c r="L61" s="22"/>
       <c r="M61" s="17"/>
     </row>
@@ -3083,7 +3122,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="14"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
+      <c r="K62" s="94"/>
       <c r="L62" s="22"/>
       <c r="M62" s="17"/>
     </row>
@@ -3101,7 +3140,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="14"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="5"/>
+      <c r="K63" s="94"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
@@ -3119,7 +3158,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="14"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
+      <c r="K64" s="94"/>
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
@@ -3137,7 +3176,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="14"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="5"/>
+      <c r="K65" s="94"/>
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
@@ -3155,7 +3194,7 @@
       <c r="H66" s="16"/>
       <c r="I66" s="14"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="5"/>
+      <c r="K66" s="94"/>
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
@@ -3173,7 +3212,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="14"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
+      <c r="K67" s="94"/>
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
@@ -3191,7 +3230,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="14"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
+      <c r="K68" s="94"/>
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
@@ -3209,7 +3248,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="14"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
+      <c r="K69" s="94"/>
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
@@ -3227,7 +3266,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="14"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="5"/>
+      <c r="K70" s="94"/>
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
@@ -3245,7 +3284,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="14"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="5"/>
+      <c r="K71" s="94"/>
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
@@ -3263,7 +3302,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="14"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="5"/>
+      <c r="K72" s="94"/>
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
@@ -3281,7 +3320,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="14"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
+      <c r="K73" s="94"/>
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
@@ -3299,7 +3338,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="14"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
+      <c r="K74" s="94"/>
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
@@ -3317,7 +3356,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="14"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
+      <c r="K75" s="94"/>
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
@@ -3335,7 +3374,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="14"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
+      <c r="K76" s="94"/>
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
@@ -3353,7 +3392,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="14"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
+      <c r="K77" s="94"/>
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
@@ -3371,7 +3410,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="14"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
+      <c r="K78" s="94"/>
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
@@ -3389,7 +3428,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="14"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="5"/>
+      <c r="K79" s="94"/>
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
@@ -3407,7 +3446,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="14"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="5"/>
+      <c r="K80" s="94"/>
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
@@ -3425,7 +3464,7 @@
       <c r="H81" s="16"/>
       <c r="I81" s="14"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="5"/>
+      <c r="K81" s="94"/>
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
@@ -3443,7 +3482,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="14"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
+      <c r="K82" s="94"/>
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
@@ -3461,7 +3500,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="14"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="5"/>
+      <c r="K83" s="94"/>
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
@@ -3479,7 +3518,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="14"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="5"/>
+      <c r="K84" s="94"/>
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
@@ -3497,7 +3536,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="14"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="5"/>
+      <c r="K85" s="94"/>
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
@@ -3515,7 +3554,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="14"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
+      <c r="K86" s="94"/>
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
@@ -3533,7 +3572,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="14"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
+      <c r="K87" s="94"/>
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
@@ -3551,7 +3590,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="14"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
+      <c r="K88" s="94"/>
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
@@ -3569,7 +3608,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="14"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
+      <c r="K89" s="94"/>
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
@@ -3587,7 +3626,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="14"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="5"/>
+      <c r="K90" s="94"/>
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
@@ -3605,7 +3644,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="14"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
+      <c r="K91" s="94"/>
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
@@ -3623,7 +3662,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="14"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="5"/>
+      <c r="K92" s="94"/>
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
@@ -3641,7 +3680,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="14"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
+      <c r="K93" s="94"/>
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
@@ -3659,7 +3698,7 @@
       <c r="H94" s="16"/>
       <c r="I94" s="14"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
+      <c r="K94" s="94"/>
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
@@ -3677,7 +3716,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="14"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
+      <c r="K95" s="94"/>
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
@@ -3695,7 +3734,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="14"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
+      <c r="K96" s="94"/>
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
@@ -3713,7 +3752,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="14"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
+      <c r="K97" s="94"/>
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
@@ -3731,7 +3770,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="14"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
+      <c r="K98" s="94"/>
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
@@ -3749,7 +3788,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="14"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
+      <c r="K99" s="94"/>
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
@@ -3767,7 +3806,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="14"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
+      <c r="K100" s="94"/>
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
@@ -3785,7 +3824,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="14"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
+      <c r="K101" s="94"/>
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
@@ -3803,7 +3842,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="14"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
+      <c r="K102" s="94"/>
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
@@ -3821,7 +3860,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="14"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
+      <c r="K103" s="94"/>
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
@@ -3839,7 +3878,7 @@
       <c r="H104" s="16"/>
       <c r="I104" s="14"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
+      <c r="K104" s="94"/>
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
@@ -3857,7 +3896,7 @@
       <c r="H105" s="16"/>
       <c r="I105" s="14"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
+      <c r="K105" s="94"/>
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
@@ -3875,7 +3914,7 @@
       <c r="H106" s="16"/>
       <c r="I106" s="14"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
+      <c r="K106" s="94"/>
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
@@ -3893,7 +3932,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="14"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
+      <c r="K107" s="94"/>
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
@@ -3911,7 +3950,7 @@
       <c r="H108" s="16"/>
       <c r="I108" s="14"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="5"/>
+      <c r="K108" s="94"/>
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
@@ -3929,7 +3968,7 @@
       <c r="H109" s="16"/>
       <c r="I109" s="14"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="5"/>
+      <c r="K109" s="94"/>
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
@@ -3947,7 +3986,7 @@
       <c r="H110" s="16"/>
       <c r="I110" s="14"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="5"/>
+      <c r="K110" s="94"/>
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
@@ -3965,7 +4004,7 @@
       <c r="H111" s="16"/>
       <c r="I111" s="14"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
+      <c r="K111" s="94"/>
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
@@ -3983,7 +4022,7 @@
       <c r="H112" s="16"/>
       <c r="I112" s="14"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
+      <c r="K112" s="94"/>
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
@@ -4001,7 +4040,7 @@
       <c r="H113" s="16"/>
       <c r="I113" s="14"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
+      <c r="K113" s="94"/>
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
@@ -4019,7 +4058,7 @@
       <c r="H114" s="16"/>
       <c r="I114" s="14"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
+      <c r="K114" s="94"/>
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
@@ -4037,7 +4076,7 @@
       <c r="H115" s="16"/>
       <c r="I115" s="14"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="5"/>
+      <c r="K115" s="94"/>
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
@@ -4055,7 +4094,7 @@
       <c r="H116" s="16"/>
       <c r="I116" s="14"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="5"/>
+      <c r="K116" s="94"/>
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
@@ -4071,7 +4110,7 @@
       <c r="H117" s="16"/>
       <c r="I117" s="14"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
+      <c r="K117" s="94"/>
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
@@ -4087,7 +4126,7 @@
       <c r="H118" s="16"/>
       <c r="I118" s="14"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="5"/>
+      <c r="K118" s="94"/>
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
@@ -4103,7 +4142,7 @@
       <c r="H119" s="16"/>
       <c r="I119" s="14"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="5"/>
+      <c r="K119" s="94"/>
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
@@ -4119,7 +4158,7 @@
       <c r="H120" s="16"/>
       <c r="I120" s="14"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="5"/>
+      <c r="K120" s="94"/>
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
@@ -4135,7 +4174,7 @@
       <c r="H121" s="16"/>
       <c r="I121" s="14"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="5"/>
+      <c r="K121" s="94"/>
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
@@ -4151,7 +4190,7 @@
       <c r="H122" s="16"/>
       <c r="I122" s="14"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="5"/>
+      <c r="K122" s="94"/>
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
@@ -4167,7 +4206,7 @@
       <c r="H123" s="16"/>
       <c r="I123" s="14"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="5"/>
+      <c r="K123" s="94"/>
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
@@ -4183,7 +4222,7 @@
       <c r="H124" s="16"/>
       <c r="I124" s="14"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="5"/>
+      <c r="K124" s="94"/>
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
@@ -4199,7 +4238,7 @@
       <c r="H125" s="16"/>
       <c r="I125" s="14"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="5"/>
+      <c r="K125" s="94"/>
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
@@ -4215,7 +4254,7 @@
       <c r="H126" s="16"/>
       <c r="I126" s="14"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="5"/>
+      <c r="K126" s="94"/>
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
@@ -4231,7 +4270,7 @@
       <c r="H127" s="16"/>
       <c r="I127" s="14"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="5"/>
+      <c r="K127" s="94"/>
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
@@ -4247,7 +4286,7 @@
       <c r="H128" s="16"/>
       <c r="I128" s="14"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="5"/>
+      <c r="K128" s="94"/>
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
@@ -4263,7 +4302,7 @@
       <c r="H129" s="16"/>
       <c r="I129" s="14"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="5"/>
+      <c r="K129" s="94"/>
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
@@ -4279,7 +4318,7 @@
       <c r="H130" s="16"/>
       <c r="I130" s="14"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="5"/>
+      <c r="K130" s="94"/>
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
@@ -4295,7 +4334,7 @@
       <c r="H131" s="16"/>
       <c r="I131" s="14"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="5"/>
+      <c r="K131" s="94"/>
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
@@ -4311,7 +4350,7 @@
       <c r="H132" s="16"/>
       <c r="I132" s="14"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="5"/>
+      <c r="K132" s="94"/>
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
@@ -4327,7 +4366,7 @@
       <c r="H133" s="16"/>
       <c r="I133" s="14"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="5"/>
+      <c r="K133" s="94"/>
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
@@ -4343,7 +4382,7 @@
       <c r="H134" s="16"/>
       <c r="I134" s="14"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="5"/>
+      <c r="K134" s="94"/>
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
@@ -4359,7 +4398,7 @@
       <c r="H135" s="16"/>
       <c r="I135" s="14"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="5"/>
+      <c r="K135" s="94"/>
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
@@ -4375,7 +4414,7 @@
       <c r="H136" s="16"/>
       <c r="I136" s="14"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="5"/>
+      <c r="K136" s="94"/>
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
@@ -4391,7 +4430,7 @@
       <c r="H137" s="16"/>
       <c r="I137" s="14"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="5"/>
+      <c r="K137" s="94"/>
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
@@ -4407,7 +4446,7 @@
       <c r="H138" s="16"/>
       <c r="I138" s="14"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="5"/>
+      <c r="K138" s="94"/>
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
@@ -4423,7 +4462,7 @@
       <c r="H139" s="16"/>
       <c r="I139" s="14"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="5"/>
+      <c r="K139" s="94"/>
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
@@ -4439,7 +4478,7 @@
       <c r="H140" s="16"/>
       <c r="I140" s="14"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="5"/>
+      <c r="K140" s="94"/>
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
@@ -4455,7 +4494,7 @@
       <c r="H141" s="16"/>
       <c r="I141" s="14"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="5"/>
+      <c r="K141" s="94"/>
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
@@ -4471,7 +4510,7 @@
       <c r="H142" s="16"/>
       <c r="I142" s="14"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="5"/>
+      <c r="K142" s="94"/>
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
@@ -4487,7 +4526,7 @@
       <c r="H143" s="16"/>
       <c r="I143" s="14"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="5"/>
+      <c r="K143" s="94"/>
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
@@ -4503,7 +4542,7 @@
       <c r="H144" s="16"/>
       <c r="I144" s="14"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="5"/>
+      <c r="K144" s="94"/>
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
@@ -4519,7 +4558,7 @@
       <c r="H145" s="16"/>
       <c r="I145" s="14"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="5"/>
+      <c r="K145" s="94"/>
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
@@ -4535,7 +4574,7 @@
       <c r="H146" s="16"/>
       <c r="I146" s="14"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="5"/>
+      <c r="K146" s="94"/>
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
@@ -4551,7 +4590,7 @@
       <c r="H147" s="16"/>
       <c r="I147" s="14"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="5"/>
+      <c r="K147" s="94"/>
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
@@ -4567,7 +4606,7 @@
       <c r="H148" s="16"/>
       <c r="I148" s="14"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="5"/>
+      <c r="K148" s="94"/>
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
@@ -4583,7 +4622,7 @@
       <c r="H149" s="16"/>
       <c r="I149" s="14"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="5"/>
+      <c r="K149" s="94"/>
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
@@ -4599,7 +4638,7 @@
       <c r="H150" s="16"/>
       <c r="I150" s="14"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="5"/>
+      <c r="K150" s="94"/>
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
@@ -4615,7 +4654,7 @@
       <c r="H151" s="16"/>
       <c r="I151" s="14"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="5"/>
+      <c r="K151" s="94"/>
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
@@ -4631,7 +4670,7 @@
       <c r="H152" s="16"/>
       <c r="I152" s="14"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="5"/>
+      <c r="K152" s="94"/>
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
@@ -4647,7 +4686,7 @@
       <c r="H153" s="16"/>
       <c r="I153" s="14"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="5"/>
+      <c r="K153" s="94"/>
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
@@ -4663,7 +4702,7 @@
       <c r="H154" s="16"/>
       <c r="I154" s="14"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="5"/>
+      <c r="K154" s="94"/>
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
@@ -4679,7 +4718,7 @@
       <c r="H155" s="16"/>
       <c r="I155" s="14"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="5"/>
+      <c r="K155" s="94"/>
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
@@ -4695,7 +4734,7 @@
       <c r="H156" s="16"/>
       <c r="I156" s="14"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="5"/>
+      <c r="K156" s="94"/>
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
@@ -4711,7 +4750,7 @@
       <c r="H157" s="16"/>
       <c r="I157" s="14"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="5"/>
+      <c r="K157" s="94"/>
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
@@ -4727,7 +4766,7 @@
       <c r="H158" s="16"/>
       <c r="I158" s="14"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="5"/>
+      <c r="K158" s="94"/>
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
@@ -4743,7 +4782,7 @@
       <c r="H159" s="16"/>
       <c r="I159" s="14"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="5"/>
+      <c r="K159" s="94"/>
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
@@ -4759,16 +4798,22 @@
       <c r="H160" s="16"/>
       <c r="I160" s="14"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="5"/>
+      <c r="K160" s="94"/>
       <c r="L160" s="22"/>
       <c r="M160" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
+    <filterColumn colId="8">
+      <filters blank="1">
+        <dateGroupItem year="2015" month="6" dateTimeGrouping="month"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
         <filter val="开发中"/>
         <filter val="未开始"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5343,7 +5388,7 @@
         <v>149</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>150</v>
@@ -5371,7 +5416,7 @@
         <v>156</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>157</v>
@@ -5382,7 +5427,7 @@
         <v>17</v>
       </c>
       <c r="L24" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5399,10 +5444,10 @@
         <v>92</v>
       </c>
       <c r="G25" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="H25" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>163</v>
       </c>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="178">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -714,10 +714,6 @@
   </si>
   <si>
     <t>随更新到额template一同对应了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前支持新数据的排序，但旧数据的基础数据表由于数据量较大，需要开发单独工具进行对应，下一版本完成。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1012,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1267,6 +1263,7 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="58" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1816,8 +1813,8 @@
         <v>81</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="95">
-        <v>42166</v>
+      <c r="J10" s="102">
+        <v>42158</v>
       </c>
       <c r="K10" s="51">
         <v>0.4</v>
@@ -1826,11 +1823,9 @@
         <v>160</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="N10" s="100" t="s">
-        <v>178</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="N10" s="100"/>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$160</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="174">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -307,10 +307,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>轴承字段需要在计划页面中保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期填写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日期被反选以后，日期为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -407,10 +399,6 @@
     <t>开发中</t>
   </si>
   <si>
-    <t>目前只完成了备注部分，轴承部分未完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更多筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -483,10 +471,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>添加完出厂编号后，页面刷新可以正常显示结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -520,10 +504,6 @@
   </si>
   <si>
     <t>无效Bug</t>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在计划页面中点击更多筛选，造作后再次点击更多筛选，原来的筛选没有保留，上一版本是可以保留的。</t>
@@ -618,10 +598,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>共通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>之前已经重复的数据就不用管了，之后不能重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,70 +626,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>需要居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>随更新到额template一同对应了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面重新开发目前还存在问题，暂时制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>由于模板变更，变更后条形码的位置不居中了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要居中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面重新开发目前还存在问题，暂时制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
-  </si>
-  <si>
-    <t>随更新到额template一同对应了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1571,8 +1555,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,11 +1663,11 @@
         <v>57</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -1712,10 +1696,10 @@
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1725,7 +1709,7 @@
       <c r="C8" s="40">
         <v>2</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="39" t="s">
@@ -1749,11 +1733,11 @@
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -1773,7 +1757,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="95">
@@ -1784,10 +1768,10 @@
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1807,10 +1791,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1820,10 +1804,10 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N10" s="100"/>
     </row>
@@ -1854,7 +1838,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="89" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="N11" s="91"/>
     </row>
@@ -1887,7 +1871,7 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N12" s="90"/>
     </row>
@@ -1908,17 +1892,17 @@
         <v>41</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="50"/>
       <c r="L13" s="48"/>
       <c r="M13" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
@@ -1938,10 +1922,10 @@
         <v>44</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1950,11 +1934,9 @@
       <c r="K14" s="51">
         <v>0.3</v>
       </c>
-      <c r="L14" s="48" t="s">
-        <v>100</v>
-      </c>
+      <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -1987,10 +1969,10 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="40">
         <v>11</v>
       </c>
@@ -2007,7 +1989,7 @@
         <v>47</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2023,7 +2005,7 @@
       </c>
       <c r="N16" s="101"/>
     </row>
-    <row r="17" spans="2:14" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -2040,7 +2022,7 @@
         <v>49</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2073,7 +2055,7 @@
         <v>50</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -2085,7 +2067,7 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2117,7 +2099,7 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2149,7 +2131,7 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2172,7 +2154,7 @@
         <v>59</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2183,7 +2165,7 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -2213,7 +2195,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -2233,10 +2215,10 @@
         <v>67</v>
       </c>
       <c r="G23" s="46" t="s">
+        <v>172</v>
+      </c>
+      <c r="H23" s="42" t="s">
         <v>74</v>
-      </c>
-      <c r="H23" s="42" t="s">
-        <v>75</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2247,11 +2229,11 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N23" s="101"/>
     </row>
-    <row r="24" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2268,7 +2250,7 @@
         <v>69</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2301,10 +2283,10 @@
         <v>70</v>
       </c>
       <c r="G25" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>76</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>77</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2315,10 +2297,10 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2335,10 +2317,10 @@
         <v>71</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2367,10 +2349,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>84</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>85</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2382,11 +2364,11 @@
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N27" s="101"/>
     </row>
-    <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2400,10 +2382,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2432,10 +2414,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2447,13 +2429,13 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="N29" s="97" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2467,10 +2449,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2485,7 +2467,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2499,10 +2481,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2531,10 +2513,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2546,7 +2528,7 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2560,16 +2542,16 @@
         <v>40</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2580,7 +2562,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
@@ -2591,19 +2573,19 @@
         <v>2</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="E34" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2614,7 +2596,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -4806,19 +4788,14 @@
     </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
-        <filter val="开发中"/>
-        <filter val="未开始"/>
         <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D9:D159">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D159">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8">
-      <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M159">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
@@ -4835,10 +4812,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:L42"/>
+  <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4888,7 +4865,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -4911,7 +4888,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
@@ -4939,11 +4916,11 @@
         <v>43</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="L7" s="79"/>
     </row>
@@ -4961,10 +4938,10 @@
         <v>65</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
@@ -4989,7 +4966,7 @@
         <v>68</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -5012,13 +4989,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>86</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>87</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
@@ -5029,82 +5006,80 @@
       </c>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="2:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C11" s="18">
-        <v>6</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="14" t="s">
+    <row r="11" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="31">
+        <v>7</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="F11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="44">
-        <v>42158</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" s="71"/>
-    </row>
-    <row r="12" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="31">
-        <v>7</v>
-      </c>
-      <c r="D12" s="33" t="s">
+      <c r="G11" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="35"/>
+      <c r="I11" s="87">
+        <v>42148</v>
+      </c>
+      <c r="J11" s="36"/>
+      <c r="K11" s="32" t="s">
+        <v>124</v>
+      </c>
+      <c r="L11" s="88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="62">
+        <v>8</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="I12" s="66">
+        <v>42148</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="70"/>
+    </row>
+    <row r="13" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="62">
+        <v>9</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>20</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>92</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="87">
-        <v>42148</v>
-      </c>
-      <c r="J12" s="36"/>
-      <c r="K12" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="L12" s="88" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="62">
-        <v>8</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>25</v>
       </c>
       <c r="E13" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -5115,24 +5090,24 @@
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C14" s="62">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E14" s="63" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5143,24 +5118,24 @@
       </c>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="2:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C15" s="62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="63" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E15" s="63" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>101</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5171,9 +5146,9 @@
       </c>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C16" s="62">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" s="63" t="s">
         <v>20</v>
@@ -5182,13 +5157,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5197,26 +5172,28 @@
       <c r="K16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="70"/>
-    </row>
-    <row r="17" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="70" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="62">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5225,235 +5202,221 @@
       <c r="K17" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="70" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="62">
-        <v>13</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="63" t="s">
+      <c r="L17" s="70"/>
+    </row>
+    <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I18" s="44">
+        <v>42166</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="71"/>
+    </row>
+    <row r="19" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C19" s="18">
         <v>15</v>
-      </c>
-      <c r="F18" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="65" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I18" s="66">
-        <v>42148</v>
-      </c>
-      <c r="J18" s="67"/>
-      <c r="K18" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="L18" s="70"/>
-    </row>
-    <row r="19" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="18">
-        <v>14</v>
       </c>
       <c r="D19" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" s="44">
-        <v>42158</v>
+        <v>118</v>
+      </c>
+      <c r="I19" s="16" t="s">
+        <v>147</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="71"/>
-    </row>
-    <row r="20" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+      <c r="L19" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C20" s="18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>108</v>
+        <v>136</v>
       </c>
       <c r="G20" s="16" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="16" t="s">
-        <v>152</v>
+        <v>138</v>
+      </c>
+      <c r="I20" s="44">
+        <v>42166</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="71" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C21" s="18">
-        <v>16</v>
-      </c>
-      <c r="D21" s="39" t="s">
+      <c r="L20" s="71"/>
+    </row>
+    <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="81">
+        <v>17</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="83" t="s">
+        <v>139</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="84" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="86"/>
+    </row>
+    <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="C22" s="18">
+        <v>18</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="I22" s="44">
+        <v>42166</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="71"/>
+    </row>
+    <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="C23" s="18">
+        <v>19</v>
+      </c>
+      <c r="D23" s="39" t="s">
         <v>40</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="I21" s="44">
-        <v>42158</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L21" s="71"/>
-    </row>
-    <row r="22" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="81">
-        <v>17</v>
-      </c>
-      <c r="D22" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="G22" s="84" t="s">
-        <v>145</v>
-      </c>
-      <c r="H22" s="84" t="s">
-        <v>146</v>
-      </c>
-      <c r="I22" s="84"/>
-      <c r="J22" s="85"/>
-      <c r="K22" s="82" t="s">
-        <v>128</v>
-      </c>
-      <c r="L22" s="86"/>
-    </row>
-    <row r="23" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C23" s="18">
-        <v>18</v>
-      </c>
-      <c r="D23" s="39" t="s">
-        <v>20</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="44">
-        <v>42158</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="L23" s="71"/>
-    </row>
-    <row r="24" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="L23" s="71" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="I24" s="16"/>
+        <v>155</v>
+      </c>
+      <c r="I24" s="44">
+        <v>42158</v>
+      </c>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="L24" s="71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+      <c r="L24" s="71"/>
+    </row>
+    <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
-        <v>20</v>
-      </c>
-      <c r="D25" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>162</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D25" s="39"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
       <c r="I25" s="16"/>
       <c r="J25" s="5"/>
-      <c r="K25" s="14" t="s">
-        <v>17</v>
-      </c>
+      <c r="K25" s="14"/>
       <c r="L25" s="71"/>
     </row>
     <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="14"/>
@@ -5467,7 +5430,7 @@
     </row>
     <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="14"/>
@@ -5481,7 +5444,7 @@
     </row>
     <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D28" s="39"/>
       <c r="E28" s="14"/>
@@ -5495,7 +5458,7 @@
     </row>
     <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="14"/>
@@ -5509,7 +5472,7 @@
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="14"/>
@@ -5523,7 +5486,7 @@
     </row>
     <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="14"/>
@@ -5537,7 +5500,7 @@
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="14"/>
@@ -5551,7 +5514,7 @@
     </row>
     <row r="33" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D33" s="39"/>
       <c r="E33" s="14"/>
@@ -5565,7 +5528,7 @@
     </row>
     <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="14"/>
@@ -5579,7 +5542,7 @@
     </row>
     <row r="35" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="14"/>
@@ -5593,7 +5556,7 @@
     </row>
     <row r="36" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D36" s="39"/>
       <c r="E36" s="14"/>
@@ -5607,7 +5570,7 @@
     </row>
     <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="39"/>
       <c r="E37" s="14"/>
@@ -5621,7 +5584,7 @@
     </row>
     <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D38" s="39"/>
       <c r="E38" s="14"/>
@@ -5635,7 +5598,7 @@
     </row>
     <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D39" s="39"/>
       <c r="E39" s="14"/>
@@ -5649,7 +5612,7 @@
     </row>
     <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="14"/>
@@ -5663,7 +5626,7 @@
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="14"/>
@@ -5675,22 +5638,8 @@
       <c r="K41" s="14"/>
       <c r="L41" s="71"/>
     </row>
-    <row r="42" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C42" s="18">
-        <v>37</v>
-      </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="71"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:L42">
+  <autoFilter ref="B5:L41">
     <filterColumn colId="9">
       <filters blank="1">
         <filter val="不再现"/>
@@ -5700,17 +5649,17 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D11">
+      <formula1>"销售模块,计划模块,生产模块"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10 D12:D41">
+      <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K41">
       <formula1>"未修复,修复中,验证中,已修复,不再现,不修复,无效Bug"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E42">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E41">
       <formula1>"高,中,低"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D12">
-      <formula1>"销售模块,计划模块,生产模块"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D11 D13:D42">
-      <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -153,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>智能排序规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>类似于百度的搜索</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,10 +327,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序能够正常进入审核页面进行审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -698,6 +690,30 @@
   </si>
   <si>
     <t>由于模板变更，变更后条形码的位置不居中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型机排序错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号排序后需要按照客户名称GroupBy一下，保证同样型号的客户显示在一起。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -992,7 +1008,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1248,6 +1264,22 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="58" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1556,7 +1588,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1565,7 +1597,7 @@
     <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
-    <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
     <col min="7" max="7" width="45.875" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="21" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
@@ -1621,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="93" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -1660,10 +1692,10 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N6"/>
     </row>
@@ -1684,7 +1716,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1696,10 +1728,10 @@
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1722,7 +1754,7 @@
         <v>29</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="49">
@@ -1733,7 +1765,7 @@
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="N8" s="99"/>
     </row>
@@ -1751,13 +1783,13 @@
         <v>21</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="95">
@@ -1768,10 +1800,10 @@
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="43" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
@@ -1788,13 +1820,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1804,10 +1836,10 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="N10" s="100"/>
     </row>
@@ -1828,17 +1860,17 @@
         <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="89" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N11" s="91"/>
     </row>
@@ -1856,10 +1888,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="53"/>
@@ -1871,7 +1903,7 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="N12" s="90"/>
     </row>
@@ -1883,26 +1915,26 @@
         <v>2</v>
       </c>
       <c r="D13" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E13" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="50"/>
       <c r="L13" s="48"/>
       <c r="M13" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
@@ -1919,13 +1951,13 @@
         <v>15</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1936,7 +1968,7 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -1954,10 +1986,10 @@
         <v>21</v>
       </c>
       <c r="F15" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="55" t="s">
         <v>45</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>46</v>
       </c>
       <c r="H15" s="56"/>
       <c r="I15" s="53"/>
@@ -1969,7 +2001,7 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -1980,16 +2012,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2013,16 +2045,16 @@
         <v>2</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2046,16 +2078,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="53" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -2067,7 +2099,7 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2084,10 +2116,10 @@
         <v>15</v>
       </c>
       <c r="F19" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="53"/>
@@ -2099,7 +2131,7 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2110,16 +2142,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="55" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>55</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="53"/>
@@ -2131,7 +2163,7 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2148,13 +2180,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="G21" s="55" t="s">
-        <v>59</v>
-      </c>
       <c r="H21" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2165,7 +2197,7 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -2176,26 +2208,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="F22" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="H22" s="42" t="s">
         <v>63</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>64</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
@@ -2212,13 +2244,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2229,7 +2261,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N23" s="101"/>
     </row>
@@ -2241,16 +2273,16 @@
         <v>2</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2274,19 +2306,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E25" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G25" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>75</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>76</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2297,7 +2329,7 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2308,19 +2340,19 @@
         <v>2</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2343,16 +2375,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2364,7 +2396,7 @@
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
       <c r="N27" s="101"/>
     </row>
@@ -2382,10 +2414,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2414,10 +2446,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2429,10 +2461,10 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N29" s="97" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2443,16 +2475,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E30" s="14" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2481,10 +2513,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2513,10 +2545,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2528,7 +2560,7 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>168</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2539,19 +2571,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2562,7 +2594,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
@@ -2579,13 +2611,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2596,7 +2628,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -2615,7 +2647,9 @@
       <c r="J35" s="5"/>
       <c r="K35" s="94"/>
       <c r="L35" s="22"/>
-      <c r="M35" s="17"/>
+      <c r="M35" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="36" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
@@ -4787,7 +4821,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="验证中"/>
       </filters>
     </filterColumn>
@@ -4815,7 +4849,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4865,7 +4899,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -4888,11 +4922,11 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L6" s="70"/>
     </row>
@@ -4907,20 +4941,20 @@
         <v>21</v>
       </c>
       <c r="F7" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="76" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>43</v>
-      </c>
       <c r="I7" s="77" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L7" s="79"/>
     </row>
@@ -4935,20 +4969,20 @@
         <v>21</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
       </c>
       <c r="J8" s="67"/>
       <c r="K8" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="70"/>
     </row>
@@ -4963,10 +4997,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -4974,7 +5008,7 @@
       </c>
       <c r="J9" s="67"/>
       <c r="K9" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L9" s="70"/>
     </row>
@@ -4989,20 +5023,20 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="65" t="s">
         <v>85</v>
       </c>
-      <c r="G10" s="65" t="s">
-        <v>87</v>
-      </c>
       <c r="H10" s="65" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
       </c>
       <c r="J10" s="67"/>
       <c r="K10" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L10" s="70"/>
     </row>
@@ -5017,10 +5051,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="87">
@@ -5028,10 +5062,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5045,20 +5079,20 @@
         <v>15</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I12" s="66">
         <v>42148</v>
       </c>
       <c r="J12" s="67"/>
       <c r="K12" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="70"/>
     </row>
@@ -5073,20 +5107,20 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
       </c>
       <c r="J13" s="67"/>
       <c r="K13" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="70"/>
     </row>
@@ -5095,26 +5129,26 @@
         <v>10</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>21</v>
       </c>
       <c r="F14" s="64" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" s="65" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
       </c>
       <c r="J14" s="67"/>
       <c r="K14" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="70"/>
     </row>
@@ -5129,20 +5163,20 @@
         <v>15</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
       </c>
       <c r="J15" s="67"/>
       <c r="K15" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L15" s="70"/>
     </row>
@@ -5157,23 +5191,23 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H16" s="65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
       </c>
       <c r="J16" s="67"/>
       <c r="K16" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5181,26 +5215,26 @@
         <v>13</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
       </c>
       <c r="J17" s="67"/>
       <c r="K17" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L17" s="70"/>
     </row>
@@ -5215,20 +5249,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I18" s="44">
         <v>42166</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L18" s="71"/>
     </row>
@@ -5243,23 +5277,23 @@
         <v>15</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G19" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="71" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -5267,19 +5301,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>138</v>
       </c>
       <c r="I20" s="44">
         <v>42166</v>
@@ -5301,18 +5335,18 @@
         <v>15</v>
       </c>
       <c r="F21" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="84" t="s">
         <v>139</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>140</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>141</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="85"/>
       <c r="K21" s="82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L21" s="86"/>
     </row>
@@ -5327,13 +5361,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G22" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I22" s="44">
         <v>42166</v>
@@ -5349,19 +5383,19 @@
         <v>19</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
@@ -5369,7 +5403,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="71" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5383,50 +5417,72 @@
         <v>15</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L24" s="71"/>
     </row>
-    <row r="25" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>21</v>
       </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="71"/>
-    </row>
-    <row r="26" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D25" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="106" t="s">
+        <v>176</v>
+      </c>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" s="108"/>
+    </row>
+    <row r="26" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>22</v>
       </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="71"/>
+      <c r="D26" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="G26" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" s="108"/>
     </row>
     <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C27" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="184">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -215,10 +215,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目前审核筛选都是以订单日期为条件，现在需要分角色更改筛选条件。销售审核保持订单日期为条件，计划审核需要改为生产日期为条件，包装审核需要改为包装日期为条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -714,6 +710,34 @@
   </si>
   <si>
     <t>型号排序后需要按照客户名称GroupBy一下，保证同样型号的客户显示在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号H02338在导出结果中没有，单独导出这条会提示文件损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息都可以导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出的时候在打印时变为了5页，其它机型没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出时只有一页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1588,7 +1612,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1653,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="K5" s="93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
@@ -1668,7 +1692,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -1692,14 +1716,14 @@
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -1716,7 +1740,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>51</v>
+        <v>177</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1728,13 +1752,13 @@
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -1765,11 +1789,11 @@
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N8" s="99"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -1786,10 +1810,10 @@
         <v>43</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="95">
@@ -1800,13 +1824,13 @@
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -1820,13 +1844,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1836,14 +1860,14 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N10" s="100"/>
     </row>
-    <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="57" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
         <v>6</v>
       </c>
@@ -1860,7 +1884,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>36</v>
@@ -1870,7 +1894,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="89" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N11" s="91"/>
     </row>
@@ -1891,7 +1915,7 @@
         <v>38</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H12" s="56"/>
       <c r="I12" s="53"/>
@@ -1903,7 +1927,7 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N12" s="90"/>
     </row>
@@ -1924,20 +1948,20 @@
         <v>40</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="50"/>
       <c r="L13" s="48"/>
       <c r="M13" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -1954,10 +1978,10 @@
         <v>43</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -1968,7 +1992,7 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -2001,7 +2025,7 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -2021,7 +2045,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2054,7 +2078,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2087,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -2099,7 +2123,7 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2119,7 +2143,7 @@
         <v>50</v>
       </c>
       <c r="G19" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H19" s="56"/>
       <c r="I19" s="53"/>
@@ -2131,7 +2155,7 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2148,10 +2172,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="55" t="s">
         <v>53</v>
-      </c>
-      <c r="G20" s="55" t="s">
-        <v>54</v>
       </c>
       <c r="H20" s="56"/>
       <c r="I20" s="53"/>
@@ -2163,7 +2187,7 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2180,13 +2204,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="55" t="s">
-        <v>58</v>
-      </c>
       <c r="H21" s="56" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2197,10 +2221,10 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="40">
         <v>17</v>
       </c>
@@ -2208,29 +2232,29 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>60</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>61</v>
       </c>
       <c r="F22" s="41" t="s">
         <v>43</v>
       </c>
       <c r="G22" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="42" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>63</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2244,13 +2268,13 @@
         <v>21</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2261,7 +2285,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="N23" s="101"/>
     </row>
@@ -2279,10 +2303,10 @@
         <v>33</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2312,13 +2336,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>74</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>75</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2329,7 +2353,7 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2346,13 +2370,13 @@
         <v>33</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G26" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2367,7 +2391,7 @@
       </c>
       <c r="N26" s="101"/>
     </row>
-    <row r="27" spans="2:14" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2381,10 +2405,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>81</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>82</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2396,11 +2420,11 @@
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N27" s="101"/>
     </row>
-    <row r="28" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2414,10 +2438,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2432,7 +2456,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -2446,10 +2470,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2461,13 +2485,13 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N29" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="N29" s="97" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2481,10 +2505,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>132</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>133</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2499,7 +2523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2513,10 +2537,10 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H31" s="16"/>
       <c r="I31" s="14"/>
@@ -2531,7 +2555,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -2545,10 +2569,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2560,10 +2584,10 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2574,16 +2598,16 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2594,10 +2618,10 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2611,13 +2635,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2628,7 +2652,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -4815,14 +4839,22 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="高"/>
+        <filter val="中"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters blank="1">
-        <dateGroupItem year="2015" month="6" dateTimeGrouping="month"/>
+        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters>
-        <filter val="验证中"/>
+      <filters blank="1">
+        <filter val="挂起"/>
+        <filter val="开发中"/>
+        <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4849,7 +4881,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="K28" sqref="D28:K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4899,7 +4931,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -4922,7 +4954,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
@@ -4950,11 +4982,11 @@
         <v>42</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L7" s="79"/>
     </row>
@@ -4969,13 +5001,13 @@
         <v>21</v>
       </c>
       <c r="F8" s="64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
@@ -4997,10 +5029,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="64" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -5023,13 +5055,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>83</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>85</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>84</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
@@ -5051,10 +5083,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="87">
@@ -5062,10 +5094,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5079,13 +5111,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I12" s="66">
         <v>42148</v>
@@ -5107,13 +5139,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -5135,13 +5167,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="64" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>96</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>97</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5163,13 +5195,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5191,13 +5223,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G16" s="65" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>118</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>119</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5207,7 +5239,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5221,13 +5253,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5249,20 +5281,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G18" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I18" s="44">
         <v>42166</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="L18" s="71"/>
     </row>
@@ -5277,23 +5309,23 @@
         <v>15</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G19" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="H19" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>116</v>
-      </c>
       <c r="I19" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L19" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -5307,13 +5339,13 @@
         <v>15</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="I20" s="44">
         <v>42166</v>
@@ -5335,18 +5367,18 @@
         <v>15</v>
       </c>
       <c r="F21" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="G21" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="H21" s="84" t="s">
         <v>138</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>139</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="85"/>
       <c r="K21" s="82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L21" s="86"/>
     </row>
@@ -5361,13 +5393,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="I22" s="44">
         <v>42166</v>
@@ -5389,13 +5421,13 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>148</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>149</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
@@ -5403,7 +5435,7 @@
         <v>17</v>
       </c>
       <c r="L23" s="71" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5417,20 +5449,20 @@
         <v>15</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L24" s="71"/>
     </row>
@@ -5445,13 +5477,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="105" t="s">
+        <v>173</v>
+      </c>
+      <c r="G25" s="106" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="106" t="s">
+      <c r="H25" s="106" t="s">
         <v>175</v>
-      </c>
-      <c r="H25" s="106" t="s">
-        <v>176</v>
       </c>
       <c r="I25" s="106"/>
       <c r="J25" s="107"/>
@@ -5471,10 +5503,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G26" s="106" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H26" s="106"/>
       <c r="I26" s="106"/>
@@ -5484,32 +5516,56 @@
       </c>
       <c r="L26" s="108"/>
     </row>
-    <row r="27" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="14"/>
+      <c r="D27" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" s="106" t="s">
+        <v>179</v>
+      </c>
+      <c r="H27" s="106" t="s">
+        <v>180</v>
+      </c>
+      <c r="I27" s="106"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="104" t="s">
+        <v>17</v>
+      </c>
       <c r="L27" s="71"/>
     </row>
-    <row r="28" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="39"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="14"/>
+      <c r="D28" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>178</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>182</v>
+      </c>
+      <c r="H28" s="106" t="s">
+        <v>183</v>
+      </c>
+      <c r="I28" s="106"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="104" t="s">
+        <v>17</v>
+      </c>
       <c r="L28" s="71"/>
     </row>
     <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -738,6 +738,14 @@
   </si>
   <si>
     <t>S型机导出时只有一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能输入提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1040,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1303,6 +1311,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1611,8 +1631,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2655,23 +2675,31 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B35" s="18">
+    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B35" s="109">
         <v>31</v>
       </c>
-      <c r="C35" s="18">
-        <v>2</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="94"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="17" t="s">
+      <c r="C35" s="109">
+        <v>2</v>
+      </c>
+      <c r="D35" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="G35" s="110" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="106"/>
+      <c r="I35" s="104"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="112" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4880,8 +4908,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K28" sqref="D28:K28"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="188">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -747,6 +747,13 @@
   <si>
     <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过确认，即支持空字符串存储的逻辑即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修复</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1047,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1323,6 +1330,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1631,8 +1641,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1712,7 +1722,7 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:19" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6" s="23">
         <v>1</v>
       </c>
@@ -1777,6 +1787,9 @@
       <c r="N7" s="99" t="s">
         <v>167</v>
       </c>
+      <c r="O7" s="45">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
@@ -1849,8 +1862,11 @@
       <c r="N9" s="100" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="8.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O9" s="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -1887,7 +1903,7 @@
       </c>
       <c r="N10" s="100"/>
     </row>
-    <row r="11" spans="1:19" ht="57" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
         <v>6</v>
       </c>
@@ -1981,7 +1997,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2081,7 +2097,7 @@
       </c>
       <c r="N16" s="101"/>
     </row>
-    <row r="17" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -2114,7 +2130,7 @@
       </c>
       <c r="N17" s="101"/>
     </row>
-    <row r="18" spans="2:14" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="52">
         <v>13</v>
       </c>
@@ -2146,7 +2162,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="52">
         <v>14</v>
       </c>
@@ -2178,7 +2194,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="52">
         <v>15</v>
       </c>
@@ -2210,7 +2226,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="52">
         <v>16</v>
       </c>
@@ -2244,7 +2260,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="45" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:15" s="45" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="40">
         <v>17</v>
       </c>
@@ -2274,7 +2290,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2309,7 +2325,7 @@
       </c>
       <c r="N23" s="101"/>
     </row>
-    <row r="24" spans="2:14" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2342,7 +2358,7 @@
       </c>
       <c r="N24" s="101"/>
     </row>
-    <row r="25" spans="2:14" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="52">
         <v>20</v>
       </c>
@@ -2376,7 +2392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2411,7 +2427,7 @@
       </c>
       <c r="N26" s="101"/>
     </row>
-    <row r="27" spans="2:14" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2444,7 +2460,7 @@
       </c>
       <c r="N27" s="101"/>
     </row>
-    <row r="28" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2475,8 +2491,11 @@
       <c r="M28" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="29" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="O28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -2511,7 +2530,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2542,8 +2561,11 @@
       <c r="M30" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="31" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="O30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2562,7 +2584,9 @@
       <c r="G31" s="19" t="s">
         <v>163</v>
       </c>
-      <c r="H31" s="16"/>
+      <c r="H31" s="16" t="s">
+        <v>186</v>
+      </c>
       <c r="I31" s="14"/>
       <c r="J31" s="72">
         <v>42166</v>
@@ -2574,8 +2598,11 @@
       <c r="M31" s="17" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="32" spans="2:14" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="O31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -2607,7 +2634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2641,7 +2668,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2675,7 +2702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="109">
         <v>31</v>
       </c>
@@ -4873,16 +4900,11 @@
         <filter val="中"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1">
-        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
-        <filter val="挂起"/>
         <filter val="开发中"/>
         <filter val="未开始"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4908,9 +4930,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5299,90 +5319,90 @@
       <c r="L17" s="70"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="18">
+      <c r="C18" s="109">
         <v>14</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="105" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="H18" s="16" t="s">
+      <c r="H18" s="106" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="113">
         <v>42166</v>
       </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="14" t="s">
+      <c r="J18" s="107"/>
+      <c r="K18" s="104" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="71"/>
+      <c r="L18" s="108"/>
     </row>
     <row r="19" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C19" s="18">
+      <c r="C19" s="109">
         <v>15</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="106" t="s">
         <v>114</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="I19" s="106" t="s">
         <v>144</v>
       </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="14" t="s">
+      <c r="J19" s="107"/>
+      <c r="K19" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="71" t="s">
+      <c r="L19" s="108" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C20" s="18">
+      <c r="C20" s="109">
         <v>16</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="106" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="106" t="s">
         <v>135</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="113">
         <v>42166</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="14" t="s">
+      <c r="J20" s="107"/>
+      <c r="K20" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L20" s="71"/>
+      <c r="L20" s="108"/>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C21" s="81">
@@ -5411,32 +5431,32 @@
       <c r="L21" s="86"/>
     </row>
     <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C22" s="18">
+      <c r="C22" s="109">
         <v>18</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="103" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="105" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="106" t="s">
         <v>157</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="106" t="s">
         <v>142</v>
       </c>
-      <c r="I22" s="44">
+      <c r="I22" s="113">
         <v>42166</v>
       </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="14" t="s">
+      <c r="J22" s="107"/>
+      <c r="K22" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L22" s="71"/>
+      <c r="L22" s="108"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5460,7 +5480,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>17</v>
+        <v>187</v>
       </c>
       <c r="L23" s="71" t="s">
         <v>156</v>
@@ -5513,7 +5533,9 @@
       <c r="H25" s="106" t="s">
         <v>175</v>
       </c>
-      <c r="I25" s="106"/>
+      <c r="I25" s="113">
+        <v>42166</v>
+      </c>
       <c r="J25" s="107"/>
       <c r="K25" s="104" t="s">
         <v>17</v>
@@ -5537,7 +5559,9 @@
         <v>176</v>
       </c>
       <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="I26" s="113">
+        <v>42166</v>
+      </c>
       <c r="J26" s="107"/>
       <c r="K26" s="104" t="s">
         <v>17</v>
@@ -5563,7 +5587,9 @@
       <c r="H27" s="106" t="s">
         <v>180</v>
       </c>
-      <c r="I27" s="106"/>
+      <c r="I27" s="113">
+        <v>42166</v>
+      </c>
       <c r="J27" s="107"/>
       <c r="K27" s="104" t="s">
         <v>17</v>
@@ -5589,7 +5615,9 @@
       <c r="H28" s="106" t="s">
         <v>183</v>
       </c>
-      <c r="I28" s="106"/>
+      <c r="I28" s="113">
+        <v>42166</v>
+      </c>
       <c r="J28" s="107"/>
       <c r="K28" s="104" t="s">
         <v>17</v>
@@ -5782,8 +5810,10 @@
   <autoFilter ref="B5:L41">
     <filterColumn colId="9">
       <filters blank="1">
+        <filter val="不修复"/>
         <filter val="不再现"/>
         <filter val="未修复"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="192">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -514,10 +514,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已经是最清晰的了，本版本再试试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模板动态配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -574,11 +570,185 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选需要在点击后1秒内启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>随更新到额template一同对应了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面重新开发目前还存在问题，暂时制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于模板变更，变更后条形码的位置不居中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型机排序错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号排序后需要按照客户名称GroupBy一下，保证同样型号的客户显示在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息都可以导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出的时候在打印时变为了5页，其它机型没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出时只有一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能输入提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过确认，即支持空字符串存储的逻辑即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修复</t>
+  </si>
+  <si>
+    <t>投产编号H02338在导出结果中没有，单独导出这条会提示文件损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>结果需要显示当前页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>高</t>
+    <t>不符合既有流程，确认后不进行修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -586,174 +756,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>之前已经重复的数据就不用管了，之后不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号必须唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选需要在点击后1秒内启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后，不需要考虑兼容性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要居中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
-  </si>
-  <si>
-    <t>随更新到额template一同对应了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面重新开发目前还存在问题，暂时制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于模板变更，变更后条形码的位置不居中了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能排序规格型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>U型机排序错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号排序后需要按照客户名称GroupBy一下，保证同样型号的客户显示在一起。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号H02338在导出结果中没有，单独导出这条会提示文件损坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信息都可以导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S型机导出的时候在打印时变为了5页，其它机型没问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S型机导出时只有一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能输入提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过确认，即支持空字符串存储的逻辑即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不修复</t>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要提供详细排序需求，double check</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中没有T型机，只有TA，是否使用TA的模板需要确认。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -877,7 +893,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -923,6 +939,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1332,6 +1354,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="11" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1641,9 +1682,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1770,7 +1809,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1785,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1860,7 +1899,7 @@
         <v>94</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="O9" s="45">
         <v>2</v>
@@ -1880,13 +1919,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1896,7 +1935,7 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>92</v>
@@ -2028,7 +2067,7 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -2081,7 +2120,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2114,7 +2153,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2307,7 +2346,7 @@
         <v>65</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>72</v>
@@ -2321,7 +2360,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N23" s="101"/>
     </row>
@@ -2342,7 +2381,7 @@
         <v>67</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2409,10 +2448,10 @@
         <v>69</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2474,10 +2513,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2509,10 +2548,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2524,10 +2563,10 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N29" s="97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2544,10 +2583,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>131</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2579,13 +2618,13 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="72">
@@ -2616,10 +2655,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2645,10 +2684,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>108</v>
@@ -2665,7 +2704,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
@@ -2682,13 +2721,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2699,7 +2738,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2716,10 +2755,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G35" s="110" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="H35" s="106"/>
       <c r="I35" s="104"/>
@@ -4930,7 +4969,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5319,34 +5360,34 @@
       <c r="L17" s="70"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="109">
+      <c r="C18" s="114">
         <v>14</v>
       </c>
-      <c r="D18" s="103" t="s">
+      <c r="D18" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="105" t="s">
+      <c r="F18" s="116" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="106" t="s">
-        <v>168</v>
-      </c>
-      <c r="H18" s="106" t="s">
+      <c r="G18" s="117" t="s">
+        <v>164</v>
+      </c>
+      <c r="H18" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="113">
-        <v>42166</v>
-      </c>
-      <c r="J18" s="107"/>
-      <c r="K18" s="104" t="s">
+      <c r="I18" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="J18" s="119"/>
+      <c r="K18" s="115" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="108"/>
-    </row>
-    <row r="19" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="L18" s="120"/>
+    </row>
+    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="109">
         <v>15</v>
       </c>
@@ -5365,44 +5406,44 @@
       <c r="H19" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="106" t="s">
-        <v>144</v>
+      <c r="I19" s="113">
+        <v>42166</v>
       </c>
       <c r="J19" s="107"/>
       <c r="K19" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L19" s="108" t="s">
-        <v>127</v>
-      </c>
+      <c r="L19" s="108"/>
     </row>
     <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C20" s="109">
+      <c r="C20" s="114">
         <v>16</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="116" t="s">
+        <v>132</v>
+      </c>
+      <c r="G20" s="117" t="s">
         <v>133</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="H20" s="117" t="s">
         <v>134</v>
       </c>
-      <c r="H20" s="106" t="s">
-        <v>135</v>
-      </c>
-      <c r="I20" s="113">
-        <v>42166</v>
-      </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="108"/>
+      <c r="I20" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="J20" s="119"/>
+      <c r="K20" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20" s="120" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C21" s="81">
@@ -5415,13 +5456,13 @@
         <v>15</v>
       </c>
       <c r="F21" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="G21" s="84" t="s">
         <v>136</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="H21" s="84" t="s">
         <v>137</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>138</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="85"/>
@@ -5431,32 +5472,32 @@
       <c r="L21" s="86"/>
     </row>
     <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C22" s="109">
+      <c r="C22" s="114">
         <v>18</v>
       </c>
-      <c r="D22" s="103" t="s">
+      <c r="D22" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="104" t="s">
+      <c r="E22" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="F22" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="H22" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="I22" s="113">
-        <v>42166</v>
-      </c>
-      <c r="J22" s="107"/>
-      <c r="K22" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="108"/>
+      <c r="F22" s="116" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="H22" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="I22" s="118" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="119"/>
+      <c r="K22" s="115" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="120"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5469,21 +5510,21 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="L23" s="71" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5500,17 +5541,17 @@
         <v>87</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
-        <v>165</v>
+        <v>37</v>
       </c>
       <c r="L24" s="71"/>
     </row>
@@ -5525,13 +5566,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G25" s="106" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H25" s="106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I25" s="113">
         <v>42166</v>
@@ -5540,7 +5581,9 @@
       <c r="K25" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="108"/>
+      <c r="L25" s="108" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="26" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
@@ -5553,10 +5596,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G26" s="106" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H26" s="106"/>
       <c r="I26" s="113">
@@ -5566,9 +5609,11 @@
       <c r="K26" s="104" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="108"/>
-    </row>
-    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="L26" s="108" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
@@ -5579,22 +5624,24 @@
         <v>15</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G27" s="106" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H27" s="106" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="I27" s="113">
         <v>42166</v>
       </c>
       <c r="J27" s="107"/>
       <c r="K27" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="71"/>
+        <v>182</v>
+      </c>
+      <c r="L27" s="108" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
@@ -5607,13 +5654,13 @@
         <v>15</v>
       </c>
       <c r="F28" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="H28" s="106" t="s">
         <v>178</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>182</v>
-      </c>
-      <c r="H28" s="106" t="s">
-        <v>183</v>
       </c>
       <c r="I28" s="113">
         <v>42166</v>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="198">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -467,10 +467,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一维码清晰可见，能被扫码器识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更多筛选中的单选框中没有空白选项，这样无法选择空白，导致无法筛选全部。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -538,146 +534,233 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>目前可以直接在销售订单反审核，不管计划页面是否已经有审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代办事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经重复的数据就不用管了，之后不能重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号必须唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选需要在点击后1秒内启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认后，不需要考虑兼容性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要居中显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>随更新到额template一同对应了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面重新开发目前还存在问题，暂时制限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于模板变更，变更后条形码的位置不居中了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序规格型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有信息都可以导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出的时候在打印时变为了5页，其它机型没问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S型机导出时只有一页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能输入提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经过确认，即支持空字符串存储的逻辑即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不修复</t>
+  </si>
+  <si>
+    <t>投产编号H02338在导出结果中没有，单独导出这条会提示文件损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果需要显示当前页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不符合既有流程，确认后不进行修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>如果计划排产中已经有一个或多个审核后，销售页面不能反审核这个订单，必须等待计划页面该订单都反审后，才能在销售页面进行反审核。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前可以直接在销售订单反审核，不管计划页面是否已经有审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号必须唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前已经重复的数据就不用管了，之后不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代办事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>之前已经重复的数据就不用管了，之后不能重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号必须唯一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选需要在点击后1秒内启动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确认后，不需要考虑兼容性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要居中显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这个应该只有第一次慢，慢的原因是需要从服务器上获取下拉列表的内容，像客户信息等内容特别多，网速不快的话优化空间不大。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格下方，输入页数，需要支持指定页面的跳转</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持Tab进行输入切换，回车进行查询，添加等</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主要用于添加销售订单中，的切换，顺序与Excel相同，横排移动然后换行。回车需要定位在查询上。当有对话框弹出后，回车焦点在取消上，没有取消就再确认上。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑未来会有更多的模板加入，而且模板的内容也可能随时变化，现在需要对于模板能够进行动态配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次审核后，页面会跳转到待办事项的起始页即选择待办事项的类别页。现在希望审核后，保持当前的待办事项页，允许用户继续审核其他订单。并添加一个返回按钮，由用户操作返回到待办事项的类别页面。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
-  </si>
-  <si>
-    <t>随更新到额template一同对应了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面重新开发目前还存在问题，暂时制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当添加完出产个编号后，点击确定，表格里面没有数据显示，但实际上数据已经加进去了，点击查询刷新一下页面数据就显示出来了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将轴承，单复绕，优先级字段在显示中去掉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于模板变更，变更后条形码的位置不居中了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拆分数据库将型号，吨位和提速分别存储，由后台完成排序以保证性能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能排序规格型号</t>
+    <t>T行机需要导入到TA的模板中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一维码清晰可见，能被扫码器识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U型机排序错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>型号排序后需要保证同样型号的客户显示在一起。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -685,90 +768,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>U型机排序错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号排序后需要按照客户名称GroupBy一下，保证同样型号的客户显示在一起。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有信息都可以导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S型机导出的时候在打印时变为了5页，其它机型没问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S型机导出时只有一页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能输入提示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对于下拉框输入的提示，现在是区分大小写的，希望不区分大小写。要么对于规格型号的查询比较费劲。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经过确认，即支持空字符串存储的逻辑即可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不修复</t>
-  </si>
-  <si>
-    <t>投产编号H02338在导出结果中没有，单独导出这条会提示文件损坏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当对于页面中的第一条数据进行计划时，计划完成点击确认后，结果有时候显示的不是第一页的数据，而是其它页的数据。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果需要显示当前页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不符合既有流程，确认后不进行修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要提供详细排序需求，double check</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中没有T型机，只有TA，是否使用TA的模板需要确认。</t>
+    <t xml:space="preserve">根据6月11日抚顺的排产记录显示，排序仍然有问题。TA1.0C之后应该是TA1.75C，现在中间隔了TA1.0D和TA1.5D
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TA1.0C之后应该是TA1.75C，然后才是TA1.0D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照需求32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照需求32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照需求32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序（重新整理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 销售页面：默认先按照订单日期，然后按照客户名称。
+2. 计划页面：默认先按照型号排序，排序规则为机型，吨位，梯速。然后再按照客户名称排序，保证同样型号的相同的客户显示在一起。
+3. 代办事项：业务的两个审核页面排序规则与销售页面一样。计划的四个审核页面排序与计划页面排序规则一样
+4. 所有页面只要用户点击表头后，只按照当列的内容进行排序，不需要管其它列</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1682,7 +1710,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1809,7 +1839,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1824,7 +1854,7 @@
         <v>94</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1899,7 +1929,7 @@
         <v>94</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O9" s="45">
         <v>2</v>
@@ -1919,13 +1949,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>76</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1935,7 +1965,7 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>92</v>
@@ -2036,7 +2066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2067,7 +2097,7 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -2120,7 +2150,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2153,7 +2183,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2329,7 +2359,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2346,7 +2376,7 @@
         <v>65</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>72</v>
@@ -2360,7 +2390,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
       <c r="N23" s="101"/>
     </row>
@@ -2381,7 +2411,7 @@
         <v>67</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2448,10 +2478,10 @@
         <v>69</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2513,10 +2543,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2548,10 +2578,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>128</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>129</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2563,10 +2593,10 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N29" s="97" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2583,10 +2613,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>130</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>131</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2618,13 +2648,13 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="72">
@@ -2655,10 +2685,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2673,7 +2703,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2684,10 +2714,10 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G33" s="16" t="s">
         <v>108</v>
@@ -2704,10 +2734,10 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2721,13 +2751,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2738,7 +2768,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>161</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2755,10 +2785,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="105" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G35" s="110" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="H35" s="106"/>
       <c r="I35" s="104"/>
@@ -2769,23 +2799,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
       <c r="C36" s="18">
         <v>2</v>
       </c>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="19"/>
+      <c r="D36" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>197</v>
+      </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
       <c r="J36" s="5"/>
       <c r="K36" s="94"/>
       <c r="L36" s="22"/>
-      <c r="M36" s="17"/>
+      <c r="M36" s="17" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="37" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
@@ -4943,7 +4983,6 @@
       <filters blank="1">
         <filter val="开发中"/>
         <filter val="未开始"/>
-        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -4969,8 +5008,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5020,7 +5059,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -5183,10 +5222,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5203,10 +5242,10 @@
         <v>91</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I12" s="66">
         <v>42148</v>
@@ -5259,7 +5298,7 @@
         <v>95</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H14" s="65" t="s">
         <v>96</v>
@@ -5315,10 +5354,10 @@
         <v>98</v>
       </c>
       <c r="G16" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>117</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>118</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5328,7 +5367,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5345,10 +5384,10 @@
         <v>99</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5373,13 +5412,13 @@
         <v>100</v>
       </c>
       <c r="G18" s="117" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H18" s="117" t="s">
         <v>113</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J18" s="119"/>
       <c r="K18" s="115" t="s">
@@ -5404,7 +5443,7 @@
         <v>114</v>
       </c>
       <c r="H19" s="106" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="I19" s="113">
         <v>42166</v>
@@ -5426,23 +5465,23 @@
         <v>15</v>
       </c>
       <c r="F20" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>185</v>
+      </c>
+      <c r="H20" s="117" t="s">
         <v>132</v>
       </c>
-      <c r="G20" s="117" t="s">
-        <v>133</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>134</v>
-      </c>
       <c r="I20" s="118" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J20" s="119"/>
       <c r="K20" s="115" t="s">
+        <v>178</v>
+      </c>
+      <c r="L20" s="120" t="s">
         <v>182</v>
-      </c>
-      <c r="L20" s="120" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5456,18 +5495,18 @@
         <v>15</v>
       </c>
       <c r="F21" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="G21" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="H21" s="84" t="s">
         <v>135</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>137</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="85"/>
       <c r="K21" s="82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" s="86"/>
     </row>
@@ -5482,13 +5521,13 @@
         <v>33</v>
       </c>
       <c r="F22" s="116" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G22" s="117" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I22" s="118" t="s">
         <v>88</v>
@@ -5510,21 +5549,21 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L23" s="71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5541,10 +5580,10 @@
         <v>87</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
@@ -5566,13 +5605,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G25" s="106" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="H25" s="106" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I25" s="113">
         <v>42166</v>
@@ -5582,10 +5621,10 @@
         <v>17</v>
       </c>
       <c r="L25" s="108" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>22</v>
       </c>
@@ -5596,10 +5635,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G26" s="106" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="H26" s="106"/>
       <c r="I26" s="113">
@@ -5610,10 +5649,10 @@
         <v>17</v>
       </c>
       <c r="L26" s="108" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
@@ -5624,23 +5663,23 @@
         <v>15</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G27" s="106" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H27" s="106" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I27" s="113">
         <v>42166</v>
       </c>
       <c r="J27" s="107"/>
       <c r="K27" s="104" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L27" s="108" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5654,13 +5693,13 @@
         <v>15</v>
       </c>
       <c r="F28" s="105" t="s">
+        <v>170</v>
+      </c>
+      <c r="G28" s="106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H28" s="106" t="s">
         <v>174</v>
-      </c>
-      <c r="G28" s="106" t="s">
-        <v>177</v>
-      </c>
-      <c r="H28" s="106" t="s">
-        <v>178</v>
       </c>
       <c r="I28" s="113">
         <v>42166</v>
@@ -5671,19 +5710,35 @@
       </c>
       <c r="L28" s="71"/>
     </row>
-    <row r="29" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
         <v>25</v>
       </c>
-      <c r="D29" s="39"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="71"/>
+      <c r="D29" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>190</v>
+      </c>
+      <c r="G29" s="106" t="s">
+        <v>191</v>
+      </c>
+      <c r="H29" s="106" t="s">
+        <v>192</v>
+      </c>
+      <c r="I29" s="113">
+        <v>42166</v>
+      </c>
+      <c r="J29" s="107"/>
+      <c r="K29" s="104" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="108" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="199">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -292,10 +292,6 @@
   </si>
   <si>
     <t>如果是预投机器则在生产日期上显示预投两个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -797,6 +793,14 @@
 2. 计划页面：默认先按照型号排序，排序规则为机型，吨位，梯速。然后再按照客户名称排序，保证同样型号的相同的客户显示在一起。
 3. 代办事项：业务的两个审核页面排序规则与销售页面一样。计划的四个审核页面排序与计划页面排序规则一样
 4. 所有页面只要用户点击表头后，只按照当列的内容进行排序，不需要管其它列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板问题，已经确认并修改模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1711,7 +1715,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1818,7 +1822,7 @@
         <v>55</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N6"/>
     </row>
@@ -1839,7 +1843,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H7" s="47"/>
       <c r="I7" s="39"/>
@@ -1851,10 +1855,10 @@
       </c>
       <c r="L7" s="48"/>
       <c r="M7" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N7" s="99" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1891,7 +1895,7 @@
       </c>
       <c r="L8" s="48"/>
       <c r="M8" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N8" s="99"/>
     </row>
@@ -1912,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I9" s="39"/>
       <c r="J9" s="95">
@@ -1926,10 +1930,10 @@
       </c>
       <c r="L9" s="48"/>
       <c r="M9" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N9" s="100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O9" s="45">
         <v>2</v>
@@ -1949,13 +1953,13 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I10" s="39"/>
       <c r="J10" s="102">
@@ -1965,10 +1969,10 @@
         <v>0.4</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N10" s="100"/>
     </row>
@@ -1999,7 +2003,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N11" s="91"/>
     </row>
@@ -2032,7 +2036,7 @@
       </c>
       <c r="L12" s="59"/>
       <c r="M12" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N12" s="90"/>
     </row>
@@ -2053,17 +2057,17 @@
         <v>40</v>
       </c>
       <c r="G13" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="50"/>
       <c r="L13" s="48"/>
       <c r="M13" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -2083,10 +2087,10 @@
         <v>43</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="49">
@@ -2097,7 +2101,7 @@
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N14" s="101"/>
     </row>
@@ -2130,7 +2134,7 @@
       </c>
       <c r="L15" s="59"/>
       <c r="M15" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
@@ -2150,7 +2154,7 @@
         <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
@@ -2183,7 +2187,7 @@
         <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2216,7 +2220,7 @@
         <v>49</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H18" s="56"/>
       <c r="I18" s="53"/>
@@ -2228,7 +2232,7 @@
       </c>
       <c r="L18" s="59"/>
       <c r="M18" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2260,7 +2264,7 @@
       </c>
       <c r="L19" s="59"/>
       <c r="M19" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2292,7 +2296,7 @@
       </c>
       <c r="L20" s="59"/>
       <c r="M20" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2315,7 +2319,7 @@
         <v>57</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I21" s="53"/>
       <c r="J21" s="57">
@@ -2326,7 +2330,7 @@
       </c>
       <c r="L21" s="59"/>
       <c r="M21" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:15" s="45" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2356,7 +2360,7 @@
       <c r="K22" s="51"/>
       <c r="L22" s="48"/>
       <c r="M22" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2376,10 +2380,10 @@
         <v>65</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="49">
@@ -2390,7 +2394,7 @@
       </c>
       <c r="L23" s="48"/>
       <c r="M23" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N23" s="101"/>
     </row>
@@ -2411,7 +2415,7 @@
         <v>67</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2444,10 +2448,10 @@
         <v>68</v>
       </c>
       <c r="G25" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="56" t="s">
         <v>73</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>74</v>
       </c>
       <c r="I25" s="53"/>
       <c r="J25" s="57">
@@ -2458,7 +2462,7 @@
       </c>
       <c r="L25" s="59"/>
       <c r="M25" s="60" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2478,10 +2482,10 @@
         <v>69</v>
       </c>
       <c r="G26" s="46" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="42" t="s">
         <v>153</v>
-      </c>
-      <c r="H26" s="42" t="s">
-        <v>154</v>
       </c>
       <c r="I26" s="39"/>
       <c r="J26" s="72">
@@ -2510,10 +2514,10 @@
         <v>21</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>80</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>81</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2525,7 +2529,7 @@
       </c>
       <c r="L27" s="48"/>
       <c r="M27" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N27" s="101"/>
     </row>
@@ -2543,10 +2547,10 @@
         <v>21</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2578,10 +2582,10 @@
         <v>33</v>
       </c>
       <c r="F29" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="19" t="s">
         <v>127</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
@@ -2593,10 +2597,10 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N29" s="97" t="s">
         <v>159</v>
-      </c>
-      <c r="N29" s="97" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2613,10 +2617,10 @@
         <v>21</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G30" s="19" t="s">
         <v>129</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2648,13 +2652,13 @@
         <v>21</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="72">
@@ -2685,10 +2689,10 @@
         <v>21</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2700,7 +2704,7 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2714,16 +2718,16 @@
         <v>39</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="72">
@@ -2734,7 +2738,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2751,13 +2755,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="72">
@@ -2768,7 +2772,7 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2785,10 +2789,10 @@
         <v>33</v>
       </c>
       <c r="F35" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="G35" s="110" t="s">
         <v>175</v>
-      </c>
-      <c r="G35" s="110" t="s">
-        <v>176</v>
       </c>
       <c r="H35" s="106"/>
       <c r="I35" s="104"/>
@@ -2813,15 +2817,19 @@
         <v>15</v>
       </c>
       <c r="F36" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G36" s="19" t="s">
         <v>196</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>197</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="94"/>
+      <c r="J36" s="72">
+        <v>42166</v>
+      </c>
+      <c r="K36" s="94">
+        <v>0</v>
+      </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
         <v>19</v>
@@ -5009,7 +5017,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5059,7 +5067,7 @@
         <v>6</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -5082,7 +5090,7 @@
         <v>24</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J6" s="67"/>
       <c r="K6" s="63" t="s">
@@ -5090,7 +5098,7 @@
       </c>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C7" s="73">
         <v>2</v>
       </c>
@@ -5110,11 +5118,11 @@
         <v>42</v>
       </c>
       <c r="I7" s="77" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J7" s="78"/>
       <c r="K7" s="75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L7" s="79"/>
     </row>
@@ -5132,10 +5140,10 @@
         <v>63</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" s="65" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I8" s="66">
         <v>42144</v>
@@ -5160,7 +5168,7 @@
         <v>66</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="66">
@@ -5183,13 +5191,13 @@
         <v>15</v>
       </c>
       <c r="F10" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="65" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="65" t="s">
-        <v>83</v>
       </c>
       <c r="I10" s="66">
         <v>42144</v>
@@ -5211,10 +5219,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="87">
@@ -5222,10 +5230,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L11" s="88" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5239,13 +5247,13 @@
         <v>15</v>
       </c>
       <c r="F12" s="64" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H12" s="65" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I12" s="66">
         <v>42148</v>
@@ -5267,13 +5275,13 @@
         <v>15</v>
       </c>
       <c r="F13" s="64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" s="66">
         <v>42148</v>
@@ -5295,13 +5303,13 @@
         <v>21</v>
       </c>
       <c r="F14" s="64" t="s">
+        <v>94</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="65" t="s">
         <v>95</v>
-      </c>
-      <c r="G14" s="65" t="s">
-        <v>115</v>
-      </c>
-      <c r="H14" s="65" t="s">
-        <v>96</v>
       </c>
       <c r="I14" s="66">
         <v>42148</v>
@@ -5323,13 +5331,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G15" s="65" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H15" s="65" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I15" s="66">
         <v>42148</v>
@@ -5351,13 +5359,13 @@
         <v>15</v>
       </c>
       <c r="F16" s="64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="65" t="s">
         <v>116</v>
-      </c>
-      <c r="H16" s="65" t="s">
-        <v>117</v>
       </c>
       <c r="I16" s="66">
         <v>42148</v>
@@ -5367,7 +5375,7 @@
         <v>37</v>
       </c>
       <c r="L16" s="70" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5381,13 +5389,13 @@
         <v>15</v>
       </c>
       <c r="F17" s="64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G17" s="65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I17" s="66">
         <v>42148</v>
@@ -5398,7 +5406,7 @@
       </c>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="114">
         <v>14</v>
       </c>
@@ -5409,20 +5417,20 @@
         <v>21</v>
       </c>
       <c r="F18" s="116" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G18" s="117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H18" s="117" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I18" s="118" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J18" s="119"/>
       <c r="K18" s="115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L18" s="120"/>
     </row>
@@ -5437,13 +5445,13 @@
         <v>15</v>
       </c>
       <c r="F19" s="105" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H19" s="106" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I19" s="113">
         <v>42166</v>
@@ -5454,7 +5462,7 @@
       </c>
       <c r="L19" s="108"/>
     </row>
-    <row r="20" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C20" s="114">
         <v>16</v>
       </c>
@@ -5465,23 +5473,23 @@
         <v>15</v>
       </c>
       <c r="F20" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="H20" s="117" t="s">
         <v>131</v>
       </c>
-      <c r="G20" s="117" t="s">
-        <v>185</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>132</v>
-      </c>
       <c r="I20" s="118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J20" s="119"/>
       <c r="K20" s="115" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L20" s="120" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5495,22 +5503,22 @@
         <v>15</v>
       </c>
       <c r="F21" s="83" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="84" t="s">
         <v>133</v>
       </c>
-      <c r="G21" s="84" t="s">
+      <c r="H21" s="84" t="s">
         <v>134</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>135</v>
       </c>
       <c r="I21" s="84"/>
       <c r="J21" s="85"/>
       <c r="K21" s="82" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L21" s="86"/>
     </row>
-    <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C22" s="114">
         <v>18</v>
       </c>
@@ -5521,24 +5529,24 @@
         <v>33</v>
       </c>
       <c r="F22" s="116" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G22" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="H22" s="117" t="s">
         <v>180</v>
       </c>
-      <c r="H22" s="117" t="s">
-        <v>181</v>
-      </c>
       <c r="I22" s="118" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J22" s="119"/>
       <c r="K22" s="115" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L22" s="120"/>
     </row>
-    <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>19</v>
       </c>
@@ -5549,24 +5557,24 @@
         <v>33</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="16" t="s">
         <v>142</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>143</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L23" s="71" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C24" s="18">
         <v>20</v>
       </c>
@@ -5577,13 +5585,13 @@
         <v>15</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
@@ -5605,13 +5613,13 @@
         <v>15</v>
       </c>
       <c r="F25" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="G25" s="106" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="106" t="s">
         <v>167</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="106" t="s">
-        <v>168</v>
       </c>
       <c r="I25" s="113">
         <v>42166</v>
@@ -5621,7 +5629,7 @@
         <v>17</v>
       </c>
       <c r="L25" s="108" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -5635,10 +5643,10 @@
         <v>15</v>
       </c>
       <c r="F26" s="105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G26" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H26" s="106"/>
       <c r="I26" s="113">
@@ -5649,10 +5657,10 @@
         <v>17</v>
       </c>
       <c r="L26" s="108" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
@@ -5663,26 +5671,26 @@
         <v>15</v>
       </c>
       <c r="F27" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G27" s="106" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H27" s="106" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I27" s="113">
         <v>42166</v>
       </c>
       <c r="J27" s="107"/>
       <c r="K27" s="104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="L27" s="108" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
@@ -5693,22 +5701,24 @@
         <v>15</v>
       </c>
       <c r="F28" s="105" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G28" s="106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H28" s="106" t="s">
         <v>173</v>
-      </c>
-      <c r="H28" s="106" t="s">
-        <v>174</v>
       </c>
       <c r="I28" s="113">
         <v>42166</v>
       </c>
       <c r="J28" s="107"/>
       <c r="K28" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L28" s="71"/>
+        <v>119</v>
+      </c>
+      <c r="L28" s="108" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
@@ -5721,13 +5731,13 @@
         <v>15</v>
       </c>
       <c r="F29" s="105" t="s">
+        <v>189</v>
+      </c>
+      <c r="G29" s="106" t="s">
         <v>190</v>
       </c>
-      <c r="G29" s="106" t="s">
+      <c r="H29" s="106" t="s">
         <v>191</v>
-      </c>
-      <c r="H29" s="106" t="s">
-        <v>192</v>
       </c>
       <c r="I29" s="113">
         <v>42166</v>
@@ -5737,7 +5747,7 @@
         <v>17</v>
       </c>
       <c r="L29" s="108" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -5912,10 +5922,7 @@
   <autoFilter ref="B5:L41">
     <filterColumn colId="9">
       <filters blank="1">
-        <filter val="不修复"/>
-        <filter val="不再现"/>
         <filter val="未修复"/>
-        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="201">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -801,6 +801,14 @@
   </si>
   <si>
     <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1714,9 +1722,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2835,23 +2841,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>33</v>
       </c>
-      <c r="C37" s="18">
-        <v>2</v>
-      </c>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="94"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="17"/>
+      <c r="C37" s="109">
+        <v>2</v>
+      </c>
+      <c r="D37" s="104" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>199</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>200</v>
+      </c>
+      <c r="H37" s="106"/>
+      <c r="I37" s="104"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="112" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="38" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B38" s="18">
@@ -5017,7 +5033,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5921,7 +5937,7 @@
   </sheetData>
   <autoFilter ref="B5:L41">
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="未修复"/>
       </filters>
     </filterColumn>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -809,6 +809,18 @@
   </si>
   <si>
     <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承选择BMC后自动变为小写的bmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承都需要大写的。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1722,7 +1734,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5032,9 +5044,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5770,11 +5780,21 @@
       <c r="C30" s="18">
         <v>26</v>
       </c>
-      <c r="D30" s="39"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+      <c r="D30" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="H30" s="106" t="s">
+        <v>203</v>
+      </c>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
       <c r="K30" s="14"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="210">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -594,14 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>更多筛选启动比较慢，大概需要3秒或者更高。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -638,9 +630,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证中</t>
-  </si>
-  <si>
     <t>随更新到额template一同对应了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,10 +663,6 @@
   </si>
   <si>
     <t>查看4月9日，抚顺的排产计划，U型机排序反了，应该小吨位到大吨位，S和T型机没有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -821,6 +806,46 @@
   </si>
   <si>
     <t>轴承都需要大写的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面最好也允许修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏数据清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于用户输入错误，导致我们的下拉列表中有好多脏数据。这些数据需要清理掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据有业务人员提供，更新时我通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1247,9 +1272,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1426,6 +1448,9 @@
     <xf numFmtId="0" fontId="11" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,7 +1759,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1747,9 +1772,9 @@
     <col min="8" max="8" width="26.25" style="21" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="92" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="91" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" style="97" customWidth="1"/>
+    <col min="14" max="14" width="6" style="96" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -1797,7 +1822,7 @@
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="K5" s="92" t="s">
         <v>64</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -1806,7 +1831,7 @@
       <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="98"/>
+      <c r="N5" s="97"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1861,22 +1886,24 @@
         <v>27</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>168</v>
-      </c>
-      <c r="H7" s="47"/>
+        <v>203</v>
+      </c>
+      <c r="H7" s="120" t="s">
+        <v>204</v>
+      </c>
       <c r="I7" s="39"/>
-      <c r="J7" s="95">
+      <c r="J7" s="94">
         <v>42166</v>
       </c>
-      <c r="K7" s="51">
+      <c r="K7" s="50">
         <v>0.3</v>
       </c>
-      <c r="L7" s="48"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="N7" s="99" t="s">
-        <v>160</v>
+      <c r="N7" s="98" t="s">
+        <v>157</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1905,17 +1932,17 @@
         <v>35</v>
       </c>
       <c r="I8" s="42"/>
-      <c r="J8" s="49">
+      <c r="J8" s="48">
         <v>42158</v>
       </c>
-      <c r="K8" s="51">
+      <c r="K8" s="50">
         <v>0.5</v>
       </c>
-      <c r="L8" s="48"/>
+      <c r="L8" s="47"/>
       <c r="M8" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N8" s="99"/>
+      <c r="N8" s="98"/>
     </row>
     <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
@@ -1934,24 +1961,24 @@
         <v>43</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>78</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="95">
+      <c r="J9" s="94">
         <v>42166</v>
       </c>
-      <c r="K9" s="50">
+      <c r="K9" s="49">
         <v>0.3</v>
       </c>
-      <c r="L9" s="48"/>
+      <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
         <v>93</v>
       </c>
-      <c r="N9" s="100" t="s">
-        <v>157</v>
+      <c r="N9" s="99" t="s">
+        <v>155</v>
       </c>
       <c r="O9" s="45">
         <v>2</v>
@@ -1971,28 +1998,28 @@
         <v>21</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>75</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="102">
+      <c r="J10" s="101">
         <v>42158</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="50">
         <v>0.4</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="47" t="s">
         <v>145</v>
       </c>
       <c r="M10" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N10" s="100"/>
+      <c r="N10" s="99"/>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
@@ -2020,43 +2047,43 @@
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
-      <c r="M11" s="89" t="s">
+      <c r="M11" s="88" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="91"/>
+      <c r="N11" s="90"/>
     </row>
     <row r="12" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="52">
+      <c r="B12" s="51">
         <v>7</v>
       </c>
-      <c r="C12" s="52">
-        <v>2</v>
-      </c>
-      <c r="D12" s="53" t="s">
+      <c r="C12" s="51">
+        <v>2</v>
+      </c>
+      <c r="D12" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="53" t="s">
+      <c r="E12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="54" t="s">
+      <c r="F12" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="55" t="s">
+      <c r="G12" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="57">
+      <c r="H12" s="55"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="56">
         <v>42144</v>
       </c>
-      <c r="K12" s="58">
+      <c r="K12" s="57">
         <v>0.2</v>
       </c>
-      <c r="L12" s="59"/>
-      <c r="M12" s="60" t="s">
+      <c r="L12" s="58"/>
+      <c r="M12" s="59" t="s">
         <v>91</v>
       </c>
-      <c r="N12" s="90"/>
+      <c r="N12" s="89"/>
     </row>
     <row r="13" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13" s="40">
@@ -2082,8 +2109,8 @@
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="47"/>
       <c r="M13" s="43" t="s">
         <v>92</v>
       </c>
@@ -2111,51 +2138,51 @@
         <v>103</v>
       </c>
       <c r="I14" s="39"/>
-      <c r="J14" s="49">
+      <c r="J14" s="48">
         <v>42158</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="50">
         <v>0.3</v>
       </c>
-      <c r="L14" s="48"/>
+      <c r="L14" s="47"/>
       <c r="M14" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="101"/>
+      <c r="N14" s="100"/>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="52">
+      <c r="B15" s="51">
         <v>10</v>
       </c>
-      <c r="C15" s="52">
-        <v>2</v>
-      </c>
-      <c r="D15" s="53" t="s">
+      <c r="C15" s="51">
+        <v>2</v>
+      </c>
+      <c r="D15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="53" t="s">
+      <c r="E15" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="55" t="s">
+      <c r="G15" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="57">
+      <c r="H15" s="55"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="56">
         <v>42144</v>
       </c>
-      <c r="K15" s="80">
+      <c r="K15" s="79">
         <v>0.2</v>
       </c>
-      <c r="L15" s="59"/>
-      <c r="M15" s="60" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B16" s="40">
         <v>11</v>
       </c>
@@ -2172,23 +2199,23 @@
         <v>46</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="72">
+      <c r="J16" s="71">
         <v>42166</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="50">
         <v>0.1</v>
       </c>
-      <c r="L16" s="48"/>
+      <c r="L16" s="47"/>
       <c r="M16" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="101"/>
-    </row>
-    <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="N16" s="100"/>
+    </row>
+    <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -2205,149 +2232,149 @@
         <v>48</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>147</v>
+        <v>205</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="72">
+      <c r="J17" s="71">
         <v>42166</v>
       </c>
-      <c r="K17" s="50">
+      <c r="K17" s="49">
         <v>0.3</v>
       </c>
-      <c r="L17" s="48"/>
+      <c r="L17" s="47"/>
       <c r="M17" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N17" s="101"/>
+      <c r="N17" s="100"/>
     </row>
     <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="52">
+      <c r="B18" s="51">
         <v>13</v>
       </c>
-      <c r="C18" s="52">
-        <v>2</v>
-      </c>
-      <c r="D18" s="53" t="s">
+      <c r="C18" s="51">
+        <v>2</v>
+      </c>
+      <c r="D18" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="54" t="s">
+      <c r="F18" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="G18" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="H18" s="56"/>
-      <c r="I18" s="53"/>
-      <c r="J18" s="57">
+      <c r="H18" s="55"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="56">
         <v>42144</v>
       </c>
-      <c r="K18" s="61">
+      <c r="K18" s="60">
         <v>0.05</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="60" t="s">
+      <c r="L18" s="58"/>
+      <c r="M18" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="52">
+      <c r="B19" s="51">
         <v>14</v>
       </c>
-      <c r="C19" s="52">
-        <v>2</v>
-      </c>
-      <c r="D19" s="53" t="s">
+      <c r="C19" s="51">
+        <v>2</v>
+      </c>
+      <c r="D19" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="53" t="s">
+      <c r="E19" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="55" t="s">
+      <c r="G19" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="56"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="57">
+      <c r="H19" s="55"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="56">
         <v>42144</v>
       </c>
-      <c r="K19" s="80">
+      <c r="K19" s="79">
         <v>0.05</v>
       </c>
-      <c r="L19" s="59"/>
-      <c r="M19" s="60" t="s">
+      <c r="L19" s="58"/>
+      <c r="M19" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="52">
+      <c r="B20" s="51">
         <v>15</v>
       </c>
-      <c r="C20" s="52">
-        <v>2</v>
-      </c>
-      <c r="D20" s="53" t="s">
+      <c r="C20" s="51">
+        <v>2</v>
+      </c>
+      <c r="D20" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="54" t="s">
+      <c r="F20" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="G20" s="55" t="s">
+      <c r="G20" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="H20" s="56"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="57">
+      <c r="H20" s="55"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="56">
         <v>42144</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="60">
         <v>0</v>
       </c>
-      <c r="L20" s="59"/>
-      <c r="M20" s="60" t="s">
+      <c r="L20" s="58"/>
+      <c r="M20" s="59" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="52">
+      <c r="B21" s="51">
         <v>16</v>
       </c>
-      <c r="C21" s="52">
-        <v>2</v>
-      </c>
-      <c r="D21" s="53" t="s">
+      <c r="C21" s="51">
+        <v>2</v>
+      </c>
+      <c r="D21" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="53" t="s">
+      <c r="E21" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="55" t="s">
+      <c r="G21" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="H21" s="56" t="s">
+      <c r="H21" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="I21" s="53"/>
-      <c r="J21" s="57">
+      <c r="I21" s="52"/>
+      <c r="J21" s="56">
         <v>42144</v>
       </c>
-      <c r="K21" s="80">
+      <c r="K21" s="79">
         <v>0.1</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="60" t="s">
+      <c r="L21" s="58"/>
+      <c r="M21" s="59" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2375,8 +2402,8 @@
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="48"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="47"/>
       <c r="M22" s="43" t="s">
         <v>92</v>
       </c>
@@ -2398,25 +2425,25 @@
         <v>65</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>71</v>
       </c>
       <c r="I23" s="39"/>
-      <c r="J23" s="49">
+      <c r="J23" s="48">
         <v>42158</v>
       </c>
-      <c r="K23" s="50">
+      <c r="K23" s="49">
         <v>0.2</v>
       </c>
-      <c r="L23" s="48"/>
+      <c r="L23" s="47"/>
       <c r="M23" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N23" s="101"/>
-    </row>
-    <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="N23" s="100"/>
+    </row>
+    <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2433,57 +2460,57 @@
         <v>67</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>148</v>
+        <v>206</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="72">
+      <c r="J24" s="71">
         <v>42166</v>
       </c>
-      <c r="K24" s="51">
+      <c r="K24" s="50">
         <v>0.2</v>
       </c>
-      <c r="L24" s="48"/>
+      <c r="L24" s="47"/>
       <c r="M24" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N24" s="101"/>
+      <c r="N24" s="100"/>
     </row>
     <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="52">
+      <c r="B25" s="51">
         <v>20</v>
       </c>
-      <c r="C25" s="52">
-        <v>2</v>
-      </c>
-      <c r="D25" s="53" t="s">
+      <c r="C25" s="51">
+        <v>2</v>
+      </c>
+      <c r="D25" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="54" t="s">
+      <c r="F25" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="G25" s="55" t="s">
+      <c r="G25" s="54" t="s">
         <v>72</v>
       </c>
-      <c r="H25" s="56" t="s">
+      <c r="H25" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="53"/>
-      <c r="J25" s="57">
+      <c r="I25" s="52"/>
+      <c r="J25" s="56">
         <v>42144</v>
       </c>
-      <c r="K25" s="80">
+      <c r="K25" s="79">
         <v>0.1</v>
       </c>
-      <c r="L25" s="59"/>
-      <c r="M25" s="60" t="s">
+      <c r="L25" s="58"/>
+      <c r="M25" s="59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2500,23 +2527,23 @@
         <v>69</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="72">
+      <c r="J26" s="71">
         <v>42166</v>
       </c>
-      <c r="K26" s="51">
+      <c r="K26" s="50">
         <v>0.2</v>
       </c>
-      <c r="L26" s="48"/>
+      <c r="L26" s="47"/>
       <c r="M26" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="N26" s="101"/>
+      <c r="N26" s="100"/>
     </row>
     <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
@@ -2539,17 +2566,17 @@
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
-      <c r="J27" s="49">
+      <c r="J27" s="48">
         <v>42158</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="50">
         <v>0.1</v>
       </c>
-      <c r="L27" s="48"/>
+      <c r="L27" s="47"/>
       <c r="M27" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="N27" s="101"/>
+      <c r="N27" s="100"/>
     </row>
     <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2568,14 +2595,14 @@
         <v>125</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="72">
+      <c r="J28" s="71">
         <v>42166</v>
       </c>
-      <c r="K28" s="94">
+      <c r="K28" s="93">
         <v>0.4</v>
       </c>
       <c r="L28" s="22"/>
@@ -2607,18 +2634,18 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="96">
+      <c r="J29" s="95">
         <v>42158</v>
       </c>
-      <c r="K29" s="94">
+      <c r="K29" s="93">
         <v>0.1</v>
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="N29" s="97" t="s">
-        <v>159</v>
+        <v>91</v>
+      </c>
+      <c r="N29" s="96" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2642,10 +2669,10 @@
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="72">
+      <c r="J30" s="71">
         <v>42166</v>
       </c>
-      <c r="K30" s="94">
+      <c r="K30" s="93">
         <v>0.1</v>
       </c>
       <c r="L30" s="22"/>
@@ -2673,16 +2700,16 @@
         <v>135</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I31" s="14"/>
-      <c r="J31" s="72">
+      <c r="J31" s="71">
         <v>42166</v>
       </c>
-      <c r="K31" s="94">
+      <c r="K31" s="93">
         <v>0.1</v>
       </c>
       <c r="L31" s="22"/>
@@ -2710,14 +2737,14 @@
         <v>136</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="72">
+      <c r="J32" s="71">
         <v>42158</v>
       </c>
-      <c r="K32" s="94">
+      <c r="K32" s="93">
         <v>0.1</v>
       </c>
       <c r="L32" s="22"/>
@@ -2748,10 +2775,10 @@
         <v>84</v>
       </c>
       <c r="I33" s="14"/>
-      <c r="J33" s="72">
+      <c r="J33" s="71">
         <v>42158</v>
       </c>
-      <c r="K33" s="94">
+      <c r="K33" s="93">
         <v>0</v>
       </c>
       <c r="L33" s="22"/>
@@ -2782,10 +2809,10 @@
         <v>139</v>
       </c>
       <c r="I34" s="14"/>
-      <c r="J34" s="72">
+      <c r="J34" s="71">
         <v>42158</v>
       </c>
-      <c r="K34" s="94">
+      <c r="K34" s="93">
         <v>0.2</v>
       </c>
       <c r="L34" s="22"/>
@@ -2793,31 +2820,31 @@
         <v>91</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="109">
+    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B35" s="108">
         <v>31</v>
       </c>
-      <c r="C35" s="109">
-        <v>2</v>
-      </c>
-      <c r="D35" s="104" t="s">
+      <c r="C35" s="108">
+        <v>2</v>
+      </c>
+      <c r="D35" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E35" s="104" t="s">
+      <c r="E35" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F35" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="G35" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="H35" s="106"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="112" t="s">
+      <c r="F35" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="G35" s="109" t="s">
+        <v>171</v>
+      </c>
+      <c r="H35" s="105"/>
+      <c r="I35" s="103"/>
+      <c r="J35" s="106"/>
+      <c r="K35" s="106"/>
+      <c r="L35" s="110"/>
+      <c r="M35" s="111" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2835,17 +2862,17 @@
         <v>15</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="72">
+      <c r="J36" s="71">
         <v>42166</v>
       </c>
-      <c r="K36" s="94">
+      <c r="K36" s="93">
         <v>0</v>
       </c>
       <c r="L36" s="22"/>
@@ -2857,63 +2884,85 @@
       <c r="B37" s="18">
         <v>33</v>
       </c>
-      <c r="C37" s="109">
-        <v>2</v>
-      </c>
-      <c r="D37" s="104" t="s">
+      <c r="C37" s="108">
+        <v>2</v>
+      </c>
+      <c r="D37" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="E37" s="104" t="s">
+      <c r="E37" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F37" s="105" t="s">
-        <v>199</v>
-      </c>
-      <c r="G37" s="110" t="s">
+      <c r="F37" s="104" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="109" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="105"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="106"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="111" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="108">
+        <v>34</v>
+      </c>
+      <c r="C38" s="108">
+        <v>2</v>
+      </c>
+      <c r="D38" s="103" t="s">
+        <v>20</v>
+      </c>
+      <c r="E38" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="H37" s="106"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="112" t="s">
+      <c r="G38" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="105" t="s">
+        <v>202</v>
+      </c>
+      <c r="I38" s="103"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="110"/>
+      <c r="M38" s="111" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B38" s="18">
-        <v>34</v>
-      </c>
-      <c r="C38" s="18">
-        <v>2</v>
-      </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="94"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="17"/>
-    </row>
-    <row r="39" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
-      <c r="C39" s="18">
-        <v>2</v>
-      </c>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="16"/>
+      <c r="C39" s="108">
+        <v>2</v>
+      </c>
+      <c r="D39" s="103" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="104" t="s">
+        <v>207</v>
+      </c>
+      <c r="G39" s="109" t="s">
+        <v>208</v>
+      </c>
+      <c r="H39" s="105" t="s">
+        <v>209</v>
+      </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="94"/>
+      <c r="K39" s="93"/>
       <c r="L39" s="22"/>
       <c r="M39" s="17"/>
     </row>
@@ -2931,7 +2980,7 @@
       <c r="H40" s="16"/>
       <c r="I40" s="14"/>
       <c r="J40" s="5"/>
-      <c r="K40" s="94"/>
+      <c r="K40" s="93"/>
       <c r="L40" s="22"/>
       <c r="M40" s="17"/>
     </row>
@@ -2949,7 +2998,7 @@
       <c r="H41" s="16"/>
       <c r="I41" s="14"/>
       <c r="J41" s="5"/>
-      <c r="K41" s="94"/>
+      <c r="K41" s="93"/>
       <c r="L41" s="22"/>
       <c r="M41" s="17"/>
     </row>
@@ -2967,7 +3016,7 @@
       <c r="H42" s="16"/>
       <c r="I42" s="14"/>
       <c r="J42" s="5"/>
-      <c r="K42" s="94"/>
+      <c r="K42" s="93"/>
       <c r="L42" s="22"/>
       <c r="M42" s="17"/>
     </row>
@@ -2985,7 +3034,7 @@
       <c r="H43" s="16"/>
       <c r="I43" s="14"/>
       <c r="J43" s="5"/>
-      <c r="K43" s="94"/>
+      <c r="K43" s="93"/>
       <c r="L43" s="22"/>
       <c r="M43" s="17"/>
     </row>
@@ -3003,7 +3052,7 @@
       <c r="H44" s="16"/>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
-      <c r="K44" s="94"/>
+      <c r="K44" s="93"/>
       <c r="L44" s="22"/>
       <c r="M44" s="17"/>
     </row>
@@ -3021,7 +3070,7 @@
       <c r="H45" s="16"/>
       <c r="I45" s="14"/>
       <c r="J45" s="5"/>
-      <c r="K45" s="94"/>
+      <c r="K45" s="93"/>
       <c r="L45" s="22"/>
       <c r="M45" s="17"/>
     </row>
@@ -3039,7 +3088,7 @@
       <c r="H46" s="16"/>
       <c r="I46" s="14"/>
       <c r="J46" s="5"/>
-      <c r="K46" s="94"/>
+      <c r="K46" s="93"/>
       <c r="L46" s="22"/>
       <c r="M46" s="17"/>
     </row>
@@ -3057,7 +3106,7 @@
       <c r="H47" s="16"/>
       <c r="I47" s="14"/>
       <c r="J47" s="5"/>
-      <c r="K47" s="94"/>
+      <c r="K47" s="93"/>
       <c r="L47" s="22"/>
       <c r="M47" s="17"/>
     </row>
@@ -3075,7 +3124,7 @@
       <c r="H48" s="16"/>
       <c r="I48" s="14"/>
       <c r="J48" s="5"/>
-      <c r="K48" s="94"/>
+      <c r="K48" s="93"/>
       <c r="L48" s="22"/>
       <c r="M48" s="17"/>
     </row>
@@ -3093,7 +3142,7 @@
       <c r="H49" s="16"/>
       <c r="I49" s="14"/>
       <c r="J49" s="5"/>
-      <c r="K49" s="94"/>
+      <c r="K49" s="93"/>
       <c r="L49" s="22"/>
       <c r="M49" s="17"/>
     </row>
@@ -3111,7 +3160,7 @@
       <c r="H50" s="16"/>
       <c r="I50" s="14"/>
       <c r="J50" s="5"/>
-      <c r="K50" s="94"/>
+      <c r="K50" s="93"/>
       <c r="L50" s="22"/>
       <c r="M50" s="17"/>
     </row>
@@ -3129,7 +3178,7 @@
       <c r="H51" s="16"/>
       <c r="I51" s="14"/>
       <c r="J51" s="5"/>
-      <c r="K51" s="94"/>
+      <c r="K51" s="93"/>
       <c r="L51" s="22"/>
       <c r="M51" s="17"/>
     </row>
@@ -3147,7 +3196,7 @@
       <c r="H52" s="16"/>
       <c r="I52" s="14"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="94"/>
+      <c r="K52" s="93"/>
       <c r="L52" s="22"/>
       <c r="M52" s="17"/>
     </row>
@@ -3165,7 +3214,7 @@
       <c r="H53" s="16"/>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="94"/>
+      <c r="K53" s="93"/>
       <c r="L53" s="22"/>
       <c r="M53" s="17"/>
     </row>
@@ -3183,7 +3232,7 @@
       <c r="H54" s="16"/>
       <c r="I54" s="14"/>
       <c r="J54" s="5"/>
-      <c r="K54" s="94"/>
+      <c r="K54" s="93"/>
       <c r="L54" s="22"/>
       <c r="M54" s="17"/>
     </row>
@@ -3201,7 +3250,7 @@
       <c r="H55" s="16"/>
       <c r="I55" s="14"/>
       <c r="J55" s="5"/>
-      <c r="K55" s="94"/>
+      <c r="K55" s="93"/>
       <c r="L55" s="22"/>
       <c r="M55" s="17"/>
     </row>
@@ -3219,7 +3268,7 @@
       <c r="H56" s="16"/>
       <c r="I56" s="14"/>
       <c r="J56" s="5"/>
-      <c r="K56" s="94"/>
+      <c r="K56" s="93"/>
       <c r="L56" s="22"/>
       <c r="M56" s="17"/>
     </row>
@@ -3237,7 +3286,7 @@
       <c r="H57" s="16"/>
       <c r="I57" s="14"/>
       <c r="J57" s="5"/>
-      <c r="K57" s="94"/>
+      <c r="K57" s="93"/>
       <c r="L57" s="22"/>
       <c r="M57" s="17"/>
     </row>
@@ -3255,7 +3304,7 @@
       <c r="H58" s="16"/>
       <c r="I58" s="14"/>
       <c r="J58" s="5"/>
-      <c r="K58" s="94"/>
+      <c r="K58" s="93"/>
       <c r="L58" s="22"/>
       <c r="M58" s="17"/>
     </row>
@@ -3273,7 +3322,7 @@
       <c r="H59" s="16"/>
       <c r="I59" s="14"/>
       <c r="J59" s="5"/>
-      <c r="K59" s="94"/>
+      <c r="K59" s="93"/>
       <c r="L59" s="22"/>
       <c r="M59" s="17"/>
     </row>
@@ -3291,7 +3340,7 @@
       <c r="H60" s="16"/>
       <c r="I60" s="14"/>
       <c r="J60" s="5"/>
-      <c r="K60" s="94"/>
+      <c r="K60" s="93"/>
       <c r="L60" s="22"/>
       <c r="M60" s="17"/>
     </row>
@@ -3309,7 +3358,7 @@
       <c r="H61" s="16"/>
       <c r="I61" s="14"/>
       <c r="J61" s="5"/>
-      <c r="K61" s="94"/>
+      <c r="K61" s="93"/>
       <c r="L61" s="22"/>
       <c r="M61" s="17"/>
     </row>
@@ -3327,7 +3376,7 @@
       <c r="H62" s="16"/>
       <c r="I62" s="14"/>
       <c r="J62" s="5"/>
-      <c r="K62" s="94"/>
+      <c r="K62" s="93"/>
       <c r="L62" s="22"/>
       <c r="M62" s="17"/>
     </row>
@@ -3345,7 +3394,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="14"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="94"/>
+      <c r="K63" s="93"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
@@ -3363,7 +3412,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="14"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="94"/>
+      <c r="K64" s="93"/>
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
@@ -3381,7 +3430,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="14"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="94"/>
+      <c r="K65" s="93"/>
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
@@ -3399,7 +3448,7 @@
       <c r="H66" s="16"/>
       <c r="I66" s="14"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="94"/>
+      <c r="K66" s="93"/>
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
@@ -3417,7 +3466,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="14"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="94"/>
+      <c r="K67" s="93"/>
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
@@ -3435,7 +3484,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="14"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="94"/>
+      <c r="K68" s="93"/>
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
@@ -3453,7 +3502,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="14"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="94"/>
+      <c r="K69" s="93"/>
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
@@ -3471,7 +3520,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="14"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="94"/>
+      <c r="K70" s="93"/>
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
@@ -3489,7 +3538,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="14"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="94"/>
+      <c r="K71" s="93"/>
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
@@ -3507,7 +3556,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="14"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="94"/>
+      <c r="K72" s="93"/>
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
@@ -3525,7 +3574,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="14"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="94"/>
+      <c r="K73" s="93"/>
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
@@ -3543,7 +3592,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="14"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="94"/>
+      <c r="K74" s="93"/>
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
@@ -3561,7 +3610,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="14"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="94"/>
+      <c r="K75" s="93"/>
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
@@ -3579,7 +3628,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="14"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="94"/>
+      <c r="K76" s="93"/>
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
@@ -3597,7 +3646,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="14"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="94"/>
+      <c r="K77" s="93"/>
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
@@ -3615,7 +3664,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="14"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="94"/>
+      <c r="K78" s="93"/>
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
@@ -3633,7 +3682,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="14"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="94"/>
+      <c r="K79" s="93"/>
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
@@ -3651,7 +3700,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="14"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="94"/>
+      <c r="K80" s="93"/>
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
@@ -3669,7 +3718,7 @@
       <c r="H81" s="16"/>
       <c r="I81" s="14"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="94"/>
+      <c r="K81" s="93"/>
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
@@ -3687,7 +3736,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="14"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="94"/>
+      <c r="K82" s="93"/>
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
@@ -3705,7 +3754,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="14"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="94"/>
+      <c r="K83" s="93"/>
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
@@ -3723,7 +3772,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="14"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="94"/>
+      <c r="K84" s="93"/>
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
@@ -3741,7 +3790,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="14"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="94"/>
+      <c r="K85" s="93"/>
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
@@ -3759,7 +3808,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="14"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="94"/>
+      <c r="K86" s="93"/>
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
@@ -3777,7 +3826,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="14"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="94"/>
+      <c r="K87" s="93"/>
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
@@ -3795,7 +3844,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="14"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="94"/>
+      <c r="K88" s="93"/>
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
@@ -3813,7 +3862,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="14"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="94"/>
+      <c r="K89" s="93"/>
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
@@ -3831,7 +3880,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="14"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="94"/>
+      <c r="K90" s="93"/>
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
@@ -3849,7 +3898,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="14"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="94"/>
+      <c r="K91" s="93"/>
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
@@ -3867,7 +3916,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="14"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="94"/>
+      <c r="K92" s="93"/>
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
@@ -3885,7 +3934,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="14"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="94"/>
+      <c r="K93" s="93"/>
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
@@ -3903,7 +3952,7 @@
       <c r="H94" s="16"/>
       <c r="I94" s="14"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="94"/>
+      <c r="K94" s="93"/>
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
@@ -3921,7 +3970,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="14"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="94"/>
+      <c r="K95" s="93"/>
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
@@ -3939,7 +3988,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="14"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="94"/>
+      <c r="K96" s="93"/>
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
@@ -3957,7 +4006,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="14"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="94"/>
+      <c r="K97" s="93"/>
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
@@ -3975,7 +4024,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="14"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="94"/>
+      <c r="K98" s="93"/>
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
@@ -3993,7 +4042,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="14"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="94"/>
+      <c r="K99" s="93"/>
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
@@ -4011,7 +4060,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="14"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="94"/>
+      <c r="K100" s="93"/>
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
@@ -4029,7 +4078,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="14"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="94"/>
+      <c r="K101" s="93"/>
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
@@ -4047,7 +4096,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="14"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="94"/>
+      <c r="K102" s="93"/>
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
@@ -4065,7 +4114,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="14"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="94"/>
+      <c r="K103" s="93"/>
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
@@ -4083,7 +4132,7 @@
       <c r="H104" s="16"/>
       <c r="I104" s="14"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="94"/>
+      <c r="K104" s="93"/>
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
@@ -4101,7 +4150,7 @@
       <c r="H105" s="16"/>
       <c r="I105" s="14"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="94"/>
+      <c r="K105" s="93"/>
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
@@ -4119,7 +4168,7 @@
       <c r="H106" s="16"/>
       <c r="I106" s="14"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="94"/>
+      <c r="K106" s="93"/>
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
@@ -4137,7 +4186,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="14"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="94"/>
+      <c r="K107" s="93"/>
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
@@ -4155,7 +4204,7 @@
       <c r="H108" s="16"/>
       <c r="I108" s="14"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="94"/>
+      <c r="K108" s="93"/>
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
@@ -4173,7 +4222,7 @@
       <c r="H109" s="16"/>
       <c r="I109" s="14"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="94"/>
+      <c r="K109" s="93"/>
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
@@ -4191,7 +4240,7 @@
       <c r="H110" s="16"/>
       <c r="I110" s="14"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="94"/>
+      <c r="K110" s="93"/>
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
@@ -4209,7 +4258,7 @@
       <c r="H111" s="16"/>
       <c r="I111" s="14"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="94"/>
+      <c r="K111" s="93"/>
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
@@ -4227,7 +4276,7 @@
       <c r="H112" s="16"/>
       <c r="I112" s="14"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="94"/>
+      <c r="K112" s="93"/>
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
@@ -4245,7 +4294,7 @@
       <c r="H113" s="16"/>
       <c r="I113" s="14"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="94"/>
+      <c r="K113" s="93"/>
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
@@ -4263,7 +4312,7 @@
       <c r="H114" s="16"/>
       <c r="I114" s="14"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="94"/>
+      <c r="K114" s="93"/>
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
@@ -4281,7 +4330,7 @@
       <c r="H115" s="16"/>
       <c r="I115" s="14"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="94"/>
+      <c r="K115" s="93"/>
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
@@ -4299,7 +4348,7 @@
       <c r="H116" s="16"/>
       <c r="I116" s="14"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="94"/>
+      <c r="K116" s="93"/>
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
@@ -4315,7 +4364,7 @@
       <c r="H117" s="16"/>
       <c r="I117" s="14"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="94"/>
+      <c r="K117" s="93"/>
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
@@ -4331,7 +4380,7 @@
       <c r="H118" s="16"/>
       <c r="I118" s="14"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="94"/>
+      <c r="K118" s="93"/>
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
@@ -4347,7 +4396,7 @@
       <c r="H119" s="16"/>
       <c r="I119" s="14"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="94"/>
+      <c r="K119" s="93"/>
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
@@ -4363,7 +4412,7 @@
       <c r="H120" s="16"/>
       <c r="I120" s="14"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="94"/>
+      <c r="K120" s="93"/>
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
@@ -4379,7 +4428,7 @@
       <c r="H121" s="16"/>
       <c r="I121" s="14"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="94"/>
+      <c r="K121" s="93"/>
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
@@ -4395,7 +4444,7 @@
       <c r="H122" s="16"/>
       <c r="I122" s="14"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="94"/>
+      <c r="K122" s="93"/>
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
@@ -4411,7 +4460,7 @@
       <c r="H123" s="16"/>
       <c r="I123" s="14"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="94"/>
+      <c r="K123" s="93"/>
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
@@ -4427,7 +4476,7 @@
       <c r="H124" s="16"/>
       <c r="I124" s="14"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="94"/>
+      <c r="K124" s="93"/>
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
@@ -4443,7 +4492,7 @@
       <c r="H125" s="16"/>
       <c r="I125" s="14"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="94"/>
+      <c r="K125" s="93"/>
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
@@ -4459,7 +4508,7 @@
       <c r="H126" s="16"/>
       <c r="I126" s="14"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="94"/>
+      <c r="K126" s="93"/>
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
@@ -4475,7 +4524,7 @@
       <c r="H127" s="16"/>
       <c r="I127" s="14"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="94"/>
+      <c r="K127" s="93"/>
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
@@ -4491,7 +4540,7 @@
       <c r="H128" s="16"/>
       <c r="I128" s="14"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="94"/>
+      <c r="K128" s="93"/>
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
@@ -4507,7 +4556,7 @@
       <c r="H129" s="16"/>
       <c r="I129" s="14"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="94"/>
+      <c r="K129" s="93"/>
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
@@ -4523,7 +4572,7 @@
       <c r="H130" s="16"/>
       <c r="I130" s="14"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="94"/>
+      <c r="K130" s="93"/>
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
@@ -4539,7 +4588,7 @@
       <c r="H131" s="16"/>
       <c r="I131" s="14"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="94"/>
+      <c r="K131" s="93"/>
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
@@ -4555,7 +4604,7 @@
       <c r="H132" s="16"/>
       <c r="I132" s="14"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="94"/>
+      <c r="K132" s="93"/>
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
@@ -4571,7 +4620,7 @@
       <c r="H133" s="16"/>
       <c r="I133" s="14"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="94"/>
+      <c r="K133" s="93"/>
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
@@ -4587,7 +4636,7 @@
       <c r="H134" s="16"/>
       <c r="I134" s="14"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="94"/>
+      <c r="K134" s="93"/>
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
@@ -4603,7 +4652,7 @@
       <c r="H135" s="16"/>
       <c r="I135" s="14"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="94"/>
+      <c r="K135" s="93"/>
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
@@ -4619,7 +4668,7 @@
       <c r="H136" s="16"/>
       <c r="I136" s="14"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="94"/>
+      <c r="K136" s="93"/>
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
@@ -4635,7 +4684,7 @@
       <c r="H137" s="16"/>
       <c r="I137" s="14"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="94"/>
+      <c r="K137" s="93"/>
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
@@ -4651,7 +4700,7 @@
       <c r="H138" s="16"/>
       <c r="I138" s="14"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="94"/>
+      <c r="K138" s="93"/>
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
@@ -4667,7 +4716,7 @@
       <c r="H139" s="16"/>
       <c r="I139" s="14"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="94"/>
+      <c r="K139" s="93"/>
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
@@ -4683,7 +4732,7 @@
       <c r="H140" s="16"/>
       <c r="I140" s="14"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="94"/>
+      <c r="K140" s="93"/>
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
@@ -4699,7 +4748,7 @@
       <c r="H141" s="16"/>
       <c r="I141" s="14"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="94"/>
+      <c r="K141" s="93"/>
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
@@ -4715,7 +4764,7 @@
       <c r="H142" s="16"/>
       <c r="I142" s="14"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="94"/>
+      <c r="K142" s="93"/>
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
@@ -4731,7 +4780,7 @@
       <c r="H143" s="16"/>
       <c r="I143" s="14"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="94"/>
+      <c r="K143" s="93"/>
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
@@ -4747,7 +4796,7 @@
       <c r="H144" s="16"/>
       <c r="I144" s="14"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="94"/>
+      <c r="K144" s="93"/>
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
@@ -4763,7 +4812,7 @@
       <c r="H145" s="16"/>
       <c r="I145" s="14"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="94"/>
+      <c r="K145" s="93"/>
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
@@ -4779,7 +4828,7 @@
       <c r="H146" s="16"/>
       <c r="I146" s="14"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="94"/>
+      <c r="K146" s="93"/>
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
@@ -4795,7 +4844,7 @@
       <c r="H147" s="16"/>
       <c r="I147" s="14"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="94"/>
+      <c r="K147" s="93"/>
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
@@ -4811,7 +4860,7 @@
       <c r="H148" s="16"/>
       <c r="I148" s="14"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="94"/>
+      <c r="K148" s="93"/>
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
@@ -4827,7 +4876,7 @@
       <c r="H149" s="16"/>
       <c r="I149" s="14"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="94"/>
+      <c r="K149" s="93"/>
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
@@ -4843,7 +4892,7 @@
       <c r="H150" s="16"/>
       <c r="I150" s="14"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="94"/>
+      <c r="K150" s="93"/>
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
@@ -4859,7 +4908,7 @@
       <c r="H151" s="16"/>
       <c r="I151" s="14"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="94"/>
+      <c r="K151" s="93"/>
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
@@ -4875,7 +4924,7 @@
       <c r="H152" s="16"/>
       <c r="I152" s="14"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="94"/>
+      <c r="K152" s="93"/>
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
@@ -4891,7 +4940,7 @@
       <c r="H153" s="16"/>
       <c r="I153" s="14"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="94"/>
+      <c r="K153" s="93"/>
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
@@ -4907,7 +4956,7 @@
       <c r="H154" s="16"/>
       <c r="I154" s="14"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="94"/>
+      <c r="K154" s="93"/>
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
@@ -4923,7 +4972,7 @@
       <c r="H155" s="16"/>
       <c r="I155" s="14"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="94"/>
+      <c r="K155" s="93"/>
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
@@ -4939,7 +4988,7 @@
       <c r="H156" s="16"/>
       <c r="I156" s="14"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="94"/>
+      <c r="K156" s="93"/>
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
@@ -4955,7 +5004,7 @@
       <c r="H157" s="16"/>
       <c r="I157" s="14"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="94"/>
+      <c r="K157" s="93"/>
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
@@ -4971,7 +5020,7 @@
       <c r="H158" s="16"/>
       <c r="I158" s="14"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="94"/>
+      <c r="K158" s="93"/>
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
@@ -4987,7 +5036,7 @@
       <c r="H159" s="16"/>
       <c r="I159" s="14"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="94"/>
+      <c r="K159" s="93"/>
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
@@ -5003,18 +5052,12 @@
       <c r="H160" s="16"/>
       <c r="I160" s="14"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="94"/>
+      <c r="K160" s="93"/>
       <c r="L160" s="22"/>
       <c r="M160" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="高"/>
-        <filter val="中"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
         <filter val="开发中"/>
@@ -5044,7 +5087,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5055,7 +5098,7 @@
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
     <col min="10" max="10" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="16.5" style="68" customWidth="1"/>
+    <col min="12" max="12" width="16.5" style="67" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="22.5" x14ac:dyDescent="0.25">
@@ -5092,147 +5135,147 @@
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="69" t="s">
+      <c r="L5" s="68" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="62">
+      <c r="C6" s="61">
         <v>1</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="65" t="s">
+      <c r="G6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="65" t="s">
+      <c r="I6" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="63" t="s">
+      <c r="J6" s="66"/>
+      <c r="K6" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="70"/>
+      <c r="L6" s="69"/>
     </row>
     <row r="7" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="73">
-        <v>2</v>
-      </c>
-      <c r="D7" s="74" t="s">
+      <c r="C7" s="72">
+        <v>2</v>
+      </c>
+      <c r="D7" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="75" t="s">
+      <c r="E7" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="74" t="s">
+      <c r="F7" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="76" t="s">
+      <c r="G7" s="75" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="J7" s="78"/>
-      <c r="K7" s="75" t="s">
+      <c r="J7" s="77"/>
+      <c r="K7" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="L7" s="79"/>
+      <c r="L7" s="78"/>
     </row>
     <row r="8" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C8" s="62">
+      <c r="C8" s="61">
         <v>3</v>
       </c>
-      <c r="D8" s="63" t="s">
+      <c r="D8" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="63" t="s">
+      <c r="E8" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="64" t="s">
+      <c r="F8" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="64" t="s">
         <v>106</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="I8" s="66">
+      <c r="I8" s="65">
         <v>42144</v>
       </c>
-      <c r="J8" s="67"/>
-      <c r="K8" s="63" t="s">
+      <c r="J8" s="66"/>
+      <c r="K8" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="70"/>
+      <c r="L8" s="69"/>
     </row>
     <row r="9" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="62">
+      <c r="C9" s="61">
         <v>4</v>
       </c>
-      <c r="D9" s="63" t="s">
+      <c r="D9" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="63" t="s">
+      <c r="E9" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="65" t="s">
+      <c r="G9" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="H9" s="65"/>
-      <c r="I9" s="66">
+      <c r="H9" s="64"/>
+      <c r="I9" s="65">
         <v>42144</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="63" t="s">
+      <c r="J9" s="66"/>
+      <c r="K9" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="70"/>
+      <c r="L9" s="69"/>
     </row>
     <row r="10" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="62">
+      <c r="C10" s="61">
         <v>5</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="64" t="s">
+      <c r="F10" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="65" t="s">
+      <c r="G10" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="64" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="66">
+      <c r="I10" s="65">
         <v>42144</v>
       </c>
-      <c r="J10" s="67"/>
-      <c r="K10" s="63" t="s">
+      <c r="J10" s="66"/>
+      <c r="K10" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="70"/>
+      <c r="L10" s="69"/>
     </row>
     <row r="11" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C11" s="31">
@@ -5251,326 +5294,326 @@
         <v>108</v>
       </c>
       <c r="H11" s="35"/>
-      <c r="I11" s="87">
+      <c r="I11" s="86">
         <v>42148</v>
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
         <v>119</v>
       </c>
-      <c r="L11" s="88" t="s">
+      <c r="L11" s="87" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C12" s="62">
+      <c r="C12" s="61">
         <v>8</v>
       </c>
-      <c r="D12" s="63" t="s">
+      <c r="D12" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="63" t="s">
+      <c r="E12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F12" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="H12" s="65" t="s">
+      <c r="H12" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="66">
+      <c r="I12" s="65">
         <v>42148</v>
       </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="63" t="s">
+      <c r="J12" s="66"/>
+      <c r="K12" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="70"/>
+      <c r="L12" s="69"/>
     </row>
     <row r="13" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C13" s="62">
+      <c r="C13" s="61">
         <v>9</v>
       </c>
-      <c r="D13" s="63" t="s">
+      <c r="D13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="63" t="s">
+      <c r="E13" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F13" s="64" t="s">
+      <c r="F13" s="63" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="G13" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="H13" s="65" t="s">
+      <c r="H13" s="64" t="s">
         <v>109</v>
       </c>
-      <c r="I13" s="66">
+      <c r="I13" s="65">
         <v>42148</v>
       </c>
-      <c r="J13" s="67"/>
-      <c r="K13" s="63" t="s">
+      <c r="J13" s="66"/>
+      <c r="K13" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L13" s="70"/>
+      <c r="L13" s="69"/>
     </row>
     <row r="14" spans="2:12" ht="48" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C14" s="62">
+      <c r="C14" s="61">
         <v>10</v>
       </c>
-      <c r="D14" s="63" t="s">
+      <c r="D14" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="63" t="s">
+      <c r="E14" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="64" t="s">
+      <c r="F14" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="64" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="65" t="s">
+      <c r="H14" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I14" s="66">
+      <c r="I14" s="65">
         <v>42148</v>
       </c>
-      <c r="J14" s="67"/>
-      <c r="K14" s="63" t="s">
+      <c r="J14" s="66"/>
+      <c r="K14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="70"/>
+      <c r="L14" s="69"/>
     </row>
     <row r="15" spans="2:12" ht="33.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="62">
+      <c r="C15" s="61">
         <v>11</v>
       </c>
-      <c r="D15" s="63" t="s">
+      <c r="D15" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="63" t="s">
+      <c r="E15" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F15" s="64" t="s">
+      <c r="F15" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="64" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="65" t="s">
+      <c r="H15" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="I15" s="66">
+      <c r="I15" s="65">
         <v>42148</v>
       </c>
-      <c r="J15" s="67"/>
-      <c r="K15" s="63" t="s">
+      <c r="J15" s="66"/>
+      <c r="K15" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L15" s="70"/>
+      <c r="L15" s="69"/>
     </row>
     <row r="16" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="62">
+      <c r="C16" s="61">
         <v>12</v>
       </c>
-      <c r="D16" s="63" t="s">
+      <c r="D16" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="63" t="s">
+      <c r="E16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="64" t="s">
+      <c r="F16" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="G16" s="65" t="s">
+      <c r="G16" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="65" t="s">
+      <c r="H16" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="I16" s="66">
+      <c r="I16" s="65">
         <v>42148</v>
       </c>
-      <c r="J16" s="67"/>
-      <c r="K16" s="63" t="s">
+      <c r="J16" s="66"/>
+      <c r="K16" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L16" s="70" t="s">
+      <c r="L16" s="69" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="62">
+      <c r="C17" s="61">
         <v>13</v>
       </c>
-      <c r="D17" s="63" t="s">
+      <c r="D17" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="63" t="s">
+      <c r="E17" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="64" t="s">
+      <c r="F17" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="65" t="s">
+      <c r="G17" s="64" t="s">
         <v>120</v>
       </c>
-      <c r="H17" s="65" t="s">
+      <c r="H17" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="I17" s="66">
+      <c r="I17" s="65">
         <v>42148</v>
       </c>
-      <c r="J17" s="67"/>
-      <c r="K17" s="63" t="s">
+      <c r="J17" s="66"/>
+      <c r="K17" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="70"/>
+      <c r="L17" s="69"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="114">
+      <c r="C18" s="113">
         <v>14</v>
       </c>
-      <c r="D18" s="115" t="s">
+      <c r="D18" s="114" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="115" t="s">
+      <c r="E18" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="116" t="s">
+      <c r="F18" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="117" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="117" t="s">
+      <c r="G18" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="116" t="s">
         <v>112</v>
       </c>
-      <c r="I18" s="118" t="s">
+      <c r="I18" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="J18" s="118"/>
+      <c r="K18" s="114" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="119"/>
+    </row>
+    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="108">
+        <v>15</v>
+      </c>
+      <c r="D19" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" s="103" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="104" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="105" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="105" t="s">
         <v>182</v>
       </c>
-      <c r="J18" s="119"/>
-      <c r="K18" s="115" t="s">
+      <c r="I19" s="112">
+        <v>42166</v>
+      </c>
+      <c r="J19" s="106"/>
+      <c r="K19" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="107"/>
+    </row>
+    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="113">
+        <v>16</v>
+      </c>
+      <c r="D20" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="114" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="116" t="s">
+        <v>180</v>
+      </c>
+      <c r="H20" s="116" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="117" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="118"/>
+      <c r="K20" s="114" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="119" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="80">
+        <v>17</v>
+      </c>
+      <c r="D21" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="82" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>133</v>
+      </c>
+      <c r="H21" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="81" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" s="85"/>
+    </row>
+    <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="113">
+        <v>18</v>
+      </c>
+      <c r="D22" s="114" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="115" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="I22" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="118"/>
+      <c r="K22" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="120"/>
-    </row>
-    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="109">
-        <v>15</v>
-      </c>
-      <c r="D19" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="104" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="106" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="106" t="s">
-        <v>186</v>
-      </c>
-      <c r="I19" s="113">
-        <v>42166</v>
-      </c>
-      <c r="J19" s="107"/>
-      <c r="K19" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="108"/>
-    </row>
-    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="114">
-        <v>16</v>
-      </c>
-      <c r="D20" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="115" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="H20" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="118" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="119"/>
-      <c r="K20" s="115" t="s">
-        <v>177</v>
-      </c>
-      <c r="L20" s="120" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C21" s="81">
-        <v>17</v>
-      </c>
-      <c r="D21" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="83" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" s="84" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="84" t="s">
-        <v>134</v>
-      </c>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="L21" s="86"/>
-    </row>
-    <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="114">
-        <v>18</v>
-      </c>
-      <c r="D22" s="115" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="116" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="H22" s="117" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" s="118" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="119"/>
-      <c r="K22" s="115" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="120"/>
+      <c r="L22" s="119"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5586,7 +5629,7 @@
         <v>141</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H23" s="16" t="s">
         <v>142</v>
@@ -5594,10 +5637,10 @@
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="L23" s="71" t="s">
-        <v>150</v>
+        <v>173</v>
+      </c>
+      <c r="L23" s="70" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5614,7 +5657,7 @@
         <v>86</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>146</v>
@@ -5626,179 +5669,179 @@
       <c r="K24" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="71"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C25" s="18">
         <v>21</v>
       </c>
-      <c r="D25" s="103" t="s">
+      <c r="D25" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="104" t="s">
+      <c r="E25" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="106" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" s="106" t="s">
-        <v>167</v>
-      </c>
-      <c r="I25" s="113">
+      <c r="F25" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" s="105" t="s">
+        <v>183</v>
+      </c>
+      <c r="H25" s="105" t="s">
+        <v>164</v>
+      </c>
+      <c r="I25" s="112">
         <v>42166</v>
       </c>
-      <c r="J25" s="107"/>
-      <c r="K25" s="104" t="s">
+      <c r="J25" s="106"/>
+      <c r="K25" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="108" t="s">
-        <v>192</v>
+      <c r="L25" s="107" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>22</v>
       </c>
-      <c r="D26" s="103" t="s">
+      <c r="D26" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="104" t="s">
+      <c r="E26" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="G26" s="106" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="106"/>
-      <c r="I26" s="113">
+      <c r="F26" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" s="105" t="s">
+        <v>184</v>
+      </c>
+      <c r="H26" s="105"/>
+      <c r="I26" s="112">
         <v>42166</v>
       </c>
-      <c r="J26" s="107"/>
-      <c r="K26" s="104" t="s">
+      <c r="J26" s="106"/>
+      <c r="K26" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="108" t="s">
-        <v>193</v>
+      <c r="L26" s="107" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="103" t="s">
+      <c r="D27" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="104" t="s">
+      <c r="E27" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="105" t="s">
-        <v>171</v>
-      </c>
-      <c r="G27" s="106" t="s">
-        <v>178</v>
-      </c>
-      <c r="H27" s="106" t="s">
-        <v>170</v>
-      </c>
-      <c r="I27" s="113">
+      <c r="F27" s="104" t="s">
+        <v>167</v>
+      </c>
+      <c r="G27" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="105" t="s">
+        <v>166</v>
+      </c>
+      <c r="I27" s="112">
         <v>42166</v>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="104" t="s">
-        <v>177</v>
-      </c>
-      <c r="L27" s="108" t="s">
-        <v>185</v>
+      <c r="J27" s="106"/>
+      <c r="K27" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="L27" s="107" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="103" t="s">
+      <c r="D28" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="104" t="s">
+      <c r="E28" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="105" t="s">
+      <c r="F28" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="G28" s="105" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28" s="105" t="s">
         <v>169</v>
       </c>
-      <c r="G28" s="106" t="s">
-        <v>172</v>
-      </c>
-      <c r="H28" s="106" t="s">
-        <v>173</v>
-      </c>
-      <c r="I28" s="113">
+      <c r="I28" s="112">
         <v>42166</v>
       </c>
-      <c r="J28" s="107"/>
-      <c r="K28" s="104" t="s">
+      <c r="J28" s="106"/>
+      <c r="K28" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="L28" s="108" t="s">
-        <v>197</v>
+      <c r="L28" s="107" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
         <v>25</v>
       </c>
-      <c r="D29" s="103" t="s">
+      <c r="D29" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="104" t="s">
+      <c r="E29" s="103" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="105" t="s">
-        <v>189</v>
-      </c>
-      <c r="G29" s="106" t="s">
+      <c r="F29" s="104" t="s">
+        <v>185</v>
+      </c>
+      <c r="G29" s="105" t="s">
+        <v>186</v>
+      </c>
+      <c r="H29" s="105" t="s">
+        <v>187</v>
+      </c>
+      <c r="I29" s="112">
+        <v>42166</v>
+      </c>
+      <c r="J29" s="106"/>
+      <c r="K29" s="103" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="107" t="s">
         <v>190</v>
-      </c>
-      <c r="H29" s="106" t="s">
-        <v>191</v>
-      </c>
-      <c r="I29" s="113">
-        <v>42166</v>
-      </c>
-      <c r="J29" s="107"/>
-      <c r="K29" s="104" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="108" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
         <v>26</v>
       </c>
-      <c r="D30" s="103" t="s">
+      <c r="D30" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="104" t="s">
+      <c r="E30" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="105" t="s">
-        <v>201</v>
-      </c>
-      <c r="G30" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="H30" s="106" t="s">
-        <v>203</v>
+      <c r="F30" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="G30" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="H30" s="105" t="s">
+        <v>199</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>
       <c r="K30" s="14"/>
-      <c r="L30" s="71"/>
+      <c r="L30" s="70"/>
     </row>
     <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C31" s="18">
@@ -5812,7 +5855,7 @@
       <c r="I31" s="16"/>
       <c r="J31" s="5"/>
       <c r="K31" s="14"/>
-      <c r="L31" s="71"/>
+      <c r="L31" s="70"/>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">
@@ -5826,7 +5869,7 @@
       <c r="I32" s="16"/>
       <c r="J32" s="5"/>
       <c r="K32" s="14"/>
-      <c r="L32" s="71"/>
+      <c r="L32" s="70"/>
     </row>
     <row r="33" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
@@ -5840,7 +5883,7 @@
       <c r="I33" s="16"/>
       <c r="J33" s="5"/>
       <c r="K33" s="14"/>
-      <c r="L33" s="71"/>
+      <c r="L33" s="70"/>
     </row>
     <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
@@ -5854,7 +5897,7 @@
       <c r="I34" s="16"/>
       <c r="J34" s="5"/>
       <c r="K34" s="14"/>
-      <c r="L34" s="71"/>
+      <c r="L34" s="70"/>
     </row>
     <row r="35" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
@@ -5868,7 +5911,7 @@
       <c r="I35" s="16"/>
       <c r="J35" s="5"/>
       <c r="K35" s="14"/>
-      <c r="L35" s="71"/>
+      <c r="L35" s="70"/>
     </row>
     <row r="36" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
@@ -5882,7 +5925,7 @@
       <c r="I36" s="16"/>
       <c r="J36" s="5"/>
       <c r="K36" s="14"/>
-      <c r="L36" s="71"/>
+      <c r="L36" s="70"/>
     </row>
     <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
@@ -5896,7 +5939,7 @@
       <c r="I37" s="16"/>
       <c r="J37" s="5"/>
       <c r="K37" s="14"/>
-      <c r="L37" s="71"/>
+      <c r="L37" s="70"/>
     </row>
     <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
@@ -5910,7 +5953,7 @@
       <c r="I38" s="16"/>
       <c r="J38" s="5"/>
       <c r="K38" s="14"/>
-      <c r="L38" s="71"/>
+      <c r="L38" s="70"/>
     </row>
     <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
@@ -5924,7 +5967,7 @@
       <c r="I39" s="16"/>
       <c r="J39" s="5"/>
       <c r="K39" s="14"/>
-      <c r="L39" s="71"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
@@ -5938,7 +5981,7 @@
       <c r="I40" s="16"/>
       <c r="J40" s="5"/>
       <c r="K40" s="14"/>
-      <c r="L40" s="71"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
@@ -5952,7 +5995,7 @@
       <c r="I41" s="16"/>
       <c r="J41" s="5"/>
       <c r="K41" s="14"/>
-      <c r="L41" s="71"/>
+      <c r="L41" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="B5:L41">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="209">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,9 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修复</t>
-  </si>
-  <si>
     <t>相同合同号提醒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -380,9 +377,6 @@
     <t>挂起</t>
   </si>
   <si>
-    <t>开发中</t>
-  </si>
-  <si>
     <t>更多筛选</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -626,15 +620,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前验证还存在问题，下一版本进行对应，本版本制限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>随更新到额template一同对应了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面重新开发目前还存在问题，暂时制限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -793,59 +779,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>轴承选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承选择BMC后自动变为小写的bmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承都需要大写的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面最好也允许修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏数据清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于用户输入错误，导致我们的下拉列表中有好多脏数据。这些数据需要清理掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据有业务人员提供，更新时我通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面修改影响既有审批流，不建议修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>可由业务人员直接在数据库中清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承选择BMC后自动变为小写的bmc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承都需要大写的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核页面最好也允许修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏数据清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于用户输入错误，导致我们的下拉列表中有好多脏数据。这些数据需要清理掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据有业务人员提供，更新时我通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,7 +1143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1387,7 +1384,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="11" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1759,7 +1755,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1774,7 +1772,7 @@
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="91" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" style="96" customWidth="1"/>
+    <col min="14" max="14" width="6" style="95" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -1796,7 +1794,7 @@
     <row r="4" spans="1:19" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:19" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B5" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>7</v>
@@ -1817,21 +1815,21 @@
         <v>4</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
       <c r="K5" s="92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="97"/>
+      <c r="N5" s="96"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -1849,23 +1847,23 @@
         <v>14</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H6" s="27"/>
       <c r="I6" s="24"/>
       <c r="J6" s="28"/>
       <c r="K6" s="28"/>
       <c r="L6" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M6" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N6"/>
     </row>
@@ -1877,22 +1875,22 @@
         <v>2</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="120" t="s">
-        <v>204</v>
+        <v>198</v>
+      </c>
+      <c r="H7" s="119" t="s">
+        <v>199</v>
       </c>
       <c r="I7" s="39"/>
-      <c r="J7" s="94">
+      <c r="J7" s="100">
         <v>42166</v>
       </c>
       <c r="K7" s="50">
@@ -1900,10 +1898,10 @@
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="N7" s="98" t="s">
-        <v>157</v>
+        <v>206</v>
+      </c>
+      <c r="N7" s="97" t="s">
+        <v>205</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1920,16 +1918,16 @@
         <v>14</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="41" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="48">
@@ -1940,9 +1938,9 @@
       </c>
       <c r="L8" s="47"/>
       <c r="M8" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="98"/>
+        <v>90</v>
+      </c>
+      <c r="N8" s="97"/>
     </row>
     <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
@@ -1952,22 +1950,22 @@
         <v>2</v>
       </c>
       <c r="D9" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="F9" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="94">
+      <c r="J9" s="100">
         <v>42166</v>
       </c>
       <c r="K9" s="49">
@@ -1975,11 +1973,9 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="N9" s="99" t="s">
-        <v>155</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N9" s="98"/>
       <c r="O9" s="45">
         <v>2</v>
       </c>
@@ -1992,34 +1988,34 @@
         <v>2</v>
       </c>
       <c r="D10" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="39" t="s">
-        <v>21</v>
-      </c>
       <c r="F10" s="41" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="101">
+      <c r="J10" s="100">
         <v>42158</v>
       </c>
       <c r="K10" s="50">
         <v>0.4</v>
       </c>
       <c r="L10" s="47" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="M10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N10" s="99"/>
+        <v>90</v>
+      </c>
+      <c r="N10" s="98"/>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
@@ -2029,26 +2025,26 @@
         <v>2</v>
       </c>
       <c r="D11" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="32" t="s">
-        <v>21</v>
-      </c>
       <c r="F11" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="32"/>
       <c r="J11" s="36"/>
       <c r="K11" s="36"/>
       <c r="L11" s="38"/>
       <c r="M11" s="88" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="N11" s="90"/>
     </row>
@@ -2060,16 +2056,16 @@
         <v>2</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H12" s="55"/>
       <c r="I12" s="52"/>
@@ -2081,7 +2077,7 @@
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N12" s="89"/>
     </row>
@@ -2093,26 +2089,26 @@
         <v>2</v>
       </c>
       <c r="D13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="41" t="s">
-        <v>40</v>
-      </c>
       <c r="G13" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I13" s="39"/>
       <c r="J13" s="37"/>
       <c r="K13" s="49"/>
       <c r="L13" s="47"/>
       <c r="M13" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -2123,19 +2119,19 @@
         <v>2</v>
       </c>
       <c r="D14" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I14" s="39"/>
       <c r="J14" s="48">
@@ -2146,9 +2142,9 @@
       </c>
       <c r="L14" s="47"/>
       <c r="M14" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N14" s="100"/>
+        <v>90</v>
+      </c>
+      <c r="N14" s="99"/>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="51">
@@ -2158,16 +2154,16 @@
         <v>2</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E15" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="54" t="s">
         <v>44</v>
-      </c>
-      <c r="G15" s="54" t="s">
-        <v>45</v>
       </c>
       <c r="H15" s="55"/>
       <c r="I15" s="52"/>
@@ -2179,10 +2175,10 @@
       </c>
       <c r="L15" s="58"/>
       <c r="M15" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16" s="40">
         <v>11</v>
       </c>
@@ -2190,32 +2186,30 @@
         <v>2</v>
       </c>
       <c r="D16" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H16" s="42"/>
       <c r="I16" s="39"/>
-      <c r="J16" s="71">
-        <v>42166</v>
-      </c>
+      <c r="J16" s="71"/>
       <c r="K16" s="50">
         <v>0.1</v>
       </c>
       <c r="L16" s="47"/>
       <c r="M16" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N16" s="100"/>
-    </row>
-    <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="N16" s="99"/>
+    </row>
+    <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
         <v>12</v>
       </c>
@@ -2223,30 +2217,28 @@
         <v>2</v>
       </c>
       <c r="D17" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
-      <c r="J17" s="71">
-        <v>42166</v>
-      </c>
+      <c r="J17" s="71"/>
       <c r="K17" s="49">
         <v>0.3</v>
       </c>
       <c r="L17" s="47"/>
       <c r="M17" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="100"/>
+        <v>18</v>
+      </c>
+      <c r="N17" s="99"/>
     </row>
     <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="51">
@@ -2256,16 +2248,16 @@
         <v>2</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="52" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F18" s="53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H18" s="55"/>
       <c r="I18" s="52"/>
@@ -2277,7 +2269,7 @@
       </c>
       <c r="L18" s="58"/>
       <c r="M18" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2288,16 +2280,16 @@
         <v>2</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E19" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" s="54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H19" s="55"/>
       <c r="I19" s="52"/>
@@ -2309,7 +2301,7 @@
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2320,16 +2312,16 @@
         <v>2</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E20" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="54" t="s">
         <v>52</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>53</v>
       </c>
       <c r="H20" s="55"/>
       <c r="I20" s="52"/>
@@ -2341,7 +2333,7 @@
       </c>
       <c r="L20" s="58"/>
       <c r="M20" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2352,19 +2344,19 @@
         <v>2</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E21" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="54" t="s">
-        <v>57</v>
-      </c>
       <c r="H21" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I21" s="52"/>
       <c r="J21" s="56">
@@ -2375,7 +2367,7 @@
       </c>
       <c r="L21" s="58"/>
       <c r="M21" s="59" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:15" s="45" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2386,26 +2378,26 @@
         <v>2</v>
       </c>
       <c r="D22" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="F22" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="46" t="s">
+      <c r="H22" s="42" t="s">
         <v>61</v>
-      </c>
-      <c r="H22" s="42" t="s">
-        <v>62</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="37"/>
       <c r="K22" s="50"/>
       <c r="L22" s="47"/>
       <c r="M22" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2419,16 +2411,16 @@
         <v>14</v>
       </c>
       <c r="E23" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="48">
@@ -2439,11 +2431,11 @@
       </c>
       <c r="L23" s="47"/>
       <c r="M23" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="100"/>
-    </row>
-    <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+      <c r="N23" s="99"/>
+    </row>
+    <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
         <v>19</v>
       </c>
@@ -2451,30 +2443,28 @@
         <v>2</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
-      <c r="J24" s="71">
-        <v>42166</v>
-      </c>
+      <c r="J24" s="71"/>
       <c r="K24" s="50">
         <v>0.2</v>
       </c>
       <c r="L24" s="47"/>
       <c r="M24" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N24" s="100"/>
+        <v>18</v>
+      </c>
+      <c r="N24" s="99"/>
     </row>
     <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="51">
@@ -2484,19 +2474,19 @@
         <v>2</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G25" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="H25" s="55" t="s">
         <v>72</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>73</v>
       </c>
       <c r="I25" s="52"/>
       <c r="J25" s="56">
@@ -2507,10 +2497,10 @@
       </c>
       <c r="L25" s="58"/>
       <c r="M25" s="59" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" s="45" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26" s="40">
         <v>21</v>
       </c>
@@ -2518,32 +2508,30 @@
         <v>2</v>
       </c>
       <c r="D26" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I26" s="39"/>
-      <c r="J26" s="71">
-        <v>42166</v>
-      </c>
+      <c r="J26" s="71"/>
       <c r="K26" s="50">
         <v>0.2</v>
       </c>
       <c r="L26" s="47"/>
       <c r="M26" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="N26" s="100"/>
+        <v>18</v>
+      </c>
+      <c r="N26" s="99"/>
     </row>
     <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
@@ -2553,16 +2541,16 @@
         <v>2</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F27" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>79</v>
-      </c>
-      <c r="G27" s="46" t="s">
-        <v>80</v>
       </c>
       <c r="H27" s="42"/>
       <c r="I27" s="39"/>
@@ -2574,9 +2562,9 @@
       </c>
       <c r="L27" s="47"/>
       <c r="M27" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="N27" s="100"/>
+        <v>90</v>
+      </c>
+      <c r="N27" s="99"/>
     </row>
     <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2586,16 +2574,16 @@
         <v>2</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="F28" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G28" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H28" s="16"/>
       <c r="I28" s="14"/>
@@ -2607,7 +2595,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2621,20 +2609,20 @@
         <v>2</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="95">
+      <c r="J29" s="94">
         <v>42158</v>
       </c>
       <c r="K29" s="93">
@@ -2642,10 +2630,10 @@
       </c>
       <c r="L29" s="22"/>
       <c r="M29" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="N29" s="96" t="s">
-        <v>156</v>
+        <v>90</v>
+      </c>
+      <c r="N29" s="95" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2656,16 +2644,16 @@
         <v>2</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H30" s="16"/>
       <c r="I30" s="14"/>
@@ -2677,7 +2665,7 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2691,19 +2679,19 @@
         <v>2</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="F31" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="71">
@@ -2714,7 +2702,7 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2728,16 +2716,16 @@
         <v>2</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H32" s="16"/>
       <c r="I32" s="14"/>
@@ -2749,7 +2737,7 @@
       </c>
       <c r="L32" s="22"/>
       <c r="M32" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -2760,19 +2748,19 @@
         <v>2</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H33" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I33" s="14"/>
       <c r="J33" s="71">
@@ -2783,7 +2771,7 @@
       </c>
       <c r="L33" s="22"/>
       <c r="M33" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -2800,13 +2788,13 @@
         <v>15</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H34" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I34" s="14"/>
       <c r="J34" s="71">
@@ -2817,35 +2805,37 @@
       </c>
       <c r="L34" s="22"/>
       <c r="M34" s="17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="108">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="107">
         <v>31</v>
       </c>
-      <c r="C35" s="108">
-        <v>2</v>
-      </c>
-      <c r="D35" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="G35" s="109" t="s">
-        <v>171</v>
-      </c>
-      <c r="H35" s="105"/>
-      <c r="I35" s="103"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="110"/>
-      <c r="M35" s="111" t="s">
-        <v>19</v>
+      <c r="C35" s="107">
+        <v>2</v>
+      </c>
+      <c r="D35" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="103" t="s">
+        <v>166</v>
+      </c>
+      <c r="G35" s="108" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35" s="104"/>
+      <c r="I35" s="102"/>
+      <c r="J35" s="105"/>
+      <c r="K35" s="105">
+        <v>0</v>
+      </c>
+      <c r="L35" s="109"/>
+      <c r="M35" s="110" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
@@ -2856,16 +2846,16 @@
         <v>2</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
@@ -2877,93 +2867,101 @@
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>33</v>
       </c>
-      <c r="C37" s="108">
-        <v>2</v>
-      </c>
-      <c r="D37" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="104" t="s">
+      <c r="C37" s="107">
+        <v>2</v>
+      </c>
+      <c r="D37" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="108" t="s">
+        <v>208</v>
+      </c>
+      <c r="H37" s="104"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="105"/>
+      <c r="K37" s="105" t="s">
+        <v>86</v>
+      </c>
+      <c r="L37" s="109"/>
+      <c r="M37" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="107">
+        <v>34</v>
+      </c>
+      <c r="C38" s="107">
+        <v>2</v>
+      </c>
+      <c r="D38" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="103" t="s">
         <v>195</v>
       </c>
-      <c r="G37" s="109" t="s">
+      <c r="G38" s="108" t="s">
         <v>196</v>
       </c>
-      <c r="H37" s="105"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="110"/>
-      <c r="M37" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="108">
-        <v>34</v>
-      </c>
-      <c r="C38" s="108">
-        <v>2</v>
-      </c>
-      <c r="D38" s="103" t="s">
-        <v>20</v>
-      </c>
-      <c r="E38" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="104" t="s">
-        <v>200</v>
-      </c>
-      <c r="G38" s="109" t="s">
-        <v>201</v>
-      </c>
-      <c r="H38" s="105" t="s">
-        <v>202</v>
-      </c>
-      <c r="I38" s="103"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="110"/>
-      <c r="M38" s="111" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="H38" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" s="102"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="105">
+        <v>0.3</v>
+      </c>
+      <c r="L38" s="109"/>
+      <c r="M38" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
-      <c r="C39" s="108">
-        <v>2</v>
-      </c>
-      <c r="D39" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="E39" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="104" t="s">
-        <v>207</v>
-      </c>
-      <c r="G39" s="109" t="s">
-        <v>208</v>
-      </c>
-      <c r="H39" s="105" t="s">
-        <v>209</v>
+      <c r="C39" s="107">
+        <v>2</v>
+      </c>
+      <c r="D39" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="103" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="108" t="s">
+        <v>203</v>
+      </c>
+      <c r="H39" s="104" t="s">
+        <v>204</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="22"/>
+      <c r="K39" s="105">
+        <v>0</v>
+      </c>
+      <c r="L39" s="109" t="s">
+        <v>207</v>
+      </c>
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -5058,10 +5056,16 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
+    <filterColumn colId="3">
+      <filters blank="1">
+        <filter val="高"/>
+        <filter val="中"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
-        <filter val="开发中"/>
         <filter val="未开始"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5087,7 +5091,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5127,16 +5133,16 @@
         <v>13</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L5" s="68" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -5144,26 +5150,26 @@
         <v>1</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="H6" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="64" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J6" s="66"/>
       <c r="K6" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="69"/>
     </row>
@@ -5172,26 +5178,26 @@
         <v>2</v>
       </c>
       <c r="D7" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="74" t="s">
-        <v>21</v>
-      </c>
       <c r="F7" s="73" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="75" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="75" t="s">
-        <v>42</v>
-      </c>
       <c r="I7" s="76" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J7" s="77"/>
       <c r="K7" s="74" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="78"/>
     </row>
@@ -5200,26 +5206,26 @@
         <v>3</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G8" s="64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H8" s="64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="65">
         <v>42144</v>
       </c>
       <c r="J8" s="66"/>
       <c r="K8" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L8" s="69"/>
     </row>
@@ -5228,16 +5234,16 @@
         <v>4</v>
       </c>
       <c r="D9" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="64" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="64"/>
       <c r="I9" s="65">
@@ -5245,7 +5251,7 @@
       </c>
       <c r="J9" s="66"/>
       <c r="K9" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L9" s="69"/>
     </row>
@@ -5254,26 +5260,26 @@
         <v>5</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="63" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="64" t="s">
         <v>81</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>82</v>
       </c>
       <c r="I10" s="65">
         <v>42144</v>
       </c>
       <c r="J10" s="66"/>
       <c r="K10" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L10" s="69"/>
     </row>
@@ -5282,16 +5288,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H11" s="35"/>
       <c r="I11" s="86">
@@ -5299,10 +5305,10 @@
       </c>
       <c r="J11" s="36"/>
       <c r="K11" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L11" s="87" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5310,26 +5316,26 @@
         <v>8</v>
       </c>
       <c r="D12" s="62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G12" s="64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H12" s="64" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I12" s="65">
         <v>42148</v>
       </c>
       <c r="J12" s="66"/>
       <c r="K12" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="69"/>
     </row>
@@ -5338,26 +5344,26 @@
         <v>9</v>
       </c>
       <c r="D13" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E13" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="63" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G13" s="64" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H13" s="64" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="65">
         <v>42148</v>
       </c>
       <c r="J13" s="66"/>
       <c r="K13" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="69"/>
     </row>
@@ -5366,26 +5372,26 @@
         <v>10</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F14" s="63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" s="64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H14" s="64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I14" s="65">
         <v>42148</v>
       </c>
       <c r="J14" s="66"/>
       <c r="K14" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L14" s="69"/>
     </row>
@@ -5394,26 +5400,26 @@
         <v>11</v>
       </c>
       <c r="D15" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G15" s="64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H15" s="64" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I15" s="65">
         <v>42148</v>
       </c>
       <c r="J15" s="66"/>
       <c r="K15" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L15" s="69"/>
     </row>
@@ -5422,29 +5428,29 @@
         <v>12</v>
       </c>
       <c r="D16" s="62" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="63" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G16" s="64" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H16" s="64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I16" s="65">
         <v>42148</v>
       </c>
       <c r="J16" s="66"/>
       <c r="K16" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="54" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -5452,113 +5458,113 @@
         <v>13</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E17" s="62" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="63" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G17" s="64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H17" s="64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I17" s="65">
         <v>42148</v>
       </c>
       <c r="J17" s="66"/>
       <c r="K17" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L17" s="69"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="113">
+      <c r="C18" s="112">
         <v>14</v>
       </c>
-      <c r="D18" s="114" t="s">
+      <c r="D18" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="113" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="114" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="115" t="s">
+      <c r="F18" s="114" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="115" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="115" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="116" t="s">
+        <v>174</v>
+      </c>
+      <c r="J18" s="117"/>
+      <c r="K18" s="113" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="118"/>
+    </row>
+    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="107">
+        <v>15</v>
+      </c>
+      <c r="D19" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="103" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="116" t="s">
-        <v>158</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="117" t="s">
+      <c r="G19" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="104" t="s">
         <v>178</v>
       </c>
-      <c r="J18" s="118"/>
-      <c r="K18" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="L18" s="119"/>
-    </row>
-    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="108">
+      <c r="I19" s="111">
+        <v>42166</v>
+      </c>
+      <c r="J19" s="105"/>
+      <c r="K19" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L19" s="106"/>
+    </row>
+    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="112">
+        <v>16</v>
+      </c>
+      <c r="D20" s="113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="104" t="s">
-        <v>101</v>
-      </c>
-      <c r="G19" s="105" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="105" t="s">
-        <v>182</v>
-      </c>
-      <c r="I19" s="112">
-        <v>42166</v>
-      </c>
-      <c r="J19" s="106"/>
-      <c r="K19" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="107"/>
-    </row>
-    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="113">
-        <v>16</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="114" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="115" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="I20" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="118"/>
-      <c r="K20" s="114" t="s">
+      <c r="F20" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="115" t="s">
+        <v>176</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="J20" s="117"/>
+      <c r="K20" s="113" t="s">
+        <v>169</v>
+      </c>
+      <c r="L20" s="118" t="s">
         <v>173</v>
-      </c>
-      <c r="L20" s="119" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5572,75 +5578,75 @@
         <v>15</v>
       </c>
       <c r="F21" s="82" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" s="83" t="s">
         <v>132</v>
-      </c>
-      <c r="G21" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="H21" s="83" t="s">
-        <v>134</v>
       </c>
       <c r="I21" s="83"/>
       <c r="J21" s="84"/>
       <c r="K21" s="81" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="113">
+      <c r="C22" s="112">
         <v>18</v>
       </c>
-      <c r="D22" s="114" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" s="114" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="115" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="H22" s="116" t="s">
-        <v>176</v>
-      </c>
-      <c r="I22" s="117" t="s">
+      <c r="D22" s="113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="114" t="s">
+        <v>135</v>
+      </c>
+      <c r="G22" s="115" t="s">
+        <v>171</v>
+      </c>
+      <c r="H22" s="115" t="s">
+        <v>172</v>
+      </c>
+      <c r="I22" s="116" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="117"/>
+      <c r="K22" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="J22" s="118"/>
-      <c r="K22" s="114" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="119"/>
+      <c r="L22" s="118"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>19</v>
       </c>
       <c r="D23" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G23" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="L23" s="70" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5648,26 +5654,26 @@
         <v>20</v>
       </c>
       <c r="D24" s="39" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I24" s="44">
         <v>42158</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="70"/>
     </row>
@@ -5675,168 +5681,168 @@
       <c r="C25" s="18">
         <v>21</v>
       </c>
-      <c r="D25" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E25" s="103" t="s">
+      <c r="D25" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="105" t="s">
-        <v>183</v>
-      </c>
-      <c r="H25" s="105" t="s">
-        <v>164</v>
-      </c>
-      <c r="I25" s="112">
+      <c r="F25" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="104" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" s="111">
         <v>42166</v>
       </c>
-      <c r="J25" s="106"/>
-      <c r="K25" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="L25" s="107" t="s">
-        <v>188</v>
+      <c r="J25" s="105"/>
+      <c r="K25" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L25" s="106" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C26" s="18">
         <v>22</v>
       </c>
-      <c r="D26" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" s="103" t="s">
+      <c r="D26" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="104" t="s">
-        <v>163</v>
-      </c>
-      <c r="G26" s="105" t="s">
-        <v>184</v>
-      </c>
-      <c r="H26" s="105"/>
-      <c r="I26" s="112">
+      <c r="F26" s="103" t="s">
+        <v>159</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="104"/>
+      <c r="I26" s="111">
         <v>42166</v>
       </c>
-      <c r="J26" s="106"/>
-      <c r="K26" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="L26" s="107" t="s">
-        <v>189</v>
+      <c r="J26" s="105"/>
+      <c r="K26" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L26" s="106" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="103" t="s">
+      <c r="D27" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="104" t="s">
-        <v>167</v>
-      </c>
-      <c r="G27" s="105" t="s">
-        <v>174</v>
-      </c>
-      <c r="H27" s="105" t="s">
-        <v>166</v>
-      </c>
-      <c r="I27" s="112">
+      <c r="F27" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="G27" s="104" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="I27" s="111">
         <v>42166</v>
       </c>
-      <c r="J27" s="106"/>
-      <c r="K27" s="103" t="s">
-        <v>173</v>
-      </c>
-      <c r="L27" s="107" t="s">
-        <v>181</v>
+      <c r="J27" s="105"/>
+      <c r="K27" s="102" t="s">
+        <v>169</v>
+      </c>
+      <c r="L27" s="106" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="103" t="s">
+      <c r="D28" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="104" t="s">
+      <c r="F28" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="G28" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="H28" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="G28" s="105" t="s">
-        <v>168</v>
-      </c>
-      <c r="H28" s="105" t="s">
-        <v>169</v>
-      </c>
-      <c r="I28" s="112">
+      <c r="I28" s="111">
         <v>42166</v>
       </c>
-      <c r="J28" s="106"/>
-      <c r="K28" s="103" t="s">
-        <v>119</v>
-      </c>
-      <c r="L28" s="107" t="s">
-        <v>193</v>
+      <c r="J28" s="105"/>
+      <c r="K28" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="L28" s="106" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="18">
         <v>25</v>
       </c>
-      <c r="D29" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="103" t="s">
+      <c r="D29" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="G29" s="105" t="s">
+      <c r="F29" s="103" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="H29" s="104" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="111">
+        <v>42166</v>
+      </c>
+      <c r="J29" s="105"/>
+      <c r="K29" s="102" t="s">
+        <v>206</v>
+      </c>
+      <c r="L29" s="106" t="s">
         <v>186</v>
-      </c>
-      <c r="H29" s="105" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="112">
-        <v>42166</v>
-      </c>
-      <c r="J29" s="106"/>
-      <c r="K29" s="103" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="107" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C30" s="18">
         <v>26</v>
       </c>
-      <c r="D30" s="102" t="s">
-        <v>20</v>
-      </c>
-      <c r="E30" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="105" t="s">
-        <v>198</v>
-      </c>
-      <c r="H30" s="105" t="s">
-        <v>199</v>
+      <c r="D30" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="103" t="s">
+        <v>192</v>
+      </c>
+      <c r="G30" s="104" t="s">
+        <v>193</v>
+      </c>
+      <c r="H30" s="104" t="s">
+        <v>194</v>
       </c>
       <c r="I30" s="16"/>
       <c r="J30" s="5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="214">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -757,6 +757,85 @@
   </si>
   <si>
     <t>排序（重新整理）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板问题，已经确认并修改模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电压显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承选择BMC后自动变为小写的bmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轴承都需要大写的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面最好也允许修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格最好支持复制功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脏数据清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于用户输入错误，导致我们的下拉列表中有好多脏数据。这些数据需要清理掉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据有业务人员提供，更新时我通知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面修改影响既有审批流，不建议修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>可由业务人员直接在数据库中清理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -767,82 +846,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板问题，已经确认并修改模板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划的排产中需要增加一个磁钢的下拉框，里面的值目前只写Z就行，后续可能还会增加别的值。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电压显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承选择BMC后自动变为小写的bmc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>轴承都需要大写的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核页面最好也允许修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格最好支持复制功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合同号等重要信息需要显示完全，或者用Tooltips显示，目前仍然不全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>脏数据清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由于用户输入错误，导致我们的下拉列表中有好多脏数据。这些数据需要清理掉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据有业务人员提供，更新时我通知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核页面修改影响既有审批流，不建议修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
-  </si>
-  <si>
-    <t>可由业务人员直接在数据库中清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
+    <t>磁钢显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售信息审核时，数据和表头无法对应，串了一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发布时发现的，下一版本修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复中</t>
+  </si>
+  <si>
+    <t>方案已通过demo验证可行，不过需要实装到产品中，需要时间，下一版本对应</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1143,7 +1162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1447,6 +1466,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,8 +1795,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1884,10 +1924,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="119" t="s">
         <v>198</v>
-      </c>
-      <c r="H7" s="119" t="s">
-        <v>199</v>
       </c>
       <c r="I7" s="39"/>
       <c r="J7" s="100">
@@ -1898,10 +1938,10 @@
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -1959,7 +1999,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>77</v>
@@ -1973,7 +2013,7 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N9" s="98"/>
       <c r="O9" s="45">
@@ -2226,7 +2266,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2452,7 +2492,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2595,7 +2635,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2665,7 +2705,7 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2702,7 +2742,7 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2855,7 +2895,7 @@
         <v>187</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
@@ -2867,7 +2907,7 @@
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2884,10 +2924,10 @@
         <v>32</v>
       </c>
       <c r="F37" s="103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G37" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="102"/>
@@ -2914,13 +2954,13 @@
         <v>15</v>
       </c>
       <c r="F38" s="103" t="s">
+        <v>194</v>
+      </c>
+      <c r="G38" s="108" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="108" t="s">
+      <c r="H38" s="104" t="s">
         <v>196</v>
-      </c>
-      <c r="H38" s="104" t="s">
-        <v>197</v>
       </c>
       <c r="I38" s="102"/>
       <c r="J38" s="105"/>
@@ -2946,13 +2986,13 @@
         <v>32</v>
       </c>
       <c r="F39" s="103" t="s">
+        <v>201</v>
+      </c>
+      <c r="G39" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="H39" s="104" t="s">
         <v>203</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>204</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
@@ -2960,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="109" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -5092,7 +5132,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5509,33 +5549,33 @@
       </c>
       <c r="L18" s="118"/>
     </row>
-    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="107">
+    <row r="19" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="C19" s="120">
         <v>15</v>
       </c>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="103" t="s">
+      <c r="F19" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="124" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="104" t="s">
+      <c r="H19" s="124" t="s">
         <v>178</v>
       </c>
-      <c r="I19" s="111">
-        <v>42166</v>
-      </c>
-      <c r="J19" s="105"/>
-      <c r="K19" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="L19" s="106"/>
+      <c r="I19" s="125"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="122" t="s">
+        <v>212</v>
+      </c>
+      <c r="L19" s="106" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C20" s="112">
@@ -5678,60 +5718,60 @@
       <c r="L24" s="70"/>
     </row>
     <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C25" s="18">
+      <c r="C25" s="120">
         <v>21</v>
       </c>
-      <c r="D25" s="101" t="s">
+      <c r="D25" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="103" t="s">
+      <c r="F25" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="124" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="104" t="s">
+      <c r="H25" s="124" t="s">
         <v>160</v>
       </c>
-      <c r="I25" s="111">
+      <c r="I25" s="125">
         <v>42166</v>
       </c>
-      <c r="J25" s="105"/>
-      <c r="K25" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="L25" s="106" t="s">
+      <c r="J25" s="93"/>
+      <c r="K25" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" s="126" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C26" s="18">
+      <c r="C26" s="120">
         <v>22</v>
       </c>
-      <c r="D26" s="101" t="s">
+      <c r="D26" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="103" t="s">
+      <c r="F26" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="124" t="s">
         <v>180</v>
       </c>
-      <c r="H26" s="104"/>
-      <c r="I26" s="111">
+      <c r="H26" s="124"/>
+      <c r="I26" s="125">
         <v>42166</v>
       </c>
-      <c r="J26" s="105"/>
-      <c r="K26" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="L26" s="106" t="s">
+      <c r="J26" s="93"/>
+      <c r="K26" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" s="126" t="s">
         <v>185</v>
       </c>
     </row>
@@ -5792,41 +5832,41 @@
         <v>117</v>
       </c>
       <c r="L28" s="106" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="18">
+      <c r="C29" s="120">
         <v>25</v>
       </c>
-      <c r="D29" s="101" t="s">
+      <c r="D29" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="102" t="s">
+      <c r="E29" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="103" t="s">
+      <c r="F29" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="104" t="s">
+      <c r="G29" s="124" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="104" t="s">
+      <c r="H29" s="124" t="s">
         <v>183</v>
       </c>
-      <c r="I29" s="111">
+      <c r="I29" s="125">
         <v>42166</v>
       </c>
-      <c r="J29" s="105"/>
-      <c r="K29" s="102" t="s">
-        <v>206</v>
-      </c>
-      <c r="L29" s="106" t="s">
+      <c r="J29" s="93"/>
+      <c r="K29" s="122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="126" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C30" s="18">
+      <c r="C30" s="107">
         <v>26</v>
       </c>
       <c r="D30" s="101" t="s">
@@ -5836,32 +5876,42 @@
         <v>32</v>
       </c>
       <c r="F30" s="103" t="s">
+        <v>191</v>
+      </c>
+      <c r="G30" s="104" t="s">
         <v>192</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="H30" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="H30" s="104" t="s">
-        <v>194</v>
-      </c>
-      <c r="I30" s="16"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="70"/>
-    </row>
-    <row r="31" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C31" s="18">
+      <c r="I30" s="104"/>
+      <c r="J30" s="105"/>
+      <c r="K30" s="102"/>
+      <c r="L30" s="106"/>
+    </row>
+    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C31" s="107">
         <v>27</v>
       </c>
-      <c r="D31" s="39"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="70"/>
+      <c r="D31" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="103" t="s">
+        <v>209</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="104"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="102"/>
+      <c r="L31" s="106" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C32" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="225">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -797,10 +797,6 @@
   </si>
   <si>
     <t>点击通过审核的按钮后，也需要把选中项目显示出来，与销售页面和计划页面的修改类似，点击确认后通过审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核页面最好也允许修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -850,18 +846,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>发布时发现的，下一版本修正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复中</t>
+  </si>
+  <si>
+    <t>方案已通过demo验证可行，不过需要实装到产品中，需要时间，下一版本对应</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核页面也需要可以修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加一个包装计划导出按钮，可以根据包装计划的模板导出包装计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将导出数据与表格设置连接起来。表格设置中去掉的列不被导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划和数据导出后需要能够合并单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>销售信息审核时，数据和表头无法对应，串了一个位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发布时发现的，下一版本修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复中</t>
-  </si>
-  <si>
-    <t>方案已通过demo验证可行，不过需要实装到产品中，需要时间，下一版本对应</t>
+    <t>非项目需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板详见《2015年包装计划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板参见《数据导出模板-客户与备注信息.xlsx》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户想要从数据库中导出目前每一个客户针对不同型号的相关信息，并按照客户名和规格型号排序。规格型号只要型号，不需要梯速和吨位。另外结果需要去重。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1162,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1486,6 +1530,24 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1796,7 +1858,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1926,9 +1988,7 @@
       <c r="G7" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="H7" s="119" t="s">
-        <v>198</v>
-      </c>
+      <c r="H7" s="119"/>
       <c r="I7" s="39"/>
       <c r="J7" s="100">
         <v>42166</v>
@@ -1938,10 +1998,10 @@
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N7" s="97" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O7" s="45">
         <v>1</v>
@@ -2013,7 +2073,7 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N9" s="98"/>
       <c r="O9" s="45">
@@ -2266,7 +2326,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2492,7 +2552,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2635,7 +2695,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2705,7 +2765,7 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2742,7 +2802,7 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2895,7 +2955,7 @@
         <v>187</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
@@ -2907,7 +2967,7 @@
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2927,7 +2987,7 @@
         <v>190</v>
       </c>
       <c r="G37" s="108" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="102"/>
@@ -2986,13 +3046,13 @@
         <v>32</v>
       </c>
       <c r="F39" s="103" t="s">
+        <v>200</v>
+      </c>
+      <c r="G39" s="108" t="s">
         <v>201</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="H39" s="104" t="s">
         <v>202</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>203</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
@@ -3000,99 +3060,153 @@
         <v>0</v>
       </c>
       <c r="L39" s="109" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="18">
+      <c r="B40" s="107">
         <v>36</v>
       </c>
-      <c r="C40" s="18">
-        <v>2</v>
-      </c>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="93"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="17"/>
-    </row>
-    <row r="41" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B41" s="18">
+      <c r="C40" s="107">
+        <v>2</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" s="128" t="s">
+        <v>212</v>
+      </c>
+      <c r="H40" s="119"/>
+      <c r="I40" s="102"/>
+      <c r="J40" s="105"/>
+      <c r="K40" s="105"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="107">
         <v>37</v>
       </c>
-      <c r="C41" s="18">
-        <v>2</v>
-      </c>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="93"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="17"/>
-    </row>
-    <row r="42" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B42" s="18">
+      <c r="C41" s="107">
+        <v>2</v>
+      </c>
+      <c r="D41" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="G41" s="108" t="s">
+        <v>214</v>
+      </c>
+      <c r="H41" s="104" t="s">
+        <v>222</v>
+      </c>
+      <c r="I41" s="102"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="109"/>
+      <c r="M41" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="107">
         <v>38</v>
       </c>
-      <c r="C42" s="18">
-        <v>2</v>
-      </c>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="93"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="17"/>
-    </row>
-    <row r="43" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B43" s="18">
+      <c r="C42" s="107">
+        <v>2</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="103" t="s">
+        <v>217</v>
+      </c>
+      <c r="G42" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="H42" s="104"/>
+      <c r="I42" s="102"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="109"/>
+      <c r="M42" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="107">
         <v>39</v>
       </c>
-      <c r="C43" s="18">
-        <v>2</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="93"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="17"/>
-    </row>
-    <row r="44" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C43" s="107">
+        <v>2</v>
+      </c>
+      <c r="D43" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F43" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G43" s="108" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="104"/>
+      <c r="I43" s="102"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="109"/>
+      <c r="M43" s="110" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>40</v>
       </c>
       <c r="C44" s="18">
         <v>2</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="16"/>
+      <c r="D44" s="129" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="130" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="129" t="s">
+        <v>221</v>
+      </c>
+      <c r="G44" s="131" t="s">
+        <v>224</v>
+      </c>
+      <c r="H44" s="132" t="s">
+        <v>223</v>
+      </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
       <c r="K44" s="93"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="17"/>
+      <c r="M44" s="17" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="45" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
@@ -5111,7 +5225,7 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43 D45:D159">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M159">
@@ -5132,7 +5246,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5571,10 +5685,10 @@
       <c r="I19" s="125"/>
       <c r="J19" s="93"/>
       <c r="K19" s="122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L19" s="106" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -5741,7 +5855,7 @@
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L25" s="126" t="s">
         <v>184</v>
@@ -5769,7 +5883,7 @@
       </c>
       <c r="J26" s="93"/>
       <c r="K26" s="122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L26" s="126" t="s">
         <v>185</v>
@@ -5859,7 +5973,7 @@
       </c>
       <c r="J29" s="93"/>
       <c r="K29" s="122" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="L29" s="126" t="s">
         <v>186</v>
@@ -5900,17 +6014,17 @@
         <v>15</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="104"/>
       <c r="J31" s="105"/>
       <c r="K31" s="102"/>
       <c r="L31" s="106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -820,10 +820,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核页面修改影响既有审批流，不建议修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>验证中</t>
   </si>
   <si>
@@ -906,6 +902,10 @@
   </si>
   <si>
     <t>客户想要从数据库中导出目前每一个客户针对不同型号的相关信息，并按照客户名和规格型号排序。规格型号只要型号，不需要梯速和吨位。另外结果需要去重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1857,8 +1857,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1998,11 +1998,9 @@
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="N7" s="97" t="s">
         <v>203</v>
       </c>
+      <c r="N7" s="97"/>
       <c r="O7" s="45">
         <v>1</v>
       </c>
@@ -2073,7 +2071,7 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N9" s="98"/>
       <c r="O9" s="45">
@@ -2695,7 +2693,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2765,7 +2763,7 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2802,7 +2800,7 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2955,7 +2953,7 @@
         <v>187</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="14"/>
@@ -2967,7 +2965,7 @@
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2987,7 +2985,7 @@
         <v>190</v>
       </c>
       <c r="G37" s="108" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="102"/>
@@ -3025,7 +3023,7 @@
       <c r="I38" s="102"/>
       <c r="J38" s="105"/>
       <c r="K38" s="105">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="L38" s="109"/>
       <c r="M38" s="110" t="s">
@@ -3060,7 +3058,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M39" s="17"/>
     </row>
@@ -3081,12 +3079,14 @@
         <v>26</v>
       </c>
       <c r="G40" s="128" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H40" s="119"/>
       <c r="I40" s="102"/>
       <c r="J40" s="105"/>
-      <c r="K40" s="105"/>
+      <c r="K40" s="105">
+        <v>0.2</v>
+      </c>
       <c r="L40" s="109"/>
       <c r="M40" s="110" t="s">
         <v>18</v>
@@ -3106,17 +3106,19 @@
         <v>15</v>
       </c>
       <c r="F41" s="103" t="s">
+        <v>212</v>
+      </c>
+      <c r="G41" s="108" t="s">
         <v>213</v>
       </c>
-      <c r="G41" s="108" t="s">
-        <v>214</v>
-      </c>
       <c r="H41" s="104" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I41" s="102"/>
       <c r="J41" s="105"/>
-      <c r="K41" s="105"/>
+      <c r="K41" s="105">
+        <v>0</v>
+      </c>
       <c r="L41" s="109"/>
       <c r="M41" s="110" t="s">
         <v>18</v>
@@ -3136,15 +3138,17 @@
         <v>32</v>
       </c>
       <c r="F42" s="103" t="s">
+        <v>216</v>
+      </c>
+      <c r="G42" s="108" t="s">
         <v>217</v>
-      </c>
-      <c r="G42" s="108" t="s">
-        <v>218</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="102"/>
       <c r="J42" s="105"/>
-      <c r="K42" s="105"/>
+      <c r="K42" s="105" t="s">
+        <v>224</v>
+      </c>
       <c r="L42" s="109"/>
       <c r="M42" s="110" t="s">
         <v>18</v>
@@ -3164,15 +3168,17 @@
         <v>32</v>
       </c>
       <c r="F43" s="103" t="s">
+        <v>214</v>
+      </c>
+      <c r="G43" s="108" t="s">
         <v>215</v>
-      </c>
-      <c r="G43" s="108" t="s">
-        <v>216</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="102"/>
       <c r="J43" s="105"/>
-      <c r="K43" s="105"/>
+      <c r="K43" s="105">
+        <v>0.2</v>
+      </c>
       <c r="L43" s="109"/>
       <c r="M43" s="110" t="s">
         <v>18</v>
@@ -3186,19 +3192,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E44" s="130" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="129" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G44" s="131" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H44" s="132" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
@@ -5246,7 +5252,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5685,10 +5691,10 @@
       <c r="I19" s="125"/>
       <c r="J19" s="93"/>
       <c r="K19" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="106" t="s">
         <v>210</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -5855,7 +5861,7 @@
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L25" s="126" t="s">
         <v>184</v>
@@ -5883,7 +5889,7 @@
       </c>
       <c r="J26" s="93"/>
       <c r="K26" s="122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L26" s="126" t="s">
         <v>185</v>
@@ -5973,7 +5979,7 @@
       </c>
       <c r="J29" s="93"/>
       <c r="K29" s="122" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="L29" s="126" t="s">
         <v>186</v>
@@ -6014,17 +6020,17 @@
         <v>15</v>
       </c>
       <c r="F31" s="103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H31" s="104"/>
       <c r="I31" s="104"/>
       <c r="J31" s="105"/>
       <c r="K31" s="102"/>
       <c r="L31" s="106" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="224">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -844,9 +844,6 @@
   <si>
     <t>发布时发现的，下一版本修正</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修复中</t>
   </si>
   <si>
     <t>方案已通过demo验证可行，不过需要实装到产品中，需要时间，下一版本对应</t>
@@ -1857,8 +1854,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K43" sqref="K43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3027,7 +3024,7 @@
       </c>
       <c r="L38" s="109"/>
       <c r="M38" s="110" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -3079,7 +3076,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="128" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H40" s="119"/>
       <c r="I40" s="102"/>
@@ -3106,25 +3103,25 @@
         <v>15</v>
       </c>
       <c r="F41" s="103" t="s">
+        <v>211</v>
+      </c>
+      <c r="G41" s="108" t="s">
         <v>212</v>
       </c>
-      <c r="G41" s="108" t="s">
-        <v>213</v>
-      </c>
       <c r="H41" s="104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I41" s="102"/>
       <c r="J41" s="105"/>
       <c r="K41" s="105">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L41" s="109"/>
       <c r="M41" s="110" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="107">
         <v>38</v>
       </c>
@@ -3138,23 +3135,23 @@
         <v>32</v>
       </c>
       <c r="F42" s="103" t="s">
+        <v>215</v>
+      </c>
+      <c r="G42" s="108" t="s">
         <v>216</v>
-      </c>
-      <c r="G42" s="108" t="s">
-        <v>217</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="102"/>
       <c r="J42" s="105"/>
       <c r="K42" s="105" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L42" s="109"/>
       <c r="M42" s="110" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="107">
         <v>39</v>
       </c>
@@ -3168,10 +3165,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="108" t="s">
         <v>214</v>
-      </c>
-      <c r="G43" s="108" t="s">
-        <v>215</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="102"/>
@@ -3184,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>40</v>
       </c>
@@ -3192,19 +3189,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="129" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="130" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="129" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G44" s="131" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" s="132" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
@@ -5252,7 +5249,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5691,10 +5688,10 @@
       <c r="I19" s="125"/>
       <c r="J19" s="93"/>
       <c r="K19" s="122" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" s="106" t="s">
         <v>209</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -6023,12 +6020,16 @@
         <v>207</v>
       </c>
       <c r="G31" s="104" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
+      <c r="I31" s="111">
+        <v>42166</v>
+      </c>
       <c r="J31" s="105"/>
-      <c r="K31" s="102"/>
+      <c r="K31" s="102" t="s">
+        <v>203</v>
+      </c>
       <c r="L31" s="106" t="s">
         <v>208</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -903,6 +903,10 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1.0C为例，S型号，1.0梯速，C为吨位。先找型号，按照S，T，U，Y，V，L，然后按照吨位从小到大，A，B，C，D，最后梯速，0.5,1.0,1.5,2.0希望排除的顺序例子为S1.0C，S1.0D，S1.5C，S1.5D。然后是下一个机型，同样顺序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1855,7 +1859,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2952,7 +2956,9 @@
       <c r="G36" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="H36" s="16"/>
+      <c r="H36" s="16" t="s">
+        <v>224</v>
+      </c>
       <c r="I36" s="14"/>
       <c r="J36" s="71">
         <v>42166</v>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -908,6 +908,13 @@
   <si>
     <t>S1.0C为例，S型号，1.0梯速，C为吨位。先找型号，按照S，T，U，Y，V，L，然后按照吨位从小到大，A，B，C，D，最后梯速，0.5,1.0,1.5,2.0希望排除的顺序例子为S1.0C，S1.0D，S1.5C，S1.5D。然后是下一个机型，同样顺序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库中目前的基础数据是小写的，是否都改成大写？可以手动修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
   </si>
 </sst>
 </file>
@@ -5255,7 +5262,7 @@
   <dimension ref="B2:L41"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5988,7 +5995,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C30" s="107">
         <v>26</v>
       </c>
@@ -6007,10 +6014,16 @@
       <c r="H30" s="104" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="104"/>
+      <c r="I30" s="111">
+        <v>42166</v>
+      </c>
       <c r="J30" s="105"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="106"/>
+      <c r="K30" s="102" t="s">
+        <v>226</v>
+      </c>
+      <c r="L30" s="106" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C31" s="107">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="233">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -785,14 +785,6 @@
   </si>
   <si>
     <t>包装计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -842,14 +834,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发布时发现的，下一版本修正</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案已通过demo验证可行，不过需要实装到产品中，需要时间，下一版本对应</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>审核页面也需要可以修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -858,63 +842,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将导出数据与表格设置连接起来。表格设置中去掉的列不被导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划和数据导出后需要能够合并单元格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售信息审核时，数据和表头无法对应，串了一个位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非项目需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板详见《2015年包装计划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板参见《数据导出模板-客户与备注信息.xlsx》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户想要从数据库中导出目前每一个客户针对不同型号的相关信息，并按照客户名和规格型号排序。规格型号只要型号，不需要梯速和吨位。另外结果需要去重。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S1.0C为例，S型号，1.0梯速，C为吨位。先找型号，按照S，T，U，Y，V，L，然后按照吨位从小到大，A，B，C，D，最后梯速，0.5,1.0,1.5,2.0希望排除的顺序例子为S1.0C，S1.0D，S1.5C，S1.5D。然后是下一个机型，同样顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
+  </si>
+  <si>
+    <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类似于表格导出工功能，但不要导出所有字段。具体表格模板参见包装计划。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>增加一个包装计划导出按钮，可以根据包装计划的模板导出包装计划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>导出数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要将导出数据与表格设置连接起来。表格设置中去掉的列不被导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划和数据导出后需要能够合并单元格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售信息审核时，数据和表头无法对应，串了一个位置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非项目需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板详见《2015年包装计划》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板参见《数据导出模板-客户与备注信息.xlsx》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户想要从数据库中导出目前每一个客户针对不同型号的相关信息，并按照客户名和规格型号排序。规格型号只要型号，不需要梯速和吨位。另外结果需要去重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1.0C为例，S型号，1.0梯速，C为吨位。先找型号，按照S，T，U，Y，V，L，然后按照吨位从小到大，A，B，C，D，最后梯速，0.5,1.0,1.5,2.0希望排除的顺序例子为S1.0C，S1.0D，S1.5C，S1.5D。然后是下一个机型，同样顺序。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库中目前的基础数据是小写的，是否都改成大写？可以手动修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未修复</t>
+    <t>目前按模板导出后条码不生成，需要启用宏并手动更改投产编号才可以使条码出来。且只有第一个Sheet页里面的条码可以显示出来。其他Sheet页都不显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即使在下拉框中输入大写BMC，添加后页面仍然显示小写bmc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过模板配置后发现S，U，V三个型号的模板32行开始需要添加的内容对不上，合同号被显示在了33行。而TA，T，Y型机的模板没有问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体可以电话沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注和轴承</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划页面多选编辑时，备注和轴承会变为-1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求对于订单删除进行保护。可以考虑以下措施：
+1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
+2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
+3？
+需要提供不同方案的工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1214,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1540,12 +1568,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1557,6 +1579,25 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1865,9 +1906,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1994,7 +2033,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H7" s="119"/>
       <c r="I7" s="39"/>
@@ -2006,7 +2045,7 @@
       </c>
       <c r="L7" s="47"/>
       <c r="M7" s="43" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="N7" s="97"/>
       <c r="O7" s="45">
@@ -2079,7 +2118,7 @@
       </c>
       <c r="L9" s="47"/>
       <c r="M9" s="43" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="N9" s="98"/>
       <c r="O9" s="45">
@@ -2332,7 +2371,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2558,7 +2597,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2701,7 +2740,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2771,7 +2810,7 @@
       </c>
       <c r="L30" s="22"/>
       <c r="M30" s="17" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="O30">
         <v>2</v>
@@ -2808,7 +2847,7 @@
       </c>
       <c r="L31" s="22"/>
       <c r="M31" s="17" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
       <c r="O31">
         <v>2</v>
@@ -2961,10 +3000,10 @@
         <v>187</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="71">
@@ -2975,7 +3014,7 @@
       </c>
       <c r="L36" s="22"/>
       <c r="M36" s="17" t="s">
-        <v>203</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -2995,7 +3034,7 @@
         <v>190</v>
       </c>
       <c r="G37" s="108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H37" s="104"/>
       <c r="I37" s="102"/>
@@ -3009,35 +3048,37 @@
       </c>
     </row>
     <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="107">
+      <c r="B38" s="120">
         <v>34</v>
       </c>
-      <c r="C38" s="107">
-        <v>2</v>
-      </c>
-      <c r="D38" s="102" t="s">
+      <c r="C38" s="120">
+        <v>2</v>
+      </c>
+      <c r="D38" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="103" t="s">
+      <c r="F38" s="123" t="s">
         <v>194</v>
       </c>
-      <c r="G38" s="108" t="s">
-        <v>195</v>
-      </c>
-      <c r="H38" s="104" t="s">
-        <v>196</v>
-      </c>
-      <c r="I38" s="102"/>
-      <c r="J38" s="105"/>
-      <c r="K38" s="105">
+      <c r="G38" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="H38" s="124" t="s">
+        <v>221</v>
+      </c>
+      <c r="I38" s="122"/>
+      <c r="J38" s="132">
+        <v>42166</v>
+      </c>
+      <c r="K38" s="93">
         <v>0.4</v>
       </c>
-      <c r="L38" s="109"/>
-      <c r="M38" s="110" t="s">
-        <v>203</v>
+      <c r="L38" s="133"/>
+      <c r="M38" s="134" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -3054,13 +3095,13 @@
         <v>32</v>
       </c>
       <c r="F39" s="103" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="108" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="104" t="s">
         <v>200</v>
-      </c>
-      <c r="G39" s="108" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>202</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
@@ -3068,70 +3109,72 @@
         <v>0</v>
       </c>
       <c r="L39" s="109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B40" s="107">
+    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="120">
         <v>36</v>
       </c>
-      <c r="C40" s="107">
-        <v>2</v>
-      </c>
-      <c r="D40" s="101" t="s">
+      <c r="C40" s="120">
+        <v>2</v>
+      </c>
+      <c r="D40" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="127" t="s">
+      <c r="F40" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="128" t="s">
-        <v>210</v>
-      </c>
-      <c r="H40" s="119"/>
-      <c r="I40" s="102"/>
-      <c r="J40" s="105"/>
-      <c r="K40" s="105">
+      <c r="G40" s="136" t="s">
+        <v>206</v>
+      </c>
+      <c r="H40" s="137"/>
+      <c r="I40" s="122"/>
+      <c r="J40" s="93"/>
+      <c r="K40" s="93">
         <v>0.2</v>
       </c>
-      <c r="L40" s="109"/>
-      <c r="M40" s="110" t="s">
+      <c r="L40" s="133"/>
+      <c r="M40" s="134" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="107">
+      <c r="B41" s="120">
         <v>37</v>
       </c>
-      <c r="C41" s="107">
-        <v>2</v>
-      </c>
-      <c r="D41" s="102" t="s">
+      <c r="C41" s="120">
+        <v>2</v>
+      </c>
+      <c r="D41" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="102" t="s">
+      <c r="E41" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="103" t="s">
-        <v>211</v>
-      </c>
-      <c r="G41" s="108" t="s">
-        <v>212</v>
-      </c>
-      <c r="H41" s="104" t="s">
-        <v>220</v>
-      </c>
-      <c r="I41" s="102"/>
-      <c r="J41" s="105"/>
-      <c r="K41" s="105">
+      <c r="F41" s="123" t="s">
+        <v>207</v>
+      </c>
+      <c r="G41" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="H41" s="124" t="s">
+        <v>215</v>
+      </c>
+      <c r="I41" s="122"/>
+      <c r="J41" s="132">
+        <v>42166</v>
+      </c>
+      <c r="K41" s="93">
         <v>0.1</v>
       </c>
-      <c r="L41" s="109"/>
-      <c r="M41" s="110" t="s">
-        <v>203</v>
+      <c r="L41" s="133"/>
+      <c r="M41" s="134" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3148,16 +3191,16 @@
         <v>32</v>
       </c>
       <c r="F42" s="103" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G42" s="108" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H42" s="104"/>
       <c r="I42" s="102"/>
       <c r="J42" s="105"/>
       <c r="K42" s="105" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="L42" s="109"/>
       <c r="M42" s="110" t="s">
@@ -3178,10 +3221,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="103" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G43" s="108" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H43" s="104"/>
       <c r="I43" s="102"/>
@@ -3201,20 +3244,20 @@
       <c r="C44" s="18">
         <v>2</v>
       </c>
-      <c r="D44" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="E44" s="130" t="s">
+      <c r="D44" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="E44" s="128" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="129" t="s">
-        <v>219</v>
-      </c>
-      <c r="G44" s="131" t="s">
-        <v>222</v>
-      </c>
-      <c r="H44" s="132" t="s">
-        <v>221</v>
+      <c r="F44" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="G44" s="129" t="s">
+        <v>217</v>
+      </c>
+      <c r="H44" s="130" t="s">
+        <v>216</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
@@ -3224,23 +3267,33 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>41</v>
       </c>
-      <c r="C45" s="18">
-        <v>2</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="19"/>
+      <c r="C45" s="107">
+        <v>2</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="G45" s="108" t="s">
+        <v>232</v>
+      </c>
       <c r="H45" s="16"/>
       <c r="I45" s="14"/>
       <c r="J45" s="5"/>
       <c r="K45" s="93"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="17"/>
+      <c r="M45" s="110" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
@@ -5261,9 +5314,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5679,7 +5730,7 @@
       </c>
       <c r="L18" s="118"/>
     </row>
-    <row r="19" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="142.5" x14ac:dyDescent="0.15">
       <c r="C19" s="120">
         <v>15</v>
       </c>
@@ -5700,11 +5751,11 @@
       </c>
       <c r="I19" s="125"/>
       <c r="J19" s="93"/>
-      <c r="K19" s="122" t="s">
-        <v>203</v>
+      <c r="K19" s="102" t="s">
+        <v>220</v>
       </c>
       <c r="L19" s="106" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -5871,7 +5922,7 @@
       </c>
       <c r="J25" s="93"/>
       <c r="K25" s="122" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="L25" s="126" t="s">
         <v>184</v>
@@ -5899,7 +5950,7 @@
       </c>
       <c r="J26" s="93"/>
       <c r="K26" s="122" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="L26" s="126" t="s">
         <v>185</v>
@@ -5989,37 +6040,37 @@
       </c>
       <c r="J29" s="93"/>
       <c r="K29" s="122" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="L29" s="126" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C30" s="107">
         <v>26</v>
       </c>
-      <c r="D30" s="101" t="s">
+      <c r="D30" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="102" t="s">
+      <c r="E30" s="122" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="103" t="s">
+      <c r="F30" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="104" t="s">
+      <c r="G30" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="H30" s="104" t="s">
+      <c r="H30" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="I30" s="111">
+      <c r="I30" s="125">
         <v>42166</v>
       </c>
-      <c r="J30" s="105"/>
-      <c r="K30" s="102" t="s">
-        <v>226</v>
+      <c r="J30" s="93"/>
+      <c r="K30" s="122" t="s">
+        <v>220</v>
       </c>
       <c r="L30" s="106" t="s">
         <v>225</v>
@@ -6029,56 +6080,76 @@
       <c r="C31" s="107">
         <v>27</v>
       </c>
-      <c r="D31" s="101" t="s">
+      <c r="D31" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="103" t="s">
-        <v>207</v>
-      </c>
-      <c r="G31" s="104" t="s">
-        <v>217</v>
-      </c>
-      <c r="H31" s="104"/>
-      <c r="I31" s="111">
+      <c r="F31" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="124" t="s">
+        <v>212</v>
+      </c>
+      <c r="H31" s="124"/>
+      <c r="I31" s="125">
         <v>42166</v>
       </c>
-      <c r="J31" s="105"/>
-      <c r="K31" s="102" t="s">
-        <v>203</v>
-      </c>
-      <c r="L31" s="106" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C32" s="18">
+      <c r="J31" s="93"/>
+      <c r="K31" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="126"/>
+    </row>
+    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="C32" s="107">
         <v>28</v>
       </c>
-      <c r="D32" s="39"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="70"/>
-    </row>
-    <row r="33" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D32" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="103" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="104" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" s="104" t="s">
+        <v>228</v>
+      </c>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="102" t="s">
+        <v>220</v>
+      </c>
+      <c r="L32" s="106"/>
+    </row>
+    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
         <v>29</v>
       </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="14"/>
+      <c r="D33" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" s="104" t="s">
+        <v>230</v>
+      </c>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="102" t="s">
+        <v>220</v>
+      </c>
       <c r="L33" s="70"/>
     </row>
     <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="234">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -942,6 +942,10 @@
 2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
 3？
 需要提供不同方案的工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并单元格确认后续实施</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1910,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2885,7 +2891,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2919,7 +2925,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2953,7 +2959,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35" s="107">
         <v>31</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" ht="142.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B37" s="18">
         <v>33</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B38" s="120">
         <v>34</v>
       </c>
@@ -3080,8 +3086,11 @@
       <c r="M38" s="134" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="N38" s="95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
@@ -3113,7 +3122,7 @@
       </c>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="120">
         <v>36</v>
       </c>
@@ -3143,7 +3152,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B41" s="120">
         <v>37</v>
       </c>
@@ -3177,7 +3186,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="107">
         <v>38</v>
       </c>
@@ -3207,7 +3216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B43" s="107">
         <v>39</v>
       </c>
@@ -3237,7 +3246,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44" s="18">
         <v>40</v>
       </c>
@@ -3267,7 +3276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" ht="114" x14ac:dyDescent="0.15">
       <c r="B45" s="18">
         <v>41</v>
       </c>
@@ -3295,7 +3304,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="18">
         <v>42</v>
       </c>
@@ -3313,7 +3322,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -3331,7 +3340,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
@@ -5314,7 +5323,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6145,10 +6156,12 @@
         <v>230</v>
       </c>
       <c r="H33" s="104"/>
-      <c r="I33" s="104"/>
+      <c r="I33" s="111">
+        <v>42171</v>
+      </c>
       <c r="J33" s="105"/>
       <c r="K33" s="102" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="L33" s="70"/>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="233">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -617,10 +617,6 @@
   </si>
   <si>
     <t>投产编号需要可以更改，更改后需要将原来填过的投产编号在数据库里删除，目的是该号码可以再使用同时还可以保证号码的唯一性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随更新到额template一同对应了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1246,7 +1242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1487,7 +1483,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1910,8 +1905,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1927,7 +1922,7 @@
     <col min="10" max="10" width="15.375" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="91" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" style="95" customWidth="1"/>
+    <col min="14" max="14" width="6" style="94" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -1984,7 +1979,7 @@
       <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="96"/>
+      <c r="N5" s="95"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2022,7 +2017,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -2039,11 +2034,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="46" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="119"/>
+        <v>194</v>
+      </c>
+      <c r="H7" s="118"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="100">
+      <c r="J7" s="99">
         <v>42166</v>
       </c>
       <c r="K7" s="50">
@@ -2053,7 +2048,7 @@
       <c r="M7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="97"/>
+      <c r="N7" s="96"/>
       <c r="O7" s="45">
         <v>1</v>
       </c>
@@ -2091,9 +2086,9 @@
       <c r="M8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="97"/>
-    </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N8" s="96"/>
+    </row>
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -2110,13 +2105,13 @@
         <v>42</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H9" s="42" t="s">
         <v>77</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="100">
+      <c r="J9" s="99">
         <v>42166</v>
       </c>
       <c r="K9" s="49">
@@ -2126,7 +2121,7 @@
       <c r="M9" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="98"/>
+      <c r="N9" s="97"/>
       <c r="O9" s="45">
         <v>2</v>
       </c>
@@ -2145,16 +2140,16 @@
         <v>20</v>
       </c>
       <c r="F10" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G10" s="46" t="s">
         <v>74</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="100">
+      <c r="J10" s="99">
         <v>42158</v>
       </c>
       <c r="K10" s="50">
@@ -2166,7 +2161,7 @@
       <c r="M10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="98"/>
+      <c r="N10" s="97"/>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
@@ -2295,7 +2290,7 @@
       <c r="M14" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="99"/>
+      <c r="N14" s="98"/>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="51">
@@ -2358,7 +2353,7 @@
       <c r="M16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="99"/>
+      <c r="N16" s="98"/>
     </row>
     <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
@@ -2377,7 +2372,7 @@
         <v>47</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H17" s="42"/>
       <c r="I17" s="39"/>
@@ -2389,7 +2384,7 @@
       <c r="M17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="99"/>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="51">
@@ -2568,7 +2563,7 @@
         <v>64</v>
       </c>
       <c r="G23" s="46" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H23" s="42" t="s">
         <v>70</v>
@@ -2584,7 +2579,7 @@
       <c r="M23" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="99"/>
+      <c r="N23" s="98"/>
     </row>
     <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
@@ -2603,7 +2598,7 @@
         <v>66</v>
       </c>
       <c r="G24" s="46" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H24" s="42"/>
       <c r="I24" s="39"/>
@@ -2615,7 +2610,7 @@
       <c r="M24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="99"/>
+      <c r="N24" s="98"/>
     </row>
     <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="51">
@@ -2682,7 +2677,7 @@
       <c r="M26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="99"/>
+      <c r="N26" s="98"/>
     </row>
     <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
@@ -2715,7 +2710,7 @@
       <c r="M27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="99"/>
+      <c r="N27" s="98"/>
     </row>
     <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2746,7 +2741,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -2773,7 +2768,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="94">
+      <c r="J29" s="131">
         <v>42158</v>
       </c>
       <c r="K29" s="93">
@@ -2783,11 +2778,8 @@
       <c r="M29" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="N29" s="95" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="2:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2822,7 +2814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2842,7 +2834,7 @@
         <v>152</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I31" s="14"/>
       <c r="J31" s="71">
@@ -2960,36 +2952,36 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="107">
+      <c r="B35" s="106">
         <v>31</v>
       </c>
-      <c r="C35" s="107">
-        <v>2</v>
-      </c>
-      <c r="D35" s="102" t="s">
+      <c r="C35" s="106">
+        <v>2</v>
+      </c>
+      <c r="D35" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="103" t="s">
+      <c r="F35" s="102" t="s">
+        <v>165</v>
+      </c>
+      <c r="G35" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="G35" s="108" t="s">
-        <v>167</v>
-      </c>
-      <c r="H35" s="104"/>
-      <c r="I35" s="102"/>
-      <c r="J35" s="105"/>
-      <c r="K35" s="105">
+      <c r="H35" s="103"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="104">
         <v>0</v>
       </c>
-      <c r="L35" s="109"/>
-      <c r="M35" s="110" t="s">
+      <c r="L35" s="108"/>
+      <c r="M35" s="109" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3003,13 +2995,13 @@
         <v>15</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="71">
@@ -3027,222 +3019,222 @@
       <c r="B37" s="18">
         <v>33</v>
       </c>
-      <c r="C37" s="107">
-        <v>2</v>
-      </c>
-      <c r="D37" s="102" t="s">
+      <c r="C37" s="106">
+        <v>2</v>
+      </c>
+      <c r="D37" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="103" t="s">
-        <v>190</v>
-      </c>
-      <c r="G37" s="108" t="s">
-        <v>203</v>
-      </c>
-      <c r="H37" s="104"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="105"/>
-      <c r="K37" s="105" t="s">
+      <c r="F37" s="102" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="107" t="s">
+        <v>202</v>
+      </c>
+      <c r="H37" s="103"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="104" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="109"/>
-      <c r="M37" s="110" t="s">
+      <c r="L37" s="108"/>
+      <c r="M37" s="109" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="120">
+      <c r="B38" s="119">
         <v>34</v>
       </c>
-      <c r="C38" s="120">
-        <v>2</v>
-      </c>
-      <c r="D38" s="122" t="s">
+      <c r="C38" s="119">
+        <v>2</v>
+      </c>
+      <c r="D38" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="122" t="s">
+      <c r="E38" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="123" t="s">
-        <v>194</v>
-      </c>
-      <c r="G38" s="131" t="s">
-        <v>222</v>
-      </c>
-      <c r="H38" s="124" t="s">
+      <c r="F38" s="122" t="s">
+        <v>193</v>
+      </c>
+      <c r="G38" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="I38" s="122"/>
-      <c r="J38" s="132">
+      <c r="H38" s="123" t="s">
+        <v>220</v>
+      </c>
+      <c r="I38" s="121"/>
+      <c r="J38" s="131">
         <v>42166</v>
       </c>
       <c r="K38" s="93">
         <v>0.4</v>
       </c>
-      <c r="L38" s="133"/>
-      <c r="M38" s="134" t="s">
-        <v>201</v>
-      </c>
-      <c r="N38" s="95" t="s">
-        <v>233</v>
+      <c r="L38" s="132"/>
+      <c r="M38" s="133" t="s">
+        <v>200</v>
+      </c>
+      <c r="N38" s="94" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39" s="18">
         <v>35</v>
       </c>
-      <c r="C39" s="107">
-        <v>2</v>
-      </c>
-      <c r="D39" s="102" t="s">
+      <c r="C39" s="106">
+        <v>2</v>
+      </c>
+      <c r="D39" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="102" t="s">
+      <c r="E39" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="103" t="s">
+      <c r="F39" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="G39" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="G39" s="108" t="s">
+      <c r="H39" s="103" t="s">
         <v>199</v>
-      </c>
-      <c r="H39" s="104" t="s">
-        <v>200</v>
       </c>
       <c r="I39" s="14"/>
       <c r="J39" s="5"/>
-      <c r="K39" s="105">
+      <c r="K39" s="104">
         <v>0</v>
       </c>
-      <c r="L39" s="109" t="s">
-        <v>202</v>
+      <c r="L39" s="108" t="s">
+        <v>201</v>
       </c>
       <c r="M39" s="17"/>
     </row>
     <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="120">
+      <c r="B40" s="119">
         <v>36</v>
       </c>
-      <c r="C40" s="120">
-        <v>2</v>
-      </c>
-      <c r="D40" s="121" t="s">
+      <c r="C40" s="119">
+        <v>2</v>
+      </c>
+      <c r="D40" s="120" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="121" t="s">
+      <c r="E40" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="135" t="s">
+      <c r="F40" s="134" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="136" t="s">
-        <v>206</v>
-      </c>
-      <c r="H40" s="137"/>
-      <c r="I40" s="122"/>
+      <c r="G40" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="H40" s="136"/>
+      <c r="I40" s="121"/>
       <c r="J40" s="93"/>
       <c r="K40" s="93">
         <v>0.2</v>
       </c>
-      <c r="L40" s="133"/>
-      <c r="M40" s="134" t="s">
+      <c r="L40" s="132"/>
+      <c r="M40" s="133" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="120">
+      <c r="B41" s="119">
         <v>37</v>
       </c>
-      <c r="C41" s="120">
-        <v>2</v>
-      </c>
-      <c r="D41" s="122" t="s">
+      <c r="C41" s="119">
+        <v>2</v>
+      </c>
+      <c r="D41" s="121" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="122" t="s">
+      <c r="E41" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="123" t="s">
-        <v>207</v>
-      </c>
-      <c r="G41" s="131" t="s">
-        <v>223</v>
-      </c>
-      <c r="H41" s="124" t="s">
-        <v>215</v>
-      </c>
-      <c r="I41" s="122"/>
-      <c r="J41" s="132">
+      <c r="F41" s="122" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="H41" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="I41" s="121"/>
+      <c r="J41" s="131">
         <v>42166</v>
       </c>
       <c r="K41" s="93">
         <v>0.1</v>
       </c>
-      <c r="L41" s="133"/>
-      <c r="M41" s="134" t="s">
-        <v>201</v>
+      <c r="L41" s="132"/>
+      <c r="M41" s="133" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="107">
+      <c r="B42" s="106">
         <v>38</v>
       </c>
-      <c r="C42" s="107">
-        <v>2</v>
-      </c>
-      <c r="D42" s="102" t="s">
+      <c r="C42" s="106">
+        <v>2</v>
+      </c>
+      <c r="D42" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="102" t="s">
+      <c r="E42" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="103" t="s">
+      <c r="F42" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="G42" s="107" t="s">
         <v>210</v>
       </c>
-      <c r="G42" s="108" t="s">
-        <v>211</v>
-      </c>
-      <c r="H42" s="104"/>
-      <c r="I42" s="102"/>
-      <c r="J42" s="105"/>
-      <c r="K42" s="105" t="s">
-        <v>218</v>
-      </c>
-      <c r="L42" s="109"/>
-      <c r="M42" s="110" t="s">
+      <c r="H42" s="103"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104" t="s">
+        <v>217</v>
+      </c>
+      <c r="L42" s="108"/>
+      <c r="M42" s="109" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="107">
+      <c r="B43" s="106">
         <v>39</v>
       </c>
-      <c r="C43" s="107">
-        <v>2</v>
-      </c>
-      <c r="D43" s="102" t="s">
+      <c r="C43" s="106">
+        <v>2</v>
+      </c>
+      <c r="D43" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="102" t="s">
+      <c r="E43" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="103" t="s">
+      <c r="F43" s="102" t="s">
+        <v>207</v>
+      </c>
+      <c r="G43" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="G43" s="108" t="s">
-        <v>209</v>
-      </c>
-      <c r="H43" s="104"/>
-      <c r="I43" s="102"/>
-      <c r="J43" s="105"/>
-      <c r="K43" s="105">
+      <c r="H43" s="103"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="104">
         <v>0.2</v>
       </c>
-      <c r="L43" s="109"/>
-      <c r="M43" s="110" t="s">
+      <c r="L43" s="108"/>
+      <c r="M43" s="109" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3253,20 +3245,20 @@
       <c r="C44" s="18">
         <v>2</v>
       </c>
-      <c r="D44" s="127" t="s">
+      <c r="D44" s="126" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="126" t="s">
         <v>213</v>
       </c>
-      <c r="E44" s="128" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="127" t="s">
-        <v>214</v>
-      </c>
-      <c r="G44" s="129" t="s">
-        <v>217</v>
-      </c>
-      <c r="H44" s="130" t="s">
+      <c r="G44" s="128" t="s">
         <v>216</v>
+      </c>
+      <c r="H44" s="129" t="s">
+        <v>215</v>
       </c>
       <c r="I44" s="14"/>
       <c r="J44" s="5"/>
@@ -3280,27 +3272,27 @@
       <c r="B45" s="18">
         <v>41</v>
       </c>
-      <c r="C45" s="107">
-        <v>2</v>
-      </c>
-      <c r="D45" s="102" t="s">
+      <c r="C45" s="106">
+        <v>2</v>
+      </c>
+      <c r="D45" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="102" t="s">
+      <c r="E45" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="103" t="s">
+      <c r="F45" s="102" t="s">
+        <v>230</v>
+      </c>
+      <c r="G45" s="107" t="s">
         <v>231</v>
-      </c>
-      <c r="G45" s="108" t="s">
-        <v>232</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="14"/>
       <c r="J45" s="5"/>
       <c r="K45" s="93"/>
       <c r="L45" s="22"/>
-      <c r="M45" s="110" t="s">
+      <c r="M45" s="109" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5714,89 +5706,89 @@
       <c r="L17" s="69"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="112">
+      <c r="C18" s="111">
         <v>14</v>
       </c>
-      <c r="D18" s="113" t="s">
+      <c r="D18" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="113" t="s">
+      <c r="E18" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="114" t="s">
+      <c r="F18" s="113" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="H18" s="115" t="s">
+      <c r="G18" s="114" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="116" t="s">
+      <c r="I18" s="115" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" s="116"/>
+      <c r="K18" s="112" t="s">
+        <v>87</v>
+      </c>
+      <c r="L18" s="117"/>
+    </row>
+    <row r="19" spans="3:12" ht="142.5" x14ac:dyDescent="0.15">
+      <c r="C19" s="119">
+        <v>15</v>
+      </c>
+      <c r="D19" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="122" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="123" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="123" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" s="124"/>
+      <c r="J19" s="93"/>
+      <c r="K19" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="L19" s="105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="111">
+        <v>16</v>
+      </c>
+      <c r="D20" s="112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="112" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="G20" s="114" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="I20" s="115" t="s">
         <v>174</v>
       </c>
-      <c r="J18" s="117"/>
-      <c r="K18" s="113" t="s">
-        <v>87</v>
-      </c>
-      <c r="L18" s="118"/>
-    </row>
-    <row r="19" spans="3:12" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="120">
-        <v>15</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="123" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="124" t="s">
-        <v>111</v>
-      </c>
-      <c r="H19" s="124" t="s">
-        <v>178</v>
-      </c>
-      <c r="I19" s="125"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="L19" s="106" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="112">
-        <v>16</v>
-      </c>
-      <c r="D20" s="113" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="G20" s="115" t="s">
-        <v>176</v>
-      </c>
-      <c r="H20" s="115" t="s">
-        <v>129</v>
-      </c>
-      <c r="I20" s="116" t="s">
-        <v>175</v>
-      </c>
-      <c r="J20" s="117"/>
-      <c r="K20" s="113" t="s">
-        <v>169</v>
-      </c>
-      <c r="L20" s="118" t="s">
-        <v>173</v>
+      <c r="J20" s="116"/>
+      <c r="K20" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="117" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -5826,32 +5818,32 @@
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="112">
+      <c r="C22" s="111">
         <v>18</v>
       </c>
-      <c r="D22" s="113" t="s">
+      <c r="D22" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="113" t="s">
+      <c r="E22" s="112" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="113" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="115" t="s">
+      <c r="G22" s="114" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="H22" s="115" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="116" t="s">
+      <c r="I22" s="115" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="117"/>
-      <c r="K22" s="113" t="s">
+      <c r="J22" s="116"/>
+      <c r="K22" s="112" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="118"/>
+      <c r="L22" s="117"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5875,7 +5867,7 @@
       <c r="I23" s="16"/>
       <c r="J23" s="5"/>
       <c r="K23" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L23" s="70" t="s">
         <v>146</v>
@@ -5895,7 +5887,7 @@
         <v>85</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>144</v>
@@ -5910,258 +5902,258 @@
       <c r="L24" s="70"/>
     </row>
     <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C25" s="120">
+      <c r="C25" s="119">
         <v>21</v>
       </c>
-      <c r="D25" s="121" t="s">
+      <c r="D25" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="122" t="s">
+      <c r="E25" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="123" t="s">
+      <c r="F25" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="G25" s="123" t="s">
+        <v>178</v>
+      </c>
+      <c r="H25" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="G25" s="124" t="s">
+      <c r="I25" s="124">
+        <v>42166</v>
+      </c>
+      <c r="J25" s="93"/>
+      <c r="K25" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L25" s="125" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C26" s="119">
+        <v>22</v>
+      </c>
+      <c r="D26" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>158</v>
+      </c>
+      <c r="G26" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="H25" s="124" t="s">
-        <v>160</v>
-      </c>
-      <c r="I25" s="125">
+      <c r="H26" s="123"/>
+      <c r="I26" s="124">
         <v>42166</v>
       </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="122" t="s">
+      <c r="J26" s="93"/>
+      <c r="K26" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="126" t="s">
+      <c r="L26" s="125" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C26" s="120">
-        <v>22</v>
-      </c>
-      <c r="D26" s="121" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="G26" s="124" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="124"/>
-      <c r="I26" s="125">
-        <v>42166</v>
-      </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="L26" s="126" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="103" t="s">
-        <v>163</v>
-      </c>
-      <c r="G27" s="104" t="s">
-        <v>170</v>
-      </c>
-      <c r="H27" s="104" t="s">
+      <c r="F27" s="102" t="s">
         <v>162</v>
       </c>
-      <c r="I27" s="111">
+      <c r="G27" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="H27" s="103" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" s="110">
         <v>42166</v>
       </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="102" t="s">
-        <v>169</v>
-      </c>
-      <c r="L27" s="106" t="s">
-        <v>177</v>
+      <c r="J27" s="104"/>
+      <c r="K27" s="101" t="s">
+        <v>168</v>
+      </c>
+      <c r="L27" s="105" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="102" t="s">
+      <c r="E28" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="103" t="s">
-        <v>161</v>
-      </c>
-      <c r="G28" s="104" t="s">
+      <c r="F28" s="102" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="103" t="s">
+        <v>163</v>
+      </c>
+      <c r="H28" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="H28" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="111">
+      <c r="I28" s="110">
         <v>42166</v>
       </c>
-      <c r="J28" s="105"/>
-      <c r="K28" s="102" t="s">
+      <c r="J28" s="104"/>
+      <c r="K28" s="101" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="106" t="s">
-        <v>188</v>
+      <c r="L28" s="105" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C29" s="120">
+      <c r="C29" s="119">
         <v>25</v>
       </c>
-      <c r="D29" s="121" t="s">
+      <c r="D29" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="122" t="s">
+      <c r="E29" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="123" t="s">
+      <c r="F29" s="122" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="G29" s="124" t="s">
+      <c r="H29" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="H29" s="124" t="s">
-        <v>183</v>
-      </c>
-      <c r="I29" s="125">
+      <c r="I29" s="124">
         <v>42166</v>
       </c>
       <c r="J29" s="93"/>
-      <c r="K29" s="122" t="s">
+      <c r="K29" s="121" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="126" t="s">
-        <v>186</v>
+      <c r="L29" s="125" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C30" s="107">
+      <c r="C30" s="106">
         <v>26</v>
       </c>
-      <c r="D30" s="121" t="s">
+      <c r="D30" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="122" t="s">
+      <c r="E30" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="123" t="s">
+      <c r="F30" s="122" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="123" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="124" t="s">
+      <c r="H30" s="123" t="s">
         <v>192</v>
       </c>
-      <c r="H30" s="124" t="s">
-        <v>193</v>
-      </c>
-      <c r="I30" s="125">
+      <c r="I30" s="124">
         <v>42166</v>
       </c>
       <c r="J30" s="93"/>
-      <c r="K30" s="122" t="s">
-        <v>220</v>
-      </c>
-      <c r="L30" s="106" t="s">
+      <c r="K30" s="121" t="s">
+        <v>219</v>
+      </c>
+      <c r="L30" s="105" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C31" s="106">
+        <v>27</v>
+      </c>
+      <c r="D31" s="120" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="122" t="s">
+        <v>204</v>
+      </c>
+      <c r="G31" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="H31" s="123"/>
+      <c r="I31" s="124">
+        <v>42166</v>
+      </c>
+      <c r="J31" s="93"/>
+      <c r="K31" s="121" t="s">
+        <v>36</v>
+      </c>
+      <c r="L31" s="125"/>
+    </row>
+    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="C32" s="106">
+        <v>28</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="102" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C31" s="107">
-        <v>27</v>
-      </c>
-      <c r="D31" s="121" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="123" t="s">
-        <v>205</v>
-      </c>
-      <c r="G31" s="124" t="s">
-        <v>212</v>
-      </c>
-      <c r="H31" s="124"/>
-      <c r="I31" s="125">
-        <v>42166</v>
-      </c>
-      <c r="J31" s="93"/>
-      <c r="K31" s="122" t="s">
-        <v>36</v>
-      </c>
-      <c r="L31" s="126"/>
-    </row>
-    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C32" s="107">
-        <v>28</v>
-      </c>
-      <c r="D32" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="102" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="103" t="s">
+      <c r="G32" s="103" t="s">
         <v>226</v>
       </c>
-      <c r="G32" s="104" t="s">
+      <c r="H32" s="103" t="s">
         <v>227</v>
       </c>
-      <c r="H32" s="104" t="s">
-        <v>228</v>
-      </c>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
-      <c r="K32" s="102" t="s">
-        <v>220</v>
-      </c>
-      <c r="L32" s="106"/>
+      <c r="I32" s="103"/>
+      <c r="J32" s="104"/>
+      <c r="K32" s="101" t="s">
+        <v>219</v>
+      </c>
+      <c r="L32" s="105"/>
     </row>
     <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
         <v>29</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="102" t="s">
+      <c r="E33" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="102" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="103" t="s">
         <v>229</v>
       </c>
-      <c r="G33" s="104" t="s">
-        <v>230</v>
-      </c>
-      <c r="H33" s="104"/>
-      <c r="I33" s="111">
+      <c r="H33" s="103"/>
+      <c r="I33" s="110">
         <v>42171</v>
       </c>
-      <c r="J33" s="105"/>
-      <c r="K33" s="102" t="s">
-        <v>201</v>
+      <c r="J33" s="104"/>
+      <c r="K33" s="101" t="s">
+        <v>200</v>
       </c>
       <c r="L33" s="70"/>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -942,6 +942,26 @@
   </si>
   <si>
     <t>合并单元格确认后续实施</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要追加包装计划的下大日期，为模板导出日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划按模板导出后，列串了一位。比如配置的是B列，实际显示在C列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划后页面刷新为空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划后需要刷新页面仍然显示改变后的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1906,7 +1926,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3303,10 +3323,18 @@
       <c r="C46" s="18">
         <v>2</v>
       </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="19"/>
+      <c r="D46" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="107" t="s">
+        <v>233</v>
+      </c>
       <c r="H46" s="16"/>
       <c r="I46" s="14"/>
       <c r="J46" s="5"/>
@@ -5315,8 +5343,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A29" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5901,7 +5929,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C25" s="119">
         <v>21</v>
       </c>
@@ -5931,7 +5959,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C26" s="119">
         <v>22</v>
       </c>
@@ -6019,7 +6047,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C29" s="119">
         <v>25</v>
       </c>
@@ -6079,7 +6107,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C31" s="106">
         <v>27</v>
       </c>
@@ -6131,7 +6159,7 @@
       </c>
       <c r="L32" s="105"/>
     </row>
-    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C33" s="18">
         <v>29</v>
       </c>
@@ -6157,35 +6185,57 @@
       </c>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C34" s="18">
         <v>30</v>
       </c>
-      <c r="D34" s="39"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="14"/>
+      <c r="D34" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="102" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>234</v>
+      </c>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="101" t="s">
+        <v>219</v>
+      </c>
       <c r="L34" s="70"/>
     </row>
-    <row r="35" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C35" s="18">
         <v>31</v>
       </c>
-      <c r="D35" s="39"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="14"/>
+      <c r="D35" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E35" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="102" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="H35" s="103" t="s">
+        <v>237</v>
+      </c>
+      <c r="I35" s="103"/>
+      <c r="J35" s="104"/>
+      <c r="K35" s="101" t="s">
+        <v>219</v>
+      </c>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
@@ -6199,7 +6249,7 @@
       <c r="K36" s="14"/>
       <c r="L36" s="70"/>
     </row>
-    <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>33</v>
       </c>
@@ -6213,7 +6263,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>34</v>
       </c>
@@ -6227,7 +6277,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="70"/>
     </row>
-    <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>35</v>
       </c>
@@ -6241,7 +6291,7 @@
       <c r="K39" s="14"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>36</v>
       </c>
@@ -6255,7 +6305,7 @@
       <c r="K40" s="14"/>
       <c r="L40" s="70"/>
     </row>
-    <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
         <v>37</v>
       </c>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="237">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -930,6 +930,26 @@
   </si>
   <si>
     <t>订单删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要追加包装计划的下大日期，为模板导出日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划按模板导出后，列串了一位。比如配置的是B列，实际显示在C列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划后页面刷新为空白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划后需要刷新页面仍然显示改变后的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -938,30 +958,6 @@
 2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
 3？
 需要提供不同方案的工数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合并单元格确认后续实施</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要追加包装计划的下大日期，为模板导出日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划按模板导出后，列串了一位。比如配置的是B列，实际显示在C列。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划后页面刷新为空白</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划后需要刷新页面仍然显示改变后的数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,7 +1258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1532,15 +1528,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,18 +1574,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1617,6 +1592,28 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1926,7 +1923,7 @@
   <dimension ref="A2:S160"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2056,7 +2053,7 @@
       <c r="G7" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="118"/>
+      <c r="H7" s="115"/>
       <c r="I7" s="39"/>
       <c r="J7" s="99">
         <v>42166</v>
@@ -2763,9 +2760,6 @@
       <c r="M28" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="O28">
-        <v>2</v>
-      </c>
     </row>
     <row r="29" spans="2:15" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
@@ -2788,7 +2782,7 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="131">
+      <c r="J29" s="124">
         <v>42158</v>
       </c>
       <c r="K29" s="93">
@@ -2903,7 +2897,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -2937,7 +2931,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -2971,37 +2965,37 @@
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="106">
+    <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="116">
         <v>31</v>
       </c>
-      <c r="C35" s="106">
-        <v>2</v>
-      </c>
-      <c r="D35" s="101" t="s">
+      <c r="C35" s="116">
+        <v>2</v>
+      </c>
+      <c r="D35" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="101" t="s">
+      <c r="E35" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="119" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="107" t="s">
+      <c r="G35" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="H35" s="103"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104">
+      <c r="H35" s="120"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="93">
         <v>0</v>
       </c>
-      <c r="L35" s="108"/>
-      <c r="M35" s="109" t="s">
+      <c r="L35" s="125"/>
+      <c r="M35" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3035,314 +3029,317 @@
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="18">
+    <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="116">
         <v>33</v>
       </c>
-      <c r="C37" s="106">
-        <v>2</v>
-      </c>
-      <c r="D37" s="101" t="s">
+      <c r="C37" s="116">
+        <v>2</v>
+      </c>
+      <c r="D37" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="119" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="107" t="s">
+      <c r="G37" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="H37" s="103"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="104"/>
-      <c r="K37" s="104" t="s">
+      <c r="H37" s="120"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="93"/>
+      <c r="K37" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="108"/>
-      <c r="M37" s="109" t="s">
+      <c r="L37" s="125"/>
+      <c r="M37" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="119">
+    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B38" s="116">
         <v>34</v>
       </c>
-      <c r="C38" s="119">
-        <v>2</v>
-      </c>
-      <c r="D38" s="121" t="s">
+      <c r="C38" s="116">
+        <v>2</v>
+      </c>
+      <c r="D38" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="121" t="s">
+      <c r="E38" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="122" t="s">
+      <c r="F38" s="119" t="s">
         <v>193</v>
       </c>
-      <c r="G38" s="130" t="s">
+      <c r="G38" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="H38" s="123" t="s">
+      <c r="H38" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="I38" s="121"/>
-      <c r="J38" s="131">
+      <c r="I38" s="118"/>
+      <c r="J38" s="124">
         <v>42166</v>
       </c>
       <c r="K38" s="93">
         <v>0.4</v>
       </c>
-      <c r="L38" s="132"/>
-      <c r="M38" s="133" t="s">
+      <c r="L38" s="125"/>
+      <c r="M38" s="126" t="s">
         <v>200</v>
       </c>
-      <c r="N38" s="94" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="18">
+    </row>
+    <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="116">
         <v>35</v>
       </c>
-      <c r="C39" s="106">
-        <v>2</v>
-      </c>
-      <c r="D39" s="101" t="s">
+      <c r="C39" s="116">
+        <v>2</v>
+      </c>
+      <c r="D39" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="119" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="107" t="s">
+      <c r="G39" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="120" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="14"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="104">
+      <c r="I39" s="118"/>
+      <c r="J39" s="93"/>
+      <c r="K39" s="93">
         <v>0</v>
       </c>
-      <c r="L39" s="108" t="s">
+      <c r="L39" s="125" t="s">
         <v>201</v>
       </c>
-      <c r="M39" s="17"/>
-    </row>
-    <row r="40" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="119">
+      <c r="M39" s="126"/>
+    </row>
+    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="116">
         <v>36</v>
       </c>
-      <c r="C40" s="119">
-        <v>2</v>
-      </c>
-      <c r="D40" s="120" t="s">
+      <c r="C40" s="116">
+        <v>2</v>
+      </c>
+      <c r="D40" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="120" t="s">
+      <c r="E40" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="134" t="s">
+      <c r="F40" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="135" t="s">
+      <c r="G40" s="128" t="s">
         <v>205</v>
       </c>
-      <c r="H40" s="136"/>
-      <c r="I40" s="121"/>
+      <c r="H40" s="129"/>
+      <c r="I40" s="118"/>
       <c r="J40" s="93"/>
       <c r="K40" s="93">
         <v>0.2</v>
       </c>
-      <c r="L40" s="132"/>
-      <c r="M40" s="133" t="s">
+      <c r="L40" s="125"/>
+      <c r="M40" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="B41" s="119">
+    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="116">
         <v>37</v>
       </c>
-      <c r="C41" s="119">
-        <v>2</v>
-      </c>
-      <c r="D41" s="121" t="s">
+      <c r="C41" s="116">
+        <v>2</v>
+      </c>
+      <c r="D41" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="121" t="s">
+      <c r="E41" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="122" t="s">
+      <c r="F41" s="119" t="s">
         <v>206</v>
       </c>
-      <c r="G41" s="130" t="s">
+      <c r="G41" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="H41" s="123" t="s">
+      <c r="H41" s="120" t="s">
         <v>214</v>
       </c>
-      <c r="I41" s="121"/>
-      <c r="J41" s="131">
+      <c r="I41" s="118"/>
+      <c r="J41" s="124">
         <v>42166</v>
       </c>
       <c r="K41" s="93">
         <v>0.1</v>
       </c>
-      <c r="L41" s="132"/>
-      <c r="M41" s="133" t="s">
+      <c r="L41" s="125"/>
+      <c r="M41" s="126" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="106">
+    <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="116">
         <v>38</v>
       </c>
-      <c r="C42" s="106">
-        <v>2</v>
-      </c>
-      <c r="D42" s="101" t="s">
+      <c r="C42" s="116">
+        <v>2</v>
+      </c>
+      <c r="D42" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="F42" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="G42" s="107" t="s">
+      <c r="G42" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="103"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="104" t="s">
+      <c r="H42" s="120"/>
+      <c r="I42" s="118"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="93" t="s">
         <v>217</v>
       </c>
-      <c r="L42" s="108"/>
-      <c r="M42" s="109" t="s">
+      <c r="L42" s="125"/>
+      <c r="M42" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="106">
+    <row r="43" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="116">
         <v>39</v>
       </c>
-      <c r="C43" s="106">
-        <v>2</v>
-      </c>
-      <c r="D43" s="101" t="s">
+      <c r="C43" s="116">
+        <v>2</v>
+      </c>
+      <c r="D43" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="119" t="s">
         <v>207</v>
       </c>
-      <c r="G43" s="107" t="s">
+      <c r="G43" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="H43" s="103"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="104">
+      <c r="H43" s="120"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="93"/>
+      <c r="K43" s="93">
         <v>0.2</v>
       </c>
-      <c r="L43" s="108"/>
-      <c r="M43" s="109" t="s">
+      <c r="L43" s="125"/>
+      <c r="M43" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="18">
+    <row r="44" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="116">
         <v>40</v>
       </c>
-      <c r="C44" s="18">
-        <v>2</v>
-      </c>
-      <c r="D44" s="126" t="s">
+      <c r="C44" s="116">
+        <v>2</v>
+      </c>
+      <c r="D44" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="127" t="s">
+      <c r="E44" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="126" t="s">
+      <c r="F44" s="132" t="s">
         <v>213</v>
       </c>
-      <c r="G44" s="128" t="s">
+      <c r="G44" s="137" t="s">
         <v>216</v>
       </c>
-      <c r="H44" s="129" t="s">
+      <c r="H44" s="133" t="s">
         <v>215</v>
       </c>
-      <c r="I44" s="14"/>
-      <c r="J44" s="5"/>
+      <c r="I44" s="118"/>
+      <c r="J44" s="93"/>
       <c r="K44" s="93"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="17" t="s">
+      <c r="L44" s="125"/>
+      <c r="M44" s="126" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="114" x14ac:dyDescent="0.15">
-      <c r="B45" s="18">
+    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
+      <c r="B45" s="116">
         <v>41</v>
       </c>
-      <c r="C45" s="106">
-        <v>2</v>
-      </c>
-      <c r="D45" s="101" t="s">
+      <c r="C45" s="116">
+        <v>2</v>
+      </c>
+      <c r="D45" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="119" t="s">
         <v>230</v>
       </c>
-      <c r="G45" s="107" t="s">
+      <c r="G45" s="123" t="s">
+        <v>236</v>
+      </c>
+      <c r="H45" s="120"/>
+      <c r="I45" s="118"/>
+      <c r="J45" s="93"/>
+      <c r="K45" s="93"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="126" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B46" s="116">
+        <v>42</v>
+      </c>
+      <c r="C46" s="116">
+        <v>2</v>
+      </c>
+      <c r="D46" s="118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="G46" s="123" t="s">
         <v>231</v>
       </c>
-      <c r="H45" s="16"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="109" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B46" s="18">
-        <v>42</v>
-      </c>
-      <c r="C46" s="18">
-        <v>2</v>
-      </c>
-      <c r="D46" s="101" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="G46" s="107" t="s">
-        <v>233</v>
-      </c>
-      <c r="H46" s="16"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="17"/>
-    </row>
-    <row r="47" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="H46" s="120"/>
+      <c r="I46" s="118"/>
+      <c r="J46" s="124">
+        <v>42171</v>
+      </c>
+      <c r="K46" s="93">
+        <v>0</v>
+      </c>
+      <c r="L46" s="125"/>
+      <c r="M46" s="126" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -3360,7 +3357,7 @@
       <c r="L47" s="22"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="2:14" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
@@ -5343,8 +5340,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5425,7 +5422,7 @@
       </c>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C7" s="72">
         <v>2</v>
       </c>
@@ -5733,89 +5730,91 @@
       </c>
       <c r="L17" s="69"/>
     </row>
-    <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="111">
+    <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="130">
         <v>14</v>
       </c>
-      <c r="D18" s="112" t="s">
+      <c r="D18" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="112" t="s">
+      <c r="E18" s="131" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="113" t="s">
+      <c r="F18" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="114" t="s">
+      <c r="G18" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="114" t="s">
+      <c r="H18" s="133" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="115" t="s">
+      <c r="I18" s="134" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="116"/>
-      <c r="K18" s="112" t="s">
+      <c r="J18" s="135"/>
+      <c r="K18" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="117"/>
+      <c r="L18" s="136"/>
     </row>
     <row r="19" spans="3:12" ht="142.5" x14ac:dyDescent="0.15">
-      <c r="C19" s="119">
+      <c r="C19" s="130">
         <v>15</v>
       </c>
-      <c r="D19" s="120" t="s">
+      <c r="D19" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="121" t="s">
+      <c r="E19" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="122" t="s">
+      <c r="F19" s="132" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="123" t="s">
+      <c r="G19" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="123" t="s">
+      <c r="H19" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="124"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="L19" s="105" t="s">
+      <c r="I19" s="121">
+        <v>42171</v>
+      </c>
+      <c r="J19" s="135"/>
+      <c r="K19" s="131" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="136" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="111">
+      <c r="C20" s="108">
         <v>16</v>
       </c>
-      <c r="D20" s="112" t="s">
+      <c r="D20" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="112" t="s">
+      <c r="E20" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="113" t="s">
+      <c r="F20" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="114" t="s">
+      <c r="G20" s="111" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="111" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="115" t="s">
+      <c r="I20" s="112" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="116"/>
-      <c r="K20" s="112" t="s">
+      <c r="J20" s="113"/>
+      <c r="K20" s="109" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="117" t="s">
+      <c r="L20" s="114" t="s">
         <v>172</v>
       </c>
     </row>
@@ -5845,33 +5844,33 @@
       </c>
       <c r="L21" s="85"/>
     </row>
-    <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="111">
+    <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+      <c r="C22" s="130">
         <v>18</v>
       </c>
-      <c r="D22" s="112" t="s">
+      <c r="D22" s="131" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="112" t="s">
+      <c r="E22" s="131" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="113" t="s">
+      <c r="F22" s="132" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="114" t="s">
+      <c r="G22" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="114" t="s">
+      <c r="H22" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="115" t="s">
+      <c r="I22" s="134" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="116"/>
-      <c r="K22" s="112" t="s">
+      <c r="J22" s="135"/>
+      <c r="K22" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="117"/>
+      <c r="L22" s="136"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -5930,60 +5929,60 @@
       <c r="L24" s="70"/>
     </row>
     <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="119">
+      <c r="C25" s="116">
         <v>21</v>
       </c>
-      <c r="D25" s="120" t="s">
+      <c r="D25" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="121" t="s">
+      <c r="E25" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="122" t="s">
+      <c r="F25" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="123" t="s">
+      <c r="G25" s="120" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="123" t="s">
+      <c r="H25" s="120" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="124">
+      <c r="I25" s="121">
         <v>42166</v>
       </c>
       <c r="J25" s="93"/>
-      <c r="K25" s="121" t="s">
+      <c r="K25" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="125" t="s">
+      <c r="L25" s="122" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="119">
+      <c r="C26" s="116">
         <v>22</v>
       </c>
-      <c r="D26" s="120" t="s">
+      <c r="D26" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="121" t="s">
+      <c r="E26" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="122" t="s">
+      <c r="F26" s="119" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="123" t="s">
+      <c r="G26" s="120" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="123"/>
-      <c r="I26" s="124">
+      <c r="H26" s="120"/>
+      <c r="I26" s="121">
         <v>42166</v>
       </c>
       <c r="J26" s="93"/>
-      <c r="K26" s="121" t="s">
+      <c r="K26" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="125" t="s">
+      <c r="L26" s="122" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6006,7 +6005,7 @@
       <c r="H27" s="103" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="110">
+      <c r="I27" s="107">
         <v>42166</v>
       </c>
       <c r="J27" s="104"/>
@@ -6036,7 +6035,7 @@
       <c r="H28" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="110">
+      <c r="I28" s="107">
         <v>42166</v>
       </c>
       <c r="J28" s="104"/>
@@ -6048,62 +6047,60 @@
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="119">
+      <c r="C29" s="116">
         <v>25</v>
       </c>
-      <c r="D29" s="120" t="s">
+      <c r="D29" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="121" t="s">
+      <c r="E29" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="122" t="s">
+      <c r="F29" s="119" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="123" t="s">
+      <c r="G29" s="120" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="123" t="s">
+      <c r="H29" s="120" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="124">
+      <c r="I29" s="121">
         <v>42166</v>
       </c>
       <c r="J29" s="93"/>
-      <c r="K29" s="121" t="s">
+      <c r="K29" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="125" t="s">
+      <c r="L29" s="122" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C30" s="106">
+      <c r="C30" s="116">
         <v>26</v>
       </c>
-      <c r="D30" s="120" t="s">
+      <c r="D30" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="121" t="s">
+      <c r="E30" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="122" t="s">
+      <c r="F30" s="119" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="123" t="s">
+      <c r="G30" s="120" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="123" t="s">
+      <c r="H30" s="120" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="124">
-        <v>42166</v>
-      </c>
+      <c r="I30" s="121"/>
       <c r="J30" s="93"/>
-      <c r="K30" s="121" t="s">
+      <c r="K30" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="L30" s="105" t="s">
+      <c r="L30" s="122" t="s">
         <v>224</v>
       </c>
     </row>
@@ -6111,129 +6108,131 @@
       <c r="C31" s="106">
         <v>27</v>
       </c>
-      <c r="D31" s="120" t="s">
+      <c r="D31" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="121" t="s">
+      <c r="E31" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="122" t="s">
+      <c r="F31" s="119" t="s">
         <v>204</v>
       </c>
-      <c r="G31" s="123" t="s">
+      <c r="G31" s="120" t="s">
         <v>211</v>
       </c>
-      <c r="H31" s="123"/>
-      <c r="I31" s="124">
+      <c r="H31" s="120"/>
+      <c r="I31" s="121">
         <v>42166</v>
       </c>
       <c r="J31" s="93"/>
-      <c r="K31" s="121" t="s">
+      <c r="K31" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="125"/>
+      <c r="L31" s="122"/>
     </row>
     <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
-      <c r="C32" s="106">
+      <c r="C32" s="116">
         <v>28</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="101" t="s">
+      <c r="E32" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="119" t="s">
         <v>225</v>
       </c>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="120" t="s">
         <v>226</v>
       </c>
-      <c r="H32" s="103" t="s">
+      <c r="H32" s="120" t="s">
         <v>227</v>
       </c>
-      <c r="I32" s="103"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="101" t="s">
+      <c r="I32" s="120"/>
+      <c r="J32" s="93"/>
+      <c r="K32" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="122"/>
+    </row>
+    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C33" s="116">
+        <v>29</v>
+      </c>
+      <c r="D33" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="G33" s="120" t="s">
+        <v>229</v>
+      </c>
+      <c r="H33" s="120"/>
+      <c r="I33" s="121">
+        <v>42171</v>
+      </c>
+      <c r="J33" s="93"/>
+      <c r="K33" s="118" t="s">
+        <v>200</v>
+      </c>
+      <c r="L33" s="122"/>
+    </row>
+    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="C34" s="116">
+        <v>30</v>
+      </c>
+      <c r="D34" s="117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="118" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="G34" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="H34" s="120"/>
+      <c r="I34" s="121">
+        <v>42171</v>
+      </c>
+      <c r="J34" s="93"/>
+      <c r="K34" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="L32" s="105"/>
-    </row>
-    <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="18">
-        <v>29</v>
-      </c>
-      <c r="D33" s="100" t="s">
+      <c r="L34" s="122"/>
+    </row>
+    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="C35" s="116">
+        <v>31</v>
+      </c>
+      <c r="D35" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="101" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="102" t="s">
-        <v>228</v>
-      </c>
-      <c r="G33" s="103" t="s">
-        <v>229</v>
-      </c>
-      <c r="H33" s="103"/>
-      <c r="I33" s="110">
-        <v>42171</v>
-      </c>
-      <c r="J33" s="104"/>
-      <c r="K33" s="101" t="s">
-        <v>200</v>
-      </c>
-      <c r="L33" s="70"/>
-    </row>
-    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C34" s="18">
-        <v>30</v>
-      </c>
-      <c r="D34" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="E34" s="101" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="102" t="s">
-        <v>193</v>
-      </c>
-      <c r="G34" s="103" t="s">
+      <c r="E35" s="118" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="G35" s="120" t="s">
         <v>234</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="104"/>
-      <c r="K34" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="L34" s="70"/>
-    </row>
-    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="C35" s="18">
-        <v>31</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>19</v>
-      </c>
-      <c r="E35" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="102" t="s">
+      <c r="H35" s="120" t="s">
         <v>235</v>
       </c>
-      <c r="G35" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="H35" s="103" t="s">
-        <v>237</v>
-      </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="L35" s="70"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="93"/>
+      <c r="K35" s="118" t="s">
+        <v>87</v>
+      </c>
+      <c r="L35" s="122"/>
     </row>
     <row r="36" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
@@ -6323,7 +6322,9 @@
   <autoFilter ref="B5:L41">
     <filterColumn colId="9">
       <filters>
+        <filter val="不再现"/>
         <filter val="未修复"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="240">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -958,6 +958,18 @@
 2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
 3？
 需要提供不同方案的工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当多选项目进行批量修改时，目前的默认生产日期，包装日期和发货日期为空，如果修改备注，这几个日期会被清空。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多选时，空值被忽略，其他改动项目需要修改成功。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1922,8 +1934,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2034,7 +2046,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -2105,7 +2117,7 @@
       </c>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -2793,7 +2805,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -2828,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -2995,7 +3007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3125,7 +3137,7 @@
       </c>
       <c r="M39" s="126"/>
     </row>
-    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="116">
         <v>36</v>
       </c>
@@ -3279,7 +3291,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="114" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="116">
         <v>41</v>
       </c>
@@ -5311,9 +5323,15 @@
         <filter val="中"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="8">
+      <filters blank="1">
+        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
+        <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
-        <filter val="未开始"/>
+        <filter val="完成"/>
         <filter val="验证中"/>
       </filters>
     </filterColumn>
@@ -5340,8 +5358,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L41"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5422,7 +5440,7 @@
       </c>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C7" s="72">
         <v>2</v>
       </c>
@@ -5730,7 +5748,7 @@
       </c>
       <c r="L17" s="69"/>
     </row>
-    <row r="18" spans="3:12" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C18" s="130">
         <v>14</v>
       </c>
@@ -5844,7 +5862,7 @@
       </c>
       <c r="L21" s="85"/>
     </row>
-    <row r="22" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C22" s="130">
         <v>18</v>
       </c>
@@ -5928,7 +5946,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C25" s="116">
         <v>21</v>
       </c>
@@ -5958,7 +5976,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C26" s="116">
         <v>22</v>
       </c>
@@ -6046,7 +6064,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="116">
         <v>25</v>
       </c>
@@ -6104,7 +6122,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C31" s="106">
         <v>27</v>
       </c>
@@ -6130,7 +6148,7 @@
       </c>
       <c r="L31" s="122"/>
     </row>
-    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C32" s="116">
         <v>28</v>
       </c>
@@ -6208,7 +6226,7 @@
       </c>
       <c r="L34" s="122"/>
     </row>
-    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C35" s="116">
         <v>31</v>
       </c>
@@ -6234,21 +6252,33 @@
       </c>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
-      <c r="D36" s="39"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="14"/>
+      <c r="D36" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>238</v>
+      </c>
+      <c r="H36" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="I36" s="103"/>
+      <c r="J36" s="104"/>
+      <c r="K36" s="101" t="s">
+        <v>219</v>
+      </c>
       <c r="L36" s="70"/>
     </row>
-    <row r="37" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>33</v>
       </c>
@@ -6262,7 +6292,7 @@
       <c r="K37" s="14"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>34</v>
       </c>
@@ -6276,7 +6306,7 @@
       <c r="K38" s="14"/>
       <c r="L38" s="70"/>
     </row>
-    <row r="39" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>35</v>
       </c>
@@ -6290,7 +6320,7 @@
       <c r="K39" s="14"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>36</v>
       </c>
@@ -6304,7 +6334,7 @@
       <c r="K40" s="14"/>
       <c r="L40" s="70"/>
     </row>
-    <row r="41" spans="3:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
         <v>37</v>
       </c>
@@ -6320,11 +6350,17 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:L41">
+    <filterColumn colId="7">
+      <filters blank="1">
+        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
+        <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="9">
-      <filters>
-        <filter val="不再现"/>
+      <filters blank="1">
         <filter val="未修复"/>
         <filter val="验证中"/>
+        <filter val="已修复"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
     <sheet name="Bug" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$62</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$160</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="270">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -806,9 +806,6 @@
   <si>
     <t>数据有业务人员提供，更新时我通知</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
   </si>
   <si>
     <t>可由业务人员直接在数据库中清理</t>
@@ -866,10 +863,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>模板详见《2015年包装计划》</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>模板参见《数据导出模板-客户与备注信息.xlsx》</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -898,14 +891,6 @@
   </si>
   <si>
     <t>增加一个包装计划导出按钮，可以根据包装计划的模板导出包装计划</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前按模板导出后条码不生成，需要启用宏并手动更改投产编号才可以使条码出来。且只有第一个Sheet页里面的条码可以显示出来。其他Sheet页都不显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>即使在下拉框中输入大写BMC，添加后页面仍然显示小写bmc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -970,6 +955,144 @@
   </si>
   <si>
     <t>多选时，空值被忽略，其他改动项目需要修改成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地测试环境问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再数据库中进行了修改，将小写的bmc改为答谢BMC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在代办事项销售和业务的订单审核时，使用更多筛选中的制造商进行筛选，没有结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该将相应的筛选结果显示出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试验了客户信息时可以筛选出来的。另外查询功能也是好用的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁钢默认为Z，但如果选择空的时候无法保存，仍然保存为Z</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>磁钢应该在选择空值后保存为空值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有S,T,U型机有磁钢，其它机型不需要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出后的Excel打开时出现一个白色为止页，需要手动点击一下Sheet页才能看见导出数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户应该打开后直接看到正常的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板详见《2015年包装计划》</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在包装计划的右上角增加一个合计，显示数量总和，也就是一共导出了多少条，这个可以考虑用Excel公式做，但不知道导出时公会会不会生效。如果不行就代码添加一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在包装计划的模板格式变更后在导出后不能被保存。比如希望所有导出的数据能够自动换行，居中，自适应行高等。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果工数很小可以考虑做一下。如果大就不做了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将备注的编辑权限释放到包装的计划审核。也就是说只有当包装的计划审核完成，备注才不可以修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前我们是控制在排产的计划审核。现在需要改。实际中包装人员也需要修改备注。但其他信息，如轴承什么的保持现在状态。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个还会有别的字段需要加，后续需求会跟新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将特殊的主机电压，制动器电压高亮显示，包括：非380V的主机电压和非110V的制动器电压。此外，标注颜色的字段在导出后也要有阴影提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要服务器支持开机自动启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库安全性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果服务器挂了，或者硬盘坏了，停电等特殊情况，需要保证系统可以正常使用。
+1. 数据库的备份
+2. 服务器的冗余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调查给出方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库大小写问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索功能需要不区分大小写，而数据库存储需要区分大小写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个要评估风险和工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参见最新包装计划模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1270,7 +1393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1626,6 +1749,15 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1934,8 +2066,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2770,7 +2902,7 @@
       </c>
       <c r="L28" s="22"/>
       <c r="M28" s="17" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="2:15" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -3024,10 +3156,10 @@
         <v>186</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="71">
@@ -3058,7 +3190,7 @@
         <v>189</v>
       </c>
       <c r="G37" s="123" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="118"/>
@@ -3088,10 +3220,10 @@
         <v>193</v>
       </c>
       <c r="G38" s="123" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I38" s="118"/>
       <c r="J38" s="124">
@@ -3102,7 +3234,7 @@
       </c>
       <c r="L38" s="125"/>
       <c r="M38" s="126" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -3133,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="M39" s="126"/>
     </row>
@@ -3154,7 +3286,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="128" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H40" s="129"/>
       <c r="I40" s="118"/>
@@ -3181,13 +3313,13 @@
         <v>15</v>
       </c>
       <c r="F41" s="119" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G41" s="123" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H41" s="120" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="124">
@@ -3198,7 +3330,7 @@
       </c>
       <c r="L41" s="125"/>
       <c r="M41" s="126" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
@@ -3215,16 +3347,16 @@
         <v>32</v>
       </c>
       <c r="F42" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="123" t="s">
         <v>209</v>
-      </c>
-      <c r="G42" s="123" t="s">
-        <v>210</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="118"/>
       <c r="J42" s="93"/>
       <c r="K42" s="93" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L42" s="125"/>
       <c r="M42" s="126" t="s">
@@ -3245,10 +3377,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="119" t="s">
+        <v>206</v>
+      </c>
+      <c r="G43" s="123" t="s">
         <v>207</v>
-      </c>
-      <c r="G43" s="123" t="s">
-        <v>208</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="118"/>
@@ -3269,19 +3401,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="132" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E44" s="131" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="132" t="s">
+        <v>212</v>
+      </c>
+      <c r="G44" s="137" t="s">
+        <v>214</v>
+      </c>
+      <c r="H44" s="133" t="s">
         <v>213</v>
-      </c>
-      <c r="G44" s="137" t="s">
-        <v>216</v>
-      </c>
-      <c r="H44" s="133" t="s">
-        <v>215</v>
       </c>
       <c r="I44" s="118"/>
       <c r="J44" s="93"/>
@@ -3305,10 +3437,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="119" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G45" s="123" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H45" s="120"/>
       <c r="I45" s="118"/>
@@ -3319,7 +3451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="116">
         <v>42</v>
       </c>
@@ -3336,7 +3468,7 @@
         <v>193</v>
       </c>
       <c r="G46" s="123" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H46" s="120"/>
       <c r="I46" s="118"/>
@@ -3348,80 +3480,128 @@
       </c>
       <c r="L46" s="125"/>
       <c r="M46" s="126" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
       <c r="C47" s="18">
         <v>2</v>
       </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="16"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="17"/>
-    </row>
-    <row r="48" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D47" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="102" t="s">
+        <v>251</v>
+      </c>
+      <c r="G47" s="138" t="s">
+        <v>250</v>
+      </c>
+      <c r="H47" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="I47" s="101"/>
+      <c r="J47" s="104"/>
+      <c r="K47" s="104"/>
+      <c r="L47" s="139"/>
+      <c r="M47" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
       <c r="C48" s="18">
         <v>2</v>
       </c>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="16"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="17"/>
-    </row>
-    <row r="49" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D48" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="G48" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="H48" s="103" t="s">
+        <v>254</v>
+      </c>
+      <c r="I48" s="101"/>
+      <c r="J48" s="104"/>
+      <c r="K48" s="104"/>
+      <c r="L48" s="139"/>
+      <c r="M48" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>45</v>
       </c>
       <c r="C49" s="18">
         <v>2</v>
       </c>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="16"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="93"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="17"/>
-    </row>
-    <row r="50" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D49" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="102" t="s">
+        <v>255</v>
+      </c>
+      <c r="G49" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="H49" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="I49" s="101"/>
+      <c r="J49" s="104"/>
+      <c r="K49" s="104"/>
+      <c r="L49" s="139"/>
+      <c r="M49" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>46</v>
       </c>
       <c r="C50" s="18">
         <v>2</v>
       </c>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="16"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="17"/>
+      <c r="D50" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E50" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="102" t="s">
+        <v>258</v>
+      </c>
+      <c r="G50" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>259</v>
+      </c>
+      <c r="I50" s="101"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="139"/>
+      <c r="M50" s="140" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="51" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
@@ -3430,52 +3610,86 @@
       <c r="C51" s="18">
         <v>2</v>
       </c>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="16"/>
+      <c r="D51" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E51" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="102" t="s">
+        <v>261</v>
+      </c>
+      <c r="G51" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="H51" s="103"/>
       <c r="I51" s="14"/>
       <c r="J51" s="5"/>
       <c r="K51" s="93"/>
       <c r="L51" s="22"/>
-      <c r="M51" s="17"/>
-    </row>
-    <row r="52" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M51" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>48</v>
       </c>
       <c r="C52" s="18">
         <v>2</v>
       </c>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="16"/>
+      <c r="D52" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="G52" s="138" t="s">
+        <v>264</v>
+      </c>
+      <c r="H52" s="103" t="s">
+        <v>265</v>
+      </c>
       <c r="I52" s="14"/>
       <c r="J52" s="5"/>
       <c r="K52" s="93"/>
       <c r="L52" s="22"/>
-      <c r="M52" s="17"/>
-    </row>
-    <row r="53" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="M52" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B53" s="18">
         <v>49</v>
       </c>
       <c r="C53" s="18">
         <v>2</v>
       </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="16"/>
+      <c r="D53" s="101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" s="101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F53" s="102" t="s">
+        <v>266</v>
+      </c>
+      <c r="G53" s="138" t="s">
+        <v>267</v>
+      </c>
+      <c r="H53" s="103" t="s">
+        <v>268</v>
+      </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
       <c r="K53" s="93"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="17"/>
+      <c r="M53" s="140" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="54" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B54" s="18">
@@ -5356,17 +5570,17 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="B2:L41"/>
+  <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="14.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.75" customWidth="1"/>
     <col min="8" max="8" width="27" customWidth="1"/>
     <col min="9" max="9" width="19" customWidth="1"/>
@@ -5776,7 +5990,7 @@
       </c>
       <c r="L18" s="136"/>
     </row>
-    <row r="19" spans="3:12" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="130">
         <v>15</v>
       </c>
@@ -5800,11 +6014,9 @@
       </c>
       <c r="J19" s="135"/>
       <c r="K19" s="131" t="s">
-        <v>200</v>
-      </c>
-      <c r="L19" s="136" t="s">
-        <v>223</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="L19" s="136"/>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C20" s="108">
@@ -6116,10 +6328,10 @@
       <c r="I30" s="121"/>
       <c r="J30" s="93"/>
       <c r="K30" s="118" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="L30" s="122" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -6133,10 +6345,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H31" s="120"/>
       <c r="I31" s="121">
@@ -6159,13 +6371,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="119" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G32" s="120" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H32" s="120" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="I32" s="120"/>
       <c r="J32" s="93"/>
@@ -6185,10 +6397,10 @@
         <v>20</v>
       </c>
       <c r="F33" s="119" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G33" s="120" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="H33" s="120"/>
       <c r="I33" s="121">
@@ -6196,7 +6408,7 @@
       </c>
       <c r="J33" s="93"/>
       <c r="K33" s="118" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="L33" s="122"/>
     </row>
@@ -6214,7 +6426,7 @@
         <v>193</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H34" s="120"/>
       <c r="I34" s="121">
@@ -6222,7 +6434,7 @@
       </c>
       <c r="J34" s="93"/>
       <c r="K34" s="118" t="s">
-        <v>219</v>
+        <v>36</v>
       </c>
       <c r="L34" s="122"/>
     </row>
@@ -6237,13 +6449,13 @@
         <v>32</v>
       </c>
       <c r="F35" s="119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="G35" s="120" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="H35" s="120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I35" s="120"/>
       <c r="J35" s="93"/>
@@ -6256,73 +6468,115 @@
       <c r="C36" s="18">
         <v>32</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="101" t="s">
+      <c r="E36" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="102" t="s">
-        <v>237</v>
-      </c>
-      <c r="G36" s="103" t="s">
-        <v>238</v>
-      </c>
-      <c r="H36" s="103" t="s">
-        <v>239</v>
-      </c>
-      <c r="I36" s="103"/>
-      <c r="J36" s="104"/>
-      <c r="K36" s="101" t="s">
-        <v>219</v>
-      </c>
-      <c r="L36" s="70"/>
-    </row>
-    <row r="37" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F36" s="119" t="s">
+        <v>233</v>
+      </c>
+      <c r="G36" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="H36" s="120" t="s">
+        <v>235</v>
+      </c>
+      <c r="I36" s="120"/>
+      <c r="J36" s="93"/>
+      <c r="K36" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="L36" s="122" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="16"/>
-      <c r="I37" s="16"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="14"/>
-      <c r="L37" s="70"/>
-    </row>
-    <row r="38" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D37" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="102" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" s="103" t="s">
+        <v>239</v>
+      </c>
+      <c r="H37" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="L37" s="105" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>34</v>
       </c>
-      <c r="D38" s="39"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="16"/>
-      <c r="I38" s="16"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="70"/>
-    </row>
-    <row r="39" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="D38" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="102" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="103" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" s="103" t="s">
+        <v>244</v>
+      </c>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="L38" s="105" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>35</v>
       </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="16"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="70"/>
+      <c r="D39" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E39" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="102" t="s">
+        <v>246</v>
+      </c>
+      <c r="G39" s="103" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" s="103" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" s="103"/>
+      <c r="J39" s="104"/>
+      <c r="K39" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="L39" s="105"/>
     </row>
     <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D40" s="39"/>
       <c r="E40" s="14"/>
@@ -6336,7 +6590,7 @@
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D41" s="39"/>
       <c r="E41" s="14"/>
@@ -6348,8 +6602,302 @@
       <c r="K41" s="14"/>
       <c r="L41" s="70"/>
     </row>
+    <row r="42" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C42" s="18">
+        <v>35</v>
+      </c>
+      <c r="D42" s="39"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="70"/>
+    </row>
+    <row r="43" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C43" s="18">
+        <v>35</v>
+      </c>
+      <c r="D43" s="39"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="70"/>
+    </row>
+    <row r="44" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C44" s="18">
+        <v>35</v>
+      </c>
+      <c r="D44" s="39"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="70"/>
+    </row>
+    <row r="45" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C45" s="18">
+        <v>35</v>
+      </c>
+      <c r="D45" s="39"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="70"/>
+    </row>
+    <row r="46" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C46" s="18">
+        <v>35</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="70"/>
+    </row>
+    <row r="47" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C47" s="18">
+        <v>35</v>
+      </c>
+      <c r="D47" s="39"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="70"/>
+    </row>
+    <row r="48" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C48" s="18">
+        <v>35</v>
+      </c>
+      <c r="D48" s="39"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="70"/>
+    </row>
+    <row r="49" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C49" s="18">
+        <v>35</v>
+      </c>
+      <c r="D49" s="39"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="70"/>
+    </row>
+    <row r="50" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C50" s="18">
+        <v>35</v>
+      </c>
+      <c r="D50" s="39"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="70"/>
+    </row>
+    <row r="51" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C51" s="18">
+        <v>35</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="70"/>
+    </row>
+    <row r="52" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C52" s="18">
+        <v>35</v>
+      </c>
+      <c r="D52" s="39"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="70"/>
+    </row>
+    <row r="53" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C53" s="18">
+        <v>35</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="70"/>
+    </row>
+    <row r="54" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C54" s="18">
+        <v>35</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="70"/>
+    </row>
+    <row r="55" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C55" s="18">
+        <v>35</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="70"/>
+    </row>
+    <row r="56" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C56" s="18">
+        <v>35</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="70"/>
+    </row>
+    <row r="57" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C57" s="18">
+        <v>35</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="70"/>
+    </row>
+    <row r="58" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C58" s="18">
+        <v>35</v>
+      </c>
+      <c r="D58" s="39"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="70"/>
+    </row>
+    <row r="59" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C59" s="18">
+        <v>35</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="70"/>
+    </row>
+    <row r="60" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C60" s="18">
+        <v>35</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="70"/>
+    </row>
+    <row r="61" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C61" s="18">
+        <v>35</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="70"/>
+    </row>
+    <row r="62" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C62" s="18">
+        <v>35</v>
+      </c>
+      <c r="D62" s="39"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="70"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B5:L41">
+  <autoFilter ref="B5:L62">
     <filterColumn colId="7">
       <filters blank="1">
         <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
@@ -6369,13 +6917,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D11">
       <formula1>"销售模块,计划模块,生产模块"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10 D12:D41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D10 D12:D62">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K62">
       <formula1>"未修复,修复中,验证中,已修复,不再现,不修复,无效Bug"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E41">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E62">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="271">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -877,9 +877,6 @@
   <si>
     <t>S1.0C为例，S型号，1.0梯速，C为吨位。先找型号，按照S，T，U，Y，V，L，然后按照吨位从小到大，A，B，C，D，最后梯速，0.5,1.0,1.5,2.0希望排除的顺序例子为S1.0C，S1.0D，S1.5C，S1.5D。然后是下一个机型，同样顺序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未修复</t>
   </si>
   <si>
     <t>模板中通过合并单元格优化了用户的阅读，这个不知道我们是否可以做到。</t>
@@ -1014,10 +1011,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>在包装计划的右上角增加一个合计，显示数量总和，也就是一共导出了多少条，这个可以考虑用Excel公式做，但不知道导出时公会会不会生效。如果不行就代码添加一下。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包装计划导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1035,10 +1028,6 @@
   </si>
   <si>
     <t>包装审核</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要将备注的编辑权限释放到包装的计划审核。也就是说只有当包装的计划审核完成，备注才不可以修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1093,6 +1082,21 @@
   </si>
   <si>
     <t>参见最新包装计划模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
+  </si>
+  <si>
+    <t>需要将备注的编辑权限释放到包装的计划审核。也就是说只有当包装的计划审核完成，备注才不可以修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在包装计划的右上角增加一个合计，显示数量总和，也就是一共导出了多少条，这个可以考虑用Excel公式做，但不知道导出时公会会不会生效。如果不行就代码添加一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在数据库中对磁钢和轴承增加字段无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1393,7 +1397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1759,6 +1763,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2066,8 +2071,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B41" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3220,10 +3225,10 @@
         <v>193</v>
       </c>
       <c r="G38" s="123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I38" s="118"/>
       <c r="J38" s="124">
@@ -3269,7 +3274,7 @@
       </c>
       <c r="M39" s="126"/>
     </row>
-    <row r="40" spans="2:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="116">
         <v>36</v>
       </c>
@@ -3316,10 +3321,10 @@
         <v>205</v>
       </c>
       <c r="G41" s="123" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" s="120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="124">
@@ -3423,7 +3428,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="114" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
       <c r="B45" s="116">
         <v>41</v>
       </c>
@@ -3437,10 +3442,10 @@
         <v>20</v>
       </c>
       <c r="F45" s="119" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G45" s="123" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H45" s="120"/>
       <c r="I45" s="118"/>
@@ -3468,7 +3473,7 @@
         <v>193</v>
       </c>
       <c r="G46" s="123" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H46" s="120"/>
       <c r="I46" s="118"/>
@@ -3497,23 +3502,27 @@
         <v>15</v>
       </c>
       <c r="F47" s="102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G47" s="138" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I47" s="101"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
+      <c r="J47" s="141">
+        <v>42173</v>
+      </c>
+      <c r="K47" s="104">
+        <v>0.05</v>
+      </c>
       <c r="L47" s="139"/>
       <c r="M47" s="140" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48" s="18">
         <v>44</v>
       </c>
@@ -3527,13 +3536,13 @@
         <v>32</v>
       </c>
       <c r="F48" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="G48" s="138" t="s">
+        <v>251</v>
+      </c>
+      <c r="H48" s="103" t="s">
         <v>252</v>
-      </c>
-      <c r="G48" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="H48" s="103" t="s">
-        <v>254</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="104"/>
@@ -3557,20 +3566,24 @@
         <v>15</v>
       </c>
       <c r="F49" s="102" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G49" s="138" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="H49" s="103" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I49" s="101"/>
-      <c r="J49" s="104"/>
-      <c r="K49" s="104"/>
+      <c r="J49" s="141">
+        <v>42173</v>
+      </c>
+      <c r="K49" s="104">
+        <v>0.02</v>
+      </c>
       <c r="L49" s="139"/>
       <c r="M49" s="140" t="s">
-        <v>18</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
@@ -3587,13 +3600,13 @@
         <v>20</v>
       </c>
       <c r="F50" s="102" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G50" s="138" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H50" s="103" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="104"/>
@@ -3617,10 +3630,10 @@
         <v>20</v>
       </c>
       <c r="F51" s="102" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G51" s="138" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H51" s="103"/>
       <c r="I51" s="14"/>
@@ -3645,13 +3658,13 @@
         <v>20</v>
       </c>
       <c r="F52" s="102" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G52" s="138" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H52" s="103" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="5"/>
@@ -3661,7 +3674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53" s="18">
         <v>49</v>
       </c>
@@ -3675,13 +3688,13 @@
         <v>32</v>
       </c>
       <c r="F53" s="102" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G53" s="138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H53" s="103" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
@@ -5546,7 +5559,7 @@
     <filterColumn colId="11">
       <filters blank="1">
         <filter val="完成"/>
-        <filter val="验证中"/>
+        <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5572,8 +5585,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6331,7 +6344,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="122" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
@@ -6371,13 +6384,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="119" t="s">
+        <v>220</v>
+      </c>
+      <c r="G32" s="120" t="s">
         <v>221</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="H32" s="120" t="s">
         <v>222</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>223</v>
       </c>
       <c r="I32" s="120"/>
       <c r="J32" s="93"/>
@@ -6397,10 +6410,10 @@
         <v>20</v>
       </c>
       <c r="F33" s="119" t="s">
+        <v>223</v>
+      </c>
+      <c r="G33" s="120" t="s">
         <v>224</v>
-      </c>
-      <c r="G33" s="120" t="s">
-        <v>225</v>
       </c>
       <c r="H33" s="120"/>
       <c r="I33" s="121">
@@ -6426,7 +6439,7 @@
         <v>193</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H34" s="120"/>
       <c r="I34" s="121">
@@ -6449,13 +6462,13 @@
         <v>32</v>
       </c>
       <c r="F35" s="119" t="s">
+        <v>228</v>
+      </c>
+      <c r="G35" s="120" t="s">
         <v>229</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="H35" s="120" t="s">
         <v>230</v>
-      </c>
-      <c r="H35" s="120" t="s">
-        <v>231</v>
       </c>
       <c r="I35" s="120"/>
       <c r="J35" s="93"/>
@@ -6475,13 +6488,13 @@
         <v>15</v>
       </c>
       <c r="F36" s="119" t="s">
+        <v>232</v>
+      </c>
+      <c r="G36" s="120" t="s">
         <v>233</v>
       </c>
-      <c r="G36" s="120" t="s">
+      <c r="H36" s="120" t="s">
         <v>234</v>
-      </c>
-      <c r="H36" s="120" t="s">
-        <v>235</v>
       </c>
       <c r="I36" s="120"/>
       <c r="J36" s="93"/>
@@ -6489,7 +6502,7 @@
         <v>117</v>
       </c>
       <c r="L36" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="57" x14ac:dyDescent="0.15">
@@ -6503,21 +6516,23 @@
         <v>20</v>
       </c>
       <c r="F37" s="102" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="103" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="H37" s="103" t="s">
         <v>239</v>
       </c>
-      <c r="H37" s="103" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" s="103"/>
+      <c r="I37" s="107">
+        <v>42173</v>
+      </c>
       <c r="J37" s="104"/>
       <c r="K37" s="101" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="L37" s="105" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -6531,21 +6546,25 @@
         <v>15</v>
       </c>
       <c r="F38" s="102" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="103" t="s">
         <v>242</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="H38" s="103" t="s">
         <v>243</v>
       </c>
-      <c r="H38" s="103" t="s">
+      <c r="I38" s="107">
+        <v>42173</v>
+      </c>
+      <c r="J38" s="104" t="s">
+        <v>270</v>
+      </c>
+      <c r="K38" s="101" t="s">
+        <v>267</v>
+      </c>
+      <c r="L38" s="105" t="s">
         <v>244</v>
-      </c>
-      <c r="I38" s="103"/>
-      <c r="J38" s="104"/>
-      <c r="K38" s="101" t="s">
-        <v>217</v>
-      </c>
-      <c r="L38" s="105" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -6559,18 +6578,20 @@
         <v>20</v>
       </c>
       <c r="F39" s="102" t="s">
+        <v>245</v>
+      </c>
+      <c r="G39" s="103" t="s">
         <v>246</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="H39" s="103" t="s">
         <v>247</v>
       </c>
-      <c r="H39" s="103" t="s">
-        <v>248</v>
-      </c>
-      <c r="I39" s="103"/>
+      <c r="I39" s="107">
+        <v>42173</v>
+      </c>
       <c r="J39" s="104"/>
       <c r="K39" s="101" t="s">
-        <v>217</v>
+        <v>267</v>
       </c>
       <c r="L39" s="105"/>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -2071,8 +2071,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B41" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2219,7 +2219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2712,7 +2712,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2845,7 +2845,7 @@
       </c>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>42173</v>
       </c>
       <c r="K49" s="104">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="L49" s="139"/>
       <c r="M49" s="140" t="s">
@@ -5552,14 +5552,14 @@
     </filterColumn>
     <filterColumn colId="8">
       <filters blank="1">
-        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
-        <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
+        <dateGroupItem year="2015" month="6" dateTimeGrouping="month"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
         <filter val="完成"/>
         <filter val="未开始"/>
+        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="270">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -991,10 +991,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目前只有S,T,U型机有磁钢，其它机型不需要。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>包装计划导出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,14 +1081,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>验证中</t>
-  </si>
-  <si>
     <t>需要将备注的编辑权限释放到包装的计划审核。也就是说只有当包装的计划审核完成，备注才不可以修改。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在包装计划的右上角增加一个合计，显示数量总和，也就是一共导出了多少条，这个可以考虑用Excel公式做，但不知道导出时公会会不会生效。如果不行就代码添加一下。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前只有S,T,U型机有磁钢，其它机型不需要。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2071,8 +2068,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3324,7 +3321,7 @@
         <v>219</v>
       </c>
       <c r="H41" s="120" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="124">
@@ -3502,13 +3499,13 @@
         <v>15</v>
       </c>
       <c r="F47" s="102" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G47" s="138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="H47" s="103" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I47" s="101"/>
       <c r="J47" s="141">
@@ -3519,7 +3516,7 @@
       </c>
       <c r="L47" s="139"/>
       <c r="M47" s="140" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -3536,13 +3533,13 @@
         <v>32</v>
       </c>
       <c r="F48" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="G48" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="138" t="s">
+      <c r="H48" s="103" t="s">
         <v>251</v>
-      </c>
-      <c r="H48" s="103" t="s">
-        <v>252</v>
       </c>
       <c r="I48" s="101"/>
       <c r="J48" s="104"/>
@@ -3566,13 +3563,13 @@
         <v>15</v>
       </c>
       <c r="F49" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="G49" s="138" t="s">
+        <v>266</v>
+      </c>
+      <c r="H49" s="103" t="s">
         <v>253</v>
-      </c>
-      <c r="G49" s="138" t="s">
-        <v>268</v>
-      </c>
-      <c r="H49" s="103" t="s">
-        <v>254</v>
       </c>
       <c r="I49" s="101"/>
       <c r="J49" s="141">
@@ -3583,7 +3580,7 @@
       </c>
       <c r="L49" s="139"/>
       <c r="M49" s="140" t="s">
-        <v>267</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
@@ -3600,13 +3597,13 @@
         <v>20</v>
       </c>
       <c r="F50" s="102" t="s">
+        <v>254</v>
+      </c>
+      <c r="G50" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="H50" s="103" t="s">
         <v>255</v>
-      </c>
-      <c r="G50" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="H50" s="103" t="s">
-        <v>256</v>
       </c>
       <c r="I50" s="101"/>
       <c r="J50" s="104"/>
@@ -3630,10 +3627,10 @@
         <v>20</v>
       </c>
       <c r="F51" s="102" t="s">
+        <v>257</v>
+      </c>
+      <c r="G51" s="138" t="s">
         <v>258</v>
-      </c>
-      <c r="G51" s="138" t="s">
-        <v>259</v>
       </c>
       <c r="H51" s="103"/>
       <c r="I51" s="14"/>
@@ -3658,13 +3655,13 @@
         <v>20</v>
       </c>
       <c r="F52" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="G52" s="138" t="s">
         <v>260</v>
       </c>
-      <c r="G52" s="138" t="s">
+      <c r="H52" s="103" t="s">
         <v>261</v>
-      </c>
-      <c r="H52" s="103" t="s">
-        <v>262</v>
       </c>
       <c r="I52" s="14"/>
       <c r="J52" s="5"/>
@@ -3688,13 +3685,13 @@
         <v>32</v>
       </c>
       <c r="F53" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="G53" s="138" t="s">
         <v>263</v>
       </c>
-      <c r="G53" s="138" t="s">
+      <c r="H53" s="103" t="s">
         <v>264</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>265</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
@@ -5586,7 +5583,7 @@
   <dimension ref="B2:L62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6529,7 +6526,7 @@
       </c>
       <c r="J37" s="104"/>
       <c r="K37" s="101" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="L37" s="105" t="s">
         <v>240</v>
@@ -6557,14 +6554,14 @@
       <c r="I38" s="107">
         <v>42173</v>
       </c>
-      <c r="J38" s="104" t="s">
-        <v>270</v>
+      <c r="J38" s="138" t="s">
+        <v>269</v>
       </c>
       <c r="K38" s="101" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="L38" s="105" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
@@ -6578,20 +6575,20 @@
         <v>20</v>
       </c>
       <c r="F39" s="102" t="s">
+        <v>244</v>
+      </c>
+      <c r="G39" s="103" t="s">
         <v>245</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="H39" s="103" t="s">
         <v>246</v>
-      </c>
-      <c r="H39" s="103" t="s">
-        <v>247</v>
       </c>
       <c r="I39" s="107">
         <v>42173</v>
       </c>
       <c r="J39" s="104"/>
       <c r="K39" s="101" t="s">
-        <v>267</v>
+        <v>36</v>
       </c>
       <c r="L39" s="105"/>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="278">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1094,6 +1094,37 @@
   </si>
   <si>
     <t>在数据库中对磁钢和轴承增加字段无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装计划导出后的下达日期一直都是6月18日。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应该显示每次到处的日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
+  </si>
+  <si>
+    <t>我看了一下模板，模板里写的就是6月18日，是不是模板里的去掉就好了？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装模板的位置调整了一下，要求除了最后三个没有值得列以外，所有的格布能超过O列，目前表头由于之前合并单元格所以超过了，新增的合计也超过了。我调整了模板，请使用新模板测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见Git中模板文件夹下的包装计划模板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1760,7 +1791,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2068,8 +2098,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="Y47" sqref="Y47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3492,30 +3522,30 @@
       <c r="C47" s="18">
         <v>2</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D47" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="101" t="s">
+      <c r="E47" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="102" t="s">
+      <c r="F47" s="119" t="s">
         <v>248</v>
       </c>
-      <c r="G47" s="138" t="s">
+      <c r="G47" s="123" t="s">
         <v>267</v>
       </c>
-      <c r="H47" s="103" t="s">
+      <c r="H47" s="120" t="s">
         <v>265</v>
       </c>
-      <c r="I47" s="101"/>
-      <c r="J47" s="141">
+      <c r="I47" s="118"/>
+      <c r="J47" s="124">
         <v>42173</v>
       </c>
-      <c r="K47" s="104">
+      <c r="K47" s="93">
         <v>0.05</v>
       </c>
-      <c r="L47" s="139"/>
-      <c r="M47" s="140" t="s">
+      <c r="L47" s="125"/>
+      <c r="M47" s="126" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3556,30 +3586,30 @@
       <c r="C49" s="18">
         <v>2</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D49" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="101" t="s">
+      <c r="E49" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="102" t="s">
+      <c r="F49" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="G49" s="138" t="s">
+      <c r="G49" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="H49" s="103" t="s">
+      <c r="H49" s="120" t="s">
         <v>253</v>
       </c>
-      <c r="I49" s="101"/>
-      <c r="J49" s="141">
+      <c r="I49" s="118"/>
+      <c r="J49" s="124">
         <v>42173</v>
       </c>
-      <c r="K49" s="104">
+      <c r="K49" s="93">
         <v>0.01</v>
       </c>
-      <c r="L49" s="139"/>
-      <c r="M49" s="140" t="s">
+      <c r="L49" s="125"/>
+      <c r="M49" s="126" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3590,26 +3620,26 @@
       <c r="C50" s="18">
         <v>2</v>
       </c>
-      <c r="D50" s="101" t="s">
+      <c r="D50" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="101" t="s">
+      <c r="E50" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="102" t="s">
+      <c r="F50" s="119" t="s">
         <v>254</v>
       </c>
-      <c r="G50" s="138" t="s">
+      <c r="G50" s="123" t="s">
         <v>256</v>
       </c>
-      <c r="H50" s="103" t="s">
+      <c r="H50" s="120" t="s">
         <v>255</v>
       </c>
-      <c r="I50" s="101"/>
-      <c r="J50" s="104"/>
-      <c r="K50" s="104"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="140" t="s">
+      <c r="I50" s="118"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="126" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3620,24 +3650,24 @@
       <c r="C51" s="18">
         <v>2</v>
       </c>
-      <c r="D51" s="101" t="s">
+      <c r="D51" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="101" t="s">
+      <c r="E51" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="119" t="s">
         <v>257</v>
       </c>
-      <c r="G51" s="138" t="s">
+      <c r="G51" s="123" t="s">
         <v>258</v>
       </c>
-      <c r="H51" s="103"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="5"/>
+      <c r="H51" s="120"/>
+      <c r="I51" s="118"/>
+      <c r="J51" s="93"/>
       <c r="K51" s="93"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="140" t="s">
+      <c r="L51" s="125"/>
+      <c r="M51" s="126" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3648,26 +3678,26 @@
       <c r="C52" s="18">
         <v>2</v>
       </c>
-      <c r="D52" s="101" t="s">
+      <c r="D52" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="102" t="s">
+      <c r="F52" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="G52" s="138" t="s">
+      <c r="G52" s="123" t="s">
         <v>260</v>
       </c>
-      <c r="H52" s="103" t="s">
+      <c r="H52" s="120" t="s">
         <v>261</v>
       </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="5"/>
+      <c r="I52" s="118"/>
+      <c r="J52" s="93"/>
       <c r="K52" s="93"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="140" t="s">
+      <c r="L52" s="125"/>
+      <c r="M52" s="126" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3701,23 +3731,35 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B54" s="18">
         <v>50</v>
       </c>
-      <c r="C54" s="18">
-        <v>2</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="16"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="93"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="17"/>
+      <c r="C54" s="106">
+        <v>2</v>
+      </c>
+      <c r="D54" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="102" t="s">
+        <v>275</v>
+      </c>
+      <c r="G54" s="138" t="s">
+        <v>276</v>
+      </c>
+      <c r="H54" s="103" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54" s="101"/>
+      <c r="J54" s="104"/>
+      <c r="K54" s="104"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="140" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="55" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B55" s="18">
@@ -5582,8 +5624,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6506,29 +6548,29 @@
       <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="117" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="101" t="s">
+      <c r="E37" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="120" t="s">
         <v>238</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="120" t="s">
         <v>239</v>
       </c>
-      <c r="I37" s="107">
+      <c r="I37" s="121">
         <v>42173</v>
       </c>
-      <c r="J37" s="104"/>
-      <c r="K37" s="101" t="s">
+      <c r="J37" s="93"/>
+      <c r="K37" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="105" t="s">
+      <c r="L37" s="122" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6536,31 +6578,31 @@
       <c r="C38" s="18">
         <v>34</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="101" t="s">
+      <c r="E38" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F38" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G38" s="120" t="s">
         <v>242</v>
       </c>
-      <c r="H38" s="103" t="s">
+      <c r="H38" s="120" t="s">
         <v>243</v>
       </c>
-      <c r="I38" s="107">
+      <c r="I38" s="121">
         <v>42173</v>
       </c>
-      <c r="J38" s="138" t="s">
+      <c r="J38" s="123" t="s">
         <v>269</v>
       </c>
-      <c r="K38" s="101" t="s">
+      <c r="K38" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="105" t="s">
+      <c r="L38" s="122" t="s">
         <v>268</v>
       </c>
     </row>
@@ -6568,43 +6610,57 @@
       <c r="C39" s="18">
         <v>35</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="101" t="s">
+      <c r="E39" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="G39" s="120" t="s">
         <v>245</v>
       </c>
-      <c r="H39" s="103" t="s">
+      <c r="H39" s="120" t="s">
         <v>246</v>
       </c>
-      <c r="I39" s="107">
+      <c r="I39" s="121">
         <v>42173</v>
       </c>
-      <c r="J39" s="104"/>
-      <c r="K39" s="101" t="s">
+      <c r="J39" s="93"/>
+      <c r="K39" s="118" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="105"/>
-    </row>
-    <row r="40" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="L39" s="122"/>
+    </row>
+    <row r="40" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>35</v>
       </c>
-      <c r="D40" s="39"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="16"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="70"/>
+      <c r="D40" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="102" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" s="103" t="s">
+        <v>271</v>
+      </c>
+      <c r="H40" s="103" t="s">
+        <v>272</v>
+      </c>
+      <c r="I40" s="103"/>
+      <c r="J40" s="104"/>
+      <c r="K40" s="101" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" s="105" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C41" s="18">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -1035,14 +1035,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这个还会有别的字段需要加，后续需求会跟新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要将特殊的主机电压，制动器电压高亮显示，包括：非380V的主机电压和非110V的制动器电压。此外，标注颜色的字段在导出后也要有阴影提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>服务器启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,6 +1117,24 @@
   </si>
   <si>
     <t>见Git中模板文件夹下的包装计划模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下条件标注颜色：
+1. 制动器电压非
+   DC11V
+   AC220V
+2. 曳引机规格非
+   400*5*10*16
+   480*7*12*18
+3. 编码器型号非
+   海1387
+   多8192
+4. T和U型机机房为“无”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2098,8 +2108,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="Y47" sqref="Y47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="S45" sqref="S45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2210,7 +2220,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -2246,7 +2256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -2281,7 +2291,7 @@
       </c>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -2450,7 +2460,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2872,7 +2882,7 @@
       </c>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2905,7 +2915,7 @@
       </c>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2969,7 +2979,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -3004,7 +3014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -3041,7 +3051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -3073,7 +3083,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -3107,7 +3117,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -3171,7 +3181,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3235,7 +3245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="116">
         <v>34</v>
       </c>
@@ -3331,7 +3341,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="116">
         <v>37</v>
       </c>
@@ -3483,7 +3493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="116">
         <v>42</v>
       </c>
@@ -3515,7 +3525,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -3532,10 +3542,10 @@
         <v>248</v>
       </c>
       <c r="G47" s="123" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="H47" s="120" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I47" s="118"/>
       <c r="J47" s="124">
@@ -3579,7 +3589,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>45</v>
       </c>
@@ -3596,7 +3606,7 @@
         <v>252</v>
       </c>
       <c r="G49" s="123" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H49" s="120" t="s">
         <v>253</v>
@@ -3613,7 +3623,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" ht="156.75" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>46</v>
       </c>
@@ -3630,10 +3640,10 @@
         <v>254</v>
       </c>
       <c r="G50" s="123" t="s">
-        <v>256</v>
-      </c>
-      <c r="H50" s="120" t="s">
-        <v>255</v>
+        <v>277</v>
+      </c>
+      <c r="H50" s="103" t="s">
+        <v>276</v>
       </c>
       <c r="I50" s="118"/>
       <c r="J50" s="93"/>
@@ -3657,10 +3667,10 @@
         <v>20</v>
       </c>
       <c r="F51" s="119" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G51" s="123" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H51" s="120"/>
       <c r="I51" s="118"/>
@@ -3685,13 +3695,13 @@
         <v>20</v>
       </c>
       <c r="F52" s="119" t="s">
+        <v>257</v>
+      </c>
+      <c r="G52" s="123" t="s">
+        <v>258</v>
+      </c>
+      <c r="H52" s="120" t="s">
         <v>259</v>
-      </c>
-      <c r="G52" s="123" t="s">
-        <v>260</v>
-      </c>
-      <c r="H52" s="120" t="s">
-        <v>261</v>
       </c>
       <c r="I52" s="118"/>
       <c r="J52" s="93"/>
@@ -3715,13 +3725,13 @@
         <v>32</v>
       </c>
       <c r="F53" s="102" t="s">
+        <v>260</v>
+      </c>
+      <c r="G53" s="138" t="s">
+        <v>261</v>
+      </c>
+      <c r="H53" s="103" t="s">
         <v>262</v>
-      </c>
-      <c r="G53" s="138" t="s">
-        <v>263</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>264</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
@@ -3745,13 +3755,13 @@
         <v>15</v>
       </c>
       <c r="F54" s="102" t="s">
+        <v>273</v>
+      </c>
+      <c r="G54" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="H54" s="103" t="s">
         <v>275</v>
-      </c>
-      <c r="G54" s="138" t="s">
-        <v>276</v>
-      </c>
-      <c r="H54" s="103" t="s">
-        <v>277</v>
       </c>
       <c r="I54" s="101"/>
       <c r="J54" s="104"/>
@@ -5596,9 +5606,7 @@
     </filterColumn>
     <filterColumn colId="11">
       <filters blank="1">
-        <filter val="完成"/>
         <filter val="未开始"/>
-        <filter val="验证中"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5624,8 +5632,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6042,7 +6050,7 @@
       </c>
       <c r="L18" s="136"/>
     </row>
-    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C19" s="130">
         <v>15</v>
       </c>
@@ -6210,7 +6218,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C25" s="116">
         <v>21</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C26" s="116">
         <v>22</v>
       </c>
@@ -6328,7 +6336,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C29" s="116">
         <v>25</v>
       </c>
@@ -6358,7 +6366,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C30" s="116">
         <v>26</v>
       </c>
@@ -6386,7 +6394,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C31" s="106">
         <v>27</v>
       </c>
@@ -6438,7 +6446,7 @@
       </c>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C33" s="116">
         <v>29</v>
       </c>
@@ -6464,7 +6472,7 @@
       </c>
       <c r="L33" s="122"/>
     </row>
-    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C34" s="116">
         <v>30</v>
       </c>
@@ -6516,7 +6524,7 @@
       </c>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
@@ -6544,7 +6552,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="37" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C37" s="18">
         <v>33</v>
       </c>
@@ -6574,7 +6582,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="38" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C38" s="18">
         <v>34</v>
       </c>
@@ -6597,16 +6605,16 @@
         <v>42173</v>
       </c>
       <c r="J38" s="123" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K38" s="118" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="122" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="39" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C39" s="18">
         <v>35</v>
       </c>
@@ -6645,21 +6653,21 @@
         <v>15</v>
       </c>
       <c r="F40" s="102" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="H40" s="103" t="s">
         <v>270</v>
-      </c>
-      <c r="G40" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>272</v>
       </c>
       <c r="I40" s="103"/>
       <c r="J40" s="104"/>
       <c r="K40" s="101" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="L40" s="105" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -6981,8 +6989,6 @@
     <filterColumn colId="9">
       <filters blank="1">
         <filter val="未修复"/>
-        <filter val="验证中"/>
-        <filter val="已修复"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -1101,9 +1101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未修复</t>
-  </si>
-  <si>
     <t>我看了一下模板，模板里写的就是6月18日，是不是模板里的去掉就好了？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1136,6 +1133,9 @@
   <si>
     <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证中</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2108,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="S45" sqref="S45"/>
+    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3640,10 +3640,10 @@
         <v>254</v>
       </c>
       <c r="G50" s="123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H50" s="103" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I50" s="118"/>
       <c r="J50" s="93"/>
@@ -3755,13 +3755,13 @@
         <v>15</v>
       </c>
       <c r="F54" s="102" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="138" t="s">
         <v>273</v>
       </c>
-      <c r="G54" s="138" t="s">
+      <c r="H54" s="103" t="s">
         <v>274</v>
-      </c>
-      <c r="H54" s="103" t="s">
-        <v>275</v>
       </c>
       <c r="I54" s="101"/>
       <c r="J54" s="104"/>
@@ -5605,7 +5605,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="未开始"/>
       </filters>
     </filterColumn>
@@ -5632,8 +5632,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6661,13 +6661,15 @@
       <c r="H40" s="103" t="s">
         <v>270</v>
       </c>
-      <c r="I40" s="103"/>
+      <c r="I40" s="107">
+        <v>42177</v>
+      </c>
       <c r="J40" s="104"/>
       <c r="K40" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="L40" s="105" t="s">
         <v>271</v>
-      </c>
-      <c r="L40" s="105" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -6987,7 +6989,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="9">
-      <filters blank="1">
+      <filters>
         <filter val="未修复"/>
       </filters>
     </filterColumn>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="277">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1133,9 +1133,6 @@
   <si>
     <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证中</t>
   </si>
 </sst>
 </file>
@@ -2108,8 +2105,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A45" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3765,7 @@
       <c r="K54" s="104"/>
       <c r="L54" s="139"/>
       <c r="M54" s="140" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
@@ -5632,8 +5629,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6666,7 +6663,7 @@
       </c>
       <c r="J40" s="104"/>
       <c r="K40" s="101" t="s">
-        <v>277</v>
+        <v>36</v>
       </c>
       <c r="L40" s="105" t="s">
         <v>271</v>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="284">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1132,6 +1132,33 @@
   </si>
   <si>
     <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段都正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产和代办事项模块的弹出的信息显示对话框中的字段串行了，与下表格中的显示不符。表格中的显示是正确的。但不是所有的都串行，只有后面自己个字段，如工号，制造商等串行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序模块仍然存在小问题。当吨位后面出现其他其母时，如D-H，D-N，D后面的字母会影响排序结果 ，导致梯速显示不正确。可以参考生产日期7月2号的数据。1.5D-N显示在2.0D-H后面了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D-N应该显示在2.0D-H的后面。我们排序只按照1.5后面的第一位字母排序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2105,8 +2132,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2217,7 +2244,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -2253,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -2288,7 +2315,7 @@
       </c>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -2326,7 +2353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -2394,7 +2421,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B12" s="51">
         <v>7</v>
       </c>
@@ -2457,7 +2484,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2492,7 +2519,7 @@
       </c>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B15" s="51">
         <v>10</v>
       </c>
@@ -2586,7 +2613,7 @@
       </c>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B18" s="51">
         <v>13</v>
       </c>
@@ -2618,7 +2645,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B19" s="51">
         <v>14</v>
       </c>
@@ -2650,7 +2677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="51">
         <v>15</v>
       </c>
@@ -2682,7 +2709,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B21" s="51">
         <v>16</v>
       </c>
@@ -2746,7 +2773,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2812,7 +2839,7 @@
       </c>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B25" s="51">
         <v>20</v>
       </c>
@@ -2879,7 +2906,7 @@
       </c>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2912,7 +2939,7 @@
       </c>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2944,7 +2971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -2976,7 +3003,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -3011,7 +3038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -3048,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -3080,7 +3107,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -3114,7 +3141,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -3178,7 +3205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3242,7 +3269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B38" s="116">
         <v>34</v>
       </c>
@@ -3308,7 +3335,7 @@
       </c>
       <c r="M39" s="126"/>
     </row>
-    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="116">
         <v>36</v>
       </c>
@@ -3338,7 +3365,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
       <c r="B41" s="116">
         <v>37</v>
       </c>
@@ -3462,7 +3489,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="114" hidden="1" x14ac:dyDescent="0.15">
       <c r="B45" s="116">
         <v>41</v>
       </c>
@@ -3490,7 +3517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B46" s="116">
         <v>42</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -3586,7 +3613,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>45</v>
       </c>
@@ -3620,7 +3647,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="156.75" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" ht="156.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>46</v>
       </c>
@@ -3650,7 +3677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
         <v>47</v>
       </c>
@@ -3678,7 +3705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>48</v>
       </c>
@@ -3742,33 +3769,35 @@
       <c r="B54" s="18">
         <v>50</v>
       </c>
-      <c r="C54" s="106">
-        <v>2</v>
-      </c>
-      <c r="D54" s="101" t="s">
+      <c r="C54" s="116">
+        <v>2</v>
+      </c>
+      <c r="D54" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="102" t="s">
+      <c r="F54" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="138" t="s">
+      <c r="G54" s="123" t="s">
         <v>273</v>
       </c>
-      <c r="H54" s="103" t="s">
+      <c r="H54" s="120" t="s">
         <v>274</v>
       </c>
-      <c r="I54" s="101"/>
-      <c r="J54" s="104"/>
-      <c r="K54" s="104"/>
-      <c r="L54" s="139"/>
-      <c r="M54" s="140" t="s">
+      <c r="I54" s="118"/>
+      <c r="J54" s="124">
+        <v>42177</v>
+      </c>
+      <c r="K54" s="93"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="126" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B55" s="18">
         <v>51</v>
       </c>
@@ -3786,7 +3815,7 @@
       <c r="L55" s="22"/>
       <c r="M55" s="17"/>
     </row>
-    <row r="56" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56" s="18">
         <v>52</v>
       </c>
@@ -3804,7 +3833,7 @@
       <c r="L56" s="22"/>
       <c r="M56" s="17"/>
     </row>
-    <row r="57" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57" s="18">
         <v>53</v>
       </c>
@@ -3822,7 +3851,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B58" s="18">
         <v>54</v>
       </c>
@@ -3840,7 +3869,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="18">
         <v>55</v>
       </c>
@@ -3858,7 +3887,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="18">
         <v>56</v>
       </c>
@@ -3876,7 +3905,7 @@
       <c r="L60" s="22"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="18">
         <v>57</v>
       </c>
@@ -3894,7 +3923,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="18">
         <v>58</v>
       </c>
@@ -3912,7 +3941,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="18">
         <v>59</v>
       </c>
@@ -3930,7 +3959,7 @@
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="18">
         <v>60</v>
       </c>
@@ -3948,7 +3977,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="18">
         <v>61</v>
       </c>
@@ -3966,7 +3995,7 @@
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
-    <row r="66" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="18">
         <v>62</v>
       </c>
@@ -3984,7 +4013,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
-    <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="18">
         <v>63</v>
       </c>
@@ -4002,7 +4031,7 @@
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
-    <row r="68" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="18">
         <v>64</v>
       </c>
@@ -4020,7 +4049,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="18">
         <v>65</v>
       </c>
@@ -4038,7 +4067,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="18">
         <v>66</v>
       </c>
@@ -4056,7 +4085,7 @@
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="18">
         <v>67</v>
       </c>
@@ -4074,7 +4103,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="18">
         <v>68</v>
       </c>
@@ -4092,7 +4121,7 @@
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
-    <row r="73" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="18">
         <v>69</v>
       </c>
@@ -4110,7 +4139,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
-    <row r="74" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74" s="18">
         <v>70</v>
       </c>
@@ -4128,7 +4157,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
-    <row r="75" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75" s="18">
         <v>71</v>
       </c>
@@ -4146,7 +4175,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
-    <row r="76" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="18">
         <v>72</v>
       </c>
@@ -4164,7 +4193,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="18">
         <v>73</v>
       </c>
@@ -4182,7 +4211,7 @@
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
-    <row r="78" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78" s="18">
         <v>74</v>
       </c>
@@ -4200,7 +4229,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79" s="18">
         <v>75</v>
       </c>
@@ -4218,7 +4247,7 @@
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
-    <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80" s="18">
         <v>76</v>
       </c>
@@ -4236,7 +4265,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81" s="18">
         <v>77</v>
       </c>
@@ -4254,7 +4283,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="18">
         <v>78</v>
       </c>
@@ -4272,7 +4301,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B83" s="18">
         <v>79</v>
       </c>
@@ -4290,7 +4319,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B84" s="18">
         <v>80</v>
       </c>
@@ -4308,7 +4337,7 @@
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B85" s="18">
         <v>81</v>
       </c>
@@ -4326,7 +4355,7 @@
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
-    <row r="86" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B86" s="18">
         <v>82</v>
       </c>
@@ -4344,7 +4373,7 @@
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
-    <row r="87" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B87" s="18">
         <v>83</v>
       </c>
@@ -4362,7 +4391,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
-    <row r="88" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="18">
         <v>84</v>
       </c>
@@ -4380,7 +4409,7 @@
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
-    <row r="89" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="18">
         <v>85</v>
       </c>
@@ -4398,7 +4427,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="18">
         <v>86</v>
       </c>
@@ -4416,7 +4445,7 @@
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="18">
         <v>87</v>
       </c>
@@ -4434,7 +4463,7 @@
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="18">
         <v>88</v>
       </c>
@@ -4452,7 +4481,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="18">
         <v>89</v>
       </c>
@@ -4470,7 +4499,7 @@
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
-    <row r="94" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="18">
         <v>90</v>
       </c>
@@ -4488,7 +4517,7 @@
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
-    <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="18">
         <v>91</v>
       </c>
@@ -4506,7 +4535,7 @@
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
-    <row r="96" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="18">
         <v>92</v>
       </c>
@@ -4524,7 +4553,7 @@
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="18">
         <v>93</v>
       </c>
@@ -4542,7 +4571,7 @@
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B98" s="18">
         <v>94</v>
       </c>
@@ -4560,7 +4589,7 @@
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B99" s="18">
         <v>95</v>
       </c>
@@ -4578,7 +4607,7 @@
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="18">
         <v>96</v>
       </c>
@@ -4596,7 +4625,7 @@
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B101" s="18">
         <v>97</v>
       </c>
@@ -4614,7 +4643,7 @@
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
-    <row r="102" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B102" s="18">
         <v>98</v>
       </c>
@@ -4632,7 +4661,7 @@
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
-    <row r="103" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B103" s="18">
         <v>99</v>
       </c>
@@ -4650,7 +4679,7 @@
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
-    <row r="104" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B104" s="18">
         <v>100</v>
       </c>
@@ -4668,7 +4697,7 @@
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
-    <row r="105" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B105" s="18">
         <v>101</v>
       </c>
@@ -4686,7 +4715,7 @@
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
-    <row r="106" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="18">
         <v>102</v>
       </c>
@@ -4704,7 +4733,7 @@
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
-    <row r="107" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B107" s="18">
         <v>103</v>
       </c>
@@ -4722,7 +4751,7 @@
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
-    <row r="108" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B108" s="18">
         <v>104</v>
       </c>
@@ -4740,7 +4769,7 @@
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B109" s="18">
         <v>105</v>
       </c>
@@ -4758,7 +4787,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
-    <row r="110" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B110" s="18">
         <v>106</v>
       </c>
@@ -4776,7 +4805,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
-    <row r="111" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B111" s="18">
         <v>107</v>
       </c>
@@ -4794,7 +4823,7 @@
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
-    <row r="112" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="18">
         <v>108</v>
       </c>
@@ -4812,7 +4841,7 @@
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B113" s="18">
         <v>109</v>
       </c>
@@ -4830,7 +4859,7 @@
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
-    <row r="114" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B114" s="18">
         <v>110</v>
       </c>
@@ -4848,7 +4877,7 @@
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
-    <row r="115" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B115" s="18">
         <v>111</v>
       </c>
@@ -4866,7 +4895,7 @@
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
-    <row r="116" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B116" s="18">
         <v>112</v>
       </c>
@@ -4884,7 +4913,7 @@
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B117" s="18">
         <v>113</v>
       </c>
@@ -4900,7 +4929,7 @@
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
-    <row r="118" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="18">
         <v>114</v>
       </c>
@@ -4916,7 +4945,7 @@
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
-    <row r="119" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="18">
         <v>115</v>
       </c>
@@ -4932,7 +4961,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
-    <row r="120" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="18">
         <v>116</v>
       </c>
@@ -4948,7 +4977,7 @@
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="18">
         <v>117</v>
       </c>
@@ -4964,7 +4993,7 @@
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
-    <row r="122" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="18">
         <v>118</v>
       </c>
@@ -4980,7 +5009,7 @@
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
-    <row r="123" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B123" s="18">
         <v>119</v>
       </c>
@@ -4996,7 +5025,7 @@
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
-    <row r="124" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="18">
         <v>120</v>
       </c>
@@ -5012,7 +5041,7 @@
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
-    <row r="125" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B125" s="18">
         <v>121</v>
       </c>
@@ -5028,7 +5057,7 @@
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
-    <row r="126" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B126" s="18">
         <v>122</v>
       </c>
@@ -5044,7 +5073,7 @@
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
-    <row r="127" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B127" s="18">
         <v>123</v>
       </c>
@@ -5060,7 +5089,7 @@
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
-    <row r="128" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B128" s="18">
         <v>124</v>
       </c>
@@ -5076,7 +5105,7 @@
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
-    <row r="129" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B129" s="18">
         <v>125</v>
       </c>
@@ -5092,7 +5121,7 @@
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
-    <row r="130" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="18">
         <v>126</v>
       </c>
@@ -5108,7 +5137,7 @@
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
-    <row r="131" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B131" s="18">
         <v>127</v>
       </c>
@@ -5124,7 +5153,7 @@
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
-    <row r="132" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B132" s="18">
         <v>128</v>
       </c>
@@ -5140,7 +5169,7 @@
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
-    <row r="133" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B133" s="18">
         <v>129</v>
       </c>
@@ -5156,7 +5185,7 @@
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
-    <row r="134" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B134" s="18">
         <v>130</v>
       </c>
@@ -5172,7 +5201,7 @@
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
-    <row r="135" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B135" s="18">
         <v>131</v>
       </c>
@@ -5188,7 +5217,7 @@
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
-    <row r="136" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="18">
         <v>132</v>
       </c>
@@ -5204,7 +5233,7 @@
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
-    <row r="137" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="18">
         <v>133</v>
       </c>
@@ -5220,7 +5249,7 @@
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
-    <row r="138" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="18">
         <v>134</v>
       </c>
@@ -5236,7 +5265,7 @@
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
-    <row r="139" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="18">
         <v>135</v>
       </c>
@@ -5252,7 +5281,7 @@
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
-    <row r="140" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B140" s="18">
         <v>136</v>
       </c>
@@ -5268,7 +5297,7 @@
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
-    <row r="141" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B141" s="18">
         <v>137</v>
       </c>
@@ -5284,7 +5313,7 @@
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
-    <row r="142" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="18">
         <v>138</v>
       </c>
@@ -5300,7 +5329,7 @@
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
-    <row r="143" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B143" s="18">
         <v>139</v>
       </c>
@@ -5316,7 +5345,7 @@
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
-    <row r="144" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B144" s="18">
         <v>140</v>
       </c>
@@ -5332,7 +5361,7 @@
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
-    <row r="145" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B145" s="18">
         <v>141</v>
       </c>
@@ -5348,7 +5377,7 @@
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B146" s="18">
         <v>142</v>
       </c>
@@ -5364,7 +5393,7 @@
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
-    <row r="147" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B147" s="18">
         <v>143</v>
       </c>
@@ -5380,7 +5409,7 @@
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="18">
         <v>144</v>
       </c>
@@ -5396,7 +5425,7 @@
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
-    <row r="149" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B149" s="18">
         <v>145</v>
       </c>
@@ -5412,7 +5441,7 @@
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
-    <row r="150" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B150" s="18">
         <v>146</v>
       </c>
@@ -5428,7 +5457,7 @@
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
-    <row r="151" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B151" s="18">
         <v>147</v>
       </c>
@@ -5444,7 +5473,7 @@
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
-    <row r="152" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B152" s="18">
         <v>148</v>
       </c>
@@ -5460,7 +5489,7 @@
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
-    <row r="153" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B153" s="18">
         <v>149</v>
       </c>
@@ -5476,7 +5505,7 @@
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
-    <row r="154" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="18">
         <v>150</v>
       </c>
@@ -5492,7 +5521,7 @@
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
-    <row r="155" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B155" s="18">
         <v>151</v>
       </c>
@@ -5508,7 +5537,7 @@
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
-    <row r="156" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B156" s="18">
         <v>152</v>
       </c>
@@ -5524,7 +5553,7 @@
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
-    <row r="157" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="18">
         <v>153</v>
       </c>
@@ -5540,7 +5569,7 @@
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
-    <row r="158" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="18">
         <v>154</v>
       </c>
@@ -5556,7 +5585,7 @@
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
-    <row r="159" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="18">
         <v>155</v>
       </c>
@@ -5572,7 +5601,7 @@
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
-    <row r="160" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="18">
         <v>156</v>
       </c>
@@ -5590,20 +5619,9 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
-    <filterColumn colId="3">
-      <filters blank="1">
-        <filter val="高"/>
-        <filter val="中"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters blank="1">
-        <dateGroupItem year="2015" month="6" dateTimeGrouping="month"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="未开始"/>
+        <filter val="完成"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5629,8 +5647,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6047,7 +6065,7 @@
       </c>
       <c r="L18" s="136"/>
     </row>
-    <row r="19" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C19" s="130">
         <v>15</v>
       </c>
@@ -6105,7 +6123,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C21" s="80">
         <v>17</v>
       </c>
@@ -6159,7 +6177,7 @@
       </c>
       <c r="L22" s="136"/>
     </row>
-    <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>19</v>
       </c>
@@ -6215,7 +6233,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C25" s="116">
         <v>21</v>
       </c>
@@ -6245,7 +6263,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C26" s="116">
         <v>22</v>
       </c>
@@ -6273,67 +6291,67 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="100" t="s">
+      <c r="D27" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="101" t="s">
+      <c r="E27" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="102" t="s">
+      <c r="F27" s="119" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="103" t="s">
+      <c r="G27" s="120" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="103" t="s">
+      <c r="H27" s="120" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="107">
+      <c r="I27" s="121">
         <v>42166</v>
       </c>
-      <c r="J27" s="104"/>
-      <c r="K27" s="101" t="s">
+      <c r="J27" s="93"/>
+      <c r="K27" s="118" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="105" t="s">
+      <c r="L27" s="122" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="100" t="s">
+      <c r="D28" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="101" t="s">
+      <c r="E28" s="118" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="102" t="s">
+      <c r="F28" s="119" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="103" t="s">
+      <c r="G28" s="120" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="103" t="s">
+      <c r="H28" s="120" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="107">
+      <c r="I28" s="121">
         <v>42166</v>
       </c>
-      <c r="J28" s="104"/>
-      <c r="K28" s="101" t="s">
+      <c r="J28" s="93"/>
+      <c r="K28" s="118" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="105" t="s">
+      <c r="L28" s="122" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
       <c r="C29" s="116">
         <v>25</v>
       </c>
@@ -6363,7 +6381,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C30" s="116">
         <v>26</v>
       </c>
@@ -6391,7 +6409,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C31" s="106">
         <v>27</v>
       </c>
@@ -6417,7 +6435,7 @@
       </c>
       <c r="L31" s="122"/>
     </row>
-    <row r="32" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C32" s="116">
         <v>28</v>
       </c>
@@ -6443,7 +6461,7 @@
       </c>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C33" s="116">
         <v>29</v>
       </c>
@@ -6469,7 +6487,7 @@
       </c>
       <c r="L33" s="122"/>
     </row>
-    <row r="34" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C34" s="116">
         <v>30</v>
       </c>
@@ -6495,7 +6513,7 @@
       </c>
       <c r="L34" s="122"/>
     </row>
-    <row r="35" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
       <c r="C35" s="116">
         <v>31</v>
       </c>
@@ -6521,7 +6539,7 @@
       </c>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="57" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
@@ -6639,7 +6657,7 @@
       </c>
       <c r="L39" s="122"/>
     </row>
-    <row r="40" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>35</v>
       </c>
@@ -6669,32 +6687,56 @@
         <v>271</v>
       </c>
     </row>
-    <row r="41" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="41" spans="3:12" ht="85.5" x14ac:dyDescent="0.15">
       <c r="C41" s="18">
         <v>35</v>
       </c>
-      <c r="D41" s="39"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="16"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="14"/>
+      <c r="D41" s="100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E41" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="102" t="s">
+        <v>277</v>
+      </c>
+      <c r="G41" s="103" t="s">
+        <v>279</v>
+      </c>
+      <c r="H41" s="103" t="s">
+        <v>278</v>
+      </c>
+      <c r="I41" s="103"/>
+      <c r="J41" s="104"/>
+      <c r="K41" s="101" t="s">
+        <v>280</v>
+      </c>
       <c r="L41" s="70"/>
     </row>
-    <row r="42" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="42" spans="3:12" ht="85.5" x14ac:dyDescent="0.15">
       <c r="C42" s="18">
         <v>35</v>
       </c>
-      <c r="D42" s="39"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="14"/>
+      <c r="D42" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="102" t="s">
+        <v>281</v>
+      </c>
+      <c r="G42" s="103" t="s">
+        <v>282</v>
+      </c>
+      <c r="H42" s="103" t="s">
+        <v>283</v>
+      </c>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="101" t="s">
+        <v>280</v>
+      </c>
       <c r="L42" s="70"/>
     </row>
     <row r="43" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -6983,11 +7025,6 @@
       <filters blank="1">
         <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
         <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="9">
-      <filters>
-        <filter val="未修复"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="292">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1114,6 +1114,37 @@
   </si>
   <si>
     <t>见Git中模板文件夹下的包装计划模板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段都正确显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划排产和代办事项模块的弹出的信息显示对话框中的字段串行了，与下表格中的显示不符。表格中的显示是正确的。但不是所有的都串行，只有后面自己个字段，如工号，制造商等串行了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未修复</t>
+  </si>
+  <si>
+    <t>排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序模块仍然存在小问题。当吨位后面出现其他其母时，如D-H，D-N，D后面的字母会影响排序结果 ，导致梯速显示不正确。可以参考生产日期7月2号的数据。1.5D-N显示在2.0D-H后面了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D-N应该显示在2.0D-H的后面。我们排序只按照1.5后面的第一位字母排序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1131,34 +1162,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需要将特殊的主机电压，制动器电压高亮显示，此外，标注颜色的字段在导出各种模板后也要有阴影提示。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段都正确显示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划排产和代办事项模块的弹出的信息显示对话框中的字段串行了，与下表格中的显示不符。表格中的显示是正确的。但不是所有的都串行，只有后面自己个字段，如工号，制造商等串行了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未修复</t>
-  </si>
-  <si>
-    <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序模块仍然存在小问题。当吨位后面出现其他其母时，如D-H，D-N，D后面的字母会影响排序结果 ，导致梯速显示不正确。可以参考生产日期7月2号的数据。1.5D-N显示在2.0D-H后面了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5D-N应该显示在2.0D-H的后面。我们排序只按照1.5后面的第一位字母排序。</t>
+    <t>生产计划模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照模板文件夹中的template_scjh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 将按模板导出的Tooltips改为导出质量跟踪卡
+2. 将导出包装计划Tooltips改为导出包装计划
+3. 新增的生产计划Tooltips为导出生产计划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加生产计划导出功能，与包装计划基本一致。
+注意
+1.标题中的日期为生产日期
+2.序号列从为从1开始的来流水号
+3.合计为数量的总和即序号的最后一个。
+4.与质量跟踪卡相同，需要按照机型分不通的Sheet页显示，S,T一个Sheet页，U一个sheet页，其它机型都放在另一个Sheet页中。
+5.导出后的顺序要确保和筛选结果的顺序相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按表格导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望导出后与表格显示的顺序保持一致，主要体现在投产编号和出厂编号的顺序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前按表格导出后，同一个客户，同型号的投产编号会乱。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2132,8 +2172,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S160"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54:M54"/>
+    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="T52" sqref="T52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2244,7 +2284,7 @@
       </c>
       <c r="N6"/>
     </row>
-    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:19" s="45" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="40">
         <v>2</v>
       </c>
@@ -2280,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:19" s="45" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="40">
         <v>3</v>
       </c>
@@ -2315,7 +2355,7 @@
       </c>
       <c r="N8" s="96"/>
     </row>
-    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
         <v>4</v>
       </c>
@@ -2353,7 +2393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:19" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10" s="40">
         <v>5</v>
       </c>
@@ -2421,7 +2461,7 @@
       </c>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12" s="51">
         <v>7</v>
       </c>
@@ -2484,7 +2524,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:19" s="45" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14" s="40">
         <v>9</v>
       </c>
@@ -2519,7 +2559,7 @@
       </c>
       <c r="N14" s="98"/>
     </row>
-    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="51">
         <v>10</v>
       </c>
@@ -2613,7 +2653,7 @@
       </c>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="51">
         <v>13</v>
       </c>
@@ -2645,7 +2685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19" s="51">
         <v>14</v>
       </c>
@@ -2677,7 +2717,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:15" s="45" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="51">
         <v>15</v>
       </c>
@@ -2709,7 +2749,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21" s="51">
         <v>16</v>
       </c>
@@ -2773,7 +2813,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23" s="40">
         <v>18</v>
       </c>
@@ -2839,7 +2879,7 @@
       </c>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="51">
         <v>20</v>
       </c>
@@ -2906,7 +2946,7 @@
       </c>
       <c r="N26" s="98"/>
     </row>
-    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
         <v>22</v>
       </c>
@@ -2939,7 +2979,7 @@
       </c>
       <c r="N27" s="98"/>
     </row>
-    <row r="28" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>23</v>
       </c>
@@ -2971,7 +3011,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="2:15" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:15" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>24</v>
       </c>
@@ -3003,7 +3043,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="2:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:15" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>25</v>
       </c>
@@ -3038,7 +3078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:15" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
         <v>26</v>
       </c>
@@ -3075,7 +3115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:15" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:15" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32" s="18">
         <v>27</v>
       </c>
@@ -3107,7 +3147,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:13" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="18">
         <v>28</v>
       </c>
@@ -3141,7 +3181,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34" s="18">
         <v>29</v>
       </c>
@@ -3205,7 +3245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:13" ht="142.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:13" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>32</v>
       </c>
@@ -3269,7 +3309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38" s="116">
         <v>34</v>
       </c>
@@ -3335,7 +3375,7 @@
       </c>
       <c r="M39" s="126"/>
     </row>
-    <row r="40" spans="2:13" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="116">
         <v>36</v>
       </c>
@@ -3365,7 +3405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41" s="116">
         <v>37</v>
       </c>
@@ -3489,7 +3529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="114" hidden="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
       <c r="B45" s="116">
         <v>41</v>
       </c>
@@ -3517,7 +3557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B46" s="116">
         <v>42</v>
       </c>
@@ -3549,7 +3589,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47" s="18">
         <v>43</v>
       </c>
@@ -3613,7 +3653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49" s="18">
         <v>45</v>
       </c>
@@ -3647,7 +3687,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="2:13" ht="156.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:13" ht="156.75" x14ac:dyDescent="0.15">
       <c r="B50" s="18">
         <v>46</v>
       </c>
@@ -3664,10 +3704,10 @@
         <v>254</v>
       </c>
       <c r="G50" s="123" t="s">
-        <v>276</v>
-      </c>
-      <c r="H50" s="103" t="s">
         <v>275</v>
+      </c>
+      <c r="H50" s="120" t="s">
+        <v>283</v>
       </c>
       <c r="I50" s="118"/>
       <c r="J50" s="93"/>
@@ -3677,7 +3717,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B51" s="18">
         <v>47</v>
       </c>
@@ -3705,7 +3745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="57" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>48</v>
       </c>
@@ -3765,7 +3805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54" s="18">
         <v>50</v>
       </c>
@@ -3797,43 +3837,65 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:13" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B55" s="18">
         <v>51</v>
       </c>
-      <c r="C55" s="18">
-        <v>2</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="16"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="93"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="17"/>
-    </row>
-    <row r="56" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C55" s="106">
+        <v>2</v>
+      </c>
+      <c r="D55" s="101" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="G55" s="138" t="s">
+        <v>287</v>
+      </c>
+      <c r="H55" s="103"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="139"/>
+      <c r="M55" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" ht="128.25" x14ac:dyDescent="0.15">
       <c r="B56" s="18">
         <v>52</v>
       </c>
-      <c r="C56" s="18">
-        <v>2</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="5"/>
-      <c r="K56" s="93"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="17"/>
-    </row>
-    <row r="57" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="C56" s="106">
+        <v>2</v>
+      </c>
+      <c r="D56" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="102" t="s">
+        <v>284</v>
+      </c>
+      <c r="G56" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="H56" s="103" t="s">
+        <v>285</v>
+      </c>
+      <c r="I56" s="101"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="139"/>
+      <c r="M56" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B57" s="18">
         <v>53</v>
       </c>
@@ -3851,7 +3913,7 @@
       <c r="L57" s="22"/>
       <c r="M57" s="17"/>
     </row>
-    <row r="58" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B58" s="18">
         <v>54</v>
       </c>
@@ -3869,7 +3931,7 @@
       <c r="L58" s="22"/>
       <c r="M58" s="17"/>
     </row>
-    <row r="59" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B59" s="18">
         <v>55</v>
       </c>
@@ -3887,7 +3949,7 @@
       <c r="L59" s="22"/>
       <c r="M59" s="17"/>
     </row>
-    <row r="60" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B60" s="18">
         <v>56</v>
       </c>
@@ -3905,7 +3967,7 @@
       <c r="L60" s="22"/>
       <c r="M60" s="17"/>
     </row>
-    <row r="61" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B61" s="18">
         <v>57</v>
       </c>
@@ -3923,7 +3985,7 @@
       <c r="L61" s="22"/>
       <c r="M61" s="17"/>
     </row>
-    <row r="62" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B62" s="18">
         <v>58</v>
       </c>
@@ -3941,7 +4003,7 @@
       <c r="L62" s="22"/>
       <c r="M62" s="17"/>
     </row>
-    <row r="63" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B63" s="18">
         <v>59</v>
       </c>
@@ -3959,7 +4021,7 @@
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B64" s="18">
         <v>60</v>
       </c>
@@ -3977,7 +4039,7 @@
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B65" s="18">
         <v>61</v>
       </c>
@@ -3995,7 +4057,7 @@
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
-    <row r="66" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B66" s="18">
         <v>62</v>
       </c>
@@ -4013,7 +4075,7 @@
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
-    <row r="67" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B67" s="18">
         <v>63</v>
       </c>
@@ -4031,7 +4093,7 @@
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
-    <row r="68" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B68" s="18">
         <v>64</v>
       </c>
@@ -4049,7 +4111,7 @@
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B69" s="18">
         <v>65</v>
       </c>
@@ -4067,7 +4129,7 @@
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B70" s="18">
         <v>66</v>
       </c>
@@ -4085,7 +4147,7 @@
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B71" s="18">
         <v>67</v>
       </c>
@@ -4103,7 +4165,7 @@
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B72" s="18">
         <v>68</v>
       </c>
@@ -4121,7 +4183,7 @@
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
-    <row r="73" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="18">
         <v>69</v>
       </c>
@@ -4139,7 +4201,7 @@
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
-    <row r="74" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B74" s="18">
         <v>70</v>
       </c>
@@ -4157,7 +4219,7 @@
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
-    <row r="75" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="18">
         <v>71</v>
       </c>
@@ -4175,7 +4237,7 @@
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
-    <row r="76" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B76" s="18">
         <v>72</v>
       </c>
@@ -4193,7 +4255,7 @@
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="18">
         <v>73</v>
       </c>
@@ -4211,7 +4273,7 @@
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
-    <row r="78" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B78" s="18">
         <v>74</v>
       </c>
@@ -4229,7 +4291,7 @@
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="18">
         <v>75</v>
       </c>
@@ -4247,7 +4309,7 @@
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
-    <row r="80" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="18">
         <v>76</v>
       </c>
@@ -4265,7 +4327,7 @@
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="18">
         <v>77</v>
       </c>
@@ -4283,7 +4345,7 @@
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="18">
         <v>78</v>
       </c>
@@ -4301,7 +4363,7 @@
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="18">
         <v>79</v>
       </c>
@@ -4319,7 +4381,7 @@
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B84" s="18">
         <v>80</v>
       </c>
@@ -4337,7 +4399,7 @@
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B85" s="18">
         <v>81</v>
       </c>
@@ -4355,7 +4417,7 @@
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
-    <row r="86" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B86" s="18">
         <v>82</v>
       </c>
@@ -4373,7 +4435,7 @@
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
-    <row r="87" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B87" s="18">
         <v>83</v>
       </c>
@@ -4391,7 +4453,7 @@
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
-    <row r="88" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B88" s="18">
         <v>84</v>
       </c>
@@ -4409,7 +4471,7 @@
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
-    <row r="89" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B89" s="18">
         <v>85</v>
       </c>
@@ -4427,7 +4489,7 @@
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B90" s="18">
         <v>86</v>
       </c>
@@ -4445,7 +4507,7 @@
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B91" s="18">
         <v>87</v>
       </c>
@@ -4463,7 +4525,7 @@
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B92" s="18">
         <v>88</v>
       </c>
@@ -4481,7 +4543,7 @@
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B93" s="18">
         <v>89</v>
       </c>
@@ -4499,7 +4561,7 @@
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
-    <row r="94" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B94" s="18">
         <v>90</v>
       </c>
@@ -4517,7 +4579,7 @@
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
-    <row r="95" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="18">
         <v>91</v>
       </c>
@@ -4535,7 +4597,7 @@
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
-    <row r="96" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B96" s="18">
         <v>92</v>
       </c>
@@ -4553,7 +4615,7 @@
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B97" s="18">
         <v>93</v>
       </c>
@@ -4571,7 +4633,7 @@
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B98" s="18">
         <v>94</v>
       </c>
@@ -4589,7 +4651,7 @@
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B99" s="18">
         <v>95</v>
       </c>
@@ -4607,7 +4669,7 @@
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B100" s="18">
         <v>96</v>
       </c>
@@ -4625,7 +4687,7 @@
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="18">
         <v>97</v>
       </c>
@@ -4643,7 +4705,7 @@
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
-    <row r="102" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B102" s="18">
         <v>98</v>
       </c>
@@ -4661,7 +4723,7 @@
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
-    <row r="103" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="18">
         <v>99</v>
       </c>
@@ -4679,7 +4741,7 @@
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
-    <row r="104" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="18">
         <v>100</v>
       </c>
@@ -4697,7 +4759,7 @@
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
-    <row r="105" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="18">
         <v>101</v>
       </c>
@@ -4715,7 +4777,7 @@
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
-    <row r="106" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B106" s="18">
         <v>102</v>
       </c>
@@ -4733,7 +4795,7 @@
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
-    <row r="107" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="18">
         <v>103</v>
       </c>
@@ -4751,7 +4813,7 @@
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
-    <row r="108" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B108" s="18">
         <v>104</v>
       </c>
@@ -4769,7 +4831,7 @@
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="18">
         <v>105</v>
       </c>
@@ -4787,7 +4849,7 @@
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
-    <row r="110" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="18">
         <v>106</v>
       </c>
@@ -4805,7 +4867,7 @@
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
-    <row r="111" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="18">
         <v>107</v>
       </c>
@@ -4823,7 +4885,7 @@
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
-    <row r="112" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="18">
         <v>108</v>
       </c>
@@ -4841,7 +4903,7 @@
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="18">
         <v>109</v>
       </c>
@@ -4859,7 +4921,7 @@
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
-    <row r="114" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="18">
         <v>110</v>
       </c>
@@ -4877,7 +4939,7 @@
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
-    <row r="115" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B115" s="18">
         <v>111</v>
       </c>
@@ -4895,7 +4957,7 @@
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
-    <row r="116" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B116" s="18">
         <v>112</v>
       </c>
@@ -4913,7 +4975,7 @@
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B117" s="18">
         <v>113</v>
       </c>
@@ -4929,7 +4991,7 @@
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
-    <row r="118" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B118" s="18">
         <v>114</v>
       </c>
@@ -4945,7 +5007,7 @@
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
-    <row r="119" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B119" s="18">
         <v>115</v>
       </c>
@@ -4961,7 +5023,7 @@
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
-    <row r="120" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B120" s="18">
         <v>116</v>
       </c>
@@ -4977,7 +5039,7 @@
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="18">
         <v>117</v>
       </c>
@@ -4993,7 +5055,7 @@
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
-    <row r="122" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="18">
         <v>118</v>
       </c>
@@ -5009,7 +5071,7 @@
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
-    <row r="123" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B123" s="18">
         <v>119</v>
       </c>
@@ -5025,7 +5087,7 @@
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
-    <row r="124" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B124" s="18">
         <v>120</v>
       </c>
@@ -5041,7 +5103,7 @@
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
-    <row r="125" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B125" s="18">
         <v>121</v>
       </c>
@@ -5057,7 +5119,7 @@
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
-    <row r="126" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B126" s="18">
         <v>122</v>
       </c>
@@ -5073,7 +5135,7 @@
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
-    <row r="127" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B127" s="18">
         <v>123</v>
       </c>
@@ -5089,7 +5151,7 @@
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
-    <row r="128" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B128" s="18">
         <v>124</v>
       </c>
@@ -5105,7 +5167,7 @@
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
-    <row r="129" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B129" s="18">
         <v>125</v>
       </c>
@@ -5121,7 +5183,7 @@
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
-    <row r="130" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B130" s="18">
         <v>126</v>
       </c>
@@ -5137,7 +5199,7 @@
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
-    <row r="131" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B131" s="18">
         <v>127</v>
       </c>
@@ -5153,7 +5215,7 @@
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
-    <row r="132" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B132" s="18">
         <v>128</v>
       </c>
@@ -5169,7 +5231,7 @@
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
-    <row r="133" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B133" s="18">
         <v>129</v>
       </c>
@@ -5185,7 +5247,7 @@
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
-    <row r="134" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B134" s="18">
         <v>130</v>
       </c>
@@ -5201,7 +5263,7 @@
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
-    <row r="135" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B135" s="18">
         <v>131</v>
       </c>
@@ -5217,7 +5279,7 @@
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
-    <row r="136" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B136" s="18">
         <v>132</v>
       </c>
@@ -5233,7 +5295,7 @@
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
-    <row r="137" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B137" s="18">
         <v>133</v>
       </c>
@@ -5249,7 +5311,7 @@
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
-    <row r="138" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B138" s="18">
         <v>134</v>
       </c>
@@ -5265,7 +5327,7 @@
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
-    <row r="139" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B139" s="18">
         <v>135</v>
       </c>
@@ -5281,7 +5343,7 @@
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
-    <row r="140" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B140" s="18">
         <v>136</v>
       </c>
@@ -5297,7 +5359,7 @@
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
-    <row r="141" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B141" s="18">
         <v>137</v>
       </c>
@@ -5313,7 +5375,7 @@
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
-    <row r="142" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B142" s="18">
         <v>138</v>
       </c>
@@ -5329,7 +5391,7 @@
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
-    <row r="143" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B143" s="18">
         <v>139</v>
       </c>
@@ -5345,7 +5407,7 @@
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
-    <row r="144" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B144" s="18">
         <v>140</v>
       </c>
@@ -5361,7 +5423,7 @@
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
-    <row r="145" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B145" s="18">
         <v>141</v>
       </c>
@@ -5377,7 +5439,7 @@
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B146" s="18">
         <v>142</v>
       </c>
@@ -5393,7 +5455,7 @@
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
-    <row r="147" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B147" s="18">
         <v>143</v>
       </c>
@@ -5409,7 +5471,7 @@
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B148" s="18">
         <v>144</v>
       </c>
@@ -5425,7 +5487,7 @@
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
-    <row r="149" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B149" s="18">
         <v>145</v>
       </c>
@@ -5441,7 +5503,7 @@
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
-    <row r="150" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B150" s="18">
         <v>146</v>
       </c>
@@ -5457,7 +5519,7 @@
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
-    <row r="151" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B151" s="18">
         <v>147</v>
       </c>
@@ -5473,7 +5535,7 @@
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
-    <row r="152" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B152" s="18">
         <v>148</v>
       </c>
@@ -5489,7 +5551,7 @@
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
-    <row r="153" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B153" s="18">
         <v>149</v>
       </c>
@@ -5505,7 +5567,7 @@
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
-    <row r="154" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B154" s="18">
         <v>150</v>
       </c>
@@ -5521,7 +5583,7 @@
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
-    <row r="155" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B155" s="18">
         <v>151</v>
       </c>
@@ -5537,7 +5599,7 @@
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
-    <row r="156" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B156" s="18">
         <v>152</v>
       </c>
@@ -5553,7 +5615,7 @@
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
-    <row r="157" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B157" s="18">
         <v>153</v>
       </c>
@@ -5569,7 +5631,7 @@
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
-    <row r="158" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B158" s="18">
         <v>154</v>
       </c>
@@ -5585,7 +5647,7 @@
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
-    <row r="159" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B159" s="18">
         <v>155</v>
       </c>
@@ -5601,7 +5663,7 @@
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
-    <row r="160" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B160" s="18">
         <v>156</v>
       </c>
@@ -5619,9 +5681,14 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:M160">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="中"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="11">
       <filters>
-        <filter val="完成"/>
+        <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5647,8 +5714,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6065,7 +6132,7 @@
       </c>
       <c r="L18" s="136"/>
     </row>
-    <row r="19" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C19" s="130">
         <v>15</v>
       </c>
@@ -6123,7 +6190,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C21" s="80">
         <v>17</v>
       </c>
@@ -6177,7 +6244,7 @@
       </c>
       <c r="L22" s="136"/>
     </row>
-    <row r="23" spans="3:12" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
         <v>19</v>
       </c>
@@ -6233,7 +6300,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C25" s="116">
         <v>21</v>
       </c>
@@ -6263,7 +6330,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C26" s="116">
         <v>22</v>
       </c>
@@ -6291,7 +6358,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C27" s="18">
         <v>23</v>
       </c>
@@ -6321,7 +6388,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C28" s="18">
         <v>24</v>
       </c>
@@ -6351,7 +6418,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="29" spans="3:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C29" s="116">
         <v>25</v>
       </c>
@@ -6381,7 +6448,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="30" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C30" s="116">
         <v>26</v>
       </c>
@@ -6409,7 +6476,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C31" s="106">
         <v>27</v>
       </c>
@@ -6435,7 +6502,7 @@
       </c>
       <c r="L31" s="122"/>
     </row>
-    <row r="32" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C32" s="116">
         <v>28</v>
       </c>
@@ -6461,7 +6528,7 @@
       </c>
       <c r="L32" s="122"/>
     </row>
-    <row r="33" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C33" s="116">
         <v>29</v>
       </c>
@@ -6487,7 +6554,7 @@
       </c>
       <c r="L33" s="122"/>
     </row>
-    <row r="34" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="C34" s="116">
         <v>30</v>
       </c>
@@ -6513,7 +6580,7 @@
       </c>
       <c r="L34" s="122"/>
     </row>
-    <row r="35" spans="3:12" ht="28.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="C35" s="116">
         <v>31</v>
       </c>
@@ -6539,7 +6606,7 @@
       </c>
       <c r="L35" s="122"/>
     </row>
-    <row r="36" spans="3:12" ht="57" x14ac:dyDescent="0.15">
+    <row r="36" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
@@ -6691,25 +6758,25 @@
       <c r="C41" s="18">
         <v>35</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="101" t="s">
+      <c r="E41" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="102" t="s">
+      <c r="F41" s="119" t="s">
+        <v>276</v>
+      </c>
+      <c r="G41" s="120" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="120" t="s">
         <v>277</v>
       </c>
-      <c r="G41" s="103" t="s">
+      <c r="I41" s="120"/>
+      <c r="J41" s="93"/>
+      <c r="K41" s="118" t="s">
         <v>279</v>
-      </c>
-      <c r="H41" s="103" t="s">
-        <v>278</v>
-      </c>
-      <c r="I41" s="103"/>
-      <c r="J41" s="104"/>
-      <c r="K41" s="101" t="s">
-        <v>280</v>
       </c>
       <c r="L41" s="70"/>
     </row>
@@ -6717,40 +6784,52 @@
       <c r="C42" s="18">
         <v>35</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="101" t="s">
+      <c r="E42" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="F42" s="119" t="s">
+        <v>280</v>
+      </c>
+      <c r="G42" s="120" t="s">
         <v>281</v>
       </c>
-      <c r="G42" s="103" t="s">
+      <c r="H42" s="120" t="s">
         <v>282</v>
       </c>
-      <c r="H42" s="103" t="s">
-        <v>283</v>
-      </c>
-      <c r="I42" s="103"/>
-      <c r="J42" s="104"/>
-      <c r="K42" s="101" t="s">
-        <v>280</v>
+      <c r="I42" s="120"/>
+      <c r="J42" s="93"/>
+      <c r="K42" s="118" t="s">
+        <v>279</v>
       </c>
       <c r="L42" s="70"/>
     </row>
-    <row r="43" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="43" spans="3:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C43" s="18">
         <v>35</v>
       </c>
-      <c r="D43" s="39"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="16"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="14"/>
+      <c r="D43" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="102" t="s">
+        <v>289</v>
+      </c>
+      <c r="G43" s="103" t="s">
+        <v>291</v>
+      </c>
+      <c r="H43" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" s="103"/>
+      <c r="J43" s="104"/>
+      <c r="K43" s="101" t="s">
+        <v>279</v>
+      </c>
       <c r="L43" s="70"/>
     </row>
     <row r="44" spans="3:12" ht="14.25" x14ac:dyDescent="0.15">
@@ -7025,6 +7104,11 @@
       <filters blank="1">
         <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
         <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="未修复"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$L$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$160</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$M$166</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="298">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -809,10 +809,6 @@
   </si>
   <si>
     <t>可由业务人员直接在数据库中清理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1199,6 +1195,55 @@
   </si>
   <si>
     <t>目前按表格导出后，同一个客户，同型号的投产编号会乱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望再销售页面添加，计划页面的计划，按模导出后的结果中，以及所有的表格显示中将&lt;主机电压&gt;字段中非380V的电压（不包含空）加颜色显示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号自动生成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出厂编号自动生成
+i. 规则
+制造商代码+年份后两位+月份（1-9，A（代替10），B（代替11），C（代替12））+ 四位流水号，例如：S15070001
+每月26日刷新
+ii. 自动填写时机
+包装日期填写完成并且已经完成包装的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么出厂编号仍然会按照所有出厂编号的最后一个增加，而不会按照追加当天的出厂编号进行追加。也就是说不存在由于追加订单而影响其它出厂编号。
+iv. 修改
+出厂编号自动填写后仍然可以修改，但非必要情况下建议不要修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投产编号自动生成
+i. 规则
+制造商代码+五位流水，例如 F00001                                                                                                                                                                                                            
+每年12月26日刷新
+ii. 自动填写时机
+生产日期填写完成并且已经完成排产的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么投产编号仍然会按照所有投产编号的最后一个增加，而不会按照追加当天的投产编号进行追加。也就是说不存在由于追加订单而影响其它投产编号。
+iv. 修改
+投产编号自动填写后仍然可以修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单反审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.订单反审核需要判断订单是否已经有排产的审核，如果有，则需要先反审排产的审核才能反审订单的审核。
+2.如果订单里包含多台排产机器，则需要全部反审核后才能反审订单。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1499,7 +1544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1865,6 +1910,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2170,10 +2216,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:S160"/>
+  <dimension ref="A2:S166"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="T52" sqref="T52"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3262,10 +3308,10 @@
         <v>186</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="16" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I36" s="14"/>
       <c r="J36" s="71">
@@ -3296,7 +3342,7 @@
         <v>189</v>
       </c>
       <c r="G37" s="123" t="s">
-        <v>201</v>
+        <v>291</v>
       </c>
       <c r="H37" s="120"/>
       <c r="I37" s="118"/>
@@ -3326,10 +3372,10 @@
         <v>193</v>
       </c>
       <c r="G38" s="123" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H38" s="120" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I38" s="118"/>
       <c r="J38" s="124">
@@ -3392,7 +3438,7 @@
         <v>26</v>
       </c>
       <c r="G40" s="128" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H40" s="129"/>
       <c r="I40" s="118"/>
@@ -3419,13 +3465,13 @@
         <v>15</v>
       </c>
       <c r="F41" s="119" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G41" s="123" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H41" s="120" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I41" s="118"/>
       <c r="J41" s="124">
@@ -3453,16 +3499,16 @@
         <v>32</v>
       </c>
       <c r="F42" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" s="123" t="s">
         <v>208</v>
-      </c>
-      <c r="G42" s="123" t="s">
-        <v>209</v>
       </c>
       <c r="H42" s="120"/>
       <c r="I42" s="118"/>
       <c r="J42" s="93"/>
       <c r="K42" s="93" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L42" s="125"/>
       <c r="M42" s="126" t="s">
@@ -3483,10 +3529,10 @@
         <v>32</v>
       </c>
       <c r="F43" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="G43" s="123" t="s">
         <v>206</v>
-      </c>
-      <c r="G43" s="123" t="s">
-        <v>207</v>
       </c>
       <c r="H43" s="120"/>
       <c r="I43" s="118"/>
@@ -3507,19 +3553,19 @@
         <v>2</v>
       </c>
       <c r="D44" s="132" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E44" s="131" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="132" t="s">
+        <v>211</v>
+      </c>
+      <c r="G44" s="137" t="s">
+        <v>213</v>
+      </c>
+      <c r="H44" s="133" t="s">
         <v>212</v>
-      </c>
-      <c r="G44" s="137" t="s">
-        <v>214</v>
-      </c>
-      <c r="H44" s="133" t="s">
-        <v>213</v>
       </c>
       <c r="I44" s="118"/>
       <c r="J44" s="93"/>
@@ -3539,14 +3585,14 @@
       <c r="D45" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="118" t="s">
-        <v>20</v>
+      <c r="E45" s="101" t="s">
+        <v>15</v>
       </c>
       <c r="F45" s="119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G45" s="123" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H45" s="120"/>
       <c r="I45" s="118"/>
@@ -3574,7 +3620,7 @@
         <v>193</v>
       </c>
       <c r="G46" s="123" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" s="120"/>
       <c r="I46" s="118"/>
@@ -3603,13 +3649,13 @@
         <v>15</v>
       </c>
       <c r="F47" s="119" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G47" s="123" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H47" s="120" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I47" s="118"/>
       <c r="J47" s="124">
@@ -3624,32 +3670,32 @@
       </c>
     </row>
     <row r="48" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="18">
+      <c r="B48" s="116">
         <v>44</v>
       </c>
-      <c r="C48" s="18">
-        <v>2</v>
-      </c>
-      <c r="D48" s="101" t="s">
+      <c r="C48" s="116">
+        <v>2</v>
+      </c>
+      <c r="D48" s="118" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="101" t="s">
+      <c r="E48" s="118" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="119" t="s">
+        <v>248</v>
+      </c>
+      <c r="G48" s="123" t="s">
         <v>249</v>
       </c>
-      <c r="G48" s="138" t="s">
+      <c r="H48" s="120" t="s">
         <v>250</v>
       </c>
-      <c r="H48" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="I48" s="101"/>
-      <c r="J48" s="104"/>
-      <c r="K48" s="104"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="140" t="s">
+      <c r="I48" s="118"/>
+      <c r="J48" s="93"/>
+      <c r="K48" s="93"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="126" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3667,13 +3713,13 @@
         <v>15</v>
       </c>
       <c r="F49" s="119" t="s">
+        <v>251</v>
+      </c>
+      <c r="G49" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" s="120" t="s">
         <v>252</v>
-      </c>
-      <c r="G49" s="123" t="s">
-        <v>264</v>
-      </c>
-      <c r="H49" s="120" t="s">
-        <v>253</v>
       </c>
       <c r="I49" s="118"/>
       <c r="J49" s="124">
@@ -3701,13 +3747,13 @@
         <v>20</v>
       </c>
       <c r="F50" s="119" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G50" s="123" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H50" s="120" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I50" s="118"/>
       <c r="J50" s="93"/>
@@ -3731,10 +3777,10 @@
         <v>20</v>
       </c>
       <c r="F51" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="G51" s="123" t="s">
         <v>255</v>
-      </c>
-      <c r="G51" s="123" t="s">
-        <v>256</v>
       </c>
       <c r="H51" s="120"/>
       <c r="I51" s="118"/>
@@ -3759,13 +3805,13 @@
         <v>20</v>
       </c>
       <c r="F52" s="119" t="s">
+        <v>256</v>
+      </c>
+      <c r="G52" s="123" t="s">
         <v>257</v>
       </c>
-      <c r="G52" s="123" t="s">
+      <c r="H52" s="120" t="s">
         <v>258</v>
-      </c>
-      <c r="H52" s="120" t="s">
-        <v>259</v>
       </c>
       <c r="I52" s="118"/>
       <c r="J52" s="93"/>
@@ -3789,13 +3835,13 @@
         <v>32</v>
       </c>
       <c r="F53" s="102" t="s">
+        <v>259</v>
+      </c>
+      <c r="G53" s="138" t="s">
         <v>260</v>
       </c>
-      <c r="G53" s="138" t="s">
+      <c r="H53" s="103" t="s">
         <v>261</v>
-      </c>
-      <c r="H53" s="103" t="s">
-        <v>262</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
@@ -3819,13 +3865,13 @@
         <v>15</v>
       </c>
       <c r="F54" s="119" t="s">
+        <v>271</v>
+      </c>
+      <c r="G54" s="123" t="s">
         <v>272</v>
       </c>
-      <c r="G54" s="123" t="s">
+      <c r="H54" s="120" t="s">
         <v>273</v>
-      </c>
-      <c r="H54" s="120" t="s">
-        <v>274</v>
       </c>
       <c r="I54" s="118"/>
       <c r="J54" s="124">
@@ -3851,10 +3897,10 @@
         <v>20</v>
       </c>
       <c r="F55" s="102" t="s">
+        <v>285</v>
+      </c>
+      <c r="G55" s="138" t="s">
         <v>286</v>
-      </c>
-      <c r="G55" s="138" t="s">
-        <v>287</v>
       </c>
       <c r="H55" s="103"/>
       <c r="I55" s="101"/>
@@ -3865,7 +3911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:13" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:13" ht="199.5" x14ac:dyDescent="0.15">
       <c r="B56" s="18">
         <v>52</v>
       </c>
@@ -3879,133 +3925,151 @@
         <v>15</v>
       </c>
       <c r="F56" s="102" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G56" s="138" t="s">
-        <v>288</v>
-      </c>
-      <c r="H56" s="103" t="s">
-        <v>285</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="H56" s="103"/>
       <c r="I56" s="101"/>
-      <c r="J56" s="104"/>
+      <c r="J56" s="141"/>
       <c r="K56" s="104"/>
       <c r="L56" s="139"/>
       <c r="M56" s="140" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:13" ht="242.25" x14ac:dyDescent="0.15">
       <c r="B57" s="18">
         <v>53</v>
       </c>
-      <c r="C57" s="18">
-        <v>2</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="16"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="93"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="17"/>
-    </row>
-    <row r="58" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B58" s="18">
+      <c r="C57" s="106">
+        <v>2</v>
+      </c>
+      <c r="D57" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E57" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="G57" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="H57" s="103"/>
+      <c r="I57" s="101"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="139"/>
+      <c r="M57" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="18"/>
+      <c r="C58" s="116"/>
+      <c r="D58" s="118"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="123"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="124"/>
+      <c r="K58" s="93"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="126"/>
+    </row>
+    <row r="59" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="18"/>
+      <c r="C59" s="116"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="124"/>
+      <c r="K59" s="93"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="126"/>
+    </row>
+    <row r="60" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="18"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="138"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="139"/>
+      <c r="M60" s="140"/>
+    </row>
+    <row r="61" spans="2:13" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="18">
         <v>54</v>
       </c>
-      <c r="C58" s="18">
-        <v>2</v>
-      </c>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="16"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="17"/>
-    </row>
-    <row r="59" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B59" s="18">
+      <c r="C61" s="106">
+        <v>2</v>
+      </c>
+      <c r="D61" s="101" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="102" t="s">
+        <v>283</v>
+      </c>
+      <c r="G61" s="138" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="103" t="s">
+        <v>284</v>
+      </c>
+      <c r="I61" s="101"/>
+      <c r="J61" s="104"/>
+      <c r="K61" s="104"/>
+      <c r="L61" s="139"/>
+      <c r="M61" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B62" s="18">
         <v>55</v>
       </c>
-      <c r="C59" s="18">
-        <v>2</v>
-      </c>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="16"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="17"/>
-    </row>
-    <row r="60" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="18">
-        <v>56</v>
-      </c>
-      <c r="C60" s="18">
-        <v>2</v>
-      </c>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="16"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="93"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="17"/>
-    </row>
-    <row r="61" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B61" s="18">
-        <v>57</v>
-      </c>
-      <c r="C61" s="18">
-        <v>2</v>
-      </c>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="16"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="5"/>
-      <c r="K61" s="93"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="17"/>
-    </row>
-    <row r="62" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B62" s="18">
-        <v>58</v>
-      </c>
-      <c r="C62" s="18">
-        <v>2</v>
-      </c>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="16"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="93"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="17"/>
-    </row>
-    <row r="63" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="C62" s="106">
+        <v>2</v>
+      </c>
+      <c r="D62" s="101" t="s">
+        <v>24</v>
+      </c>
+      <c r="E62" s="101" t="s">
+        <v>136</v>
+      </c>
+      <c r="F62" s="102" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="H62" s="103"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="104"/>
+      <c r="K62" s="104"/>
+      <c r="L62" s="139"/>
+      <c r="M62" s="140" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="18">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C63" s="18">
         <v>2</v>
@@ -4021,9 +4085,9 @@
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
-    <row r="64" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="18">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C64" s="18">
         <v>2</v>
@@ -4039,9 +4103,9 @@
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
-    <row r="65" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="18">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C65" s="18">
         <v>2</v>
@@ -4057,9 +4121,9 @@
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
-    <row r="66" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="18">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C66" s="18">
         <v>2</v>
@@ -4075,9 +4139,9 @@
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
-    <row r="67" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="18">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C67" s="18">
         <v>2</v>
@@ -4093,9 +4157,9 @@
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
-    <row r="68" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="18">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C68" s="18">
         <v>2</v>
@@ -4111,9 +4175,9 @@
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
-    <row r="69" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="18">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C69" s="18">
         <v>2</v>
@@ -4129,9 +4193,9 @@
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
-    <row r="70" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="18">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C70" s="18">
         <v>2</v>
@@ -4147,9 +4211,9 @@
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
-    <row r="71" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="18">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C71" s="18">
         <v>2</v>
@@ -4165,9 +4229,9 @@
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
-    <row r="72" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="18">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C72" s="18">
         <v>2</v>
@@ -4183,9 +4247,9 @@
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
-    <row r="73" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="18">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C73" s="18">
         <v>2</v>
@@ -4201,9 +4265,9 @@
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
-    <row r="74" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74" s="18">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C74" s="18">
         <v>2</v>
@@ -4219,9 +4283,9 @@
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
-    <row r="75" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75" s="18">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C75" s="18">
         <v>2</v>
@@ -4237,9 +4301,9 @@
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
-    <row r="76" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="18">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C76" s="18">
         <v>2</v>
@@ -4255,9 +4319,9 @@
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
-    <row r="77" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="18">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C77" s="18">
         <v>2</v>
@@ -4273,9 +4337,9 @@
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
-    <row r="78" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78" s="18">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C78" s="18">
         <v>2</v>
@@ -4291,9 +4355,9 @@
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
-    <row r="79" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79" s="18">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C79" s="18">
         <v>2</v>
@@ -4309,9 +4373,9 @@
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
-    <row r="80" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80" s="18">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C80" s="18">
         <v>2</v>
@@ -4327,9 +4391,9 @@
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
-    <row r="81" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81" s="18">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C81" s="18">
         <v>2</v>
@@ -4345,9 +4409,9 @@
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
-    <row r="82" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="18">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C82" s="18">
         <v>2</v>
@@ -4363,9 +4427,9 @@
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
-    <row r="83" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B83" s="18">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C83" s="18">
         <v>2</v>
@@ -4381,9 +4445,9 @@
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
-    <row r="84" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B84" s="18">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C84" s="18">
         <v>2</v>
@@ -4399,9 +4463,9 @@
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
-    <row r="85" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B85" s="18">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C85" s="18">
         <v>2</v>
@@ -4417,9 +4481,9 @@
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
-    <row r="86" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B86" s="18">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C86" s="18">
         <v>2</v>
@@ -4435,9 +4499,9 @@
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
-    <row r="87" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B87" s="18">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C87" s="18">
         <v>2</v>
@@ -4453,9 +4517,9 @@
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
-    <row r="88" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="18">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C88" s="18">
         <v>2</v>
@@ -4471,9 +4535,9 @@
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
-    <row r="89" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="18">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C89" s="18">
         <v>2</v>
@@ -4489,9 +4553,9 @@
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
-    <row r="90" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="18">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C90" s="18">
         <v>2</v>
@@ -4507,9 +4571,9 @@
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
-    <row r="91" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="18">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C91" s="18">
         <v>2</v>
@@ -4525,9 +4589,9 @@
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
-    <row r="92" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="18">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C92" s="18">
         <v>2</v>
@@ -4543,9 +4607,9 @@
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
-    <row r="93" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="18">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C93" s="18">
         <v>2</v>
@@ -4561,9 +4625,9 @@
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
-    <row r="94" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="18">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C94" s="18">
         <v>2</v>
@@ -4579,9 +4643,9 @@
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
-    <row r="95" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="18">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C95" s="18">
         <v>2</v>
@@ -4597,9 +4661,9 @@
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
-    <row r="96" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="18">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C96" s="18">
         <v>2</v>
@@ -4615,9 +4679,9 @@
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
-    <row r="97" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="18">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C97" s="18">
         <v>2</v>
@@ -4633,9 +4697,9 @@
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
-    <row r="98" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B98" s="18">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C98" s="18">
         <v>2</v>
@@ -4651,9 +4715,9 @@
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
-    <row r="99" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B99" s="18">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C99" s="18">
         <v>2</v>
@@ -4669,9 +4733,9 @@
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
-    <row r="100" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="18">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C100" s="18">
         <v>2</v>
@@ -4687,9 +4751,9 @@
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
-    <row r="101" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B101" s="18">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C101" s="18">
         <v>2</v>
@@ -4705,9 +4769,9 @@
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
-    <row r="102" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B102" s="18">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C102" s="18">
         <v>2</v>
@@ -4723,9 +4787,9 @@
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
-    <row r="103" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B103" s="18">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C103" s="18">
         <v>2</v>
@@ -4741,9 +4805,9 @@
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
-    <row r="104" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B104" s="18">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C104" s="18">
         <v>2</v>
@@ -4759,9 +4823,9 @@
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
-    <row r="105" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B105" s="18">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C105" s="18">
         <v>2</v>
@@ -4777,9 +4841,9 @@
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
-    <row r="106" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="18">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C106" s="18">
         <v>2</v>
@@ -4795,9 +4859,9 @@
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
-    <row r="107" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B107" s="18">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C107" s="18">
         <v>2</v>
@@ -4813,9 +4877,9 @@
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
-    <row r="108" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B108" s="18">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C108" s="18">
         <v>2</v>
@@ -4831,9 +4895,9 @@
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
-    <row r="109" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B109" s="18">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C109" s="18">
         <v>2</v>
@@ -4849,9 +4913,9 @@
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
-    <row r="110" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B110" s="18">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C110" s="18">
         <v>2</v>
@@ -4867,9 +4931,9 @@
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
-    <row r="111" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B111" s="18">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C111" s="18">
         <v>2</v>
@@ -4885,9 +4949,9 @@
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
-    <row r="112" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="18">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C112" s="18">
         <v>2</v>
@@ -4903,9 +4967,9 @@
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
-    <row r="113" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B113" s="18">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C113" s="18">
         <v>2</v>
@@ -4921,9 +4985,9 @@
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
-    <row r="114" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B114" s="18">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C114" s="18">
         <v>2</v>
@@ -4939,9 +5003,9 @@
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
-    <row r="115" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B115" s="18">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C115" s="18">
         <v>2</v>
@@ -4957,9 +5021,9 @@
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
-    <row r="116" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B116" s="18">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="C116" s="18">
         <v>2</v>
@@ -4975,11 +5039,13 @@
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
-    <row r="117" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B117" s="18">
-        <v>113</v>
-      </c>
-      <c r="C117" s="18"/>
+        <v>107</v>
+      </c>
+      <c r="C117" s="18">
+        <v>2</v>
+      </c>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
       <c r="F117" s="15"/>
@@ -4991,11 +5057,13 @@
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
-    <row r="118" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="18">
-        <v>114</v>
-      </c>
-      <c r="C118" s="18"/>
+        <v>108</v>
+      </c>
+      <c r="C118" s="18">
+        <v>2</v>
+      </c>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
       <c r="F118" s="15"/>
@@ -5007,11 +5075,13 @@
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
-    <row r="119" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="18">
-        <v>115</v>
-      </c>
-      <c r="C119" s="18"/>
+        <v>109</v>
+      </c>
+      <c r="C119" s="18">
+        <v>2</v>
+      </c>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="15"/>
@@ -5023,11 +5093,13 @@
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
-    <row r="120" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="18">
-        <v>116</v>
-      </c>
-      <c r="C120" s="18"/>
+        <v>110</v>
+      </c>
+      <c r="C120" s="18">
+        <v>2</v>
+      </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="15"/>
@@ -5039,11 +5111,13 @@
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
-    <row r="121" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="18">
-        <v>117</v>
-      </c>
-      <c r="C121" s="18"/>
+        <v>111</v>
+      </c>
+      <c r="C121" s="18">
+        <v>2</v>
+      </c>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="15"/>
@@ -5055,11 +5129,13 @@
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
-    <row r="122" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="18">
-        <v>118</v>
-      </c>
-      <c r="C122" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="C122" s="18">
+        <v>2</v>
+      </c>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="15"/>
@@ -5071,9 +5147,9 @@
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
-    <row r="123" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B123" s="18">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="14"/>
@@ -5087,9 +5163,9 @@
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
-    <row r="124" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="18">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="14"/>
@@ -5103,9 +5179,9 @@
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
-    <row r="125" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B125" s="18">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="14"/>
@@ -5119,9 +5195,9 @@
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
-    <row r="126" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B126" s="18">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C126" s="18"/>
       <c r="D126" s="14"/>
@@ -5135,9 +5211,9 @@
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
-    <row r="127" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B127" s="18">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C127" s="18"/>
       <c r="D127" s="14"/>
@@ -5151,9 +5227,9 @@
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
-    <row r="128" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B128" s="18">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C128" s="18"/>
       <c r="D128" s="14"/>
@@ -5167,9 +5243,9 @@
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
-    <row r="129" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B129" s="18">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="14"/>
@@ -5183,9 +5259,9 @@
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
-    <row r="130" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="18">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="14"/>
@@ -5199,9 +5275,9 @@
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
-    <row r="131" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B131" s="18">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="14"/>
@@ -5215,9 +5291,9 @@
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
-    <row r="132" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B132" s="18">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="C132" s="18"/>
       <c r="D132" s="14"/>
@@ -5231,9 +5307,9 @@
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
-    <row r="133" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B133" s="18">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="14"/>
@@ -5247,9 +5323,9 @@
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
-    <row r="134" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B134" s="18">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="14"/>
@@ -5263,9 +5339,9 @@
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
-    <row r="135" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B135" s="18">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="14"/>
@@ -5279,9 +5355,9 @@
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
-    <row r="136" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="18">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="14"/>
@@ -5295,9 +5371,9 @@
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
-    <row r="137" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="18">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="14"/>
@@ -5311,9 +5387,9 @@
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
-    <row r="138" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="18">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="C138" s="18"/>
       <c r="D138" s="14"/>
@@ -5327,9 +5403,9 @@
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
-    <row r="139" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="18">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="14"/>
@@ -5343,9 +5419,9 @@
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
-    <row r="140" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B140" s="18">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="14"/>
@@ -5359,9 +5435,9 @@
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
-    <row r="141" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B141" s="18">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="14"/>
@@ -5375,9 +5451,9 @@
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
-    <row r="142" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="18">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="14"/>
@@ -5391,9 +5467,9 @@
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
-    <row r="143" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B143" s="18">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="14"/>
@@ -5407,9 +5483,9 @@
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
-    <row r="144" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B144" s="18">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C144" s="18"/>
       <c r="D144" s="14"/>
@@ -5423,9 +5499,9 @@
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
-    <row r="145" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B145" s="18">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="14"/>
@@ -5439,9 +5515,9 @@
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
-    <row r="146" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B146" s="18">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="14"/>
@@ -5455,9 +5531,9 @@
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
-    <row r="147" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B147" s="18">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="14"/>
@@ -5471,9 +5547,9 @@
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
-    <row r="148" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="18">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="C148" s="18"/>
       <c r="D148" s="14"/>
@@ -5487,9 +5563,9 @@
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
-    <row r="149" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B149" s="18">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C149" s="18"/>
       <c r="D149" s="14"/>
@@ -5503,9 +5579,9 @@
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
-    <row r="150" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B150" s="18">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C150" s="18"/>
       <c r="D150" s="14"/>
@@ -5519,9 +5595,9 @@
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
-    <row r="151" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B151" s="18">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C151" s="18"/>
       <c r="D151" s="14"/>
@@ -5535,9 +5611,9 @@
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
-    <row r="152" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B152" s="18">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="C152" s="18"/>
       <c r="D152" s="14"/>
@@ -5551,9 +5627,9 @@
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
-    <row r="153" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B153" s="18">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="C153" s="18"/>
       <c r="D153" s="14"/>
@@ -5567,9 +5643,9 @@
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
-    <row r="154" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="18">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C154" s="18"/>
       <c r="D154" s="14"/>
@@ -5583,9 +5659,9 @@
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
-    <row r="155" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B155" s="18">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C155" s="18"/>
       <c r="D155" s="14"/>
@@ -5599,9 +5675,9 @@
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
-    <row r="156" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B156" s="18">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C156" s="18"/>
       <c r="D156" s="14"/>
@@ -5615,9 +5691,9 @@
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
-    <row r="157" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="18">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C157" s="18"/>
       <c r="D157" s="14"/>
@@ -5631,9 +5707,9 @@
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
-    <row r="158" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="18">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C158" s="18"/>
       <c r="D158" s="14"/>
@@ -5647,9 +5723,9 @@
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
-    <row r="159" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="18">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C159" s="18"/>
       <c r="D159" s="14"/>
@@ -5663,9 +5739,9 @@
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
-    <row r="160" spans="2:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="18">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C160" s="18"/>
       <c r="D160" s="14"/>
@@ -5679,28 +5755,125 @@
       <c r="L160" s="22"/>
       <c r="M160" s="17"/>
     </row>
+    <row r="161" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B161" s="18">
+        <v>151</v>
+      </c>
+      <c r="C161" s="18"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="19"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="14"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="93"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="17"/>
+    </row>
+    <row r="162" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B162" s="18">
+        <v>152</v>
+      </c>
+      <c r="C162" s="18"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="19"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="14"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="93"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="17"/>
+    </row>
+    <row r="163" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B163" s="18">
+        <v>153</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="19"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="14"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="93"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="17"/>
+    </row>
+    <row r="164" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B164" s="18">
+        <v>154</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="19"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="14"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="93"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="17"/>
+    </row>
+    <row r="165" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B165" s="18">
+        <v>155</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="14"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="93"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="17"/>
+    </row>
+    <row r="166" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+      <c r="B166" s="18">
+        <v>156</v>
+      </c>
+      <c r="C166" s="18"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="14"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="93"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="17"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B5:M160">
+  <autoFilter ref="B5:M166">
     <filterColumn colId="3">
       <filters>
+        <filter val="高"/>
         <filter val="中"/>
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters>
+      <filters blank="1">
         <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43 D45:D159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43 D45:D165">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M165">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E160">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E166">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5714,7 +5887,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:L62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -6473,7 +6646,7 @@
         <v>36</v>
       </c>
       <c r="L30" s="122" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -6487,10 +6660,10 @@
         <v>15</v>
       </c>
       <c r="F31" s="119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G31" s="120" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H31" s="120"/>
       <c r="I31" s="121">
@@ -6513,13 +6686,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="119" t="s">
+        <v>219</v>
+      </c>
+      <c r="G32" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="H32" s="120" t="s">
         <v>221</v>
-      </c>
-      <c r="H32" s="120" t="s">
-        <v>222</v>
       </c>
       <c r="I32" s="120"/>
       <c r="J32" s="93"/>
@@ -6539,10 +6712,10 @@
         <v>20</v>
       </c>
       <c r="F33" s="119" t="s">
+        <v>222</v>
+      </c>
+      <c r="G33" s="120" t="s">
         <v>223</v>
-      </c>
-      <c r="G33" s="120" t="s">
-        <v>224</v>
       </c>
       <c r="H33" s="120"/>
       <c r="I33" s="121">
@@ -6568,7 +6741,7 @@
         <v>193</v>
       </c>
       <c r="G34" s="120" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H34" s="120"/>
       <c r="I34" s="121">
@@ -6591,13 +6764,13 @@
         <v>32</v>
       </c>
       <c r="F35" s="119" t="s">
+        <v>227</v>
+      </c>
+      <c r="G35" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="H35" s="120" t="s">
         <v>229</v>
-      </c>
-      <c r="H35" s="120" t="s">
-        <v>230</v>
       </c>
       <c r="I35" s="120"/>
       <c r="J35" s="93"/>
@@ -6617,13 +6790,13 @@
         <v>15</v>
       </c>
       <c r="F36" s="119" t="s">
+        <v>231</v>
+      </c>
+      <c r="G36" s="120" t="s">
         <v>232</v>
       </c>
-      <c r="G36" s="120" t="s">
+      <c r="H36" s="120" t="s">
         <v>233</v>
-      </c>
-      <c r="H36" s="120" t="s">
-        <v>234</v>
       </c>
       <c r="I36" s="120"/>
       <c r="J36" s="93"/>
@@ -6631,7 +6804,7 @@
         <v>117</v>
       </c>
       <c r="L36" s="122" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="37" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
@@ -6645,13 +6818,13 @@
         <v>20</v>
       </c>
       <c r="F37" s="119" t="s">
+        <v>236</v>
+      </c>
+      <c r="G37" s="120" t="s">
         <v>237</v>
       </c>
-      <c r="G37" s="120" t="s">
+      <c r="H37" s="120" t="s">
         <v>238</v>
-      </c>
-      <c r="H37" s="120" t="s">
-        <v>239</v>
       </c>
       <c r="I37" s="121">
         <v>42173</v>
@@ -6661,7 +6834,7 @@
         <v>36</v>
       </c>
       <c r="L37" s="122" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -6675,25 +6848,25 @@
         <v>15</v>
       </c>
       <c r="F38" s="119" t="s">
+        <v>240</v>
+      </c>
+      <c r="G38" s="120" t="s">
         <v>241</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="H38" s="120" t="s">
         <v>242</v>
-      </c>
-      <c r="H38" s="120" t="s">
-        <v>243</v>
       </c>
       <c r="I38" s="121">
         <v>42173</v>
       </c>
       <c r="J38" s="123" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K38" s="118" t="s">
         <v>36</v>
       </c>
       <c r="L38" s="122" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -6707,13 +6880,13 @@
         <v>20</v>
       </c>
       <c r="F39" s="119" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="120" t="s">
         <v>244</v>
       </c>
-      <c r="G39" s="120" t="s">
+      <c r="H39" s="120" t="s">
         <v>245</v>
-      </c>
-      <c r="H39" s="120" t="s">
-        <v>246</v>
       </c>
       <c r="I39" s="121">
         <v>42173</v>
@@ -6735,13 +6908,13 @@
         <v>15</v>
       </c>
       <c r="F40" s="102" t="s">
+        <v>267</v>
+      </c>
+      <c r="G40" s="103" t="s">
         <v>268</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="H40" s="103" t="s">
         <v>269</v>
-      </c>
-      <c r="H40" s="103" t="s">
-        <v>270</v>
       </c>
       <c r="I40" s="107">
         <v>42177</v>
@@ -6751,7 +6924,7 @@
         <v>36</v>
       </c>
       <c r="L40" s="105" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="3:12" ht="85.5" x14ac:dyDescent="0.15">
@@ -6765,18 +6938,18 @@
         <v>20</v>
       </c>
       <c r="F41" s="119" t="s">
+        <v>275</v>
+      </c>
+      <c r="G41" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="H41" s="120" t="s">
         <v>276</v>
-      </c>
-      <c r="G41" s="120" t="s">
-        <v>278</v>
-      </c>
-      <c r="H41" s="120" t="s">
-        <v>277</v>
       </c>
       <c r="I41" s="120"/>
       <c r="J41" s="93"/>
       <c r="K41" s="118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L41" s="70"/>
     </row>
@@ -6791,18 +6964,18 @@
         <v>20</v>
       </c>
       <c r="F42" s="119" t="s">
+        <v>279</v>
+      </c>
+      <c r="G42" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="G42" s="120" t="s">
+      <c r="H42" s="120" t="s">
         <v>281</v>
-      </c>
-      <c r="H42" s="120" t="s">
-        <v>282</v>
       </c>
       <c r="I42" s="120"/>
       <c r="J42" s="93"/>
       <c r="K42" s="118" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L42" s="70"/>
     </row>
@@ -6817,18 +6990,18 @@
         <v>20</v>
       </c>
       <c r="F43" s="102" t="s">
+        <v>288</v>
+      </c>
+      <c r="G43" s="103" t="s">
+        <v>290</v>
+      </c>
+      <c r="H43" s="103" t="s">
         <v>289</v>
-      </c>
-      <c r="G43" s="103" t="s">
-        <v>291</v>
-      </c>
-      <c r="H43" s="103" t="s">
-        <v>290</v>
       </c>
       <c r="I43" s="103"/>
       <c r="J43" s="104"/>
       <c r="K43" s="101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L43" s="70"/>
     </row>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="301">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1239,6 +1239,21 @@
   </si>
   <si>
     <t>订单反审</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0.4
+2:0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序内：0.15
+模板：0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此估计针对自动备份数据库数据。
+如果需要服务器冗余，需要搭建简单的集群或者使用云服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1544,7 +1559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1780,7 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="13" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1911,6 +1925,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2218,8 +2250,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:S166"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2233,9 +2265,9 @@
     <col min="8" max="8" width="26.25" style="21" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="15.375" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="91" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.25" style="21" customWidth="1"/>
-    <col min="14" max="14" width="6" style="94" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="143" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.25" style="144" customWidth="1"/>
+    <col min="14" max="14" width="6" style="93" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="25.5" x14ac:dyDescent="0.3">
@@ -2283,7 +2315,7 @@
       <c r="J5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="92" t="s">
+      <c r="K5" s="91" t="s">
         <v>63</v>
       </c>
       <c r="L5" s="20" t="s">
@@ -2292,7 +2324,7 @@
       <c r="M5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="95"/>
+      <c r="N5" s="94"/>
       <c r="O5" s="1"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
@@ -2349,9 +2381,9 @@
       <c r="G7" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="H7" s="115"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="39"/>
-      <c r="J7" s="99">
+      <c r="J7" s="98">
         <v>42166</v>
       </c>
       <c r="K7" s="50">
@@ -2361,7 +2393,7 @@
       <c r="M7" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N7" s="96"/>
+      <c r="N7" s="95"/>
       <c r="O7" s="45">
         <v>1</v>
       </c>
@@ -2399,7 +2431,7 @@
       <c r="M8" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="96"/>
+      <c r="N8" s="95"/>
     </row>
     <row r="9" spans="1:19" s="45" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40">
@@ -2424,7 +2456,7 @@
         <v>77</v>
       </c>
       <c r="I9" s="39"/>
-      <c r="J9" s="99">
+      <c r="J9" s="98">
         <v>42166</v>
       </c>
       <c r="K9" s="49">
@@ -2434,7 +2466,7 @@
       <c r="M9" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N9" s="97"/>
+      <c r="N9" s="96"/>
       <c r="O9" s="45">
         <v>2</v>
       </c>
@@ -2462,7 +2494,7 @@
         <v>156</v>
       </c>
       <c r="I10" s="39"/>
-      <c r="J10" s="99">
+      <c r="J10" s="98">
         <v>42158</v>
       </c>
       <c r="K10" s="50">
@@ -2474,7 +2506,7 @@
       <c r="M10" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N10" s="97"/>
+      <c r="N10" s="96"/>
     </row>
     <row r="11" spans="1:19" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
@@ -2603,7 +2635,7 @@
       <c r="M14" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="98"/>
+      <c r="N14" s="97"/>
     </row>
     <row r="15" spans="1:19" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15" s="51">
@@ -2666,7 +2698,7 @@
       <c r="M16" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N16" s="98"/>
+      <c r="N16" s="97"/>
     </row>
     <row r="17" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17" s="40">
@@ -2697,7 +2729,7 @@
       <c r="M17" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N17" s="98"/>
+      <c r="N17" s="97"/>
     </row>
     <row r="18" spans="2:15" s="45" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18" s="51">
@@ -2892,7 +2924,7 @@
       <c r="M23" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N23" s="98"/>
+      <c r="N23" s="97"/>
     </row>
     <row r="24" spans="2:15" s="45" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24" s="40">
@@ -2923,7 +2955,7 @@
       <c r="M24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N24" s="98"/>
+      <c r="N24" s="97"/>
     </row>
     <row r="25" spans="2:15" s="45" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25" s="51">
@@ -2990,7 +3022,7 @@
       <c r="M26" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="98"/>
+      <c r="N26" s="97"/>
     </row>
     <row r="27" spans="2:15" s="45" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="40">
@@ -3023,7 +3055,7 @@
       <c r="M27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="N27" s="98"/>
+      <c r="N27" s="97"/>
     </row>
     <row r="28" spans="2:15" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -3049,7 +3081,7 @@
       <c r="J28" s="71">
         <v>42166</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K28" s="92">
         <v>0.4</v>
       </c>
       <c r="L28" s="22"/>
@@ -3078,10 +3110,10 @@
       </c>
       <c r="H29" s="16"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="124">
+      <c r="J29" s="123">
         <v>42158</v>
       </c>
-      <c r="K29" s="93">
+      <c r="K29" s="92">
         <v>0.1</v>
       </c>
       <c r="L29" s="22"/>
@@ -3113,7 +3145,7 @@
       <c r="J30" s="71">
         <v>42166</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K30" s="92">
         <v>0.1</v>
       </c>
       <c r="L30" s="22"/>
@@ -3150,7 +3182,7 @@
       <c r="J31" s="71">
         <v>42166</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="92">
         <v>0.1</v>
       </c>
       <c r="L31" s="22"/>
@@ -3185,7 +3217,7 @@
       <c r="J32" s="71">
         <v>42158</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="92">
         <v>0.1</v>
       </c>
       <c r="L32" s="22"/>
@@ -3219,7 +3251,7 @@
       <c r="J33" s="71">
         <v>42158</v>
       </c>
-      <c r="K33" s="93">
+      <c r="K33" s="92">
         <v>0</v>
       </c>
       <c r="L33" s="22"/>
@@ -3253,7 +3285,7 @@
       <c r="J34" s="71">
         <v>42158</v>
       </c>
-      <c r="K34" s="93">
+      <c r="K34" s="92">
         <v>0.2</v>
       </c>
       <c r="L34" s="22"/>
@@ -3262,32 +3294,32 @@
       </c>
     </row>
     <row r="35" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="116">
+      <c r="B35" s="115">
         <v>31</v>
       </c>
-      <c r="C35" s="116">
-        <v>2</v>
-      </c>
-      <c r="D35" s="118" t="s">
+      <c r="C35" s="115">
+        <v>2</v>
+      </c>
+      <c r="D35" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="118" t="s">
+      <c r="E35" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="118" t="s">
         <v>165</v>
       </c>
-      <c r="G35" s="123" t="s">
+      <c r="G35" s="122" t="s">
         <v>166</v>
       </c>
-      <c r="H35" s="120"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="93">
+      <c r="H35" s="119"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="92">
         <v>0</v>
       </c>
-      <c r="L35" s="125"/>
-      <c r="M35" s="126" t="s">
+      <c r="L35" s="124"/>
+      <c r="M35" s="125" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3317,7 +3349,7 @@
       <c r="J36" s="71">
         <v>42166</v>
       </c>
-      <c r="K36" s="93">
+      <c r="K36" s="92">
         <v>0</v>
       </c>
       <c r="L36" s="22"/>
@@ -3326,312 +3358,316 @@
       </c>
     </row>
     <row r="37" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="116">
+      <c r="B37" s="115">
         <v>33</v>
       </c>
-      <c r="C37" s="116">
-        <v>2</v>
-      </c>
-      <c r="D37" s="118" t="s">
+      <c r="C37" s="115">
+        <v>2</v>
+      </c>
+      <c r="D37" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="118" t="s">
+      <c r="E37" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="119" t="s">
+      <c r="F37" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="123" t="s">
+      <c r="G37" s="122" t="s">
         <v>291</v>
       </c>
-      <c r="H37" s="120"/>
-      <c r="I37" s="118"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93" t="s">
+      <c r="H37" s="119"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="92"/>
+      <c r="K37" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="L37" s="125"/>
-      <c r="M37" s="126" t="s">
+      <c r="L37" s="124"/>
+      <c r="M37" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="116">
+      <c r="B38" s="115">
         <v>34</v>
       </c>
-      <c r="C38" s="116">
-        <v>2</v>
-      </c>
-      <c r="D38" s="118" t="s">
+      <c r="C38" s="115">
+        <v>2</v>
+      </c>
+      <c r="D38" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="118" t="s">
+      <c r="E38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="119" t="s">
+      <c r="F38" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="G38" s="123" t="s">
+      <c r="G38" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="H38" s="120" t="s">
+      <c r="H38" s="119" t="s">
         <v>216</v>
       </c>
-      <c r="I38" s="118"/>
-      <c r="J38" s="124">
+      <c r="I38" s="117"/>
+      <c r="J38" s="123">
         <v>42166</v>
       </c>
-      <c r="K38" s="93">
+      <c r="K38" s="92">
         <v>0.4</v>
       </c>
-      <c r="L38" s="125"/>
-      <c r="M38" s="126" t="s">
+      <c r="L38" s="124"/>
+      <c r="M38" s="125" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="116">
+      <c r="B39" s="115">
         <v>35</v>
       </c>
-      <c r="C39" s="116">
-        <v>2</v>
-      </c>
-      <c r="D39" s="118" t="s">
+      <c r="C39" s="115">
+        <v>2</v>
+      </c>
+      <c r="D39" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E39" s="118" t="s">
+      <c r="E39" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F39" s="119" t="s">
+      <c r="F39" s="118" t="s">
         <v>197</v>
       </c>
-      <c r="G39" s="123" t="s">
+      <c r="G39" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="H39" s="120" t="s">
+      <c r="H39" s="119" t="s">
         <v>199</v>
       </c>
-      <c r="I39" s="118"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93">
+      <c r="I39" s="117"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92">
         <v>0</v>
       </c>
-      <c r="L39" s="125" t="s">
+      <c r="L39" s="124" t="s">
         <v>200</v>
       </c>
-      <c r="M39" s="126"/>
+      <c r="M39" s="125"/>
     </row>
     <row r="40" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="116">
+      <c r="B40" s="115">
         <v>36</v>
       </c>
-      <c r="C40" s="116">
-        <v>2</v>
-      </c>
-      <c r="D40" s="117" t="s">
+      <c r="C40" s="115">
+        <v>2</v>
+      </c>
+      <c r="D40" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="117" t="s">
+      <c r="E40" s="116" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="127" t="s">
+      <c r="F40" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="128" t="s">
+      <c r="G40" s="127" t="s">
         <v>203</v>
       </c>
-      <c r="H40" s="129"/>
-      <c r="I40" s="118"/>
-      <c r="J40" s="93"/>
-      <c r="K40" s="93">
+      <c r="H40" s="128"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="92"/>
+      <c r="K40" s="141">
         <v>0.2</v>
       </c>
-      <c r="L40" s="125"/>
-      <c r="M40" s="126" t="s">
+      <c r="L40" s="145"/>
+      <c r="M40" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="116">
+      <c r="B41" s="115">
         <v>37</v>
       </c>
-      <c r="C41" s="116">
-        <v>2</v>
-      </c>
-      <c r="D41" s="118" t="s">
+      <c r="C41" s="115">
+        <v>2</v>
+      </c>
+      <c r="D41" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="118" t="s">
+      <c r="E41" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="119" t="s">
+      <c r="F41" s="118" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="123" t="s">
+      <c r="G41" s="122" t="s">
         <v>218</v>
       </c>
-      <c r="H41" s="120" t="s">
+      <c r="H41" s="119" t="s">
         <v>246</v>
       </c>
-      <c r="I41" s="118"/>
-      <c r="J41" s="124">
+      <c r="I41" s="117"/>
+      <c r="J41" s="123">
         <v>42166</v>
       </c>
-      <c r="K41" s="93">
+      <c r="K41" s="92">
         <v>0.1</v>
       </c>
-      <c r="L41" s="125"/>
-      <c r="M41" s="126" t="s">
+      <c r="L41" s="124"/>
+      <c r="M41" s="125" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="116">
+      <c r="B42" s="115">
         <v>38</v>
       </c>
-      <c r="C42" s="116">
-        <v>2</v>
-      </c>
-      <c r="D42" s="118" t="s">
+      <c r="C42" s="115">
+        <v>2</v>
+      </c>
+      <c r="D42" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="118" t="s">
+      <c r="E42" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="118" t="s">
         <v>207</v>
       </c>
-      <c r="G42" s="123" t="s">
+      <c r="G42" s="122" t="s">
         <v>208</v>
       </c>
-      <c r="H42" s="120"/>
-      <c r="I42" s="118"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="93" t="s">
+      <c r="H42" s="119"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="L42" s="125"/>
-      <c r="M42" s="126" t="s">
+      <c r="L42" s="124"/>
+      <c r="M42" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="116">
+      <c r="B43" s="115">
         <v>39</v>
       </c>
-      <c r="C43" s="116">
-        <v>2</v>
-      </c>
-      <c r="D43" s="118" t="s">
+      <c r="C43" s="115">
+        <v>2</v>
+      </c>
+      <c r="D43" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="118" t="s">
+      <c r="E43" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="119" t="s">
+      <c r="F43" s="118" t="s">
         <v>205</v>
       </c>
-      <c r="G43" s="123" t="s">
+      <c r="G43" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="H43" s="120"/>
-      <c r="I43" s="118"/>
-      <c r="J43" s="93"/>
-      <c r="K43" s="93">
+      <c r="H43" s="119"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92">
         <v>0.2</v>
       </c>
-      <c r="L43" s="125"/>
-      <c r="M43" s="126" t="s">
+      <c r="L43" s="124"/>
+      <c r="M43" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="116">
+      <c r="B44" s="115">
         <v>40</v>
       </c>
-      <c r="C44" s="116">
-        <v>2</v>
-      </c>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="115">
+        <v>2</v>
+      </c>
+      <c r="D44" s="131" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="131" t="s">
+      <c r="E44" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="F44" s="132" t="s">
+      <c r="F44" s="131" t="s">
         <v>211</v>
       </c>
-      <c r="G44" s="137" t="s">
+      <c r="G44" s="136" t="s">
         <v>213</v>
       </c>
-      <c r="H44" s="133" t="s">
+      <c r="H44" s="132" t="s">
         <v>212</v>
       </c>
-      <c r="I44" s="118"/>
-      <c r="J44" s="93"/>
-      <c r="K44" s="93"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="126" t="s">
+      <c r="I44" s="117"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="114" x14ac:dyDescent="0.15">
-      <c r="B45" s="116">
+      <c r="B45" s="115">
         <v>41</v>
       </c>
-      <c r="C45" s="116">
-        <v>2</v>
-      </c>
-      <c r="D45" s="118" t="s">
+      <c r="C45" s="115">
+        <v>2</v>
+      </c>
+      <c r="D45" s="117" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="101" t="s">
+      <c r="E45" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="119" t="s">
+      <c r="F45" s="118" t="s">
         <v>224</v>
       </c>
-      <c r="G45" s="123" t="s">
+      <c r="G45" s="122" t="s">
         <v>230</v>
       </c>
-      <c r="H45" s="120"/>
-      <c r="I45" s="118"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="126" t="s">
+      <c r="H45" s="119"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="141">
+        <v>0.6</v>
+      </c>
+      <c r="L45" s="145" t="s">
+        <v>297</v>
+      </c>
+      <c r="M45" s="125" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="116">
+      <c r="B46" s="115">
         <v>42</v>
       </c>
-      <c r="C46" s="116">
-        <v>2</v>
-      </c>
-      <c r="D46" s="118" t="s">
+      <c r="C46" s="115">
+        <v>2</v>
+      </c>
+      <c r="D46" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="118" t="s">
+      <c r="E46" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="119" t="s">
+      <c r="F46" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="G46" s="123" t="s">
+      <c r="G46" s="122" t="s">
         <v>225</v>
       </c>
-      <c r="H46" s="120"/>
-      <c r="I46" s="118"/>
-      <c r="J46" s="124">
+      <c r="H46" s="119"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="123">
         <v>42171</v>
       </c>
-      <c r="K46" s="93">
+      <c r="K46" s="92">
         <v>0</v>
       </c>
-      <c r="L46" s="125"/>
-      <c r="M46" s="126" t="s">
+      <c r="L46" s="124"/>
+      <c r="M46" s="125" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3642,60 +3678,60 @@
       <c r="C47" s="18">
         <v>2</v>
       </c>
-      <c r="D47" s="118" t="s">
+      <c r="D47" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="118" t="s">
+      <c r="E47" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="119" t="s">
+      <c r="F47" s="118" t="s">
         <v>247</v>
       </c>
-      <c r="G47" s="123" t="s">
+      <c r="G47" s="122" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="120" t="s">
+      <c r="H47" s="119" t="s">
         <v>262</v>
       </c>
-      <c r="I47" s="118"/>
-      <c r="J47" s="124">
+      <c r="I47" s="117"/>
+      <c r="J47" s="123">
         <v>42173</v>
       </c>
-      <c r="K47" s="93">
+      <c r="K47" s="92">
         <v>0.05</v>
       </c>
-      <c r="L47" s="125"/>
-      <c r="M47" s="126" t="s">
+      <c r="L47" s="124"/>
+      <c r="M47" s="125" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="116">
+      <c r="B48" s="115">
         <v>44</v>
       </c>
-      <c r="C48" s="116">
-        <v>2</v>
-      </c>
-      <c r="D48" s="118" t="s">
+      <c r="C48" s="115">
+        <v>2</v>
+      </c>
+      <c r="D48" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="118" t="s">
+      <c r="E48" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="119" t="s">
+      <c r="F48" s="118" t="s">
         <v>248</v>
       </c>
-      <c r="G48" s="123" t="s">
+      <c r="G48" s="122" t="s">
         <v>249</v>
       </c>
-      <c r="H48" s="120" t="s">
+      <c r="H48" s="119" t="s">
         <v>250</v>
       </c>
-      <c r="I48" s="118"/>
-      <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="126" t="s">
+      <c r="I48" s="117"/>
+      <c r="J48" s="92"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="125" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3706,30 +3742,30 @@
       <c r="C49" s="18">
         <v>2</v>
       </c>
-      <c r="D49" s="118" t="s">
+      <c r="D49" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="118" t="s">
+      <c r="E49" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="119" t="s">
+      <c r="F49" s="118" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="123" t="s">
+      <c r="G49" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="H49" s="120" t="s">
+      <c r="H49" s="119" t="s">
         <v>252</v>
       </c>
-      <c r="I49" s="118"/>
-      <c r="J49" s="124">
+      <c r="I49" s="117"/>
+      <c r="J49" s="123">
         <v>42173</v>
       </c>
-      <c r="K49" s="93">
+      <c r="K49" s="92">
         <v>0.01</v>
       </c>
-      <c r="L49" s="125"/>
-      <c r="M49" s="126" t="s">
+      <c r="L49" s="124"/>
+      <c r="M49" s="125" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3740,26 +3776,30 @@
       <c r="C50" s="18">
         <v>2</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="118" t="s">
+      <c r="E50" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="119" t="s">
+      <c r="F50" s="118" t="s">
         <v>253</v>
       </c>
-      <c r="G50" s="123" t="s">
+      <c r="G50" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="H50" s="120" t="s">
+      <c r="H50" s="119" t="s">
         <v>282</v>
       </c>
-      <c r="I50" s="118"/>
-      <c r="J50" s="93"/>
-      <c r="K50" s="93"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="126" t="s">
+      <c r="I50" s="117"/>
+      <c r="J50" s="92"/>
+      <c r="K50" s="141">
+        <v>0.4</v>
+      </c>
+      <c r="L50" s="145" t="s">
+        <v>298</v>
+      </c>
+      <c r="M50" s="125" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3770,54 +3810,60 @@
       <c r="C51" s="18">
         <v>2</v>
       </c>
-      <c r="D51" s="118" t="s">
+      <c r="D51" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="118" t="s">
+      <c r="E51" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="119" t="s">
+      <c r="F51" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="123" t="s">
+      <c r="G51" s="122" t="s">
         <v>255</v>
       </c>
-      <c r="H51" s="120"/>
-      <c r="I51" s="118"/>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="126" t="s">
+      <c r="H51" s="119"/>
+      <c r="I51" s="117"/>
+      <c r="J51" s="92"/>
+      <c r="K51" s="141">
+        <v>0</v>
+      </c>
+      <c r="L51" s="145"/>
+      <c r="M51" s="125" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:13" ht="57" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="85.5" x14ac:dyDescent="0.15">
       <c r="B52" s="18">
         <v>48</v>
       </c>
       <c r="C52" s="18">
         <v>2</v>
       </c>
-      <c r="D52" s="118" t="s">
+      <c r="D52" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="E52" s="118" t="s">
+      <c r="E52" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="119" t="s">
+      <c r="F52" s="118" t="s">
         <v>256</v>
       </c>
-      <c r="G52" s="123" t="s">
+      <c r="G52" s="122" t="s">
         <v>257</v>
       </c>
-      <c r="H52" s="120" t="s">
+      <c r="H52" s="119" t="s">
         <v>258</v>
       </c>
-      <c r="I52" s="118"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="126" t="s">
+      <c r="I52" s="117"/>
+      <c r="J52" s="92"/>
+      <c r="K52" s="141">
+        <v>0.1</v>
+      </c>
+      <c r="L52" s="145" t="s">
+        <v>299</v>
+      </c>
+      <c r="M52" s="125" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3828,26 +3874,26 @@
       <c r="C53" s="18">
         <v>2</v>
       </c>
-      <c r="D53" s="101" t="s">
+      <c r="D53" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="102" t="s">
+      <c r="F53" s="101" t="s">
         <v>259</v>
       </c>
-      <c r="G53" s="138" t="s">
+      <c r="G53" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="H53" s="103" t="s">
+      <c r="H53" s="102" t="s">
         <v>261</v>
       </c>
       <c r="I53" s="14"/>
       <c r="J53" s="5"/>
-      <c r="K53" s="93"/>
+      <c r="K53" s="92"/>
       <c r="L53" s="22"/>
-      <c r="M53" s="140" t="s">
+      <c r="M53" s="139" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3855,31 +3901,31 @@
       <c r="B54" s="18">
         <v>50</v>
       </c>
-      <c r="C54" s="116">
-        <v>2</v>
-      </c>
-      <c r="D54" s="118" t="s">
+      <c r="C54" s="115">
+        <v>2</v>
+      </c>
+      <c r="D54" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="E54" s="118" t="s">
+      <c r="E54" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="119" t="s">
+      <c r="F54" s="118" t="s">
         <v>271</v>
       </c>
-      <c r="G54" s="123" t="s">
+      <c r="G54" s="122" t="s">
         <v>272</v>
       </c>
-      <c r="H54" s="120" t="s">
+      <c r="H54" s="119" t="s">
         <v>273</v>
       </c>
-      <c r="I54" s="118"/>
-      <c r="J54" s="124">
+      <c r="I54" s="117"/>
+      <c r="J54" s="123">
         <v>42177</v>
       </c>
-      <c r="K54" s="93"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="126" t="s">
+      <c r="K54" s="92"/>
+      <c r="L54" s="124"/>
+      <c r="M54" s="125" t="s">
         <v>90</v>
       </c>
     </row>
@@ -3887,27 +3933,29 @@
       <c r="B55" s="18">
         <v>51</v>
       </c>
-      <c r="C55" s="106">
-        <v>2</v>
-      </c>
-      <c r="D55" s="101" t="s">
+      <c r="C55" s="105">
+        <v>2</v>
+      </c>
+      <c r="D55" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="102" t="s">
+      <c r="F55" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="G55" s="138" t="s">
+      <c r="G55" s="137" t="s">
         <v>286</v>
       </c>
-      <c r="H55" s="103"/>
-      <c r="I55" s="101"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="139"/>
-      <c r="M55" s="140" t="s">
+      <c r="H55" s="102"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="103"/>
+      <c r="K55" s="142">
+        <v>0</v>
+      </c>
+      <c r="L55" s="146"/>
+      <c r="M55" s="139" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3915,27 +3963,26 @@
       <c r="B56" s="18">
         <v>52</v>
       </c>
-      <c r="C56" s="106">
-        <v>2</v>
-      </c>
-      <c r="D56" s="101" t="s">
+      <c r="C56" s="105">
+        <v>2</v>
+      </c>
+      <c r="D56" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="102" t="s">
+      <c r="F56" s="101" t="s">
         <v>292</v>
       </c>
-      <c r="G56" s="138" t="s">
+      <c r="G56" s="137" t="s">
         <v>295</v>
       </c>
-      <c r="H56" s="103"/>
-      <c r="I56" s="101"/>
-      <c r="J56" s="141"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="140" t="s">
+      <c r="H56" s="102"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="140"/>
+      <c r="L56" s="146"/>
+      <c r="M56" s="139" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3943,99 +3990,101 @@
       <c r="B57" s="18">
         <v>53</v>
       </c>
-      <c r="C57" s="106">
-        <v>2</v>
-      </c>
-      <c r="D57" s="101" t="s">
+      <c r="C57" s="105">
+        <v>2</v>
+      </c>
+      <c r="D57" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="101" t="s">
+      <c r="E57" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="102" t="s">
+      <c r="F57" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="G57" s="138" t="s">
+      <c r="G57" s="137" t="s">
         <v>294</v>
       </c>
-      <c r="H57" s="103"/>
-      <c r="I57" s="101"/>
-      <c r="J57" s="141"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="139"/>
-      <c r="M57" s="140" t="s">
+      <c r="H57" s="102"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="140"/>
+      <c r="K57" s="142"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="139" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="18"/>
-      <c r="C58" s="116"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="119"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="124"/>
-      <c r="K58" s="93"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="126"/>
+      <c r="C58" s="115"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="122"/>
+      <c r="H58" s="119"/>
+      <c r="I58" s="117"/>
+      <c r="J58" s="123"/>
+      <c r="K58" s="92"/>
+      <c r="L58" s="124"/>
+      <c r="M58" s="125"/>
     </row>
     <row r="59" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59" s="18"/>
-      <c r="C59" s="116"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="119"/>
-      <c r="G59" s="123"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="124"/>
-      <c r="K59" s="93"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="126"/>
+      <c r="C59" s="115"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="122"/>
+      <c r="H59" s="119"/>
+      <c r="I59" s="117"/>
+      <c r="J59" s="123"/>
+      <c r="K59" s="92"/>
+      <c r="L59" s="124"/>
+      <c r="M59" s="125"/>
     </row>
     <row r="60" spans="2:13" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B60" s="18"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="138"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="101"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="139"/>
-      <c r="M60" s="140"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="100"/>
+      <c r="E60" s="100"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="100"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
+      <c r="L60" s="138"/>
+      <c r="M60" s="139"/>
     </row>
     <row r="61" spans="2:13" ht="128.25" x14ac:dyDescent="0.15">
       <c r="B61" s="18">
         <v>54</v>
       </c>
-      <c r="C61" s="106">
-        <v>2</v>
-      </c>
-      <c r="D61" s="101" t="s">
+      <c r="C61" s="105">
+        <v>2</v>
+      </c>
+      <c r="D61" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="E61" s="101" t="s">
+      <c r="E61" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="102" t="s">
+      <c r="F61" s="101" t="s">
         <v>283</v>
       </c>
-      <c r="G61" s="138" t="s">
+      <c r="G61" s="137" t="s">
         <v>287</v>
       </c>
-      <c r="H61" s="103" t="s">
+      <c r="H61" s="102" t="s">
         <v>284</v>
       </c>
-      <c r="I61" s="101"/>
-      <c r="J61" s="104"/>
-      <c r="K61" s="104"/>
-      <c r="L61" s="139"/>
-      <c r="M61" s="140" t="s">
+      <c r="I61" s="100"/>
+      <c r="J61" s="103"/>
+      <c r="K61" s="142">
+        <v>0.35</v>
+      </c>
+      <c r="L61" s="146"/>
+      <c r="M61" s="139" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4043,27 +4092,27 @@
       <c r="B62" s="18">
         <v>55</v>
       </c>
-      <c r="C62" s="106">
-        <v>2</v>
-      </c>
-      <c r="D62" s="101" t="s">
+      <c r="C62" s="105">
+        <v>2</v>
+      </c>
+      <c r="D62" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="101" t="s">
+      <c r="E62" s="100" t="s">
         <v>136</v>
       </c>
-      <c r="F62" s="102" t="s">
+      <c r="F62" s="101" t="s">
         <v>296</v>
       </c>
-      <c r="G62" s="138" t="s">
-        <v>297</v>
-      </c>
-      <c r="H62" s="103"/>
-      <c r="I62" s="101"/>
-      <c r="J62" s="104"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="139"/>
-      <c r="M62" s="140" t="s">
+      <c r="G62" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="H62" s="102"/>
+      <c r="I62" s="100"/>
+      <c r="J62" s="103"/>
+      <c r="K62" s="142"/>
+      <c r="L62" s="146"/>
+      <c r="M62" s="139" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4081,7 +4130,7 @@
       <c r="H63" s="16"/>
       <c r="I63" s="14"/>
       <c r="J63" s="5"/>
-      <c r="K63" s="93"/>
+      <c r="K63" s="92"/>
       <c r="L63" s="22"/>
       <c r="M63" s="17"/>
     </row>
@@ -4099,7 +4148,7 @@
       <c r="H64" s="16"/>
       <c r="I64" s="14"/>
       <c r="J64" s="5"/>
-      <c r="K64" s="93"/>
+      <c r="K64" s="92"/>
       <c r="L64" s="22"/>
       <c r="M64" s="17"/>
     </row>
@@ -4117,7 +4166,7 @@
       <c r="H65" s="16"/>
       <c r="I65" s="14"/>
       <c r="J65" s="5"/>
-      <c r="K65" s="93"/>
+      <c r="K65" s="92"/>
       <c r="L65" s="22"/>
       <c r="M65" s="17"/>
     </row>
@@ -4135,7 +4184,7 @@
       <c r="H66" s="16"/>
       <c r="I66" s="14"/>
       <c r="J66" s="5"/>
-      <c r="K66" s="93"/>
+      <c r="K66" s="92"/>
       <c r="L66" s="22"/>
       <c r="M66" s="17"/>
     </row>
@@ -4153,7 +4202,7 @@
       <c r="H67" s="16"/>
       <c r="I67" s="14"/>
       <c r="J67" s="5"/>
-      <c r="K67" s="93"/>
+      <c r="K67" s="92"/>
       <c r="L67" s="22"/>
       <c r="M67" s="17"/>
     </row>
@@ -4171,7 +4220,7 @@
       <c r="H68" s="16"/>
       <c r="I68" s="14"/>
       <c r="J68" s="5"/>
-      <c r="K68" s="93"/>
+      <c r="K68" s="92"/>
       <c r="L68" s="22"/>
       <c r="M68" s="17"/>
     </row>
@@ -4189,7 +4238,7 @@
       <c r="H69" s="16"/>
       <c r="I69" s="14"/>
       <c r="J69" s="5"/>
-      <c r="K69" s="93"/>
+      <c r="K69" s="92"/>
       <c r="L69" s="22"/>
       <c r="M69" s="17"/>
     </row>
@@ -4207,7 +4256,7 @@
       <c r="H70" s="16"/>
       <c r="I70" s="14"/>
       <c r="J70" s="5"/>
-      <c r="K70" s="93"/>
+      <c r="K70" s="92"/>
       <c r="L70" s="22"/>
       <c r="M70" s="17"/>
     </row>
@@ -4225,7 +4274,7 @@
       <c r="H71" s="16"/>
       <c r="I71" s="14"/>
       <c r="J71" s="5"/>
-      <c r="K71" s="93"/>
+      <c r="K71" s="92"/>
       <c r="L71" s="22"/>
       <c r="M71" s="17"/>
     </row>
@@ -4243,7 +4292,7 @@
       <c r="H72" s="16"/>
       <c r="I72" s="14"/>
       <c r="J72" s="5"/>
-      <c r="K72" s="93"/>
+      <c r="K72" s="92"/>
       <c r="L72" s="22"/>
       <c r="M72" s="17"/>
     </row>
@@ -4261,7 +4310,7 @@
       <c r="H73" s="16"/>
       <c r="I73" s="14"/>
       <c r="J73" s="5"/>
-      <c r="K73" s="93"/>
+      <c r="K73" s="92"/>
       <c r="L73" s="22"/>
       <c r="M73" s="17"/>
     </row>
@@ -4279,7 +4328,7 @@
       <c r="H74" s="16"/>
       <c r="I74" s="14"/>
       <c r="J74" s="5"/>
-      <c r="K74" s="93"/>
+      <c r="K74" s="92"/>
       <c r="L74" s="22"/>
       <c r="M74" s="17"/>
     </row>
@@ -4297,7 +4346,7 @@
       <c r="H75" s="16"/>
       <c r="I75" s="14"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="93"/>
+      <c r="K75" s="92"/>
       <c r="L75" s="22"/>
       <c r="M75" s="17"/>
     </row>
@@ -4315,7 +4364,7 @@
       <c r="H76" s="16"/>
       <c r="I76" s="14"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="93"/>
+      <c r="K76" s="92"/>
       <c r="L76" s="22"/>
       <c r="M76" s="17"/>
     </row>
@@ -4333,7 +4382,7 @@
       <c r="H77" s="16"/>
       <c r="I77" s="14"/>
       <c r="J77" s="5"/>
-      <c r="K77" s="93"/>
+      <c r="K77" s="92"/>
       <c r="L77" s="22"/>
       <c r="M77" s="17"/>
     </row>
@@ -4351,7 +4400,7 @@
       <c r="H78" s="16"/>
       <c r="I78" s="14"/>
       <c r="J78" s="5"/>
-      <c r="K78" s="93"/>
+      <c r="K78" s="92"/>
       <c r="L78" s="22"/>
       <c r="M78" s="17"/>
     </row>
@@ -4369,7 +4418,7 @@
       <c r="H79" s="16"/>
       <c r="I79" s="14"/>
       <c r="J79" s="5"/>
-      <c r="K79" s="93"/>
+      <c r="K79" s="92"/>
       <c r="L79" s="22"/>
       <c r="M79" s="17"/>
     </row>
@@ -4387,7 +4436,7 @@
       <c r="H80" s="16"/>
       <c r="I80" s="14"/>
       <c r="J80" s="5"/>
-      <c r="K80" s="93"/>
+      <c r="K80" s="92"/>
       <c r="L80" s="22"/>
       <c r="M80" s="17"/>
     </row>
@@ -4405,7 +4454,7 @@
       <c r="H81" s="16"/>
       <c r="I81" s="14"/>
       <c r="J81" s="5"/>
-      <c r="K81" s="93"/>
+      <c r="K81" s="92"/>
       <c r="L81" s="22"/>
       <c r="M81" s="17"/>
     </row>
@@ -4423,7 +4472,7 @@
       <c r="H82" s="16"/>
       <c r="I82" s="14"/>
       <c r="J82" s="5"/>
-      <c r="K82" s="93"/>
+      <c r="K82" s="92"/>
       <c r="L82" s="22"/>
       <c r="M82" s="17"/>
     </row>
@@ -4441,7 +4490,7 @@
       <c r="H83" s="16"/>
       <c r="I83" s="14"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="93"/>
+      <c r="K83" s="92"/>
       <c r="L83" s="22"/>
       <c r="M83" s="17"/>
     </row>
@@ -4459,7 +4508,7 @@
       <c r="H84" s="16"/>
       <c r="I84" s="14"/>
       <c r="J84" s="5"/>
-      <c r="K84" s="93"/>
+      <c r="K84" s="92"/>
       <c r="L84" s="22"/>
       <c r="M84" s="17"/>
     </row>
@@ -4477,7 +4526,7 @@
       <c r="H85" s="16"/>
       <c r="I85" s="14"/>
       <c r="J85" s="5"/>
-      <c r="K85" s="93"/>
+      <c r="K85" s="92"/>
       <c r="L85" s="22"/>
       <c r="M85" s="17"/>
     </row>
@@ -4495,7 +4544,7 @@
       <c r="H86" s="16"/>
       <c r="I86" s="14"/>
       <c r="J86" s="5"/>
-      <c r="K86" s="93"/>
+      <c r="K86" s="92"/>
       <c r="L86" s="22"/>
       <c r="M86" s="17"/>
     </row>
@@ -4513,7 +4562,7 @@
       <c r="H87" s="16"/>
       <c r="I87" s="14"/>
       <c r="J87" s="5"/>
-      <c r="K87" s="93"/>
+      <c r="K87" s="92"/>
       <c r="L87" s="22"/>
       <c r="M87" s="17"/>
     </row>
@@ -4531,7 +4580,7 @@
       <c r="H88" s="16"/>
       <c r="I88" s="14"/>
       <c r="J88" s="5"/>
-      <c r="K88" s="93"/>
+      <c r="K88" s="92"/>
       <c r="L88" s="22"/>
       <c r="M88" s="17"/>
     </row>
@@ -4549,7 +4598,7 @@
       <c r="H89" s="16"/>
       <c r="I89" s="14"/>
       <c r="J89" s="5"/>
-      <c r="K89" s="93"/>
+      <c r="K89" s="92"/>
       <c r="L89" s="22"/>
       <c r="M89" s="17"/>
     </row>
@@ -4567,7 +4616,7 @@
       <c r="H90" s="16"/>
       <c r="I90" s="14"/>
       <c r="J90" s="5"/>
-      <c r="K90" s="93"/>
+      <c r="K90" s="92"/>
       <c r="L90" s="22"/>
       <c r="M90" s="17"/>
     </row>
@@ -4585,7 +4634,7 @@
       <c r="H91" s="16"/>
       <c r="I91" s="14"/>
       <c r="J91" s="5"/>
-      <c r="K91" s="93"/>
+      <c r="K91" s="92"/>
       <c r="L91" s="22"/>
       <c r="M91" s="17"/>
     </row>
@@ -4603,7 +4652,7 @@
       <c r="H92" s="16"/>
       <c r="I92" s="14"/>
       <c r="J92" s="5"/>
-      <c r="K92" s="93"/>
+      <c r="K92" s="92"/>
       <c r="L92" s="22"/>
       <c r="M92" s="17"/>
     </row>
@@ -4621,7 +4670,7 @@
       <c r="H93" s="16"/>
       <c r="I93" s="14"/>
       <c r="J93" s="5"/>
-      <c r="K93" s="93"/>
+      <c r="K93" s="92"/>
       <c r="L93" s="22"/>
       <c r="M93" s="17"/>
     </row>
@@ -4639,7 +4688,7 @@
       <c r="H94" s="16"/>
       <c r="I94" s="14"/>
       <c r="J94" s="5"/>
-      <c r="K94" s="93"/>
+      <c r="K94" s="92"/>
       <c r="L94" s="22"/>
       <c r="M94" s="17"/>
     </row>
@@ -4657,7 +4706,7 @@
       <c r="H95" s="16"/>
       <c r="I95" s="14"/>
       <c r="J95" s="5"/>
-      <c r="K95" s="93"/>
+      <c r="K95" s="92"/>
       <c r="L95" s="22"/>
       <c r="M95" s="17"/>
     </row>
@@ -4675,7 +4724,7 @@
       <c r="H96" s="16"/>
       <c r="I96" s="14"/>
       <c r="J96" s="5"/>
-      <c r="K96" s="93"/>
+      <c r="K96" s="92"/>
       <c r="L96" s="22"/>
       <c r="M96" s="17"/>
     </row>
@@ -4693,7 +4742,7 @@
       <c r="H97" s="16"/>
       <c r="I97" s="14"/>
       <c r="J97" s="5"/>
-      <c r="K97" s="93"/>
+      <c r="K97" s="92"/>
       <c r="L97" s="22"/>
       <c r="M97" s="17"/>
     </row>
@@ -4711,7 +4760,7 @@
       <c r="H98" s="16"/>
       <c r="I98" s="14"/>
       <c r="J98" s="5"/>
-      <c r="K98" s="93"/>
+      <c r="K98" s="92"/>
       <c r="L98" s="22"/>
       <c r="M98" s="17"/>
     </row>
@@ -4729,7 +4778,7 @@
       <c r="H99" s="16"/>
       <c r="I99" s="14"/>
       <c r="J99" s="5"/>
-      <c r="K99" s="93"/>
+      <c r="K99" s="92"/>
       <c r="L99" s="22"/>
       <c r="M99" s="17"/>
     </row>
@@ -4747,7 +4796,7 @@
       <c r="H100" s="16"/>
       <c r="I100" s="14"/>
       <c r="J100" s="5"/>
-      <c r="K100" s="93"/>
+      <c r="K100" s="92"/>
       <c r="L100" s="22"/>
       <c r="M100" s="17"/>
     </row>
@@ -4765,7 +4814,7 @@
       <c r="H101" s="16"/>
       <c r="I101" s="14"/>
       <c r="J101" s="5"/>
-      <c r="K101" s="93"/>
+      <c r="K101" s="92"/>
       <c r="L101" s="22"/>
       <c r="M101" s="17"/>
     </row>
@@ -4783,7 +4832,7 @@
       <c r="H102" s="16"/>
       <c r="I102" s="14"/>
       <c r="J102" s="5"/>
-      <c r="K102" s="93"/>
+      <c r="K102" s="92"/>
       <c r="L102" s="22"/>
       <c r="M102" s="17"/>
     </row>
@@ -4801,7 +4850,7 @@
       <c r="H103" s="16"/>
       <c r="I103" s="14"/>
       <c r="J103" s="5"/>
-      <c r="K103" s="93"/>
+      <c r="K103" s="92"/>
       <c r="L103" s="22"/>
       <c r="M103" s="17"/>
     </row>
@@ -4819,7 +4868,7 @@
       <c r="H104" s="16"/>
       <c r="I104" s="14"/>
       <c r="J104" s="5"/>
-      <c r="K104" s="93"/>
+      <c r="K104" s="92"/>
       <c r="L104" s="22"/>
       <c r="M104" s="17"/>
     </row>
@@ -4837,7 +4886,7 @@
       <c r="H105" s="16"/>
       <c r="I105" s="14"/>
       <c r="J105" s="5"/>
-      <c r="K105" s="93"/>
+      <c r="K105" s="92"/>
       <c r="L105" s="22"/>
       <c r="M105" s="17"/>
     </row>
@@ -4855,7 +4904,7 @@
       <c r="H106" s="16"/>
       <c r="I106" s="14"/>
       <c r="J106" s="5"/>
-      <c r="K106" s="93"/>
+      <c r="K106" s="92"/>
       <c r="L106" s="22"/>
       <c r="M106" s="17"/>
     </row>
@@ -4873,7 +4922,7 @@
       <c r="H107" s="16"/>
       <c r="I107" s="14"/>
       <c r="J107" s="5"/>
-      <c r="K107" s="93"/>
+      <c r="K107" s="92"/>
       <c r="L107" s="22"/>
       <c r="M107" s="17"/>
     </row>
@@ -4891,7 +4940,7 @@
       <c r="H108" s="16"/>
       <c r="I108" s="14"/>
       <c r="J108" s="5"/>
-      <c r="K108" s="93"/>
+      <c r="K108" s="92"/>
       <c r="L108" s="22"/>
       <c r="M108" s="17"/>
     </row>
@@ -4909,7 +4958,7 @@
       <c r="H109" s="16"/>
       <c r="I109" s="14"/>
       <c r="J109" s="5"/>
-      <c r="K109" s="93"/>
+      <c r="K109" s="92"/>
       <c r="L109" s="22"/>
       <c r="M109" s="17"/>
     </row>
@@ -4927,7 +4976,7 @@
       <c r="H110" s="16"/>
       <c r="I110" s="14"/>
       <c r="J110" s="5"/>
-      <c r="K110" s="93"/>
+      <c r="K110" s="92"/>
       <c r="L110" s="22"/>
       <c r="M110" s="17"/>
     </row>
@@ -4945,7 +4994,7 @@
       <c r="H111" s="16"/>
       <c r="I111" s="14"/>
       <c r="J111" s="5"/>
-      <c r="K111" s="93"/>
+      <c r="K111" s="92"/>
       <c r="L111" s="22"/>
       <c r="M111" s="17"/>
     </row>
@@ -4963,7 +5012,7 @@
       <c r="H112" s="16"/>
       <c r="I112" s="14"/>
       <c r="J112" s="5"/>
-      <c r="K112" s="93"/>
+      <c r="K112" s="92"/>
       <c r="L112" s="22"/>
       <c r="M112" s="17"/>
     </row>
@@ -4981,7 +5030,7 @@
       <c r="H113" s="16"/>
       <c r="I113" s="14"/>
       <c r="J113" s="5"/>
-      <c r="K113" s="93"/>
+      <c r="K113" s="92"/>
       <c r="L113" s="22"/>
       <c r="M113" s="17"/>
     </row>
@@ -4999,7 +5048,7 @@
       <c r="H114" s="16"/>
       <c r="I114" s="14"/>
       <c r="J114" s="5"/>
-      <c r="K114" s="93"/>
+      <c r="K114" s="92"/>
       <c r="L114" s="22"/>
       <c r="M114" s="17"/>
     </row>
@@ -5017,7 +5066,7 @@
       <c r="H115" s="16"/>
       <c r="I115" s="14"/>
       <c r="J115" s="5"/>
-      <c r="K115" s="93"/>
+      <c r="K115" s="92"/>
       <c r="L115" s="22"/>
       <c r="M115" s="17"/>
     </row>
@@ -5035,7 +5084,7 @@
       <c r="H116" s="16"/>
       <c r="I116" s="14"/>
       <c r="J116" s="5"/>
-      <c r="K116" s="93"/>
+      <c r="K116" s="92"/>
       <c r="L116" s="22"/>
       <c r="M116" s="17"/>
     </row>
@@ -5053,7 +5102,7 @@
       <c r="H117" s="16"/>
       <c r="I117" s="14"/>
       <c r="J117" s="5"/>
-      <c r="K117" s="93"/>
+      <c r="K117" s="92"/>
       <c r="L117" s="22"/>
       <c r="M117" s="17"/>
     </row>
@@ -5071,7 +5120,7 @@
       <c r="H118" s="16"/>
       <c r="I118" s="14"/>
       <c r="J118" s="5"/>
-      <c r="K118" s="93"/>
+      <c r="K118" s="92"/>
       <c r="L118" s="22"/>
       <c r="M118" s="17"/>
     </row>
@@ -5089,7 +5138,7 @@
       <c r="H119" s="16"/>
       <c r="I119" s="14"/>
       <c r="J119" s="5"/>
-      <c r="K119" s="93"/>
+      <c r="K119" s="92"/>
       <c r="L119" s="22"/>
       <c r="M119" s="17"/>
     </row>
@@ -5107,7 +5156,7 @@
       <c r="H120" s="16"/>
       <c r="I120" s="14"/>
       <c r="J120" s="5"/>
-      <c r="K120" s="93"/>
+      <c r="K120" s="92"/>
       <c r="L120" s="22"/>
       <c r="M120" s="17"/>
     </row>
@@ -5125,7 +5174,7 @@
       <c r="H121" s="16"/>
       <c r="I121" s="14"/>
       <c r="J121" s="5"/>
-      <c r="K121" s="93"/>
+      <c r="K121" s="92"/>
       <c r="L121" s="22"/>
       <c r="M121" s="17"/>
     </row>
@@ -5143,7 +5192,7 @@
       <c r="H122" s="16"/>
       <c r="I122" s="14"/>
       <c r="J122" s="5"/>
-      <c r="K122" s="93"/>
+      <c r="K122" s="92"/>
       <c r="L122" s="22"/>
       <c r="M122" s="17"/>
     </row>
@@ -5159,7 +5208,7 @@
       <c r="H123" s="16"/>
       <c r="I123" s="14"/>
       <c r="J123" s="5"/>
-      <c r="K123" s="93"/>
+      <c r="K123" s="92"/>
       <c r="L123" s="22"/>
       <c r="M123" s="17"/>
     </row>
@@ -5175,7 +5224,7 @@
       <c r="H124" s="16"/>
       <c r="I124" s="14"/>
       <c r="J124" s="5"/>
-      <c r="K124" s="93"/>
+      <c r="K124" s="92"/>
       <c r="L124" s="22"/>
       <c r="M124" s="17"/>
     </row>
@@ -5191,7 +5240,7 @@
       <c r="H125" s="16"/>
       <c r="I125" s="14"/>
       <c r="J125" s="5"/>
-      <c r="K125" s="93"/>
+      <c r="K125" s="92"/>
       <c r="L125" s="22"/>
       <c r="M125" s="17"/>
     </row>
@@ -5207,7 +5256,7 @@
       <c r="H126" s="16"/>
       <c r="I126" s="14"/>
       <c r="J126" s="5"/>
-      <c r="K126" s="93"/>
+      <c r="K126" s="92"/>
       <c r="L126" s="22"/>
       <c r="M126" s="17"/>
     </row>
@@ -5223,7 +5272,7 @@
       <c r="H127" s="16"/>
       <c r="I127" s="14"/>
       <c r="J127" s="5"/>
-      <c r="K127" s="93"/>
+      <c r="K127" s="92"/>
       <c r="L127" s="22"/>
       <c r="M127" s="17"/>
     </row>
@@ -5239,7 +5288,7 @@
       <c r="H128" s="16"/>
       <c r="I128" s="14"/>
       <c r="J128" s="5"/>
-      <c r="K128" s="93"/>
+      <c r="K128" s="92"/>
       <c r="L128" s="22"/>
       <c r="M128" s="17"/>
     </row>
@@ -5255,7 +5304,7 @@
       <c r="H129" s="16"/>
       <c r="I129" s="14"/>
       <c r="J129" s="5"/>
-      <c r="K129" s="93"/>
+      <c r="K129" s="92"/>
       <c r="L129" s="22"/>
       <c r="M129" s="17"/>
     </row>
@@ -5271,7 +5320,7 @@
       <c r="H130" s="16"/>
       <c r="I130" s="14"/>
       <c r="J130" s="5"/>
-      <c r="K130" s="93"/>
+      <c r="K130" s="92"/>
       <c r="L130" s="22"/>
       <c r="M130" s="17"/>
     </row>
@@ -5287,7 +5336,7 @@
       <c r="H131" s="16"/>
       <c r="I131" s="14"/>
       <c r="J131" s="5"/>
-      <c r="K131" s="93"/>
+      <c r="K131" s="92"/>
       <c r="L131" s="22"/>
       <c r="M131" s="17"/>
     </row>
@@ -5303,7 +5352,7 @@
       <c r="H132" s="16"/>
       <c r="I132" s="14"/>
       <c r="J132" s="5"/>
-      <c r="K132" s="93"/>
+      <c r="K132" s="92"/>
       <c r="L132" s="22"/>
       <c r="M132" s="17"/>
     </row>
@@ -5319,7 +5368,7 @@
       <c r="H133" s="16"/>
       <c r="I133" s="14"/>
       <c r="J133" s="5"/>
-      <c r="K133" s="93"/>
+      <c r="K133" s="92"/>
       <c r="L133" s="22"/>
       <c r="M133" s="17"/>
     </row>
@@ -5335,7 +5384,7 @@
       <c r="H134" s="16"/>
       <c r="I134" s="14"/>
       <c r="J134" s="5"/>
-      <c r="K134" s="93"/>
+      <c r="K134" s="92"/>
       <c r="L134" s="22"/>
       <c r="M134" s="17"/>
     </row>
@@ -5351,7 +5400,7 @@
       <c r="H135" s="16"/>
       <c r="I135" s="14"/>
       <c r="J135" s="5"/>
-      <c r="K135" s="93"/>
+      <c r="K135" s="92"/>
       <c r="L135" s="22"/>
       <c r="M135" s="17"/>
     </row>
@@ -5367,7 +5416,7 @@
       <c r="H136" s="16"/>
       <c r="I136" s="14"/>
       <c r="J136" s="5"/>
-      <c r="K136" s="93"/>
+      <c r="K136" s="92"/>
       <c r="L136" s="22"/>
       <c r="M136" s="17"/>
     </row>
@@ -5383,7 +5432,7 @@
       <c r="H137" s="16"/>
       <c r="I137" s="14"/>
       <c r="J137" s="5"/>
-      <c r="K137" s="93"/>
+      <c r="K137" s="92"/>
       <c r="L137" s="22"/>
       <c r="M137" s="17"/>
     </row>
@@ -5399,7 +5448,7 @@
       <c r="H138" s="16"/>
       <c r="I138" s="14"/>
       <c r="J138" s="5"/>
-      <c r="K138" s="93"/>
+      <c r="K138" s="92"/>
       <c r="L138" s="22"/>
       <c r="M138" s="17"/>
     </row>
@@ -5415,7 +5464,7 @@
       <c r="H139" s="16"/>
       <c r="I139" s="14"/>
       <c r="J139" s="5"/>
-      <c r="K139" s="93"/>
+      <c r="K139" s="92"/>
       <c r="L139" s="22"/>
       <c r="M139" s="17"/>
     </row>
@@ -5431,7 +5480,7 @@
       <c r="H140" s="16"/>
       <c r="I140" s="14"/>
       <c r="J140" s="5"/>
-      <c r="K140" s="93"/>
+      <c r="K140" s="92"/>
       <c r="L140" s="22"/>
       <c r="M140" s="17"/>
     </row>
@@ -5447,7 +5496,7 @@
       <c r="H141" s="16"/>
       <c r="I141" s="14"/>
       <c r="J141" s="5"/>
-      <c r="K141" s="93"/>
+      <c r="K141" s="92"/>
       <c r="L141" s="22"/>
       <c r="M141" s="17"/>
     </row>
@@ -5463,7 +5512,7 @@
       <c r="H142" s="16"/>
       <c r="I142" s="14"/>
       <c r="J142" s="5"/>
-      <c r="K142" s="93"/>
+      <c r="K142" s="92"/>
       <c r="L142" s="22"/>
       <c r="M142" s="17"/>
     </row>
@@ -5479,7 +5528,7 @@
       <c r="H143" s="16"/>
       <c r="I143" s="14"/>
       <c r="J143" s="5"/>
-      <c r="K143" s="93"/>
+      <c r="K143" s="92"/>
       <c r="L143" s="22"/>
       <c r="M143" s="17"/>
     </row>
@@ -5495,7 +5544,7 @@
       <c r="H144" s="16"/>
       <c r="I144" s="14"/>
       <c r="J144" s="5"/>
-      <c r="K144" s="93"/>
+      <c r="K144" s="92"/>
       <c r="L144" s="22"/>
       <c r="M144" s="17"/>
     </row>
@@ -5511,7 +5560,7 @@
       <c r="H145" s="16"/>
       <c r="I145" s="14"/>
       <c r="J145" s="5"/>
-      <c r="K145" s="93"/>
+      <c r="K145" s="92"/>
       <c r="L145" s="22"/>
       <c r="M145" s="17"/>
     </row>
@@ -5527,7 +5576,7 @@
       <c r="H146" s="16"/>
       <c r="I146" s="14"/>
       <c r="J146" s="5"/>
-      <c r="K146" s="93"/>
+      <c r="K146" s="92"/>
       <c r="L146" s="22"/>
       <c r="M146" s="17"/>
     </row>
@@ -5543,7 +5592,7 @@
       <c r="H147" s="16"/>
       <c r="I147" s="14"/>
       <c r="J147" s="5"/>
-      <c r="K147" s="93"/>
+      <c r="K147" s="92"/>
       <c r="L147" s="22"/>
       <c r="M147" s="17"/>
     </row>
@@ -5559,7 +5608,7 @@
       <c r="H148" s="16"/>
       <c r="I148" s="14"/>
       <c r="J148" s="5"/>
-      <c r="K148" s="93"/>
+      <c r="K148" s="92"/>
       <c r="L148" s="22"/>
       <c r="M148" s="17"/>
     </row>
@@ -5575,7 +5624,7 @@
       <c r="H149" s="16"/>
       <c r="I149" s="14"/>
       <c r="J149" s="5"/>
-      <c r="K149" s="93"/>
+      <c r="K149" s="92"/>
       <c r="L149" s="22"/>
       <c r="M149" s="17"/>
     </row>
@@ -5591,7 +5640,7 @@
       <c r="H150" s="16"/>
       <c r="I150" s="14"/>
       <c r="J150" s="5"/>
-      <c r="K150" s="93"/>
+      <c r="K150" s="92"/>
       <c r="L150" s="22"/>
       <c r="M150" s="17"/>
     </row>
@@ -5607,7 +5656,7 @@
       <c r="H151" s="16"/>
       <c r="I151" s="14"/>
       <c r="J151" s="5"/>
-      <c r="K151" s="93"/>
+      <c r="K151" s="92"/>
       <c r="L151" s="22"/>
       <c r="M151" s="17"/>
     </row>
@@ -5623,7 +5672,7 @@
       <c r="H152" s="16"/>
       <c r="I152" s="14"/>
       <c r="J152" s="5"/>
-      <c r="K152" s="93"/>
+      <c r="K152" s="92"/>
       <c r="L152" s="22"/>
       <c r="M152" s="17"/>
     </row>
@@ -5639,7 +5688,7 @@
       <c r="H153" s="16"/>
       <c r="I153" s="14"/>
       <c r="J153" s="5"/>
-      <c r="K153" s="93"/>
+      <c r="K153" s="92"/>
       <c r="L153" s="22"/>
       <c r="M153" s="17"/>
     </row>
@@ -5655,7 +5704,7 @@
       <c r="H154" s="16"/>
       <c r="I154" s="14"/>
       <c r="J154" s="5"/>
-      <c r="K154" s="93"/>
+      <c r="K154" s="92"/>
       <c r="L154" s="22"/>
       <c r="M154" s="17"/>
     </row>
@@ -5671,7 +5720,7 @@
       <c r="H155" s="16"/>
       <c r="I155" s="14"/>
       <c r="J155" s="5"/>
-      <c r="K155" s="93"/>
+      <c r="K155" s="92"/>
       <c r="L155" s="22"/>
       <c r="M155" s="17"/>
     </row>
@@ -5687,7 +5736,7 @@
       <c r="H156" s="16"/>
       <c r="I156" s="14"/>
       <c r="J156" s="5"/>
-      <c r="K156" s="93"/>
+      <c r="K156" s="92"/>
       <c r="L156" s="22"/>
       <c r="M156" s="17"/>
     </row>
@@ -5703,7 +5752,7 @@
       <c r="H157" s="16"/>
       <c r="I157" s="14"/>
       <c r="J157" s="5"/>
-      <c r="K157" s="93"/>
+      <c r="K157" s="92"/>
       <c r="L157" s="22"/>
       <c r="M157" s="17"/>
     </row>
@@ -5719,7 +5768,7 @@
       <c r="H158" s="16"/>
       <c r="I158" s="14"/>
       <c r="J158" s="5"/>
-      <c r="K158" s="93"/>
+      <c r="K158" s="92"/>
       <c r="L158" s="22"/>
       <c r="M158" s="17"/>
     </row>
@@ -5735,7 +5784,7 @@
       <c r="H159" s="16"/>
       <c r="I159" s="14"/>
       <c r="J159" s="5"/>
-      <c r="K159" s="93"/>
+      <c r="K159" s="92"/>
       <c r="L159" s="22"/>
       <c r="M159" s="17"/>
     </row>
@@ -5751,7 +5800,7 @@
       <c r="H160" s="16"/>
       <c r="I160" s="14"/>
       <c r="J160" s="5"/>
-      <c r="K160" s="93"/>
+      <c r="K160" s="92"/>
       <c r="L160" s="22"/>
       <c r="M160" s="17"/>
     </row>
@@ -5767,7 +5816,7 @@
       <c r="H161" s="16"/>
       <c r="I161" s="14"/>
       <c r="J161" s="5"/>
-      <c r="K161" s="93"/>
+      <c r="K161" s="92"/>
       <c r="L161" s="22"/>
       <c r="M161" s="17"/>
     </row>
@@ -5783,7 +5832,7 @@
       <c r="H162" s="16"/>
       <c r="I162" s="14"/>
       <c r="J162" s="5"/>
-      <c r="K162" s="93"/>
+      <c r="K162" s="92"/>
       <c r="L162" s="22"/>
       <c r="M162" s="17"/>
     </row>
@@ -5799,7 +5848,7 @@
       <c r="H163" s="16"/>
       <c r="I163" s="14"/>
       <c r="J163" s="5"/>
-      <c r="K163" s="93"/>
+      <c r="K163" s="92"/>
       <c r="L163" s="22"/>
       <c r="M163" s="17"/>
     </row>
@@ -5815,7 +5864,7 @@
       <c r="H164" s="16"/>
       <c r="I164" s="14"/>
       <c r="J164" s="5"/>
-      <c r="K164" s="93"/>
+      <c r="K164" s="92"/>
       <c r="L164" s="22"/>
       <c r="M164" s="17"/>
     </row>
@@ -5831,7 +5880,7 @@
       <c r="H165" s="16"/>
       <c r="I165" s="14"/>
       <c r="J165" s="5"/>
-      <c r="K165" s="93"/>
+      <c r="K165" s="92"/>
       <c r="L165" s="22"/>
       <c r="M165" s="17"/>
     </row>
@@ -5847,7 +5896,7 @@
       <c r="H166" s="16"/>
       <c r="I166" s="14"/>
       <c r="J166" s="5"/>
-      <c r="K166" s="93"/>
+      <c r="K166" s="92"/>
       <c r="L166" s="22"/>
       <c r="M166" s="17"/>
     </row>
@@ -5860,7 +5909,7 @@
       </filters>
     </filterColumn>
     <filterColumn colId="11">
-      <filters blank="1">
+      <filters>
         <filter val="未开始"/>
       </filters>
     </filterColumn>
@@ -6278,88 +6327,88 @@
       <c r="L17" s="69"/>
     </row>
     <row r="18" spans="3:12" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="130">
+      <c r="C18" s="129">
         <v>14</v>
       </c>
-      <c r="D18" s="131" t="s">
+      <c r="D18" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="131" t="s">
+      <c r="E18" s="130" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="132" t="s">
+      <c r="F18" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="133" t="s">
+      <c r="G18" s="132" t="s">
         <v>153</v>
       </c>
-      <c r="H18" s="133" t="s">
+      <c r="H18" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="I18" s="134" t="s">
+      <c r="I18" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="J18" s="135"/>
-      <c r="K18" s="131" t="s">
+      <c r="J18" s="134"/>
+      <c r="K18" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="L18" s="136"/>
+      <c r="L18" s="135"/>
     </row>
     <row r="19" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="130">
+      <c r="C19" s="129">
         <v>15</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="131" t="s">
+      <c r="E19" s="130" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="132" t="s">
+      <c r="F19" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="132" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="133" t="s">
+      <c r="H19" s="132" t="s">
         <v>177</v>
       </c>
-      <c r="I19" s="121">
+      <c r="I19" s="120">
         <v>42171</v>
       </c>
-      <c r="J19" s="135"/>
-      <c r="K19" s="131" t="s">
+      <c r="J19" s="134"/>
+      <c r="K19" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="L19" s="136"/>
+      <c r="L19" s="135"/>
     </row>
     <row r="20" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="108">
+      <c r="C20" s="107">
         <v>16</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="109" t="s">
+      <c r="E20" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="110" t="s">
+      <c r="F20" s="109" t="s">
         <v>128</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="110" t="s">
         <v>175</v>
       </c>
-      <c r="H20" s="111" t="s">
+      <c r="H20" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="I20" s="112" t="s">
+      <c r="I20" s="111" t="s">
         <v>174</v>
       </c>
-      <c r="J20" s="113"/>
-      <c r="K20" s="109" t="s">
+      <c r="J20" s="112"/>
+      <c r="K20" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="114" t="s">
+      <c r="L20" s="113" t="s">
         <v>172</v>
       </c>
     </row>
@@ -6390,32 +6439,32 @@
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="130">
+      <c r="C22" s="129">
         <v>18</v>
       </c>
-      <c r="D22" s="131" t="s">
+      <c r="D22" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="131" t="s">
+      <c r="E22" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="132" t="s">
+      <c r="F22" s="131" t="s">
         <v>135</v>
       </c>
-      <c r="G22" s="133" t="s">
+      <c r="G22" s="132" t="s">
         <v>170</v>
       </c>
-      <c r="H22" s="133" t="s">
+      <c r="H22" s="132" t="s">
         <v>171</v>
       </c>
-      <c r="I22" s="134" t="s">
+      <c r="I22" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="J22" s="135"/>
-      <c r="K22" s="131" t="s">
+      <c r="J22" s="134"/>
+      <c r="K22" s="130" t="s">
         <v>87</v>
       </c>
-      <c r="L22" s="136"/>
+      <c r="L22" s="135"/>
     </row>
     <row r="23" spans="3:12" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="18">
@@ -6474,60 +6523,60 @@
       <c r="L24" s="70"/>
     </row>
     <row r="25" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="116">
+      <c r="C25" s="115">
         <v>21</v>
       </c>
-      <c r="D25" s="117" t="s">
+      <c r="D25" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="119" t="s">
+      <c r="F25" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="G25" s="120" t="s">
+      <c r="G25" s="119" t="s">
         <v>178</v>
       </c>
-      <c r="H25" s="120" t="s">
+      <c r="H25" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="I25" s="121">
+      <c r="I25" s="120">
         <v>42166</v>
       </c>
-      <c r="J25" s="93"/>
-      <c r="K25" s="118" t="s">
+      <c r="J25" s="92"/>
+      <c r="K25" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="122" t="s">
+      <c r="L25" s="121" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="26" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="116">
+      <c r="C26" s="115">
         <v>22</v>
       </c>
-      <c r="D26" s="117" t="s">
+      <c r="D26" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="118" t="s">
+      <c r="E26" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="119" t="s">
+      <c r="F26" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="G26" s="120" t="s">
+      <c r="G26" s="119" t="s">
         <v>179</v>
       </c>
-      <c r="H26" s="120"/>
-      <c r="I26" s="121">
+      <c r="H26" s="119"/>
+      <c r="I26" s="120">
         <v>42166</v>
       </c>
-      <c r="J26" s="93"/>
-      <c r="K26" s="118" t="s">
+      <c r="J26" s="92"/>
+      <c r="K26" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="122" t="s">
+      <c r="L26" s="121" t="s">
         <v>184</v>
       </c>
     </row>
@@ -6535,29 +6584,29 @@
       <c r="C27" s="18">
         <v>23</v>
       </c>
-      <c r="D27" s="117" t="s">
+      <c r="D27" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="119" t="s">
+      <c r="F27" s="118" t="s">
         <v>162</v>
       </c>
-      <c r="G27" s="120" t="s">
+      <c r="G27" s="119" t="s">
         <v>169</v>
       </c>
-      <c r="H27" s="120" t="s">
+      <c r="H27" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="I27" s="121">
+      <c r="I27" s="120">
         <v>42166</v>
       </c>
-      <c r="J27" s="93"/>
-      <c r="K27" s="118" t="s">
+      <c r="J27" s="92"/>
+      <c r="K27" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="L27" s="122" t="s">
+      <c r="L27" s="121" t="s">
         <v>176</v>
       </c>
     </row>
@@ -6565,245 +6614,245 @@
       <c r="C28" s="18">
         <v>24</v>
       </c>
-      <c r="D28" s="117" t="s">
+      <c r="D28" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="118" t="s">
+      <c r="E28" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="119" t="s">
+      <c r="F28" s="118" t="s">
         <v>160</v>
       </c>
-      <c r="G28" s="120" t="s">
+      <c r="G28" s="119" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="120" t="s">
+      <c r="H28" s="119" t="s">
         <v>164</v>
       </c>
-      <c r="I28" s="121">
+      <c r="I28" s="120">
         <v>42166</v>
       </c>
-      <c r="J28" s="93"/>
-      <c r="K28" s="118" t="s">
+      <c r="J28" s="92"/>
+      <c r="K28" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="121" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="116">
+      <c r="C29" s="115">
         <v>25</v>
       </c>
-      <c r="D29" s="117" t="s">
+      <c r="D29" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="118" t="s">
+      <c r="E29" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="119" t="s">
+      <c r="F29" s="118" t="s">
         <v>180</v>
       </c>
-      <c r="G29" s="120" t="s">
+      <c r="G29" s="119" t="s">
         <v>181</v>
       </c>
-      <c r="H29" s="120" t="s">
+      <c r="H29" s="119" t="s">
         <v>182</v>
       </c>
-      <c r="I29" s="121">
+      <c r="I29" s="120">
         <v>42166</v>
       </c>
-      <c r="J29" s="93"/>
-      <c r="K29" s="118" t="s">
+      <c r="J29" s="92"/>
+      <c r="K29" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L29" s="122" t="s">
+      <c r="L29" s="121" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="30" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="116">
+      <c r="C30" s="115">
         <v>26</v>
       </c>
-      <c r="D30" s="117" t="s">
+      <c r="D30" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="118" t="s">
+      <c r="E30" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F30" s="119" t="s">
+      <c r="F30" s="118" t="s">
         <v>190</v>
       </c>
-      <c r="G30" s="120" t="s">
+      <c r="G30" s="119" t="s">
         <v>191</v>
       </c>
-      <c r="H30" s="120" t="s">
+      <c r="H30" s="119" t="s">
         <v>192</v>
       </c>
-      <c r="I30" s="121"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="118" t="s">
+      <c r="I30" s="120"/>
+      <c r="J30" s="92"/>
+      <c r="K30" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L30" s="122" t="s">
+      <c r="L30" s="121" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="31" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="106">
+      <c r="C31" s="105">
         <v>27</v>
       </c>
-      <c r="D31" s="117" t="s">
+      <c r="D31" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="118" t="s">
+      <c r="E31" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="119" t="s">
+      <c r="F31" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="G31" s="120" t="s">
+      <c r="G31" s="119" t="s">
         <v>209</v>
       </c>
-      <c r="H31" s="120"/>
-      <c r="I31" s="121">
+      <c r="H31" s="119"/>
+      <c r="I31" s="120">
         <v>42166</v>
       </c>
-      <c r="J31" s="93"/>
-      <c r="K31" s="118" t="s">
+      <c r="J31" s="92"/>
+      <c r="K31" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L31" s="122"/>
+      <c r="L31" s="121"/>
     </row>
     <row r="32" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="116">
+      <c r="C32" s="115">
         <v>28</v>
       </c>
-      <c r="D32" s="117" t="s">
+      <c r="D32" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="118" t="s">
+      <c r="E32" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="119" t="s">
+      <c r="F32" s="118" t="s">
         <v>219</v>
       </c>
-      <c r="G32" s="120" t="s">
+      <c r="G32" s="119" t="s">
         <v>220</v>
       </c>
-      <c r="H32" s="120" t="s">
+      <c r="H32" s="119" t="s">
         <v>221</v>
       </c>
-      <c r="I32" s="120"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="118" t="s">
+      <c r="I32" s="119"/>
+      <c r="J32" s="92"/>
+      <c r="K32" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="122"/>
+      <c r="L32" s="121"/>
     </row>
     <row r="33" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="116">
+      <c r="C33" s="115">
         <v>29</v>
       </c>
-      <c r="D33" s="117" t="s">
+      <c r="D33" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="118" t="s">
+      <c r="E33" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="119" t="s">
+      <c r="F33" s="118" t="s">
         <v>222</v>
       </c>
-      <c r="G33" s="120" t="s">
+      <c r="G33" s="119" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="120"/>
-      <c r="I33" s="121">
+      <c r="H33" s="119"/>
+      <c r="I33" s="120">
         <v>42171</v>
       </c>
-      <c r="J33" s="93"/>
-      <c r="K33" s="118" t="s">
+      <c r="J33" s="92"/>
+      <c r="K33" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L33" s="122"/>
+      <c r="L33" s="121"/>
     </row>
     <row r="34" spans="3:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="116">
+      <c r="C34" s="115">
         <v>30</v>
       </c>
-      <c r="D34" s="117" t="s">
+      <c r="D34" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="118" t="s">
+      <c r="E34" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="119" t="s">
+      <c r="F34" s="118" t="s">
         <v>193</v>
       </c>
-      <c r="G34" s="120" t="s">
+      <c r="G34" s="119" t="s">
         <v>226</v>
       </c>
-      <c r="H34" s="120"/>
-      <c r="I34" s="121">
+      <c r="H34" s="119"/>
+      <c r="I34" s="120">
         <v>42171</v>
       </c>
-      <c r="J34" s="93"/>
-      <c r="K34" s="118" t="s">
+      <c r="J34" s="92"/>
+      <c r="K34" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L34" s="122"/>
+      <c r="L34" s="121"/>
     </row>
     <row r="35" spans="3:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="116">
+      <c r="C35" s="115">
         <v>31</v>
       </c>
-      <c r="D35" s="117" t="s">
+      <c r="D35" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="118" t="s">
+      <c r="E35" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="119" t="s">
+      <c r="F35" s="118" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="120" t="s">
+      <c r="G35" s="119" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="120" t="s">
+      <c r="H35" s="119" t="s">
         <v>229</v>
       </c>
-      <c r="I35" s="120"/>
-      <c r="J35" s="93"/>
-      <c r="K35" s="118" t="s">
+      <c r="I35" s="119"/>
+      <c r="J35" s="92"/>
+      <c r="K35" s="117" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="122"/>
+      <c r="L35" s="121"/>
     </row>
     <row r="36" spans="3:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C36" s="18">
         <v>32</v>
       </c>
-      <c r="D36" s="117" t="s">
+      <c r="D36" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="118" t="s">
+      <c r="E36" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="G36" s="120" t="s">
+      <c r="G36" s="119" t="s">
         <v>232</v>
       </c>
-      <c r="H36" s="120" t="s">
+      <c r="H36" s="119" t="s">
         <v>233</v>
       </c>
-      <c r="I36" s="120"/>
-      <c r="J36" s="93"/>
-      <c r="K36" s="118" t="s">
+      <c r="I36" s="119"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="117" t="s">
         <v>117</v>
       </c>
-      <c r="L36" s="122" t="s">
+      <c r="L36" s="121" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6811,29 +6860,29 @@
       <c r="C37" s="18">
         <v>33</v>
       </c>
-      <c r="D37" s="117" t="s">
+      <c r="D37" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="118" t="s">
+      <c r="E37" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="119" t="s">
+      <c r="F37" s="118" t="s">
         <v>236</v>
       </c>
-      <c r="G37" s="120" t="s">
+      <c r="G37" s="119" t="s">
         <v>237</v>
       </c>
-      <c r="H37" s="120" t="s">
+      <c r="H37" s="119" t="s">
         <v>238</v>
       </c>
-      <c r="I37" s="121">
+      <c r="I37" s="120">
         <v>42173</v>
       </c>
-      <c r="J37" s="93"/>
-      <c r="K37" s="118" t="s">
+      <c r="J37" s="92"/>
+      <c r="K37" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L37" s="122" t="s">
+      <c r="L37" s="121" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6841,31 +6890,31 @@
       <c r="C38" s="18">
         <v>34</v>
       </c>
-      <c r="D38" s="117" t="s">
+      <c r="D38" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="118" t="s">
+      <c r="E38" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="119" t="s">
+      <c r="F38" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="G38" s="120" t="s">
+      <c r="G38" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="H38" s="120" t="s">
+      <c r="H38" s="119" t="s">
         <v>242</v>
       </c>
-      <c r="I38" s="121">
+      <c r="I38" s="120">
         <v>42173</v>
       </c>
-      <c r="J38" s="123" t="s">
+      <c r="J38" s="122" t="s">
         <v>266</v>
       </c>
-      <c r="K38" s="118" t="s">
+      <c r="K38" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L38" s="122" t="s">
+      <c r="L38" s="121" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6873,57 +6922,57 @@
       <c r="C39" s="18">
         <v>35</v>
       </c>
-      <c r="D39" s="117" t="s">
+      <c r="D39" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="118" t="s">
+      <c r="E39" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="119" t="s">
+      <c r="F39" s="118" t="s">
         <v>243</v>
       </c>
-      <c r="G39" s="120" t="s">
+      <c r="G39" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="H39" s="120" t="s">
+      <c r="H39" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="I39" s="121">
+      <c r="I39" s="120">
         <v>42173</v>
       </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="118" t="s">
+      <c r="J39" s="92"/>
+      <c r="K39" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="L39" s="122"/>
+      <c r="L39" s="121"/>
     </row>
     <row r="40" spans="3:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C40" s="18">
         <v>35</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E40" s="101" t="s">
+      <c r="E40" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="101" t="s">
         <v>267</v>
       </c>
-      <c r="G40" s="103" t="s">
+      <c r="G40" s="102" t="s">
         <v>268</v>
       </c>
-      <c r="H40" s="103" t="s">
+      <c r="H40" s="102" t="s">
         <v>269</v>
       </c>
-      <c r="I40" s="107">
+      <c r="I40" s="106">
         <v>42177</v>
       </c>
-      <c r="J40" s="104"/>
-      <c r="K40" s="101" t="s">
+      <c r="J40" s="103"/>
+      <c r="K40" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="L40" s="105" t="s">
+      <c r="L40" s="104" t="s">
         <v>270</v>
       </c>
     </row>
@@ -6931,24 +6980,24 @@
       <c r="C41" s="18">
         <v>35</v>
       </c>
-      <c r="D41" s="117" t="s">
+      <c r="D41" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="E41" s="118" t="s">
+      <c r="E41" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="119" t="s">
+      <c r="F41" s="118" t="s">
         <v>275</v>
       </c>
-      <c r="G41" s="120" t="s">
+      <c r="G41" s="119" t="s">
         <v>277</v>
       </c>
-      <c r="H41" s="120" t="s">
+      <c r="H41" s="119" t="s">
         <v>276</v>
       </c>
-      <c r="I41" s="120"/>
-      <c r="J41" s="93"/>
-      <c r="K41" s="118" t="s">
+      <c r="I41" s="119"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="117" t="s">
         <v>278</v>
       </c>
       <c r="L41" s="70"/>
@@ -6957,24 +7006,24 @@
       <c r="C42" s="18">
         <v>35</v>
       </c>
-      <c r="D42" s="117" t="s">
+      <c r="D42" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="118" t="s">
+      <c r="E42" s="117" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="119" t="s">
+      <c r="F42" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="G42" s="120" t="s">
+      <c r="G42" s="119" t="s">
         <v>280</v>
       </c>
-      <c r="H42" s="120" t="s">
+      <c r="H42" s="119" t="s">
         <v>281</v>
       </c>
-      <c r="I42" s="120"/>
-      <c r="J42" s="93"/>
-      <c r="K42" s="118" t="s">
+      <c r="I42" s="119"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="117" t="s">
         <v>278</v>
       </c>
       <c r="L42" s="70"/>
@@ -6983,24 +7032,24 @@
       <c r="C43" s="18">
         <v>35</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="101" t="s">
+      <c r="E43" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="102" t="s">
+      <c r="F43" s="101" t="s">
         <v>288</v>
       </c>
-      <c r="G43" s="103" t="s">
+      <c r="G43" s="102" t="s">
         <v>290</v>
       </c>
-      <c r="H43" s="103" t="s">
+      <c r="H43" s="102" t="s">
         <v>289</v>
       </c>
-      <c r="I43" s="103"/>
-      <c r="J43" s="104"/>
-      <c r="K43" s="101" t="s">
+      <c r="I43" s="102"/>
+      <c r="J43" s="103"/>
+      <c r="K43" s="100" t="s">
         <v>278</v>
       </c>
       <c r="L43" s="70"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -2121,7 +2121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2506,50 +2506,53 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4561,6 +4564,9 @@
       </c>
       <c r="H57" s="98"/>
       <c r="I57" s="134"/>
+      <c r="J57" s="159">
+        <v>0.1</v>
+      </c>
       <c r="K57" s="140"/>
       <c r="L57" s="133" t="s">
         <v>18</v>
@@ -4587,7 +4593,9 @@
       </c>
       <c r="H58" s="98"/>
       <c r="I58" s="134"/>
-      <c r="J58" s="136"/>
+      <c r="J58" s="136">
+        <v>0.1</v>
+      </c>
       <c r="K58" s="140"/>
       <c r="L58" s="133" t="s">
         <v>18</v>
@@ -4684,7 +4692,9 @@
       </c>
       <c r="H63" s="98"/>
       <c r="I63" s="99"/>
-      <c r="J63" s="136"/>
+      <c r="J63" s="136">
+        <v>0.1</v>
+      </c>
       <c r="K63" s="140"/>
       <c r="L63" s="133" t="s">
         <v>18</v>
@@ -7791,12 +7801,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="150" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="158">
+      <c r="A2" s="150">
         <v>46</v>
       </c>
     </row>
@@ -7824,155 +7834,155 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="144" t="s">
+      <c r="B4" s="154" t="s">
         <v>324</v>
       </c>
-      <c r="C4" s="145" t="s">
+      <c r="C4" s="144" t="s">
         <v>325</v>
       </c>
-      <c r="D4" s="146" t="s">
+      <c r="D4" s="145" t="s">
         <v>310</v>
       </c>
-      <c r="E4" s="147" t="s">
+      <c r="E4" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="151" t="s">
         <v>312</v>
       </c>
-      <c r="G4" s="146" t="s">
+      <c r="G4" s="145" t="s">
         <v>313</v>
       </c>
-      <c r="H4" s="149" t="s">
+      <c r="H4" s="156" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="150"/>
-      <c r="C5" s="145" t="s">
+      <c r="B5" s="155"/>
+      <c r="C5" s="144" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="146" t="s">
+      <c r="D5" s="145" t="s">
         <v>310</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="146" t="s">
+      <c r="F5" s="151"/>
+      <c r="G5" s="145" t="s">
         <v>315</v>
       </c>
-      <c r="H5" s="151"/>
-    </row>
-    <row r="6" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="152" t="s">
+      <c r="H5" s="157"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="147" t="s">
         <v>316</v>
       </c>
-      <c r="C6" s="147" t="s">
+      <c r="C6" s="146" t="s">
         <v>317</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="145" t="s">
         <v>318</v>
       </c>
-      <c r="E6" s="147" t="s">
+      <c r="E6" s="146" t="s">
         <v>311</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="147" t="s">
+      <c r="F6" s="151"/>
+      <c r="G6" s="146" t="s">
         <v>317</v>
       </c>
-      <c r="H6" s="153" t="s">
+      <c r="H6" s="148" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="151" t="s">
         <v>328</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="151" t="s">
         <v>314</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="151" t="s">
         <v>319</v>
       </c>
-      <c r="E7" s="154" t="s">
+      <c r="E7" s="158" t="s">
         <v>320</v>
       </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="145" t="s">
+      <c r="F7" s="151"/>
+      <c r="G7" s="144" t="s">
         <v>329</v>
       </c>
-      <c r="H7" s="146"/>
+      <c r="H7" s="145"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="145" t="s">
+      <c r="B8" s="151"/>
+      <c r="C8" s="151"/>
+      <c r="D8" s="151"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="144" t="s">
         <v>330</v>
       </c>
-      <c r="H8" s="146"/>
-    </row>
-    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.15">
-      <c r="B9" s="152" t="s">
+      <c r="H8" s="145"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="147" t="s">
         <v>331</v>
       </c>
-      <c r="C9" s="152" t="s">
+      <c r="C9" s="147" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="145" t="s">
         <v>333</v>
       </c>
-      <c r="E9" s="147" t="s">
+      <c r="E9" s="146" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="155" t="s">
+      <c r="F9" s="151"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="149" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="151" t="s">
         <v>335</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="151" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="151" t="s">
         <v>321</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="151" t="s">
         <v>322</v>
       </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="145" t="s">
+      <c r="F10" s="151"/>
+      <c r="G10" s="144" t="s">
         <v>336</v>
       </c>
-      <c r="H10" s="146"/>
+      <c r="H10" s="145"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="145" t="s">
+      <c r="B11" s="151"/>
+      <c r="C11" s="151"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="144" t="s">
         <v>337</v>
       </c>
-      <c r="H11" s="146"/>
+      <c r="H11" s="145"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="156" t="s">
+      <c r="B12" s="152" t="s">
         <v>338</v>
       </c>
-      <c r="C12" s="157"/>
-      <c r="D12" s="157"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="157"/>
-      <c r="H12" s="157"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="153"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="343">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1027,10 +1027,6 @@
     <t>如果服务器挂了，或者硬盘坏了，停电等特殊情况，需要保证系统可以正常使用。
 1. 数据库的备份
 2. 服务器的冗余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>调查给出方案</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1169,40 +1165,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">出厂编号自动生成
-i. 规则
-制造商代码+年份后两位+月份（1-9，A（代替10），B（代替11），C（代替12））+ 四位流水号，例如：S15070001
-每月26日刷新
-ii. 自动填写时机
-包装日期填写完成并且已经完成包装的业务审核
-iii. 订单追加
-如有订单追加到某一天，那么出厂编号仍然会按照所有出厂编号的最后一个增加，而不会按照追加当天的出厂编号进行追加。也就是说不存在由于追加订单而影响其它出厂编号。
-iv. 修改
-出厂编号自动填写后仍然可以修改，但非必要情况下建议不要修改
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">投产编号自动生成
-i. 规则
-制造商代码+五位流水，例如 F00001                                                                                                                                                                                                            
-每年12月26日刷新
-ii. 自动填写时机
-生产日期填写完成并且已经完成排产的业务审核
-iii. 订单追加
-如有订单追加到某一天，那么投产编号仍然会按照所有投产编号的最后一个增加，而不会按照追加当天的投产编号进行追加。也就是说不存在由于追加订单而影响其它投产编号。
-iv. 修改
-投产编号自动填写后仍然可以修改
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>订单反审</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此估计针对自动备份数据库数据。
-如果需要服务器冗余，需要搭建简单的集群或者使用云服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1782,6 +1745,51 @@
   </si>
   <si>
     <t>可参照生产服务器包装日期7月8日，佛山的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投产编号自动生成
+i. 规则
+制造商代码+年份后两位+ 五位流水，例如 F1500001                                                                                                                                                                                                            
+每年12月26日刷新，即26号当天编号从F1600001开始，注意年份的变化。
+ii. 自动填写时机
+生产日期填写完成并且已经完成排产的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么投产编号仍然会按照所有投产编号的最后一个增加，而不会按照追加当天的投产编号进行追加。也就是说不存在由于追加订单而影响其它投产编号。
+iv. 修改
+投产编号自动填写后仍然可以修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出厂编号自动生成
+i. 规则
+制造商代码+年份后两位+月份（1-9，A（代替10），B（代替11），C（代替12））+ 四位流水号，例如：S15070001
+每月26日刷新，即26号当天编号从F1610001开始，注意年份和月份都有变化。
+ii. 自动填写时机
+包装日期填写完成并且已经完成包装的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么出厂编号仍然会按照所有出厂编号的最后一个增加，而不会按照追加当天的出厂编号进行追加。也就是说不存在由于追加订单而影响其它出厂编号。
+iv. 修改
+出厂编号自动填写后仍然可以修改，但非必要情况下建议不要修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修改按钮和修改界面（同销售录入的修改界面)，审核页面不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此估计针对自动备份数据库数据。
+如果需要服务器冗余，需要搭建简单的集群或者使用云服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先采用最简单方式，每次部署两个服务器，增加自动备份，在客户端增加配置文件可以切换链接服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2121,7 +2129,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2445,9 +2453,6 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2527,6 +2532,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2551,8 +2559,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2861,7 +2872,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:R167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2873,8 +2886,8 @@
     <col min="7" max="7" width="45.875" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="137" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="138" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="136" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="137" customWidth="1"/>
     <col min="13" max="13" width="6" style="89" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3948,7 +3961,7 @@
         <v>187</v>
       </c>
       <c r="G37" s="117" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="88"/>
@@ -4024,7 +4037,7 @@
       </c>
       <c r="L39" s="120"/>
     </row>
-    <row r="40" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B40" s="110">
         <v>36</v>
       </c>
@@ -4043,12 +4056,14 @@
       <c r="G40" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="123"/>
+      <c r="H40" s="160" t="s">
+        <v>339</v>
+      </c>
       <c r="I40" s="88"/>
-      <c r="J40" s="135">
+      <c r="J40" s="134">
         <v>0.2</v>
       </c>
-      <c r="K40" s="139"/>
+      <c r="K40" s="138"/>
       <c r="L40" s="120" t="s">
         <v>18</v>
       </c>
@@ -4151,19 +4166,19 @@
       <c r="C44" s="110">
         <v>2</v>
       </c>
-      <c r="D44" s="126" t="s">
+      <c r="D44" s="125" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="125" t="s">
+      <c r="E44" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="126" t="s">
+      <c r="F44" s="125" t="s">
         <v>209</v>
       </c>
-      <c r="G44" s="130" t="s">
+      <c r="G44" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="H44" s="127" t="s">
+      <c r="H44" s="126" t="s">
         <v>210</v>
       </c>
       <c r="I44" s="88"/>
@@ -4190,14 +4205,16 @@
         <v>222</v>
       </c>
       <c r="G45" s="117" t="s">
-        <v>299</v>
-      </c>
-      <c r="H45" s="114"/>
+        <v>295</v>
+      </c>
+      <c r="H45" s="159" t="s">
+        <v>342</v>
+      </c>
       <c r="I45" s="88"/>
-      <c r="J45" s="141" t="s">
-        <v>300</v>
-      </c>
-      <c r="K45" s="139"/>
+      <c r="J45" s="140" t="s">
+        <v>296</v>
+      </c>
+      <c r="K45" s="138"/>
       <c r="L45" s="120" t="s">
         <v>18</v>
       </c>
@@ -4250,10 +4267,10 @@
         <v>244</v>
       </c>
       <c r="G47" s="117" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H47" s="114" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I47" s="118">
         <v>42173</v>
@@ -4312,7 +4329,7 @@
         <v>248</v>
       </c>
       <c r="G49" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H49" s="114" t="s">
         <v>249</v>
@@ -4342,20 +4359,20 @@
         <v>20</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>295</v>
-      </c>
-      <c r="G50" s="131" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="G50" s="130" t="s">
+        <v>293</v>
       </c>
       <c r="H50" s="98" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="I50" s="99"/>
-      <c r="J50" s="136">
+      <c r="J50" s="135">
         <v>0.15</v>
       </c>
-      <c r="K50" s="140"/>
-      <c r="L50" s="133" t="s">
+      <c r="K50" s="139"/>
+      <c r="L50" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4373,22 +4390,22 @@
         <v>20</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>296</v>
-      </c>
-      <c r="G51" s="131" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="G51" s="130" t="s">
+        <v>298</v>
       </c>
       <c r="H51" s="98" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="I51" s="99"/>
-      <c r="J51" s="136">
+      <c r="J51" s="135">
         <v>0.25</v>
       </c>
-      <c r="K51" s="140" t="s">
-        <v>301</v>
-      </c>
-      <c r="L51" s="133" t="s">
+      <c r="K51" s="139" t="s">
+        <v>297</v>
+      </c>
+      <c r="L51" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4413,10 +4430,10 @@
       </c>
       <c r="H52" s="114"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="135">
+      <c r="J52" s="134">
         <v>0</v>
       </c>
-      <c r="K52" s="139"/>
+      <c r="K52" s="138"/>
       <c r="L52" s="120" t="s">
         <v>18</v>
       </c>
@@ -4440,15 +4457,15 @@
       <c r="G53" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="H53" s="114" t="s">
-        <v>254</v>
+      <c r="H53" s="159" t="s">
+        <v>341</v>
       </c>
       <c r="I53" s="88"/>
-      <c r="J53" s="135">
+      <c r="J53" s="134">
         <v>0.1</v>
       </c>
-      <c r="K53" s="139" t="s">
-        <v>290</v>
+      <c r="K53" s="138" t="s">
+        <v>340</v>
       </c>
       <c r="L53" s="120" t="s">
         <v>18</v>
@@ -4468,18 +4485,18 @@
         <v>30</v>
       </c>
       <c r="F54" s="97" t="s">
+        <v>254</v>
+      </c>
+      <c r="G54" s="130" t="s">
         <v>255</v>
       </c>
-      <c r="G54" s="131" t="s">
+      <c r="H54" s="98" t="s">
         <v>256</v>
-      </c>
-      <c r="H54" s="98" t="s">
-        <v>257</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="88"/>
       <c r="K54" s="21"/>
-      <c r="L54" s="133" t="s">
+      <c r="L54" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4497,13 +4514,13 @@
         <v>15</v>
       </c>
       <c r="F55" s="113" t="s">
+        <v>265</v>
+      </c>
+      <c r="G55" s="117" t="s">
         <v>266</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="H55" s="114" t="s">
         <v>267</v>
-      </c>
-      <c r="H55" s="114" t="s">
-        <v>268</v>
       </c>
       <c r="I55" s="118">
         <v>42177</v>
@@ -4528,22 +4545,22 @@
         <v>20</v>
       </c>
       <c r="F56" s="97" t="s">
+        <v>277</v>
+      </c>
+      <c r="G56" s="130" t="s">
         <v>278</v>
-      </c>
-      <c r="G56" s="131" t="s">
-        <v>279</v>
       </c>
       <c r="H56" s="98"/>
       <c r="I56" s="99"/>
-      <c r="J56" s="136">
+      <c r="J56" s="135">
         <v>0</v>
       </c>
-      <c r="K56" s="140"/>
-      <c r="L56" s="133" t="s">
+      <c r="K56" s="139"/>
+      <c r="L56" s="132" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="199.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" ht="228" x14ac:dyDescent="0.15">
       <c r="B57" s="17">
         <v>52</v>
       </c>
@@ -4557,22 +4574,22 @@
         <v>15</v>
       </c>
       <c r="F57" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="G57" s="131" t="s">
-        <v>288</v>
+        <v>284</v>
+      </c>
+      <c r="G57" s="130" t="s">
+        <v>337</v>
       </c>
       <c r="H57" s="98"/>
-      <c r="I57" s="134"/>
-      <c r="J57" s="159">
+      <c r="I57" s="133"/>
+      <c r="J57" s="150">
         <v>0.1</v>
       </c>
-      <c r="K57" s="140"/>
-      <c r="L57" s="133" t="s">
+      <c r="K57" s="139"/>
+      <c r="L57" s="132" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="242.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
       <c r="B58" s="17">
         <v>53</v>
       </c>
@@ -4586,18 +4603,18 @@
         <v>15</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>286</v>
-      </c>
-      <c r="G58" s="131" t="s">
-        <v>287</v>
+        <v>285</v>
+      </c>
+      <c r="G58" s="130" t="s">
+        <v>338</v>
       </c>
       <c r="H58" s="98"/>
-      <c r="I58" s="134"/>
-      <c r="J58" s="136">
+      <c r="I58" s="133"/>
+      <c r="J58" s="135">
         <v>0.1</v>
       </c>
-      <c r="K58" s="140"/>
-      <c r="L58" s="133" t="s">
+      <c r="K58" s="139"/>
+      <c r="L58" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4633,12 +4650,12 @@
       <c r="D61" s="96"/>
       <c r="E61" s="96"/>
       <c r="F61" s="97"/>
-      <c r="G61" s="131"/>
+      <c r="G61" s="130"/>
       <c r="H61" s="98"/>
       <c r="I61" s="99"/>
       <c r="J61" s="99"/>
-      <c r="K61" s="132"/>
-      <c r="L61" s="133"/>
+      <c r="K61" s="131"/>
+      <c r="L61" s="132"/>
     </row>
     <row r="62" spans="2:12" ht="128.25" x14ac:dyDescent="0.15">
       <c r="B62" s="17">
@@ -4654,20 +4671,20 @@
         <v>15</v>
       </c>
       <c r="F62" s="97" t="s">
+        <v>275</v>
+      </c>
+      <c r="G62" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="H62" s="98" t="s">
         <v>276</v>
       </c>
-      <c r="G62" s="131" t="s">
-        <v>280</v>
-      </c>
-      <c r="H62" s="98" t="s">
-        <v>277</v>
-      </c>
       <c r="I62" s="99"/>
-      <c r="J62" s="136">
+      <c r="J62" s="135">
         <v>0.35</v>
       </c>
-      <c r="K62" s="140"/>
-      <c r="L62" s="133" t="s">
+      <c r="K62" s="139"/>
+      <c r="L62" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4685,18 +4702,18 @@
         <v>134</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>289</v>
-      </c>
-      <c r="G63" s="131" t="s">
-        <v>291</v>
+        <v>286</v>
+      </c>
+      <c r="G63" s="130" t="s">
+        <v>287</v>
       </c>
       <c r="H63" s="98"/>
       <c r="I63" s="99"/>
-      <c r="J63" s="136">
+      <c r="J63" s="135">
         <v>0.1</v>
       </c>
-      <c r="K63" s="140"/>
-      <c r="L63" s="133" t="s">
+      <c r="K63" s="139"/>
+      <c r="L63" s="132" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6416,7 +6433,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:K44"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6789,58 +6808,58 @@
       <c r="K17" s="67"/>
     </row>
     <row r="18" spans="3:11" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="124">
+      <c r="C18" s="123">
         <v>14</v>
       </c>
-      <c r="D18" s="125" t="s">
+      <c r="D18" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="125" t="s">
+      <c r="E18" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="126" t="s">
+      <c r="F18" s="125" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="127" t="s">
+      <c r="G18" s="126" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="127" t="s">
+      <c r="H18" s="126" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="128" t="s">
+      <c r="I18" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="125" t="s">
+      <c r="J18" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="129"/>
+      <c r="K18" s="128"/>
     </row>
     <row r="19" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="124">
+      <c r="C19" s="123">
         <v>15</v>
       </c>
-      <c r="D19" s="125" t="s">
+      <c r="D19" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="125" t="s">
+      <c r="E19" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="126" t="s">
+      <c r="F19" s="125" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="127" t="s">
+      <c r="G19" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="127" t="s">
+      <c r="H19" s="126" t="s">
         <v>175</v>
       </c>
       <c r="I19" s="115">
         <v>42171</v>
       </c>
-      <c r="J19" s="125" t="s">
+      <c r="J19" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="129"/>
+      <c r="K19" s="128"/>
     </row>
     <row r="20" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
       <c r="C20" s="103">
@@ -6897,31 +6916,31 @@
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="124">
+      <c r="C22" s="123">
         <v>18</v>
       </c>
-      <c r="D22" s="125" t="s">
+      <c r="D22" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="125" t="s">
+      <c r="E22" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="126" t="s">
+      <c r="F22" s="125" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="127" t="s">
+      <c r="G22" s="126" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="127" t="s">
+      <c r="H22" s="126" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="128" t="s">
+      <c r="I22" s="127" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="125" t="s">
+      <c r="J22" s="124" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="129"/>
+      <c r="K22" s="128"/>
     </row>
     <row r="23" spans="3:11" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C23" s="17">
@@ -7354,7 +7373,7 @@
         <v>34</v>
       </c>
       <c r="K38" s="116" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
@@ -7395,13 +7414,13 @@
         <v>15</v>
       </c>
       <c r="F40" s="97" t="s">
+        <v>261</v>
+      </c>
+      <c r="G40" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="G40" s="98" t="s">
+      <c r="H40" s="98" t="s">
         <v>263</v>
-      </c>
-      <c r="H40" s="98" t="s">
-        <v>264</v>
       </c>
       <c r="I40" s="102">
         <v>42177</v>
@@ -7410,7 +7429,7 @@
         <v>34</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="85.5" x14ac:dyDescent="0.15">
@@ -7424,17 +7443,17 @@
         <v>20</v>
       </c>
       <c r="F41" s="113" t="s">
+        <v>268</v>
+      </c>
+      <c r="G41" s="114" t="s">
+        <v>270</v>
+      </c>
+      <c r="H41" s="114" t="s">
         <v>269</v>
-      </c>
-      <c r="G41" s="114" t="s">
-        <v>271</v>
-      </c>
-      <c r="H41" s="114" t="s">
-        <v>270</v>
       </c>
       <c r="I41" s="114"/>
       <c r="J41" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K41" s="68"/>
     </row>
@@ -7449,17 +7468,17 @@
         <v>20</v>
       </c>
       <c r="F42" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="G42" s="114" t="s">
         <v>273</v>
       </c>
-      <c r="G42" s="114" t="s">
+      <c r="H42" s="114" t="s">
         <v>274</v>
-      </c>
-      <c r="H42" s="114" t="s">
-        <v>275</v>
       </c>
       <c r="I42" s="114"/>
       <c r="J42" s="112" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K42" s="68"/>
     </row>
@@ -7474,17 +7493,17 @@
         <v>20</v>
       </c>
       <c r="F43" s="97" t="s">
+        <v>280</v>
+      </c>
+      <c r="G43" s="98" t="s">
+        <v>282</v>
+      </c>
+      <c r="H43" s="98" t="s">
         <v>281</v>
-      </c>
-      <c r="G43" s="98" t="s">
-        <v>283</v>
-      </c>
-      <c r="H43" s="98" t="s">
-        <v>282</v>
       </c>
       <c r="I43" s="98"/>
       <c r="J43" s="96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K43" s="68"/>
     </row>
@@ -7499,20 +7518,20 @@
         <v>15</v>
       </c>
       <c r="F44" s="97" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G44" s="98" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H44" s="98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="I44" s="98"/>
       <c r="J44" s="96" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K44" s="100" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -7801,117 +7820,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="150" t="s">
-        <v>339</v>
+      <c r="A1" s="149" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="150">
+      <c r="A2" s="149">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="142" t="s">
+      <c r="B3" s="141" t="s">
+        <v>300</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>301</v>
+      </c>
+      <c r="D3" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="E3" s="141" t="s">
+        <v>303</v>
+      </c>
+      <c r="F3" s="141" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="142" t="s">
+      <c r="G3" s="141" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="142" t="s">
-        <v>306</v>
-      </c>
-      <c r="E3" s="142" t="s">
-        <v>307</v>
-      </c>
-      <c r="F3" s="142" t="s">
-        <v>308</v>
-      </c>
-      <c r="G3" s="142" t="s">
-        <v>309</v>
-      </c>
-      <c r="H3" s="143" t="s">
-        <v>323</v>
+      <c r="H3" s="142" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="154" t="s">
-        <v>324</v>
-      </c>
-      <c r="C4" s="144" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="145" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="146" t="s">
-        <v>311</v>
+        <v>320</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="144" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="145" t="s">
+        <v>307</v>
       </c>
       <c r="F4" s="151" t="s">
-        <v>312</v>
-      </c>
-      <c r="G4" s="145" t="s">
-        <v>313</v>
+        <v>308</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>309</v>
       </c>
       <c r="H4" s="156" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="155"/>
-      <c r="C5" s="144" t="s">
+      <c r="C5" s="143" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" s="144" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" s="145" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="151"/>
+      <c r="G5" s="144" t="s">
+        <v>311</v>
+      </c>
+      <c r="H5" s="157"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="146" t="s">
+        <v>312</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="D6" s="144" t="s">
         <v>314</v>
       </c>
-      <c r="D5" s="145" t="s">
-        <v>310</v>
-      </c>
-      <c r="E5" s="146" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="145" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5" s="157"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="147" t="s">
-        <v>316</v>
-      </c>
-      <c r="C6" s="146" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" s="145" t="s">
-        <v>318</v>
-      </c>
-      <c r="E6" s="146" t="s">
-        <v>311</v>
+      <c r="E6" s="145" t="s">
+        <v>307</v>
       </c>
       <c r="F6" s="151"/>
-      <c r="G6" s="146" t="s">
-        <v>317</v>
-      </c>
-      <c r="H6" s="148" t="s">
-        <v>327</v>
+      <c r="G6" s="145" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" s="147" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="151" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C7" s="151" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D7" s="151" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E7" s="158" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F7" s="151"/>
-      <c r="G7" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="H7" s="145"/>
+      <c r="G7" s="143" t="s">
+        <v>325</v>
+      </c>
+      <c r="H7" s="144"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="151"/>
@@ -7919,48 +7938,48 @@
       <c r="D8" s="151"/>
       <c r="E8" s="151"/>
       <c r="F8" s="151"/>
-      <c r="G8" s="144" t="s">
+      <c r="G8" s="143" t="s">
+        <v>326</v>
+      </c>
+      <c r="H8" s="144"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="146" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="145" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="151"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="148" t="s">
         <v>330</v>
-      </c>
-      <c r="H8" s="145"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="147" t="s">
-        <v>331</v>
-      </c>
-      <c r="C9" s="147" t="s">
-        <v>332</v>
-      </c>
-      <c r="D9" s="145" t="s">
-        <v>333</v>
-      </c>
-      <c r="E9" s="146" t="s">
-        <v>320</v>
-      </c>
-      <c r="F9" s="151"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="149" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="151" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C10" s="151" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="151" t="s">
+        <v>318</v>
+      </c>
+      <c r="F10" s="151"/>
+      <c r="G10" s="143" t="s">
         <v>332</v>
       </c>
-      <c r="D10" s="151" t="s">
-        <v>321</v>
-      </c>
-      <c r="E10" s="151" t="s">
-        <v>322</v>
-      </c>
-      <c r="F10" s="151"/>
-      <c r="G10" s="144" t="s">
-        <v>336</v>
-      </c>
-      <c r="H10" s="145"/>
+      <c r="H10" s="144"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="151"/>
@@ -7968,14 +7987,14 @@
       <c r="D11" s="151"/>
       <c r="E11" s="151"/>
       <c r="F11" s="151"/>
-      <c r="G11" s="144" t="s">
-        <v>337</v>
-      </c>
-      <c r="H11" s="145"/>
+      <c r="G11" s="143" t="s">
+        <v>333</v>
+      </c>
+      <c r="H11" s="144"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="152" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C12" s="153"/>
       <c r="D12" s="153"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -1199,19 +1199,6 @@
   </si>
   <si>
     <t>见附录sheet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户要求对于订单删除进行保护。可以考虑以下措施：
-1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
-2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
-3？
-需要提供不同方案的工数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:0.4
-2:0.1 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1790,6 +1777,19 @@
   </si>
   <si>
     <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求对于订单删除进行保护。可以考虑以下措施：
+1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
+2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
+3？
+需要提供不同方案的工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:0.4
+2:0.1 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2535,6 +2535,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2557,12 +2563,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2872,8 +2872,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:R167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4056,8 +4056,8 @@
       <c r="G40" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="160" t="s">
-        <v>339</v>
+      <c r="H40" s="152" t="s">
+        <v>337</v>
       </c>
       <c r="I40" s="88"/>
       <c r="J40" s="134">
@@ -4205,16 +4205,18 @@
         <v>222</v>
       </c>
       <c r="G45" s="117" t="s">
-        <v>295</v>
-      </c>
-      <c r="H45" s="159" t="s">
+        <v>341</v>
+      </c>
+      <c r="H45" s="151" t="s">
+        <v>340</v>
+      </c>
+      <c r="I45" s="88"/>
+      <c r="J45" s="140">
+        <v>0.1</v>
+      </c>
+      <c r="K45" s="138" t="s">
         <v>342</v>
       </c>
-      <c r="I45" s="88"/>
-      <c r="J45" s="140" t="s">
-        <v>296</v>
-      </c>
-      <c r="K45" s="138"/>
       <c r="L45" s="120" t="s">
         <v>18</v>
       </c>
@@ -4365,7 +4367,7 @@
         <v>293</v>
       </c>
       <c r="H50" s="98" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I50" s="99"/>
       <c r="J50" s="135">
@@ -4393,7 +4395,7 @@
         <v>292</v>
       </c>
       <c r="G51" s="130" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="H51" s="98" t="s">
         <v>294</v>
@@ -4403,7 +4405,7 @@
         <v>0.25</v>
       </c>
       <c r="K51" s="139" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="L51" s="132" t="s">
         <v>18</v>
@@ -4457,15 +4459,15 @@
       <c r="G53" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="H53" s="159" t="s">
-        <v>341</v>
+      <c r="H53" s="151" t="s">
+        <v>339</v>
       </c>
       <c r="I53" s="88"/>
       <c r="J53" s="134">
         <v>0.1</v>
       </c>
       <c r="K53" s="138" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L53" s="120" t="s">
         <v>18</v>
@@ -4577,7 +4579,7 @@
         <v>284</v>
       </c>
       <c r="G57" s="130" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H57" s="98"/>
       <c r="I57" s="133"/>
@@ -4606,7 +4608,7 @@
         <v>285</v>
       </c>
       <c r="G58" s="130" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H58" s="98"/>
       <c r="I58" s="133"/>
@@ -7531,7 +7533,7 @@
         <v>271</v>
       </c>
       <c r="K44" s="100" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
@@ -7821,7 +7823,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7831,177 +7833,177 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="141" t="s">
+        <v>298</v>
+      </c>
+      <c r="C3" s="141" t="s">
+        <v>299</v>
+      </c>
+      <c r="D3" s="141" t="s">
         <v>300</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="E3" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="F3" s="141" t="s">
         <v>302</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="G3" s="141" t="s">
         <v>303</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="H3" s="142" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="156" t="s">
+        <v>318</v>
+      </c>
+      <c r="C4" s="143" t="s">
+        <v>319</v>
+      </c>
+      <c r="D4" s="144" t="s">
         <v>304</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="E4" s="145" t="s">
         <v>305</v>
       </c>
-      <c r="H3" s="142" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="154" t="s">
+      <c r="F4" s="153" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="144" t="s">
+        <v>307</v>
+      </c>
+      <c r="H4" s="158" t="s">
         <v>320</v>
       </c>
-      <c r="C4" s="143" t="s">
-        <v>321</v>
-      </c>
-      <c r="D4" s="144" t="s">
-        <v>306</v>
-      </c>
-      <c r="E4" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="F4" s="151" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="157"/>
+      <c r="C5" s="143" t="s">
         <v>308</v>
       </c>
-      <c r="G4" s="144" t="s">
+      <c r="D5" s="144" t="s">
+        <v>304</v>
+      </c>
+      <c r="E5" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="153"/>
+      <c r="G5" s="144" t="s">
         <v>309</v>
       </c>
-      <c r="H4" s="156" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="155"/>
-      <c r="C5" s="143" t="s">
-        <v>310</v>
-      </c>
-      <c r="D5" s="144" t="s">
-        <v>306</v>
-      </c>
-      <c r="E5" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="F5" s="151"/>
-      <c r="G5" s="144" t="s">
-        <v>311</v>
-      </c>
-      <c r="H5" s="157"/>
+      <c r="H5" s="159"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B6" s="146" t="s">
+        <v>310</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="D6" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="E6" s="145" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="153"/>
+      <c r="G6" s="145" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" s="147" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="153" t="s">
+        <v>322</v>
+      </c>
+      <c r="C7" s="153" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" s="153" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="E7" s="160" t="s">
         <v>314</v>
       </c>
-      <c r="E6" s="145" t="s">
-        <v>307</v>
-      </c>
-      <c r="F6" s="151"/>
-      <c r="G6" s="145" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" s="147" t="s">
+      <c r="F7" s="153"/>
+      <c r="G7" s="143" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="151" t="s">
+      <c r="H7" s="144"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="153"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="153"/>
+      <c r="F8" s="153"/>
+      <c r="G8" s="143" t="s">
         <v>324</v>
-      </c>
-      <c r="C7" s="151" t="s">
-        <v>310</v>
-      </c>
-      <c r="D7" s="151" t="s">
-        <v>315</v>
-      </c>
-      <c r="E7" s="158" t="s">
-        <v>316</v>
-      </c>
-      <c r="F7" s="151"/>
-      <c r="G7" s="143" t="s">
-        <v>325</v>
-      </c>
-      <c r="H7" s="144"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="151"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="151"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="143" t="s">
-        <v>326</v>
       </c>
       <c r="H8" s="144"/>
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B9" s="146" t="s">
+        <v>325</v>
+      </c>
+      <c r="C9" s="146" t="s">
+        <v>326</v>
+      </c>
+      <c r="D9" s="144" t="s">
         <v>327</v>
       </c>
-      <c r="C9" s="146" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="144" t="s">
-        <v>329</v>
-      </c>
       <c r="E9" s="145" t="s">
-        <v>316</v>
-      </c>
-      <c r="F9" s="151"/>
+        <v>314</v>
+      </c>
+      <c r="F9" s="153"/>
       <c r="G9" s="143"/>
       <c r="H9" s="148" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="153" t="s">
+        <v>329</v>
+      </c>
+      <c r="C10" s="153" t="s">
+        <v>326</v>
+      </c>
+      <c r="D10" s="153" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" s="153" t="s">
+        <v>316</v>
+      </c>
+      <c r="F10" s="153"/>
+      <c r="G10" s="143" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="151" t="s">
+      <c r="H10" s="144"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="153"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="153"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="143" t="s">
         <v>331</v>
       </c>
-      <c r="C10" s="151" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="151" t="s">
-        <v>317</v>
-      </c>
-      <c r="E10" s="151" t="s">
-        <v>318</v>
-      </c>
-      <c r="F10" s="151"/>
-      <c r="G10" s="143" t="s">
+      <c r="H11" s="144"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="154" t="s">
         <v>332</v>
       </c>
-      <c r="H10" s="144"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="151"/>
-      <c r="C11" s="151"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="143" t="s">
-        <v>333</v>
-      </c>
-      <c r="H11" s="144"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="152" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="153"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="155"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="155"/>
+      <c r="H12" s="155"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="346">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1790,6 +1790,18 @@
   <si>
     <t xml:space="preserve">1:0.4
 2:0.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划模块批量修改时，当选中的项目中既有审核过的也有没审核过的，那么修改后，审核后的信息也会被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核后的信息除非反审核，否则坚决不能被修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6436,7 +6448,7 @@
   <dimension ref="B2:K62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43:K44"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7536,18 +7548,30 @@
         <v>334</v>
       </c>
     </row>
-    <row r="45" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="45" spans="3:11" ht="57" x14ac:dyDescent="0.15">
       <c r="C45" s="17">
         <v>35</v>
       </c>
-      <c r="D45" s="38"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="68"/>
+      <c r="D45" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="97" t="s">
+        <v>343</v>
+      </c>
+      <c r="G45" s="151" t="s">
+        <v>344</v>
+      </c>
+      <c r="H45" s="151" t="s">
+        <v>345</v>
+      </c>
+      <c r="I45" s="151"/>
+      <c r="J45" s="96" t="s">
+        <v>271</v>
+      </c>
+      <c r="K45" s="100"/>
     </row>
     <row r="46" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C46" s="17">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -832,14 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计划导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装计划和数据导出后需要能够合并单元格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>销售信息审核时，数据和表头无法对应，串了一个位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -857,10 +849,6 @@
   </si>
   <si>
     <t>客户想要从数据库中导出目前每一个客户针对不同型号的相关信息，并按照客户名和规格型号排序。规格型号只要型号，不需要梯速和吨位。另外结果需要去重。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1776,10 +1764,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户要求对于订单删除进行保护。可以考虑以下措施：
 1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
 2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
@@ -1804,12 +1788,28 @@
     <t>审核后的信息除非反审核，否则坚决不能被修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有导出的模板需要支持导出后对于相同的数据进行合并单元格，并将数量列的数字在合并后自动累加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好做成一个共同的方法，每次导出的时候都调用一下，这样可以保证以后再导出的模板需要支持的时候也可以支持，不需要的时候也可以不支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1954,6 +1954,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -2141,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2495,13 +2502,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2511,9 +2514,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2544,15 +2544,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2575,6 +2569,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2884,13 +2888,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:R167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="9" style="44"/>
     <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="16.75" customWidth="1"/>
@@ -2898,8 +2903,8 @@
     <col min="7" max="7" width="45.875" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="136" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="137" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="134" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="135" customWidth="1"/>
     <col min="13" max="13" width="6" style="89" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2907,21 +2912,21 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="158"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="159" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -2962,7 +2967,7 @@
       <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="22">
+      <c r="B6" s="39">
         <v>1</v>
       </c>
       <c r="C6" s="22">
@@ -3134,7 +3139,7 @@
       <c r="M10" s="92"/>
     </row>
     <row r="11" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="30">
+      <c r="B11" s="39">
         <v>6</v>
       </c>
       <c r="C11" s="30">
@@ -3164,7 +3169,7 @@
       <c r="M11" s="86"/>
     </row>
     <row r="12" spans="1:18" s="44" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="50">
+      <c r="B12" s="39">
         <v>7</v>
       </c>
       <c r="C12" s="50">
@@ -3259,7 +3264,7 @@
       <c r="M14" s="93"/>
     </row>
     <row r="15" spans="1:18" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="50">
+      <c r="B15" s="39">
         <v>10</v>
       </c>
       <c r="C15" s="50">
@@ -3350,7 +3355,7 @@
       <c r="M17" s="93"/>
     </row>
     <row r="18" spans="2:14" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="50">
+      <c r="B18" s="39">
         <v>13</v>
       </c>
       <c r="C18" s="50">
@@ -3381,7 +3386,7 @@
       </c>
     </row>
     <row r="19" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="50">
+      <c r="B19" s="39">
         <v>14</v>
       </c>
       <c r="C19" s="50">
@@ -3412,7 +3417,7 @@
       </c>
     </row>
     <row r="20" spans="2:14" s="44" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="50">
+      <c r="B20" s="39">
         <v>15</v>
       </c>
       <c r="C20" s="50">
@@ -3443,7 +3448,7 @@
       </c>
     </row>
     <row r="21" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="50">
+      <c r="B21" s="39">
         <v>16</v>
       </c>
       <c r="C21" s="50">
@@ -3569,7 +3574,7 @@
       <c r="M24" s="93"/>
     </row>
     <row r="25" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="50">
+      <c r="B25" s="39">
         <v>20</v>
       </c>
       <c r="C25" s="50">
@@ -3666,7 +3671,7 @@
       <c r="M27" s="93"/>
     </row>
     <row r="28" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="17">
+      <c r="B28" s="39">
         <v>23</v>
       </c>
       <c r="C28" s="17">
@@ -3697,7 +3702,7 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="17">
+      <c r="B29" s="39">
         <v>24</v>
       </c>
       <c r="C29" s="17">
@@ -3728,7 +3733,7 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="17">
+      <c r="B30" s="39">
         <v>25</v>
       </c>
       <c r="C30" s="17">
@@ -3762,7 +3767,7 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="17">
+      <c r="B31" s="39">
         <v>26</v>
       </c>
       <c r="C31" s="17">
@@ -3798,7 +3803,7 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="17">
+      <c r="B32" s="39">
         <v>27</v>
       </c>
       <c r="C32" s="17">
@@ -3829,7 +3834,7 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="17">
+      <c r="B33" s="39">
         <v>28</v>
       </c>
       <c r="C33" s="17">
@@ -3862,7 +3867,7 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="17">
+      <c r="B34" s="39">
         <v>29</v>
       </c>
       <c r="C34" s="17">
@@ -3895,7 +3900,7 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="110">
+      <c r="B35" s="39">
         <v>31</v>
       </c>
       <c r="C35" s="110">
@@ -3924,7 +3929,7 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="17">
+      <c r="B36" s="39">
         <v>32</v>
       </c>
       <c r="C36" s="17">
@@ -3943,7 +3948,7 @@
         <v>199</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I36" s="69">
         <v>42166</v>
@@ -3957,7 +3962,7 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="110">
+      <c r="B37" s="39">
         <v>33</v>
       </c>
       <c r="C37" s="110">
@@ -3973,7 +3978,7 @@
         <v>187</v>
       </c>
       <c r="G37" s="117" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="88"/>
@@ -3986,7 +3991,7 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="110">
+      <c r="B38" s="39">
         <v>34</v>
       </c>
       <c r="C38" s="110">
@@ -4002,10 +4007,10 @@
         <v>191</v>
       </c>
       <c r="G38" s="117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H38" s="114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I38" s="118">
         <v>42166</v>
@@ -4019,7 +4024,7 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="110">
+      <c r="B39" s="39">
         <v>35</v>
       </c>
       <c r="C39" s="110">
@@ -4050,7 +4055,7 @@
       <c r="L39" s="120"/>
     </row>
     <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B40" s="110">
+      <c r="B40" s="39">
         <v>36</v>
       </c>
       <c r="C40" s="110">
@@ -4068,20 +4073,20 @@
       <c r="G40" s="122" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="152" t="s">
-        <v>337</v>
+      <c r="H40" s="156" t="s">
+        <v>334</v>
       </c>
       <c r="I40" s="88"/>
-      <c r="J40" s="134">
+      <c r="J40" s="133">
         <v>0.2</v>
       </c>
-      <c r="K40" s="138"/>
+      <c r="K40" s="136"/>
       <c r="L40" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="41" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="110">
+      <c r="B41" s="39">
         <v>37</v>
       </c>
       <c r="C41" s="110">
@@ -4097,10 +4102,10 @@
         <v>202</v>
       </c>
       <c r="G41" s="117" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="H41" s="114" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I41" s="118">
         <v>42166</v>
@@ -4113,37 +4118,37 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="110">
+    <row r="42" spans="2:12" ht="85.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="39">
         <v>38</v>
       </c>
       <c r="C42" s="110">
         <v>2</v>
       </c>
-      <c r="D42" s="112" t="s">
+      <c r="D42" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="112" t="s">
-        <v>30</v>
-      </c>
-      <c r="F42" s="113" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="117" t="s">
-        <v>206</v>
-      </c>
-      <c r="H42" s="114"/>
+      <c r="E42" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="97" t="s">
+        <v>342</v>
+      </c>
+      <c r="G42" s="130" t="s">
+        <v>343</v>
+      </c>
+      <c r="H42" s="147" t="s">
+        <v>345</v>
+      </c>
       <c r="I42" s="88"/>
-      <c r="J42" s="88" t="s">
-        <v>212</v>
-      </c>
+      <c r="J42" s="88"/>
       <c r="K42" s="119"/>
       <c r="L42" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="110">
+      <c r="B43" s="39">
         <v>39</v>
       </c>
       <c r="C43" s="110">
@@ -4172,26 +4177,26 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="110">
+      <c r="B44" s="39">
         <v>40</v>
       </c>
       <c r="C44" s="110">
         <v>2</v>
       </c>
       <c r="D44" s="125" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E44" s="124" t="s">
         <v>30</v>
       </c>
       <c r="F44" s="125" t="s">
+        <v>207</v>
+      </c>
+      <c r="G44" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="G44" s="129" t="s">
-        <v>211</v>
-      </c>
       <c r="H44" s="126" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
@@ -4201,7 +4206,7 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="114" x14ac:dyDescent="0.15">
-      <c r="B45" s="110">
+      <c r="B45" s="39">
         <v>41</v>
       </c>
       <c r="C45" s="110">
@@ -4210,31 +4215,31 @@
       <c r="D45" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="E45" s="112" t="s">
         <v>15</v>
       </c>
       <c r="F45" s="113" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G45" s="117" t="s">
-        <v>341</v>
-      </c>
-      <c r="H45" s="151" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="H45" s="114" t="s">
+        <v>344</v>
       </c>
       <c r="I45" s="88"/>
-      <c r="J45" s="140">
+      <c r="J45" s="137">
         <v>0.1</v>
       </c>
-      <c r="K45" s="138" t="s">
-        <v>342</v>
+      <c r="K45" s="136" t="s">
+        <v>338</v>
       </c>
       <c r="L45" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="110">
+      <c r="B46" s="39">
         <v>42</v>
       </c>
       <c r="C46" s="110">
@@ -4250,7 +4255,7 @@
         <v>191</v>
       </c>
       <c r="G46" s="117" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H46" s="114"/>
       <c r="I46" s="118">
@@ -4265,7 +4270,7 @@
       </c>
     </row>
     <row r="47" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B47" s="17">
+      <c r="B47" s="39">
         <v>43</v>
       </c>
       <c r="C47" s="17">
@@ -4278,13 +4283,13 @@
         <v>15</v>
       </c>
       <c r="F47" s="113" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G47" s="117" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H47" s="114" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I47" s="118">
         <v>42173</v>
@@ -4298,7 +4303,7 @@
       </c>
     </row>
     <row r="48" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="110">
+      <c r="B48" s="39">
         <v>44</v>
       </c>
       <c r="C48" s="110">
@@ -4311,13 +4316,13 @@
         <v>30</v>
       </c>
       <c r="F48" s="113" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G48" s="117" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H48" s="114" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
@@ -4327,7 +4332,7 @@
       </c>
     </row>
     <row r="49" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B49" s="17">
+      <c r="B49" s="39">
         <v>45</v>
       </c>
       <c r="C49" s="17">
@@ -4340,13 +4345,13 @@
         <v>15</v>
       </c>
       <c r="F49" s="113" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G49" s="117" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H49" s="114" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="I49" s="118">
         <v>42173</v>
@@ -4360,71 +4365,71 @@
       </c>
     </row>
     <row r="50" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B50" s="101">
+      <c r="B50" s="39">
         <v>46</v>
       </c>
-      <c r="C50" s="101">
-        <v>2</v>
-      </c>
-      <c r="D50" s="96" t="s">
+      <c r="C50" s="110">
+        <v>2</v>
+      </c>
+      <c r="D50" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="96" t="s">
+      <c r="E50" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="97" t="s">
+      <c r="F50" s="113" t="s">
+        <v>288</v>
+      </c>
+      <c r="G50" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="H50" s="114" t="s">
+        <v>294</v>
+      </c>
+      <c r="I50" s="88"/>
+      <c r="J50" s="133">
+        <v>0.15</v>
+      </c>
+      <c r="K50" s="136"/>
+      <c r="L50" s="120" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+      <c r="B51" s="39">
+        <v>46</v>
+      </c>
+      <c r="C51" s="110">
+        <v>2</v>
+      </c>
+      <c r="D51" s="112" t="s">
+        <v>36</v>
+      </c>
+      <c r="E51" s="112" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="113" t="s">
+        <v>289</v>
+      </c>
+      <c r="G51" s="117" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="114" t="s">
         <v>291</v>
       </c>
-      <c r="G50" s="130" t="s">
-        <v>293</v>
-      </c>
-      <c r="H50" s="98" t="s">
-        <v>297</v>
-      </c>
-      <c r="I50" s="99"/>
-      <c r="J50" s="135">
-        <v>0.15</v>
-      </c>
-      <c r="K50" s="139"/>
-      <c r="L50" s="132" t="s">
+      <c r="I51" s="88"/>
+      <c r="J51" s="133">
+        <v>0.25</v>
+      </c>
+      <c r="K51" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="L51" s="120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B51" s="101">
-        <v>46</v>
-      </c>
-      <c r="C51" s="101">
-        <v>2</v>
-      </c>
-      <c r="D51" s="96" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="96" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="97" t="s">
-        <v>292</v>
-      </c>
-      <c r="G51" s="130" t="s">
-        <v>296</v>
-      </c>
-      <c r="H51" s="98" t="s">
-        <v>294</v>
-      </c>
-      <c r="I51" s="99"/>
-      <c r="J51" s="135">
-        <v>0.25</v>
-      </c>
-      <c r="K51" s="139" t="s">
-        <v>295</v>
-      </c>
-      <c r="L51" s="132" t="s">
-        <v>18</v>
-      </c>
-    </row>
     <row r="52" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B52" s="17">
+      <c r="B52" s="39">
         <v>47</v>
       </c>
       <c r="C52" s="17">
@@ -4437,23 +4442,23 @@
         <v>20</v>
       </c>
       <c r="F52" s="113" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G52" s="117" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H52" s="114"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="134">
+      <c r="J52" s="133">
         <v>0</v>
       </c>
-      <c r="K52" s="138"/>
+      <c r="K52" s="136"/>
       <c r="L52" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="53" spans="2:12" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="B53" s="17">
+      <c r="B53" s="39">
         <v>48</v>
       </c>
       <c r="C53" s="17">
@@ -4466,27 +4471,27 @@
         <v>20</v>
       </c>
       <c r="F53" s="113" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G53" s="117" t="s">
-        <v>253</v>
-      </c>
-      <c r="H53" s="151" t="s">
-        <v>339</v>
+        <v>250</v>
+      </c>
+      <c r="H53" s="114" t="s">
+        <v>336</v>
       </c>
       <c r="I53" s="88"/>
-      <c r="J53" s="134">
+      <c r="J53" s="133">
         <v>0.1</v>
       </c>
-      <c r="K53" s="138" t="s">
-        <v>338</v>
+      <c r="K53" s="136" t="s">
+        <v>335</v>
       </c>
       <c r="L53" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="54" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="17">
+      <c r="B54" s="39">
         <v>49</v>
       </c>
       <c r="C54" s="17">
@@ -4499,13 +4504,13 @@
         <v>30</v>
       </c>
       <c r="F54" s="97" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G54" s="130" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H54" s="98" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I54" s="5"/>
       <c r="J54" s="88"/>
@@ -4515,7 +4520,7 @@
       </c>
     </row>
     <row r="55" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="17">
+      <c r="B55" s="39">
         <v>50</v>
       </c>
       <c r="C55" s="110">
@@ -4528,13 +4533,13 @@
         <v>15</v>
       </c>
       <c r="F55" s="113" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G55" s="117" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H55" s="114" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I55" s="118">
         <v>42177</v>
@@ -4546,94 +4551,94 @@
       </c>
     </row>
     <row r="56" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="B56" s="17">
+      <c r="B56" s="39">
         <v>51</v>
       </c>
-      <c r="C56" s="101">
-        <v>2</v>
-      </c>
-      <c r="D56" s="96" t="s">
+      <c r="C56" s="110">
+        <v>2</v>
+      </c>
+      <c r="D56" s="112" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="96" t="s">
+      <c r="E56" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="97" t="s">
-        <v>277</v>
-      </c>
-      <c r="G56" s="130" t="s">
-        <v>278</v>
-      </c>
-      <c r="H56" s="98"/>
-      <c r="I56" s="99"/>
-      <c r="J56" s="135">
+      <c r="F56" s="113" t="s">
+        <v>274</v>
+      </c>
+      <c r="G56" s="117" t="s">
+        <v>275</v>
+      </c>
+      <c r="H56" s="114"/>
+      <c r="I56" s="88"/>
+      <c r="J56" s="133">
         <v>0</v>
       </c>
-      <c r="K56" s="139"/>
-      <c r="L56" s="132" t="s">
+      <c r="K56" s="136"/>
+      <c r="L56" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="57" spans="2:12" ht="228" x14ac:dyDescent="0.15">
-      <c r="B57" s="17">
+      <c r="B57" s="39">
         <v>52</v>
       </c>
-      <c r="C57" s="101">
-        <v>2</v>
-      </c>
-      <c r="D57" s="96" t="s">
+      <c r="C57" s="110">
+        <v>2</v>
+      </c>
+      <c r="D57" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="96" t="s">
+      <c r="E57" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="97" t="s">
-        <v>284</v>
-      </c>
-      <c r="G57" s="130" t="s">
-        <v>335</v>
-      </c>
-      <c r="H57" s="98"/>
-      <c r="I57" s="133"/>
-      <c r="J57" s="150">
+      <c r="F57" s="113" t="s">
+        <v>281</v>
+      </c>
+      <c r="G57" s="117" t="s">
+        <v>332</v>
+      </c>
+      <c r="H57" s="114"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="157">
         <v>0.1</v>
       </c>
-      <c r="K57" s="139"/>
-      <c r="L57" s="132" t="s">
+      <c r="K57" s="136"/>
+      <c r="L57" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="58" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
-      <c r="B58" s="17">
+      <c r="B58" s="39">
         <v>53</v>
       </c>
-      <c r="C58" s="101">
-        <v>2</v>
-      </c>
-      <c r="D58" s="96" t="s">
+      <c r="C58" s="110">
+        <v>2</v>
+      </c>
+      <c r="D58" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="96" t="s">
+      <c r="E58" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="97" t="s">
-        <v>285</v>
-      </c>
-      <c r="G58" s="130" t="s">
-        <v>336</v>
-      </c>
-      <c r="H58" s="98"/>
-      <c r="I58" s="133"/>
-      <c r="J58" s="135">
+      <c r="F58" s="113" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="117" t="s">
+        <v>333</v>
+      </c>
+      <c r="H58" s="114"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="133">
         <v>0.1</v>
       </c>
-      <c r="K58" s="139"/>
-      <c r="L58" s="132" t="s">
+      <c r="K58" s="136"/>
+      <c r="L58" s="120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="10.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="17"/>
+    <row r="59" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="39"/>
       <c r="C59" s="110"/>
       <c r="D59" s="112"/>
       <c r="E59" s="112"/>
@@ -4645,8 +4650,8 @@
       <c r="K59" s="119"/>
       <c r="L59" s="120"/>
     </row>
-    <row r="60" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="17"/>
+    <row r="60" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="39"/>
       <c r="C60" s="110"/>
       <c r="D60" s="112"/>
       <c r="E60" s="112"/>
@@ -4658,8 +4663,8 @@
       <c r="K60" s="119"/>
       <c r="L60" s="120"/>
     </row>
-    <row r="61" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="17"/>
+    <row r="61" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="39"/>
       <c r="C61" s="101"/>
       <c r="D61" s="96"/>
       <c r="E61" s="96"/>
@@ -4672,67 +4677,67 @@
       <c r="L61" s="132"/>
     </row>
     <row r="62" spans="2:12" ht="128.25" x14ac:dyDescent="0.15">
-      <c r="B62" s="17">
+      <c r="B62" s="39">
         <v>54</v>
       </c>
-      <c r="C62" s="101">
-        <v>2</v>
-      </c>
-      <c r="D62" s="96" t="s">
+      <c r="C62" s="110">
+        <v>2</v>
+      </c>
+      <c r="D62" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="96" t="s">
+      <c r="E62" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="97" t="s">
-        <v>275</v>
-      </c>
-      <c r="G62" s="130" t="s">
-        <v>279</v>
-      </c>
-      <c r="H62" s="98" t="s">
+      <c r="F62" s="113" t="s">
+        <v>272</v>
+      </c>
+      <c r="G62" s="117" t="s">
         <v>276</v>
       </c>
-      <c r="I62" s="99"/>
-      <c r="J62" s="135">
+      <c r="H62" s="114" t="s">
+        <v>273</v>
+      </c>
+      <c r="I62" s="88"/>
+      <c r="J62" s="133">
         <v>0.35</v>
       </c>
-      <c r="K62" s="139"/>
-      <c r="L62" s="132" t="s">
+      <c r="K62" s="136"/>
+      <c r="L62" s="120" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="B63" s="17">
+      <c r="B63" s="39">
         <v>55</v>
       </c>
-      <c r="C63" s="101">
-        <v>2</v>
-      </c>
-      <c r="D63" s="96" t="s">
+      <c r="C63" s="110">
+        <v>2</v>
+      </c>
+      <c r="D63" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="E63" s="96" t="s">
+      <c r="E63" s="112" t="s">
         <v>134</v>
       </c>
-      <c r="F63" s="97" t="s">
-        <v>286</v>
-      </c>
-      <c r="G63" s="130" t="s">
-        <v>287</v>
-      </c>
-      <c r="H63" s="98"/>
-      <c r="I63" s="99"/>
-      <c r="J63" s="135">
+      <c r="F63" s="113" t="s">
+        <v>283</v>
+      </c>
+      <c r="G63" s="117" t="s">
+        <v>284</v>
+      </c>
+      <c r="H63" s="114"/>
+      <c r="I63" s="88"/>
+      <c r="J63" s="133">
         <v>0.1</v>
       </c>
-      <c r="K63" s="139"/>
-      <c r="L63" s="132" t="s">
+      <c r="K63" s="136"/>
+      <c r="L63" s="120" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="17">
+    <row r="64" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B64" s="39">
         <v>53</v>
       </c>
       <c r="C64" s="17">
@@ -4748,8 +4753,8 @@
       <c r="K64" s="21"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="17">
+    <row r="65" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B65" s="39">
         <v>54</v>
       </c>
       <c r="C65" s="17">
@@ -4765,8 +4770,8 @@
       <c r="K65" s="21"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="17">
+    <row r="66" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B66" s="39">
         <v>55</v>
       </c>
       <c r="C66" s="17">
@@ -4782,8 +4787,8 @@
       <c r="K66" s="21"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="17">
+    <row r="67" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B67" s="39">
         <v>56</v>
       </c>
       <c r="C67" s="17">
@@ -4799,8 +4804,8 @@
       <c r="K67" s="21"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="17">
+    <row r="68" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B68" s="39">
         <v>57</v>
       </c>
       <c r="C68" s="17">
@@ -4816,8 +4821,8 @@
       <c r="K68" s="21"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B69" s="17">
+    <row r="69" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B69" s="39">
         <v>58</v>
       </c>
       <c r="C69" s="17">
@@ -4833,8 +4838,8 @@
       <c r="K69" s="21"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="17">
+    <row r="70" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B70" s="39">
         <v>59</v>
       </c>
       <c r="C70" s="17">
@@ -4850,8 +4855,8 @@
       <c r="K70" s="21"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B71" s="17">
+    <row r="71" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B71" s="39">
         <v>60</v>
       </c>
       <c r="C71" s="17">
@@ -4867,8 +4872,8 @@
       <c r="K71" s="21"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="17">
+    <row r="72" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B72" s="39">
         <v>61</v>
       </c>
       <c r="C72" s="17">
@@ -4884,8 +4889,8 @@
       <c r="K72" s="21"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B73" s="17">
+    <row r="73" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B73" s="39">
         <v>62</v>
       </c>
       <c r="C73" s="17">
@@ -4901,8 +4906,8 @@
       <c r="K73" s="21"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="17">
+    <row r="74" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B74" s="39">
         <v>63</v>
       </c>
       <c r="C74" s="17">
@@ -4918,8 +4923,8 @@
       <c r="K74" s="21"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="17">
+    <row r="75" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B75" s="39">
         <v>64</v>
       </c>
       <c r="C75" s="17">
@@ -4935,8 +4940,8 @@
       <c r="K75" s="21"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B76" s="17">
+    <row r="76" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B76" s="39">
         <v>65</v>
       </c>
       <c r="C76" s="17">
@@ -4952,8 +4957,8 @@
       <c r="K76" s="21"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B77" s="17">
+    <row r="77" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B77" s="39">
         <v>66</v>
       </c>
       <c r="C77" s="17">
@@ -4969,8 +4974,8 @@
       <c r="K77" s="21"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B78" s="17">
+    <row r="78" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B78" s="39">
         <v>67</v>
       </c>
       <c r="C78" s="17">
@@ -4986,8 +4991,8 @@
       <c r="K78" s="21"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="17">
+    <row r="79" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B79" s="39">
         <v>68</v>
       </c>
       <c r="C79" s="17">
@@ -5003,8 +5008,8 @@
       <c r="K79" s="21"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B80" s="17">
+    <row r="80" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B80" s="39">
         <v>69</v>
       </c>
       <c r="C80" s="17">
@@ -5020,8 +5025,8 @@
       <c r="K80" s="21"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B81" s="17">
+    <row r="81" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B81" s="39">
         <v>70</v>
       </c>
       <c r="C81" s="17">
@@ -5037,8 +5042,8 @@
       <c r="K81" s="21"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B82" s="17">
+    <row r="82" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B82" s="39">
         <v>71</v>
       </c>
       <c r="C82" s="17">
@@ -5054,8 +5059,8 @@
       <c r="K82" s="21"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B83" s="17">
+    <row r="83" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B83" s="39">
         <v>72</v>
       </c>
       <c r="C83" s="17">
@@ -5071,8 +5076,8 @@
       <c r="K83" s="21"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B84" s="17">
+    <row r="84" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B84" s="39">
         <v>73</v>
       </c>
       <c r="C84" s="17">
@@ -5088,8 +5093,8 @@
       <c r="K84" s="21"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B85" s="17">
+    <row r="85" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B85" s="39">
         <v>74</v>
       </c>
       <c r="C85" s="17">
@@ -5105,8 +5110,8 @@
       <c r="K85" s="21"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B86" s="17">
+    <row r="86" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B86" s="39">
         <v>75</v>
       </c>
       <c r="C86" s="17">
@@ -5122,8 +5127,8 @@
       <c r="K86" s="21"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B87" s="17">
+    <row r="87" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B87" s="39">
         <v>76</v>
       </c>
       <c r="C87" s="17">
@@ -5139,8 +5144,8 @@
       <c r="K87" s="21"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B88" s="17">
+    <row r="88" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B88" s="39">
         <v>77</v>
       </c>
       <c r="C88" s="17">
@@ -5156,8 +5161,8 @@
       <c r="K88" s="21"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B89" s="17">
+    <row r="89" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B89" s="39">
         <v>78</v>
       </c>
       <c r="C89" s="17">
@@ -5173,8 +5178,8 @@
       <c r="K89" s="21"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B90" s="17">
+    <row r="90" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B90" s="39">
         <v>79</v>
       </c>
       <c r="C90" s="17">
@@ -5190,8 +5195,8 @@
       <c r="K90" s="21"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B91" s="17">
+    <row r="91" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B91" s="39">
         <v>80</v>
       </c>
       <c r="C91" s="17">
@@ -5207,8 +5212,8 @@
       <c r="K91" s="21"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B92" s="17">
+    <row r="92" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B92" s="39">
         <v>81</v>
       </c>
       <c r="C92" s="17">
@@ -5224,8 +5229,8 @@
       <c r="K92" s="21"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B93" s="17">
+    <row r="93" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B93" s="39">
         <v>82</v>
       </c>
       <c r="C93" s="17">
@@ -5241,8 +5246,8 @@
       <c r="K93" s="21"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B94" s="17">
+    <row r="94" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B94" s="39">
         <v>83</v>
       </c>
       <c r="C94" s="17">
@@ -5258,8 +5263,8 @@
       <c r="K94" s="21"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B95" s="17">
+    <row r="95" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B95" s="39">
         <v>84</v>
       </c>
       <c r="C95" s="17">
@@ -5275,8 +5280,8 @@
       <c r="K95" s="21"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B96" s="17">
+    <row r="96" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B96" s="39">
         <v>85</v>
       </c>
       <c r="C96" s="17">
@@ -5292,8 +5297,8 @@
       <c r="K96" s="21"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B97" s="17">
+    <row r="97" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B97" s="39">
         <v>86</v>
       </c>
       <c r="C97" s="17">
@@ -5309,8 +5314,8 @@
       <c r="K97" s="21"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B98" s="17">
+    <row r="98" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B98" s="39">
         <v>87</v>
       </c>
       <c r="C98" s="17">
@@ -5326,8 +5331,8 @@
       <c r="K98" s="21"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B99" s="17">
+    <row r="99" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B99" s="39">
         <v>88</v>
       </c>
       <c r="C99" s="17">
@@ -5343,8 +5348,8 @@
       <c r="K99" s="21"/>
       <c r="L99" s="16"/>
     </row>
-    <row r="100" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B100" s="17">
+    <row r="100" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B100" s="39">
         <v>89</v>
       </c>
       <c r="C100" s="17">
@@ -5360,8 +5365,8 @@
       <c r="K100" s="21"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B101" s="17">
+    <row r="101" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B101" s="39">
         <v>90</v>
       </c>
       <c r="C101" s="17">
@@ -5377,8 +5382,8 @@
       <c r="K101" s="21"/>
       <c r="L101" s="16"/>
     </row>
-    <row r="102" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B102" s="17">
+    <row r="102" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B102" s="39">
         <v>91</v>
       </c>
       <c r="C102" s="17">
@@ -5394,8 +5399,8 @@
       <c r="K102" s="21"/>
       <c r="L102" s="16"/>
     </row>
-    <row r="103" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B103" s="17">
+    <row r="103" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B103" s="39">
         <v>92</v>
       </c>
       <c r="C103" s="17">
@@ -5411,8 +5416,8 @@
       <c r="K103" s="21"/>
       <c r="L103" s="16"/>
     </row>
-    <row r="104" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B104" s="17">
+    <row r="104" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B104" s="39">
         <v>93</v>
       </c>
       <c r="C104" s="17">
@@ -5428,8 +5433,8 @@
       <c r="K104" s="21"/>
       <c r="L104" s="16"/>
     </row>
-    <row r="105" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B105" s="17">
+    <row r="105" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B105" s="39">
         <v>94</v>
       </c>
       <c r="C105" s="17">
@@ -5445,8 +5450,8 @@
       <c r="K105" s="21"/>
       <c r="L105" s="16"/>
     </row>
-    <row r="106" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B106" s="17">
+    <row r="106" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B106" s="39">
         <v>95</v>
       </c>
       <c r="C106" s="17">
@@ -5462,8 +5467,8 @@
       <c r="K106" s="21"/>
       <c r="L106" s="16"/>
     </row>
-    <row r="107" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B107" s="17">
+    <row r="107" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B107" s="39">
         <v>96</v>
       </c>
       <c r="C107" s="17">
@@ -5479,8 +5484,8 @@
       <c r="K107" s="21"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B108" s="17">
+    <row r="108" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B108" s="39">
         <v>97</v>
       </c>
       <c r="C108" s="17">
@@ -5496,8 +5501,8 @@
       <c r="K108" s="21"/>
       <c r="L108" s="16"/>
     </row>
-    <row r="109" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B109" s="17">
+    <row r="109" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B109" s="39">
         <v>98</v>
       </c>
       <c r="C109" s="17">
@@ -5513,8 +5518,8 @@
       <c r="K109" s="21"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B110" s="17">
+    <row r="110" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B110" s="39">
         <v>99</v>
       </c>
       <c r="C110" s="17">
@@ -5530,8 +5535,8 @@
       <c r="K110" s="21"/>
       <c r="L110" s="16"/>
     </row>
-    <row r="111" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="17">
+    <row r="111" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B111" s="39">
         <v>100</v>
       </c>
       <c r="C111" s="17">
@@ -5547,8 +5552,8 @@
       <c r="K111" s="21"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="17">
+    <row r="112" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B112" s="39">
         <v>101</v>
       </c>
       <c r="C112" s="17">
@@ -5564,8 +5569,8 @@
       <c r="K112" s="21"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B113" s="17">
+    <row r="113" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B113" s="39">
         <v>102</v>
       </c>
       <c r="C113" s="17">
@@ -5581,8 +5586,8 @@
       <c r="K113" s="21"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B114" s="17">
+    <row r="114" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B114" s="39">
         <v>103</v>
       </c>
       <c r="C114" s="17">
@@ -5598,8 +5603,8 @@
       <c r="K114" s="21"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B115" s="17">
+    <row r="115" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B115" s="39">
         <v>104</v>
       </c>
       <c r="C115" s="17">
@@ -5615,8 +5620,8 @@
       <c r="K115" s="21"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B116" s="17">
+    <row r="116" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B116" s="39">
         <v>105</v>
       </c>
       <c r="C116" s="17">
@@ -5632,8 +5637,8 @@
       <c r="K116" s="21"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B117" s="17">
+    <row r="117" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B117" s="39">
         <v>106</v>
       </c>
       <c r="C117" s="17">
@@ -5649,8 +5654,8 @@
       <c r="K117" s="21"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B118" s="17">
+    <row r="118" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B118" s="39">
         <v>107</v>
       </c>
       <c r="C118" s="17">
@@ -5666,8 +5671,8 @@
       <c r="K118" s="21"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B119" s="17">
+    <row r="119" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B119" s="39">
         <v>108</v>
       </c>
       <c r="C119" s="17">
@@ -5683,8 +5688,8 @@
       <c r="K119" s="21"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B120" s="17">
+    <row r="120" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B120" s="39">
         <v>109</v>
       </c>
       <c r="C120" s="17">
@@ -5700,8 +5705,8 @@
       <c r="K120" s="21"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B121" s="17">
+    <row r="121" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B121" s="39">
         <v>110</v>
       </c>
       <c r="C121" s="17">
@@ -5717,8 +5722,8 @@
       <c r="K121" s="21"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B122" s="17">
+    <row r="122" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B122" s="39">
         <v>111</v>
       </c>
       <c r="C122" s="17">
@@ -5734,8 +5739,8 @@
       <c r="K122" s="21"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B123" s="17">
+    <row r="123" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B123" s="39">
         <v>112</v>
       </c>
       <c r="C123" s="17">
@@ -5751,8 +5756,8 @@
       <c r="K123" s="21"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B124" s="17">
+    <row r="124" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B124" s="39">
         <v>113</v>
       </c>
       <c r="C124" s="17"/>
@@ -5766,8 +5771,8 @@
       <c r="K124" s="21"/>
       <c r="L124" s="16"/>
     </row>
-    <row r="125" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B125" s="17">
+    <row r="125" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B125" s="39">
         <v>114</v>
       </c>
       <c r="C125" s="17"/>
@@ -5781,8 +5786,8 @@
       <c r="K125" s="21"/>
       <c r="L125" s="16"/>
     </row>
-    <row r="126" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B126" s="17">
+    <row r="126" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B126" s="39">
         <v>115</v>
       </c>
       <c r="C126" s="17"/>
@@ -5796,8 +5801,8 @@
       <c r="K126" s="21"/>
       <c r="L126" s="16"/>
     </row>
-    <row r="127" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B127" s="17">
+    <row r="127" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B127" s="39">
         <v>116</v>
       </c>
       <c r="C127" s="17"/>
@@ -5811,8 +5816,8 @@
       <c r="K127" s="21"/>
       <c r="L127" s="16"/>
     </row>
-    <row r="128" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B128" s="17">
+    <row r="128" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B128" s="39">
         <v>117</v>
       </c>
       <c r="C128" s="17"/>
@@ -5826,8 +5831,8 @@
       <c r="K128" s="21"/>
       <c r="L128" s="16"/>
     </row>
-    <row r="129" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B129" s="17">
+    <row r="129" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B129" s="39">
         <v>118</v>
       </c>
       <c r="C129" s="17"/>
@@ -5841,8 +5846,8 @@
       <c r="K129" s="21"/>
       <c r="L129" s="16"/>
     </row>
-    <row r="130" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B130" s="17">
+    <row r="130" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B130" s="39">
         <v>119</v>
       </c>
       <c r="C130" s="17"/>
@@ -5856,8 +5861,8 @@
       <c r="K130" s="21"/>
       <c r="L130" s="16"/>
     </row>
-    <row r="131" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B131" s="17">
+    <row r="131" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B131" s="39">
         <v>120</v>
       </c>
       <c r="C131" s="17"/>
@@ -5871,8 +5876,8 @@
       <c r="K131" s="21"/>
       <c r="L131" s="16"/>
     </row>
-    <row r="132" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B132" s="17">
+    <row r="132" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B132" s="39">
         <v>121</v>
       </c>
       <c r="C132" s="17"/>
@@ -5886,8 +5891,8 @@
       <c r="K132" s="21"/>
       <c r="L132" s="16"/>
     </row>
-    <row r="133" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B133" s="17">
+    <row r="133" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B133" s="39">
         <v>122</v>
       </c>
       <c r="C133" s="17"/>
@@ -5901,8 +5906,8 @@
       <c r="K133" s="21"/>
       <c r="L133" s="16"/>
     </row>
-    <row r="134" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B134" s="17">
+    <row r="134" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B134" s="39">
         <v>123</v>
       </c>
       <c r="C134" s="17"/>
@@ -5916,8 +5921,8 @@
       <c r="K134" s="21"/>
       <c r="L134" s="16"/>
     </row>
-    <row r="135" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B135" s="17">
+    <row r="135" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B135" s="39">
         <v>124</v>
       </c>
       <c r="C135" s="17"/>
@@ -5931,8 +5936,8 @@
       <c r="K135" s="21"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B136" s="17">
+    <row r="136" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B136" s="39">
         <v>125</v>
       </c>
       <c r="C136" s="17"/>
@@ -5946,8 +5951,8 @@
       <c r="K136" s="21"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B137" s="17">
+    <row r="137" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B137" s="39">
         <v>126</v>
       </c>
       <c r="C137" s="17"/>
@@ -5961,8 +5966,8 @@
       <c r="K137" s="21"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B138" s="17">
+    <row r="138" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B138" s="39">
         <v>127</v>
       </c>
       <c r="C138" s="17"/>
@@ -5976,8 +5981,8 @@
       <c r="K138" s="21"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B139" s="17">
+    <row r="139" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B139" s="39">
         <v>128</v>
       </c>
       <c r="C139" s="17"/>
@@ -5991,8 +5996,8 @@
       <c r="K139" s="21"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B140" s="17">
+    <row r="140" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B140" s="39">
         <v>129</v>
       </c>
       <c r="C140" s="17"/>
@@ -6006,8 +6011,8 @@
       <c r="K140" s="21"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B141" s="17">
+    <row r="141" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B141" s="39">
         <v>130</v>
       </c>
       <c r="C141" s="17"/>
@@ -6021,8 +6026,8 @@
       <c r="K141" s="21"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B142" s="17">
+    <row r="142" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B142" s="39">
         <v>131</v>
       </c>
       <c r="C142" s="17"/>
@@ -6036,8 +6041,8 @@
       <c r="K142" s="21"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B143" s="17">
+    <row r="143" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B143" s="39">
         <v>132</v>
       </c>
       <c r="C143" s="17"/>
@@ -6051,8 +6056,8 @@
       <c r="K143" s="21"/>
       <c r="L143" s="16"/>
     </row>
-    <row r="144" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B144" s="17">
+    <row r="144" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B144" s="39">
         <v>133</v>
       </c>
       <c r="C144" s="17"/>
@@ -6066,8 +6071,8 @@
       <c r="K144" s="21"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B145" s="17">
+    <row r="145" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B145" s="39">
         <v>134</v>
       </c>
       <c r="C145" s="17"/>
@@ -6081,8 +6086,8 @@
       <c r="K145" s="21"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B146" s="17">
+    <row r="146" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B146" s="39">
         <v>135</v>
       </c>
       <c r="C146" s="17"/>
@@ -6096,8 +6101,8 @@
       <c r="K146" s="21"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B147" s="17">
+    <row r="147" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B147" s="39">
         <v>136</v>
       </c>
       <c r="C147" s="17"/>
@@ -6111,8 +6116,8 @@
       <c r="K147" s="21"/>
       <c r="L147" s="16"/>
     </row>
-    <row r="148" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B148" s="17">
+    <row r="148" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B148" s="39">
         <v>137</v>
       </c>
       <c r="C148" s="17"/>
@@ -6126,8 +6131,8 @@
       <c r="K148" s="21"/>
       <c r="L148" s="16"/>
     </row>
-    <row r="149" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B149" s="17">
+    <row r="149" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B149" s="39">
         <v>138</v>
       </c>
       <c r="C149" s="17"/>
@@ -6141,8 +6146,8 @@
       <c r="K149" s="21"/>
       <c r="L149" s="16"/>
     </row>
-    <row r="150" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B150" s="17">
+    <row r="150" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B150" s="39">
         <v>139</v>
       </c>
       <c r="C150" s="17"/>
@@ -6156,8 +6161,8 @@
       <c r="K150" s="21"/>
       <c r="L150" s="16"/>
     </row>
-    <row r="151" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B151" s="17">
+    <row r="151" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B151" s="39">
         <v>140</v>
       </c>
       <c r="C151" s="17"/>
@@ -6171,8 +6176,8 @@
       <c r="K151" s="21"/>
       <c r="L151" s="16"/>
     </row>
-    <row r="152" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B152" s="17">
+    <row r="152" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B152" s="39">
         <v>141</v>
       </c>
       <c r="C152" s="17"/>
@@ -6186,8 +6191,8 @@
       <c r="K152" s="21"/>
       <c r="L152" s="16"/>
     </row>
-    <row r="153" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B153" s="17">
+    <row r="153" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B153" s="39">
         <v>142</v>
       </c>
       <c r="C153" s="17"/>
@@ -6201,8 +6206,8 @@
       <c r="K153" s="21"/>
       <c r="L153" s="16"/>
     </row>
-    <row r="154" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B154" s="17">
+    <row r="154" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B154" s="39">
         <v>143</v>
       </c>
       <c r="C154" s="17"/>
@@ -6216,8 +6221,8 @@
       <c r="K154" s="21"/>
       <c r="L154" s="16"/>
     </row>
-    <row r="155" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B155" s="17">
+    <row r="155" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B155" s="39">
         <v>144</v>
       </c>
       <c r="C155" s="17"/>
@@ -6231,8 +6236,8 @@
       <c r="K155" s="21"/>
       <c r="L155" s="16"/>
     </row>
-    <row r="156" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B156" s="17">
+    <row r="156" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B156" s="39">
         <v>145</v>
       </c>
       <c r="C156" s="17"/>
@@ -6246,8 +6251,8 @@
       <c r="K156" s="21"/>
       <c r="L156" s="16"/>
     </row>
-    <row r="157" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B157" s="17">
+    <row r="157" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B157" s="39">
         <v>146</v>
       </c>
       <c r="C157" s="17"/>
@@ -6261,8 +6266,8 @@
       <c r="K157" s="21"/>
       <c r="L157" s="16"/>
     </row>
-    <row r="158" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B158" s="17">
+    <row r="158" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B158" s="39">
         <v>147</v>
       </c>
       <c r="C158" s="17"/>
@@ -6276,8 +6281,8 @@
       <c r="K158" s="21"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B159" s="17">
+    <row r="159" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B159" s="39">
         <v>148</v>
       </c>
       <c r="C159" s="17"/>
@@ -6291,8 +6296,8 @@
       <c r="K159" s="21"/>
       <c r="L159" s="16"/>
     </row>
-    <row r="160" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B160" s="17">
+    <row r="160" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B160" s="39">
         <v>149</v>
       </c>
       <c r="C160" s="17"/>
@@ -6306,8 +6311,8 @@
       <c r="K160" s="21"/>
       <c r="L160" s="16"/>
     </row>
-    <row r="161" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B161" s="17">
+    <row r="161" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B161" s="39">
         <v>150</v>
       </c>
       <c r="C161" s="17"/>
@@ -6321,8 +6326,8 @@
       <c r="K161" s="21"/>
       <c r="L161" s="16"/>
     </row>
-    <row r="162" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B162" s="17">
+    <row r="162" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B162" s="39">
         <v>151</v>
       </c>
       <c r="C162" s="17"/>
@@ -6336,8 +6341,8 @@
       <c r="K162" s="21"/>
       <c r="L162" s="16"/>
     </row>
-    <row r="163" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B163" s="17">
+    <row r="163" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B163" s="39">
         <v>152</v>
       </c>
       <c r="C163" s="17"/>
@@ -6351,8 +6356,8 @@
       <c r="K163" s="21"/>
       <c r="L163" s="16"/>
     </row>
-    <row r="164" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B164" s="17">
+    <row r="164" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B164" s="39">
         <v>153</v>
       </c>
       <c r="C164" s="17"/>
@@ -6366,8 +6371,8 @@
       <c r="K164" s="21"/>
       <c r="L164" s="16"/>
     </row>
-    <row r="165" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B165" s="17">
+    <row r="165" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B165" s="39">
         <v>154</v>
       </c>
       <c r="C165" s="17"/>
@@ -6381,8 +6386,8 @@
       <c r="K165" s="21"/>
       <c r="L165" s="16"/>
     </row>
-    <row r="166" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B166" s="17">
+    <row r="166" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B166" s="39">
         <v>155</v>
       </c>
       <c r="C166" s="17"/>
@@ -6396,8 +6401,8 @@
       <c r="K166" s="21"/>
       <c r="L166" s="16"/>
     </row>
-    <row r="167" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="B167" s="17">
+    <row r="167" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B167" s="39">
         <v>156</v>
       </c>
       <c r="C167" s="17"/>
@@ -6414,13 +6419,13 @@
   </sheetData>
   <autoFilter ref="B5:L167">
     <filterColumn colId="3">
-      <filters>
+      <filters blank="1">
         <filter val="高"/>
         <filter val="中"/>
       </filters>
     </filterColumn>
     <filterColumn colId="10">
-      <filters>
+      <filters blank="1">
         <filter val="未开始"/>
       </filters>
     </filterColumn>
@@ -6447,8 +6452,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6957,7 +6962,7 @@
       <c r="K22" s="128"/>
     </row>
     <row r="23" spans="3:11" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="17">
+      <c r="C23" s="123">
         <v>19</v>
       </c>
       <c r="D23" s="38" t="s">
@@ -6984,7 +6989,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="17">
+      <c r="C24" s="123">
         <v>20</v>
       </c>
       <c r="D24" s="38" t="s">
@@ -7011,7 +7016,7 @@
       <c r="K24" s="68"/>
     </row>
     <row r="25" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="110">
+      <c r="C25" s="123">
         <v>21</v>
       </c>
       <c r="D25" s="111" t="s">
@@ -7040,7 +7045,7 @@
       </c>
     </row>
     <row r="26" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="110">
+      <c r="C26" s="123">
         <v>22</v>
       </c>
       <c r="D26" s="111" t="s">
@@ -7067,7 +7072,7 @@
       </c>
     </row>
     <row r="27" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="17">
+      <c r="C27" s="123">
         <v>23</v>
       </c>
       <c r="D27" s="111" t="s">
@@ -7096,7 +7101,7 @@
       </c>
     </row>
     <row r="28" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="17">
+      <c r="C28" s="123">
         <v>24</v>
       </c>
       <c r="D28" s="111" t="s">
@@ -7125,7 +7130,7 @@
       </c>
     </row>
     <row r="29" spans="3:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="110">
+      <c r="C29" s="123">
         <v>25</v>
       </c>
       <c r="D29" s="111" t="s">
@@ -7154,7 +7159,7 @@
       </c>
     </row>
     <row r="30" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="110">
+      <c r="C30" s="123">
         <v>26</v>
       </c>
       <c r="D30" s="111" t="s">
@@ -7177,11 +7182,11 @@
         <v>34</v>
       </c>
       <c r="K30" s="116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="101">
+      <c r="C31" s="123">
         <v>27</v>
       </c>
       <c r="D31" s="111" t="s">
@@ -7194,7 +7199,7 @@
         <v>200</v>
       </c>
       <c r="G31" s="114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H31" s="114"/>
       <c r="I31" s="115">
@@ -7206,7 +7211,7 @@
       <c r="K31" s="116"/>
     </row>
     <row r="32" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="110">
+      <c r="C32" s="123">
         <v>28</v>
       </c>
       <c r="D32" s="111" t="s">
@@ -7216,13 +7221,13 @@
         <v>15</v>
       </c>
       <c r="F32" s="113" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G32" s="114" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H32" s="114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="I32" s="114"/>
       <c r="J32" s="112" t="s">
@@ -7231,7 +7236,7 @@
       <c r="K32" s="116"/>
     </row>
     <row r="33" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="110">
+      <c r="C33" s="123">
         <v>29</v>
       </c>
       <c r="D33" s="111" t="s">
@@ -7241,10 +7246,10 @@
         <v>20</v>
       </c>
       <c r="F33" s="113" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G33" s="114" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H33" s="114"/>
       <c r="I33" s="115">
@@ -7256,7 +7261,7 @@
       <c r="K33" s="116"/>
     </row>
     <row r="34" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="110">
+      <c r="C34" s="123">
         <v>30</v>
       </c>
       <c r="D34" s="111" t="s">
@@ -7269,7 +7274,7 @@
         <v>191</v>
       </c>
       <c r="G34" s="114" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H34" s="114"/>
       <c r="I34" s="115">
@@ -7281,7 +7286,7 @@
       <c r="K34" s="116"/>
     </row>
     <row r="35" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="110">
+      <c r="C35" s="123">
         <v>31</v>
       </c>
       <c r="D35" s="111" t="s">
@@ -7291,13 +7296,13 @@
         <v>30</v>
       </c>
       <c r="F35" s="113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G35" s="114" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H35" s="114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I35" s="114"/>
       <c r="J35" s="112" t="s">
@@ -7306,7 +7311,7 @@
       <c r="K35" s="116"/>
     </row>
     <row r="36" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="17">
+      <c r="C36" s="123">
         <v>32</v>
       </c>
       <c r="D36" s="111" t="s">
@@ -7316,24 +7321,24 @@
         <v>15</v>
       </c>
       <c r="F36" s="113" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G36" s="114" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H36" s="114" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I36" s="114"/>
       <c r="J36" s="112" t="s">
         <v>115</v>
       </c>
       <c r="K36" s="116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="17">
+      <c r="C37" s="123">
         <v>33</v>
       </c>
       <c r="D37" s="111" t="s">
@@ -7343,13 +7348,13 @@
         <v>20</v>
       </c>
       <c r="F37" s="113" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G37" s="114" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="H37" s="114" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I37" s="115">
         <v>42173</v>
@@ -7358,11 +7363,11 @@
         <v>34</v>
       </c>
       <c r="K37" s="116" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="17">
+      <c r="C38" s="123">
         <v>34</v>
       </c>
       <c r="D38" s="111" t="s">
@@ -7372,13 +7377,13 @@
         <v>15</v>
       </c>
       <c r="F38" s="113" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G38" s="114" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H38" s="114" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I38" s="115">
         <v>42173</v>
@@ -7387,11 +7392,11 @@
         <v>34</v>
       </c>
       <c r="K38" s="116" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="17">
+      <c r="C39" s="123">
         <v>35</v>
       </c>
       <c r="D39" s="111" t="s">
@@ -7401,13 +7406,13 @@
         <v>20</v>
       </c>
       <c r="F39" s="113" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G39" s="114" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H39" s="114" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I39" s="115">
         <v>42173</v>
@@ -7418,8 +7423,8 @@
       <c r="K39" s="116"/>
     </row>
     <row r="40" spans="3:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="17">
-        <v>35</v>
+      <c r="C40" s="123">
+        <v>36</v>
       </c>
       <c r="D40" s="95" t="s">
         <v>19</v>
@@ -7428,13 +7433,13 @@
         <v>15</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G40" s="98" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H40" s="98" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="I40" s="102">
         <v>42177</v>
@@ -7443,12 +7448,12 @@
         <v>34</v>
       </c>
       <c r="K40" s="100" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="C41" s="17">
-        <v>35</v>
+      <c r="C41" s="123">
+        <v>37</v>
       </c>
       <c r="D41" s="111" t="s">
         <v>36</v>
@@ -7457,23 +7462,23 @@
         <v>20</v>
       </c>
       <c r="F41" s="113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G41" s="114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H41" s="114" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I41" s="114"/>
       <c r="J41" s="112" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K41" s="68"/>
     </row>
     <row r="42" spans="3:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="C42" s="17">
-        <v>35</v>
+      <c r="C42" s="123">
+        <v>38</v>
       </c>
       <c r="D42" s="111" t="s">
         <v>19</v>
@@ -7482,98 +7487,98 @@
         <v>20</v>
       </c>
       <c r="F42" s="113" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G42" s="114" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H42" s="114" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="I42" s="114"/>
       <c r="J42" s="112" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K42" s="68"/>
     </row>
     <row r="43" spans="3:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C43" s="17">
-        <v>35</v>
-      </c>
-      <c r="D43" s="95" t="s">
+      <c r="C43" s="123">
+        <v>39</v>
+      </c>
+      <c r="D43" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="96" t="s">
+      <c r="E43" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="97" t="s">
-        <v>280</v>
-      </c>
-      <c r="G43" s="98" t="s">
-        <v>282</v>
-      </c>
-      <c r="H43" s="98" t="s">
-        <v>281</v>
-      </c>
-      <c r="I43" s="98"/>
-      <c r="J43" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="K43" s="68"/>
+      <c r="F43" s="113" t="s">
+        <v>277</v>
+      </c>
+      <c r="G43" s="114" t="s">
+        <v>279</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="I43" s="114"/>
+      <c r="J43" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" s="116"/>
     </row>
     <row r="44" spans="3:11" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C44" s="17">
-        <v>35</v>
-      </c>
-      <c r="D44" s="95" t="s">
+      <c r="C44" s="123">
+        <v>40</v>
+      </c>
+      <c r="D44" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="96" t="s">
+      <c r="E44" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="G44" s="98" t="s">
-        <v>289</v>
-      </c>
-      <c r="H44" s="98" t="s">
-        <v>290</v>
-      </c>
-      <c r="I44" s="98"/>
-      <c r="J44" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="K44" s="100" t="s">
-        <v>334</v>
+      <c r="F44" s="113" t="s">
+        <v>285</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>286</v>
+      </c>
+      <c r="H44" s="114" t="s">
+        <v>287</v>
+      </c>
+      <c r="I44" s="114"/>
+      <c r="J44" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="K44" s="116" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="57" x14ac:dyDescent="0.15">
-      <c r="C45" s="17">
-        <v>35</v>
-      </c>
-      <c r="D45" s="95" t="s">
+      <c r="C45" s="123">
+        <v>41</v>
+      </c>
+      <c r="D45" s="111" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="E45" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="97" t="s">
-        <v>343</v>
-      </c>
-      <c r="G45" s="151" t="s">
-        <v>344</v>
-      </c>
-      <c r="H45" s="151" t="s">
-        <v>345</v>
-      </c>
-      <c r="I45" s="151"/>
-      <c r="J45" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="K45" s="100"/>
-    </row>
-    <row r="46" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F45" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="G45" s="114" t="s">
+        <v>340</v>
+      </c>
+      <c r="H45" s="114" t="s">
+        <v>341</v>
+      </c>
+      <c r="I45" s="114"/>
+      <c r="J45" s="112" t="s">
+        <v>268</v>
+      </c>
+      <c r="K45" s="116"/>
+    </row>
+    <row r="46" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C46" s="17">
         <v>35</v>
       </c>
@@ -7586,7 +7591,7 @@
       <c r="J46" s="13"/>
       <c r="K46" s="68"/>
     </row>
-    <row r="47" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="47" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C47" s="17">
         <v>35</v>
       </c>
@@ -7599,7 +7604,7 @@
       <c r="J47" s="13"/>
       <c r="K47" s="68"/>
     </row>
-    <row r="48" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="48" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C48" s="17">
         <v>35</v>
       </c>
@@ -7612,7 +7617,7 @@
       <c r="J48" s="13"/>
       <c r="K48" s="68"/>
     </row>
-    <row r="49" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C49" s="17">
         <v>35</v>
       </c>
@@ -7625,7 +7630,7 @@
       <c r="J49" s="13"/>
       <c r="K49" s="68"/>
     </row>
-    <row r="50" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C50" s="17">
         <v>35</v>
       </c>
@@ -7638,7 +7643,7 @@
       <c r="J50" s="13"/>
       <c r="K50" s="68"/>
     </row>
-    <row r="51" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C51" s="17">
         <v>35</v>
       </c>
@@ -7651,7 +7656,7 @@
       <c r="J51" s="13"/>
       <c r="K51" s="68"/>
     </row>
-    <row r="52" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C52" s="17">
         <v>35</v>
       </c>
@@ -7664,7 +7669,7 @@
       <c r="J52" s="13"/>
       <c r="K52" s="68"/>
     </row>
-    <row r="53" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C53" s="17">
         <v>35</v>
       </c>
@@ -7677,7 +7682,7 @@
       <c r="J53" s="13"/>
       <c r="K53" s="68"/>
     </row>
-    <row r="54" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C54" s="17">
         <v>35</v>
       </c>
@@ -7690,7 +7695,7 @@
       <c r="J54" s="13"/>
       <c r="K54" s="68"/>
     </row>
-    <row r="55" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C55" s="17">
         <v>35</v>
       </c>
@@ -7703,7 +7708,7 @@
       <c r="J55" s="13"/>
       <c r="K55" s="68"/>
     </row>
-    <row r="56" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C56" s="17">
         <v>35</v>
       </c>
@@ -7716,7 +7721,7 @@
       <c r="J56" s="13"/>
       <c r="K56" s="68"/>
     </row>
-    <row r="57" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C57" s="17">
         <v>35</v>
       </c>
@@ -7729,7 +7734,7 @@
       <c r="J57" s="13"/>
       <c r="K57" s="68"/>
     </row>
-    <row r="58" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C58" s="17">
         <v>35</v>
       </c>
@@ -7742,7 +7747,7 @@
       <c r="J58" s="13"/>
       <c r="K58" s="68"/>
     </row>
-    <row r="59" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C59" s="17">
         <v>35</v>
       </c>
@@ -7755,7 +7760,7 @@
       <c r="J59" s="13"/>
       <c r="K59" s="68"/>
     </row>
-    <row r="60" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C60" s="17">
         <v>35</v>
       </c>
@@ -7768,7 +7773,7 @@
       <c r="J60" s="13"/>
       <c r="K60" s="68"/>
     </row>
-    <row r="61" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C61" s="17">
         <v>35</v>
       </c>
@@ -7781,7 +7786,7 @@
       <c r="J61" s="13"/>
       <c r="K61" s="68"/>
     </row>
-    <row r="62" spans="3:11" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C62" s="17">
         <v>35</v>
       </c>
@@ -7796,12 +7801,6 @@
     </row>
   </sheetData>
   <autoFilter ref="B5:K62">
-    <filterColumn colId="7">
-      <filters blank="1">
-        <dateGroupItem year="2015" month="6" day="11" dateTimeGrouping="day"/>
-        <dateGroupItem year="2015" month="6" day="16" dateTimeGrouping="day"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="8">
       <filters>
         <filter val="未修复"/>
@@ -7846,188 +7845,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="149" t="s">
-        <v>333</v>
+      <c r="A1" s="146" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="149">
+      <c r="A2" s="146">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="141" t="s">
+      <c r="B3" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="138" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="E3" s="138" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="141" t="s">
+      <c r="F3" s="138" t="s">
         <v>299</v>
       </c>
-      <c r="D3" s="141" t="s">
+      <c r="G3" s="138" t="s">
         <v>300</v>
       </c>
-      <c r="E3" s="141" t="s">
+      <c r="H3" s="139" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="151" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="140" t="s">
+        <v>316</v>
+      </c>
+      <c r="D4" s="141" t="s">
         <v>301</v>
       </c>
-      <c r="F3" s="141" t="s">
+      <c r="E4" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="G3" s="141" t="s">
+      <c r="F4" s="148" t="s">
         <v>303</v>
       </c>
-      <c r="H3" s="142" t="s">
+      <c r="G4" s="141" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" s="153" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="156" t="s">
+    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="152"/>
+      <c r="C5" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>301</v>
+      </c>
+      <c r="E5" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="148"/>
+      <c r="G5" s="141" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="154"/>
+    </row>
+    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="143" t="s">
+        <v>307</v>
+      </c>
+      <c r="C6" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="D6" s="141" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="142" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="148"/>
+      <c r="G6" s="142" t="s">
+        <v>308</v>
+      </c>
+      <c r="H6" s="144" t="s">
         <v>318</v>
       </c>
-      <c r="C4" s="143" t="s">
+    </row>
+    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="148" t="s">
         <v>319</v>
       </c>
-      <c r="D4" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="E4" s="145" t="s">
+      <c r="C7" s="148" t="s">
         <v>305</v>
       </c>
-      <c r="F4" s="153" t="s">
-        <v>306</v>
-      </c>
-      <c r="G4" s="144" t="s">
-        <v>307</v>
-      </c>
-      <c r="H4" s="158" t="s">
+      <c r="D7" s="148" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="155" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="148"/>
+      <c r="G7" s="140" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="157"/>
-      <c r="C5" s="143" t="s">
-        <v>308</v>
-      </c>
-      <c r="D5" s="144" t="s">
-        <v>304</v>
-      </c>
-      <c r="E5" s="145" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="153"/>
-      <c r="G5" s="144" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" s="159"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="146" t="s">
-        <v>310</v>
-      </c>
-      <c r="C6" s="145" t="s">
+      <c r="H7" s="141"/>
+    </row>
+    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="140" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8" s="141"/>
+    </row>
+    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="143" t="s">
+        <v>322</v>
+      </c>
+      <c r="C9" s="143" t="s">
+        <v>323</v>
+      </c>
+      <c r="D9" s="141" t="s">
+        <v>324</v>
+      </c>
+      <c r="E9" s="142" t="s">
         <v>311</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="F9" s="148"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="145" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B10" s="148" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" s="148" t="s">
+        <v>323</v>
+      </c>
+      <c r="D10" s="148" t="s">
         <v>312</v>
       </c>
-      <c r="E6" s="145" t="s">
-        <v>305</v>
-      </c>
-      <c r="F6" s="153"/>
-      <c r="G6" s="145" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="147" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="153" t="s">
-        <v>322</v>
-      </c>
-      <c r="C7" s="153" t="s">
-        <v>308</v>
-      </c>
-      <c r="D7" s="153" t="s">
+      <c r="E10" s="148" t="s">
         <v>313</v>
       </c>
-      <c r="E7" s="160" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="153"/>
-      <c r="G7" s="143" t="s">
-        <v>323</v>
-      </c>
-      <c r="H7" s="144"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="153"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="143" t="s">
-        <v>324</v>
-      </c>
-      <c r="H8" s="144"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="146" t="s">
-        <v>325</v>
-      </c>
-      <c r="C9" s="146" t="s">
-        <v>326</v>
-      </c>
-      <c r="D9" s="144" t="s">
+      <c r="F10" s="148"/>
+      <c r="G10" s="140" t="s">
         <v>327</v>
       </c>
-      <c r="E9" s="145" t="s">
-        <v>314</v>
-      </c>
-      <c r="F9" s="153"/>
-      <c r="G9" s="143"/>
-      <c r="H9" s="148" t="s">
+      <c r="H10" s="141"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="148"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="148"/>
+      <c r="G11" s="140" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="153" t="s">
+      <c r="H11" s="141"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B12" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="C10" s="153" t="s">
-        <v>326</v>
-      </c>
-      <c r="D10" s="153" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" s="153" t="s">
-        <v>316</v>
-      </c>
-      <c r="F10" s="153"/>
-      <c r="G10" s="143" t="s">
-        <v>330</v>
-      </c>
-      <c r="H10" s="144"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="153"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="153"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="143" t="s">
-        <v>331</v>
-      </c>
-      <c r="H11" s="144"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="154" t="s">
-        <v>332</v>
-      </c>
-      <c r="C12" s="155"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="155"/>
-      <c r="F12" s="155"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="150"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="150"/>
+      <c r="H12" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bug!$B$5:$K$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$L$167</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">需求!$B$5:$L$164</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -2148,7 +2148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2404,12 +2404,8 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2496,9 +2492,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2547,6 +2540,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2569,16 +2572,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2886,10 +2879,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A2:R167"/>
+  <dimension ref="A2:R164"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2903,8 +2896,8 @@
     <col min="7" max="7" width="45.875" customWidth="1"/>
     <col min="8" max="8" width="26.25" style="20" customWidth="1"/>
     <col min="9" max="9" width="15.375" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="134" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.25" style="135" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="131" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.25" style="132" customWidth="1"/>
     <col min="13" max="13" width="6" style="89" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2912,21 +2905,21 @@
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="158"/>
+      <c r="B2" s="147"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="158"/>
+      <c r="B3" s="147"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="148" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3015,7 +3008,7 @@
       <c r="G7" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="H7" s="109"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="94">
         <v>42166</v>
       </c>
@@ -3721,7 +3714,7 @@
         <v>123</v>
       </c>
       <c r="H29" s="15"/>
-      <c r="I29" s="118">
+      <c r="I29" s="116">
         <v>42158</v>
       </c>
       <c r="J29" s="88">
@@ -3903,28 +3896,28 @@
       <c r="B35" s="39">
         <v>31</v>
       </c>
-      <c r="C35" s="110">
-        <v>2</v>
-      </c>
-      <c r="D35" s="112" t="s">
+      <c r="C35" s="108">
+        <v>2</v>
+      </c>
+      <c r="D35" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="111" t="s">
         <v>163</v>
       </c>
-      <c r="G35" s="117" t="s">
+      <c r="G35" s="115" t="s">
         <v>164</v>
       </c>
-      <c r="H35" s="114"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="88"/>
       <c r="J35" s="88">
         <v>0</v>
       </c>
-      <c r="K35" s="119"/>
-      <c r="L35" s="120" t="s">
+      <c r="K35" s="117"/>
+      <c r="L35" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3965,28 +3958,28 @@
       <c r="B37" s="39">
         <v>33</v>
       </c>
-      <c r="C37" s="110">
-        <v>2</v>
-      </c>
-      <c r="D37" s="112" t="s">
+      <c r="C37" s="108">
+        <v>2</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="111" t="s">
         <v>187</v>
       </c>
-      <c r="G37" s="117" t="s">
+      <c r="G37" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="H37" s="114"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="88"/>
       <c r="J37" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="K37" s="119"/>
-      <c r="L37" s="120" t="s">
+      <c r="K37" s="117"/>
+      <c r="L37" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3994,32 +3987,32 @@
       <c r="B38" s="39">
         <v>34</v>
       </c>
-      <c r="C38" s="110">
-        <v>2</v>
-      </c>
-      <c r="D38" s="112" t="s">
+      <c r="C38" s="108">
+        <v>2</v>
+      </c>
+      <c r="D38" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="113" t="s">
+      <c r="F38" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="G38" s="117" t="s">
+      <c r="G38" s="115" t="s">
         <v>212</v>
       </c>
-      <c r="H38" s="114" t="s">
+      <c r="H38" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="I38" s="118">
+      <c r="I38" s="116">
         <v>42166</v>
       </c>
       <c r="J38" s="88">
         <v>0.4</v>
       </c>
-      <c r="K38" s="119"/>
-      <c r="L38" s="120" t="s">
+      <c r="K38" s="117"/>
+      <c r="L38" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4027,61 +4020,61 @@
       <c r="B39" s="39">
         <v>35</v>
       </c>
-      <c r="C39" s="110">
-        <v>2</v>
-      </c>
-      <c r="D39" s="112" t="s">
+      <c r="C39" s="108">
+        <v>2</v>
+      </c>
+      <c r="D39" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="G39" s="117" t="s">
+      <c r="G39" s="115" t="s">
         <v>196</v>
       </c>
-      <c r="H39" s="114" t="s">
+      <c r="H39" s="112" t="s">
         <v>197</v>
       </c>
       <c r="I39" s="88"/>
       <c r="J39" s="88">
         <v>0</v>
       </c>
-      <c r="K39" s="119" t="s">
+      <c r="K39" s="117" t="s">
         <v>198</v>
       </c>
-      <c r="L39" s="120"/>
+      <c r="L39" s="118"/>
     </row>
     <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
       <c r="B40" s="39">
         <v>36</v>
       </c>
-      <c r="C40" s="110">
-        <v>2</v>
-      </c>
-      <c r="D40" s="111" t="s">
+      <c r="C40" s="108">
+        <v>2</v>
+      </c>
+      <c r="D40" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E40" s="111" t="s">
+      <c r="E40" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="121" t="s">
+      <c r="F40" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="122" t="s">
+      <c r="G40" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="156" t="s">
+      <c r="H40" s="145" t="s">
         <v>334</v>
       </c>
       <c r="I40" s="88"/>
-      <c r="J40" s="133">
+      <c r="J40" s="130">
         <v>0.2</v>
       </c>
-      <c r="K40" s="136"/>
-      <c r="L40" s="120" t="s">
+      <c r="K40" s="133"/>
+      <c r="L40" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4089,32 +4082,32 @@
       <c r="B41" s="39">
         <v>37</v>
       </c>
-      <c r="C41" s="110">
-        <v>2</v>
-      </c>
-      <c r="D41" s="112" t="s">
+      <c r="C41" s="108">
+        <v>2</v>
+      </c>
+      <c r="D41" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="117" t="s">
+      <c r="G41" s="115" t="s">
         <v>213</v>
       </c>
-      <c r="H41" s="114" t="s">
+      <c r="H41" s="112" t="s">
         <v>240</v>
       </c>
-      <c r="I41" s="118">
+      <c r="I41" s="116">
         <v>42166</v>
       </c>
       <c r="J41" s="88">
         <v>0.1</v>
       </c>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120" t="s">
+      <c r="K41" s="117"/>
+      <c r="L41" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4122,7 +4115,7 @@
       <c r="B42" s="39">
         <v>38</v>
       </c>
-      <c r="C42" s="110">
+      <c r="C42" s="108">
         <v>2</v>
       </c>
       <c r="D42" s="96" t="s">
@@ -4134,16 +4127,16 @@
       <c r="F42" s="97" t="s">
         <v>342</v>
       </c>
-      <c r="G42" s="130" t="s">
+      <c r="G42" s="128" t="s">
         <v>343</v>
       </c>
-      <c r="H42" s="147" t="s">
+      <c r="H42" s="144" t="s">
         <v>345</v>
       </c>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
-      <c r="K42" s="119"/>
-      <c r="L42" s="120" t="s">
+      <c r="K42" s="117"/>
+      <c r="L42" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4151,28 +4144,28 @@
       <c r="B43" s="39">
         <v>39</v>
       </c>
-      <c r="C43" s="110">
-        <v>2</v>
-      </c>
-      <c r="D43" s="112" t="s">
+      <c r="C43" s="108">
+        <v>2</v>
+      </c>
+      <c r="D43" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F43" s="113" t="s">
+      <c r="F43" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="G43" s="117" t="s">
+      <c r="G43" s="115" t="s">
         <v>204</v>
       </c>
-      <c r="H43" s="114"/>
+      <c r="H43" s="112"/>
       <c r="I43" s="88"/>
       <c r="J43" s="88">
         <v>0.2</v>
       </c>
-      <c r="K43" s="119"/>
-      <c r="L43" s="120" t="s">
+      <c r="K43" s="117"/>
+      <c r="L43" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4180,28 +4173,28 @@
       <c r="B44" s="39">
         <v>40</v>
       </c>
-      <c r="C44" s="110">
-        <v>2</v>
-      </c>
-      <c r="D44" s="125" t="s">
+      <c r="C44" s="108">
+        <v>2</v>
+      </c>
+      <c r="D44" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="E44" s="124" t="s">
+      <c r="E44" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="125" t="s">
+      <c r="F44" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="G44" s="129" t="s">
+      <c r="G44" s="127" t="s">
         <v>209</v>
       </c>
-      <c r="H44" s="126" t="s">
+      <c r="H44" s="124" t="s">
         <v>208</v>
       </c>
       <c r="I44" s="88"/>
       <c r="J44" s="88"/>
-      <c r="K44" s="119"/>
-      <c r="L44" s="120" t="s">
+      <c r="K44" s="117"/>
+      <c r="L44" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4209,32 +4202,32 @@
       <c r="B45" s="39">
         <v>41</v>
       </c>
-      <c r="C45" s="110">
-        <v>2</v>
-      </c>
-      <c r="D45" s="112" t="s">
+      <c r="C45" s="108">
+        <v>2</v>
+      </c>
+      <c r="D45" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="111" t="s">
         <v>219</v>
       </c>
-      <c r="G45" s="117" t="s">
+      <c r="G45" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="H45" s="114" t="s">
+      <c r="H45" s="112" t="s">
         <v>344</v>
       </c>
       <c r="I45" s="88"/>
-      <c r="J45" s="137">
+      <c r="J45" s="134">
         <v>0.1</v>
       </c>
-      <c r="K45" s="136" t="s">
+      <c r="K45" s="133" t="s">
         <v>338</v>
       </c>
-      <c r="L45" s="120" t="s">
+      <c r="L45" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4242,30 +4235,30 @@
       <c r="B46" s="39">
         <v>42</v>
       </c>
-      <c r="C46" s="110">
-        <v>2</v>
-      </c>
-      <c r="D46" s="112" t="s">
+      <c r="C46" s="108">
+        <v>2</v>
+      </c>
+      <c r="D46" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="112" t="s">
+      <c r="E46" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="113" t="s">
+      <c r="F46" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="117" t="s">
+      <c r="G46" s="115" t="s">
         <v>220</v>
       </c>
-      <c r="H46" s="114"/>
-      <c r="I46" s="118">
+      <c r="H46" s="112"/>
+      <c r="I46" s="116">
         <v>42171</v>
       </c>
       <c r="J46" s="88">
         <v>0</v>
       </c>
-      <c r="K46" s="119"/>
-      <c r="L46" s="120" t="s">
+      <c r="K46" s="117"/>
+      <c r="L46" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4276,29 +4269,29 @@
       <c r="C47" s="17">
         <v>2</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E47" s="112" t="s">
+      <c r="E47" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="113" t="s">
+      <c r="F47" s="111" t="s">
         <v>241</v>
       </c>
-      <c r="G47" s="117" t="s">
+      <c r="G47" s="115" t="s">
         <v>256</v>
       </c>
-      <c r="H47" s="114" t="s">
+      <c r="H47" s="112" t="s">
         <v>254</v>
       </c>
-      <c r="I47" s="118">
+      <c r="I47" s="116">
         <v>42173</v>
       </c>
       <c r="J47" s="88">
         <v>0.05</v>
       </c>
-      <c r="K47" s="119"/>
-      <c r="L47" s="120" t="s">
+      <c r="K47" s="117"/>
+      <c r="L47" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4306,28 +4299,28 @@
       <c r="B48" s="39">
         <v>44</v>
       </c>
-      <c r="C48" s="110">
-        <v>2</v>
-      </c>
-      <c r="D48" s="112" t="s">
+      <c r="C48" s="108">
+        <v>2</v>
+      </c>
+      <c r="D48" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E48" s="112" t="s">
+      <c r="E48" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="113" t="s">
+      <c r="F48" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="G48" s="117" t="s">
+      <c r="G48" s="115" t="s">
         <v>243</v>
       </c>
-      <c r="H48" s="114" t="s">
+      <c r="H48" s="112" t="s">
         <v>244</v>
       </c>
       <c r="I48" s="88"/>
       <c r="J48" s="88"/>
-      <c r="K48" s="119"/>
-      <c r="L48" s="120" t="s">
+      <c r="K48" s="117"/>
+      <c r="L48" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4338,29 +4331,29 @@
       <c r="C49" s="17">
         <v>2</v>
       </c>
-      <c r="D49" s="112" t="s">
+      <c r="D49" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="112" t="s">
+      <c r="E49" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="113" t="s">
+      <c r="F49" s="111" t="s">
         <v>245</v>
       </c>
-      <c r="G49" s="117" t="s">
+      <c r="G49" s="115" t="s">
         <v>255</v>
       </c>
-      <c r="H49" s="114" t="s">
+      <c r="H49" s="112" t="s">
         <v>246</v>
       </c>
-      <c r="I49" s="118">
+      <c r="I49" s="116">
         <v>42173</v>
       </c>
       <c r="J49" s="88">
         <v>0.01</v>
       </c>
-      <c r="K49" s="119"/>
-      <c r="L49" s="120" t="s">
+      <c r="K49" s="117"/>
+      <c r="L49" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4368,30 +4361,30 @@
       <c r="B50" s="39">
         <v>46</v>
       </c>
-      <c r="C50" s="110">
-        <v>2</v>
-      </c>
-      <c r="D50" s="112" t="s">
+      <c r="C50" s="108">
+        <v>2</v>
+      </c>
+      <c r="D50" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="112" t="s">
+      <c r="E50" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F50" s="113" t="s">
+      <c r="F50" s="111" t="s">
         <v>288</v>
       </c>
-      <c r="G50" s="117" t="s">
+      <c r="G50" s="115" t="s">
         <v>290</v>
       </c>
-      <c r="H50" s="114" t="s">
+      <c r="H50" s="112" t="s">
         <v>294</v>
       </c>
       <c r="I50" s="88"/>
-      <c r="J50" s="133">
+      <c r="J50" s="130">
         <v>0.15</v>
       </c>
-      <c r="K50" s="136"/>
-      <c r="L50" s="120" t="s">
+      <c r="K50" s="133"/>
+      <c r="L50" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4399,32 +4392,32 @@
       <c r="B51" s="39">
         <v>46</v>
       </c>
-      <c r="C51" s="110">
-        <v>2</v>
-      </c>
-      <c r="D51" s="112" t="s">
+      <c r="C51" s="108">
+        <v>2</v>
+      </c>
+      <c r="D51" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E51" s="112" t="s">
+      <c r="E51" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F51" s="113" t="s">
+      <c r="F51" s="111" t="s">
         <v>289</v>
       </c>
-      <c r="G51" s="117" t="s">
+      <c r="G51" s="115" t="s">
         <v>293</v>
       </c>
-      <c r="H51" s="114" t="s">
+      <c r="H51" s="112" t="s">
         <v>291</v>
       </c>
       <c r="I51" s="88"/>
-      <c r="J51" s="133">
+      <c r="J51" s="130">
         <v>0.25</v>
       </c>
-      <c r="K51" s="136" t="s">
+      <c r="K51" s="133" t="s">
         <v>292</v>
       </c>
-      <c r="L51" s="120" t="s">
+      <c r="L51" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4435,25 +4428,25 @@
       <c r="C52" s="17">
         <v>2</v>
       </c>
-      <c r="D52" s="112" t="s">
+      <c r="D52" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E52" s="112" t="s">
+      <c r="E52" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="113" t="s">
+      <c r="F52" s="111" t="s">
         <v>247</v>
       </c>
-      <c r="G52" s="117" t="s">
+      <c r="G52" s="115" t="s">
         <v>248</v>
       </c>
-      <c r="H52" s="114"/>
+      <c r="H52" s="112"/>
       <c r="I52" s="88"/>
-      <c r="J52" s="133">
+      <c r="J52" s="130">
         <v>0</v>
       </c>
-      <c r="K52" s="136"/>
-      <c r="L52" s="120" t="s">
+      <c r="K52" s="133"/>
+      <c r="L52" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4464,29 +4457,29 @@
       <c r="C53" s="17">
         <v>2</v>
       </c>
-      <c r="D53" s="112" t="s">
+      <c r="D53" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="112" t="s">
+      <c r="E53" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="113" t="s">
+      <c r="F53" s="111" t="s">
         <v>249</v>
       </c>
-      <c r="G53" s="117" t="s">
+      <c r="G53" s="115" t="s">
         <v>250</v>
       </c>
-      <c r="H53" s="114" t="s">
+      <c r="H53" s="112" t="s">
         <v>336</v>
       </c>
       <c r="I53" s="88"/>
-      <c r="J53" s="133">
+      <c r="J53" s="130">
         <v>0.1</v>
       </c>
-      <c r="K53" s="136" t="s">
+      <c r="K53" s="133" t="s">
         <v>335</v>
       </c>
-      <c r="L53" s="120" t="s">
+      <c r="L53" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4506,7 +4499,7 @@
       <c r="F54" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="G54" s="130" t="s">
+      <c r="G54" s="128" t="s">
         <v>252</v>
       </c>
       <c r="H54" s="98" t="s">
@@ -4515,7 +4508,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="88"/>
       <c r="K54" s="21"/>
-      <c r="L54" s="132" t="s">
+      <c r="L54" s="129" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4523,30 +4516,30 @@
       <c r="B55" s="39">
         <v>50</v>
       </c>
-      <c r="C55" s="110">
-        <v>2</v>
-      </c>
-      <c r="D55" s="112" t="s">
+      <c r="C55" s="108">
+        <v>2</v>
+      </c>
+      <c r="D55" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E55" s="112" t="s">
+      <c r="E55" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="113" t="s">
+      <c r="F55" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="G55" s="115" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="114" t="s">
+      <c r="H55" s="112" t="s">
         <v>264</v>
       </c>
-      <c r="I55" s="118">
+      <c r="I55" s="116">
         <v>42177</v>
       </c>
       <c r="J55" s="88"/>
-      <c r="K55" s="119"/>
-      <c r="L55" s="120" t="s">
+      <c r="K55" s="117"/>
+      <c r="L55" s="118" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4554,28 +4547,28 @@
       <c r="B56" s="39">
         <v>51</v>
       </c>
-      <c r="C56" s="110">
-        <v>2</v>
-      </c>
-      <c r="D56" s="112" t="s">
+      <c r="C56" s="108">
+        <v>2</v>
+      </c>
+      <c r="D56" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="E56" s="112" t="s">
+      <c r="E56" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="113" t="s">
+      <c r="F56" s="111" t="s">
         <v>274</v>
       </c>
-      <c r="G56" s="117" t="s">
+      <c r="G56" s="115" t="s">
         <v>275</v>
       </c>
-      <c r="H56" s="114"/>
+      <c r="H56" s="112"/>
       <c r="I56" s="88"/>
-      <c r="J56" s="133">
+      <c r="J56" s="130">
         <v>0</v>
       </c>
-      <c r="K56" s="136"/>
-      <c r="L56" s="120" t="s">
+      <c r="K56" s="133"/>
+      <c r="L56" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4583,28 +4576,28 @@
       <c r="B57" s="39">
         <v>52</v>
       </c>
-      <c r="C57" s="110">
-        <v>2</v>
-      </c>
-      <c r="D57" s="112" t="s">
+      <c r="C57" s="108">
+        <v>2</v>
+      </c>
+      <c r="D57" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E57" s="112" t="s">
+      <c r="E57" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="113" t="s">
+      <c r="F57" s="111" t="s">
         <v>281</v>
       </c>
-      <c r="G57" s="117" t="s">
+      <c r="G57" s="115" t="s">
         <v>332</v>
       </c>
-      <c r="H57" s="114"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="157">
+      <c r="H57" s="112"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="146">
         <v>0.1</v>
       </c>
-      <c r="K57" s="136"/>
-      <c r="L57" s="120" t="s">
+      <c r="K57" s="133"/>
+      <c r="L57" s="118" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4612,133 +4605,145 @@
       <c r="B58" s="39">
         <v>53</v>
       </c>
-      <c r="C58" s="110">
-        <v>2</v>
-      </c>
-      <c r="D58" s="112" t="s">
+      <c r="C58" s="108">
+        <v>2</v>
+      </c>
+      <c r="D58" s="110" t="s">
         <v>19</v>
       </c>
-      <c r="E58" s="112" t="s">
+      <c r="E58" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="113" t="s">
+      <c r="F58" s="111" t="s">
         <v>282</v>
       </c>
-      <c r="G58" s="117" t="s">
+      <c r="G58" s="115" t="s">
         <v>333</v>
       </c>
-      <c r="H58" s="114"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="133">
+      <c r="H58" s="112"/>
+      <c r="I58" s="116"/>
+      <c r="J58" s="130">
         <v>0.1</v>
       </c>
-      <c r="K58" s="136"/>
-      <c r="L58" s="120" t="s">
+      <c r="K58" s="133"/>
+      <c r="L58" s="118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="39"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="112"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="113"/>
-      <c r="G59" s="117"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="88"/>
-      <c r="K59" s="119"/>
-      <c r="L59" s="120"/>
-    </row>
-    <row r="60" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B60" s="39"/>
-      <c r="C60" s="110"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="113"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="114"/>
-      <c r="I60" s="118"/>
-      <c r="J60" s="88"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="120"/>
+    <row r="59" spans="2:12" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="B59" s="39">
+        <v>54</v>
+      </c>
+      <c r="C59" s="108">
+        <v>2</v>
+      </c>
+      <c r="D59" s="110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="111" t="s">
+        <v>272</v>
+      </c>
+      <c r="G59" s="115" t="s">
+        <v>276</v>
+      </c>
+      <c r="H59" s="112" t="s">
+        <v>273</v>
+      </c>
+      <c r="I59" s="88"/>
+      <c r="J59" s="130">
+        <v>0.35</v>
+      </c>
+      <c r="K59" s="133"/>
+      <c r="L59" s="118" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="B60" s="39">
+        <v>55</v>
+      </c>
+      <c r="C60" s="108">
+        <v>2</v>
+      </c>
+      <c r="D60" s="110" t="s">
+        <v>24</v>
+      </c>
+      <c r="E60" s="110" t="s">
+        <v>134</v>
+      </c>
+      <c r="F60" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="G60" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="H60" s="112"/>
+      <c r="I60" s="88"/>
+      <c r="J60" s="130">
+        <v>0.1</v>
+      </c>
+      <c r="K60" s="133"/>
+      <c r="L60" s="118" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="61" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B61" s="39"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="96"/>
-      <c r="E61" s="96"/>
-      <c r="F61" s="97"/>
-      <c r="G61" s="130"/>
-      <c r="H61" s="98"/>
-      <c r="I61" s="99"/>
-      <c r="J61" s="99"/>
-      <c r="K61" s="131"/>
-      <c r="L61" s="132"/>
-    </row>
-    <row r="62" spans="2:12" ht="128.25" x14ac:dyDescent="0.15">
+      <c r="B61" s="39">
+        <v>53</v>
+      </c>
+      <c r="C61" s="17">
+        <v>2</v>
+      </c>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="88"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="16"/>
+    </row>
+    <row r="62" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B62" s="39">
         <v>54</v>
       </c>
-      <c r="C62" s="110">
-        <v>2</v>
-      </c>
-      <c r="D62" s="112" t="s">
-        <v>19</v>
-      </c>
-      <c r="E62" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="113" t="s">
-        <v>272</v>
-      </c>
-      <c r="G62" s="117" t="s">
-        <v>276</v>
-      </c>
-      <c r="H62" s="114" t="s">
-        <v>273</v>
-      </c>
-      <c r="I62" s="88"/>
-      <c r="J62" s="133">
-        <v>0.35</v>
-      </c>
-      <c r="K62" s="136"/>
-      <c r="L62" s="120" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="C62" s="17">
+        <v>2</v>
+      </c>
+      <c r="D62" s="13"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="88"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="16"/>
+    </row>
+    <row r="63" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B63" s="39">
         <v>55</v>
       </c>
-      <c r="C63" s="110">
-        <v>2</v>
-      </c>
-      <c r="D63" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="E63" s="112" t="s">
-        <v>134</v>
-      </c>
-      <c r="F63" s="113" t="s">
-        <v>283</v>
-      </c>
-      <c r="G63" s="117" t="s">
-        <v>284</v>
-      </c>
-      <c r="H63" s="114"/>
-      <c r="I63" s="88"/>
-      <c r="J63" s="133">
-        <v>0.1</v>
-      </c>
-      <c r="K63" s="136"/>
-      <c r="L63" s="120" t="s">
-        <v>18</v>
-      </c>
+      <c r="C63" s="17">
+        <v>2</v>
+      </c>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="88"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="16"/>
     </row>
     <row r="64" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B64" s="39">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C64" s="17">
         <v>2</v>
@@ -4755,7 +4760,7 @@
     </row>
     <row r="65" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B65" s="39">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C65" s="17">
         <v>2</v>
@@ -4772,7 +4777,7 @@
     </row>
     <row r="66" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B66" s="39">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C66" s="17">
         <v>2</v>
@@ -4789,7 +4794,7 @@
     </row>
     <row r="67" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B67" s="39">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C67" s="17">
         <v>2</v>
@@ -4806,7 +4811,7 @@
     </row>
     <row r="68" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B68" s="39">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C68" s="17">
         <v>2</v>
@@ -4823,7 +4828,7 @@
     </row>
     <row r="69" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B69" s="39">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C69" s="17">
         <v>2</v>
@@ -4840,7 +4845,7 @@
     </row>
     <row r="70" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B70" s="39">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C70" s="17">
         <v>2</v>
@@ -4857,7 +4862,7 @@
     </row>
     <row r="71" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B71" s="39">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C71" s="17">
         <v>2</v>
@@ -4874,7 +4879,7 @@
     </row>
     <row r="72" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B72" s="39">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C72" s="17">
         <v>2</v>
@@ -4891,7 +4896,7 @@
     </row>
     <row r="73" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B73" s="39">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C73" s="17">
         <v>2</v>
@@ -4908,7 +4913,7 @@
     </row>
     <row r="74" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B74" s="39">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C74" s="17">
         <v>2</v>
@@ -4925,7 +4930,7 @@
     </row>
     <row r="75" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B75" s="39">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C75" s="17">
         <v>2</v>
@@ -4942,7 +4947,7 @@
     </row>
     <row r="76" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B76" s="39">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C76" s="17">
         <v>2</v>
@@ -4959,7 +4964,7 @@
     </row>
     <row r="77" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B77" s="39">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C77" s="17">
         <v>2</v>
@@ -4976,7 +4981,7 @@
     </row>
     <row r="78" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B78" s="39">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C78" s="17">
         <v>2</v>
@@ -4993,7 +4998,7 @@
     </row>
     <row r="79" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B79" s="39">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" s="17">
         <v>2</v>
@@ -5010,7 +5015,7 @@
     </row>
     <row r="80" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B80" s="39">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C80" s="17">
         <v>2</v>
@@ -5027,7 +5032,7 @@
     </row>
     <row r="81" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B81" s="39">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C81" s="17">
         <v>2</v>
@@ -5044,7 +5049,7 @@
     </row>
     <row r="82" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B82" s="39">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C82" s="17">
         <v>2</v>
@@ -5061,7 +5066,7 @@
     </row>
     <row r="83" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B83" s="39">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C83" s="17">
         <v>2</v>
@@ -5078,7 +5083,7 @@
     </row>
     <row r="84" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B84" s="39">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C84" s="17">
         <v>2</v>
@@ -5095,7 +5100,7 @@
     </row>
     <row r="85" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B85" s="39">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C85" s="17">
         <v>2</v>
@@ -5112,7 +5117,7 @@
     </row>
     <row r="86" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B86" s="39">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C86" s="17">
         <v>2</v>
@@ -5129,7 +5134,7 @@
     </row>
     <row r="87" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B87" s="39">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C87" s="17">
         <v>2</v>
@@ -5146,7 +5151,7 @@
     </row>
     <row r="88" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B88" s="39">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C88" s="17">
         <v>2</v>
@@ -5163,7 +5168,7 @@
     </row>
     <row r="89" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B89" s="39">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C89" s="17">
         <v>2</v>
@@ -5180,7 +5185,7 @@
     </row>
     <row r="90" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B90" s="39">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C90" s="17">
         <v>2</v>
@@ -5197,7 +5202,7 @@
     </row>
     <row r="91" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B91" s="39">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C91" s="17">
         <v>2</v>
@@ -5214,7 +5219,7 @@
     </row>
     <row r="92" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B92" s="39">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C92" s="17">
         <v>2</v>
@@ -5231,7 +5236,7 @@
     </row>
     <row r="93" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B93" s="39">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C93" s="17">
         <v>2</v>
@@ -5248,7 +5253,7 @@
     </row>
     <row r="94" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B94" s="39">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C94" s="17">
         <v>2</v>
@@ -5265,7 +5270,7 @@
     </row>
     <row r="95" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B95" s="39">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C95" s="17">
         <v>2</v>
@@ -5282,7 +5287,7 @@
     </row>
     <row r="96" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B96" s="39">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C96" s="17">
         <v>2</v>
@@ -5299,7 +5304,7 @@
     </row>
     <row r="97" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B97" s="39">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C97" s="17">
         <v>2</v>
@@ -5316,7 +5321,7 @@
     </row>
     <row r="98" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B98" s="39">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C98" s="17">
         <v>2</v>
@@ -5333,7 +5338,7 @@
     </row>
     <row r="99" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B99" s="39">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C99" s="17">
         <v>2</v>
@@ -5350,7 +5355,7 @@
     </row>
     <row r="100" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B100" s="39">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C100" s="17">
         <v>2</v>
@@ -5367,7 +5372,7 @@
     </row>
     <row r="101" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B101" s="39">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C101" s="17">
         <v>2</v>
@@ -5384,7 +5389,7 @@
     </row>
     <row r="102" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B102" s="39">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C102" s="17">
         <v>2</v>
@@ -5401,7 +5406,7 @@
     </row>
     <row r="103" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B103" s="39">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C103" s="17">
         <v>2</v>
@@ -5418,7 +5423,7 @@
     </row>
     <row r="104" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B104" s="39">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C104" s="17">
         <v>2</v>
@@ -5435,7 +5440,7 @@
     </row>
     <row r="105" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B105" s="39">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C105" s="17">
         <v>2</v>
@@ -5452,7 +5457,7 @@
     </row>
     <row r="106" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B106" s="39">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C106" s="17">
         <v>2</v>
@@ -5469,7 +5474,7 @@
     </row>
     <row r="107" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B107" s="39">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C107" s="17">
         <v>2</v>
@@ -5486,7 +5491,7 @@
     </row>
     <row r="108" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B108" s="39">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C108" s="17">
         <v>2</v>
@@ -5503,7 +5508,7 @@
     </row>
     <row r="109" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B109" s="39">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C109" s="17">
         <v>2</v>
@@ -5520,7 +5525,7 @@
     </row>
     <row r="110" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B110" s="39">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C110" s="17">
         <v>2</v>
@@ -5537,7 +5542,7 @@
     </row>
     <row r="111" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B111" s="39">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C111" s="17">
         <v>2</v>
@@ -5554,7 +5559,7 @@
     </row>
     <row r="112" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B112" s="39">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C112" s="17">
         <v>2</v>
@@ -5571,7 +5576,7 @@
     </row>
     <row r="113" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B113" s="39">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C113" s="17">
         <v>2</v>
@@ -5588,7 +5593,7 @@
     </row>
     <row r="114" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B114" s="39">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C114" s="17">
         <v>2</v>
@@ -5605,7 +5610,7 @@
     </row>
     <row r="115" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B115" s="39">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C115" s="17">
         <v>2</v>
@@ -5622,7 +5627,7 @@
     </row>
     <row r="116" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B116" s="39">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C116" s="17">
         <v>2</v>
@@ -5639,7 +5644,7 @@
     </row>
     <row r="117" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B117" s="39">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C117" s="17">
         <v>2</v>
@@ -5656,7 +5661,7 @@
     </row>
     <row r="118" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B118" s="39">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C118" s="17">
         <v>2</v>
@@ -5673,7 +5678,7 @@
     </row>
     <row r="119" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B119" s="39">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C119" s="17">
         <v>2</v>
@@ -5690,7 +5695,7 @@
     </row>
     <row r="120" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B120" s="39">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C120" s="17">
         <v>2</v>
@@ -5707,11 +5712,9 @@
     </row>
     <row r="121" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B121" s="39">
-        <v>110</v>
-      </c>
-      <c r="C121" s="17">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C121" s="17"/>
       <c r="D121" s="13"/>
       <c r="E121" s="13"/>
       <c r="F121" s="14"/>
@@ -5724,11 +5727,9 @@
     </row>
     <row r="122" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B122" s="39">
-        <v>111</v>
-      </c>
-      <c r="C122" s="17">
-        <v>2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C122" s="17"/>
       <c r="D122" s="13"/>
       <c r="E122" s="13"/>
       <c r="F122" s="14"/>
@@ -5741,11 +5742,9 @@
     </row>
     <row r="123" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B123" s="39">
-        <v>112</v>
-      </c>
-      <c r="C123" s="17">
-        <v>2</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C123" s="17"/>
       <c r="D123" s="13"/>
       <c r="E123" s="13"/>
       <c r="F123" s="14"/>
@@ -5758,7 +5757,7 @@
     </row>
     <row r="124" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B124" s="39">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C124" s="17"/>
       <c r="D124" s="13"/>
@@ -5773,7 +5772,7 @@
     </row>
     <row r="125" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B125" s="39">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C125" s="17"/>
       <c r="D125" s="13"/>
@@ -5788,7 +5787,7 @@
     </row>
     <row r="126" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B126" s="39">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C126" s="17"/>
       <c r="D126" s="13"/>
@@ -5803,7 +5802,7 @@
     </row>
     <row r="127" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B127" s="39">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C127" s="17"/>
       <c r="D127" s="13"/>
@@ -5818,7 +5817,7 @@
     </row>
     <row r="128" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B128" s="39">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C128" s="17"/>
       <c r="D128" s="13"/>
@@ -5833,7 +5832,7 @@
     </row>
     <row r="129" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B129" s="39">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C129" s="17"/>
       <c r="D129" s="13"/>
@@ -5848,7 +5847,7 @@
     </row>
     <row r="130" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B130" s="39">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="13"/>
@@ -5863,7 +5862,7 @@
     </row>
     <row r="131" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B131" s="39">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C131" s="17"/>
       <c r="D131" s="13"/>
@@ -5878,7 +5877,7 @@
     </row>
     <row r="132" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B132" s="39">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C132" s="17"/>
       <c r="D132" s="13"/>
@@ -5893,7 +5892,7 @@
     </row>
     <row r="133" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B133" s="39">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C133" s="17"/>
       <c r="D133" s="13"/>
@@ -5908,7 +5907,7 @@
     </row>
     <row r="134" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B134" s="39">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C134" s="17"/>
       <c r="D134" s="13"/>
@@ -5923,7 +5922,7 @@
     </row>
     <row r="135" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B135" s="39">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C135" s="17"/>
       <c r="D135" s="13"/>
@@ -5938,7 +5937,7 @@
     </row>
     <row r="136" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B136" s="39">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C136" s="17"/>
       <c r="D136" s="13"/>
@@ -5953,7 +5952,7 @@
     </row>
     <row r="137" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B137" s="39">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C137" s="17"/>
       <c r="D137" s="13"/>
@@ -5968,7 +5967,7 @@
     </row>
     <row r="138" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B138" s="39">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C138" s="17"/>
       <c r="D138" s="13"/>
@@ -5983,7 +5982,7 @@
     </row>
     <row r="139" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B139" s="39">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C139" s="17"/>
       <c r="D139" s="13"/>
@@ -5998,7 +5997,7 @@
     </row>
     <row r="140" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B140" s="39">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C140" s="17"/>
       <c r="D140" s="13"/>
@@ -6013,7 +6012,7 @@
     </row>
     <row r="141" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B141" s="39">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C141" s="17"/>
       <c r="D141" s="13"/>
@@ -6028,7 +6027,7 @@
     </row>
     <row r="142" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B142" s="39">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C142" s="17"/>
       <c r="D142" s="13"/>
@@ -6043,7 +6042,7 @@
     </row>
     <row r="143" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B143" s="39">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C143" s="17"/>
       <c r="D143" s="13"/>
@@ -6058,7 +6057,7 @@
     </row>
     <row r="144" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B144" s="39">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C144" s="17"/>
       <c r="D144" s="13"/>
@@ -6073,7 +6072,7 @@
     </row>
     <row r="145" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B145" s="39">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C145" s="17"/>
       <c r="D145" s="13"/>
@@ -6088,7 +6087,7 @@
     </row>
     <row r="146" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B146" s="39">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C146" s="17"/>
       <c r="D146" s="13"/>
@@ -6103,7 +6102,7 @@
     </row>
     <row r="147" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B147" s="39">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C147" s="17"/>
       <c r="D147" s="13"/>
@@ -6118,7 +6117,7 @@
     </row>
     <row r="148" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B148" s="39">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C148" s="17"/>
       <c r="D148" s="13"/>
@@ -6133,7 +6132,7 @@
     </row>
     <row r="149" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B149" s="39">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C149" s="17"/>
       <c r="D149" s="13"/>
@@ -6148,7 +6147,7 @@
     </row>
     <row r="150" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B150" s="39">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C150" s="17"/>
       <c r="D150" s="13"/>
@@ -6163,7 +6162,7 @@
     </row>
     <row r="151" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B151" s="39">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C151" s="17"/>
       <c r="D151" s="13"/>
@@ -6178,7 +6177,7 @@
     </row>
     <row r="152" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B152" s="39">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C152" s="17"/>
       <c r="D152" s="13"/>
@@ -6193,7 +6192,7 @@
     </row>
     <row r="153" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B153" s="39">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C153" s="17"/>
       <c r="D153" s="13"/>
@@ -6208,7 +6207,7 @@
     </row>
     <row r="154" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B154" s="39">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C154" s="17"/>
       <c r="D154" s="13"/>
@@ -6223,7 +6222,7 @@
     </row>
     <row r="155" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B155" s="39">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C155" s="17"/>
       <c r="D155" s="13"/>
@@ -6238,7 +6237,7 @@
     </row>
     <row r="156" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B156" s="39">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C156" s="17"/>
       <c r="D156" s="13"/>
@@ -6253,7 +6252,7 @@
     </row>
     <row r="157" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B157" s="39">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C157" s="17"/>
       <c r="D157" s="13"/>
@@ -6268,7 +6267,7 @@
     </row>
     <row r="158" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B158" s="39">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C158" s="17"/>
       <c r="D158" s="13"/>
@@ -6283,7 +6282,7 @@
     </row>
     <row r="159" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B159" s="39">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C159" s="17"/>
       <c r="D159" s="13"/>
@@ -6298,7 +6297,7 @@
     </row>
     <row r="160" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B160" s="39">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C160" s="17"/>
       <c r="D160" s="13"/>
@@ -6313,7 +6312,7 @@
     </row>
     <row r="161" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B161" s="39">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C161" s="17"/>
       <c r="D161" s="13"/>
@@ -6328,7 +6327,7 @@
     </row>
     <row r="162" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B162" s="39">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C162" s="17"/>
       <c r="D162" s="13"/>
@@ -6343,7 +6342,7 @@
     </row>
     <row r="163" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B163" s="39">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C163" s="17"/>
       <c r="D163" s="13"/>
@@ -6358,7 +6357,7 @@
     </row>
     <row r="164" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B164" s="39">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C164" s="17"/>
       <c r="D164" s="13"/>
@@ -6371,53 +6370,8 @@
       <c r="K164" s="21"/>
       <c r="L164" s="16"/>
     </row>
-    <row r="165" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B165" s="39">
-        <v>154</v>
-      </c>
-      <c r="C165" s="17"/>
-      <c r="D165" s="13"/>
-      <c r="E165" s="13"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="18"/>
-      <c r="H165" s="15"/>
-      <c r="I165" s="5"/>
-      <c r="J165" s="88"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="16"/>
-    </row>
-    <row r="166" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B166" s="39">
-        <v>155</v>
-      </c>
-      <c r="C166" s="17"/>
-      <c r="D166" s="13"/>
-      <c r="E166" s="13"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="18"/>
-      <c r="H166" s="15"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="88"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="16"/>
-    </row>
-    <row r="167" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B167" s="39">
-        <v>156</v>
-      </c>
-      <c r="C167" s="17"/>
-      <c r="D167" s="13"/>
-      <c r="E167" s="13"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="18"/>
-      <c r="H167" s="15"/>
-      <c r="I167" s="5"/>
-      <c r="J167" s="88"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="16"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B5:L167">
+  <autoFilter ref="B5:L164">
     <filterColumn colId="3">
       <filters blank="1">
         <filter val="高"/>
@@ -6425,20 +6379,20 @@
       </filters>
     </filterColumn>
     <filterColumn colId="10">
-      <filters blank="1">
+      <filters>
         <filter val="未开始"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43 D45:D166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D43 D45:D163">
       <formula1>"销售模块,计划模块,生产模块,代办事项,共通"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L166">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L163">
       <formula1>"未开始,开发中,验证中,挂起,完成"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E167">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E164">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6452,7 +6406,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
@@ -6827,85 +6781,85 @@
       <c r="K17" s="67"/>
     </row>
     <row r="18" spans="3:11" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="123">
+      <c r="C18" s="121">
         <v>14</v>
       </c>
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="124" t="s">
+      <c r="E18" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="125" t="s">
+      <c r="F18" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="G18" s="126" t="s">
+      <c r="G18" s="124" t="s">
         <v>151</v>
       </c>
-      <c r="H18" s="126" t="s">
+      <c r="H18" s="124" t="s">
         <v>108</v>
       </c>
-      <c r="I18" s="127" t="s">
+      <c r="I18" s="125" t="s">
         <v>171</v>
       </c>
-      <c r="J18" s="124" t="s">
+      <c r="J18" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="K18" s="128"/>
+      <c r="K18" s="126"/>
     </row>
     <row r="19" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C19" s="123">
+      <c r="C19" s="121">
         <v>15</v>
       </c>
-      <c r="D19" s="124" t="s">
+      <c r="D19" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="124" t="s">
+      <c r="E19" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="125" t="s">
+      <c r="F19" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="126" t="s">
+      <c r="G19" s="124" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="124" t="s">
         <v>175</v>
       </c>
-      <c r="I19" s="115">
+      <c r="I19" s="113">
         <v>42171</v>
       </c>
-      <c r="J19" s="124" t="s">
+      <c r="J19" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="128"/>
+      <c r="K19" s="126"/>
     </row>
     <row r="20" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C20" s="103">
+      <c r="C20" s="101">
         <v>16</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="104" t="s">
+      <c r="E20" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="105" t="s">
+      <c r="F20" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="106" t="s">
+      <c r="G20" s="104" t="s">
         <v>173</v>
       </c>
-      <c r="H20" s="106" t="s">
+      <c r="H20" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="I20" s="107" t="s">
+      <c r="I20" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="104" t="s">
+      <c r="J20" s="102" t="s">
         <v>166</v>
       </c>
-      <c r="K20" s="108" t="s">
+      <c r="K20" s="106" t="s">
         <v>170</v>
       </c>
     </row>
@@ -6935,34 +6889,34 @@
       <c r="K21" s="81"/>
     </row>
     <row r="22" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C22" s="123">
+      <c r="C22" s="121">
         <v>18</v>
       </c>
-      <c r="D22" s="124" t="s">
+      <c r="D22" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="125" t="s">
+      <c r="F22" s="123" t="s">
         <v>133</v>
       </c>
-      <c r="G22" s="126" t="s">
+      <c r="G22" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="H22" s="126" t="s">
+      <c r="H22" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="I22" s="127" t="s">
+      <c r="I22" s="125" t="s">
         <v>84</v>
       </c>
-      <c r="J22" s="124" t="s">
+      <c r="J22" s="122" t="s">
         <v>85</v>
       </c>
-      <c r="K22" s="128"/>
+      <c r="K22" s="126"/>
     </row>
     <row r="23" spans="3:11" ht="128.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C23" s="123">
+      <c r="C23" s="121">
         <v>19</v>
       </c>
       <c r="D23" s="38" t="s">
@@ -6989,7 +6943,7 @@
       </c>
     </row>
     <row r="24" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C24" s="123">
+      <c r="C24" s="121">
         <v>20</v>
       </c>
       <c r="D24" s="38" t="s">
@@ -7016,414 +6970,414 @@
       <c r="K24" s="68"/>
     </row>
     <row r="25" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C25" s="123">
+      <c r="C25" s="121">
         <v>21</v>
       </c>
-      <c r="D25" s="111" t="s">
+      <c r="D25" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="112" t="s">
+      <c r="E25" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="113" t="s">
+      <c r="F25" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="G25" s="114" t="s">
+      <c r="G25" s="112" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="112" t="s">
         <v>157</v>
       </c>
-      <c r="I25" s="115">
+      <c r="I25" s="113">
         <v>42166</v>
       </c>
-      <c r="J25" s="112" t="s">
+      <c r="J25" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K25" s="116" t="s">
+      <c r="K25" s="114" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="26" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C26" s="123">
+      <c r="C26" s="121">
         <v>22</v>
       </c>
-      <c r="D26" s="111" t="s">
+      <c r="D26" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="112" t="s">
+      <c r="E26" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="113" t="s">
+      <c r="F26" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="G26" s="114" t="s">
+      <c r="G26" s="112" t="s">
         <v>177</v>
       </c>
-      <c r="H26" s="114"/>
-      <c r="I26" s="115">
+      <c r="H26" s="112"/>
+      <c r="I26" s="113">
         <v>42166</v>
       </c>
-      <c r="J26" s="112" t="s">
+      <c r="J26" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="116" t="s">
+      <c r="K26" s="114" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="27" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C27" s="123">
+      <c r="C27" s="121">
         <v>23</v>
       </c>
-      <c r="D27" s="111" t="s">
+      <c r="D27" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="113" t="s">
+      <c r="F27" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="G27" s="114" t="s">
+      <c r="G27" s="112" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="114" t="s">
+      <c r="H27" s="112" t="s">
         <v>159</v>
       </c>
-      <c r="I27" s="115">
+      <c r="I27" s="113">
         <v>42166</v>
       </c>
-      <c r="J27" s="112" t="s">
+      <c r="J27" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="K27" s="116" t="s">
+      <c r="K27" s="114" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="28" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C28" s="123">
+      <c r="C28" s="121">
         <v>24</v>
       </c>
-      <c r="D28" s="111" t="s">
+      <c r="D28" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="112" t="s">
+      <c r="E28" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="113" t="s">
+      <c r="F28" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="G28" s="114" t="s">
+      <c r="G28" s="112" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="114" t="s">
+      <c r="H28" s="112" t="s">
         <v>162</v>
       </c>
-      <c r="I28" s="115">
+      <c r="I28" s="113">
         <v>42166</v>
       </c>
-      <c r="J28" s="112" t="s">
+      <c r="J28" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K28" s="116" t="s">
+      <c r="K28" s="114" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="29" spans="3:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="123">
+      <c r="C29" s="121">
         <v>25</v>
       </c>
-      <c r="D29" s="111" t="s">
+      <c r="D29" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="112" t="s">
+      <c r="E29" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="113" t="s">
+      <c r="F29" s="111" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="114" t="s">
+      <c r="G29" s="112" t="s">
         <v>179</v>
       </c>
-      <c r="H29" s="114" t="s">
+      <c r="H29" s="112" t="s">
         <v>180</v>
       </c>
-      <c r="I29" s="115">
+      <c r="I29" s="113">
         <v>42166</v>
       </c>
-      <c r="J29" s="112" t="s">
+      <c r="J29" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K29" s="116" t="s">
+      <c r="K29" s="114" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C30" s="123">
+      <c r="C30" s="121">
         <v>26</v>
       </c>
-      <c r="D30" s="111" t="s">
+      <c r="D30" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="112" t="s">
+      <c r="E30" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="113" t="s">
+      <c r="F30" s="111" t="s">
         <v>188</v>
       </c>
-      <c r="G30" s="114" t="s">
+      <c r="G30" s="112" t="s">
         <v>189</v>
       </c>
-      <c r="H30" s="114" t="s">
+      <c r="H30" s="112" t="s">
         <v>190</v>
       </c>
-      <c r="I30" s="115"/>
-      <c r="J30" s="112" t="s">
+      <c r="I30" s="113"/>
+      <c r="J30" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K30" s="116" t="s">
+      <c r="K30" s="114" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="31" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C31" s="123">
+      <c r="C31" s="121">
         <v>27</v>
       </c>
-      <c r="D31" s="111" t="s">
+      <c r="D31" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E31" s="112" t="s">
+      <c r="E31" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="113" t="s">
+      <c r="F31" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="G31" s="114" t="s">
+      <c r="G31" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="H31" s="114"/>
-      <c r="I31" s="115">
+      <c r="H31" s="112"/>
+      <c r="I31" s="113">
         <v>42166</v>
       </c>
-      <c r="J31" s="112" t="s">
+      <c r="J31" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K31" s="116"/>
+      <c r="K31" s="114"/>
     </row>
     <row r="32" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C32" s="123">
+      <c r="C32" s="121">
         <v>28</v>
       </c>
-      <c r="D32" s="111" t="s">
+      <c r="D32" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="112" t="s">
+      <c r="E32" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="113" t="s">
+      <c r="F32" s="111" t="s">
         <v>214</v>
       </c>
-      <c r="G32" s="114" t="s">
+      <c r="G32" s="112" t="s">
         <v>215</v>
       </c>
-      <c r="H32" s="114" t="s">
+      <c r="H32" s="112" t="s">
         <v>216</v>
       </c>
-      <c r="I32" s="114"/>
-      <c r="J32" s="112" t="s">
+      <c r="I32" s="112"/>
+      <c r="J32" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="K32" s="116"/>
+      <c r="K32" s="114"/>
     </row>
     <row r="33" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C33" s="123">
+      <c r="C33" s="121">
         <v>29</v>
       </c>
-      <c r="D33" s="111" t="s">
+      <c r="D33" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="112" t="s">
+      <c r="E33" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="113" t="s">
+      <c r="F33" s="111" t="s">
         <v>217</v>
       </c>
-      <c r="G33" s="114" t="s">
+      <c r="G33" s="112" t="s">
         <v>218</v>
       </c>
-      <c r="H33" s="114"/>
-      <c r="I33" s="115">
+      <c r="H33" s="112"/>
+      <c r="I33" s="113">
         <v>42171</v>
       </c>
-      <c r="J33" s="112" t="s">
+      <c r="J33" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="116"/>
+      <c r="K33" s="114"/>
     </row>
     <row r="34" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C34" s="123">
+      <c r="C34" s="121">
         <v>30</v>
       </c>
-      <c r="D34" s="111" t="s">
+      <c r="D34" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="112" t="s">
+      <c r="E34" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="113" t="s">
+      <c r="F34" s="111" t="s">
         <v>191</v>
       </c>
-      <c r="G34" s="114" t="s">
+      <c r="G34" s="112" t="s">
         <v>221</v>
       </c>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115">
+      <c r="H34" s="112"/>
+      <c r="I34" s="113">
         <v>42171</v>
       </c>
-      <c r="J34" s="112" t="s">
+      <c r="J34" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K34" s="116"/>
+      <c r="K34" s="114"/>
     </row>
     <row r="35" spans="3:11" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C35" s="123">
+      <c r="C35" s="121">
         <v>31</v>
       </c>
-      <c r="D35" s="111" t="s">
+      <c r="D35" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="112" t="s">
+      <c r="E35" s="110" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="113" t="s">
+      <c r="F35" s="111" t="s">
         <v>222</v>
       </c>
-      <c r="G35" s="114" t="s">
+      <c r="G35" s="112" t="s">
         <v>223</v>
       </c>
-      <c r="H35" s="114" t="s">
+      <c r="H35" s="112" t="s">
         <v>224</v>
       </c>
-      <c r="I35" s="114"/>
-      <c r="J35" s="112" t="s">
+      <c r="I35" s="112"/>
+      <c r="J35" s="110" t="s">
         <v>85</v>
       </c>
-      <c r="K35" s="116"/>
+      <c r="K35" s="114"/>
     </row>
     <row r="36" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C36" s="123">
+      <c r="C36" s="121">
         <v>32</v>
       </c>
-      <c r="D36" s="111" t="s">
+      <c r="D36" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="112" t="s">
+      <c r="E36" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="113" t="s">
+      <c r="F36" s="111" t="s">
         <v>225</v>
       </c>
-      <c r="G36" s="114" t="s">
+      <c r="G36" s="112" t="s">
         <v>226</v>
       </c>
-      <c r="H36" s="114" t="s">
+      <c r="H36" s="112" t="s">
         <v>227</v>
       </c>
-      <c r="I36" s="114"/>
-      <c r="J36" s="112" t="s">
+      <c r="I36" s="112"/>
+      <c r="J36" s="110" t="s">
         <v>115</v>
       </c>
-      <c r="K36" s="116" t="s">
+      <c r="K36" s="114" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="37" spans="3:11" ht="57" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C37" s="123">
+      <c r="C37" s="121">
         <v>33</v>
       </c>
-      <c r="D37" s="111" t="s">
+      <c r="D37" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="112" t="s">
+      <c r="E37" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F37" s="113" t="s">
+      <c r="F37" s="111" t="s">
         <v>230</v>
       </c>
-      <c r="G37" s="114" t="s">
+      <c r="G37" s="112" t="s">
         <v>231</v>
       </c>
-      <c r="H37" s="114" t="s">
+      <c r="H37" s="112" t="s">
         <v>232</v>
       </c>
-      <c r="I37" s="115">
+      <c r="I37" s="113">
         <v>42173</v>
       </c>
-      <c r="J37" s="112" t="s">
+      <c r="J37" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K37" s="116" t="s">
+      <c r="K37" s="114" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="38" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C38" s="123">
+      <c r="C38" s="121">
         <v>34</v>
       </c>
-      <c r="D38" s="111" t="s">
+      <c r="D38" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="112" t="s">
+      <c r="E38" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="113" t="s">
+      <c r="F38" s="111" t="s">
         <v>234</v>
       </c>
-      <c r="G38" s="114" t="s">
+      <c r="G38" s="112" t="s">
         <v>235</v>
       </c>
-      <c r="H38" s="114" t="s">
+      <c r="H38" s="112" t="s">
         <v>236</v>
       </c>
-      <c r="I38" s="115">
+      <c r="I38" s="113">
         <v>42173</v>
       </c>
-      <c r="J38" s="112" t="s">
+      <c r="J38" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K38" s="116" t="s">
+      <c r="K38" s="114" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C39" s="123">
+      <c r="C39" s="121">
         <v>35</v>
       </c>
-      <c r="D39" s="111" t="s">
+      <c r="D39" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="112" t="s">
+      <c r="E39" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F39" s="113" t="s">
+      <c r="F39" s="111" t="s">
         <v>237</v>
       </c>
-      <c r="G39" s="114" t="s">
+      <c r="G39" s="112" t="s">
         <v>238</v>
       </c>
-      <c r="H39" s="114" t="s">
+      <c r="H39" s="112" t="s">
         <v>239</v>
       </c>
-      <c r="I39" s="115">
+      <c r="I39" s="113">
         <v>42173</v>
       </c>
-      <c r="J39" s="112" t="s">
+      <c r="J39" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="K39" s="116"/>
+      <c r="K39" s="114"/>
     </row>
     <row r="40" spans="3:11" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
-      <c r="C40" s="123">
+      <c r="C40" s="121">
         <v>36</v>
       </c>
       <c r="D40" s="95" t="s">
@@ -7441,142 +7395,142 @@
       <c r="H40" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="I40" s="102">
+      <c r="I40" s="100">
         <v>42177</v>
       </c>
       <c r="J40" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="K40" s="100" t="s">
+      <c r="K40" s="99" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="41" spans="3:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="C41" s="123">
+      <c r="C41" s="121">
         <v>37</v>
       </c>
-      <c r="D41" s="111" t="s">
+      <c r="D41" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E41" s="112" t="s">
+      <c r="E41" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="113" t="s">
+      <c r="F41" s="111" t="s">
         <v>265</v>
       </c>
-      <c r="G41" s="114" t="s">
+      <c r="G41" s="112" t="s">
         <v>267</v>
       </c>
-      <c r="H41" s="114" t="s">
+      <c r="H41" s="112" t="s">
         <v>266</v>
       </c>
-      <c r="I41" s="114"/>
-      <c r="J41" s="112" t="s">
+      <c r="I41" s="112"/>
+      <c r="J41" s="110" t="s">
         <v>268</v>
       </c>
       <c r="K41" s="68"/>
     </row>
     <row r="42" spans="3:11" ht="85.5" x14ac:dyDescent="0.15">
-      <c r="C42" s="123">
+      <c r="C42" s="121">
         <v>38</v>
       </c>
-      <c r="D42" s="111" t="s">
+      <c r="D42" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E42" s="112" t="s">
+      <c r="E42" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="113" t="s">
+      <c r="F42" s="111" t="s">
         <v>269</v>
       </c>
-      <c r="G42" s="114" t="s">
+      <c r="G42" s="112" t="s">
         <v>270</v>
       </c>
-      <c r="H42" s="114" t="s">
+      <c r="H42" s="112" t="s">
         <v>271</v>
       </c>
-      <c r="I42" s="114"/>
-      <c r="J42" s="112" t="s">
+      <c r="I42" s="112"/>
+      <c r="J42" s="110" t="s">
         <v>268</v>
       </c>
       <c r="K42" s="68"/>
     </row>
     <row r="43" spans="3:11" ht="42.75" x14ac:dyDescent="0.15">
-      <c r="C43" s="123">
+      <c r="C43" s="121">
         <v>39</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="D43" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E43" s="112" t="s">
+      <c r="E43" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="113" t="s">
+      <c r="F43" s="111" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="114" t="s">
+      <c r="G43" s="112" t="s">
         <v>279</v>
       </c>
-      <c r="H43" s="114" t="s">
+      <c r="H43" s="112" t="s">
         <v>278</v>
       </c>
-      <c r="I43" s="114"/>
-      <c r="J43" s="112" t="s">
+      <c r="I43" s="112"/>
+      <c r="J43" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="K43" s="116"/>
+      <c r="K43" s="114"/>
     </row>
     <row r="44" spans="3:11" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="C44" s="123">
+      <c r="C44" s="121">
         <v>40</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="109" t="s">
         <v>36</v>
       </c>
-      <c r="E44" s="112" t="s">
+      <c r="E44" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="113" t="s">
+      <c r="F44" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="G44" s="114" t="s">
+      <c r="G44" s="112" t="s">
         <v>286</v>
       </c>
-      <c r="H44" s="114" t="s">
+      <c r="H44" s="112" t="s">
         <v>287</v>
       </c>
-      <c r="I44" s="114"/>
-      <c r="J44" s="112" t="s">
+      <c r="I44" s="112"/>
+      <c r="J44" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="K44" s="116" t="s">
+      <c r="K44" s="114" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="57" x14ac:dyDescent="0.15">
-      <c r="C45" s="123">
+      <c r="C45" s="121">
         <v>41</v>
       </c>
-      <c r="D45" s="111" t="s">
+      <c r="D45" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="E45" s="112" t="s">
+      <c r="E45" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="113" t="s">
+      <c r="F45" s="111" t="s">
         <v>339</v>
       </c>
-      <c r="G45" s="114" t="s">
+      <c r="G45" s="112" t="s">
         <v>340</v>
       </c>
-      <c r="H45" s="114" t="s">
+      <c r="H45" s="112" t="s">
         <v>341</v>
       </c>
-      <c r="I45" s="114"/>
-      <c r="J45" s="112" t="s">
+      <c r="I45" s="112"/>
+      <c r="J45" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="K45" s="116"/>
+      <c r="K45" s="114"/>
     </row>
     <row r="46" spans="3:11" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="C46" s="17">
@@ -7845,188 +7799,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="143" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="146">
+      <c r="A2" s="143">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="138" t="s">
+      <c r="B3" s="135" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="138" t="s">
+      <c r="C3" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="138" t="s">
+      <c r="D3" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="138" t="s">
+      <c r="E3" s="135" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="135" t="s">
         <v>299</v>
       </c>
-      <c r="G3" s="138" t="s">
+      <c r="G3" s="135" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="136" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="152" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="138" t="s">
         <v>301</v>
       </c>
-      <c r="E4" s="142" t="s">
+      <c r="E4" s="139" t="s">
         <v>302</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="149" t="s">
         <v>303</v>
       </c>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="138" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="153" t="s">
+      <c r="H4" s="154" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="152"/>
-      <c r="C5" s="140" t="s">
+      <c r="B5" s="153"/>
+      <c r="C5" s="137" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="138" t="s">
         <v>301</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="139" t="s">
         <v>302</v>
       </c>
-      <c r="F5" s="148"/>
-      <c r="G5" s="141" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="138" t="s">
         <v>306</v>
       </c>
-      <c r="H5" s="154"/>
+      <c r="H5" s="155"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="143" t="s">
+      <c r="B6" s="140" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="142" t="s">
+      <c r="C6" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="D6" s="141" t="s">
+      <c r="D6" s="138" t="s">
         <v>309</v>
       </c>
-      <c r="E6" s="142" t="s">
+      <c r="E6" s="139" t="s">
         <v>302</v>
       </c>
-      <c r="F6" s="148"/>
-      <c r="G6" s="142" t="s">
+      <c r="F6" s="149"/>
+      <c r="G6" s="139" t="s">
         <v>308</v>
       </c>
-      <c r="H6" s="144" t="s">
+      <c r="H6" s="141" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="149" t="s">
         <v>319</v>
       </c>
-      <c r="C7" s="148" t="s">
+      <c r="C7" s="149" t="s">
         <v>305</v>
       </c>
-      <c r="D7" s="148" t="s">
+      <c r="D7" s="149" t="s">
         <v>310</v>
       </c>
-      <c r="E7" s="155" t="s">
+      <c r="E7" s="156" t="s">
         <v>311</v>
       </c>
-      <c r="F7" s="148"/>
-      <c r="G7" s="140" t="s">
+      <c r="F7" s="149"/>
+      <c r="G7" s="137" t="s">
         <v>320</v>
       </c>
-      <c r="H7" s="141"/>
+      <c r="H7" s="138"/>
     </row>
     <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B8" s="148"/>
-      <c r="C8" s="148"/>
-      <c r="D8" s="148"/>
-      <c r="E8" s="148"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="140" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="137" t="s">
         <v>321</v>
       </c>
-      <c r="H8" s="141"/>
+      <c r="H8" s="138"/>
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="143" t="s">
+      <c r="B9" s="140" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="143" t="s">
+      <c r="C9" s="140" t="s">
         <v>323</v>
       </c>
-      <c r="D9" s="141" t="s">
+      <c r="D9" s="138" t="s">
         <v>324</v>
       </c>
-      <c r="E9" s="142" t="s">
+      <c r="E9" s="139" t="s">
         <v>311</v>
       </c>
-      <c r="F9" s="148"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="145" t="s">
+      <c r="F9" s="149"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="142" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B10" s="148" t="s">
+      <c r="B10" s="149" t="s">
         <v>326</v>
       </c>
-      <c r="C10" s="148" t="s">
+      <c r="C10" s="149" t="s">
         <v>323</v>
       </c>
-      <c r="D10" s="148" t="s">
+      <c r="D10" s="149" t="s">
         <v>312</v>
       </c>
-      <c r="E10" s="148" t="s">
+      <c r="E10" s="149" t="s">
         <v>313</v>
       </c>
-      <c r="F10" s="148"/>
-      <c r="G10" s="140" t="s">
+      <c r="F10" s="149"/>
+      <c r="G10" s="137" t="s">
         <v>327</v>
       </c>
-      <c r="H10" s="141"/>
+      <c r="H10" s="138"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11" s="148"/>
-      <c r="C11" s="148"/>
-      <c r="D11" s="148"/>
-      <c r="E11" s="148"/>
-      <c r="F11" s="148"/>
-      <c r="G11" s="140" t="s">
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="137" t="s">
         <v>328</v>
       </c>
-      <c r="H11" s="141"/>
+      <c r="H11" s="138"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12" s="149" t="s">
+      <c r="B12" s="150" t="s">
         <v>329</v>
       </c>
-      <c r="C12" s="150"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
+      <c r="C12" s="151"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="151"/>
+      <c r="G12" s="151"/>
+      <c r="H12" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="350">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1090,14 +1090,6 @@
   </si>
   <si>
     <t>排序</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序模块仍然存在小问题。当吨位后面出现其他其母时，如D-H，D-N，D后面的字母会影响排序结果 ，导致梯速显示不正确。可以参考生产日期7月2号的数据。1.5D-N显示在2.0D-H后面了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5D-N应该显示在2.0D-H的后面。我们排序只按照1.5后面的第一位字母排序。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1719,10 +1711,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可参照生产服务器包装日期7月8日，佛山的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">投产编号自动生成
 i. 规则
 制造商代码+年份后两位+ 五位流水，例如 F1500001                                                                                                                                                                                                            
@@ -1781,27 +1769,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>审核后的信息除非反审核，否则坚决不能被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有导出的模板需要支持导出后对于相同的数据进行合并单元格，并将数量列的数字在合并后自动累加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好做成一个共同的方法，每次导出的时候都调用一下，这样可以保证以后再导出的模板需要支持的时候也可以支持，不需要的时候也可以不支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序模块仍然存在小问题。当吨位后面出现其他其母时，如D-H，D-N，D后面的字母会影响排序结果 ，导致梯速显示不正确。可以参考生产日期7月2号的数据。1.5D-N显示在2.0D-H后面了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>在计划模块批量修改时，当选中的项目中既有审核过的也有没审核过的，那么修改后，审核后的信息也会被修改</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核后的信息除非反审核，否则坚决不能被修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有导出的模板需要支持导出后对于相同的数据进行合并单元格，并将数量列的数字在合并后自动累加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好做成一个共同的方法，每次导出的时候都调用一下，这样可以保证以后再导出的模板需要支持的时候也可以支持，不需要的时候也可以不支持。</t>
+    <t>排序增加按排产编号排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">可参照生产服务器包装日期7月8日，佛山的数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>排序增加按排产编号排序
+导出数据时，保证排序规则和筛选规则同界面一致</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一位字母排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5D-N应该显示在2.0D-H的后面。我们排序只按照1.5后面的第一位字母排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次自动生成后，需要先判断是否生成的编码已经被占用，如果是，则自动生成下一个，直到没有被占用为止，才返回客户端。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2148,7 +2179,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2573,6 +2604,9 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2882,7 +2916,7 @@
   <dimension ref="A2:R164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3971,7 +4005,7 @@
         <v>187</v>
       </c>
       <c r="G37" s="115" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H37" s="112"/>
       <c r="I37" s="88"/>
@@ -4067,7 +4101,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="145" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I40" s="88"/>
       <c r="J40" s="130">
@@ -4111,7 +4145,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42" s="39">
         <v>38</v>
       </c>
@@ -4125,19 +4159,19 @@
         <v>20</v>
       </c>
       <c r="F42" s="97" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G42" s="128" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="H42" s="144" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
       <c r="K42" s="117"/>
       <c r="L42" s="118" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
@@ -4215,17 +4249,17 @@
         <v>219</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H45" s="112" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="I45" s="88"/>
       <c r="J45" s="134">
         <v>0.1</v>
       </c>
       <c r="K45" s="133" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L45" s="118" t="s">
         <v>18</v>
@@ -4371,13 +4405,13 @@
         <v>20</v>
       </c>
       <c r="F50" s="111" t="s">
+        <v>286</v>
+      </c>
+      <c r="G50" s="115" t="s">
         <v>288</v>
       </c>
-      <c r="G50" s="115" t="s">
-        <v>290</v>
-      </c>
       <c r="H50" s="112" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I50" s="88"/>
       <c r="J50" s="130">
@@ -4402,20 +4436,20 @@
         <v>20</v>
       </c>
       <c r="F51" s="111" t="s">
+        <v>287</v>
+      </c>
+      <c r="G51" s="115" t="s">
+        <v>291</v>
+      </c>
+      <c r="H51" s="112" t="s">
         <v>289</v>
-      </c>
-      <c r="G51" s="115" t="s">
-        <v>293</v>
-      </c>
-      <c r="H51" s="112" t="s">
-        <v>291</v>
       </c>
       <c r="I51" s="88"/>
       <c r="J51" s="130">
         <v>0.25</v>
       </c>
       <c r="K51" s="133" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L51" s="118" t="s">
         <v>18</v>
@@ -4470,14 +4504,14 @@
         <v>250</v>
       </c>
       <c r="H53" s="112" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I53" s="88"/>
       <c r="J53" s="130">
         <v>0.1</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L53" s="118" t="s">
         <v>18</v>
@@ -4557,10 +4591,10 @@
         <v>20</v>
       </c>
       <c r="F56" s="111" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G56" s="115" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H56" s="112"/>
       <c r="I56" s="88"/>
@@ -4586,17 +4620,19 @@
         <v>15</v>
       </c>
       <c r="F57" s="111" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G57" s="115" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H57" s="112"/>
       <c r="I57" s="116"/>
       <c r="J57" s="146">
         <v>0.1</v>
       </c>
-      <c r="K57" s="133"/>
+      <c r="K57" s="157" t="s">
+        <v>348</v>
+      </c>
       <c r="L57" s="118" t="s">
         <v>18</v>
       </c>
@@ -4615,17 +4651,19 @@
         <v>15</v>
       </c>
       <c r="F58" s="111" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G58" s="115" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H58" s="112"/>
       <c r="I58" s="116"/>
       <c r="J58" s="130">
         <v>0.1</v>
       </c>
-      <c r="K58" s="133"/>
+      <c r="K58" s="157" t="s">
+        <v>349</v>
+      </c>
       <c r="L58" s="118" t="s">
         <v>18</v>
       </c>
@@ -4644,13 +4682,13 @@
         <v>15</v>
       </c>
       <c r="F59" s="111" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G59" s="115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H59" s="112" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I59" s="88"/>
       <c r="J59" s="130">
@@ -4675,10 +4713,10 @@
         <v>134</v>
       </c>
       <c r="F60" s="111" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G60" s="115" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H60" s="112"/>
       <c r="I60" s="88"/>
@@ -4690,7 +4728,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B61" s="39">
         <v>53</v>
       </c>
@@ -4707,7 +4745,7 @@
       <c r="K61" s="21"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B62" s="39">
         <v>54</v>
       </c>
@@ -4724,7 +4762,7 @@
       <c r="K62" s="21"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B63" s="39">
         <v>55</v>
       </c>
@@ -4741,7 +4779,7 @@
       <c r="K63" s="21"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B64" s="39">
         <v>56</v>
       </c>
@@ -4758,7 +4796,7 @@
       <c r="K64" s="21"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B65" s="39">
         <v>57</v>
       </c>
@@ -4775,7 +4813,7 @@
       <c r="K65" s="21"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B66" s="39">
         <v>58</v>
       </c>
@@ -4792,7 +4830,7 @@
       <c r="K66" s="21"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B67" s="39">
         <v>59</v>
       </c>
@@ -4809,7 +4847,7 @@
       <c r="K67" s="21"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B68" s="39">
         <v>60</v>
       </c>
@@ -4826,7 +4864,7 @@
       <c r="K68" s="21"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B69" s="39">
         <v>61</v>
       </c>
@@ -4843,7 +4881,7 @@
       <c r="K69" s="21"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B70" s="39">
         <v>62</v>
       </c>
@@ -4860,7 +4898,7 @@
       <c r="K70" s="21"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B71" s="39">
         <v>63</v>
       </c>
@@ -4877,7 +4915,7 @@
       <c r="K71" s="21"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B72" s="39">
         <v>64</v>
       </c>
@@ -4894,7 +4932,7 @@
       <c r="K72" s="21"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B73" s="39">
         <v>65</v>
       </c>
@@ -4911,7 +4949,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B74" s="39">
         <v>66</v>
       </c>
@@ -4928,7 +4966,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B75" s="39">
         <v>67</v>
       </c>
@@ -4945,7 +4983,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B76" s="39">
         <v>68</v>
       </c>
@@ -4962,7 +5000,7 @@
       <c r="K76" s="21"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B77" s="39">
         <v>69</v>
       </c>
@@ -4979,7 +5017,7 @@
       <c r="K77" s="21"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B78" s="39">
         <v>70</v>
       </c>
@@ -4996,7 +5034,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B79" s="39">
         <v>71</v>
       </c>
@@ -5013,7 +5051,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B80" s="39">
         <v>72</v>
       </c>
@@ -5030,7 +5068,7 @@
       <c r="K80" s="21"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B81" s="39">
         <v>73</v>
       </c>
@@ -5047,7 +5085,7 @@
       <c r="K81" s="21"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B82" s="39">
         <v>74</v>
       </c>
@@ -5064,7 +5102,7 @@
       <c r="K82" s="21"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B83" s="39">
         <v>75</v>
       </c>
@@ -5081,7 +5119,7 @@
       <c r="K83" s="21"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B84" s="39">
         <v>76</v>
       </c>
@@ -5098,7 +5136,7 @@
       <c r="K84" s="21"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B85" s="39">
         <v>77</v>
       </c>
@@ -5115,7 +5153,7 @@
       <c r="K85" s="21"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B86" s="39">
         <v>78</v>
       </c>
@@ -5132,7 +5170,7 @@
       <c r="K86" s="21"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B87" s="39">
         <v>79</v>
       </c>
@@ -5149,7 +5187,7 @@
       <c r="K87" s="21"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B88" s="39">
         <v>80</v>
       </c>
@@ -5166,7 +5204,7 @@
       <c r="K88" s="21"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B89" s="39">
         <v>81</v>
       </c>
@@ -5183,7 +5221,7 @@
       <c r="K89" s="21"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B90" s="39">
         <v>82</v>
       </c>
@@ -5200,7 +5238,7 @@
       <c r="K90" s="21"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B91" s="39">
         <v>83</v>
       </c>
@@ -5217,7 +5255,7 @@
       <c r="K91" s="21"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B92" s="39">
         <v>84</v>
       </c>
@@ -5234,7 +5272,7 @@
       <c r="K92" s="21"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B93" s="39">
         <v>85</v>
       </c>
@@ -5251,7 +5289,7 @@
       <c r="K93" s="21"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B94" s="39">
         <v>86</v>
       </c>
@@ -5268,7 +5306,7 @@
       <c r="K94" s="21"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B95" s="39">
         <v>87</v>
       </c>
@@ -5285,7 +5323,7 @@
       <c r="K95" s="21"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B96" s="39">
         <v>88</v>
       </c>
@@ -5302,7 +5340,7 @@
       <c r="K96" s="21"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B97" s="39">
         <v>89</v>
       </c>
@@ -5319,7 +5357,7 @@
       <c r="K97" s="21"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B98" s="39">
         <v>90</v>
       </c>
@@ -5336,7 +5374,7 @@
       <c r="K98" s="21"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B99" s="39">
         <v>91</v>
       </c>
@@ -5353,7 +5391,7 @@
       <c r="K99" s="21"/>
       <c r="L99" s="16"/>
     </row>
-    <row r="100" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B100" s="39">
         <v>92</v>
       </c>
@@ -5370,7 +5408,7 @@
       <c r="K100" s="21"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B101" s="39">
         <v>93</v>
       </c>
@@ -5387,7 +5425,7 @@
       <c r="K101" s="21"/>
       <c r="L101" s="16"/>
     </row>
-    <row r="102" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B102" s="39">
         <v>94</v>
       </c>
@@ -5404,7 +5442,7 @@
       <c r="K102" s="21"/>
       <c r="L102" s="16"/>
     </row>
-    <row r="103" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B103" s="39">
         <v>95</v>
       </c>
@@ -5421,7 +5459,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="16"/>
     </row>
-    <row r="104" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B104" s="39">
         <v>96</v>
       </c>
@@ -5438,7 +5476,7 @@
       <c r="K104" s="21"/>
       <c r="L104" s="16"/>
     </row>
-    <row r="105" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B105" s="39">
         <v>97</v>
       </c>
@@ -5455,7 +5493,7 @@
       <c r="K105" s="21"/>
       <c r="L105" s="16"/>
     </row>
-    <row r="106" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B106" s="39">
         <v>98</v>
       </c>
@@ -5472,7 +5510,7 @@
       <c r="K106" s="21"/>
       <c r="L106" s="16"/>
     </row>
-    <row r="107" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B107" s="39">
         <v>99</v>
       </c>
@@ -5489,7 +5527,7 @@
       <c r="K107" s="21"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B108" s="39">
         <v>100</v>
       </c>
@@ -5506,7 +5544,7 @@
       <c r="K108" s="21"/>
       <c r="L108" s="16"/>
     </row>
-    <row r="109" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B109" s="39">
         <v>101</v>
       </c>
@@ -5523,7 +5561,7 @@
       <c r="K109" s="21"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B110" s="39">
         <v>102</v>
       </c>
@@ -5540,7 +5578,7 @@
       <c r="K110" s="21"/>
       <c r="L110" s="16"/>
     </row>
-    <row r="111" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B111" s="39">
         <v>103</v>
       </c>
@@ -5557,7 +5595,7 @@
       <c r="K111" s="21"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B112" s="39">
         <v>104</v>
       </c>
@@ -5574,7 +5612,7 @@
       <c r="K112" s="21"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B113" s="39">
         <v>105</v>
       </c>
@@ -5591,7 +5629,7 @@
       <c r="K113" s="21"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B114" s="39">
         <v>106</v>
       </c>
@@ -5608,7 +5646,7 @@
       <c r="K114" s="21"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B115" s="39">
         <v>107</v>
       </c>
@@ -5625,7 +5663,7 @@
       <c r="K115" s="21"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B116" s="39">
         <v>108</v>
       </c>
@@ -5642,7 +5680,7 @@
       <c r="K116" s="21"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B117" s="39">
         <v>109</v>
       </c>
@@ -5659,7 +5697,7 @@
       <c r="K117" s="21"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B118" s="39">
         <v>110</v>
       </c>
@@ -5676,7 +5714,7 @@
       <c r="K118" s="21"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B119" s="39">
         <v>111</v>
       </c>
@@ -5693,7 +5731,7 @@
       <c r="K119" s="21"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B120" s="39">
         <v>112</v>
       </c>
@@ -5710,7 +5748,7 @@
       <c r="K120" s="21"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B121" s="39">
         <v>113</v>
       </c>
@@ -5725,7 +5763,7 @@
       <c r="K121" s="21"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B122" s="39">
         <v>114</v>
       </c>
@@ -5740,7 +5778,7 @@
       <c r="K122" s="21"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B123" s="39">
         <v>115</v>
       </c>
@@ -5755,7 +5793,7 @@
       <c r="K123" s="21"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B124" s="39">
         <v>116</v>
       </c>
@@ -5770,7 +5808,7 @@
       <c r="K124" s="21"/>
       <c r="L124" s="16"/>
     </row>
-    <row r="125" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B125" s="39">
         <v>117</v>
       </c>
@@ -5785,7 +5823,7 @@
       <c r="K125" s="21"/>
       <c r="L125" s="16"/>
     </row>
-    <row r="126" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B126" s="39">
         <v>118</v>
       </c>
@@ -5800,7 +5838,7 @@
       <c r="K126" s="21"/>
       <c r="L126" s="16"/>
     </row>
-    <row r="127" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B127" s="39">
         <v>119</v>
       </c>
@@ -5815,7 +5853,7 @@
       <c r="K127" s="21"/>
       <c r="L127" s="16"/>
     </row>
-    <row r="128" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B128" s="39">
         <v>120</v>
       </c>
@@ -5830,7 +5868,7 @@
       <c r="K128" s="21"/>
       <c r="L128" s="16"/>
     </row>
-    <row r="129" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B129" s="39">
         <v>121</v>
       </c>
@@ -5845,7 +5883,7 @@
       <c r="K129" s="21"/>
       <c r="L129" s="16"/>
     </row>
-    <row r="130" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B130" s="39">
         <v>122</v>
       </c>
@@ -5860,7 +5898,7 @@
       <c r="K130" s="21"/>
       <c r="L130" s="16"/>
     </row>
-    <row r="131" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B131" s="39">
         <v>123</v>
       </c>
@@ -5875,7 +5913,7 @@
       <c r="K131" s="21"/>
       <c r="L131" s="16"/>
     </row>
-    <row r="132" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B132" s="39">
         <v>124</v>
       </c>
@@ -5890,7 +5928,7 @@
       <c r="K132" s="21"/>
       <c r="L132" s="16"/>
     </row>
-    <row r="133" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B133" s="39">
         <v>125</v>
       </c>
@@ -5905,7 +5943,7 @@
       <c r="K133" s="21"/>
       <c r="L133" s="16"/>
     </row>
-    <row r="134" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B134" s="39">
         <v>126</v>
       </c>
@@ -5920,7 +5958,7 @@
       <c r="K134" s="21"/>
       <c r="L134" s="16"/>
     </row>
-    <row r="135" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B135" s="39">
         <v>127</v>
       </c>
@@ -5935,7 +5973,7 @@
       <c r="K135" s="21"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B136" s="39">
         <v>128</v>
       </c>
@@ -5950,7 +5988,7 @@
       <c r="K136" s="21"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B137" s="39">
         <v>129</v>
       </c>
@@ -5965,7 +6003,7 @@
       <c r="K137" s="21"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B138" s="39">
         <v>130</v>
       </c>
@@ -5980,7 +6018,7 @@
       <c r="K138" s="21"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B139" s="39">
         <v>131</v>
       </c>
@@ -5995,7 +6033,7 @@
       <c r="K139" s="21"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B140" s="39">
         <v>132</v>
       </c>
@@ -6010,7 +6048,7 @@
       <c r="K140" s="21"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B141" s="39">
         <v>133</v>
       </c>
@@ -6025,7 +6063,7 @@
       <c r="K141" s="21"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B142" s="39">
         <v>134</v>
       </c>
@@ -6040,7 +6078,7 @@
       <c r="K142" s="21"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B143" s="39">
         <v>135</v>
       </c>
@@ -6055,7 +6093,7 @@
       <c r="K143" s="21"/>
       <c r="L143" s="16"/>
     </row>
-    <row r="144" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B144" s="39">
         <v>136</v>
       </c>
@@ -6070,7 +6108,7 @@
       <c r="K144" s="21"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B145" s="39">
         <v>137</v>
       </c>
@@ -6085,7 +6123,7 @@
       <c r="K145" s="21"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B146" s="39">
         <v>138</v>
       </c>
@@ -6100,7 +6138,7 @@
       <c r="K146" s="21"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B147" s="39">
         <v>139</v>
       </c>
@@ -6115,7 +6153,7 @@
       <c r="K147" s="21"/>
       <c r="L147" s="16"/>
     </row>
-    <row r="148" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B148" s="39">
         <v>140</v>
       </c>
@@ -6130,7 +6168,7 @@
       <c r="K148" s="21"/>
       <c r="L148" s="16"/>
     </row>
-    <row r="149" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B149" s="39">
         <v>141</v>
       </c>
@@ -6145,7 +6183,7 @@
       <c r="K149" s="21"/>
       <c r="L149" s="16"/>
     </row>
-    <row r="150" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B150" s="39">
         <v>142</v>
       </c>
@@ -6160,7 +6198,7 @@
       <c r="K150" s="21"/>
       <c r="L150" s="16"/>
     </row>
-    <row r="151" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B151" s="39">
         <v>143</v>
       </c>
@@ -6175,7 +6213,7 @@
       <c r="K151" s="21"/>
       <c r="L151" s="16"/>
     </row>
-    <row r="152" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B152" s="39">
         <v>144</v>
       </c>
@@ -6190,7 +6228,7 @@
       <c r="K152" s="21"/>
       <c r="L152" s="16"/>
     </row>
-    <row r="153" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B153" s="39">
         <v>145</v>
       </c>
@@ -6205,7 +6243,7 @@
       <c r="K153" s="21"/>
       <c r="L153" s="16"/>
     </row>
-    <row r="154" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B154" s="39">
         <v>146</v>
       </c>
@@ -6220,7 +6258,7 @@
       <c r="K154" s="21"/>
       <c r="L154" s="16"/>
     </row>
-    <row r="155" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B155" s="39">
         <v>147</v>
       </c>
@@ -6235,7 +6273,7 @@
       <c r="K155" s="21"/>
       <c r="L155" s="16"/>
     </row>
-    <row r="156" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B156" s="39">
         <v>148</v>
       </c>
@@ -6250,7 +6288,7 @@
       <c r="K156" s="21"/>
       <c r="L156" s="16"/>
     </row>
-    <row r="157" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B157" s="39">
         <v>149</v>
       </c>
@@ -6265,7 +6303,7 @@
       <c r="K157" s="21"/>
       <c r="L157" s="16"/>
     </row>
-    <row r="158" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B158" s="39">
         <v>150</v>
       </c>
@@ -6280,7 +6318,7 @@
       <c r="K158" s="21"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B159" s="39">
         <v>151</v>
       </c>
@@ -6295,7 +6333,7 @@
       <c r="K159" s="21"/>
       <c r="L159" s="16"/>
     </row>
-    <row r="160" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="160" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B160" s="39">
         <v>152</v>
       </c>
@@ -6310,7 +6348,7 @@
       <c r="K160" s="21"/>
       <c r="L160" s="16"/>
     </row>
-    <row r="161" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="161" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B161" s="39">
         <v>153</v>
       </c>
@@ -6325,7 +6363,7 @@
       <c r="K161" s="21"/>
       <c r="L161" s="16"/>
     </row>
-    <row r="162" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="162" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B162" s="39">
         <v>154</v>
       </c>
@@ -6340,7 +6378,7 @@
       <c r="K162" s="21"/>
       <c r="L162" s="16"/>
     </row>
-    <row r="163" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="163" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B163" s="39">
         <v>155</v>
       </c>
@@ -6355,7 +6393,7 @@
       <c r="K163" s="21"/>
       <c r="L163" s="16"/>
     </row>
-    <row r="164" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="164" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
       <c r="B164" s="39">
         <v>156</v>
       </c>
@@ -6406,9 +6444,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="B2:K62"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7444,16 +7480,18 @@
         <v>269</v>
       </c>
       <c r="G42" s="112" t="s">
-        <v>270</v>
+        <v>342</v>
       </c>
       <c r="H42" s="112" t="s">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="I42" s="112"/>
       <c r="J42" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="K42" s="68"/>
+      <c r="K42" s="99" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="43" spans="3:11" ht="42.75" x14ac:dyDescent="0.15">
       <c r="C43" s="121">
@@ -7466,21 +7504,23 @@
         <v>20</v>
       </c>
       <c r="F43" s="111" t="s">
+        <v>275</v>
+      </c>
+      <c r="G43" s="112" t="s">
         <v>277</v>
       </c>
-      <c r="G43" s="112" t="s">
-        <v>279</v>
-      </c>
       <c r="H43" s="112" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I43" s="112"/>
       <c r="J43" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="K43" s="114"/>
-    </row>
-    <row r="44" spans="3:11" ht="71.25" x14ac:dyDescent="0.15">
+      <c r="K43" s="99" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" ht="142.5" x14ac:dyDescent="0.15">
       <c r="C44" s="121">
         <v>40</v>
       </c>
@@ -7491,20 +7531,20 @@
         <v>15</v>
       </c>
       <c r="F44" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="G44" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="H44" s="112" t="s">
         <v>285</v>
-      </c>
-      <c r="G44" s="112" t="s">
-        <v>286</v>
-      </c>
-      <c r="H44" s="112" t="s">
-        <v>287</v>
       </c>
       <c r="I44" s="112"/>
       <c r="J44" s="110" t="s">
         <v>268</v>
       </c>
       <c r="K44" s="114" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="57" x14ac:dyDescent="0.15">
@@ -7518,13 +7558,13 @@
         <v>15</v>
       </c>
       <c r="F45" s="111" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G45" s="112" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H45" s="112" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I45" s="112"/>
       <c r="J45" s="110" t="s">
@@ -7800,7 +7840,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
@@ -7810,104 +7850,104 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="135" t="s">
+        <v>293</v>
+      </c>
+      <c r="C3" s="135" t="s">
+        <v>294</v>
+      </c>
+      <c r="D3" s="135" t="s">
         <v>295</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="E3" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="D3" s="135" t="s">
+      <c r="F3" s="135" t="s">
         <v>297</v>
       </c>
-      <c r="E3" s="135" t="s">
+      <c r="G3" s="135" t="s">
         <v>298</v>
       </c>
-      <c r="F3" s="135" t="s">
-        <v>299</v>
-      </c>
-      <c r="G3" s="135" t="s">
-        <v>300</v>
-      </c>
       <c r="H3" s="136" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="152" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="137" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" s="138" t="s">
+        <v>299</v>
+      </c>
+      <c r="E4" s="139" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="149" t="s">
+        <v>301</v>
+      </c>
+      <c r="G4" s="138" t="s">
+        <v>302</v>
+      </c>
+      <c r="H4" s="154" t="s">
         <v>315</v>
-      </c>
-      <c r="C4" s="137" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" s="138" t="s">
-        <v>301</v>
-      </c>
-      <c r="E4" s="139" t="s">
-        <v>302</v>
-      </c>
-      <c r="F4" s="149" t="s">
-        <v>303</v>
-      </c>
-      <c r="G4" s="138" t="s">
-        <v>304</v>
-      </c>
-      <c r="H4" s="154" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="153"/>
       <c r="C5" s="137" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D5" s="138" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E5" s="139" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="149"/>
       <c r="G5" s="138" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H5" s="155"/>
     </row>
     <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B6" s="140" t="s">
+        <v>305</v>
+      </c>
+      <c r="C6" s="139" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" s="138" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="139" t="s">
-        <v>308</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>309</v>
-      </c>
       <c r="E6" s="139" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F6" s="149"/>
       <c r="G6" s="139" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H6" s="141" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B7" s="149" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C7" s="149" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D7" s="149" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E7" s="156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F7" s="149"/>
       <c r="G7" s="137" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H7" s="138"/>
     </row>
@@ -7918,45 +7958,45 @@
       <c r="E8" s="149"/>
       <c r="F8" s="149"/>
       <c r="G8" s="137" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H8" s="138"/>
     </row>
     <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="140" t="s">
+        <v>321</v>
+      </c>
+      <c r="D9" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>324</v>
-      </c>
       <c r="E9" s="139" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F9" s="149"/>
       <c r="G9" s="137"/>
       <c r="H9" s="142" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D10" s="149" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" s="149" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F10" s="149"/>
       <c r="G10" s="137" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H10" s="138"/>
     </row>
@@ -7967,13 +8007,13 @@
       <c r="E11" s="149"/>
       <c r="F11" s="149"/>
       <c r="G11" s="137" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H11" s="138"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="150" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C12" s="151"/>
       <c r="D12" s="151"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="需求" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="350">
   <si>
     <t>模块</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1229,9 +1229,6 @@
   </si>
   <si>
     <t>AC380V</t>
-  </si>
-  <si>
-    <t>DZE-14EB2</t>
   </si>
   <si>
     <t>DC110V</t>
@@ -1484,40 +1481,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>簧）</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>WYT-TA.3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -1674,7 +1637,151 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>）</t>
+      <t>以下）</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>以上除红字部分外，均不打色。</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可参照生产服务器包装日期7月8日，佛山的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">投产编号自动生成
+i. 规则
+制造商代码+年份后两位+ 五位流水，例如 F1500001                                                                                                                                                                                                            
+每年12月26日刷新，即26号当天编号从F1600001开始，注意年份的变化。
+ii. 自动填写时机
+生产日期填写完成并且已经完成排产的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么投产编号仍然会按照所有投产编号的最后一个增加，而不会按照追加当天的投产编号进行追加。也就是说不存在由于追加订单而影响其它投产编号。
+iv. 修改
+投产编号自动填写后仍然可以修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">出厂编号自动生成
+i. 规则
+制造商代码+年份后两位+月份（1-9，A（代替10），B（代替11），C（代替12））+ 四位流水号，例如：S15070001
+每月26日刷新，即26号当天编号从F1610001开始，注意年份和月份都有变化。
+ii. 自动填写时机
+包装日期填写完成并且已经完成包装的业务审核
+iii. 订单追加
+如有订单追加到某一天，那么出厂编号仍然会按照所有出厂编号的最后一个增加，而不会按照追加当天的出厂编号进行追加。也就是说不存在由于追加订单而影响其它出厂编号。
+iv. 修改
+出厂编号自动填写后仍然可以修改，但非必要情况下建议不要修改
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加修改按钮和修改界面（同销售录入的修改界面)，审核页面不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此估计针对自动备份数据库数据。
+如果需要服务器冗余，需要搭建简单的集群或者使用云服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先采用最简单方式，每次部署两个服务器，增加自动备份，在客户端增加配置文件可以切换链接服务器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户要求对于订单删除进行保护。可以考虑以下措施：
+1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
+2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
+3？
+需要提供不同方案的工数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1:0.4
+2:0.1 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在计划模块批量修改时，当选中的项目中既有审核过的也有没审核过的，那么修改后，审核后的信息也会被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核后的信息除非反审核，否则坚决不能被修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有导出的模板需要支持导出后对于相同的数据进行合并单元格，并将数量列的数字在合并后自动累加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好做成一个共同的方法，每次导出的时候都调用一下，这样可以保证以后再导出的模板需要支持的时候也可以支持，不需要的时候也可以不支持。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海1387</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400*5*10*16</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>DZE-14EB2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>WYT-TA.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>簧）</t>
     </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1706,102 +1813,37 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>以下）</t>
+      <t>）</t>
     </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>以上除红字部分外，均不打色。</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可参照生产服务器包装日期7月8日，佛山的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">投产编号自动生成
-i. 规则
-制造商代码+年份后两位+ 五位流水，例如 F1500001                                                                                                                                                                                                            
-每年12月26日刷新，即26号当天编号从F1600001开始，注意年份的变化。
-ii. 自动填写时机
-生产日期填写完成并且已经完成排产的业务审核
-iii. 订单追加
-如有订单追加到某一天，那么投产编号仍然会按照所有投产编号的最后一个增加，而不会按照追加当天的投产编号进行追加。也就是说不存在由于追加订单而影响其它投产编号。
-iv. 修改
-投产编号自动填写后仍然可以修改
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">出厂编号自动生成
-i. 规则
-制造商代码+年份后两位+月份（1-9，A（代替10），B（代替11），C（代替12））+ 四位流水号，例如：S15070001
-每月26日刷新，即26号当天编号从F1610001开始，注意年份和月份都有变化。
-ii. 自动填写时机
-包装日期填写完成并且已经完成包装的业务审核
-iii. 订单追加
-如有订单追加到某一天，那么出厂编号仍然会按照所有出厂编号的最后一个增加，而不会按照追加当天的出厂编号进行追加。也就是说不存在由于追加订单而影响其它出厂编号。
-iv. 修改
-出厂编号自动填写后仍然可以修改，但非必要情况下建议不要修改
-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加修改按钮和修改界面（同销售录入的修改界面)，审核页面不变</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此估计针对自动备份数据库数据。
-如果需要服务器冗余，需要搭建简单的集群或者使用云服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先采用最简单方式，每次部署两个服务器，增加自动备份，在客户端增加配置文件可以切换链接服务器</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户要求对于订单删除进行保护。可以考虑以下措施：
-1. 建立回收站，删除数据都到回收站中。只有管理员能看到回收站，并将数据彻底删除
-2. 每次删除需要输入验证码。防止有删除权限的人账号被泄露
-3？
-需要提供不同方案的工数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1:0.4
-2:0.1 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在计划模块批量修改时，当选中的项目中既有审核过的也有没审核过的，那么修改后，审核后的信息也会被修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核后的信息除非反审核，否则坚决不能被修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板导出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>所有导出的模板需要支持导出后对于相同的数据进行合并单元格，并将数量列的数字在合并后自动累加。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案2 （由于回收站涉及权限，所以先使用方案2）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最好做成一个共同的方法，每次导出的时候都调用一下，这样可以保证以后再导出的模板需要支持的时候也可以支持，不需要的时候也可以不支持。</t>
+    <t>If ggxh="S" and zdqdy="220v" and zdqxh≠"DZE-14EB2"
+{set zdqxh.bakcgroudcolor=yellow;
+set zdqdy.bakcgroudcolor=yellow;}
+else if ggxh="S" and zdqdy="DC110v" and zdqxh≠"DZE-14EA"
+{set zdqxh.bakcgroudcolor=yellow;
+set zdqdy.bakcgroudcolor=yellow;}
+else if ggxh="S" and yylgg≠"400*5*10*16"
+{set yylgg.bakcgroudcolor=yellow}
+else if ggxh="TA" and zdqdy≠"DC110v"
+{set zdqdy.bakcgroudcolor=yellow}
+else if ggxh="TA" and yylgg≠"400*5*10*16"
+{set yylgg.backgroudcolor=yellow}
+else if ggxh="TA" and and  zdqxh="WYT-TA.3（10簧）"
+{set zdqxh.bakcgroudcolor=yellow;}
+else if ggxh="TA" and and  zdqxh="WYT-TA.3（12簧）"
+{set zdqxh.bakcgroudcolor=yellow;}
+else if ggxh="U" and zdqdy≠"DC110v"
+{set zdqdy.bakcgroudcolor=yellow}
+else if ggxh="U" and yylgg≠"480*7*12*18"
+{set yylgg.backgroudcolor=yellow}
+else if zjdy≠"AC380V"
+{set zjdy.backgroudcolor=yellow}
+else if zf≠"有"
+{set zf.backgroudcolor=yellow}
+else
+{do nothing}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2019,7 +2061,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2144,11 +2186,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2573,6 +2626,12 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2881,7 +2940,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:R164"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -4067,7 +4126,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="145" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="I40" s="88"/>
       <c r="J40" s="130">
@@ -4125,13 +4184,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="97" t="s">
+        <v>339</v>
+      </c>
+      <c r="G42" s="128" t="s">
+        <v>340</v>
+      </c>
+      <c r="H42" s="144" t="s">
         <v>342</v>
-      </c>
-      <c r="G42" s="128" t="s">
-        <v>343</v>
-      </c>
-      <c r="H42" s="144" t="s">
-        <v>345</v>
       </c>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
@@ -4215,17 +4274,17 @@
         <v>219</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H45" s="112" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="I45" s="88"/>
       <c r="J45" s="134">
         <v>0.1</v>
       </c>
       <c r="K45" s="133" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="L45" s="118" t="s">
         <v>18</v>
@@ -4470,14 +4529,14 @@
         <v>250</v>
       </c>
       <c r="H53" s="112" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I53" s="88"/>
       <c r="J53" s="130">
         <v>0.1</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L53" s="118" t="s">
         <v>18</v>
@@ -4589,7 +4648,7 @@
         <v>281</v>
       </c>
       <c r="G57" s="115" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H57" s="112"/>
       <c r="I57" s="116"/>
@@ -4618,7 +4677,7 @@
         <v>282</v>
       </c>
       <c r="G58" s="115" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="H58" s="112"/>
       <c r="I58" s="116"/>
@@ -7504,7 +7563,7 @@
         <v>268</v>
       </c>
       <c r="K44" s="114" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="3:11" ht="57" x14ac:dyDescent="0.15">
@@ -7518,13 +7577,13 @@
         <v>15</v>
       </c>
       <c r="F45" s="111" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="G45" s="112" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H45" s="112" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I45" s="112"/>
       <c r="J45" s="110" t="s">
@@ -7783,10 +7842,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7798,17 +7857,17 @@
     <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="143">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B3" s="135" t="s">
         <v>295</v>
       </c>
@@ -7828,18 +7887,21 @@
         <v>300</v>
       </c>
       <c r="H3" s="136" t="s">
+        <v>313</v>
+      </c>
+      <c r="I3" s="157" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="152" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B4" s="152" t="s">
+      <c r="C4" s="137" t="s">
         <v>315</v>
       </c>
-      <c r="C4" s="137" t="s">
-        <v>316</v>
-      </c>
       <c r="D4" s="138" t="s">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="E4" s="139" t="s">
         <v>302</v>
@@ -7848,16 +7910,16 @@
         <v>303</v>
       </c>
       <c r="G4" s="138" t="s">
-        <v>304</v>
+        <v>346</v>
       </c>
       <c r="H4" s="154" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="153"/>
       <c r="C5" s="137" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D5" s="138" t="s">
         <v>301</v>
@@ -7867,113 +7929,116 @@
       </c>
       <c r="F5" s="149"/>
       <c r="G5" s="138" t="s">
+        <v>305</v>
+      </c>
+      <c r="H5" s="155"/>
+      <c r="I5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B6" s="140" t="s">
         <v>306</v>
       </c>
-      <c r="H5" s="155"/>
-    </row>
-    <row r="6" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B6" s="140" t="s">
+      <c r="C6" s="139" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="D6" s="138" t="s">
         <v>308</v>
-      </c>
-      <c r="D6" s="138" t="s">
-        <v>309</v>
       </c>
       <c r="E6" s="139" t="s">
         <v>302</v>
       </c>
       <c r="F6" s="149"/>
       <c r="G6" s="139" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" s="141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="B7" s="149" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B7" s="149" t="s">
-        <v>319</v>
-      </c>
       <c r="C7" s="149" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D7" s="149" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" s="156" t="s">
         <v>310</v>
-      </c>
-      <c r="E7" s="156" t="s">
-        <v>311</v>
       </c>
       <c r="F7" s="149"/>
       <c r="G7" s="137" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="H7" s="138"/>
     </row>
-    <row r="8" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B8" s="149"/>
       <c r="C8" s="149"/>
       <c r="D8" s="149"/>
       <c r="E8" s="149"/>
       <c r="F8" s="149"/>
       <c r="G8" s="137" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="138"/>
+    </row>
+    <row r="9" spans="1:9" ht="24.75" x14ac:dyDescent="0.15">
+      <c r="B9" s="140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" s="140" t="s">
         <v>321</v>
       </c>
-      <c r="H8" s="138"/>
-    </row>
-    <row r="9" spans="1:8" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="140" t="s">
+      <c r="D9" s="138" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="140" t="s">
-        <v>323</v>
-      </c>
-      <c r="D9" s="138" t="s">
-        <v>324</v>
-      </c>
       <c r="E9" s="139" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F9" s="149"/>
       <c r="G9" s="137"/>
       <c r="H9" s="142" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C10" s="149" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D10" s="149" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="149" t="s">
         <v>312</v>
-      </c>
-      <c r="E10" s="149" t="s">
-        <v>313</v>
       </c>
       <c r="F10" s="149"/>
       <c r="G10" s="137" t="s">
-        <v>327</v>
+        <v>348</v>
       </c>
       <c r="H10" s="138"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="149"/>
       <c r="C11" s="149"/>
       <c r="D11" s="149"/>
       <c r="E11" s="149"/>
       <c r="F11" s="149"/>
       <c r="G11" s="137" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H11" s="138"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="150" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C12" s="151"/>
       <c r="D12" s="151"/>
@@ -7982,8 +8047,14 @@
       <c r="G12" s="151"/>
       <c r="H12" s="151"/>
     </row>
+    <row r="18" spans="1:1" s="158" customFormat="1" ht="372" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="158" t="s">
+        <v>349</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="A18:XFD18"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="B12:H12"/>
     <mergeCell ref="B4:B5"/>

--- a/Documentation/蓝光集团生产管控平台.xlsx
+++ b/Documentation/蓝光集团生产管控平台.xlsx
@@ -1304,146 +1304,6 @@
   </si>
   <si>
     <t>AC220V</t>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机制动器电压为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AC220V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，制动器型号为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DZE-14EA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，需打色。</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>S</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A.B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型，有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>400*4*10*6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的需打色</t>
-    </r>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
@@ -1536,76 +1396,6 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A.B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型，有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>400*4*10*6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的需打色</t>
-    </r>
-    <phoneticPr fontId="17" type="noConversion"/>
-  </si>
-  <si>
     <t>U</t>
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
@@ -1818,7 +1608,8 @@
     <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
-    <t>If ggxh="S" and zdqdy="220v" and zdqxh≠"DZE-14EB2"
+    <r>
+      <t xml:space="preserve">If ggxh="S" and zdqdy="220v" and zdqxh≠"DZE-14EB2"
 {set zdqxh.bakcgroudcolor=yellow;
 set zdqdy.bakcgroudcolor=yellow;}
 else if ggxh="S" and zdqdy="DC110v" and zdqxh≠"DZE-14EA"
@@ -1842,16 +1633,229 @@
 {set zjdy.backgroudcolor=yellow}
 else if zf≠"有"
 {set zf.backgroudcolor=yellow}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>else if bmq≠"海1387"
+{set bmq.backgroudcolor=yellow}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 else
 {do nothing}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机制动器电压为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AC220V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，制动器型号为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DZE-14EA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，需打色。</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>400*4*10*6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的需打色</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A.B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>型，有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>400*4*10*6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的需打色</t>
+    </r>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1985,20 +1989,15 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2201,7 +2200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2581,12 +2580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2596,13 +2589,22 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2618,20 +2620,11 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2944,7 +2937,7 @@
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="2" width="9" style="44"/>
@@ -2960,25 +2953,25 @@
     <col min="13" max="13" width="6" style="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" ht="25.5">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="147"/>
+      <c r="B2" s="145"/>
       <c r="C2" s="6"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:18" ht="25.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="25.5">
       <c r="A3" s="4"/>
-      <c r="B3" s="147"/>
+      <c r="B3" s="145"/>
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:18" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:18" s="3" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="B5" s="148" t="s">
+    <row r="4" spans="1:18" ht="12.75" customHeight="1" thickBot="1"/>
+    <row r="5" spans="1:18" s="3" customFormat="1" ht="14.25">
+      <c r="B5" s="146" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -3018,7 +3011,7 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
     </row>
-    <row r="6" spans="1:18" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:18" ht="42.75" hidden="1">
       <c r="B6" s="39">
         <v>1</v>
       </c>
@@ -3048,7 +3041,7 @@
       </c>
       <c r="M6"/>
     </row>
-    <row r="7" spans="1:18" s="44" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:18" s="44" customFormat="1" ht="48.75" hidden="1" customHeight="1">
       <c r="B7" s="39">
         <v>2</v>
       </c>
@@ -3083,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="44" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:18" s="44" customFormat="1" ht="58.5" hidden="1" customHeight="1">
       <c r="B8" s="39">
         <v>3</v>
       </c>
@@ -3117,7 +3110,7 @@
       </c>
       <c r="M8" s="91"/>
     </row>
-    <row r="9" spans="1:18" s="44" customFormat="1" ht="45.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:18" s="44" customFormat="1" ht="45.75" hidden="1" customHeight="1">
       <c r="B9" s="39">
         <v>4</v>
       </c>
@@ -3154,7 +3147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:18" s="44" customFormat="1" ht="42.75" hidden="1">
       <c r="B10" s="39">
         <v>5</v>
       </c>
@@ -3190,7 +3183,7 @@
       </c>
       <c r="M10" s="92"/>
     </row>
-    <row r="11" spans="1:18" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:18" ht="57" hidden="1">
       <c r="B11" s="39">
         <v>6</v>
       </c>
@@ -3220,7 +3213,7 @@
       </c>
       <c r="M11" s="86"/>
     </row>
-    <row r="12" spans="1:18" s="44" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:18" s="44" customFormat="1" ht="57" hidden="1">
       <c r="B12" s="39">
         <v>7</v>
       </c>
@@ -3252,7 +3245,7 @@
       </c>
       <c r="M12" s="85"/>
     </row>
-    <row r="13" spans="1:18" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:18" s="44" customFormat="1" ht="42.75" hidden="1">
       <c r="B13" s="39">
         <v>8</v>
       </c>
@@ -3281,7 +3274,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="44" customFormat="1" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:18" s="44" customFormat="1" ht="57" hidden="1">
       <c r="B14" s="39">
         <v>9</v>
       </c>
@@ -3315,7 +3308,7 @@
       </c>
       <c r="M14" s="93"/>
     </row>
-    <row r="15" spans="1:18" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:18" s="44" customFormat="1" ht="14.25" hidden="1">
       <c r="B15" s="39">
         <v>10</v>
       </c>
@@ -3346,7 +3339,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:18" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:18" s="44" customFormat="1" ht="14.25" hidden="1">
       <c r="B16" s="39">
         <v>11</v>
       </c>
@@ -3376,7 +3369,7 @@
       </c>
       <c r="M16" s="93"/>
     </row>
-    <row r="17" spans="2:14" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:14" s="44" customFormat="1" ht="14.25" hidden="1">
       <c r="B17" s="39">
         <v>12</v>
       </c>
@@ -3406,7 +3399,7 @@
       </c>
       <c r="M17" s="93"/>
     </row>
-    <row r="18" spans="2:14" s="44" customFormat="1" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:14" s="44" customFormat="1" ht="14.25" hidden="1">
       <c r="B18" s="39">
         <v>13</v>
       </c>
@@ -3437,7 +3430,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1">
       <c r="B19" s="39">
         <v>14</v>
       </c>
@@ -3468,7 +3461,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="2:14" s="44" customFormat="1" ht="22.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:14" s="44" customFormat="1" ht="22.5" hidden="1" customHeight="1">
       <c r="B20" s="39">
         <v>15</v>
       </c>
@@ -3499,7 +3492,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1">
       <c r="B21" s="39">
         <v>16</v>
       </c>
@@ -3532,7 +3525,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="2:14" s="44" customFormat="1" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:14" s="44" customFormat="1" ht="23.25" hidden="1" customHeight="1">
       <c r="B22" s="39">
         <v>17</v>
       </c>
@@ -3561,7 +3554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1">
       <c r="B23" s="39">
         <v>18</v>
       </c>
@@ -3595,7 +3588,7 @@
       </c>
       <c r="M23" s="93"/>
     </row>
-    <row r="24" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:14" s="44" customFormat="1" ht="28.5" hidden="1">
       <c r="B24" s="39">
         <v>19</v>
       </c>
@@ -3625,7 +3618,7 @@
       </c>
       <c r="M24" s="93"/>
     </row>
-    <row r="25" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:14" s="44" customFormat="1" ht="42.75" hidden="1">
       <c r="B25" s="39">
         <v>20</v>
       </c>
@@ -3658,7 +3651,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="2:14" s="44" customFormat="1" ht="85.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:14" s="44" customFormat="1" ht="85.5" hidden="1">
       <c r="B26" s="39">
         <v>21</v>
       </c>
@@ -3690,7 +3683,7 @@
       </c>
       <c r="M26" s="93"/>
     </row>
-    <row r="27" spans="2:14" s="44" customFormat="1" ht="36.75" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:14" s="44" customFormat="1" ht="36.75" hidden="1" customHeight="1">
       <c r="B27" s="39">
         <v>22</v>
       </c>
@@ -3722,7 +3715,7 @@
       </c>
       <c r="M27" s="93"/>
     </row>
-    <row r="28" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:14" ht="42.75" hidden="1">
       <c r="B28" s="39">
         <v>23</v>
       </c>
@@ -3753,7 +3746,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:14" ht="28.5" hidden="1">
       <c r="B29" s="39">
         <v>24</v>
       </c>
@@ -3784,7 +3777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:14" ht="25.5" hidden="1" customHeight="1">
       <c r="B30" s="39">
         <v>25</v>
       </c>
@@ -3818,7 +3811,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:14" ht="42.75" hidden="1">
       <c r="B31" s="39">
         <v>26</v>
       </c>
@@ -3854,7 +3847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:14" ht="71.25" hidden="1">
       <c r="B32" s="39">
         <v>27</v>
       </c>
@@ -3885,7 +3878,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="2:12" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" ht="17.25" hidden="1" customHeight="1">
       <c r="B33" s="39">
         <v>28</v>
       </c>
@@ -3918,7 +3911,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="34" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" ht="28.5" hidden="1">
       <c r="B34" s="39">
         <v>29</v>
       </c>
@@ -3951,7 +3944,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" ht="42.75" hidden="1">
       <c r="B35" s="39">
         <v>31</v>
       </c>
@@ -3980,7 +3973,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:12" ht="142.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" ht="142.5" hidden="1">
       <c r="B36" s="39">
         <v>32</v>
       </c>
@@ -4013,7 +4006,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" ht="42.75" hidden="1">
       <c r="B37" s="39">
         <v>33</v>
       </c>
@@ -4042,7 +4035,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" ht="42.75" hidden="1">
       <c r="B38" s="39">
         <v>34</v>
       </c>
@@ -4075,7 +4068,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" ht="28.5" hidden="1">
       <c r="B39" s="39">
         <v>35</v>
       </c>
@@ -4106,7 +4099,7 @@
       </c>
       <c r="L39" s="118"/>
     </row>
-    <row r="40" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" ht="42.75">
       <c r="B40" s="39">
         <v>36</v>
       </c>
@@ -4125,8 +4118,8 @@
       <c r="G40" s="120" t="s">
         <v>201</v>
       </c>
-      <c r="H40" s="145" t="s">
-        <v>331</v>
+      <c r="H40" s="143" t="s">
+        <v>328</v>
       </c>
       <c r="I40" s="88"/>
       <c r="J40" s="130">
@@ -4137,7 +4130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" ht="28.5" hidden="1">
       <c r="B41" s="39">
         <v>37</v>
       </c>
@@ -4170,7 +4163,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="2:12" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" ht="85.5">
       <c r="B42" s="39">
         <v>38</v>
       </c>
@@ -4184,13 +4177,13 @@
         <v>20</v>
       </c>
       <c r="F42" s="97" t="s">
+        <v>336</v>
+      </c>
+      <c r="G42" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="H42" s="142" t="s">
         <v>339</v>
-      </c>
-      <c r="G42" s="128" t="s">
-        <v>340</v>
-      </c>
-      <c r="H42" s="144" t="s">
-        <v>342</v>
       </c>
       <c r="I42" s="88"/>
       <c r="J42" s="88"/>
@@ -4199,7 +4192,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" ht="28.5" hidden="1">
       <c r="B43" s="39">
         <v>39</v>
       </c>
@@ -4228,7 +4221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" ht="57" hidden="1">
       <c r="B44" s="39">
         <v>40</v>
       </c>
@@ -4257,7 +4250,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:12" ht="114" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" ht="114">
       <c r="B45" s="39">
         <v>41</v>
       </c>
@@ -4274,23 +4267,23 @@
         <v>219</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H45" s="112" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I45" s="88"/>
       <c r="J45" s="134">
         <v>0.1</v>
       </c>
       <c r="K45" s="133" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="L45" s="118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:12" ht="14.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" ht="14.25" hidden="1">
       <c r="B46" s="39">
         <v>42</v>
       </c>
@@ -4321,7 +4314,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" ht="57" hidden="1">
       <c r="B47" s="39">
         <v>43</v>
       </c>
@@ -4354,7 +4347,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="48" spans="2:12" ht="42.75" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" ht="42.75" hidden="1">
       <c r="B48" s="39">
         <v>44</v>
       </c>
@@ -4383,7 +4376,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="2:12" ht="71.25" hidden="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" ht="71.25" hidden="1">
       <c r="B49" s="39">
         <v>45</v>
       </c>
@@ -4416,7 +4409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="50" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" ht="14.25">
       <c r="B50" s="39">
         <v>46</v>
       </c>
@@ -4447,7 +4440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" ht="42.75">
       <c r="B51" s="39">
         <v>46</v>
       </c>
@@ -4480,7 +4473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" ht="14.25">
       <c r="B52" s="39">
         <v>47</v>
       </c>
@@ -4509,7 +4502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="2:12" ht="85.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" ht="85.5">
       <c r="B53" s="39">
         <v>48</v>
       </c>
@@ -4529,20 +4522,20 @@
         <v>250</v>
       </c>
       <c r="H53" s="112" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="I53" s="88"/>
       <c r="J53" s="130">
         <v>0.1</v>
       </c>
       <c r="K53" s="133" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="L53" s="118" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="2:12" ht="28.5" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" ht="28.5" hidden="1">
       <c r="B54" s="39">
         <v>49</v>
       </c>
@@ -4571,7 +4564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="57" hidden="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" ht="57" hidden="1">
       <c r="B55" s="39">
         <v>50</v>
       </c>
@@ -4602,7 +4595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="2:12" ht="42.75" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" ht="42.75">
       <c r="B56" s="39">
         <v>51</v>
       </c>
@@ -4631,7 +4624,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:12" ht="228" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" ht="228">
       <c r="B57" s="39">
         <v>52</v>
       </c>
@@ -4648,11 +4641,11 @@
         <v>281</v>
       </c>
       <c r="G57" s="115" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H57" s="112"/>
       <c r="I57" s="116"/>
-      <c r="J57" s="146">
+      <c r="J57" s="144">
         <v>0.1</v>
       </c>
       <c r="K57" s="133"/>
@@ -4660,7 +4653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="2:12" ht="256.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" ht="256.5">
       <c r="B58" s="39">
         <v>53</v>
       </c>
@@ -4677,7 +4670,7 @@
         <v>282</v>
       </c>
       <c r="G58" s="115" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H58" s="112"/>
       <c r="I58" s="116"/>
@@ -4689,7 +4682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="2:12" ht="128.25" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" ht="128.25">
       <c r="B59" s="39">
         <v>54</v>
       </c>
@@ -4720,7 +4713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="2:12" ht="71.25" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" ht="71.25">
       <c r="B60" s="39">
         <v>55</v>
       </c>
@@ -4749,7 +4742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" ht="14.25">
       <c r="B61" s="39">
         <v>53</v>
       </c>
@@ -4766,7 +4759,7 @@
       <c r="K61" s="21"/>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" ht="14.25">
       <c r="B62" s="39">
         <v>54</v>
       </c>
@@ -4783,7 +4776,7 @@
       <c r="K62" s="21"/>
       <c r="L62" s="16"/>
     </row>
-    <row r="63" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" ht="14.25">
       <c r="B63" s="39">
         <v>55</v>
       </c>
@@ -4800,7 +4793,7 @@
       <c r="K63" s="21"/>
       <c r="L63" s="16"/>
     </row>
-    <row r="64" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" ht="14.25">
       <c r="B64" s="39">
         <v>56</v>
       </c>
@@ -4817,7 +4810,7 @@
       <c r="K64" s="21"/>
       <c r="L64" s="16"/>
     </row>
-    <row r="65" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" ht="14.25">
       <c r="B65" s="39">
         <v>57</v>
       </c>
@@ -4834,7 +4827,7 @@
       <c r="K65" s="21"/>
       <c r="L65" s="16"/>
     </row>
-    <row r="66" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" ht="14.25">
       <c r="B66" s="39">
         <v>58</v>
       </c>
@@ -4851,7 +4844,7 @@
       <c r="K66" s="21"/>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" ht="14.25">
       <c r="B67" s="39">
         <v>59</v>
       </c>
@@ -4868,7 +4861,7 @@
       <c r="K67" s="21"/>
       <c r="L67" s="16"/>
     </row>
-    <row r="68" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" ht="14.25">
       <c r="B68" s="39">
         <v>60</v>
       </c>
@@ -4885,7 +4878,7 @@
       <c r="K68" s="21"/>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" ht="14.25">
       <c r="B69" s="39">
         <v>61</v>
       </c>
@@ -4902,7 +4895,7 @@
       <c r="K69" s="21"/>
       <c r="L69" s="16"/>
     </row>
-    <row r="70" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" ht="14.25">
       <c r="B70" s="39">
         <v>62</v>
       </c>
@@ -4919,7 +4912,7 @@
       <c r="K70" s="21"/>
       <c r="L70" s="16"/>
     </row>
-    <row r="71" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" ht="14.25">
       <c r="B71" s="39">
         <v>63</v>
       </c>
@@ -4936,7 +4929,7 @@
       <c r="K71" s="21"/>
       <c r="L71" s="16"/>
     </row>
-    <row r="72" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" ht="14.25">
       <c r="B72" s="39">
         <v>64</v>
       </c>
@@ -4953,7 +4946,7 @@
       <c r="K72" s="21"/>
       <c r="L72" s="16"/>
     </row>
-    <row r="73" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" ht="14.25">
       <c r="B73" s="39">
         <v>65</v>
       </c>
@@ -4970,7 +4963,7 @@
       <c r="K73" s="21"/>
       <c r="L73" s="16"/>
     </row>
-    <row r="74" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:12" ht="14.25">
       <c r="B74" s="39">
         <v>66</v>
       </c>
@@ -4987,7 +4980,7 @@
       <c r="K74" s="21"/>
       <c r="L74" s="16"/>
     </row>
-    <row r="75" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:12" ht="14.25">
       <c r="B75" s="39">
         <v>67</v>
       </c>
@@ -5004,7 +4997,7 @@
       <c r="K75" s="21"/>
       <c r="L75" s="16"/>
     </row>
-    <row r="76" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:12" ht="14.25">
       <c r="B76" s="39">
         <v>68</v>
       </c>
@@ -5021,7 +5014,7 @@
       <c r="K76" s="21"/>
       <c r="L76" s="16"/>
     </row>
-    <row r="77" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:12" ht="14.25">
       <c r="B77" s="39">
         <v>69</v>
       </c>
@@ -5038,7 +5031,7 @@
       <c r="K77" s="21"/>
       <c r="L77" s="16"/>
     </row>
-    <row r="78" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="78" spans="2:12" ht="14.25">
       <c r="B78" s="39">
         <v>70</v>
       </c>
@@ -5055,7 +5048,7 @@
       <c r="K78" s="21"/>
       <c r="L78" s="16"/>
     </row>
-    <row r="79" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:12" ht="14.25">
       <c r="B79" s="39">
         <v>71</v>
       </c>
@@ -5072,7 +5065,7 @@
       <c r="K79" s="21"/>
       <c r="L79" s="16"/>
     </row>
-    <row r="80" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:12" ht="14.25">
       <c r="B80" s="39">
         <v>72</v>
       </c>
@@ -5089,7 +5082,7 @@
       <c r="K80" s="21"/>
       <c r="L80" s="16"/>
     </row>
-    <row r="81" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:12" ht="14.25">
       <c r="B81" s="39">
         <v>73</v>
       </c>
@@ -5106,7 +5099,7 @@
       <c r="K81" s="21"/>
       <c r="L81" s="16"/>
     </row>
-    <row r="82" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:12" ht="14.25">
       <c r="B82" s="39">
         <v>74</v>
       </c>
@@ -5123,7 +5116,7 @@
       <c r="K82" s="21"/>
       <c r="L82" s="16"/>
     </row>
-    <row r="83" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:12" ht="14.25">
       <c r="B83" s="39">
         <v>75</v>
       </c>
@@ -5140,7 +5133,7 @@
       <c r="K83" s="21"/>
       <c r="L83" s="16"/>
     </row>
-    <row r="84" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:12" ht="14.25">
       <c r="B84" s="39">
         <v>76</v>
       </c>
@@ -5157,7 +5150,7 @@
       <c r="K84" s="21"/>
       <c r="L84" s="16"/>
     </row>
-    <row r="85" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:12" ht="14.25">
       <c r="B85" s="39">
         <v>77</v>
       </c>
@@ -5174,7 +5167,7 @@
       <c r="K85" s="21"/>
       <c r="L85" s="16"/>
     </row>
-    <row r="86" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:12" ht="14.25">
       <c r="B86" s="39">
         <v>78</v>
       </c>
@@ -5191,7 +5184,7 @@
       <c r="K86" s="21"/>
       <c r="L86" s="16"/>
     </row>
-    <row r="87" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:12" ht="14.25">
       <c r="B87" s="39">
         <v>79</v>
       </c>
@@ -5208,7 +5201,7 @@
       <c r="K87" s="21"/>
       <c r="L87" s="16"/>
     </row>
-    <row r="88" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="88" spans="2:12" ht="14.25">
       <c r="B88" s="39">
         <v>80</v>
       </c>
@@ -5225,7 +5218,7 @@
       <c r="K88" s="21"/>
       <c r="L88" s="16"/>
     </row>
-    <row r="89" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="89" spans="2:12" ht="14.25">
       <c r="B89" s="39">
         <v>81</v>
       </c>
@@ -5242,7 +5235,7 @@
       <c r="K89" s="21"/>
       <c r="L89" s="16"/>
     </row>
-    <row r="90" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="90" spans="2:12" ht="14.25">
       <c r="B90" s="39">
         <v>82</v>
       </c>
@@ -5259,7 +5252,7 @@
       <c r="K90" s="21"/>
       <c r="L90" s="16"/>
     </row>
-    <row r="91" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="91" spans="2:12" ht="14.25">
       <c r="B91" s="39">
         <v>83</v>
       </c>
@@ -5276,7 +5269,7 @@
       <c r="K91" s="21"/>
       <c r="L91" s="16"/>
     </row>
-    <row r="92" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="92" spans="2:12" ht="14.25">
       <c r="B92" s="39">
         <v>84</v>
       </c>
@@ -5293,7 +5286,7 @@
       <c r="K92" s="21"/>
       <c r="L92" s="16"/>
     </row>
-    <row r="93" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="93" spans="2:12" ht="14.25">
       <c r="B93" s="39">
         <v>85</v>
       </c>
@@ -5310,7 +5303,7 @@
       <c r="K93" s="21"/>
       <c r="L93" s="16"/>
     </row>
-    <row r="94" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="94" spans="2:12" ht="14.25">
       <c r="B94" s="39">
         <v>86</v>
       </c>
@@ -5327,7 +5320,7 @@
       <c r="K94" s="21"/>
       <c r="L94" s="16"/>
     </row>
-    <row r="95" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="95" spans="2:12" ht="14.25">
       <c r="B95" s="39">
         <v>87</v>
       </c>
@@ -5344,7 +5337,7 @@
       <c r="K95" s="21"/>
       <c r="L95" s="16"/>
     </row>
-    <row r="96" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="96" spans="2:12" ht="14.25">
       <c r="B96" s="39">
         <v>88</v>
       </c>
@@ -5361,7 +5354,7 @@
       <c r="K96" s="21"/>
       <c r="L96" s="16"/>
     </row>
-    <row r="97" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="97" spans="2:12" ht="14.25">
       <c r="B97" s="39">
         <v>89</v>
       </c>
@@ -5378,7 +5371,7 @@
       <c r="K97" s="21"/>
       <c r="L97" s="16"/>
     </row>
-    <row r="98" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:12" ht="14.25">
       <c r="B98" s="39">
         <v>90</v>
       </c>
@@ -5395,7 +5388,7 @@
       <c r="K98" s="21"/>
       <c r="L98" s="16"/>
     </row>
-    <row r="99" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:12" ht="14.25">
       <c r="B99" s="39">
         <v>91</v>
       </c>
@@ -5412,7 +5405,7 @@
       <c r="K99" s="21"/>
       <c r="L99" s="16"/>
     </row>
-    <row r="100" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:12" ht="14.25">
       <c r="B100" s="39">
         <v>92</v>
       </c>
@@ -5429,7 +5422,7 @@
       <c r="K100" s="21"/>
       <c r="L100" s="16"/>
     </row>
-    <row r="101" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:12" ht="14.25">
       <c r="B101" s="39">
         <v>93</v>
       </c>
@@ -5446,7 +5439,7 @@
       <c r="K101" s="21"/>
       <c r="L101" s="16"/>
     </row>
-    <row r="102" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:12" ht="14.25">
       <c r="B102" s="39">
         <v>94</v>
       </c>
@@ -5463,7 +5456,7 @@
       <c r="K102" s="21"/>
       <c r="L102" s="16"/>
     </row>
-    <row r="103" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:12" ht="14.25">
       <c r="B103" s="39">
         <v>95</v>
       </c>
@@ -5480,7 +5473,7 @@
       <c r="K103" s="21"/>
       <c r="L103" s="16"/>
     </row>
-    <row r="104" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:12" ht="14.25">
       <c r="B104" s="39">
         <v>96</v>
       </c>
@@ -5497,7 +5490,7 @@
       <c r="K104" s="21"/>
       <c r="L104" s="16"/>
     </row>
-    <row r="105" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="105" spans="2:12" ht="14.25">
       <c r="B105" s="39">
         <v>97</v>
       </c>
@@ -5514,7 +5507,7 @@
       <c r="K105" s="21"/>
       <c r="L105" s="16"/>
     </row>
-    <row r="106" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:12" ht="14.25">
       <c r="B106" s="39">
         <v>98</v>
       </c>
@@ -5531,7 +5524,7 @@
       <c r="K106" s="21"/>
       <c r="L106" s="16"/>
     </row>
-    <row r="107" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="107" spans="2:12" ht="14.25">
       <c r="B107" s="39">
         <v>99</v>
       </c>
@@ -5548,7 +5541,7 @@
       <c r="K107" s="21"/>
       <c r="L107" s="16"/>
     </row>
-    <row r="108" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="108" spans="2:12" ht="14.25">
       <c r="B108" s="39">
         <v>100</v>
       </c>
@@ -5565,7 +5558,7 @@
       <c r="K108" s="21"/>
       <c r="L108" s="16"/>
     </row>
-    <row r="109" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="109" spans="2:12" ht="14.25">
       <c r="B109" s="39">
         <v>101</v>
       </c>
@@ -5582,7 +5575,7 @@
       <c r="K109" s="21"/>
       <c r="L109" s="16"/>
     </row>
-    <row r="110" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="110" spans="2:12" ht="14.25">
       <c r="B110" s="39">
         <v>102</v>
       </c>
@@ -5599,7 +5592,7 @@
       <c r="K110" s="21"/>
       <c r="L110" s="16"/>
     </row>
-    <row r="111" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="111" spans="2:12" ht="14.25">
       <c r="B111" s="39">
         <v>103</v>
       </c>
@@ -5616,7 +5609,7 @@
       <c r="K111" s="21"/>
       <c r="L111" s="16"/>
     </row>
-    <row r="112" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="112" spans="2:12" ht="14.25">
       <c r="B112" s="39">
         <v>104</v>
       </c>
@@ -5633,7 +5626,7 @@
       <c r="K112" s="21"/>
       <c r="L112" s="16"/>
     </row>
-    <row r="113" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="113" spans="2:12" ht="14.25">
       <c r="B113" s="39">
         <v>105</v>
       </c>
@@ -5650,7 +5643,7 @@
       <c r="K113" s="21"/>
       <c r="L113" s="16"/>
     </row>
-    <row r="114" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="114" spans="2:12" ht="14.25">
       <c r="B114" s="39">
         <v>106</v>
       </c>
@@ -5667,7 +5660,7 @@
       <c r="K114" s="21"/>
       <c r="L114" s="16"/>
     </row>
-    <row r="115" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="115" spans="2:12" ht="14.25">
       <c r="B115" s="39">
         <v>107</v>
       </c>
@@ -5684,7 +5677,7 @@
       <c r="K115" s="21"/>
       <c r="L115" s="16"/>
     </row>
-    <row r="116" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="116" spans="2:12" ht="14.25">
       <c r="B116" s="39">
         <v>108</v>
       </c>
@@ -5701,7 +5694,7 @@
       <c r="K116" s="21"/>
       <c r="L116" s="16"/>
     </row>
-    <row r="117" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="117" spans="2:12" ht="14.25">
       <c r="B117" s="39">
         <v>109</v>
       </c>
@@ -5718,7 +5711,7 @@
       <c r="K117" s="21"/>
       <c r="L117" s="16"/>
     </row>
-    <row r="118" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="118" spans="2:12" ht="14.25">
       <c r="B118" s="39">
         <v>110</v>
       </c>
@@ -5735,7 +5728,7 @@
       <c r="K118" s="21"/>
       <c r="L118" s="16"/>
     </row>
-    <row r="119" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="119" spans="2:12" ht="14.25">
       <c r="B119" s="39">
         <v>111</v>
       </c>
@@ -5752,7 +5745,7 @@
       <c r="K119" s="21"/>
       <c r="L119" s="16"/>
     </row>
-    <row r="120" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="120" spans="2:12" ht="14.25">
       <c r="B120" s="39">
         <v>112</v>
       </c>
@@ -5769,7 +5762,7 @@
       <c r="K120" s="21"/>
       <c r="L120" s="16"/>
     </row>
-    <row r="121" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="121" spans="2:12" ht="14.25">
       <c r="B121" s="39">
         <v>113</v>
       </c>
@@ -5784,7 +5777,7 @@
       <c r="K121" s="21"/>
       <c r="L121" s="16"/>
     </row>
-    <row r="122" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="122" spans="2:12" ht="14.25">
       <c r="B122" s="39">
         <v>114</v>
       </c>
@@ -5799,7 +5792,7 @@
       <c r="K122" s="21"/>
       <c r="L122" s="16"/>
     </row>
-    <row r="123" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="123" spans="2:12" ht="14.25">
       <c r="B123" s="39">
         <v>115</v>
       </c>
@@ -5814,7 +5807,7 @@
       <c r="K123" s="21"/>
       <c r="L123" s="16"/>
     </row>
-    <row r="124" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="124" spans="2:12" ht="14.25">
       <c r="B124" s="39">
         <v>116</v>
       </c>
@@ -5829,7 +5822,7 @@
       <c r="K124" s="21"/>
       <c r="L124" s="16"/>
     </row>
-    <row r="125" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="125" spans="2:12" ht="14.25">
       <c r="B125" s="39">
         <v>117</v>
       </c>
@@ -5844,7 +5837,7 @@
       <c r="K125" s="21"/>
       <c r="L125" s="16"/>
     </row>
-    <row r="126" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="126" spans="2:12" ht="14.25">
       <c r="B126" s="39">
         <v>118</v>
       </c>
@@ -5859,7 +5852,7 @@
       <c r="K126" s="21"/>
       <c r="L126" s="16"/>
     </row>
-    <row r="127" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="127" spans="2:12" ht="14.25">
       <c r="B127" s="39">
         <v>119</v>
       </c>
@@ -5874,7 +5867,7 @@
       <c r="K127" s="21"/>
       <c r="L127" s="16"/>
     </row>
-    <row r="128" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="128" spans="2:12" ht="14.25">
       <c r="B128" s="39">
         <v>120</v>
       </c>
@@ -5889,7 +5882,7 @@
       <c r="K128" s="21"/>
       <c r="L128" s="16"/>
     </row>
-    <row r="129" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="129" spans="2:12" ht="14.25">
       <c r="B129" s="39">
         <v>121</v>
       </c>
@@ -5904,7 +5897,7 @@
       <c r="K129" s="21"/>
       <c r="L129" s="16"/>
     </row>
-    <row r="130" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="130" spans="2:12" ht="14.25">
       <c r="B130" s="39">
         <v>122</v>
       </c>
@@ -5919,7 +5912,7 @@
       <c r="K130" s="21"/>
       <c r="L130" s="16"/>
     </row>
-    <row r="131" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="131" spans="2:12" ht="14.25">
       <c r="B131" s="39">
         <v>123</v>
       </c>
@@ -5934,7 +5927,7 @@
       <c r="K131" s="21"/>
       <c r="L131" s="16"/>
     </row>
-    <row r="132" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="132" spans="2:12" ht="14.25">
       <c r="B132" s="39">
         <v>124</v>
       </c>
@@ -5949,7 +5942,7 @@
       <c r="K132" s="21"/>
       <c r="L132" s="16"/>
     </row>
-    <row r="133" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="133" spans="2:12" ht="14.25">
       <c r="B133" s="39">
         <v>125</v>
       </c>
@@ -5964,7 +5957,7 @@
       <c r="K133" s="21"/>
       <c r="L133" s="16"/>
     </row>
-    <row r="134" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="134" spans="2:12" ht="14.25">
       <c r="B134" s="39">
         <v>126</v>
       </c>
@@ -5979,7 +5972,7 @@
       <c r="K134" s="21"/>
       <c r="L134" s="16"/>
     </row>
-    <row r="135" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="135" spans="2:12" ht="14.25">
       <c r="B135" s="39">
         <v>127</v>
       </c>
@@ -5994,7 +5987,7 @@
       <c r="K135" s="21"/>
       <c r="L135" s="16"/>
     </row>
-    <row r="136" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="136" spans="2:12" ht="14.25">
       <c r="B136" s="39">
         <v>128</v>
       </c>
@@ -6009,7 +6002,7 @@
       <c r="K136" s="21"/>
       <c r="L136" s="16"/>
     </row>
-    <row r="137" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="137" spans="2:12" ht="14.25">
       <c r="B137" s="39">
         <v>129</v>
       </c>
@@ -6024,7 +6017,7 @@
       <c r="K137" s="21"/>
       <c r="L137" s="16"/>
     </row>
-    <row r="138" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="138" spans="2:12" ht="14.25">
       <c r="B138" s="39">
         <v>130</v>
       </c>
@@ -6039,7 +6032,7 @@
       <c r="K138" s="21"/>
       <c r="L138" s="16"/>
     </row>
-    <row r="139" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="139" spans="2:12" ht="14.25">
       <c r="B139" s="39">
         <v>131</v>
       </c>
@@ -6054,7 +6047,7 @@
       <c r="K139" s="21"/>
       <c r="L139" s="16"/>
     </row>
-    <row r="140" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="140" spans="2:12" ht="14.25">
       <c r="B140" s="39">
         <v>132</v>
       </c>
@@ -6069,7 +6062,7 @@
       <c r="K140" s="21"/>
       <c r="L140" s="16"/>
     </row>
-    <row r="141" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="141" spans="2:12" ht="14.25">
       <c r="B141" s="39">
         <v>133</v>
       </c>
@@ -6084,7 +6077,7 @@
       <c r="K141" s="21"/>
       <c r="L141" s="16"/>
     </row>
-    <row r="142" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="142" spans="2:12" ht="14.25">
       <c r="B142" s="39">
         <v>134</v>
       </c>
@@ -6099,7 +6092,7 @@
       <c r="K142" s="21"/>
       <c r="L142" s="16"/>
     </row>
-    <row r="143" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="143" spans="2:12" ht="14.25">
       <c r="B143" s="39">
         <v>135</v>
       </c>
@@ -6114,7 +6107,7 @@
       <c r="K143" s="21"/>
       <c r="L143" s="16"/>
     </row>
-    <row r="144" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="144" spans="2:12" ht="14.25">
       <c r="B144" s="39">
         <v>136</v>
       </c>
@@ -6129,7 +6122,7 @@
       <c r="K144" s="21"/>
       <c r="L144" s="16"/>
     </row>
-    <row r="145" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:12" ht="14.25">
       <c r="B145" s="39">
         <v>137</v>
       </c>
@@ -6144,7 +6137,7 @@
       <c r="K145" s="21"/>
       <c r="L145" s="16"/>
     </row>
-    <row r="146" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="146" spans="2:12" ht="14.25">
       <c r="B146" s="39">
         <v>138</v>
       </c>
@@ -6159,7 +6152,7 @@
       <c r="K146" s="21"/>
       <c r="L146" s="16"/>
     </row>
-    <row r="147" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:12" ht="14.25">
       <c r="B147" s="39">
         <v>139</v>
       </c>
@@ -6174,7 +6167,7 @@
       <c r="K147" s="21"/>
       <c r="L147" s="16"/>
     </row>
-    <row r="148" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="148" spans="2:12" ht="14.25">
       <c r="B148" s="39">
         <v>140</v>
       </c>
@@ -6189,7 +6182,7 @@
       <c r="K148" s="21"/>
       <c r="L148" s="16"/>
     </row>
-    <row r="149" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="149" spans="2:12" ht="14.25">
       <c r="B149" s="39">
         <v>141</v>
       </c>
@@ -6204,7 +6197,7 @@
       <c r="K149" s="21"/>
       <c r="L149" s="16"/>
     </row>
-    <row r="150" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="150" spans="2:12" ht="14.25">
       <c r="B150" s="39">
         <v>142</v>
       </c>
@@ -6219,7 +6212,7 @@
       <c r="K150" s="21"/>
       <c r="L150" s="16"/>
     </row>
-    <row r="151" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="151" spans="2:12" ht="14.25">
       <c r="B151" s="39">
         <v>143</v>
       </c>
@@ -6234,7 +6227,7 @@
       <c r="K151" s="21"/>
       <c r="L151" s="16"/>
     </row>
-    <row r="152" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="152" spans="2:12" ht="14.25">
       <c r="B152" s="39">
         <v>144</v>
       </c>
@@ -6249,7 +6242,7 @@
       <c r="K152" s="21"/>
       <c r="L152" s="16"/>
     </row>
-    <row r="153" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="153" spans="2:12" ht="14.25">
       <c r="B153" s="39">
         <v>145</v>
       </c>
@@ -6264,7 +6257,7 @@
       <c r="K153" s="21"/>
       <c r="L153" s="16"/>
     </row>
-    <row r="154" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="154" spans="2:12" ht="14.25">
       <c r="B154" s="39">
         <v>146</v>
       </c>
@@ -6279,7 +6272,7 @@
       <c r="K154" s="21"/>
       <c r="L154" s="16"/>
     </row>
-    <row r="155" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="155" spans="2:12" ht="14.25">
       <c r="B155" s="39">
         <v>147</v>
       </c>
@@ -6294,7 +6287,7 @@
       <c r="K155" s="21"/>
       <c r="L155" s="16"/>
     </row>
-    <row r="156" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="156" spans="2:12" ht="14.25">
       <c r="B156" s="39">
         <v>148</v>
       </c>
@@ -6309,7 +6302,7 @@
       <c r="K156" s="21"/>
       <c r="L156" s="16"/>
     </row>
-    <row r="157" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="157" spans="2:12" ht="14.25">
       <c r="B157" s="39">
         <v>149</v>
       </c>
@@ -6324,7 +6317,7 @@
       <c r="K157" s="21"/>
       <c r="L157" s="16"/>
     </row>
-    <row r="158" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="158" spans="2:12" ht="14.25">
       <c r="B158" s="39">
         <v>150</v>
       </c>
@@ -6339,7 +6332,7 @@
       <c r="K158" s="21"/>
       <c r="L158" s="16"/>
     </row>
-    <row r="159" spans="2:12" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="159" spans="2:12" ht="14.25">
       <c r="B159" s="39">
        